--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Desktop\Respaldo_Susana\Enero2021\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2F637C-40FF-4F96-97EF-2279741588EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C348D571-D99B-44C2-BBB5-EB02C77F1BF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -908,6 +908,9 @@
   <si>
     <t>2021/Enero</t>
   </si>
+  <si>
+    <t>2021/Febrero</t>
+  </si>
 </sst>
 </file>
 
@@ -1631,12 +1634,14 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2018,11 +2023,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IS40"/>
+  <dimension ref="A1:IT40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="IT15" sqref="IT15"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2270,22 +2275,22 @@
     <col min="250" max="250" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="15.81640625" style="7" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="15.453125" style="7" customWidth="1"/>
-    <col min="253" max="253" width="12.26953125" style="7" customWidth="1"/>
+    <col min="253" max="254" width="12.26953125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:253" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:254" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:253" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:254" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:253" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:253" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+    <row r="3" spans="1:254" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:254" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
         <v>280</v>
       </c>
       <c r="B4" s="18">
@@ -3038,15 +3043,18 @@
       <c r="IQ4" s="30">
         <v>2020</v>
       </c>
-      <c r="IR4" s="31">
+      <c r="IR4" s="30">
         <v>2020</v>
       </c>
-      <c r="IS4" s="31">
+      <c r="IS4" s="29">
         <v>2021</v>
       </c>
+      <c r="IT4" s="31">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:253" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:254" x14ac:dyDescent="0.35">
+      <c r="A5" s="35"/>
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -3797,14 +3805,17 @@
       <c r="IQ5" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="IR5" s="35" t="s">
+      <c r="IR5" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="IS5" s="35" t="s">
+      <c r="IS5" s="36" t="s">
         <v>288</v>
       </c>
+      <c r="IT5" s="37" t="s">
+        <v>289</v>
+      </c>
     </row>
-    <row r="6" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>230</v>
       </c>
@@ -4558,14 +4569,17 @@
       <c r="IQ6" s="3">
         <v>327014</v>
       </c>
-      <c r="IR6" s="36">
+      <c r="IR6" s="3">
         <v>321424</v>
       </c>
-      <c r="IS6" s="36">
+      <c r="IS6" s="13">
         <v>328665</v>
       </c>
+      <c r="IT6" s="15">
+        <v>330675</v>
+      </c>
     </row>
-    <row r="7" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>231</v>
       </c>
@@ -5319,14 +5333,17 @@
       <c r="IQ7" s="14">
         <v>936250</v>
       </c>
-      <c r="IR7" s="15">
+      <c r="IR7" s="14">
         <v>917848</v>
       </c>
-      <c r="IS7" s="15">
+      <c r="IS7" s="13">
         <v>933958</v>
       </c>
+      <c r="IT7" s="15">
+        <v>970897</v>
+      </c>
     </row>
-    <row r="8" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>232</v>
       </c>
@@ -6080,14 +6097,17 @@
       <c r="IQ8" s="14">
         <v>177524</v>
       </c>
-      <c r="IR8" s="15">
+      <c r="IR8" s="14">
         <v>169371</v>
       </c>
-      <c r="IS8" s="15">
+      <c r="IS8" s="13">
         <v>167022</v>
       </c>
+      <c r="IT8" s="15">
+        <v>167746</v>
+      </c>
     </row>
-    <row r="9" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>233</v>
       </c>
@@ -6841,14 +6861,17 @@
       <c r="IQ9" s="14">
         <v>126613</v>
       </c>
-      <c r="IR9" s="15">
+      <c r="IR9" s="14">
         <v>125731</v>
       </c>
-      <c r="IS9" s="15">
+      <c r="IS9" s="13">
         <v>126216</v>
       </c>
+      <c r="IT9" s="15">
+        <v>127199</v>
+      </c>
     </row>
-    <row r="10" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>234</v>
       </c>
@@ -7602,14 +7625,17 @@
       <c r="IQ10" s="14">
         <v>222218</v>
       </c>
-      <c r="IR10" s="15">
+      <c r="IR10" s="14">
         <v>221463</v>
       </c>
-      <c r="IS10" s="15">
+      <c r="IS10" s="13">
         <v>218863</v>
       </c>
+      <c r="IT10" s="15">
+        <v>223027</v>
+      </c>
     </row>
-    <row r="11" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>235</v>
       </c>
@@ -8363,14 +8389,17 @@
       <c r="IQ11" s="14">
         <v>915483</v>
       </c>
-      <c r="IR11" s="15">
+      <c r="IR11" s="14">
         <v>903594</v>
       </c>
-      <c r="IS11" s="15">
+      <c r="IS11" s="13">
         <v>913562</v>
       </c>
+      <c r="IT11" s="15">
+        <v>915962</v>
+      </c>
     </row>
-    <row r="12" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>236</v>
       </c>
@@ -9124,14 +9153,17 @@
       <c r="IQ12" s="14">
         <v>3309725</v>
       </c>
-      <c r="IR12" s="15">
+      <c r="IR12" s="14">
         <v>3246669</v>
       </c>
-      <c r="IS12" s="15">
+      <c r="IS12" s="13">
         <v>3217900</v>
       </c>
+      <c r="IT12" s="15">
+        <v>3216913</v>
+      </c>
     </row>
-    <row r="13" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>237</v>
       </c>
@@ -9885,14 +9917,17 @@
       <c r="IQ13" s="14">
         <v>766974</v>
       </c>
-      <c r="IR13" s="15">
+      <c r="IR13" s="14">
         <v>757509</v>
       </c>
-      <c r="IS13" s="15">
+      <c r="IS13" s="13">
         <v>763042</v>
       </c>
+      <c r="IT13" s="15">
+        <v>766489</v>
+      </c>
     </row>
-    <row r="14" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>238</v>
       </c>
@@ -10646,14 +10681,17 @@
       <c r="IQ14" s="14">
         <v>135668</v>
       </c>
-      <c r="IR14" s="15">
+      <c r="IR14" s="14">
         <v>135054</v>
       </c>
-      <c r="IS14" s="15">
+      <c r="IS14" s="13">
         <v>135627</v>
       </c>
+      <c r="IT14" s="15">
+        <v>137020</v>
+      </c>
     </row>
-    <row r="15" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>239</v>
       </c>
@@ -11407,14 +11445,17 @@
       <c r="IQ15" s="14">
         <v>243874</v>
       </c>
-      <c r="IR15" s="15">
+      <c r="IR15" s="14">
         <v>239136</v>
       </c>
-      <c r="IS15" s="15">
+      <c r="IS15" s="13">
         <v>241106</v>
       </c>
+      <c r="IT15" s="15">
+        <v>241978</v>
+      </c>
     </row>
-    <row r="16" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>240</v>
       </c>
@@ -12168,14 +12209,17 @@
       <c r="IQ16" s="14">
         <v>1619262</v>
       </c>
-      <c r="IR16" s="15">
+      <c r="IR16" s="14">
         <v>1593415</v>
       </c>
-      <c r="IS16" s="15">
+      <c r="IS16" s="13">
         <v>1594259</v>
       </c>
+      <c r="IT16" s="15">
+        <v>1603856</v>
+      </c>
     </row>
-    <row r="17" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>241</v>
       </c>
@@ -12929,14 +12973,17 @@
       <c r="IQ17" s="14">
         <v>991033</v>
       </c>
-      <c r="IR17" s="15">
+      <c r="IR17" s="14">
         <v>977112</v>
       </c>
-      <c r="IS17" s="15">
+      <c r="IS17" s="13">
         <v>981708</v>
       </c>
+      <c r="IT17" s="15">
+        <v>985130</v>
+      </c>
     </row>
-    <row r="18" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>242</v>
       </c>
@@ -13690,14 +13737,17 @@
       <c r="IQ18" s="14">
         <v>147726</v>
       </c>
-      <c r="IR18" s="15">
+      <c r="IR18" s="14">
         <v>146771</v>
       </c>
-      <c r="IS18" s="15">
+      <c r="IS18" s="13">
         <v>142961</v>
       </c>
+      <c r="IT18" s="15">
+        <v>143318</v>
+      </c>
     </row>
-    <row r="19" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>243</v>
       </c>
@@ -14451,14 +14501,17 @@
       <c r="IQ19" s="14">
         <v>224121</v>
       </c>
-      <c r="IR19" s="15">
+      <c r="IR19" s="14">
         <v>218499</v>
       </c>
-      <c r="IS19" s="15">
+      <c r="IS19" s="13">
         <v>221013</v>
       </c>
+      <c r="IT19" s="15">
+        <v>222065</v>
+      </c>
     </row>
-    <row r="20" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>244</v>
       </c>
@@ -15212,14 +15265,17 @@
       <c r="IQ20" s="27">
         <v>1805269</v>
       </c>
-      <c r="IR20" s="28">
+      <c r="IR20" s="27">
         <v>1780367</v>
       </c>
-      <c r="IS20" s="28">
+      <c r="IS20" s="26">
         <v>1787122</v>
       </c>
+      <c r="IT20" s="28">
+        <v>1800733</v>
+      </c>
     </row>
-    <row r="21" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>245</v>
       </c>
@@ -15973,14 +16029,17 @@
       <c r="IQ21" s="14">
         <v>460765</v>
       </c>
-      <c r="IR21" s="15">
+      <c r="IR21" s="14">
         <v>458777</v>
       </c>
-      <c r="IS21" s="15">
+      <c r="IS21" s="13">
         <v>456103</v>
       </c>
+      <c r="IT21" s="15">
+        <v>462035</v>
+      </c>
     </row>
-    <row r="22" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>246</v>
       </c>
@@ -16734,14 +16793,17 @@
       <c r="IQ22" s="14">
         <v>207126</v>
       </c>
-      <c r="IR22" s="15">
+      <c r="IR22" s="14">
         <v>205308</v>
       </c>
-      <c r="IS22" s="15">
+      <c r="IS22" s="13">
         <v>205548</v>
       </c>
+      <c r="IT22" s="15">
+        <v>206050</v>
+      </c>
     </row>
-    <row r="23" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>247</v>
       </c>
@@ -17495,14 +17557,17 @@
       <c r="IQ23" s="14">
         <v>149959</v>
       </c>
-      <c r="IR23" s="15">
+      <c r="IR23" s="14">
         <v>149477</v>
       </c>
-      <c r="IS23" s="15">
+      <c r="IS23" s="13">
         <v>150458</v>
       </c>
+      <c r="IT23" s="15">
+        <v>151811</v>
+      </c>
     </row>
-    <row r="24" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>248</v>
       </c>
@@ -18256,14 +18321,17 @@
       <c r="IQ24" s="14">
         <v>1635486</v>
       </c>
-      <c r="IR24" s="15">
+      <c r="IR24" s="14">
         <v>1610325</v>
       </c>
-      <c r="IS24" s="15">
+      <c r="IS24" s="13">
         <v>1619232</v>
       </c>
+      <c r="IT24" s="15">
+        <v>1626135</v>
+      </c>
     </row>
-    <row r="25" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>249</v>
       </c>
@@ -19017,14 +19085,17 @@
       <c r="IQ25" s="14">
         <v>214850</v>
       </c>
-      <c r="IR25" s="15">
+      <c r="IR25" s="14">
         <v>213965</v>
       </c>
-      <c r="IS25" s="15">
+      <c r="IS25" s="13">
         <v>212835</v>
       </c>
+      <c r="IT25" s="15">
+        <v>208345</v>
+      </c>
     </row>
-    <row r="26" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>250</v>
       </c>
@@ -19778,14 +19849,17 @@
       <c r="IQ26" s="14">
         <v>595897</v>
       </c>
-      <c r="IR26" s="15">
+      <c r="IR26" s="14">
         <v>590229</v>
       </c>
-      <c r="IS26" s="15">
+      <c r="IS26" s="13">
         <v>586200</v>
       </c>
+      <c r="IT26" s="15">
+        <v>589535</v>
+      </c>
     </row>
-    <row r="27" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>251</v>
       </c>
@@ -20539,14 +20613,17 @@
       <c r="IQ27" s="14">
         <v>603612</v>
       </c>
-      <c r="IR27" s="15">
+      <c r="IR27" s="14">
         <v>595496</v>
       </c>
-      <c r="IS27" s="15">
+      <c r="IS27" s="13">
         <v>600127</v>
       </c>
+      <c r="IT27" s="15">
+        <v>606706</v>
+      </c>
     </row>
-    <row r="28" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>252</v>
       </c>
@@ -21300,14 +21377,17 @@
       <c r="IQ28" s="14">
         <v>370055</v>
       </c>
-      <c r="IR28" s="15">
+      <c r="IR28" s="14">
         <v>365783</v>
       </c>
-      <c r="IS28" s="15">
+      <c r="IS28" s="13">
         <v>362807</v>
       </c>
+      <c r="IT28" s="15">
+        <v>363772</v>
+      </c>
     </row>
-    <row r="29" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>253</v>
       </c>
@@ -22061,14 +22141,17 @@
       <c r="IQ29" s="14">
         <v>445552</v>
       </c>
-      <c r="IR29" s="15">
+      <c r="IR29" s="14">
         <v>440501</v>
       </c>
-      <c r="IS29" s="15">
+      <c r="IS29" s="13">
         <v>444131</v>
       </c>
+      <c r="IT29" s="15">
+        <v>447419</v>
+      </c>
     </row>
-    <row r="30" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>254</v>
       </c>
@@ -22822,14 +22905,17 @@
       <c r="IQ30" s="14">
         <v>565897</v>
       </c>
-      <c r="IR30" s="15">
+      <c r="IR30" s="14">
         <v>570100</v>
       </c>
-      <c r="IS30" s="15">
+      <c r="IS30" s="13">
         <v>577248</v>
       </c>
+      <c r="IT30" s="15">
+        <v>581325</v>
+      </c>
     </row>
-    <row r="31" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>255</v>
       </c>
@@ -23583,14 +23669,17 @@
       <c r="IQ31" s="14">
         <v>617112</v>
       </c>
-      <c r="IR31" s="15">
+      <c r="IR31" s="14">
         <v>602703</v>
       </c>
-      <c r="IS31" s="15">
+      <c r="IS31" s="13">
         <v>614706</v>
       </c>
+      <c r="IT31" s="15">
+        <v>597596</v>
+      </c>
     </row>
-    <row r="32" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>256</v>
       </c>
@@ -24344,14 +24433,17 @@
       <c r="IQ32" s="14">
         <v>176822</v>
       </c>
-      <c r="IR32" s="15">
+      <c r="IR32" s="14">
         <v>174213</v>
       </c>
-      <c r="IS32" s="15">
+      <c r="IS32" s="13">
         <v>175361</v>
       </c>
+      <c r="IT32" s="15">
+        <v>179307</v>
+      </c>
     </row>
-    <row r="33" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>257</v>
       </c>
@@ -25105,14 +25197,17 @@
       <c r="IQ33" s="14">
         <v>669683</v>
       </c>
-      <c r="IR33" s="15">
+      <c r="IR33" s="14">
         <v>656892</v>
       </c>
-      <c r="IS33" s="15">
+      <c r="IS33" s="13">
         <v>661466</v>
       </c>
+      <c r="IT33" s="15">
+        <v>682804</v>
+      </c>
     </row>
-    <row r="34" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>258</v>
       </c>
@@ -25866,14 +25961,17 @@
       <c r="IQ34" s="14">
         <v>101238</v>
       </c>
-      <c r="IR34" s="15">
+      <c r="IR34" s="14">
         <v>99057</v>
       </c>
-      <c r="IS34" s="15">
+      <c r="IS34" s="13">
         <v>99545</v>
       </c>
+      <c r="IT34" s="15">
+        <v>101686</v>
+      </c>
     </row>
-    <row r="35" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>259</v>
       </c>
@@ -26627,14 +26725,17 @@
       <c r="IQ35" s="14">
         <v>733396</v>
       </c>
-      <c r="IR35" s="15">
+      <c r="IR35" s="14">
         <v>735414</v>
       </c>
-      <c r="IS35" s="15">
+      <c r="IS35" s="13">
         <v>731911</v>
       </c>
+      <c r="IT35" s="15">
+        <v>723182</v>
+      </c>
     </row>
-    <row r="36" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>260</v>
       </c>
@@ -27388,14 +27489,17 @@
       <c r="IQ36" s="14">
         <v>367448</v>
       </c>
-      <c r="IR36" s="15">
+      <c r="IR36" s="14">
         <v>364449</v>
       </c>
-      <c r="IS36" s="15">
+      <c r="IS36" s="13">
         <v>364457</v>
       </c>
+      <c r="IT36" s="15">
+        <v>368320</v>
+      </c>
     </row>
-    <row r="37" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>261</v>
       </c>
@@ -28149,14 +28253,17 @@
       <c r="IQ37" s="14">
         <v>187900</v>
       </c>
-      <c r="IR37" s="15">
+      <c r="IR37" s="14">
         <v>187080</v>
       </c>
-      <c r="IS37" s="15">
+      <c r="IS37" s="13">
         <v>186492</v>
       </c>
+      <c r="IT37" s="15">
+        <v>187902</v>
+      </c>
     </row>
-    <row r="38" spans="1:253" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>264</v>
       </c>
@@ -28910,14 +29017,17 @@
       <c r="IQ38" s="10">
         <v>20051552</v>
       </c>
-      <c r="IR38" s="11">
+      <c r="IR38" s="10">
         <v>19773732</v>
       </c>
-      <c r="IS38" s="11">
+      <c r="IS38" s="16">
         <v>19821651</v>
       </c>
+      <c r="IT38" s="11">
+        <v>19936938</v>
+      </c>
     </row>
-    <row r="40" spans="1:253" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:254" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>262</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C348D571-D99B-44C2-BBB5-EB02C77F1BF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895217D7-8F2C-47B4-9275-412FFA8866E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1634,14 +1634,14 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2027,7 +2027,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="3" spans="1:254" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="37" t="s">
         <v>280</v>
       </c>
       <c r="B4" s="18">
@@ -3054,7 +3054,7 @@
       </c>
     </row>
     <row r="5" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -3808,10 +3808,10 @@
       <c r="IR5" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="IS5" s="36" t="s">
+      <c r="IS5" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="IT5" s="37" t="s">
+      <c r="IT5" s="36" t="s">
         <v>289</v>
       </c>
     </row>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895217D7-8F2C-47B4-9275-412FFA8866E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="ta entidades" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -911,11 +910,14 @@
   <si>
     <t>2021/Febrero</t>
   </si>
+  <si>
+    <t>2021/Marzo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1572,7 +1574,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1622,9 +1624,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1640,6 +1639,16 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1778,23 +1787,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1830,23 +1822,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2022,275 +1997,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IT40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IU40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="IV16" sqref="IV16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="16" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="16" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="11" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="16" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="13" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="11" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="16" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="13" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="11" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="16" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="13" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="11" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="16" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="13" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="11" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="16" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="13" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="11" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="119" max="119" width="16" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="13" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="11" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="16" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="134" max="134" width="13" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="137" max="137" width="11" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="16" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="146" max="146" width="13" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="11" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="155" max="155" width="16" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="158" max="158" width="13" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="161" max="161" width="11" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="167" max="167" width="16" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="170" max="170" width="13" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="173" max="173" width="11" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="179" max="179" width="16" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="182" max="182" width="13" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="185" max="185" width="11" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="191" max="191" width="16" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="194" max="194" width="13" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="197" max="197" width="11" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="203" max="203" width="16" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="206" max="206" width="13" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="208" max="208" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="209" max="209" width="11" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="210" max="210" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="211" max="211" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="212" max="212" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="215" max="215" width="16" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="216" max="216" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="218" max="218" width="13" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="219" max="219" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="220" max="220" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="221" max="221" width="11" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="223" max="223" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="224" max="224" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="227" max="227" width="16" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="229" max="229" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="230" max="230" width="13" bestFit="1" customWidth="1"/>
     <col min="231" max="231" width="13" style="7" customWidth="1"/>
-    <col min="232" max="232" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="11.453125" style="7"/>
-    <col min="237" max="237" width="16.1796875" customWidth="1"/>
+    <col min="232" max="232" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="11.42578125" style="7"/>
+    <col min="237" max="237" width="16.140625" customWidth="1"/>
     <col min="238" max="238" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="15.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="240" max="240" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="12.7265625" customWidth="1"/>
-    <col min="247" max="248" width="11.453125" style="7"/>
-    <col min="249" max="249" width="16.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="12.7109375" customWidth="1"/>
+    <col min="247" max="248" width="11.42578125" style="7"/>
+    <col min="249" max="249" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="250" max="250" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="15.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="15.453125" style="7" customWidth="1"/>
-    <col min="253" max="254" width="12.26953125" style="7" customWidth="1"/>
+    <col min="251" max="251" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="252" max="252" width="15.42578125" style="7" customWidth="1"/>
+    <col min="253" max="255" width="12.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:254" s="7" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+    <row r="3" spans="1:255" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>280</v>
       </c>
       <c r="B4" s="18">
@@ -3046,15 +3021,18 @@
       <c r="IR4" s="30">
         <v>2020</v>
       </c>
-      <c r="IS4" s="29">
+      <c r="IS4" s="36">
         <v>2021</v>
       </c>
-      <c r="IT4" s="31">
+      <c r="IT4" s="37">
         <v>2021</v>
       </c>
+      <c r="IU4" s="38">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:254" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:255" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -3772,50 +3750,53 @@
       <c r="IF5" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="IG5" s="32" t="s">
+      <c r="IG5" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="IH5" s="33" t="s">
+      <c r="IH5" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="II5" s="33" t="s">
+      <c r="II5" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="IJ5" s="33" t="s">
+      <c r="IJ5" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="IK5" s="34" t="s">
+      <c r="IK5" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="IL5" s="34" t="s">
+      <c r="IL5" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="IM5" s="34" t="s">
+      <c r="IM5" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="IN5" s="34" t="s">
+      <c r="IN5" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="IO5" s="34" t="s">
+      <c r="IO5" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="IP5" s="34" t="s">
+      <c r="IP5" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="IQ5" s="34" t="s">
+      <c r="IQ5" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="IR5" s="34" t="s">
+      <c r="IR5" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="IS5" s="35" t="s">
+      <c r="IS5" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="IT5" s="36" t="s">
+      <c r="IT5" s="21" t="s">
         <v>289</v>
       </c>
+      <c r="IU5" s="35" t="s">
+        <v>290</v>
+      </c>
     </row>
-    <row r="6" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>230</v>
       </c>
@@ -4572,14 +4553,17 @@
       <c r="IR6" s="3">
         <v>321424</v>
       </c>
-      <c r="IS6" s="13">
+      <c r="IS6" s="2">
         <v>328665</v>
       </c>
-      <c r="IT6" s="15">
+      <c r="IT6" s="3">
         <v>330675</v>
       </c>
+      <c r="IU6" s="39">
+        <v>331624</v>
+      </c>
     </row>
-    <row r="7" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>231</v>
       </c>
@@ -5339,11 +5323,14 @@
       <c r="IS7" s="13">
         <v>933958</v>
       </c>
-      <c r="IT7" s="15">
+      <c r="IT7" s="14">
         <v>970897</v>
       </c>
+      <c r="IU7" s="15">
+        <v>955422</v>
+      </c>
     </row>
-    <row r="8" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>232</v>
       </c>
@@ -6103,11 +6090,14 @@
       <c r="IS8" s="13">
         <v>167022</v>
       </c>
-      <c r="IT8" s="15">
+      <c r="IT8" s="14">
         <v>167746</v>
       </c>
+      <c r="IU8" s="15">
+        <v>169372</v>
+      </c>
     </row>
-    <row r="9" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>233</v>
       </c>
@@ -6867,11 +6857,14 @@
       <c r="IS9" s="13">
         <v>126216</v>
       </c>
-      <c r="IT9" s="15">
+      <c r="IT9" s="14">
         <v>127199</v>
       </c>
+      <c r="IU9" s="15">
+        <v>127450</v>
+      </c>
     </row>
-    <row r="10" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>234</v>
       </c>
@@ -7631,11 +7624,14 @@
       <c r="IS10" s="13">
         <v>218863</v>
       </c>
-      <c r="IT10" s="15">
+      <c r="IT10" s="14">
         <v>223027</v>
       </c>
+      <c r="IU10" s="15">
+        <v>226046</v>
+      </c>
     </row>
-    <row r="11" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>235</v>
       </c>
@@ -8395,11 +8391,14 @@
       <c r="IS11" s="13">
         <v>913562</v>
       </c>
-      <c r="IT11" s="15">
+      <c r="IT11" s="14">
         <v>915962</v>
       </c>
+      <c r="IU11" s="15">
+        <v>920933</v>
+      </c>
     </row>
-    <row r="12" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>236</v>
       </c>
@@ -9159,11 +9158,14 @@
       <c r="IS12" s="13">
         <v>3217900</v>
       </c>
-      <c r="IT12" s="15">
+      <c r="IT12" s="14">
         <v>3216913</v>
       </c>
+      <c r="IU12" s="15">
+        <v>3213626</v>
+      </c>
     </row>
-    <row r="13" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>237</v>
       </c>
@@ -9923,11 +9925,14 @@
       <c r="IS13" s="13">
         <v>763042</v>
       </c>
-      <c r="IT13" s="15">
+      <c r="IT13" s="14">
         <v>766489</v>
       </c>
+      <c r="IU13" s="15">
+        <v>768242</v>
+      </c>
     </row>
-    <row r="14" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>238</v>
       </c>
@@ -10687,11 +10692,14 @@
       <c r="IS14" s="13">
         <v>135627</v>
       </c>
-      <c r="IT14" s="15">
+      <c r="IT14" s="14">
         <v>137020</v>
       </c>
+      <c r="IU14" s="15">
+        <v>137676</v>
+      </c>
     </row>
-    <row r="15" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>239</v>
       </c>
@@ -11451,11 +11459,14 @@
       <c r="IS15" s="13">
         <v>241106</v>
       </c>
-      <c r="IT15" s="15">
+      <c r="IT15" s="14">
         <v>241978</v>
       </c>
+      <c r="IU15" s="15">
+        <v>241968</v>
+      </c>
     </row>
-    <row r="16" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>240</v>
       </c>
@@ -12215,11 +12226,14 @@
       <c r="IS16" s="13">
         <v>1594259</v>
       </c>
-      <c r="IT16" s="15">
+      <c r="IT16" s="14">
         <v>1603856</v>
       </c>
+      <c r="IU16" s="15">
+        <v>1606884</v>
+      </c>
     </row>
-    <row r="17" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>241</v>
       </c>
@@ -12979,11 +12993,14 @@
       <c r="IS17" s="13">
         <v>981708</v>
       </c>
-      <c r="IT17" s="15">
+      <c r="IT17" s="14">
         <v>985130</v>
       </c>
+      <c r="IU17" s="15">
+        <v>990290</v>
+      </c>
     </row>
-    <row r="18" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>242</v>
       </c>
@@ -13743,11 +13760,14 @@
       <c r="IS18" s="13">
         <v>142961</v>
       </c>
-      <c r="IT18" s="15">
+      <c r="IT18" s="14">
         <v>143318</v>
       </c>
+      <c r="IU18" s="15">
+        <v>147015</v>
+      </c>
     </row>
-    <row r="19" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>243</v>
       </c>
@@ -14507,11 +14527,14 @@
       <c r="IS19" s="13">
         <v>221013</v>
       </c>
-      <c r="IT19" s="15">
+      <c r="IT19" s="14">
         <v>222065</v>
       </c>
+      <c r="IU19" s="15">
+        <v>222938</v>
+      </c>
     </row>
-    <row r="20" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>244</v>
       </c>
@@ -15271,11 +15294,14 @@
       <c r="IS20" s="26">
         <v>1787122</v>
       </c>
-      <c r="IT20" s="28">
+      <c r="IT20" s="27">
         <v>1800733</v>
       </c>
+      <c r="IU20" s="28">
+        <v>1803619</v>
+      </c>
     </row>
-    <row r="21" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>245</v>
       </c>
@@ -16035,11 +16061,14 @@
       <c r="IS21" s="13">
         <v>456103</v>
       </c>
-      <c r="IT21" s="15">
+      <c r="IT21" s="14">
         <v>462035</v>
       </c>
+      <c r="IU21" s="15">
+        <v>459523</v>
+      </c>
     </row>
-    <row r="22" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>246</v>
       </c>
@@ -16799,11 +16828,14 @@
       <c r="IS22" s="13">
         <v>205548</v>
       </c>
-      <c r="IT22" s="15">
+      <c r="IT22" s="14">
         <v>206050</v>
       </c>
+      <c r="IU22" s="15">
+        <v>205760</v>
+      </c>
     </row>
-    <row r="23" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>247</v>
       </c>
@@ -17563,11 +17595,14 @@
       <c r="IS23" s="13">
         <v>150458</v>
       </c>
-      <c r="IT23" s="15">
+      <c r="IT23" s="14">
         <v>151811</v>
       </c>
+      <c r="IU23" s="15">
+        <v>152744</v>
+      </c>
     </row>
-    <row r="24" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>248</v>
       </c>
@@ -18327,11 +18362,14 @@
       <c r="IS24" s="13">
         <v>1619232</v>
       </c>
-      <c r="IT24" s="15">
+      <c r="IT24" s="14">
         <v>1626135</v>
       </c>
+      <c r="IU24" s="15">
+        <v>1638815</v>
+      </c>
     </row>
-    <row r="25" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>249</v>
       </c>
@@ -19091,11 +19129,14 @@
       <c r="IS25" s="13">
         <v>212835</v>
       </c>
-      <c r="IT25" s="15">
+      <c r="IT25" s="14">
         <v>208345</v>
       </c>
+      <c r="IU25" s="15">
+        <v>212499</v>
+      </c>
     </row>
-    <row r="26" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>250</v>
       </c>
@@ -19855,11 +19896,14 @@
       <c r="IS26" s="13">
         <v>586200</v>
       </c>
-      <c r="IT26" s="15">
+      <c r="IT26" s="14">
         <v>589535</v>
       </c>
+      <c r="IU26" s="15">
+        <v>592445</v>
+      </c>
     </row>
-    <row r="27" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>251</v>
       </c>
@@ -20619,11 +20663,14 @@
       <c r="IS27" s="13">
         <v>600127</v>
       </c>
-      <c r="IT27" s="15">
+      <c r="IT27" s="14">
         <v>606706</v>
       </c>
+      <c r="IU27" s="15">
+        <v>611101</v>
+      </c>
     </row>
-    <row r="28" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>252</v>
       </c>
@@ -21383,11 +21430,14 @@
       <c r="IS28" s="13">
         <v>362807</v>
       </c>
-      <c r="IT28" s="15">
+      <c r="IT28" s="14">
         <v>363772</v>
       </c>
+      <c r="IU28" s="15">
+        <v>377825</v>
+      </c>
     </row>
-    <row r="29" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>253</v>
       </c>
@@ -22147,11 +22197,14 @@
       <c r="IS29" s="13">
         <v>444131</v>
       </c>
-      <c r="IT29" s="15">
+      <c r="IT29" s="14">
         <v>447419</v>
       </c>
+      <c r="IU29" s="15">
+        <v>447825</v>
+      </c>
     </row>
-    <row r="30" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>254</v>
       </c>
@@ -22911,11 +22964,14 @@
       <c r="IS30" s="13">
         <v>577248</v>
       </c>
-      <c r="IT30" s="15">
+      <c r="IT30" s="14">
         <v>581325</v>
       </c>
+      <c r="IU30" s="15">
+        <v>586460</v>
+      </c>
     </row>
-    <row r="31" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>255</v>
       </c>
@@ -23675,11 +23731,14 @@
       <c r="IS31" s="13">
         <v>614706</v>
       </c>
-      <c r="IT31" s="15">
+      <c r="IT31" s="14">
         <v>597596</v>
       </c>
+      <c r="IU31" s="15">
+        <v>632288</v>
+      </c>
     </row>
-    <row r="32" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>256</v>
       </c>
@@ -24439,11 +24498,14 @@
       <c r="IS32" s="13">
         <v>175361</v>
       </c>
-      <c r="IT32" s="15">
+      <c r="IT32" s="14">
         <v>179307</v>
       </c>
+      <c r="IU32" s="15">
+        <v>185038</v>
+      </c>
     </row>
-    <row r="33" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>257</v>
       </c>
@@ -25203,11 +25265,14 @@
       <c r="IS33" s="13">
         <v>661466</v>
       </c>
-      <c r="IT33" s="15">
+      <c r="IT33" s="14">
         <v>682804</v>
       </c>
+      <c r="IU33" s="15">
+        <v>667463</v>
+      </c>
     </row>
-    <row r="34" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>258</v>
       </c>
@@ -25967,11 +26032,14 @@
       <c r="IS34" s="13">
         <v>99545</v>
       </c>
-      <c r="IT34" s="15">
+      <c r="IT34" s="14">
         <v>101686</v>
       </c>
+      <c r="IU34" s="15">
+        <v>102821</v>
+      </c>
     </row>
-    <row r="35" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>259</v>
       </c>
@@ -26731,11 +26799,14 @@
       <c r="IS35" s="13">
         <v>731911</v>
       </c>
-      <c r="IT35" s="15">
+      <c r="IT35" s="14">
         <v>723182</v>
       </c>
+      <c r="IU35" s="15">
+        <v>729835</v>
+      </c>
     </row>
-    <row r="36" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>260</v>
       </c>
@@ -27495,11 +27566,14 @@
       <c r="IS36" s="13">
         <v>364457</v>
       </c>
-      <c r="IT36" s="15">
+      <c r="IT36" s="14">
         <v>368320</v>
       </c>
+      <c r="IU36" s="15">
+        <v>371003</v>
+      </c>
     </row>
-    <row r="37" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>261</v>
       </c>
@@ -28259,11 +28333,14 @@
       <c r="IS37" s="13">
         <v>186492</v>
       </c>
-      <c r="IT37" s="15">
+      <c r="IT37" s="14">
         <v>187902</v>
       </c>
+      <c r="IU37" s="15">
+        <v>189159</v>
+      </c>
     </row>
-    <row r="38" spans="1:254" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>264</v>
       </c>
@@ -29023,11 +29100,15 @@
       <c r="IS38" s="16">
         <v>19821651</v>
       </c>
-      <c r="IT38" s="11">
+      <c r="IT38" s="10">
         <v>19936938</v>
       </c>
+      <c r="IU38" s="11">
+        <f>SUM(IU6:IU37)</f>
+        <v>20025709</v>
+      </c>
     </row>
-    <row r="40" spans="1:254" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:255" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>262</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -912,6 +912,9 @@
   </si>
   <si>
     <t>2021/Marzo</t>
+  </si>
+  <si>
+    <t>2021/Abril</t>
   </si>
 </sst>
 </file>
@@ -1998,11 +2001,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU40"/>
+  <dimension ref="A1:IV40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="IV16" sqref="IV16"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,21 +2253,21 @@
     <col min="250" max="250" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="15.42578125" style="7" customWidth="1"/>
-    <col min="253" max="255" width="12.28515625" style="7" customWidth="1"/>
+    <col min="253" max="256" width="12.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:255" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>280</v>
       </c>
@@ -3027,11 +3030,14 @@
       <c r="IT4" s="37">
         <v>2021</v>
       </c>
-      <c r="IU4" s="38">
+      <c r="IU4" s="37">
         <v>2021</v>
       </c>
+      <c r="IV4" s="38">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="9" t="s">
         <v>0</v>
@@ -3792,11 +3798,14 @@
       <c r="IT5" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="IU5" s="35" t="s">
+      <c r="IU5" s="21" t="s">
         <v>290</v>
       </c>
+      <c r="IV5" s="35" t="s">
+        <v>291</v>
+      </c>
     </row>
-    <row r="6" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>230</v>
       </c>
@@ -4559,11 +4568,14 @@
       <c r="IT6" s="3">
         <v>330675</v>
       </c>
-      <c r="IU6" s="39">
+      <c r="IU6" s="3">
         <v>331624</v>
       </c>
+      <c r="IV6" s="39">
+        <v>331492</v>
+      </c>
     </row>
-    <row r="7" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>231</v>
       </c>
@@ -5326,11 +5338,14 @@
       <c r="IT7" s="14">
         <v>970897</v>
       </c>
-      <c r="IU7" s="15">
+      <c r="IU7" s="14">
         <v>955422</v>
       </c>
+      <c r="IV7" s="15">
+        <v>982827</v>
+      </c>
     </row>
-    <row r="8" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>232</v>
       </c>
@@ -6093,11 +6108,14 @@
       <c r="IT8" s="14">
         <v>167746</v>
       </c>
-      <c r="IU8" s="15">
+      <c r="IU8" s="14">
         <v>169372</v>
       </c>
+      <c r="IV8" s="15">
+        <v>172839</v>
+      </c>
     </row>
-    <row r="9" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>233</v>
       </c>
@@ -6860,11 +6878,14 @@
       <c r="IT9" s="14">
         <v>127199</v>
       </c>
-      <c r="IU9" s="15">
+      <c r="IU9" s="14">
         <v>127450</v>
       </c>
+      <c r="IV9" s="15">
+        <v>128729</v>
+      </c>
     </row>
-    <row r="10" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>234</v>
       </c>
@@ -7627,11 +7648,14 @@
       <c r="IT10" s="14">
         <v>223027</v>
       </c>
-      <c r="IU10" s="15">
+      <c r="IU10" s="14">
         <v>226046</v>
       </c>
+      <c r="IV10" s="15">
+        <v>228147</v>
+      </c>
     </row>
-    <row r="11" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>235</v>
       </c>
@@ -8394,11 +8418,14 @@
       <c r="IT11" s="14">
         <v>915962</v>
       </c>
-      <c r="IU11" s="15">
+      <c r="IU11" s="14">
         <v>920933</v>
       </c>
+      <c r="IV11" s="15">
+        <v>925796</v>
+      </c>
     </row>
-    <row r="12" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>236</v>
       </c>
@@ -9161,11 +9188,14 @@
       <c r="IT12" s="14">
         <v>3216913</v>
       </c>
-      <c r="IU12" s="15">
+      <c r="IU12" s="14">
         <v>3213626</v>
       </c>
+      <c r="IV12" s="15">
+        <v>3216137</v>
+      </c>
     </row>
-    <row r="13" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>237</v>
       </c>
@@ -9928,11 +9958,14 @@
       <c r="IT13" s="14">
         <v>766489</v>
       </c>
-      <c r="IU13" s="15">
+      <c r="IU13" s="14">
         <v>768242</v>
       </c>
+      <c r="IV13" s="15">
+        <v>771042</v>
+      </c>
     </row>
-    <row r="14" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>238</v>
       </c>
@@ -10695,11 +10728,14 @@
       <c r="IT14" s="14">
         <v>137020</v>
       </c>
-      <c r="IU14" s="15">
+      <c r="IU14" s="14">
         <v>137676</v>
       </c>
+      <c r="IV14" s="15">
+        <v>137842</v>
+      </c>
     </row>
-    <row r="15" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>239</v>
       </c>
@@ -11462,11 +11498,14 @@
       <c r="IT15" s="14">
         <v>241978</v>
       </c>
-      <c r="IU15" s="15">
+      <c r="IU15" s="14">
         <v>241968</v>
       </c>
+      <c r="IV15" s="15">
+        <v>243118</v>
+      </c>
     </row>
-    <row r="16" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>240</v>
       </c>
@@ -12229,11 +12268,14 @@
       <c r="IT16" s="14">
         <v>1603856</v>
       </c>
-      <c r="IU16" s="15">
+      <c r="IU16" s="14">
         <v>1606884</v>
       </c>
+      <c r="IV16" s="15">
+        <v>1613698</v>
+      </c>
     </row>
-    <row r="17" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>241</v>
       </c>
@@ -12996,11 +13038,14 @@
       <c r="IT17" s="14">
         <v>985130</v>
       </c>
-      <c r="IU17" s="15">
+      <c r="IU17" s="14">
         <v>990290</v>
       </c>
+      <c r="IV17" s="15">
+        <v>990113</v>
+      </c>
     </row>
-    <row r="18" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>242</v>
       </c>
@@ -13763,11 +13808,14 @@
       <c r="IT18" s="14">
         <v>143318</v>
       </c>
-      <c r="IU18" s="15">
+      <c r="IU18" s="14">
         <v>147015</v>
       </c>
+      <c r="IV18" s="15">
+        <v>147121</v>
+      </c>
     </row>
-    <row r="19" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>243</v>
       </c>
@@ -14530,11 +14578,14 @@
       <c r="IT19" s="14">
         <v>222065</v>
       </c>
-      <c r="IU19" s="15">
+      <c r="IU19" s="14">
         <v>222938</v>
       </c>
+      <c r="IV19" s="15">
+        <v>222289</v>
+      </c>
     </row>
-    <row r="20" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>244</v>
       </c>
@@ -15297,11 +15348,14 @@
       <c r="IT20" s="27">
         <v>1800733</v>
       </c>
-      <c r="IU20" s="28">
+      <c r="IU20" s="27">
         <v>1803619</v>
       </c>
+      <c r="IV20" s="28">
+        <v>1810884</v>
+      </c>
     </row>
-    <row r="21" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>245</v>
       </c>
@@ -16064,11 +16118,14 @@
       <c r="IT21" s="14">
         <v>462035</v>
       </c>
-      <c r="IU21" s="15">
+      <c r="IU21" s="14">
         <v>459523</v>
       </c>
+      <c r="IV21" s="15">
+        <v>460254</v>
+      </c>
     </row>
-    <row r="22" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>246</v>
       </c>
@@ -16831,11 +16888,14 @@
       <c r="IT22" s="14">
         <v>206050</v>
       </c>
-      <c r="IU22" s="15">
+      <c r="IU22" s="14">
         <v>205760</v>
       </c>
+      <c r="IV22" s="15">
+        <v>205634</v>
+      </c>
     </row>
-    <row r="23" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>247</v>
       </c>
@@ -17598,11 +17658,14 @@
       <c r="IT23" s="14">
         <v>151811</v>
       </c>
-      <c r="IU23" s="15">
+      <c r="IU23" s="14">
         <v>152744</v>
       </c>
+      <c r="IV23" s="15">
+        <v>155031</v>
+      </c>
     </row>
-    <row r="24" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>248</v>
       </c>
@@ -18365,11 +18428,14 @@
       <c r="IT24" s="14">
         <v>1626135</v>
       </c>
-      <c r="IU24" s="15">
+      <c r="IU24" s="14">
         <v>1638815</v>
       </c>
+      <c r="IV24" s="15">
+        <v>1648923</v>
+      </c>
     </row>
-    <row r="25" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>249</v>
       </c>
@@ -19132,11 +19198,14 @@
       <c r="IT25" s="14">
         <v>208345</v>
       </c>
-      <c r="IU25" s="15">
+      <c r="IU25" s="14">
         <v>212499</v>
       </c>
+      <c r="IV25" s="15">
+        <v>208305</v>
+      </c>
     </row>
-    <row r="26" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>250</v>
       </c>
@@ -19899,11 +19968,14 @@
       <c r="IT26" s="14">
         <v>589535</v>
       </c>
-      <c r="IU26" s="15">
+      <c r="IU26" s="14">
         <v>592445</v>
       </c>
+      <c r="IV26" s="15">
+        <v>592577</v>
+      </c>
     </row>
-    <row r="27" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>251</v>
       </c>
@@ -20666,11 +20738,14 @@
       <c r="IT27" s="14">
         <v>606706</v>
       </c>
-      <c r="IU27" s="15">
+      <c r="IU27" s="14">
         <v>611101</v>
       </c>
+      <c r="IV27" s="15">
+        <v>614757</v>
+      </c>
     </row>
-    <row r="28" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>252</v>
       </c>
@@ -21433,11 +21508,14 @@
       <c r="IT28" s="14">
         <v>363772</v>
       </c>
-      <c r="IU28" s="15">
+      <c r="IU28" s="14">
         <v>377825</v>
       </c>
+      <c r="IV28" s="15">
+        <v>384821</v>
+      </c>
     </row>
-    <row r="29" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>253</v>
       </c>
@@ -22200,11 +22278,14 @@
       <c r="IT29" s="14">
         <v>447419</v>
       </c>
-      <c r="IU29" s="15">
+      <c r="IU29" s="14">
         <v>447825</v>
       </c>
+      <c r="IV29" s="15">
+        <v>447102</v>
+      </c>
     </row>
-    <row r="30" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>254</v>
       </c>
@@ -22967,11 +23048,14 @@
       <c r="IT30" s="14">
         <v>581325</v>
       </c>
-      <c r="IU30" s="15">
+      <c r="IU30" s="14">
         <v>586460</v>
       </c>
+      <c r="IV30" s="15">
+        <v>583413</v>
+      </c>
     </row>
-    <row r="31" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>255</v>
       </c>
@@ -23734,11 +23818,14 @@
       <c r="IT31" s="14">
         <v>597596</v>
       </c>
-      <c r="IU31" s="15">
+      <c r="IU31" s="14">
         <v>632288</v>
       </c>
+      <c r="IV31" s="15">
+        <v>597526</v>
+      </c>
     </row>
-    <row r="32" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>256</v>
       </c>
@@ -24501,11 +24588,14 @@
       <c r="IT32" s="14">
         <v>179307</v>
       </c>
-      <c r="IU32" s="15">
+      <c r="IU32" s="14">
         <v>185038</v>
       </c>
+      <c r="IV32" s="15">
+        <v>188355</v>
+      </c>
     </row>
-    <row r="33" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>257</v>
       </c>
@@ -25268,11 +25358,14 @@
       <c r="IT33" s="14">
         <v>682804</v>
       </c>
-      <c r="IU33" s="15">
+      <c r="IU33" s="14">
         <v>667463</v>
       </c>
+      <c r="IV33" s="15">
+        <v>682255</v>
+      </c>
     </row>
-    <row r="34" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>258</v>
       </c>
@@ -26035,11 +26128,14 @@
       <c r="IT34" s="14">
         <v>101686</v>
       </c>
-      <c r="IU34" s="15">
+      <c r="IU34" s="14">
         <v>102821</v>
       </c>
+      <c r="IV34" s="15">
+        <v>102990</v>
+      </c>
     </row>
-    <row r="35" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>259</v>
       </c>
@@ -26802,11 +26898,14 @@
       <c r="IT35" s="14">
         <v>723182</v>
       </c>
-      <c r="IU35" s="15">
+      <c r="IU35" s="14">
         <v>729835</v>
       </c>
+      <c r="IV35" s="15">
+        <v>714724</v>
+      </c>
     </row>
-    <row r="36" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>260</v>
       </c>
@@ -27569,11 +27668,14 @@
       <c r="IT36" s="14">
         <v>368320</v>
       </c>
-      <c r="IU36" s="15">
+      <c r="IU36" s="14">
         <v>371003</v>
       </c>
+      <c r="IV36" s="15">
+        <v>372085</v>
+      </c>
     </row>
-    <row r="37" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>261</v>
       </c>
@@ -28336,11 +28438,14 @@
       <c r="IT37" s="14">
         <v>187902</v>
       </c>
-      <c r="IU37" s="15">
+      <c r="IU37" s="14">
         <v>189159</v>
       </c>
+      <c r="IV37" s="15">
+        <v>189657</v>
+      </c>
     </row>
-    <row r="38" spans="1:255" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>264</v>
       </c>
@@ -29103,12 +29208,14 @@
       <c r="IT38" s="10">
         <v>19936938</v>
       </c>
-      <c r="IU38" s="11">
-        <f>SUM(IU6:IU37)</f>
+      <c r="IU38" s="10">
         <v>20025709</v>
       </c>
+      <c r="IV38" s="11">
+        <v>20070483</v>
+      </c>
     </row>
-    <row r="40" spans="1:255" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>262</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -916,6 +916,9 @@
   <si>
     <t>2021/Abril</t>
   </si>
+  <si>
+    <t>2021/Mayo</t>
+  </si>
 </sst>
 </file>
 
@@ -1284,7 +1287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1531,6 +1534,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1577,7 +1591,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1655,6 +1669,7 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2001,11 +2016,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV40"/>
+  <dimension ref="A1:IW40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,21 +2268,21 @@
     <col min="250" max="250" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="15.42578125" style="7" customWidth="1"/>
-    <col min="253" max="256" width="12.28515625" style="7" customWidth="1"/>
+    <col min="253" max="257" width="12.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>280</v>
       </c>
@@ -3033,11 +3048,14 @@
       <c r="IU4" s="37">
         <v>2021</v>
       </c>
-      <c r="IV4" s="38">
+      <c r="IV4" s="37">
         <v>2021</v>
       </c>
+      <c r="IW4" s="38">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="9" t="s">
         <v>0</v>
@@ -3801,11 +3819,14 @@
       <c r="IU5" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="IV5" s="35" t="s">
+      <c r="IV5" s="21" t="s">
         <v>291</v>
       </c>
+      <c r="IW5" s="35" t="s">
+        <v>292</v>
+      </c>
     </row>
-    <row r="6" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>230</v>
       </c>
@@ -4571,11 +4592,14 @@
       <c r="IU6" s="3">
         <v>331624</v>
       </c>
-      <c r="IV6" s="39">
+      <c r="IV6" s="3">
         <v>331492</v>
       </c>
+      <c r="IW6" s="39">
+        <v>331878</v>
+      </c>
     </row>
-    <row r="7" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>231</v>
       </c>
@@ -5341,11 +5365,14 @@
       <c r="IU7" s="14">
         <v>955422</v>
       </c>
-      <c r="IV7" s="15">
+      <c r="IV7" s="14">
         <v>982827</v>
       </c>
+      <c r="IW7" s="15">
+        <v>989878</v>
+      </c>
     </row>
-    <row r="8" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>232</v>
       </c>
@@ -6111,11 +6138,14 @@
       <c r="IU8" s="14">
         <v>169372</v>
       </c>
-      <c r="IV8" s="15">
+      <c r="IV8" s="14">
         <v>172839</v>
       </c>
+      <c r="IW8" s="15">
+        <v>177308</v>
+      </c>
     </row>
-    <row r="9" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>233</v>
       </c>
@@ -6881,11 +6911,14 @@
       <c r="IU9" s="14">
         <v>127450</v>
       </c>
-      <c r="IV9" s="15">
+      <c r="IV9" s="14">
         <v>128729</v>
       </c>
+      <c r="IW9" s="15">
+        <v>129262</v>
+      </c>
     </row>
-    <row r="10" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>234</v>
       </c>
@@ -7651,11 +7684,14 @@
       <c r="IU10" s="14">
         <v>226046</v>
       </c>
-      <c r="IV10" s="15">
+      <c r="IV10" s="14">
         <v>228147</v>
       </c>
+      <c r="IW10" s="15">
+        <v>223454</v>
+      </c>
     </row>
-    <row r="11" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>235</v>
       </c>
@@ -8421,11 +8457,14 @@
       <c r="IU11" s="14">
         <v>920933</v>
       </c>
-      <c r="IV11" s="15">
+      <c r="IV11" s="14">
         <v>925796</v>
       </c>
+      <c r="IW11" s="15">
+        <v>928687</v>
+      </c>
     </row>
-    <row r="12" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>236</v>
       </c>
@@ -9191,11 +9230,14 @@
       <c r="IU12" s="14">
         <v>3213626</v>
       </c>
-      <c r="IV12" s="15">
+      <c r="IV12" s="14">
         <v>3216137</v>
       </c>
+      <c r="IW12" s="15">
+        <v>3236212</v>
+      </c>
     </row>
-    <row r="13" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>237</v>
       </c>
@@ -9961,11 +10003,14 @@
       <c r="IU13" s="14">
         <v>768242</v>
       </c>
-      <c r="IV13" s="15">
+      <c r="IV13" s="14">
         <v>771042</v>
       </c>
+      <c r="IW13" s="15">
+        <v>771742</v>
+      </c>
     </row>
-    <row r="14" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>238</v>
       </c>
@@ -10731,11 +10776,14 @@
       <c r="IU14" s="14">
         <v>137676</v>
       </c>
-      <c r="IV14" s="15">
+      <c r="IV14" s="14">
         <v>137842</v>
       </c>
+      <c r="IW14" s="15">
+        <v>137819</v>
+      </c>
     </row>
-    <row r="15" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>239</v>
       </c>
@@ -11501,11 +11549,14 @@
       <c r="IU15" s="14">
         <v>241968</v>
       </c>
-      <c r="IV15" s="15">
+      <c r="IV15" s="14">
         <v>243118</v>
       </c>
+      <c r="IW15" s="15">
+        <v>243336</v>
+      </c>
     </row>
-    <row r="16" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>240</v>
       </c>
@@ -12271,11 +12322,14 @@
       <c r="IU16" s="14">
         <v>1606884</v>
       </c>
-      <c r="IV16" s="15">
+      <c r="IV16" s="14">
         <v>1613698</v>
       </c>
+      <c r="IW16" s="15">
+        <v>1620929</v>
+      </c>
     </row>
-    <row r="17" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>241</v>
       </c>
@@ -13041,11 +13095,14 @@
       <c r="IU17" s="14">
         <v>990290</v>
       </c>
-      <c r="IV17" s="15">
+      <c r="IV17" s="14">
         <v>990113</v>
       </c>
+      <c r="IW17" s="15">
+        <v>989630</v>
+      </c>
     </row>
-    <row r="18" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>242</v>
       </c>
@@ -13811,11 +13868,14 @@
       <c r="IU18" s="14">
         <v>147015</v>
       </c>
-      <c r="IV18" s="15">
+      <c r="IV18" s="14">
         <v>147121</v>
       </c>
+      <c r="IW18" s="15">
+        <v>147900</v>
+      </c>
     </row>
-    <row r="19" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>243</v>
       </c>
@@ -14581,11 +14641,14 @@
       <c r="IU19" s="14">
         <v>222938</v>
       </c>
-      <c r="IV19" s="15">
+      <c r="IV19" s="14">
         <v>222289</v>
       </c>
+      <c r="IW19" s="15">
+        <v>224565</v>
+      </c>
     </row>
-    <row r="20" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>244</v>
       </c>
@@ -15351,11 +15414,14 @@
       <c r="IU20" s="27">
         <v>1803619</v>
       </c>
-      <c r="IV20" s="28">
+      <c r="IV20" s="27">
         <v>1810884</v>
       </c>
+      <c r="IW20" s="28">
+        <v>1815607</v>
+      </c>
     </row>
-    <row r="21" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>245</v>
       </c>
@@ -16121,11 +16187,14 @@
       <c r="IU21" s="14">
         <v>459523</v>
       </c>
-      <c r="IV21" s="15">
+      <c r="IV21" s="14">
         <v>460254</v>
       </c>
+      <c r="IW21" s="15">
+        <v>458518</v>
+      </c>
     </row>
-    <row r="22" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>246</v>
       </c>
@@ -16891,11 +16960,14 @@
       <c r="IU22" s="14">
         <v>205760</v>
       </c>
-      <c r="IV22" s="15">
+      <c r="IV22" s="14">
         <v>205634</v>
       </c>
+      <c r="IW22" s="15">
+        <v>204820</v>
+      </c>
     </row>
-    <row r="23" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>247</v>
       </c>
@@ -17661,11 +17733,14 @@
       <c r="IU23" s="14">
         <v>152744</v>
       </c>
-      <c r="IV23" s="15">
+      <c r="IV23" s="14">
         <v>155031</v>
       </c>
+      <c r="IW23" s="15">
+        <v>156933</v>
+      </c>
     </row>
-    <row r="24" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>248</v>
       </c>
@@ -18431,11 +18506,14 @@
       <c r="IU24" s="14">
         <v>1638815</v>
       </c>
-      <c r="IV24" s="15">
+      <c r="IV24" s="14">
         <v>1648923</v>
       </c>
+      <c r="IW24" s="15">
+        <v>1651843</v>
+      </c>
     </row>
-    <row r="25" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>249</v>
       </c>
@@ -19201,11 +19279,14 @@
       <c r="IU25" s="14">
         <v>212499</v>
       </c>
-      <c r="IV25" s="15">
+      <c r="IV25" s="14">
         <v>208305</v>
       </c>
+      <c r="IW25" s="15">
+        <v>207266</v>
+      </c>
     </row>
-    <row r="26" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>250</v>
       </c>
@@ -19971,11 +20052,14 @@
       <c r="IU26" s="14">
         <v>592445</v>
       </c>
-      <c r="IV26" s="15">
+      <c r="IV26" s="14">
         <v>592577</v>
       </c>
+      <c r="IW26" s="15">
+        <v>590768</v>
+      </c>
     </row>
-    <row r="27" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>251</v>
       </c>
@@ -20741,11 +20825,14 @@
       <c r="IU27" s="14">
         <v>611101</v>
       </c>
-      <c r="IV27" s="15">
+      <c r="IV27" s="14">
         <v>614757</v>
       </c>
+      <c r="IW27" s="15">
+        <v>615626</v>
+      </c>
     </row>
-    <row r="28" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>252</v>
       </c>
@@ -21511,11 +21598,14 @@
       <c r="IU28" s="14">
         <v>377825</v>
       </c>
-      <c r="IV28" s="15">
+      <c r="IV28" s="14">
         <v>384821</v>
       </c>
+      <c r="IW28" s="15">
+        <v>396775</v>
+      </c>
     </row>
-    <row r="29" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>253</v>
       </c>
@@ -22281,11 +22371,14 @@
       <c r="IU29" s="14">
         <v>447825</v>
       </c>
-      <c r="IV29" s="15">
+      <c r="IV29" s="14">
         <v>447102</v>
       </c>
+      <c r="IW29" s="15">
+        <v>445758</v>
+      </c>
     </row>
-    <row r="30" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>254</v>
       </c>
@@ -23051,11 +23144,14 @@
       <c r="IU30" s="14">
         <v>586460</v>
       </c>
-      <c r="IV30" s="15">
+      <c r="IV30" s="14">
         <v>583413</v>
       </c>
+      <c r="IW30" s="15">
+        <v>569723</v>
+      </c>
     </row>
-    <row r="31" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>255</v>
       </c>
@@ -23821,11 +23917,14 @@
       <c r="IU31" s="14">
         <v>632288</v>
       </c>
-      <c r="IV31" s="15">
+      <c r="IV31" s="14">
         <v>597526</v>
       </c>
+      <c r="IW31" s="15">
+        <v>595612</v>
+      </c>
     </row>
-    <row r="32" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>256</v>
       </c>
@@ -24591,11 +24690,14 @@
       <c r="IU32" s="14">
         <v>185038</v>
       </c>
-      <c r="IV32" s="15">
+      <c r="IV32" s="14">
         <v>188355</v>
       </c>
+      <c r="IW32" s="15">
+        <v>193049</v>
+      </c>
     </row>
-    <row r="33" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>257</v>
       </c>
@@ -25361,11 +25463,14 @@
       <c r="IU33" s="14">
         <v>667463</v>
       </c>
-      <c r="IV33" s="15">
+      <c r="IV33" s="14">
         <v>682255</v>
       </c>
+      <c r="IW33" s="15">
+        <v>680062</v>
+      </c>
     </row>
-    <row r="34" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>258</v>
       </c>
@@ -26131,11 +26236,14 @@
       <c r="IU34" s="14">
         <v>102821</v>
       </c>
-      <c r="IV34" s="15">
+      <c r="IV34" s="14">
         <v>102990</v>
       </c>
+      <c r="IW34" s="15">
+        <v>103141</v>
+      </c>
     </row>
-    <row r="35" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>259</v>
       </c>
@@ -26901,11 +27009,14 @@
       <c r="IU35" s="14">
         <v>729835</v>
       </c>
-      <c r="IV35" s="15">
+      <c r="IV35" s="14">
         <v>714724</v>
       </c>
+      <c r="IW35" s="15">
+        <v>706384</v>
+      </c>
     </row>
-    <row r="36" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>260</v>
       </c>
@@ -27671,11 +27782,14 @@
       <c r="IU36" s="14">
         <v>371003</v>
       </c>
-      <c r="IV36" s="15">
+      <c r="IV36" s="14">
         <v>372085</v>
       </c>
+      <c r="IW36" s="15">
+        <v>375061</v>
+      </c>
     </row>
-    <row r="37" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>261</v>
       </c>
@@ -28432,20 +28546,23 @@
       <c r="IR37" s="14">
         <v>187080</v>
       </c>
-      <c r="IS37" s="13">
+      <c r="IS37" s="23">
         <v>186492</v>
       </c>
-      <c r="IT37" s="14">
+      <c r="IT37" s="24">
         <v>187902</v>
       </c>
-      <c r="IU37" s="14">
+      <c r="IU37" s="24">
         <v>189159</v>
       </c>
-      <c r="IV37" s="15">
+      <c r="IV37" s="24">
         <v>189657</v>
       </c>
+      <c r="IW37" s="41">
+        <v>189898</v>
+      </c>
     </row>
-    <row r="38" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>264</v>
       </c>
@@ -29211,11 +29328,14 @@
       <c r="IU38" s="10">
         <v>20025709</v>
       </c>
-      <c r="IV38" s="11">
+      <c r="IV38" s="10">
         <v>20070483</v>
       </c>
+      <c r="IW38" s="11">
+        <v>20109444</v>
+      </c>
     </row>
-    <row r="40" spans="1:256" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:257" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>262</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -919,6 +919,9 @@
   <si>
     <t>2021/Mayo</t>
   </si>
+  <si>
+    <t>2021/Junio</t>
+  </si>
 </sst>
 </file>
 
@@ -1666,10 +1669,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2016,11 +2019,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW40"/>
+  <dimension ref="A1:IX40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A29" sqref="A29"/>
+      <selection pane="topRight" activeCell="JC24" sqref="JC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,22 +2271,22 @@
     <col min="250" max="250" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="15.42578125" style="7" customWidth="1"/>
-    <col min="253" max="257" width="12.28515625" style="7" customWidth="1"/>
+    <col min="253" max="258" width="12.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:257" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:257" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="3" spans="1:258" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>280</v>
       </c>
       <c r="B4" s="18">
@@ -3051,12 +3054,15 @@
       <c r="IV4" s="37">
         <v>2021</v>
       </c>
-      <c r="IW4" s="38">
+      <c r="IW4" s="37">
         <v>2021</v>
       </c>
+      <c r="IX4" s="38">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:257" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+    <row r="5" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -3822,11 +3828,14 @@
       <c r="IV5" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="IW5" s="35" t="s">
+      <c r="IW5" s="21" t="s">
         <v>292</v>
       </c>
+      <c r="IX5" s="35" t="s">
+        <v>293</v>
+      </c>
     </row>
-    <row r="6" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>230</v>
       </c>
@@ -4595,11 +4604,14 @@
       <c r="IV6" s="3">
         <v>331492</v>
       </c>
-      <c r="IW6" s="39">
+      <c r="IW6" s="3">
         <v>331878</v>
       </c>
+      <c r="IX6" s="39">
+        <v>330146</v>
+      </c>
     </row>
-    <row r="7" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>231</v>
       </c>
@@ -5368,11 +5380,14 @@
       <c r="IV7" s="14">
         <v>982827</v>
       </c>
-      <c r="IW7" s="15">
+      <c r="IW7" s="14">
         <v>989878</v>
       </c>
+      <c r="IX7" s="15">
+        <v>989518</v>
+      </c>
     </row>
-    <row r="8" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>232</v>
       </c>
@@ -6141,11 +6156,14 @@
       <c r="IV8" s="14">
         <v>172839</v>
       </c>
-      <c r="IW8" s="15">
+      <c r="IW8" s="14">
         <v>177308</v>
       </c>
+      <c r="IX8" s="15">
+        <v>180020</v>
+      </c>
     </row>
-    <row r="9" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>233</v>
       </c>
@@ -6914,11 +6932,14 @@
       <c r="IV9" s="14">
         <v>128729</v>
       </c>
-      <c r="IW9" s="15">
+      <c r="IW9" s="14">
         <v>129262</v>
       </c>
+      <c r="IX9" s="15">
+        <v>128911</v>
+      </c>
     </row>
-    <row r="10" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>234</v>
       </c>
@@ -7687,11 +7708,14 @@
       <c r="IV10" s="14">
         <v>228147</v>
       </c>
-      <c r="IW10" s="15">
+      <c r="IW10" s="14">
         <v>223454</v>
       </c>
+      <c r="IX10" s="15">
+        <v>225406</v>
+      </c>
     </row>
-    <row r="11" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>235</v>
       </c>
@@ -8460,11 +8484,14 @@
       <c r="IV11" s="14">
         <v>925796</v>
       </c>
-      <c r="IW11" s="15">
+      <c r="IW11" s="14">
         <v>928687</v>
       </c>
+      <c r="IX11" s="15">
+        <v>931191</v>
+      </c>
     </row>
-    <row r="12" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>236</v>
       </c>
@@ -9233,11 +9260,14 @@
       <c r="IV12" s="14">
         <v>3216137</v>
       </c>
-      <c r="IW12" s="15">
+      <c r="IW12" s="14">
         <v>3236212</v>
       </c>
+      <c r="IX12" s="15">
+        <v>3230475</v>
+      </c>
     </row>
-    <row r="13" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>237</v>
       </c>
@@ -10006,11 +10036,14 @@
       <c r="IV13" s="14">
         <v>771042</v>
       </c>
-      <c r="IW13" s="15">
+      <c r="IW13" s="14">
         <v>771742</v>
       </c>
+      <c r="IX13" s="15">
+        <v>779285</v>
+      </c>
     </row>
-    <row r="14" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>238</v>
       </c>
@@ -10779,11 +10812,14 @@
       <c r="IV14" s="14">
         <v>137842</v>
       </c>
-      <c r="IW14" s="15">
+      <c r="IW14" s="14">
         <v>137819</v>
       </c>
+      <c r="IX14" s="15">
+        <v>139861</v>
+      </c>
     </row>
-    <row r="15" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>239</v>
       </c>
@@ -11552,11 +11588,14 @@
       <c r="IV15" s="14">
         <v>243118</v>
       </c>
-      <c r="IW15" s="15">
+      <c r="IW15" s="14">
         <v>243336</v>
       </c>
+      <c r="IX15" s="15">
+        <v>243680</v>
+      </c>
     </row>
-    <row r="16" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>240</v>
       </c>
@@ -12325,11 +12364,14 @@
       <c r="IV16" s="14">
         <v>1613698</v>
       </c>
-      <c r="IW16" s="15">
+      <c r="IW16" s="14">
         <v>1620929</v>
       </c>
+      <c r="IX16" s="15">
+        <v>1622778</v>
+      </c>
     </row>
-    <row r="17" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>241</v>
       </c>
@@ -13098,11 +13140,14 @@
       <c r="IV17" s="14">
         <v>990113</v>
       </c>
-      <c r="IW17" s="15">
+      <c r="IW17" s="14">
         <v>989630</v>
       </c>
+      <c r="IX17" s="15">
+        <v>996819</v>
+      </c>
     </row>
-    <row r="18" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>242</v>
       </c>
@@ -13871,11 +13916,14 @@
       <c r="IV18" s="14">
         <v>147121</v>
       </c>
-      <c r="IW18" s="15">
+      <c r="IW18" s="14">
         <v>147900</v>
       </c>
+      <c r="IX18" s="15">
+        <v>148621</v>
+      </c>
     </row>
-    <row r="19" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>243</v>
       </c>
@@ -14644,11 +14692,14 @@
       <c r="IV19" s="14">
         <v>222289</v>
       </c>
-      <c r="IW19" s="15">
+      <c r="IW19" s="14">
         <v>224565</v>
       </c>
+      <c r="IX19" s="15">
+        <v>226457</v>
+      </c>
     </row>
-    <row r="20" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>244</v>
       </c>
@@ -15417,11 +15468,14 @@
       <c r="IV20" s="27">
         <v>1810884</v>
       </c>
-      <c r="IW20" s="28">
+      <c r="IW20" s="27">
         <v>1815607</v>
       </c>
+      <c r="IX20" s="28">
+        <v>1820785</v>
+      </c>
     </row>
-    <row r="21" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>245</v>
       </c>
@@ -16190,11 +16244,14 @@
       <c r="IV21" s="14">
         <v>460254</v>
       </c>
-      <c r="IW21" s="15">
+      <c r="IW21" s="14">
         <v>458518</v>
       </c>
+      <c r="IX21" s="15">
+        <v>460645</v>
+      </c>
     </row>
-    <row r="22" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>246</v>
       </c>
@@ -16963,11 +17020,14 @@
       <c r="IV22" s="14">
         <v>205634</v>
       </c>
-      <c r="IW22" s="15">
+      <c r="IW22" s="14">
         <v>204820</v>
       </c>
+      <c r="IX22" s="15">
+        <v>203488</v>
+      </c>
     </row>
-    <row r="23" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>247</v>
       </c>
@@ -17736,11 +17796,14 @@
       <c r="IV23" s="14">
         <v>155031</v>
       </c>
-      <c r="IW23" s="15">
+      <c r="IW23" s="14">
         <v>156933</v>
       </c>
+      <c r="IX23" s="15">
+        <v>159031</v>
+      </c>
     </row>
-    <row r="24" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>248</v>
       </c>
@@ -18509,11 +18572,14 @@
       <c r="IV24" s="14">
         <v>1648923</v>
       </c>
-      <c r="IW24" s="15">
+      <c r="IW24" s="14">
         <v>1651843</v>
       </c>
+      <c r="IX24" s="15">
+        <v>1663165</v>
+      </c>
     </row>
-    <row r="25" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>249</v>
       </c>
@@ -19282,11 +19348,14 @@
       <c r="IV25" s="14">
         <v>208305</v>
       </c>
-      <c r="IW25" s="15">
+      <c r="IW25" s="14">
         <v>207266</v>
       </c>
+      <c r="IX25" s="15">
+        <v>208994</v>
+      </c>
     </row>
-    <row r="26" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>250</v>
       </c>
@@ -20055,11 +20124,14 @@
       <c r="IV26" s="14">
         <v>592577</v>
       </c>
-      <c r="IW26" s="15">
+      <c r="IW26" s="14">
         <v>590768</v>
       </c>
+      <c r="IX26" s="15">
+        <v>594915</v>
+      </c>
     </row>
-    <row r="27" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>251</v>
       </c>
@@ -20828,11 +20900,14 @@
       <c r="IV27" s="14">
         <v>614757</v>
       </c>
-      <c r="IW27" s="15">
+      <c r="IW27" s="14">
         <v>615626</v>
       </c>
+      <c r="IX27" s="15">
+        <v>618558</v>
+      </c>
     </row>
-    <row r="28" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>252</v>
       </c>
@@ -21601,11 +21676,14 @@
       <c r="IV28" s="14">
         <v>384821</v>
       </c>
-      <c r="IW28" s="15">
+      <c r="IW28" s="14">
         <v>396775</v>
       </c>
+      <c r="IX28" s="15">
+        <v>406636</v>
+      </c>
     </row>
-    <row r="29" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>253</v>
       </c>
@@ -22374,11 +22452,14 @@
       <c r="IV29" s="14">
         <v>447102</v>
       </c>
-      <c r="IW29" s="15">
+      <c r="IW29" s="14">
         <v>445758</v>
       </c>
+      <c r="IX29" s="15">
+        <v>450346</v>
+      </c>
     </row>
-    <row r="30" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>254</v>
       </c>
@@ -23147,11 +23228,14 @@
       <c r="IV30" s="14">
         <v>583413</v>
       </c>
-      <c r="IW30" s="15">
+      <c r="IW30" s="14">
         <v>569723</v>
       </c>
+      <c r="IX30" s="15">
+        <v>559597</v>
+      </c>
     </row>
-    <row r="31" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>255</v>
       </c>
@@ -23920,11 +24004,14 @@
       <c r="IV31" s="14">
         <v>597526</v>
       </c>
-      <c r="IW31" s="15">
+      <c r="IW31" s="14">
         <v>595612</v>
       </c>
+      <c r="IX31" s="15">
+        <v>595916</v>
+      </c>
     </row>
-    <row r="32" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>256</v>
       </c>
@@ -24693,11 +24780,14 @@
       <c r="IV32" s="14">
         <v>188355</v>
       </c>
-      <c r="IW32" s="15">
+      <c r="IW32" s="14">
         <v>193049</v>
       </c>
+      <c r="IX32" s="15">
+        <v>194993</v>
+      </c>
     </row>
-    <row r="33" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>257</v>
       </c>
@@ -25466,11 +25556,14 @@
       <c r="IV33" s="14">
         <v>682255</v>
       </c>
-      <c r="IW33" s="15">
+      <c r="IW33" s="14">
         <v>680062</v>
       </c>
+      <c r="IX33" s="15">
+        <v>684207</v>
+      </c>
     </row>
-    <row r="34" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>258</v>
       </c>
@@ -26239,11 +26332,14 @@
       <c r="IV34" s="14">
         <v>102990</v>
       </c>
-      <c r="IW34" s="15">
+      <c r="IW34" s="14">
         <v>103141</v>
       </c>
+      <c r="IX34" s="15">
+        <v>103302</v>
+      </c>
     </row>
-    <row r="35" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>259</v>
       </c>
@@ -27012,11 +27108,14 @@
       <c r="IV35" s="14">
         <v>714724</v>
       </c>
-      <c r="IW35" s="15">
+      <c r="IW35" s="14">
         <v>706384</v>
       </c>
+      <c r="IX35" s="15">
+        <v>707079</v>
+      </c>
     </row>
-    <row r="36" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>260</v>
       </c>
@@ -27785,11 +27884,14 @@
       <c r="IV36" s="14">
         <v>372085</v>
       </c>
-      <c r="IW36" s="15">
+      <c r="IW36" s="14">
         <v>375061</v>
       </c>
+      <c r="IX36" s="15">
+        <v>380707</v>
+      </c>
     </row>
-    <row r="37" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>261</v>
       </c>
@@ -28558,11 +28660,14 @@
       <c r="IV37" s="24">
         <v>189657</v>
       </c>
-      <c r="IW37" s="41">
+      <c r="IW37" s="24">
         <v>189898</v>
       </c>
+      <c r="IX37" s="40">
+        <v>189848</v>
+      </c>
     </row>
-    <row r="38" spans="1:257" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>264</v>
       </c>
@@ -29331,11 +29436,15 @@
       <c r="IV38" s="10">
         <v>20070483</v>
       </c>
-      <c r="IW38" s="11">
+      <c r="IW38" s="10">
         <v>20109444</v>
       </c>
+      <c r="IX38" s="11">
+        <f>SUM(IX6:IX37)</f>
+        <v>20175380</v>
+      </c>
     </row>
-    <row r="40" spans="1:257" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>262</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -922,6 +922,9 @@
   <si>
     <t>2021/Junio</t>
   </si>
+  <si>
+    <t>2021/Julio</t>
+  </si>
 </sst>
 </file>
 
@@ -1290,7 +1293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1526,28 +1529,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1594,7 +1575,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1668,8 +1649,6 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2019,11 +1998,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IX40"/>
+  <dimension ref="A1:IY40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JC24" sqref="JC24"/>
+      <selection pane="topRight" activeCell="JC37" sqref="JC37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,22 +2250,22 @@
     <col min="250" max="250" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="15.42578125" style="7" customWidth="1"/>
-    <col min="253" max="258" width="12.28515625" style="7" customWidth="1"/>
+    <col min="253" max="259" width="12.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:258" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="3" spans="1:259" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>280</v>
       </c>
       <c r="B4" s="18">
@@ -3057,12 +3036,15 @@
       <c r="IW4" s="37">
         <v>2021</v>
       </c>
-      <c r="IX4" s="38">
+      <c r="IX4" s="37">
         <v>2021</v>
       </c>
+      <c r="IY4" s="38">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+    <row r="5" spans="1:259" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -3831,11 +3813,14 @@
       <c r="IW5" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="IX5" s="35" t="s">
+      <c r="IX5" s="21" t="s">
         <v>293</v>
       </c>
+      <c r="IY5" s="35" t="s">
+        <v>294</v>
+      </c>
     </row>
-    <row r="6" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>230</v>
       </c>
@@ -4607,11 +4592,14 @@
       <c r="IW6" s="3">
         <v>331878</v>
       </c>
-      <c r="IX6" s="39">
+      <c r="IX6" s="3">
         <v>330146</v>
       </c>
+      <c r="IY6" s="15">
+        <v>333223</v>
+      </c>
     </row>
-    <row r="7" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>231</v>
       </c>
@@ -5383,11 +5371,14 @@
       <c r="IW7" s="14">
         <v>989878</v>
       </c>
-      <c r="IX7" s="15">
+      <c r="IX7" s="14">
         <v>989518</v>
       </c>
+      <c r="IY7" s="15">
+        <v>976970</v>
+      </c>
     </row>
-    <row r="8" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>232</v>
       </c>
@@ -6159,11 +6150,14 @@
       <c r="IW8" s="14">
         <v>177308</v>
       </c>
-      <c r="IX8" s="15">
+      <c r="IX8" s="14">
         <v>180020</v>
       </c>
+      <c r="IY8" s="15">
+        <v>182367</v>
+      </c>
     </row>
-    <row r="9" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>233</v>
       </c>
@@ -6935,11 +6929,14 @@
       <c r="IW9" s="14">
         <v>129262</v>
       </c>
-      <c r="IX9" s="15">
+      <c r="IX9" s="14">
         <v>128911</v>
       </c>
+      <c r="IY9" s="15">
+        <v>131962</v>
+      </c>
     </row>
-    <row r="10" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>234</v>
       </c>
@@ -7711,11 +7708,14 @@
       <c r="IW10" s="14">
         <v>223454</v>
       </c>
-      <c r="IX10" s="15">
+      <c r="IX10" s="14">
         <v>225406</v>
       </c>
+      <c r="IY10" s="15">
+        <v>229159</v>
+      </c>
     </row>
-    <row r="11" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>235</v>
       </c>
@@ -8487,11 +8487,14 @@
       <c r="IW11" s="14">
         <v>928687</v>
       </c>
-      <c r="IX11" s="15">
+      <c r="IX11" s="14">
         <v>931191</v>
       </c>
+      <c r="IY11" s="15">
+        <v>932271</v>
+      </c>
     </row>
-    <row r="12" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>236</v>
       </c>
@@ -9263,11 +9266,14 @@
       <c r="IW12" s="14">
         <v>3236212</v>
       </c>
-      <c r="IX12" s="15">
+      <c r="IX12" s="14">
         <v>3230475</v>
       </c>
+      <c r="IY12" s="15">
+        <v>3240746</v>
+      </c>
     </row>
-    <row r="13" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>237</v>
       </c>
@@ -10039,11 +10045,14 @@
       <c r="IW13" s="14">
         <v>771742</v>
       </c>
-      <c r="IX13" s="15">
+      <c r="IX13" s="14">
         <v>779285</v>
       </c>
+      <c r="IY13" s="15">
+        <v>786250</v>
+      </c>
     </row>
-    <row r="14" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>238</v>
       </c>
@@ -10815,11 +10824,14 @@
       <c r="IW14" s="14">
         <v>137819</v>
       </c>
-      <c r="IX14" s="15">
+      <c r="IX14" s="14">
         <v>139861</v>
       </c>
+      <c r="IY14" s="15">
+        <v>138862</v>
+      </c>
     </row>
-    <row r="15" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>239</v>
       </c>
@@ -11591,11 +11603,14 @@
       <c r="IW15" s="14">
         <v>243336</v>
       </c>
-      <c r="IX15" s="15">
+      <c r="IX15" s="14">
         <v>243680</v>
       </c>
+      <c r="IY15" s="15">
+        <v>248024</v>
+      </c>
     </row>
-    <row r="16" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>240</v>
       </c>
@@ -12367,11 +12382,14 @@
       <c r="IW16" s="14">
         <v>1620929</v>
       </c>
-      <c r="IX16" s="15">
+      <c r="IX16" s="14">
         <v>1622778</v>
       </c>
+      <c r="IY16" s="15">
+        <v>1611607</v>
+      </c>
     </row>
-    <row r="17" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>241</v>
       </c>
@@ -13143,11 +13161,14 @@
       <c r="IW17" s="14">
         <v>989630</v>
       </c>
-      <c r="IX17" s="15">
+      <c r="IX17" s="14">
         <v>996819</v>
       </c>
+      <c r="IY17" s="15">
+        <v>1008091</v>
+      </c>
     </row>
-    <row r="18" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>242</v>
       </c>
@@ -13919,11 +13940,14 @@
       <c r="IW18" s="14">
         <v>147900</v>
       </c>
-      <c r="IX18" s="15">
+      <c r="IX18" s="14">
         <v>148621</v>
       </c>
+      <c r="IY18" s="15">
+        <v>151226</v>
+      </c>
     </row>
-    <row r="19" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>243</v>
       </c>
@@ -14695,11 +14719,14 @@
       <c r="IW19" s="14">
         <v>224565</v>
       </c>
-      <c r="IX19" s="15">
+      <c r="IX19" s="14">
         <v>226457</v>
       </c>
+      <c r="IY19" s="15">
+        <v>229304</v>
+      </c>
     </row>
-    <row r="20" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>244</v>
       </c>
@@ -15471,11 +15498,14 @@
       <c r="IW20" s="27">
         <v>1815607</v>
       </c>
-      <c r="IX20" s="28">
+      <c r="IX20" s="27">
         <v>1820785</v>
       </c>
+      <c r="IY20" s="28">
+        <v>1826575</v>
+      </c>
     </row>
-    <row r="21" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>245</v>
       </c>
@@ -16247,11 +16277,14 @@
       <c r="IW21" s="14">
         <v>458518</v>
       </c>
-      <c r="IX21" s="15">
+      <c r="IX21" s="14">
         <v>460645</v>
       </c>
+      <c r="IY21" s="15">
+        <v>456175</v>
+      </c>
     </row>
-    <row r="22" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>246</v>
       </c>
@@ -17023,11 +17056,14 @@
       <c r="IW22" s="14">
         <v>204820</v>
       </c>
-      <c r="IX22" s="15">
+      <c r="IX22" s="14">
         <v>203488</v>
       </c>
+      <c r="IY22" s="15">
+        <v>205282</v>
+      </c>
     </row>
-    <row r="23" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>247</v>
       </c>
@@ -17799,11 +17835,14 @@
       <c r="IW23" s="14">
         <v>156933</v>
       </c>
-      <c r="IX23" s="15">
+      <c r="IX23" s="14">
         <v>159031</v>
       </c>
+      <c r="IY23" s="15">
+        <v>158791</v>
+      </c>
     </row>
-    <row r="24" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>248</v>
       </c>
@@ -18575,11 +18614,14 @@
       <c r="IW24" s="14">
         <v>1651843</v>
       </c>
-      <c r="IX24" s="15">
+      <c r="IX24" s="14">
         <v>1663165</v>
       </c>
+      <c r="IY24" s="15">
+        <v>1679301</v>
+      </c>
     </row>
-    <row r="25" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>249</v>
       </c>
@@ -19351,11 +19393,14 @@
       <c r="IW25" s="14">
         <v>207266</v>
       </c>
-      <c r="IX25" s="15">
+      <c r="IX25" s="14">
         <v>208994</v>
       </c>
+      <c r="IY25" s="15">
+        <v>213725</v>
+      </c>
     </row>
-    <row r="26" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>250</v>
       </c>
@@ -20127,11 +20172,14 @@
       <c r="IW26" s="14">
         <v>590768</v>
       </c>
-      <c r="IX26" s="15">
+      <c r="IX26" s="14">
         <v>594915</v>
       </c>
+      <c r="IY26" s="15">
+        <v>599636</v>
+      </c>
     </row>
-    <row r="27" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>251</v>
       </c>
@@ -20903,11 +20951,14 @@
       <c r="IW27" s="14">
         <v>615626</v>
       </c>
-      <c r="IX27" s="15">
+      <c r="IX27" s="14">
         <v>618558</v>
       </c>
+      <c r="IY27" s="15">
+        <v>622860</v>
+      </c>
     </row>
-    <row r="28" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>252</v>
       </c>
@@ -21679,11 +21730,14 @@
       <c r="IW28" s="14">
         <v>396775</v>
       </c>
-      <c r="IX28" s="15">
+      <c r="IX28" s="14">
         <v>406636</v>
       </c>
+      <c r="IY28" s="15">
+        <v>417457</v>
+      </c>
     </row>
-    <row r="29" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>253</v>
       </c>
@@ -22455,11 +22509,14 @@
       <c r="IW29" s="14">
         <v>445758</v>
       </c>
-      <c r="IX29" s="15">
+      <c r="IX29" s="14">
         <v>450346</v>
       </c>
+      <c r="IY29" s="15">
+        <v>453368</v>
+      </c>
     </row>
-    <row r="30" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>254</v>
       </c>
@@ -23231,11 +23288,14 @@
       <c r="IW30" s="14">
         <v>569723</v>
       </c>
-      <c r="IX30" s="15">
+      <c r="IX30" s="14">
         <v>559597</v>
       </c>
+      <c r="IY30" s="15">
+        <v>566809</v>
+      </c>
     </row>
-    <row r="31" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>255</v>
       </c>
@@ -24007,11 +24067,14 @@
       <c r="IW31" s="14">
         <v>595612</v>
       </c>
-      <c r="IX31" s="15">
+      <c r="IX31" s="14">
         <v>595916</v>
       </c>
+      <c r="IY31" s="15">
+        <v>621188</v>
+      </c>
     </row>
-    <row r="32" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>256</v>
       </c>
@@ -24783,11 +24846,14 @@
       <c r="IW32" s="14">
         <v>193049</v>
       </c>
-      <c r="IX32" s="15">
+      <c r="IX32" s="14">
         <v>194993</v>
       </c>
+      <c r="IY32" s="15">
+        <v>200421</v>
+      </c>
     </row>
-    <row r="33" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>257</v>
       </c>
@@ -25559,11 +25625,14 @@
       <c r="IW33" s="14">
         <v>680062</v>
       </c>
-      <c r="IX33" s="15">
+      <c r="IX33" s="14">
         <v>684207</v>
       </c>
+      <c r="IY33" s="15">
+        <v>676578</v>
+      </c>
     </row>
-    <row r="34" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>258</v>
       </c>
@@ -26335,11 +26404,14 @@
       <c r="IW34" s="14">
         <v>103141</v>
       </c>
-      <c r="IX34" s="15">
+      <c r="IX34" s="14">
         <v>103302</v>
       </c>
+      <c r="IY34" s="15">
+        <v>104407</v>
+      </c>
     </row>
-    <row r="35" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>259</v>
       </c>
@@ -27111,11 +27183,14 @@
       <c r="IW35" s="14">
         <v>706384</v>
       </c>
-      <c r="IX35" s="15">
+      <c r="IX35" s="14">
         <v>707079</v>
       </c>
+      <c r="IY35" s="15">
+        <v>719529</v>
+      </c>
     </row>
-    <row r="36" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>260</v>
       </c>
@@ -27887,11 +27962,14 @@
       <c r="IW36" s="14">
         <v>375061</v>
       </c>
-      <c r="IX36" s="15">
+      <c r="IX36" s="14">
         <v>380707</v>
       </c>
+      <c r="IY36" s="15">
+        <v>378786</v>
+      </c>
     </row>
-    <row r="37" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>261</v>
       </c>
@@ -28663,11 +28741,14 @@
       <c r="IW37" s="24">
         <v>189898</v>
       </c>
-      <c r="IX37" s="40">
+      <c r="IX37" s="24">
         <v>189848</v>
       </c>
+      <c r="IY37" s="15">
+        <v>190973</v>
+      </c>
     </row>
-    <row r="38" spans="1:258" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>264</v>
       </c>
@@ -29439,12 +29520,15 @@
       <c r="IW38" s="10">
         <v>20109444</v>
       </c>
-      <c r="IX38" s="11">
+      <c r="IX38" s="10">
         <f>SUM(IX6:IX37)</f>
         <v>20175380</v>
       </c>
+      <c r="IY38" s="11">
+        <v>20291923</v>
+      </c>
     </row>
-    <row r="40" spans="1:258" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:259" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>262</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t>2000/Enero</t>
   </si>
@@ -925,6 +925,9 @@
   <si>
     <t>2021/Julio</t>
   </si>
+  <si>
+    <t>2021/Agosto</t>
+  </si>
 </sst>
 </file>
 
@@ -1575,7 +1578,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1618,7 +1621,6 @@
     <xf numFmtId="3" fontId="16" fillId="37" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1998,11 +2000,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IY40"/>
+  <dimension ref="A1:IZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JC37" sqref="JC37"/>
+      <selection pane="topRight" activeCell="JC13" sqref="JC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,22 +2252,22 @@
     <col min="250" max="250" width="13" style="7" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="15.42578125" style="7" customWidth="1"/>
-    <col min="253" max="259" width="12.28515625" style="7" customWidth="1"/>
+    <col min="253" max="260" width="12.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:259" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="3" spans="1:260" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>280</v>
       </c>
       <c r="B4" s="18">
@@ -2985,66 +2987,69 @@
       <c r="IF4" s="18">
         <v>2019</v>
       </c>
-      <c r="IG4" s="29">
+      <c r="IG4" s="28">
         <v>2020</v>
       </c>
-      <c r="IH4" s="30">
+      <c r="IH4" s="29">
         <v>2020</v>
       </c>
-      <c r="II4" s="30">
+      <c r="II4" s="29">
         <v>2020</v>
       </c>
-      <c r="IJ4" s="30">
+      <c r="IJ4" s="29">
         <v>2020</v>
       </c>
-      <c r="IK4" s="30">
+      <c r="IK4" s="29">
         <v>2020</v>
       </c>
-      <c r="IL4" s="30">
+      <c r="IL4" s="29">
         <v>2020</v>
       </c>
-      <c r="IM4" s="30">
+      <c r="IM4" s="29">
         <v>2020</v>
       </c>
-      <c r="IN4" s="30">
+      <c r="IN4" s="29">
         <v>2020</v>
       </c>
-      <c r="IO4" s="30">
+      <c r="IO4" s="29">
         <v>2020</v>
       </c>
-      <c r="IP4" s="30">
+      <c r="IP4" s="29">
         <v>2020</v>
       </c>
-      <c r="IQ4" s="30">
+      <c r="IQ4" s="29">
         <v>2020</v>
       </c>
-      <c r="IR4" s="30">
+      <c r="IR4" s="29">
         <v>2020</v>
       </c>
-      <c r="IS4" s="36">
+      <c r="IS4" s="35">
         <v>2021</v>
       </c>
-      <c r="IT4" s="37">
+      <c r="IT4" s="36">
         <v>2021</v>
       </c>
-      <c r="IU4" s="37">
+      <c r="IU4" s="36">
         <v>2021</v>
       </c>
-      <c r="IV4" s="37">
+      <c r="IV4" s="36">
         <v>2021</v>
       </c>
-      <c r="IW4" s="37">
+      <c r="IW4" s="36">
         <v>2021</v>
       </c>
-      <c r="IX4" s="37">
+      <c r="IX4" s="36">
         <v>2021</v>
       </c>
-      <c r="IY4" s="38">
+      <c r="IY4" s="36">
         <v>2021</v>
       </c>
+      <c r="IZ4" s="37">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:259" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+    <row r="5" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -3762,43 +3767,43 @@
       <c r="IF5" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="IG5" s="31" t="s">
+      <c r="IG5" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="IH5" s="32" t="s">
+      <c r="IH5" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="II5" s="32" t="s">
+      <c r="II5" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="IJ5" s="32" t="s">
+      <c r="IJ5" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="IK5" s="33" t="s">
+      <c r="IK5" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="IL5" s="33" t="s">
+      <c r="IL5" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="IM5" s="33" t="s">
+      <c r="IM5" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="IN5" s="33" t="s">
+      <c r="IN5" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="IO5" s="33" t="s">
+      <c r="IO5" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="IP5" s="33" t="s">
+      <c r="IP5" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="IQ5" s="33" t="s">
+      <c r="IQ5" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="IR5" s="33" t="s">
+      <c r="IR5" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="IS5" s="34" t="s">
+      <c r="IS5" s="33" t="s">
         <v>288</v>
       </c>
       <c r="IT5" s="21" t="s">
@@ -3816,11 +3821,14 @@
       <c r="IX5" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="IY5" s="35" t="s">
+      <c r="IY5" s="21" t="s">
         <v>294</v>
       </c>
+      <c r="IZ5" s="34" t="s">
+        <v>295</v>
+      </c>
     </row>
-    <row r="6" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>230</v>
       </c>
@@ -4595,11 +4603,14 @@
       <c r="IX6" s="3">
         <v>330146</v>
       </c>
-      <c r="IY6" s="15">
+      <c r="IY6" s="14">
         <v>333223</v>
       </c>
+      <c r="IZ6" s="15">
+        <v>336344</v>
+      </c>
     </row>
-    <row r="7" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>231</v>
       </c>
@@ -5374,11 +5385,14 @@
       <c r="IX7" s="14">
         <v>989518</v>
       </c>
-      <c r="IY7" s="15">
+      <c r="IY7" s="14">
         <v>976970</v>
       </c>
+      <c r="IZ7" s="15">
+        <v>987424</v>
+      </c>
     </row>
-    <row r="8" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>232</v>
       </c>
@@ -6153,11 +6167,14 @@
       <c r="IX8" s="14">
         <v>180020</v>
       </c>
-      <c r="IY8" s="15">
+      <c r="IY8" s="14">
         <v>182367</v>
       </c>
+      <c r="IZ8" s="15">
+        <v>183981</v>
+      </c>
     </row>
-    <row r="9" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>233</v>
       </c>
@@ -6932,11 +6949,14 @@
       <c r="IX9" s="14">
         <v>128911</v>
       </c>
-      <c r="IY9" s="15">
+      <c r="IY9" s="14">
         <v>131962</v>
       </c>
+      <c r="IZ9" s="15">
+        <v>132574</v>
+      </c>
     </row>
-    <row r="10" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>234</v>
       </c>
@@ -7711,11 +7731,14 @@
       <c r="IX10" s="14">
         <v>225406</v>
       </c>
-      <c r="IY10" s="15">
+      <c r="IY10" s="14">
         <v>229159</v>
       </c>
+      <c r="IZ10" s="15">
+        <v>231028</v>
+      </c>
     </row>
-    <row r="11" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>235</v>
       </c>
@@ -8490,11 +8513,14 @@
       <c r="IX11" s="14">
         <v>931191</v>
       </c>
-      <c r="IY11" s="15">
+      <c r="IY11" s="14">
         <v>932271</v>
       </c>
+      <c r="IZ11" s="15">
+        <v>933227</v>
+      </c>
     </row>
-    <row r="12" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>236</v>
       </c>
@@ -9269,11 +9295,14 @@
       <c r="IX12" s="14">
         <v>3230475</v>
       </c>
-      <c r="IY12" s="15">
+      <c r="IY12" s="14">
         <v>3240746</v>
       </c>
+      <c r="IZ12" s="15">
+        <v>3262318</v>
+      </c>
     </row>
-    <row r="13" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>237</v>
       </c>
@@ -10048,11 +10077,14 @@
       <c r="IX13" s="14">
         <v>779285</v>
       </c>
-      <c r="IY13" s="15">
+      <c r="IY13" s="14">
         <v>786250</v>
       </c>
+      <c r="IZ13" s="15">
+        <v>793634</v>
+      </c>
     </row>
-    <row r="14" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>238</v>
       </c>
@@ -10827,11 +10859,14 @@
       <c r="IX14" s="14">
         <v>139861</v>
       </c>
-      <c r="IY14" s="15">
+      <c r="IY14" s="14">
         <v>138862</v>
       </c>
+      <c r="IZ14" s="15">
+        <v>140058</v>
+      </c>
     </row>
-    <row r="15" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>239</v>
       </c>
@@ -11606,11 +11641,14 @@
       <c r="IX15" s="14">
         <v>243680</v>
       </c>
-      <c r="IY15" s="15">
+      <c r="IY15" s="14">
         <v>248024</v>
       </c>
+      <c r="IZ15" s="15">
+        <v>251748</v>
+      </c>
     </row>
-    <row r="16" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>240</v>
       </c>
@@ -12385,11 +12423,14 @@
       <c r="IX16" s="14">
         <v>1622778</v>
       </c>
-      <c r="IY16" s="15">
+      <c r="IY16" s="14">
         <v>1611607</v>
       </c>
+      <c r="IZ16" s="15">
+        <v>1626856</v>
+      </c>
     </row>
-    <row r="17" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>241</v>
       </c>
@@ -13164,11 +13205,14 @@
       <c r="IX17" s="14">
         <v>996819</v>
       </c>
-      <c r="IY17" s="15">
+      <c r="IY17" s="14">
         <v>1008091</v>
       </c>
+      <c r="IZ17" s="15">
+        <v>1010231</v>
+      </c>
     </row>
-    <row r="18" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>242</v>
       </c>
@@ -13943,11 +13987,14 @@
       <c r="IX18" s="14">
         <v>148621</v>
       </c>
-      <c r="IY18" s="15">
+      <c r="IY18" s="14">
         <v>151226</v>
       </c>
+      <c r="IZ18" s="15">
+        <v>148278</v>
+      </c>
     </row>
-    <row r="19" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>243</v>
       </c>
@@ -14722,11 +14769,14 @@
       <c r="IX19" s="14">
         <v>226457</v>
       </c>
-      <c r="IY19" s="15">
+      <c r="IY19" s="14">
         <v>229304</v>
       </c>
+      <c r="IZ19" s="15">
+        <v>235746</v>
+      </c>
     </row>
-    <row r="20" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>244</v>
       </c>
@@ -15501,11 +15551,14 @@
       <c r="IX20" s="27">
         <v>1820785</v>
       </c>
-      <c r="IY20" s="28">
+      <c r="IY20" s="27">
         <v>1826575</v>
       </c>
+      <c r="IZ20" s="15">
+        <v>1837975</v>
+      </c>
     </row>
-    <row r="21" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>245</v>
       </c>
@@ -16280,11 +16333,14 @@
       <c r="IX21" s="14">
         <v>460645</v>
       </c>
-      <c r="IY21" s="15">
+      <c r="IY21" s="14">
         <v>456175</v>
       </c>
+      <c r="IZ21" s="15">
+        <v>458402</v>
+      </c>
     </row>
-    <row r="22" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>246</v>
       </c>
@@ -17059,11 +17115,14 @@
       <c r="IX22" s="14">
         <v>203488</v>
       </c>
-      <c r="IY22" s="15">
+      <c r="IY22" s="14">
         <v>205282</v>
       </c>
+      <c r="IZ22" s="15">
+        <v>207421</v>
+      </c>
     </row>
-    <row r="23" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>247</v>
       </c>
@@ -17838,11 +17897,14 @@
       <c r="IX23" s="14">
         <v>159031</v>
       </c>
-      <c r="IY23" s="15">
+      <c r="IY23" s="14">
         <v>158791</v>
       </c>
+      <c r="IZ23" s="15">
+        <v>158588</v>
+      </c>
     </row>
-    <row r="24" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>248</v>
       </c>
@@ -18617,11 +18679,14 @@
       <c r="IX24" s="14">
         <v>1663165</v>
       </c>
-      <c r="IY24" s="15">
+      <c r="IY24" s="14">
         <v>1679301</v>
       </c>
+      <c r="IZ24" s="15">
+        <v>1688575</v>
+      </c>
     </row>
-    <row r="25" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>249</v>
       </c>
@@ -19396,11 +19461,14 @@
       <c r="IX25" s="14">
         <v>208994</v>
       </c>
-      <c r="IY25" s="15">
+      <c r="IY25" s="14">
         <v>213725</v>
       </c>
+      <c r="IZ25" s="15">
+        <v>212005</v>
+      </c>
     </row>
-    <row r="26" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>250</v>
       </c>
@@ -20175,11 +20243,14 @@
       <c r="IX26" s="14">
         <v>594915</v>
       </c>
-      <c r="IY26" s="15">
+      <c r="IY26" s="14">
         <v>599636</v>
       </c>
+      <c r="IZ26" s="15">
+        <v>601686</v>
+      </c>
     </row>
-    <row r="27" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>251</v>
       </c>
@@ -20954,11 +21025,14 @@
       <c r="IX27" s="14">
         <v>618558</v>
       </c>
-      <c r="IY27" s="15">
+      <c r="IY27" s="14">
         <v>622860</v>
       </c>
+      <c r="IZ27" s="15">
+        <v>626975</v>
+      </c>
     </row>
-    <row r="28" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>252</v>
       </c>
@@ -21733,11 +21807,14 @@
       <c r="IX28" s="14">
         <v>406636</v>
       </c>
-      <c r="IY28" s="15">
+      <c r="IY28" s="14">
         <v>417457</v>
       </c>
+      <c r="IZ28" s="15">
+        <v>424006</v>
+      </c>
     </row>
-    <row r="29" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>253</v>
       </c>
@@ -22512,11 +22589,14 @@
       <c r="IX29" s="14">
         <v>450346</v>
       </c>
-      <c r="IY29" s="15">
+      <c r="IY29" s="14">
         <v>453368</v>
       </c>
+      <c r="IZ29" s="15">
+        <v>454927</v>
+      </c>
     </row>
-    <row r="30" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>254</v>
       </c>
@@ -23291,11 +23371,14 @@
       <c r="IX30" s="14">
         <v>559597</v>
       </c>
-      <c r="IY30" s="15">
+      <c r="IY30" s="14">
         <v>566809</v>
       </c>
+      <c r="IZ30" s="15">
+        <v>562948</v>
+      </c>
     </row>
-    <row r="31" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>255</v>
       </c>
@@ -24070,11 +24153,14 @@
       <c r="IX31" s="14">
         <v>595916</v>
       </c>
-      <c r="IY31" s="15">
+      <c r="IY31" s="14">
         <v>621188</v>
       </c>
+      <c r="IZ31" s="15">
+        <v>626858</v>
+      </c>
     </row>
-    <row r="32" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>256</v>
       </c>
@@ -24849,11 +24935,14 @@
       <c r="IX32" s="14">
         <v>194993</v>
       </c>
-      <c r="IY32" s="15">
+      <c r="IY32" s="14">
         <v>200421</v>
       </c>
+      <c r="IZ32" s="15">
+        <v>201725</v>
+      </c>
     </row>
-    <row r="33" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>257</v>
       </c>
@@ -25628,11 +25717,14 @@
       <c r="IX33" s="14">
         <v>684207</v>
       </c>
-      <c r="IY33" s="15">
+      <c r="IY33" s="14">
         <v>676578</v>
       </c>
+      <c r="IZ33" s="15">
+        <v>682377</v>
+      </c>
     </row>
-    <row r="34" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>258</v>
       </c>
@@ -26407,11 +26499,14 @@
       <c r="IX34" s="14">
         <v>103302</v>
       </c>
-      <c r="IY34" s="15">
+      <c r="IY34" s="14">
         <v>104407</v>
       </c>
+      <c r="IZ34" s="15">
+        <v>104983</v>
+      </c>
     </row>
-    <row r="35" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>259</v>
       </c>
@@ -27186,11 +27281,14 @@
       <c r="IX35" s="14">
         <v>707079</v>
       </c>
-      <c r="IY35" s="15">
+      <c r="IY35" s="14">
         <v>719529</v>
       </c>
+      <c r="IZ35" s="15">
+        <v>723914</v>
+      </c>
     </row>
-    <row r="36" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>260</v>
       </c>
@@ -27965,11 +28063,14 @@
       <c r="IX36" s="14">
         <v>380707</v>
       </c>
-      <c r="IY36" s="15">
+      <c r="IY36" s="14">
         <v>378786</v>
       </c>
+      <c r="IZ36" s="15">
+        <v>381893</v>
+      </c>
     </row>
-    <row r="37" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>261</v>
       </c>
@@ -28744,11 +28845,14 @@
       <c r="IX37" s="24">
         <v>189848</v>
       </c>
-      <c r="IY37" s="15">
+      <c r="IY37" s="14">
         <v>190973</v>
       </c>
+      <c r="IZ37" s="15">
+        <v>192118</v>
+      </c>
     </row>
-    <row r="38" spans="1:259" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>264</v>
       </c>
@@ -29524,11 +29628,14 @@
         <f>SUM(IX6:IX37)</f>
         <v>20175380</v>
       </c>
-      <c r="IY38" s="11">
+      <c r="IY38" s="10">
         <v>20291923</v>
       </c>
+      <c r="IZ38" s="11">
+        <v>20420823</v>
+      </c>
     </row>
-    <row r="40" spans="1:259" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>262</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,697 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
-  <si>
-    <t>2000/Enero</t>
-  </si>
-  <si>
-    <t>2000/Febrero</t>
-  </si>
-  <si>
-    <t>2000/Marzo</t>
-  </si>
-  <si>
-    <t>2000/Abril</t>
-  </si>
-  <si>
-    <t>2000/Mayo</t>
-  </si>
-  <si>
-    <t>2000/Junio</t>
-  </si>
-  <si>
-    <t>2000/Julio</t>
-  </si>
-  <si>
-    <t>2000/Agosto</t>
-  </si>
-  <si>
-    <t>2000/Septiembre</t>
-  </si>
-  <si>
-    <t>2000/Octubre</t>
-  </si>
-  <si>
-    <t>2000/Noviembre</t>
-  </si>
-  <si>
-    <t>2000/Diciembre</t>
-  </si>
-  <si>
-    <t>2001/Enero</t>
-  </si>
-  <si>
-    <t>2001/Febrero</t>
-  </si>
-  <si>
-    <t>2001/Marzo</t>
-  </si>
-  <si>
-    <t>2001/Abril</t>
-  </si>
-  <si>
-    <t>2001/Mayo</t>
-  </si>
-  <si>
-    <t>2001/Junio</t>
-  </si>
-  <si>
-    <t>2001/Julio</t>
-  </si>
-  <si>
-    <t>2001/Agosto</t>
-  </si>
-  <si>
-    <t>2001/Septiembre</t>
-  </si>
-  <si>
-    <t>2001/Octubre</t>
-  </si>
-  <si>
-    <t>2001/Noviembre</t>
-  </si>
-  <si>
-    <t>2001/Diciembre</t>
-  </si>
-  <si>
-    <t>2002/Enero</t>
-  </si>
-  <si>
-    <t>2002/Febrero</t>
-  </si>
-  <si>
-    <t>2002/Marzo</t>
-  </si>
-  <si>
-    <t>2002/Abril</t>
-  </si>
-  <si>
-    <t>2002/Mayo</t>
-  </si>
-  <si>
-    <t>2002/Junio</t>
-  </si>
-  <si>
-    <t>2002/Julio</t>
-  </si>
-  <si>
-    <t>2002/Agosto</t>
-  </si>
-  <si>
-    <t>2002/Septiembre</t>
-  </si>
-  <si>
-    <t>2002/Octubre</t>
-  </si>
-  <si>
-    <t>2002/Noviembre</t>
-  </si>
-  <si>
-    <t>2002/Diciembre</t>
-  </si>
-  <si>
-    <t>2003/Enero</t>
-  </si>
-  <si>
-    <t>2003/Febrero</t>
-  </si>
-  <si>
-    <t>2003/Marzo</t>
-  </si>
-  <si>
-    <t>2003/Abril</t>
-  </si>
-  <si>
-    <t>2003/Mayo</t>
-  </si>
-  <si>
-    <t>2003/Junio</t>
-  </si>
-  <si>
-    <t>2003/Agosto</t>
-  </si>
-  <si>
-    <t>2003/Septiembre</t>
-  </si>
-  <si>
-    <t>2003/Octubre</t>
-  </si>
-  <si>
-    <t>2003/Noviembre</t>
-  </si>
-  <si>
-    <t>2003/Diciembre</t>
-  </si>
-  <si>
-    <t>2004/Enero</t>
-  </si>
-  <si>
-    <t>2004/Febrero</t>
-  </si>
-  <si>
-    <t>2004/Marzo</t>
-  </si>
-  <si>
-    <t>2004/Abril</t>
-  </si>
-  <si>
-    <t>2004/Mayo</t>
-  </si>
-  <si>
-    <t>2004/Junio</t>
-  </si>
-  <si>
-    <t>2004/Julio</t>
-  </si>
-  <si>
-    <t>2004/Agosto</t>
-  </si>
-  <si>
-    <t>2004/Septiembre</t>
-  </si>
-  <si>
-    <t>2004/Octubre</t>
-  </si>
-  <si>
-    <t>2004/Noviembre</t>
-  </si>
-  <si>
-    <t>2004/Diciembre</t>
-  </si>
-  <si>
-    <t>2005/Enero</t>
-  </si>
-  <si>
-    <t>2005/Febrero</t>
-  </si>
-  <si>
-    <t>2005/Marzo</t>
-  </si>
-  <si>
-    <t>2005/Abril</t>
-  </si>
-  <si>
-    <t>2005/Mayo</t>
-  </si>
-  <si>
-    <t>2005/Junio</t>
-  </si>
-  <si>
-    <t>2005/Julio</t>
-  </si>
-  <si>
-    <t>2005/Agosto</t>
-  </si>
-  <si>
-    <t>2005/Septiembre</t>
-  </si>
-  <si>
-    <t>2005/Octubre</t>
-  </si>
-  <si>
-    <t>2005/Noviembre</t>
-  </si>
-  <si>
-    <t>2005/Diciembre</t>
-  </si>
-  <si>
-    <t>2006/Enero</t>
-  </si>
-  <si>
-    <t>2006/Febrero</t>
-  </si>
-  <si>
-    <t>2006/Marzo</t>
-  </si>
-  <si>
-    <t>2006/Abril</t>
-  </si>
-  <si>
-    <t>2006/Mayo</t>
-  </si>
-  <si>
-    <t>2006/Junio</t>
-  </si>
-  <si>
-    <t>2006/Julio</t>
-  </si>
-  <si>
-    <t>2006/Agosto</t>
-  </si>
-  <si>
-    <t>2006/Septiembre</t>
-  </si>
-  <si>
-    <t>2006/Octubre</t>
-  </si>
-  <si>
-    <t>2006/Noviembre</t>
-  </si>
-  <si>
-    <t>2006/Diciembre</t>
-  </si>
-  <si>
-    <t>2007/Enero</t>
-  </si>
-  <si>
-    <t>2007/Febrero</t>
-  </si>
-  <si>
-    <t>2007/Marzo</t>
-  </si>
-  <si>
-    <t>2007/Abril</t>
-  </si>
-  <si>
-    <t>2007/Mayo</t>
-  </si>
-  <si>
-    <t>2007/Junio</t>
-  </si>
-  <si>
-    <t>2007/Julio</t>
-  </si>
-  <si>
-    <t>2007/Agosto</t>
-  </si>
-  <si>
-    <t>2007/Septiembre</t>
-  </si>
-  <si>
-    <t>2007/Octubre</t>
-  </si>
-  <si>
-    <t>2007/Noviembre</t>
-  </si>
-  <si>
-    <t>2007/Diciembre</t>
-  </si>
-  <si>
-    <t>2008/Enero</t>
-  </si>
-  <si>
-    <t>2008/Febrero</t>
-  </si>
-  <si>
-    <t>2008/Marzo</t>
-  </si>
-  <si>
-    <t>2008/Abril</t>
-  </si>
-  <si>
-    <t>2008/Mayo</t>
-  </si>
-  <si>
-    <t>2008/Junio</t>
-  </si>
-  <si>
-    <t>2008/Julio</t>
-  </si>
-  <si>
-    <t>2008/Agosto</t>
-  </si>
-  <si>
-    <t>2008/Septiembre</t>
-  </si>
-  <si>
-    <t>2008/Octubre</t>
-  </si>
-  <si>
-    <t>2008/Noviembre</t>
-  </si>
-  <si>
-    <t>2008/Diciembre</t>
-  </si>
-  <si>
-    <t>2009/Enero</t>
-  </si>
-  <si>
-    <t>2009/Febrero</t>
-  </si>
-  <si>
-    <t>2009/Marzo</t>
-  </si>
-  <si>
-    <t>2009/Abril</t>
-  </si>
-  <si>
-    <t>2009/Mayo</t>
-  </si>
-  <si>
-    <t>2009/Junio</t>
-  </si>
-  <si>
-    <t>2009/Julio</t>
-  </si>
-  <si>
-    <t>2009/Agosto</t>
-  </si>
-  <si>
-    <t>2009/Septiembre</t>
-  </si>
-  <si>
-    <t>2009/Octubre</t>
-  </si>
-  <si>
-    <t>2009/Noviembre</t>
-  </si>
-  <si>
-    <t>2009/Diciembre</t>
-  </si>
-  <si>
-    <t>2010/Enero</t>
-  </si>
-  <si>
-    <t>2010/Febrero</t>
-  </si>
-  <si>
-    <t>2010/Marzo</t>
-  </si>
-  <si>
-    <t>2010/Abril</t>
-  </si>
-  <si>
-    <t>2010/Mayo</t>
-  </si>
-  <si>
-    <t>2010/Junio</t>
-  </si>
-  <si>
-    <t>2010/Julio</t>
-  </si>
-  <si>
-    <t>2010/Agosto</t>
-  </si>
-  <si>
-    <t>2010/Septiembre</t>
-  </si>
-  <si>
-    <t>2010/Octubre</t>
-  </si>
-  <si>
-    <t>2010/Noviembre</t>
-  </si>
-  <si>
-    <t>2010/Diciembre</t>
-  </si>
-  <si>
-    <t>2011/Enero</t>
-  </si>
-  <si>
-    <t>2011/Febrero</t>
-  </si>
-  <si>
-    <t>2011/Marzo</t>
-  </si>
-  <si>
-    <t>2011/Abril</t>
-  </si>
-  <si>
-    <t>2011/Mayo</t>
-  </si>
-  <si>
-    <t>2011/Junio</t>
-  </si>
-  <si>
-    <t>2011/Julio</t>
-  </si>
-  <si>
-    <t>2011/Agosto</t>
-  </si>
-  <si>
-    <t>2011/Septiembre</t>
-  </si>
-  <si>
-    <t>2011/Octubre</t>
-  </si>
-  <si>
-    <t>2011/Noviembre</t>
-  </si>
-  <si>
-    <t>2011/Diciembre</t>
-  </si>
-  <si>
-    <t>2012/Enero</t>
-  </si>
-  <si>
-    <t>2012/Febrero</t>
-  </si>
-  <si>
-    <t>2012/Marzo</t>
-  </si>
-  <si>
-    <t>2012/Abril</t>
-  </si>
-  <si>
-    <t>2012/Mayo</t>
-  </si>
-  <si>
-    <t>2012/Junio</t>
-  </si>
-  <si>
-    <t>2012/Julio</t>
-  </si>
-  <si>
-    <t>2012/Agosto</t>
-  </si>
-  <si>
-    <t>2012/Septiembre</t>
-  </si>
-  <si>
-    <t>2012/Octubre</t>
-  </si>
-  <si>
-    <t>2012/Noviembre</t>
-  </si>
-  <si>
-    <t>2012/Diciembre</t>
-  </si>
-  <si>
-    <t>2013/Enero</t>
-  </si>
-  <si>
-    <t>2013/Febrero</t>
-  </si>
-  <si>
-    <t>2013/Marzo</t>
-  </si>
-  <si>
-    <t>2013/Abril</t>
-  </si>
-  <si>
-    <t>2013/Mayo</t>
-  </si>
-  <si>
-    <t>2013/Junio</t>
-  </si>
-  <si>
-    <t>2013/Julio</t>
-  </si>
-  <si>
-    <t>2013/Agosto</t>
-  </si>
-  <si>
-    <t>2013/Septiembre</t>
-  </si>
-  <si>
-    <t>2013/Octubre</t>
-  </si>
-  <si>
-    <t>2013/Noviembre</t>
-  </si>
-  <si>
-    <t>2013/Diciembre</t>
-  </si>
-  <si>
-    <t>2014/Enero</t>
-  </si>
-  <si>
-    <t>2014/Febrero</t>
-  </si>
-  <si>
-    <t>2014/Marzo</t>
-  </si>
-  <si>
-    <t>2014/Abril</t>
-  </si>
-  <si>
-    <t>2014/Mayo</t>
-  </si>
-  <si>
-    <t>2014/Junio</t>
-  </si>
-  <si>
-    <t>2014/Julio</t>
-  </si>
-  <si>
-    <t>2014/Agosto</t>
-  </si>
-  <si>
-    <t>2014/Septiembre</t>
-  </si>
-  <si>
-    <t>2014/Octubre</t>
-  </si>
-  <si>
-    <t>2014/Noviembre</t>
-  </si>
-  <si>
-    <t>2014/Diciembre</t>
-  </si>
-  <si>
-    <t>2015/Enero</t>
-  </si>
-  <si>
-    <t>2015/Febrero</t>
-  </si>
-  <si>
-    <t>2015/Marzo</t>
-  </si>
-  <si>
-    <t>2015/Abril</t>
-  </si>
-  <si>
-    <t>2015/Mayo</t>
-  </si>
-  <si>
-    <t>2015/Junio</t>
-  </si>
-  <si>
-    <t>2015/Julio</t>
-  </si>
-  <si>
-    <t>2015/Agosto</t>
-  </si>
-  <si>
-    <t>2015/Septiembre</t>
-  </si>
-  <si>
-    <t>2015/Octubre</t>
-  </si>
-  <si>
-    <t>2015/Noviembre</t>
-  </si>
-  <si>
-    <t>2015/Diciembre</t>
-  </si>
-  <si>
-    <t>2016/Enero</t>
-  </si>
-  <si>
-    <t>2016/Febrero</t>
-  </si>
-  <si>
-    <t>2016/Marzo</t>
-  </si>
-  <si>
-    <t>2016/Abril</t>
-  </si>
-  <si>
-    <t>2016/Mayo</t>
-  </si>
-  <si>
-    <t>2016/Junio</t>
-  </si>
-  <si>
-    <t>2016/Julio</t>
-  </si>
-  <si>
-    <t>2016/Agosto</t>
-  </si>
-  <si>
-    <t>2016/Septiembre</t>
-  </si>
-  <si>
-    <t>2016/Octubre</t>
-  </si>
-  <si>
-    <t>2016/Noviembre</t>
-  </si>
-  <si>
-    <t>2016/Diciembre</t>
-  </si>
-  <si>
-    <t>2017/Enero</t>
-  </si>
-  <si>
-    <t>2017/Febrero</t>
-  </si>
-  <si>
-    <t>2017/Marzo</t>
-  </si>
-  <si>
-    <t>2017/Abril</t>
-  </si>
-  <si>
-    <t>2017/Mayo</t>
-  </si>
-  <si>
-    <t>2017/Junio</t>
-  </si>
-  <si>
-    <t>2017/Julio</t>
-  </si>
-  <si>
-    <t>2017/Agosto</t>
-  </si>
-  <si>
-    <t>2017/Septiembre</t>
-  </si>
-  <si>
-    <t>2017/Octubre</t>
-  </si>
-  <si>
-    <t>2017/Noviembre</t>
-  </si>
-  <si>
-    <t>2017/Diciembre</t>
-  </si>
-  <si>
-    <t>2018/Enero</t>
-  </si>
-  <si>
-    <t>2018/Febrero</t>
-  </si>
-  <si>
-    <t>2018/Marzo</t>
-  </si>
-  <si>
-    <t>2018/Abril</t>
-  </si>
-  <si>
-    <t>2018/Mayo</t>
-  </si>
-  <si>
-    <t>2018/Junio</t>
-  </si>
-  <si>
-    <t>2018/Julio</t>
-  </si>
-  <si>
-    <t>2018/Agosto</t>
-  </si>
-  <si>
-    <t>2018/Septiembre</t>
-  </si>
-  <si>
-    <t>2018/Octubre</t>
-  </si>
-  <si>
-    <t>2018/Noviembre</t>
-  </si>
-  <si>
-    <t>2018/Diciembre</t>
-  </si>
-  <si>
-    <t>2019/Enero</t>
-  </si>
-  <si>
-    <t>2019/Febrero</t>
-  </si>
-  <si>
-    <t>2019/Marzo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -836,97 +146,46 @@
     <t>TOTAL NACIONAL</t>
   </si>
   <si>
-    <t>2019/Abril</t>
-  </si>
-  <si>
-    <t>2019/Mayo</t>
-  </si>
-  <si>
-    <t>2019/Julio</t>
-  </si>
-  <si>
-    <t>2019/Junio</t>
-  </si>
-  <si>
-    <t>2019/Agosto</t>
-  </si>
-  <si>
-    <t>2019/Septiembre</t>
-  </si>
-  <si>
-    <t>2019/Octubre</t>
-  </si>
-  <si>
-    <t>2019/Noviembre</t>
-  </si>
-  <si>
-    <t>2019/Diciembre</t>
-  </si>
-  <si>
-    <t>2020/Enero</t>
-  </si>
-  <si>
-    <t>2020/Febrero</t>
-  </si>
-  <si>
-    <t>2020/Marzo</t>
-  </si>
-  <si>
-    <t>2020/Abril</t>
-  </si>
-  <si>
-    <t>2020/Mayo</t>
-  </si>
-  <si>
-    <t>2020/Junio</t>
-  </si>
-  <si>
     <t xml:space="preserve">ENTIDAD </t>
-  </si>
-  <si>
-    <t>2020/Julio</t>
-  </si>
-  <si>
-    <t>2020/Agosto</t>
-  </si>
-  <si>
-    <t>2020/Septiembre</t>
-  </si>
-  <si>
-    <t>2020/Octubre</t>
-  </si>
-  <si>
-    <t>2020/Noviembre</t>
-  </si>
-  <si>
-    <t>2020/Diciembre</t>
   </si>
   <si>
     <t>2000-2021</t>
   </si>
   <si>
-    <t>2021/Enero</t>
+    <t>Enero</t>
   </si>
   <si>
-    <t>2021/Febrero</t>
+    <t>Febrero</t>
   </si>
   <si>
-    <t>2021/Marzo</t>
+    <t>Marzo</t>
   </si>
   <si>
-    <t>2021/Abril</t>
+    <t>Abril</t>
   </si>
   <si>
-    <t>2021/Mayo</t>
+    <t>Mayo</t>
   </si>
   <si>
-    <t>2021/Junio</t>
+    <t>Junio</t>
   </si>
   <si>
-    <t>2021/Julio</t>
+    <t>Julio</t>
   </si>
   <si>
-    <t>2021/Agosto</t>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +837,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1654,6 +913,7 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2000,275 +1260,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IZ40"/>
+  <dimension ref="A1:JA40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JC13" sqref="JC13"/>
+      <selection pane="topRight" activeCell="JF32" sqref="JF32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="11" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="16" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="13" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="16" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="11" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="16" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="13" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="11" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="16" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="13" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="11" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="16" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="13" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="11" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="16" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="13" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="11" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="16" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="13" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="11" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="16" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="13" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="11" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="16" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="13" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="11" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="16" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="13" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="11" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="16" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="13" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="11" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="16" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="13" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="11" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="16" bestFit="1" customWidth="1"/>
-    <col min="228" max="228" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="229" max="229" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="230" max="230" width="13" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="13" style="7" customWidth="1"/>
-    <col min="232" max="232" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="11.42578125" style="7"/>
-    <col min="237" max="237" width="16.140625" customWidth="1"/>
-    <col min="238" max="238" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="12.7109375" customWidth="1"/>
-    <col min="247" max="248" width="11.42578125" style="7"/>
-    <col min="249" max="249" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="13" style="7" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="252" max="252" width="15.42578125" style="7" customWidth="1"/>
-    <col min="253" max="260" width="12.28515625" style="7" customWidth="1"/>
+    <col min="2" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="44" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11" bestFit="1" customWidth="1"/>
+    <col min="48" max="56" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11" bestFit="1" customWidth="1"/>
+    <col min="60" max="68" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11" bestFit="1" customWidth="1"/>
+    <col min="72" max="80" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11" bestFit="1" customWidth="1"/>
+    <col min="84" max="92" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="11" bestFit="1" customWidth="1"/>
+    <col min="96" max="104" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="11" bestFit="1" customWidth="1"/>
+    <col min="108" max="116" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="11" bestFit="1" customWidth="1"/>
+    <col min="120" max="128" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="11" bestFit="1" customWidth="1"/>
+    <col min="132" max="140" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="11" bestFit="1" customWidth="1"/>
+    <col min="144" max="152" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="11" bestFit="1" customWidth="1"/>
+    <col min="156" max="164" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="11" bestFit="1" customWidth="1"/>
+    <col min="168" max="176" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="11" bestFit="1" customWidth="1"/>
+    <col min="180" max="188" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="11" bestFit="1" customWidth="1"/>
+    <col min="192" max="200" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="11" bestFit="1" customWidth="1"/>
+    <col min="204" max="212" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="11" bestFit="1" customWidth="1"/>
+    <col min="216" max="224" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="11" bestFit="1" customWidth="1"/>
+    <col min="228" max="230" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="232" max="234" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="241" max="246" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="247" max="248" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="252" max="260" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>263</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>287</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:260" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:261" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="B4" s="18">
         <v>2000</v>
@@ -3044,793 +2153,799 @@
       <c r="IY4" s="36">
         <v>2021</v>
       </c>
-      <c r="IZ4" s="37">
+      <c r="IZ4" s="36">
         <v>2021</v>
       </c>
+      <c r="JA4" s="37">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="BJ5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="BK5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BQ5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="BS5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BT5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="BU5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="BV5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="BW5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BX5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BY5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BZ5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="CA5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="CB5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="CD5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="CE5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CF5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CG5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="CH5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="CI5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="CJ5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CK5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="CL5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="CM5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="CN5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CO5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="CP5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="CQ5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CR5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="CS5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="CT5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="CU5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="CV5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CW5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="CX5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="CY5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="CZ5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="DA5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="DB5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="DC5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DD5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DE5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="DF5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="DG5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="DH5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DI5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="DJ5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="DK5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="DL5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="DM5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="DN5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="DO5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DP5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="DQ5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="DR5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="DS5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="DT5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DU5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="DV5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="DW5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="DX5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="DY5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="DZ5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="EA5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="EB5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="EC5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="ED5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="EE5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="EF5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="EG5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="EH5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="EI5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="EJ5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="EK5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="EL5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="EM5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="EN5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="EO5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="EP5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="EQ5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="ER5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="ES5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="ET5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="EU5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="EV5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="EW5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="EX5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="EY5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="EZ5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="FA5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="FB5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="FC5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="FD5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="FE5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="FF5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="FG5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="FH5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="FI5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="FJ5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="FK5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="FL5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="FM5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="FN5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="FO5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="FP5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="FQ5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="FR5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="FS5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="FT5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="FU5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="FV5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="FW5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="FX5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="FY5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="FZ5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="GA5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="GB5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="GC5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="GD5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="GE5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="GF5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="GG5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="GH5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="GI5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="GJ5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="GK5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="GL5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="GM5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="GN5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="GO5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="GP5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="GQ5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="GR5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="GS5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="GT5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="GU5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="GV5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="GW5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="GX5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="GY5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="GZ5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="HA5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="HB5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="HC5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="HD5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="HE5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="HF5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="HG5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="HH5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="HI5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="HJ5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="HK5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="HL5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="HM5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="HN5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="HO5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="HP5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="HQ5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="HR5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="HS5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="HT5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="HU5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="HV5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="HW5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="HX5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="HY5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="HZ5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="IA5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="IB5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="IC5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="ID5" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="IE5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="IF5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="IG5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="IH5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="II5" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="IJ5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="IK5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="IL5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="IM5" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="IN5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="IO5" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="IP5" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="IQ5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="IR5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="IS5" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="IT5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="IU5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="IV5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="IW5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="IX5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="IY5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="IZ5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="JA5" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG5" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR5" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV5" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW5" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY5" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD5" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI5" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK5" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN5" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO5" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR5" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS5" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU5" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV5" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX5" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY5" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ5" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA5" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD5" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF5" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG5" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH5" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL5" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM5" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN5" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO5" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP5" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ5" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR5" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS5" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU5" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV5" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW5" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX5" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY5" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ5" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA5" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB5" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC5" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED5" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE5" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF5" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG5" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH5" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI5" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ5" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK5" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL5" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM5" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN5" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO5" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP5" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ5" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER5" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES5" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET5" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU5" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV5" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW5" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX5" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY5" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ5" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA5" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB5" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC5" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD5" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE5" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF5" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG5" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH5" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI5" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ5" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL5" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM5" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="FN5" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="FO5" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="FP5" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="FQ5" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="FR5" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="FS5" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="FT5" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="FU5" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="FV5" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="FW5" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="FX5" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="FY5" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="FZ5" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="GA5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="GB5" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="GC5" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="GD5" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="GE5" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="GF5" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="GG5" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="GH5" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="GI5" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="GJ5" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="GK5" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="GL5" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="GM5" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="GN5" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="GO5" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="GP5" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="GQ5" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="GR5" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="GS5" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="GT5" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="GU5" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="GV5" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="GW5" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="GX5" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="GY5" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="GZ5" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="HA5" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="HB5" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="HC5" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="HD5" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="HE5" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="HF5" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="HG5" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="HH5" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="HI5" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="HJ5" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="HK5" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="HL5" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="HM5" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="HN5" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="HO5" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="HP5" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="HQ5" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="HR5" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="HS5" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="HT5" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="HU5" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="HV5" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="HW5" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="HX5" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="HY5" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="HZ5" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="IA5" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="IB5" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="IC5" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="ID5" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="IE5" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="IF5" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="IG5" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="IH5" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="II5" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="IJ5" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="IK5" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="IL5" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="IM5" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="IN5" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="IO5" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="IP5" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="IQ5" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="IR5" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="IS5" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="IT5" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="IU5" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="IV5" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="IW5" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="IX5" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="IY5" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="IZ5" s="34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="B6" s="2">
         <v>172842</v>
@@ -4606,13 +3721,16 @@
       <c r="IY6" s="14">
         <v>333223</v>
       </c>
-      <c r="IZ6" s="15">
+      <c r="IZ6" s="14">
         <v>336344</v>
       </c>
+      <c r="JA6" s="15">
+        <v>338890</v>
+      </c>
     </row>
-    <row r="7" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="B7" s="13">
         <v>563166</v>
@@ -5388,13 +4506,16 @@
       <c r="IY7" s="14">
         <v>976970</v>
       </c>
-      <c r="IZ7" s="15">
+      <c r="IZ7" s="14">
         <v>987424</v>
       </c>
+      <c r="JA7" s="15">
+        <v>994836</v>
+      </c>
     </row>
-    <row r="8" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>232</v>
+        <v>2</v>
       </c>
       <c r="B8" s="13">
         <v>75861</v>
@@ -6170,13 +5291,16 @@
       <c r="IY8" s="14">
         <v>182367</v>
       </c>
-      <c r="IZ8" s="15">
+      <c r="IZ8" s="14">
         <v>183981</v>
       </c>
+      <c r="JA8" s="15">
+        <v>190795</v>
+      </c>
     </row>
-    <row r="9" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>233</v>
+        <v>3</v>
       </c>
       <c r="B9" s="13">
         <v>75369</v>
@@ -6952,13 +6076,16 @@
       <c r="IY9" s="14">
         <v>131962</v>
       </c>
-      <c r="IZ9" s="15">
+      <c r="IZ9" s="14">
         <v>132574</v>
       </c>
+      <c r="JA9" s="15">
+        <v>131815</v>
+      </c>
     </row>
-    <row r="10" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>234</v>
+        <v>4</v>
       </c>
       <c r="B10" s="13">
         <v>127977</v>
@@ -7734,13 +6861,16 @@
       <c r="IY10" s="14">
         <v>229159</v>
       </c>
-      <c r="IZ10" s="15">
+      <c r="IZ10" s="14">
         <v>231028</v>
       </c>
+      <c r="JA10" s="15">
+        <v>231748</v>
+      </c>
     </row>
-    <row r="11" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>235</v>
+        <v>5</v>
       </c>
       <c r="B11" s="13">
         <v>684949</v>
@@ -8516,13 +7646,16 @@
       <c r="IY11" s="14">
         <v>932271</v>
       </c>
-      <c r="IZ11" s="15">
+      <c r="IZ11" s="14">
         <v>933227</v>
       </c>
+      <c r="JA11" s="15">
+        <v>939840</v>
+      </c>
     </row>
-    <row r="12" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="B12" s="13">
         <v>2166242</v>
@@ -9298,13 +8431,16 @@
       <c r="IY12" s="14">
         <v>3240746</v>
       </c>
-      <c r="IZ12" s="15">
+      <c r="IZ12" s="14">
         <v>3262318</v>
       </c>
+      <c r="JA12" s="15">
+        <v>3285182</v>
+      </c>
     </row>
-    <row r="13" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="B13" s="13">
         <v>500999</v>
@@ -10080,13 +9216,16 @@
       <c r="IY13" s="14">
         <v>786250</v>
       </c>
-      <c r="IZ13" s="15">
+      <c r="IZ13" s="14">
         <v>793634</v>
       </c>
+      <c r="JA13" s="15">
+        <v>798173</v>
+      </c>
     </row>
-    <row r="14" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>238</v>
+        <v>8</v>
       </c>
       <c r="B14" s="13">
         <v>72681</v>
@@ -10862,13 +10001,16 @@
       <c r="IY14" s="14">
         <v>138862</v>
       </c>
-      <c r="IZ14" s="15">
+      <c r="IZ14" s="14">
         <v>140058</v>
       </c>
+      <c r="JA14" s="15">
+        <v>141099</v>
+      </c>
     </row>
-    <row r="15" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>239</v>
+        <v>9</v>
       </c>
       <c r="B15" s="13">
         <v>178572</v>
@@ -11644,13 +10786,16 @@
       <c r="IY15" s="14">
         <v>248024</v>
       </c>
-      <c r="IZ15" s="15">
+      <c r="IZ15" s="14">
         <v>251748</v>
       </c>
+      <c r="JA15" s="15">
+        <v>253375</v>
+      </c>
     </row>
-    <row r="16" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="B16" s="13">
         <v>963208</v>
@@ -12426,13 +11571,16 @@
       <c r="IY16" s="14">
         <v>1611607</v>
       </c>
-      <c r="IZ16" s="15">
+      <c r="IZ16" s="14">
         <v>1626856</v>
       </c>
+      <c r="JA16" s="15">
+        <v>1644896</v>
+      </c>
     </row>
-    <row r="17" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="B17" s="13">
         <v>480068</v>
@@ -13208,13 +12356,16 @@
       <c r="IY17" s="14">
         <v>1008091</v>
       </c>
-      <c r="IZ17" s="15">
+      <c r="IZ17" s="14">
         <v>1010231</v>
       </c>
+      <c r="JA17" s="15">
+        <v>1019796</v>
+      </c>
     </row>
-    <row r="18" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="B18" s="13">
         <v>117122</v>
@@ -13990,13 +13141,16 @@
       <c r="IY18" s="14">
         <v>151226</v>
       </c>
-      <c r="IZ18" s="15">
+      <c r="IZ18" s="14">
         <v>148278</v>
       </c>
+      <c r="JA18" s="15">
+        <v>146786</v>
+      </c>
     </row>
-    <row r="19" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="B19" s="13">
         <v>142152</v>
@@ -14772,13 +13926,16 @@
       <c r="IY19" s="14">
         <v>229304</v>
       </c>
-      <c r="IZ19" s="15">
+      <c r="IZ19" s="14">
         <v>235746</v>
       </c>
+      <c r="JA19" s="15">
+        <v>238463</v>
+      </c>
     </row>
-    <row r="20" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="B20" s="26">
         <v>986809</v>
@@ -15554,13 +14711,16 @@
       <c r="IY20" s="27">
         <v>1826575</v>
       </c>
-      <c r="IZ20" s="15">
+      <c r="IZ20" s="27">
         <v>1837975</v>
       </c>
+      <c r="JA20" s="39">
+        <v>1847731</v>
+      </c>
     </row>
-    <row r="21" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="B21" s="13">
         <v>234258</v>
@@ -16336,13 +15496,16 @@
       <c r="IY21" s="14">
         <v>456175</v>
       </c>
-      <c r="IZ21" s="15">
+      <c r="IZ21" s="14">
         <v>458402</v>
       </c>
+      <c r="JA21" s="15">
+        <v>461439</v>
+      </c>
     </row>
-    <row r="22" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="B22" s="13">
         <v>148278</v>
@@ -17118,13 +16281,16 @@
       <c r="IY22" s="14">
         <v>205282</v>
       </c>
-      <c r="IZ22" s="15">
+      <c r="IZ22" s="14">
         <v>207421</v>
       </c>
+      <c r="JA22" s="15">
+        <v>210063</v>
+      </c>
     </row>
-    <row r="23" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="B23" s="13">
         <v>79982</v>
@@ -17900,13 +17066,16 @@
       <c r="IY23" s="14">
         <v>158791</v>
       </c>
-      <c r="IZ23" s="15">
+      <c r="IZ23" s="14">
         <v>158588</v>
       </c>
+      <c r="JA23" s="15">
+        <v>160256</v>
+      </c>
     </row>
-    <row r="24" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="B24" s="13">
         <v>912821</v>
@@ -18682,13 +17851,16 @@
       <c r="IY24" s="14">
         <v>1679301</v>
       </c>
-      <c r="IZ24" s="15">
+      <c r="IZ24" s="14">
         <v>1688575</v>
       </c>
+      <c r="JA24" s="15">
+        <v>1705496</v>
+      </c>
     </row>
-    <row r="25" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>249</v>
+        <v>19</v>
       </c>
       <c r="B25" s="13">
         <v>132816</v>
@@ -19464,13 +18636,16 @@
       <c r="IY25" s="14">
         <v>213725</v>
       </c>
-      <c r="IZ25" s="15">
+      <c r="IZ25" s="14">
         <v>212005</v>
       </c>
+      <c r="JA25" s="15">
+        <v>213025</v>
+      </c>
     </row>
-    <row r="26" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="B26" s="13">
         <v>400283</v>
@@ -20246,13 +19421,16 @@
       <c r="IY26" s="14">
         <v>599636</v>
       </c>
-      <c r="IZ26" s="15">
+      <c r="IZ26" s="14">
         <v>601686</v>
       </c>
+      <c r="JA26" s="15">
+        <v>605406</v>
+      </c>
     </row>
-    <row r="27" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="B27" s="13">
         <v>233811</v>
@@ -21028,13 +20206,16 @@
       <c r="IY27" s="14">
         <v>622860</v>
       </c>
-      <c r="IZ27" s="15">
+      <c r="IZ27" s="14">
         <v>626975</v>
       </c>
+      <c r="JA27" s="15">
+        <v>629751</v>
+      </c>
     </row>
-    <row r="28" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="B28" s="13">
         <v>155477</v>
@@ -21810,13 +20991,16 @@
       <c r="IY28" s="14">
         <v>417457</v>
       </c>
-      <c r="IZ28" s="15">
+      <c r="IZ28" s="14">
         <v>424006</v>
       </c>
+      <c r="JA28" s="15">
+        <v>421962</v>
+      </c>
     </row>
-    <row r="29" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="B29" s="13">
         <v>224100</v>
@@ -22592,13 +21776,16 @@
       <c r="IY29" s="14">
         <v>453368</v>
       </c>
-      <c r="IZ29" s="15">
+      <c r="IZ29" s="14">
         <v>454927</v>
       </c>
+      <c r="JA29" s="15">
+        <v>456972</v>
+      </c>
     </row>
-    <row r="30" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="B30" s="13">
         <v>300159</v>
@@ -23374,13 +22561,16 @@
       <c r="IY30" s="14">
         <v>566809</v>
       </c>
-      <c r="IZ30" s="15">
+      <c r="IZ30" s="14">
         <v>562948</v>
       </c>
+      <c r="JA30" s="15">
+        <v>575501</v>
+      </c>
     </row>
-    <row r="31" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="B31" s="13">
         <v>376178</v>
@@ -24156,13 +23346,16 @@
       <c r="IY31" s="14">
         <v>621188</v>
       </c>
-      <c r="IZ31" s="15">
+      <c r="IZ31" s="14">
         <v>626858</v>
       </c>
+      <c r="JA31" s="15">
+        <v>640048</v>
+      </c>
     </row>
-    <row r="32" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>256</v>
+        <v>26</v>
       </c>
       <c r="B32" s="13">
         <v>99651</v>
@@ -24938,13 +24131,16 @@
       <c r="IY32" s="14">
         <v>200421</v>
       </c>
-      <c r="IZ32" s="15">
+      <c r="IZ32" s="14">
         <v>201725</v>
       </c>
+      <c r="JA32" s="15">
+        <v>205088</v>
+      </c>
     </row>
-    <row r="33" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>257</v>
+        <v>27</v>
       </c>
       <c r="B33" s="13">
         <v>482748</v>
@@ -25720,13 +24916,16 @@
       <c r="IY33" s="14">
         <v>676578</v>
       </c>
-      <c r="IZ33" s="15">
+      <c r="IZ33" s="14">
         <v>682377</v>
       </c>
+      <c r="JA33" s="15">
+        <v>690521</v>
+      </c>
     </row>
-    <row r="34" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B34" s="13">
         <v>73394</v>
@@ -26502,13 +25701,16 @@
       <c r="IY34" s="14">
         <v>104407</v>
       </c>
-      <c r="IZ34" s="15">
+      <c r="IZ34" s="14">
         <v>104983</v>
       </c>
+      <c r="JA34" s="15">
+        <v>104775</v>
+      </c>
     </row>
-    <row r="35" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="B35" s="13">
         <v>555992</v>
@@ -27284,13 +26486,16 @@
       <c r="IY35" s="14">
         <v>719529</v>
       </c>
-      <c r="IZ35" s="15">
+      <c r="IZ35" s="14">
         <v>723914</v>
       </c>
+      <c r="JA35" s="15">
+        <v>729296</v>
+      </c>
     </row>
-    <row r="36" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="B36" s="13">
         <v>224964</v>
@@ -28066,13 +27271,16 @@
       <c r="IY36" s="14">
         <v>378786</v>
       </c>
-      <c r="IZ36" s="15">
+      <c r="IZ36" s="14">
         <v>381893</v>
       </c>
+      <c r="JA36" s="15">
+        <v>388454</v>
+      </c>
     </row>
-    <row r="37" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>261</v>
+        <v>31</v>
       </c>
       <c r="B37" s="13">
         <v>91166</v>
@@ -28848,13 +28056,16 @@
       <c r="IY37" s="14">
         <v>190973</v>
       </c>
-      <c r="IZ37" s="15">
+      <c r="IZ37" s="14">
         <v>192118</v>
       </c>
+      <c r="JA37" s="15">
+        <v>193441</v>
+      </c>
     </row>
-    <row r="38" spans="1:260" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>264</v>
+        <v>34</v>
       </c>
       <c r="B38" s="16">
         <v>12034095</v>
@@ -29631,13 +28842,16 @@
       <c r="IY38" s="10">
         <v>20291923</v>
       </c>
-      <c r="IZ38" s="11">
+      <c r="IZ38" s="10">
         <v>20420823</v>
       </c>
+      <c r="JA38" s="11">
+        <v>20594919</v>
+      </c>
     </row>
-    <row r="40" spans="1:260" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:261" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
       <c r="HR40" s="22"/>
       <c r="HS40" s="22"/>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -910,10 +910,10 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1260,11 +1260,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JA40"/>
+  <dimension ref="A1:JB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JF32" sqref="JF32"/>
+      <selection pane="topRight" activeCell="JI17" sqref="JI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,22 +1361,23 @@
     <col min="250" max="250" width="10.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="11" style="7" bestFit="1" customWidth="1"/>
     <col min="252" max="260" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="10.5703125" style="7" customWidth="1"/>
+    <col min="262" max="262" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:261" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="3" spans="1:262" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="18">
@@ -2156,12 +2157,15 @@
       <c r="IZ4" s="36">
         <v>2021</v>
       </c>
-      <c r="JA4" s="37">
+      <c r="JA4" s="36">
         <v>2021</v>
       </c>
+      <c r="JB4" s="37">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:261" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+    <row r="5" spans="1:262" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
@@ -2939,11 +2943,14 @@
       <c r="IZ5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="JA5" s="34" t="s">
+      <c r="JA5" s="21" t="s">
         <v>45</v>
       </c>
+      <c r="JB5" s="34" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="6" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3724,11 +3731,14 @@
       <c r="IZ6" s="14">
         <v>336344</v>
       </c>
-      <c r="JA6" s="15">
+      <c r="JA6" s="14">
         <v>338890</v>
       </c>
+      <c r="JB6" s="15">
+        <v>339787</v>
+      </c>
     </row>
-    <row r="7" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4509,11 +4519,14 @@
       <c r="IZ7" s="14">
         <v>987424</v>
       </c>
-      <c r="JA7" s="15">
+      <c r="JA7" s="14">
         <v>994836</v>
       </c>
+      <c r="JB7" s="15">
+        <v>999951</v>
+      </c>
     </row>
-    <row r="8" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5294,11 +5307,14 @@
       <c r="IZ8" s="14">
         <v>183981</v>
       </c>
-      <c r="JA8" s="15">
+      <c r="JA8" s="14">
         <v>190795</v>
       </c>
+      <c r="JB8" s="15">
+        <v>196200</v>
+      </c>
     </row>
-    <row r="9" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6079,11 +6095,14 @@
       <c r="IZ9" s="14">
         <v>132574</v>
       </c>
-      <c r="JA9" s="15">
+      <c r="JA9" s="14">
         <v>131815</v>
       </c>
+      <c r="JB9" s="15">
+        <v>132469</v>
+      </c>
     </row>
-    <row r="10" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -6864,11 +6883,14 @@
       <c r="IZ10" s="14">
         <v>231028</v>
       </c>
-      <c r="JA10" s="15">
+      <c r="JA10" s="14">
         <v>231748</v>
       </c>
+      <c r="JB10" s="15">
+        <v>233795</v>
+      </c>
     </row>
-    <row r="11" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7649,11 +7671,14 @@
       <c r="IZ11" s="14">
         <v>933227</v>
       </c>
-      <c r="JA11" s="15">
+      <c r="JA11" s="14">
         <v>939840</v>
       </c>
+      <c r="JB11" s="15">
+        <v>944986</v>
+      </c>
     </row>
-    <row r="12" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -8434,11 +8459,14 @@
       <c r="IZ12" s="14">
         <v>3262318</v>
       </c>
-      <c r="JA12" s="15">
+      <c r="JA12" s="14">
         <v>3285182</v>
       </c>
+      <c r="JB12" s="15">
+        <v>3311635</v>
+      </c>
     </row>
-    <row r="13" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -9219,11 +9247,14 @@
       <c r="IZ13" s="14">
         <v>793634</v>
       </c>
-      <c r="JA13" s="15">
+      <c r="JA13" s="14">
         <v>798173</v>
       </c>
+      <c r="JB13" s="15">
+        <v>800153</v>
+      </c>
     </row>
-    <row r="14" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -10004,11 +10035,14 @@
       <c r="IZ14" s="14">
         <v>140058</v>
       </c>
-      <c r="JA14" s="15">
+      <c r="JA14" s="14">
         <v>141099</v>
       </c>
+      <c r="JB14" s="15">
+        <v>140772</v>
+      </c>
     </row>
-    <row r="15" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -10789,11 +10823,14 @@
       <c r="IZ15" s="14">
         <v>251748</v>
       </c>
-      <c r="JA15" s="15">
+      <c r="JA15" s="14">
         <v>253375</v>
       </c>
+      <c r="JB15" s="15">
+        <v>255635</v>
+      </c>
     </row>
-    <row r="16" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -11574,11 +11611,14 @@
       <c r="IZ16" s="14">
         <v>1626856</v>
       </c>
-      <c r="JA16" s="15">
+      <c r="JA16" s="14">
         <v>1644896</v>
       </c>
+      <c r="JB16" s="15">
+        <v>1667919</v>
+      </c>
     </row>
-    <row r="17" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -12359,11 +12399,14 @@
       <c r="IZ17" s="14">
         <v>1010231</v>
       </c>
-      <c r="JA17" s="15">
+      <c r="JA17" s="14">
         <v>1019796</v>
       </c>
+      <c r="JB17" s="15">
+        <v>1029268</v>
+      </c>
     </row>
-    <row r="18" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -13144,11 +13187,14 @@
       <c r="IZ18" s="14">
         <v>148278</v>
       </c>
-      <c r="JA18" s="15">
+      <c r="JA18" s="14">
         <v>146786</v>
       </c>
+      <c r="JB18" s="15">
+        <v>149637</v>
+      </c>
     </row>
-    <row r="19" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -13929,11 +13975,14 @@
       <c r="IZ19" s="14">
         <v>235746</v>
       </c>
-      <c r="JA19" s="15">
+      <c r="JA19" s="14">
         <v>238463</v>
       </c>
+      <c r="JB19" s="15">
+        <v>241477</v>
+      </c>
     </row>
-    <row r="20" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>14</v>
       </c>
@@ -14714,11 +14763,14 @@
       <c r="IZ20" s="27">
         <v>1837975</v>
       </c>
-      <c r="JA20" s="39">
+      <c r="JA20" s="27">
         <v>1847731</v>
       </c>
+      <c r="JB20" s="38">
+        <v>1858235</v>
+      </c>
     </row>
-    <row r="21" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -15499,11 +15551,14 @@
       <c r="IZ21" s="14">
         <v>458402</v>
       </c>
-      <c r="JA21" s="15">
+      <c r="JA21" s="14">
         <v>461439</v>
       </c>
+      <c r="JB21" s="15">
+        <v>463452</v>
+      </c>
     </row>
-    <row r="22" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -16284,11 +16339,14 @@
       <c r="IZ22" s="14">
         <v>207421</v>
       </c>
-      <c r="JA22" s="15">
+      <c r="JA22" s="14">
         <v>210063</v>
       </c>
+      <c r="JB22" s="15">
+        <v>212465</v>
+      </c>
     </row>
-    <row r="23" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -17069,11 +17127,14 @@
       <c r="IZ23" s="14">
         <v>158588</v>
       </c>
-      <c r="JA23" s="15">
+      <c r="JA23" s="14">
         <v>160256</v>
       </c>
+      <c r="JB23" s="15">
+        <v>162065</v>
+      </c>
     </row>
-    <row r="24" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -17854,11 +17915,14 @@
       <c r="IZ24" s="14">
         <v>1688575</v>
       </c>
-      <c r="JA24" s="15">
+      <c r="JA24" s="14">
         <v>1705496</v>
       </c>
+      <c r="JB24" s="15">
+        <v>1720320</v>
+      </c>
     </row>
-    <row r="25" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -18639,11 +18703,14 @@
       <c r="IZ25" s="14">
         <v>212005</v>
       </c>
-      <c r="JA25" s="15">
+      <c r="JA25" s="14">
         <v>213025</v>
       </c>
+      <c r="JB25" s="15">
+        <v>214521</v>
+      </c>
     </row>
-    <row r="26" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -19424,11 +19491,14 @@
       <c r="IZ26" s="14">
         <v>601686</v>
       </c>
-      <c r="JA26" s="15">
+      <c r="JA26" s="14">
         <v>605406</v>
       </c>
+      <c r="JB26" s="15">
+        <v>608050</v>
+      </c>
     </row>
-    <row r="27" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -20209,11 +20279,14 @@
       <c r="IZ27" s="14">
         <v>626975</v>
       </c>
-      <c r="JA27" s="15">
+      <c r="JA27" s="14">
         <v>629751</v>
       </c>
+      <c r="JB27" s="15">
+        <v>634086</v>
+      </c>
     </row>
-    <row r="28" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -20994,11 +21067,14 @@
       <c r="IZ28" s="14">
         <v>424006</v>
       </c>
-      <c r="JA28" s="15">
+      <c r="JA28" s="14">
         <v>421962</v>
       </c>
+      <c r="JB28" s="15">
+        <v>431755</v>
+      </c>
     </row>
-    <row r="29" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -21779,11 +21855,14 @@
       <c r="IZ29" s="14">
         <v>454927</v>
       </c>
-      <c r="JA29" s="15">
+      <c r="JA29" s="14">
         <v>456972</v>
       </c>
+      <c r="JB29" s="15">
+        <v>455226</v>
+      </c>
     </row>
-    <row r="30" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -22564,11 +22643,14 @@
       <c r="IZ30" s="14">
         <v>562948</v>
       </c>
-      <c r="JA30" s="15">
+      <c r="JA30" s="14">
         <v>575501</v>
       </c>
+      <c r="JB30" s="15">
+        <v>584987</v>
+      </c>
     </row>
-    <row r="31" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -23349,11 +23431,14 @@
       <c r="IZ31" s="14">
         <v>626858</v>
       </c>
-      <c r="JA31" s="15">
+      <c r="JA31" s="14">
         <v>640048</v>
       </c>
+      <c r="JB31" s="15">
+        <v>644801</v>
+      </c>
     </row>
-    <row r="32" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -24134,11 +24219,14 @@
       <c r="IZ32" s="14">
         <v>201725</v>
       </c>
-      <c r="JA32" s="15">
+      <c r="JA32" s="14">
         <v>205088</v>
       </c>
+      <c r="JB32" s="15">
+        <v>208396</v>
+      </c>
     </row>
-    <row r="33" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -24919,11 +25007,14 @@
       <c r="IZ33" s="14">
         <v>682377</v>
       </c>
-      <c r="JA33" s="15">
+      <c r="JA33" s="14">
         <v>690521</v>
       </c>
+      <c r="JB33" s="15">
+        <v>693674</v>
+      </c>
     </row>
-    <row r="34" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -25704,11 +25795,14 @@
       <c r="IZ34" s="14">
         <v>104983</v>
       </c>
-      <c r="JA34" s="15">
+      <c r="JA34" s="14">
         <v>104775</v>
       </c>
+      <c r="JB34" s="15">
+        <v>105205</v>
+      </c>
     </row>
-    <row r="35" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -26489,11 +26583,14 @@
       <c r="IZ35" s="14">
         <v>723914</v>
       </c>
-      <c r="JA35" s="15">
+      <c r="JA35" s="14">
         <v>729296</v>
       </c>
+      <c r="JB35" s="15">
+        <v>735608</v>
+      </c>
     </row>
-    <row r="36" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -27274,11 +27371,14 @@
       <c r="IZ36" s="14">
         <v>381893</v>
       </c>
-      <c r="JA36" s="15">
+      <c r="JA36" s="14">
         <v>388454</v>
       </c>
+      <c r="JB36" s="15">
+        <v>394110</v>
+      </c>
     </row>
-    <row r="37" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -28059,11 +28159,14 @@
       <c r="IZ37" s="14">
         <v>192118</v>
       </c>
-      <c r="JA37" s="15">
+      <c r="JA37" s="14">
         <v>193441</v>
       </c>
+      <c r="JB37" s="15">
+        <v>196947</v>
+      </c>
     </row>
-    <row r="38" spans="1:261" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
@@ -28845,11 +28948,14 @@
       <c r="IZ38" s="10">
         <v>20420823</v>
       </c>
-      <c r="JA38" s="11">
+      <c r="JA38" s="10">
         <v>20594919</v>
       </c>
+      <c r="JB38" s="11">
+        <v>20767587</v>
+      </c>
     </row>
-    <row r="40" spans="1:261" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:262" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1260,11 +1260,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JB40"/>
+  <dimension ref="A1:JC40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JI17" sqref="JI17"/>
+      <selection pane="topRight" activeCell="JH10" sqref="JH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,22 +1361,22 @@
     <col min="250" max="250" width="10.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="11" style="7" bestFit="1" customWidth="1"/>
     <col min="252" max="260" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="10.5703125" style="7" customWidth="1"/>
-    <col min="262" max="262" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="10.5703125" style="7" customWidth="1"/>
+    <col min="263" max="263" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:262" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:263" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>35</v>
       </c>
@@ -2160,11 +2160,14 @@
       <c r="JA4" s="36">
         <v>2021</v>
       </c>
-      <c r="JB4" s="37">
+      <c r="JB4" s="36">
         <v>2021</v>
       </c>
+      <c r="JC4" s="37">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>37</v>
@@ -2946,11 +2949,14 @@
       <c r="JA5" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="JB5" s="34" t="s">
+      <c r="JB5" s="21" t="s">
         <v>46</v>
       </c>
+      <c r="JC5" s="34" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="6" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3734,11 +3740,14 @@
       <c r="JA6" s="14">
         <v>338890</v>
       </c>
-      <c r="JB6" s="15">
+      <c r="JB6" s="14">
         <v>339787</v>
       </c>
+      <c r="JC6" s="15">
+        <v>340465</v>
+      </c>
     </row>
-    <row r="7" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4522,11 +4531,14 @@
       <c r="JA7" s="14">
         <v>994836</v>
       </c>
-      <c r="JB7" s="15">
+      <c r="JB7" s="14">
         <v>999951</v>
       </c>
+      <c r="JC7" s="15">
+        <v>1002417</v>
+      </c>
     </row>
-    <row r="8" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5310,11 +5322,14 @@
       <c r="JA8" s="14">
         <v>190795</v>
       </c>
-      <c r="JB8" s="15">
+      <c r="JB8" s="14">
         <v>196200</v>
       </c>
+      <c r="JC8" s="15">
+        <v>198399</v>
+      </c>
     </row>
-    <row r="9" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6098,11 +6113,14 @@
       <c r="JA9" s="14">
         <v>131815</v>
       </c>
-      <c r="JB9" s="15">
+      <c r="JB9" s="14">
         <v>132469</v>
       </c>
+      <c r="JC9" s="15">
+        <v>134083</v>
+      </c>
     </row>
-    <row r="10" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -6886,11 +6904,14 @@
       <c r="JA10" s="14">
         <v>231748</v>
       </c>
-      <c r="JB10" s="15">
+      <c r="JB10" s="14">
         <v>233795</v>
       </c>
+      <c r="JC10" s="15">
+        <v>236364</v>
+      </c>
     </row>
-    <row r="11" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7674,11 +7695,14 @@
       <c r="JA11" s="14">
         <v>939840</v>
       </c>
-      <c r="JB11" s="15">
+      <c r="JB11" s="14">
         <v>944986</v>
       </c>
+      <c r="JC11" s="15">
+        <v>947984</v>
+      </c>
     </row>
-    <row r="12" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -8462,11 +8486,14 @@
       <c r="JA12" s="14">
         <v>3285182</v>
       </c>
-      <c r="JB12" s="15">
+      <c r="JB12" s="14">
         <v>3311635</v>
       </c>
+      <c r="JC12" s="15">
+        <v>3348570</v>
+      </c>
     </row>
-    <row r="13" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -9250,11 +9277,14 @@
       <c r="JA13" s="14">
         <v>798173</v>
       </c>
-      <c r="JB13" s="15">
+      <c r="JB13" s="14">
         <v>800153</v>
       </c>
+      <c r="JC13" s="15">
+        <v>803466</v>
+      </c>
     </row>
-    <row r="14" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -10038,11 +10068,14 @@
       <c r="JA14" s="14">
         <v>141099</v>
       </c>
-      <c r="JB14" s="15">
+      <c r="JB14" s="14">
         <v>140772</v>
       </c>
+      <c r="JC14" s="15">
+        <v>141861</v>
+      </c>
     </row>
-    <row r="15" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -10826,11 +10859,14 @@
       <c r="JA15" s="14">
         <v>253375</v>
       </c>
-      <c r="JB15" s="15">
+      <c r="JB15" s="14">
         <v>255635</v>
       </c>
+      <c r="JC15" s="15">
+        <v>258213</v>
+      </c>
     </row>
-    <row r="16" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -11614,11 +11650,14 @@
       <c r="JA16" s="14">
         <v>1644896</v>
       </c>
-      <c r="JB16" s="15">
+      <c r="JB16" s="14">
         <v>1667919</v>
       </c>
+      <c r="JC16" s="15">
+        <v>1681296</v>
+      </c>
     </row>
-    <row r="17" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -12402,11 +12441,14 @@
       <c r="JA17" s="14">
         <v>1019796</v>
       </c>
-      <c r="JB17" s="15">
+      <c r="JB17" s="14">
         <v>1029268</v>
       </c>
+      <c r="JC17" s="15">
+        <v>1035894</v>
+      </c>
     </row>
-    <row r="18" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -13190,11 +13232,14 @@
       <c r="JA18" s="14">
         <v>146786</v>
       </c>
-      <c r="JB18" s="15">
+      <c r="JB18" s="14">
         <v>149637</v>
       </c>
+      <c r="JC18" s="15">
+        <v>150690</v>
+      </c>
     </row>
-    <row r="19" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -13978,11 +14023,14 @@
       <c r="JA19" s="14">
         <v>238463</v>
       </c>
-      <c r="JB19" s="15">
+      <c r="JB19" s="14">
         <v>241477</v>
       </c>
+      <c r="JC19" s="15">
+        <v>244466</v>
+      </c>
     </row>
-    <row r="20" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>14</v>
       </c>
@@ -14766,11 +14814,14 @@
       <c r="JA20" s="27">
         <v>1847731</v>
       </c>
-      <c r="JB20" s="38">
+      <c r="JB20" s="27">
         <v>1858235</v>
       </c>
+      <c r="JC20" s="38">
+        <v>1873476</v>
+      </c>
     </row>
-    <row r="21" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -15554,11 +15605,14 @@
       <c r="JA21" s="14">
         <v>461439</v>
       </c>
-      <c r="JB21" s="15">
+      <c r="JB21" s="14">
         <v>463452</v>
       </c>
+      <c r="JC21" s="15">
+        <v>466532</v>
+      </c>
     </row>
-    <row r="22" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -16342,11 +16396,14 @@
       <c r="JA22" s="14">
         <v>210063</v>
       </c>
-      <c r="JB22" s="15">
+      <c r="JB22" s="14">
         <v>212465</v>
       </c>
+      <c r="JC22" s="15">
+        <v>215678</v>
+      </c>
     </row>
-    <row r="23" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -17130,11 +17187,14 @@
       <c r="JA23" s="14">
         <v>160256</v>
       </c>
-      <c r="JB23" s="15">
+      <c r="JB23" s="14">
         <v>162065</v>
       </c>
+      <c r="JC23" s="15">
+        <v>164103</v>
+      </c>
     </row>
-    <row r="24" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -17918,11 +17978,14 @@
       <c r="JA24" s="14">
         <v>1705496</v>
       </c>
-      <c r="JB24" s="15">
+      <c r="JB24" s="14">
         <v>1720320</v>
       </c>
+      <c r="JC24" s="15">
+        <v>1730303</v>
+      </c>
     </row>
-    <row r="25" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -18706,11 +18769,14 @@
       <c r="JA25" s="14">
         <v>213025</v>
       </c>
-      <c r="JB25" s="15">
+      <c r="JB25" s="14">
         <v>214521</v>
       </c>
+      <c r="JC25" s="15">
+        <v>218085</v>
+      </c>
     </row>
-    <row r="26" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -19494,11 +19560,14 @@
       <c r="JA26" s="14">
         <v>605406</v>
       </c>
-      <c r="JB26" s="15">
+      <c r="JB26" s="14">
         <v>608050</v>
       </c>
+      <c r="JC26" s="15">
+        <v>615837</v>
+      </c>
     </row>
-    <row r="27" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -20282,11 +20351,14 @@
       <c r="JA27" s="14">
         <v>629751</v>
       </c>
-      <c r="JB27" s="15">
+      <c r="JB27" s="14">
         <v>634086</v>
       </c>
+      <c r="JC27" s="15">
+        <v>639432</v>
+      </c>
     </row>
-    <row r="28" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -21070,11 +21142,14 @@
       <c r="JA28" s="14">
         <v>421962</v>
       </c>
-      <c r="JB28" s="15">
+      <c r="JB28" s="14">
         <v>431755</v>
       </c>
+      <c r="JC28" s="15">
+        <v>442048</v>
+      </c>
     </row>
-    <row r="29" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -21858,11 +21933,14 @@
       <c r="JA29" s="14">
         <v>456972</v>
       </c>
-      <c r="JB29" s="15">
+      <c r="JB29" s="14">
         <v>455226</v>
       </c>
+      <c r="JC29" s="15">
+        <v>458236</v>
+      </c>
     </row>
-    <row r="30" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -22646,11 +22724,14 @@
       <c r="JA30" s="14">
         <v>575501</v>
       </c>
-      <c r="JB30" s="15">
+      <c r="JB30" s="14">
         <v>584987</v>
       </c>
+      <c r="JC30" s="15">
+        <v>587453</v>
+      </c>
     </row>
-    <row r="31" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -23434,11 +23515,14 @@
       <c r="JA31" s="14">
         <v>640048</v>
       </c>
-      <c r="JB31" s="15">
+      <c r="JB31" s="14">
         <v>644801</v>
       </c>
+      <c r="JC31" s="15">
+        <v>646482</v>
+      </c>
     </row>
-    <row r="32" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -24222,11 +24306,14 @@
       <c r="JA32" s="14">
         <v>205088</v>
       </c>
-      <c r="JB32" s="15">
+      <c r="JB32" s="14">
         <v>208396</v>
       </c>
+      <c r="JC32" s="15">
+        <v>213110</v>
+      </c>
     </row>
-    <row r="33" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -25010,11 +25097,14 @@
       <c r="JA33" s="14">
         <v>690521</v>
       </c>
-      <c r="JB33" s="15">
+      <c r="JB33" s="14">
         <v>693674</v>
       </c>
+      <c r="JC33" s="15">
+        <v>695701</v>
+      </c>
     </row>
-    <row r="34" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -25798,11 +25888,14 @@
       <c r="JA34" s="14">
         <v>104775</v>
       </c>
-      <c r="JB34" s="15">
+      <c r="JB34" s="14">
         <v>105205</v>
       </c>
+      <c r="JC34" s="15">
+        <v>105292</v>
+      </c>
     </row>
-    <row r="35" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -26586,11 +26679,14 @@
       <c r="JA35" s="14">
         <v>729296</v>
       </c>
-      <c r="JB35" s="15">
+      <c r="JB35" s="14">
         <v>735608</v>
       </c>
+      <c r="JC35" s="15">
+        <v>742630</v>
+      </c>
     </row>
-    <row r="36" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -27374,11 +27470,14 @@
       <c r="JA36" s="14">
         <v>388454</v>
       </c>
-      <c r="JB36" s="15">
+      <c r="JB36" s="14">
         <v>394110</v>
       </c>
+      <c r="JC36" s="15">
+        <v>397354</v>
+      </c>
     </row>
-    <row r="37" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -28162,11 +28261,14 @@
       <c r="JA37" s="14">
         <v>193441</v>
       </c>
-      <c r="JB37" s="15">
+      <c r="JB37" s="14">
         <v>196947</v>
       </c>
+      <c r="JC37" s="15">
+        <v>197130</v>
+      </c>
     </row>
-    <row r="38" spans="1:262" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
@@ -28951,11 +29053,14 @@
       <c r="JA38" s="10">
         <v>20594919</v>
       </c>
-      <c r="JB38" s="11">
+      <c r="JB38" s="10">
         <v>20767587</v>
       </c>
+      <c r="JC38" s="11">
+        <v>20933050</v>
+      </c>
     </row>
-    <row r="40" spans="1:262" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:263" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1260,11 +1260,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JC40"/>
+  <dimension ref="A1:JD40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JH10" sqref="JH10"/>
+      <selection pane="topRight" activeCell="JH14" sqref="JH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,22 +1361,22 @@
     <col min="250" max="250" width="10.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="11" style="7" bestFit="1" customWidth="1"/>
     <col min="252" max="260" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="261" max="262" width="10.5703125" style="7" customWidth="1"/>
-    <col min="263" max="263" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="261" max="263" width="10.5703125" style="7" customWidth="1"/>
+    <col min="264" max="264" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:263" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:264" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>35</v>
       </c>
@@ -2163,11 +2163,14 @@
       <c r="JB4" s="36">
         <v>2021</v>
       </c>
-      <c r="JC4" s="37">
+      <c r="JC4" s="36">
         <v>2021</v>
       </c>
+      <c r="JD4" s="37">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>37</v>
@@ -2952,11 +2955,14 @@
       <c r="JB5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="JC5" s="34" t="s">
+      <c r="JC5" s="21" t="s">
         <v>47</v>
       </c>
+      <c r="JD5" s="34" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="6" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3743,11 +3749,14 @@
       <c r="JB6" s="14">
         <v>339787</v>
       </c>
-      <c r="JC6" s="15">
+      <c r="JC6" s="14">
         <v>340465</v>
       </c>
+      <c r="JD6" s="15">
+        <v>335529</v>
+      </c>
     </row>
-    <row r="7" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4534,11 +4543,14 @@
       <c r="JB7" s="14">
         <v>999951</v>
       </c>
-      <c r="JC7" s="15">
+      <c r="JC7" s="14">
         <v>1002417</v>
       </c>
+      <c r="JD7" s="15">
+        <v>975398</v>
+      </c>
     </row>
-    <row r="8" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5325,11 +5337,14 @@
       <c r="JB8" s="14">
         <v>196200</v>
       </c>
-      <c r="JC8" s="15">
+      <c r="JC8" s="14">
         <v>198399</v>
       </c>
+      <c r="JD8" s="15">
+        <v>189833</v>
+      </c>
     </row>
-    <row r="9" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6116,11 +6131,14 @@
       <c r="JB9" s="14">
         <v>132469</v>
       </c>
-      <c r="JC9" s="15">
+      <c r="JC9" s="14">
         <v>134083</v>
       </c>
+      <c r="JD9" s="15">
+        <v>131218</v>
+      </c>
     </row>
-    <row r="10" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -6907,11 +6925,14 @@
       <c r="JB10" s="14">
         <v>233795</v>
       </c>
-      <c r="JC10" s="15">
+      <c r="JC10" s="14">
         <v>236364</v>
       </c>
+      <c r="JD10" s="15">
+        <v>235059</v>
+      </c>
     </row>
-    <row r="11" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7698,11 +7719,14 @@
       <c r="JB11" s="14">
         <v>944986</v>
       </c>
-      <c r="JC11" s="15">
+      <c r="JC11" s="14">
         <v>947984</v>
       </c>
+      <c r="JD11" s="15">
+        <v>930477</v>
+      </c>
     </row>
-    <row r="12" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -8489,11 +8513,14 @@
       <c r="JB12" s="14">
         <v>3311635</v>
       </c>
-      <c r="JC12" s="15">
+      <c r="JC12" s="14">
         <v>3348570</v>
       </c>
+      <c r="JD12" s="15">
+        <v>3312592</v>
+      </c>
     </row>
-    <row r="13" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -9280,11 +9307,14 @@
       <c r="JB13" s="14">
         <v>800153</v>
       </c>
-      <c r="JC13" s="15">
+      <c r="JC13" s="14">
         <v>803466</v>
       </c>
+      <c r="JD13" s="15">
+        <v>789518</v>
+      </c>
     </row>
-    <row r="14" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -10071,11 +10101,14 @@
       <c r="JB14" s="14">
         <v>140772</v>
       </c>
-      <c r="JC14" s="15">
+      <c r="JC14" s="14">
         <v>141861</v>
       </c>
+      <c r="JD14" s="15">
+        <v>139423</v>
+      </c>
     </row>
-    <row r="15" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -10862,11 +10895,14 @@
       <c r="JB15" s="14">
         <v>255635</v>
       </c>
-      <c r="JC15" s="15">
+      <c r="JC15" s="14">
         <v>258213</v>
       </c>
+      <c r="JD15" s="15">
+        <v>254204</v>
+      </c>
     </row>
-    <row r="16" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -11653,11 +11689,14 @@
       <c r="JB16" s="14">
         <v>1667919</v>
       </c>
-      <c r="JC16" s="15">
+      <c r="JC16" s="14">
         <v>1681296</v>
       </c>
+      <c r="JD16" s="15">
+        <v>1650381</v>
+      </c>
     </row>
-    <row r="17" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -12444,11 +12483,14 @@
       <c r="JB17" s="14">
         <v>1029268</v>
       </c>
-      <c r="JC17" s="15">
+      <c r="JC17" s="14">
         <v>1035894</v>
       </c>
+      <c r="JD17" s="15">
+        <v>1019332</v>
+      </c>
     </row>
-    <row r="18" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -13235,11 +13277,14 @@
       <c r="JB18" s="14">
         <v>149637</v>
       </c>
-      <c r="JC18" s="15">
+      <c r="JC18" s="14">
         <v>150690</v>
       </c>
+      <c r="JD18" s="15">
+        <v>153546</v>
+      </c>
     </row>
-    <row r="19" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -14026,11 +14071,14 @@
       <c r="JB19" s="14">
         <v>241477</v>
       </c>
-      <c r="JC19" s="15">
+      <c r="JC19" s="14">
         <v>244466</v>
       </c>
+      <c r="JD19" s="15">
+        <v>240431</v>
+      </c>
     </row>
-    <row r="20" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>14</v>
       </c>
@@ -14817,11 +14865,14 @@
       <c r="JB20" s="27">
         <v>1858235</v>
       </c>
-      <c r="JC20" s="38">
+      <c r="JC20" s="27">
         <v>1873476</v>
       </c>
+      <c r="JD20" s="38">
+        <v>1849999</v>
+      </c>
     </row>
-    <row r="21" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -15608,11 +15659,14 @@
       <c r="JB21" s="14">
         <v>463452</v>
       </c>
-      <c r="JC21" s="15">
+      <c r="JC21" s="14">
         <v>466532</v>
       </c>
+      <c r="JD21" s="15">
+        <v>461758</v>
+      </c>
     </row>
-    <row r="22" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -16399,11 +16453,14 @@
       <c r="JB22" s="14">
         <v>212465</v>
       </c>
-      <c r="JC22" s="15">
+      <c r="JC22" s="14">
         <v>215678</v>
       </c>
+      <c r="JD22" s="15">
+        <v>213192</v>
+      </c>
     </row>
-    <row r="23" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -17190,11 +17247,14 @@
       <c r="JB23" s="14">
         <v>162065</v>
       </c>
-      <c r="JC23" s="15">
+      <c r="JC23" s="14">
         <v>164103</v>
       </c>
+      <c r="JD23" s="15">
+        <v>160665</v>
+      </c>
     </row>
-    <row r="24" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -17981,11 +18041,14 @@
       <c r="JB24" s="14">
         <v>1720320</v>
       </c>
-      <c r="JC24" s="15">
+      <c r="JC24" s="14">
         <v>1730303</v>
       </c>
+      <c r="JD24" s="15">
+        <v>1696689</v>
+      </c>
     </row>
-    <row r="25" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -18772,11 +18835,14 @@
       <c r="JB25" s="14">
         <v>214521</v>
       </c>
-      <c r="JC25" s="15">
+      <c r="JC25" s="14">
         <v>218085</v>
       </c>
+      <c r="JD25" s="15">
+        <v>216374</v>
+      </c>
     </row>
-    <row r="26" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -19563,11 +19629,14 @@
       <c r="JB26" s="14">
         <v>608050</v>
       </c>
-      <c r="JC26" s="15">
+      <c r="JC26" s="14">
         <v>615837</v>
       </c>
+      <c r="JD26" s="15">
+        <v>611779</v>
+      </c>
     </row>
-    <row r="27" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -20354,11 +20423,14 @@
       <c r="JB27" s="14">
         <v>634086</v>
       </c>
-      <c r="JC27" s="15">
+      <c r="JC27" s="14">
         <v>639432</v>
       </c>
+      <c r="JD27" s="15">
+        <v>628676</v>
+      </c>
     </row>
-    <row r="28" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -21145,11 +21217,14 @@
       <c r="JB28" s="14">
         <v>431755</v>
       </c>
-      <c r="JC28" s="15">
+      <c r="JC28" s="14">
         <v>442048</v>
       </c>
+      <c r="JD28" s="15">
+        <v>432986</v>
+      </c>
     </row>
-    <row r="29" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -21936,11 +22011,14 @@
       <c r="JB29" s="14">
         <v>455226</v>
       </c>
-      <c r="JC29" s="15">
+      <c r="JC29" s="14">
         <v>458236</v>
       </c>
+      <c r="JD29" s="15">
+        <v>451010</v>
+      </c>
     </row>
-    <row r="30" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -22727,11 +22805,14 @@
       <c r="JB30" s="14">
         <v>584987</v>
       </c>
-      <c r="JC30" s="15">
+      <c r="JC30" s="14">
         <v>587453</v>
       </c>
+      <c r="JD30" s="15">
+        <v>586281</v>
+      </c>
     </row>
-    <row r="31" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -23518,11 +23599,14 @@
       <c r="JB31" s="14">
         <v>644801</v>
       </c>
-      <c r="JC31" s="15">
+      <c r="JC31" s="14">
         <v>646482</v>
       </c>
+      <c r="JD31" s="15">
+        <v>626610</v>
+      </c>
     </row>
-    <row r="32" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -24309,11 +24393,14 @@
       <c r="JB32" s="14">
         <v>208396</v>
       </c>
-      <c r="JC32" s="15">
+      <c r="JC32" s="14">
         <v>213110</v>
       </c>
+      <c r="JD32" s="15">
+        <v>209338</v>
+      </c>
     </row>
-    <row r="33" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -25100,11 +25187,14 @@
       <c r="JB33" s="14">
         <v>693674</v>
       </c>
-      <c r="JC33" s="15">
+      <c r="JC33" s="14">
         <v>695701</v>
       </c>
+      <c r="JD33" s="15">
+        <v>681365</v>
+      </c>
     </row>
-    <row r="34" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -25891,11 +25981,14 @@
       <c r="JB34" s="14">
         <v>105205</v>
       </c>
-      <c r="JC34" s="15">
+      <c r="JC34" s="14">
         <v>105292</v>
       </c>
+      <c r="JD34" s="15">
+        <v>103100</v>
+      </c>
     </row>
-    <row r="35" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -26682,11 +26775,14 @@
       <c r="JB35" s="14">
         <v>735608</v>
       </c>
-      <c r="JC35" s="15">
+      <c r="JC35" s="14">
         <v>742630</v>
       </c>
+      <c r="JD35" s="15">
+        <v>744070</v>
+      </c>
     </row>
-    <row r="36" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -27473,11 +27569,14 @@
       <c r="JB36" s="14">
         <v>394110</v>
       </c>
-      <c r="JC36" s="15">
+      <c r="JC36" s="14">
         <v>397354</v>
       </c>
+      <c r="JD36" s="15">
+        <v>393339</v>
+      </c>
     </row>
-    <row r="37" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -28264,11 +28363,14 @@
       <c r="JB37" s="14">
         <v>196947</v>
       </c>
-      <c r="JC37" s="15">
+      <c r="JC37" s="14">
         <v>197130</v>
       </c>
+      <c r="JD37" s="15">
+        <v>195976</v>
+      </c>
     </row>
-    <row r="38" spans="1:263" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
@@ -29056,11 +29158,14 @@
       <c r="JB38" s="10">
         <v>20767587</v>
       </c>
-      <c r="JC38" s="11">
+      <c r="JC38" s="10">
         <v>20933050</v>
       </c>
+      <c r="JD38" s="11">
+        <v>20620148</v>
+      </c>
     </row>
-    <row r="40" spans="1:263" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:264" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -149,9 +149,6 @@
     <t xml:space="preserve">ENTIDAD </t>
   </si>
   <si>
-    <t>2000-2021</t>
-  </si>
-  <si>
     <t>Enero</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>Diciembre</t>
+  </si>
+  <si>
+    <t>2000-2022</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -763,15 +763,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -789,6 +780,32 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -837,11 +854,11 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -857,7 +874,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -880,19 +896,19 @@
     <xf numFmtId="3" fontId="16" fillId="37" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,10 +926,18 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1260,11 +1284,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JD40"/>
+  <dimension ref="A1:JE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JH14" sqref="JH14"/>
+      <selection pane="topRight" activeCell="JH31" sqref="JH31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,1606 +1387,1613 @@
     <col min="252" max="260" width="10.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="261" max="263" width="10.5703125" style="7" customWidth="1"/>
     <col min="264" max="264" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="10.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:265" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:265" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="H4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="J4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="K4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="L4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="M4" s="17">
+        <v>2000</v>
+      </c>
+      <c r="N4" s="16">
+        <v>2001</v>
+      </c>
+      <c r="O4" s="17">
+        <v>2001</v>
+      </c>
+      <c r="P4" s="17">
+        <v>2001</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>2001</v>
+      </c>
+      <c r="R4" s="17">
+        <v>2001</v>
+      </c>
+      <c r="S4" s="17">
+        <v>2001</v>
+      </c>
+      <c r="T4" s="17">
+        <v>2001</v>
+      </c>
+      <c r="U4" s="17">
+        <v>2001</v>
+      </c>
+      <c r="V4" s="17">
+        <v>2001</v>
+      </c>
+      <c r="W4" s="17">
+        <v>2001</v>
+      </c>
+      <c r="X4" s="17">
+        <v>2001</v>
+      </c>
+      <c r="Y4" s="17">
+        <v>2001</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>2002</v>
+      </c>
+      <c r="AA4" s="17">
+        <v>2002</v>
+      </c>
+      <c r="AB4" s="17">
+        <v>2002</v>
+      </c>
+      <c r="AC4" s="17">
+        <v>2002</v>
+      </c>
+      <c r="AD4" s="17">
+        <v>2002</v>
+      </c>
+      <c r="AE4" s="17">
+        <v>2002</v>
+      </c>
+      <c r="AF4" s="17">
+        <v>2002</v>
+      </c>
+      <c r="AG4" s="17">
+        <v>2002</v>
+      </c>
+      <c r="AH4" s="17">
+        <v>2002</v>
+      </c>
+      <c r="AI4" s="17">
+        <v>2002</v>
+      </c>
+      <c r="AJ4" s="17">
+        <v>2002</v>
+      </c>
+      <c r="AK4" s="17">
+        <v>2002</v>
+      </c>
+      <c r="AL4" s="16">
+        <v>2003</v>
+      </c>
+      <c r="AM4" s="17">
+        <v>2003</v>
+      </c>
+      <c r="AN4" s="17">
+        <v>2003</v>
+      </c>
+      <c r="AO4" s="17">
+        <v>2003</v>
+      </c>
+      <c r="AP4" s="17">
+        <v>2003</v>
+      </c>
+      <c r="AQ4" s="17">
+        <v>2003</v>
+      </c>
+      <c r="AR4" s="17">
+        <v>2003</v>
+      </c>
+      <c r="AS4" s="17">
+        <v>2003</v>
+      </c>
+      <c r="AT4" s="17">
+        <v>2003</v>
+      </c>
+      <c r="AU4" s="17">
+        <v>2003</v>
+      </c>
+      <c r="AV4" s="17">
+        <v>2003</v>
+      </c>
+      <c r="AW4" s="16">
+        <v>2004</v>
+      </c>
+      <c r="AX4" s="17">
+        <v>2004</v>
+      </c>
+      <c r="AY4" s="17">
+        <v>2004</v>
+      </c>
+      <c r="AZ4" s="17">
+        <v>2004</v>
+      </c>
+      <c r="BA4" s="17">
+        <v>2004</v>
+      </c>
+      <c r="BB4" s="17">
+        <v>2004</v>
+      </c>
+      <c r="BC4" s="17">
+        <v>2004</v>
+      </c>
+      <c r="BD4" s="17">
+        <v>2004</v>
+      </c>
+      <c r="BE4" s="17">
+        <v>2004</v>
+      </c>
+      <c r="BF4" s="17">
+        <v>2004</v>
+      </c>
+      <c r="BG4" s="17">
+        <v>2004</v>
+      </c>
+      <c r="BH4" s="17">
+        <v>2004</v>
+      </c>
+      <c r="BI4" s="16">
+        <v>2005</v>
+      </c>
+      <c r="BJ4" s="17">
+        <v>2005</v>
+      </c>
+      <c r="BK4" s="17">
+        <v>2005</v>
+      </c>
+      <c r="BL4" s="17">
+        <v>2005</v>
+      </c>
+      <c r="BM4" s="17">
+        <v>2005</v>
+      </c>
+      <c r="BN4" s="17">
+        <v>2005</v>
+      </c>
+      <c r="BO4" s="17">
+        <v>2005</v>
+      </c>
+      <c r="BP4" s="17">
+        <v>2005</v>
+      </c>
+      <c r="BQ4" s="17">
+        <v>2005</v>
+      </c>
+      <c r="BR4" s="17">
+        <v>2005</v>
+      </c>
+      <c r="BS4" s="17">
+        <v>2005</v>
+      </c>
+      <c r="BT4" s="17">
+        <v>2005</v>
+      </c>
+      <c r="BU4" s="16">
+        <v>2006</v>
+      </c>
+      <c r="BV4" s="17">
+        <v>2006</v>
+      </c>
+      <c r="BW4" s="17">
+        <v>2006</v>
+      </c>
+      <c r="BX4" s="17">
+        <v>2006</v>
+      </c>
+      <c r="BY4" s="17">
+        <v>2006</v>
+      </c>
+      <c r="BZ4" s="17">
+        <v>2006</v>
+      </c>
+      <c r="CA4" s="17">
+        <v>2006</v>
+      </c>
+      <c r="CB4" s="17">
+        <v>2006</v>
+      </c>
+      <c r="CC4" s="17">
+        <v>2006</v>
+      </c>
+      <c r="CD4" s="17">
+        <v>2006</v>
+      </c>
+      <c r="CE4" s="17">
+        <v>2006</v>
+      </c>
+      <c r="CF4" s="17">
+        <v>2006</v>
+      </c>
+      <c r="CG4" s="16">
+        <v>2007</v>
+      </c>
+      <c r="CH4" s="17">
+        <v>2007</v>
+      </c>
+      <c r="CI4" s="17">
+        <v>2007</v>
+      </c>
+      <c r="CJ4" s="17">
+        <v>2007</v>
+      </c>
+      <c r="CK4" s="17">
+        <v>2007</v>
+      </c>
+      <c r="CL4" s="17">
+        <v>2007</v>
+      </c>
+      <c r="CM4" s="17">
+        <v>2007</v>
+      </c>
+      <c r="CN4" s="17">
+        <v>2007</v>
+      </c>
+      <c r="CO4" s="17">
+        <v>2007</v>
+      </c>
+      <c r="CP4" s="17">
+        <v>2007</v>
+      </c>
+      <c r="CQ4" s="17">
+        <v>2007</v>
+      </c>
+      <c r="CR4" s="17">
+        <v>2007</v>
+      </c>
+      <c r="CS4" s="16">
+        <v>2008</v>
+      </c>
+      <c r="CT4" s="17">
+        <v>2008</v>
+      </c>
+      <c r="CU4" s="17">
+        <v>2008</v>
+      </c>
+      <c r="CV4" s="17">
+        <v>2008</v>
+      </c>
+      <c r="CW4" s="17">
+        <v>2008</v>
+      </c>
+      <c r="CX4" s="17">
+        <v>2008</v>
+      </c>
+      <c r="CY4" s="17">
+        <v>2008</v>
+      </c>
+      <c r="CZ4" s="17">
+        <v>2008</v>
+      </c>
+      <c r="DA4" s="17">
+        <v>2008</v>
+      </c>
+      <c r="DB4" s="17">
+        <v>2008</v>
+      </c>
+      <c r="DC4" s="17">
+        <v>2008</v>
+      </c>
+      <c r="DD4" s="17">
+        <v>2008</v>
+      </c>
+      <c r="DE4" s="16">
+        <v>2009</v>
+      </c>
+      <c r="DF4" s="17">
+        <v>2009</v>
+      </c>
+      <c r="DG4" s="17">
+        <v>2009</v>
+      </c>
+      <c r="DH4" s="17">
+        <v>2009</v>
+      </c>
+      <c r="DI4" s="17">
+        <v>2009</v>
+      </c>
+      <c r="DJ4" s="17">
+        <v>2009</v>
+      </c>
+      <c r="DK4" s="17">
+        <v>2009</v>
+      </c>
+      <c r="DL4" s="17">
+        <v>2009</v>
+      </c>
+      <c r="DM4" s="17">
+        <v>2009</v>
+      </c>
+      <c r="DN4" s="17">
+        <v>2009</v>
+      </c>
+      <c r="DO4" s="17">
+        <v>2009</v>
+      </c>
+      <c r="DP4" s="17">
+        <v>2009</v>
+      </c>
+      <c r="DQ4" s="16">
+        <v>2010</v>
+      </c>
+      <c r="DR4" s="17">
+        <v>2010</v>
+      </c>
+      <c r="DS4" s="17">
+        <v>2010</v>
+      </c>
+      <c r="DT4" s="17">
+        <v>2010</v>
+      </c>
+      <c r="DU4" s="17">
+        <v>2010</v>
+      </c>
+      <c r="DV4" s="17">
+        <v>2010</v>
+      </c>
+      <c r="DW4" s="17">
+        <v>2010</v>
+      </c>
+      <c r="DX4" s="17">
+        <v>2010</v>
+      </c>
+      <c r="DY4" s="17">
+        <v>2010</v>
+      </c>
+      <c r="DZ4" s="17">
+        <v>2010</v>
+      </c>
+      <c r="EA4" s="17">
+        <v>2010</v>
+      </c>
+      <c r="EB4" s="17">
+        <v>2010</v>
+      </c>
+      <c r="EC4" s="16">
+        <v>2011</v>
+      </c>
+      <c r="ED4" s="17">
+        <v>2011</v>
+      </c>
+      <c r="EE4" s="17">
+        <v>2011</v>
+      </c>
+      <c r="EF4" s="17">
+        <v>2011</v>
+      </c>
+      <c r="EG4" s="17">
+        <v>2011</v>
+      </c>
+      <c r="EH4" s="17">
+        <v>2011</v>
+      </c>
+      <c r="EI4" s="17">
+        <v>2011</v>
+      </c>
+      <c r="EJ4" s="17">
+        <v>2011</v>
+      </c>
+      <c r="EK4" s="17">
+        <v>2011</v>
+      </c>
+      <c r="EL4" s="17">
+        <v>2011</v>
+      </c>
+      <c r="EM4" s="17">
+        <v>2011</v>
+      </c>
+      <c r="EN4" s="17">
+        <v>2011</v>
+      </c>
+      <c r="EO4" s="16">
+        <v>2012</v>
+      </c>
+      <c r="EP4" s="17">
+        <v>2012</v>
+      </c>
+      <c r="EQ4" s="17">
+        <v>2012</v>
+      </c>
+      <c r="ER4" s="17">
+        <v>2012</v>
+      </c>
+      <c r="ES4" s="17">
+        <v>2012</v>
+      </c>
+      <c r="ET4" s="17">
+        <v>2012</v>
+      </c>
+      <c r="EU4" s="17">
+        <v>2012</v>
+      </c>
+      <c r="EV4" s="17">
+        <v>2012</v>
+      </c>
+      <c r="EW4" s="17">
+        <v>2012</v>
+      </c>
+      <c r="EX4" s="17">
+        <v>2012</v>
+      </c>
+      <c r="EY4" s="17">
+        <v>2012</v>
+      </c>
+      <c r="EZ4" s="17">
+        <v>2012</v>
+      </c>
+      <c r="FA4" s="16">
+        <v>2013</v>
+      </c>
+      <c r="FB4" s="17">
+        <v>2013</v>
+      </c>
+      <c r="FC4" s="17">
+        <v>2013</v>
+      </c>
+      <c r="FD4" s="17">
+        <v>2013</v>
+      </c>
+      <c r="FE4" s="17">
+        <v>2013</v>
+      </c>
+      <c r="FF4" s="17">
+        <v>2013</v>
+      </c>
+      <c r="FG4" s="17">
+        <v>2013</v>
+      </c>
+      <c r="FH4" s="17">
+        <v>2013</v>
+      </c>
+      <c r="FI4" s="17">
+        <v>2013</v>
+      </c>
+      <c r="FJ4" s="17">
+        <v>2013</v>
+      </c>
+      <c r="FK4" s="17">
+        <v>2013</v>
+      </c>
+      <c r="FL4" s="17">
+        <v>2013</v>
+      </c>
+      <c r="FM4" s="16">
+        <v>2014</v>
+      </c>
+      <c r="FN4" s="17">
+        <v>2014</v>
+      </c>
+      <c r="FO4" s="17">
+        <v>2014</v>
+      </c>
+      <c r="FP4" s="17">
+        <v>2014</v>
+      </c>
+      <c r="FQ4" s="17">
+        <v>2014</v>
+      </c>
+      <c r="FR4" s="17">
+        <v>2014</v>
+      </c>
+      <c r="FS4" s="17">
+        <v>2014</v>
+      </c>
+      <c r="FT4" s="17">
+        <v>2014</v>
+      </c>
+      <c r="FU4" s="17">
+        <v>2014</v>
+      </c>
+      <c r="FV4" s="17">
+        <v>2014</v>
+      </c>
+      <c r="FW4" s="17">
+        <v>2014</v>
+      </c>
+      <c r="FX4" s="17">
+        <v>2014</v>
+      </c>
+      <c r="FY4" s="16">
+        <v>2015</v>
+      </c>
+      <c r="FZ4" s="17">
+        <v>2015</v>
+      </c>
+      <c r="GA4" s="17">
+        <v>2015</v>
+      </c>
+      <c r="GB4" s="17">
+        <v>2015</v>
+      </c>
+      <c r="GC4" s="17">
+        <v>2015</v>
+      </c>
+      <c r="GD4" s="17">
+        <v>2015</v>
+      </c>
+      <c r="GE4" s="17">
+        <v>2015</v>
+      </c>
+      <c r="GF4" s="17">
+        <v>2015</v>
+      </c>
+      <c r="GG4" s="17">
+        <v>2015</v>
+      </c>
+      <c r="GH4" s="17">
+        <v>2015</v>
+      </c>
+      <c r="GI4" s="17">
+        <v>2015</v>
+      </c>
+      <c r="GJ4" s="17">
+        <v>2015</v>
+      </c>
+      <c r="GK4" s="16">
+        <v>2016</v>
+      </c>
+      <c r="GL4" s="17">
+        <v>2016</v>
+      </c>
+      <c r="GM4" s="17">
+        <v>2016</v>
+      </c>
+      <c r="GN4" s="17">
+        <v>2016</v>
+      </c>
+      <c r="GO4" s="17">
+        <v>2016</v>
+      </c>
+      <c r="GP4" s="17">
+        <v>2016</v>
+      </c>
+      <c r="GQ4" s="17">
+        <v>2016</v>
+      </c>
+      <c r="GR4" s="17">
+        <v>2016</v>
+      </c>
+      <c r="GS4" s="17">
+        <v>2016</v>
+      </c>
+      <c r="GT4" s="17">
+        <v>2016</v>
+      </c>
+      <c r="GU4" s="17">
+        <v>2016</v>
+      </c>
+      <c r="GV4" s="17">
+        <v>2016</v>
+      </c>
+      <c r="GW4" s="16">
+        <v>2017</v>
+      </c>
+      <c r="GX4" s="17">
+        <v>2017</v>
+      </c>
+      <c r="GY4" s="17">
+        <v>2017</v>
+      </c>
+      <c r="GZ4" s="17">
+        <v>2017</v>
+      </c>
+      <c r="HA4" s="17">
+        <v>2017</v>
+      </c>
+      <c r="HB4" s="17">
+        <v>2017</v>
+      </c>
+      <c r="HC4" s="17">
+        <v>2017</v>
+      </c>
+      <c r="HD4" s="17">
+        <v>2017</v>
+      </c>
+      <c r="HE4" s="17">
+        <v>2017</v>
+      </c>
+      <c r="HF4" s="17">
+        <v>2017</v>
+      </c>
+      <c r="HG4" s="17">
+        <v>2017</v>
+      </c>
+      <c r="HH4" s="17">
+        <v>2017</v>
+      </c>
+      <c r="HI4" s="16">
+        <v>2018</v>
+      </c>
+      <c r="HJ4" s="17">
+        <v>2018</v>
+      </c>
+      <c r="HK4" s="17">
+        <v>2018</v>
+      </c>
+      <c r="HL4" s="17">
+        <v>2018</v>
+      </c>
+      <c r="HM4" s="17">
+        <v>2018</v>
+      </c>
+      <c r="HN4" s="17">
+        <v>2018</v>
+      </c>
+      <c r="HO4" s="17">
+        <v>2018</v>
+      </c>
+      <c r="HP4" s="17">
+        <v>2018</v>
+      </c>
+      <c r="HQ4" s="17">
+        <v>2018</v>
+      </c>
+      <c r="HR4" s="17">
+        <v>2018</v>
+      </c>
+      <c r="HS4" s="17">
+        <v>2018</v>
+      </c>
+      <c r="HT4" s="17">
+        <v>2018</v>
+      </c>
+      <c r="HU4" s="16">
+        <v>2019</v>
+      </c>
+      <c r="HV4" s="17">
+        <v>2019</v>
+      </c>
+      <c r="HW4" s="17">
+        <v>2019</v>
+      </c>
+      <c r="HX4" s="17">
+        <v>2019</v>
+      </c>
+      <c r="HY4" s="17">
+        <v>2019</v>
+      </c>
+      <c r="HZ4" s="17">
+        <v>2019</v>
+      </c>
+      <c r="IA4" s="17">
+        <v>2019</v>
+      </c>
+      <c r="IB4" s="17">
+        <v>2019</v>
+      </c>
+      <c r="IC4" s="17">
+        <v>2019</v>
+      </c>
+      <c r="ID4" s="17">
+        <v>2019</v>
+      </c>
+      <c r="IE4" s="17">
+        <v>2019</v>
+      </c>
+      <c r="IF4" s="17">
+        <v>2019</v>
+      </c>
+      <c r="IG4" s="27">
+        <v>2020</v>
+      </c>
+      <c r="IH4" s="28">
+        <v>2020</v>
+      </c>
+      <c r="II4" s="28">
+        <v>2020</v>
+      </c>
+      <c r="IJ4" s="28">
+        <v>2020</v>
+      </c>
+      <c r="IK4" s="28">
+        <v>2020</v>
+      </c>
+      <c r="IL4" s="28">
+        <v>2020</v>
+      </c>
+      <c r="IM4" s="28">
+        <v>2020</v>
+      </c>
+      <c r="IN4" s="28">
+        <v>2020</v>
+      </c>
+      <c r="IO4" s="28">
+        <v>2020</v>
+      </c>
+      <c r="IP4" s="28">
+        <v>2020</v>
+      </c>
+      <c r="IQ4" s="28">
+        <v>2020</v>
+      </c>
+      <c r="IR4" s="28">
+        <v>2020</v>
+      </c>
+      <c r="IS4" s="34">
+        <v>2021</v>
+      </c>
+      <c r="IT4" s="35">
+        <v>2021</v>
+      </c>
+      <c r="IU4" s="35">
+        <v>2021</v>
+      </c>
+      <c r="IV4" s="35">
+        <v>2021</v>
+      </c>
+      <c r="IW4" s="35">
+        <v>2021</v>
+      </c>
+      <c r="IX4" s="35">
+        <v>2021</v>
+      </c>
+      <c r="IY4" s="35">
+        <v>2021</v>
+      </c>
+      <c r="IZ4" s="35">
+        <v>2021</v>
+      </c>
+      <c r="JA4" s="35">
+        <v>2021</v>
+      </c>
+      <c r="JB4" s="35">
+        <v>2021</v>
+      </c>
+      <c r="JC4" s="35">
+        <v>2021</v>
+      </c>
+      <c r="JD4" s="36">
+        <v>2021</v>
+      </c>
+      <c r="JE4" s="38">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:265" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="BK5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BM5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BN5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="BR5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BU5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="BW5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="BX5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BY5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BZ5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="CA5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="CB5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="CC5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CD5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="CE5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="CF5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CG5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="CI5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="CJ5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="CK5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CL5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="CM5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="CN5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="CO5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="CP5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="CQ5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="CR5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="CS5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="CU5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="CV5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="CW5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="CX5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="CY5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="CZ5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="DA5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="DB5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="DC5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="DD5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DE5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="DG5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="DH5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="DI5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DJ5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="DK5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="DL5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="DM5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="DN5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="DO5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="DP5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="DQ5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="DS5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="DT5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="DU5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="DV5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="DW5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="DX5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="DY5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="DZ5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="EA5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="EB5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="EC5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="EE5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="EF5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="EG5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="EH5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="EI5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="EJ5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="EK5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="EL5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="EM5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="EN5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="EO5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="EQ5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="ER5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="ES5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="ET5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="EU5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="EV5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="EW5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="EX5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="EY5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="EZ5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="FA5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="FC5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="FD5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="FE5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="FF5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="FG5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="FH5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="FI5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="FJ5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="FK5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="FL5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="FM5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FN5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="FO5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="FP5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="FQ5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="FR5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="FS5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="FT5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="FU5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="FV5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="FW5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="FX5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="FY5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="FZ5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="GA5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="GB5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="GC5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="GD5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="GE5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="GF5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="GG5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="GH5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="GI5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="GJ5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="GK5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="GL5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="GM5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="GN5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="GO5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="GP5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="GQ5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="GR5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="GS5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="GT5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="GU5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="GV5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="GW5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="GX5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="GY5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="GZ5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="HA5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="HB5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="HC5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="HD5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="HE5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="HF5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="HG5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="HH5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="HI5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="HJ5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="HK5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="HL5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="HM5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="HN5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="HO5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="HP5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="HQ5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="HR5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="HS5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="HT5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="HU5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="HV5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="HW5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="HX5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="HY5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="HZ5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="IA5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="IB5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="IC5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="ID5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="IE5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="IF5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="IG5" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="IH5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="II5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="IJ5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="IK5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="IL5" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="IM5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="IN5" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="IO5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="IP5" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="IQ5" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="IR5" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="IS5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="IT5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="IU5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="IV5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="IW5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="IX5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="IY5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="IZ5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="JA5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="JB5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="JC5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="JD5" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="JE5" s="41" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:264" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:264" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="C4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="G4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="H4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="I4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="J4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="K4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="L4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="M4" s="18">
-        <v>2000</v>
-      </c>
-      <c r="N4" s="17">
-        <v>2001</v>
-      </c>
-      <c r="O4" s="18">
-        <v>2001</v>
-      </c>
-      <c r="P4" s="18">
-        <v>2001</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>2001</v>
-      </c>
-      <c r="R4" s="18">
-        <v>2001</v>
-      </c>
-      <c r="S4" s="18">
-        <v>2001</v>
-      </c>
-      <c r="T4" s="18">
-        <v>2001</v>
-      </c>
-      <c r="U4" s="18">
-        <v>2001</v>
-      </c>
-      <c r="V4" s="18">
-        <v>2001</v>
-      </c>
-      <c r="W4" s="18">
-        <v>2001</v>
-      </c>
-      <c r="X4" s="18">
-        <v>2001</v>
-      </c>
-      <c r="Y4" s="18">
-        <v>2001</v>
-      </c>
-      <c r="Z4" s="17">
-        <v>2002</v>
-      </c>
-      <c r="AA4" s="18">
-        <v>2002</v>
-      </c>
-      <c r="AB4" s="18">
-        <v>2002</v>
-      </c>
-      <c r="AC4" s="18">
-        <v>2002</v>
-      </c>
-      <c r="AD4" s="18">
-        <v>2002</v>
-      </c>
-      <c r="AE4" s="18">
-        <v>2002</v>
-      </c>
-      <c r="AF4" s="18">
-        <v>2002</v>
-      </c>
-      <c r="AG4" s="18">
-        <v>2002</v>
-      </c>
-      <c r="AH4" s="18">
-        <v>2002</v>
-      </c>
-      <c r="AI4" s="18">
-        <v>2002</v>
-      </c>
-      <c r="AJ4" s="18">
-        <v>2002</v>
-      </c>
-      <c r="AK4" s="18">
-        <v>2002</v>
-      </c>
-      <c r="AL4" s="17">
-        <v>2003</v>
-      </c>
-      <c r="AM4" s="18">
-        <v>2003</v>
-      </c>
-      <c r="AN4" s="18">
-        <v>2003</v>
-      </c>
-      <c r="AO4" s="18">
-        <v>2003</v>
-      </c>
-      <c r="AP4" s="18">
-        <v>2003</v>
-      </c>
-      <c r="AQ4" s="18">
-        <v>2003</v>
-      </c>
-      <c r="AR4" s="18">
-        <v>2003</v>
-      </c>
-      <c r="AS4" s="18">
-        <v>2003</v>
-      </c>
-      <c r="AT4" s="18">
-        <v>2003</v>
-      </c>
-      <c r="AU4" s="18">
-        <v>2003</v>
-      </c>
-      <c r="AV4" s="18">
-        <v>2003</v>
-      </c>
-      <c r="AW4" s="17">
-        <v>2004</v>
-      </c>
-      <c r="AX4" s="18">
-        <v>2004</v>
-      </c>
-      <c r="AY4" s="18">
-        <v>2004</v>
-      </c>
-      <c r="AZ4" s="18">
-        <v>2004</v>
-      </c>
-      <c r="BA4" s="18">
-        <v>2004</v>
-      </c>
-      <c r="BB4" s="18">
-        <v>2004</v>
-      </c>
-      <c r="BC4" s="18">
-        <v>2004</v>
-      </c>
-      <c r="BD4" s="18">
-        <v>2004</v>
-      </c>
-      <c r="BE4" s="18">
-        <v>2004</v>
-      </c>
-      <c r="BF4" s="18">
-        <v>2004</v>
-      </c>
-      <c r="BG4" s="18">
-        <v>2004</v>
-      </c>
-      <c r="BH4" s="18">
-        <v>2004</v>
-      </c>
-      <c r="BI4" s="17">
-        <v>2005</v>
-      </c>
-      <c r="BJ4" s="18">
-        <v>2005</v>
-      </c>
-      <c r="BK4" s="18">
-        <v>2005</v>
-      </c>
-      <c r="BL4" s="18">
-        <v>2005</v>
-      </c>
-      <c r="BM4" s="18">
-        <v>2005</v>
-      </c>
-      <c r="BN4" s="18">
-        <v>2005</v>
-      </c>
-      <c r="BO4" s="18">
-        <v>2005</v>
-      </c>
-      <c r="BP4" s="18">
-        <v>2005</v>
-      </c>
-      <c r="BQ4" s="18">
-        <v>2005</v>
-      </c>
-      <c r="BR4" s="18">
-        <v>2005</v>
-      </c>
-      <c r="BS4" s="18">
-        <v>2005</v>
-      </c>
-      <c r="BT4" s="18">
-        <v>2005</v>
-      </c>
-      <c r="BU4" s="17">
-        <v>2006</v>
-      </c>
-      <c r="BV4" s="18">
-        <v>2006</v>
-      </c>
-      <c r="BW4" s="18">
-        <v>2006</v>
-      </c>
-      <c r="BX4" s="18">
-        <v>2006</v>
-      </c>
-      <c r="BY4" s="18">
-        <v>2006</v>
-      </c>
-      <c r="BZ4" s="18">
-        <v>2006</v>
-      </c>
-      <c r="CA4" s="18">
-        <v>2006</v>
-      </c>
-      <c r="CB4" s="18">
-        <v>2006</v>
-      </c>
-      <c r="CC4" s="18">
-        <v>2006</v>
-      </c>
-      <c r="CD4" s="18">
-        <v>2006</v>
-      </c>
-      <c r="CE4" s="18">
-        <v>2006</v>
-      </c>
-      <c r="CF4" s="18">
-        <v>2006</v>
-      </c>
-      <c r="CG4" s="17">
-        <v>2007</v>
-      </c>
-      <c r="CH4" s="18">
-        <v>2007</v>
-      </c>
-      <c r="CI4" s="18">
-        <v>2007</v>
-      </c>
-      <c r="CJ4" s="18">
-        <v>2007</v>
-      </c>
-      <c r="CK4" s="18">
-        <v>2007</v>
-      </c>
-      <c r="CL4" s="18">
-        <v>2007</v>
-      </c>
-      <c r="CM4" s="18">
-        <v>2007</v>
-      </c>
-      <c r="CN4" s="18">
-        <v>2007</v>
-      </c>
-      <c r="CO4" s="18">
-        <v>2007</v>
-      </c>
-      <c r="CP4" s="18">
-        <v>2007</v>
-      </c>
-      <c r="CQ4" s="18">
-        <v>2007</v>
-      </c>
-      <c r="CR4" s="18">
-        <v>2007</v>
-      </c>
-      <c r="CS4" s="17">
-        <v>2008</v>
-      </c>
-      <c r="CT4" s="18">
-        <v>2008</v>
-      </c>
-      <c r="CU4" s="18">
-        <v>2008</v>
-      </c>
-      <c r="CV4" s="18">
-        <v>2008</v>
-      </c>
-      <c r="CW4" s="18">
-        <v>2008</v>
-      </c>
-      <c r="CX4" s="18">
-        <v>2008</v>
-      </c>
-      <c r="CY4" s="18">
-        <v>2008</v>
-      </c>
-      <c r="CZ4" s="18">
-        <v>2008</v>
-      </c>
-      <c r="DA4" s="18">
-        <v>2008</v>
-      </c>
-      <c r="DB4" s="18">
-        <v>2008</v>
-      </c>
-      <c r="DC4" s="18">
-        <v>2008</v>
-      </c>
-      <c r="DD4" s="18">
-        <v>2008</v>
-      </c>
-      <c r="DE4" s="17">
-        <v>2009</v>
-      </c>
-      <c r="DF4" s="18">
-        <v>2009</v>
-      </c>
-      <c r="DG4" s="18">
-        <v>2009</v>
-      </c>
-      <c r="DH4" s="18">
-        <v>2009</v>
-      </c>
-      <c r="DI4" s="18">
-        <v>2009</v>
-      </c>
-      <c r="DJ4" s="18">
-        <v>2009</v>
-      </c>
-      <c r="DK4" s="18">
-        <v>2009</v>
-      </c>
-      <c r="DL4" s="18">
-        <v>2009</v>
-      </c>
-      <c r="DM4" s="18">
-        <v>2009</v>
-      </c>
-      <c r="DN4" s="18">
-        <v>2009</v>
-      </c>
-      <c r="DO4" s="18">
-        <v>2009</v>
-      </c>
-      <c r="DP4" s="18">
-        <v>2009</v>
-      </c>
-      <c r="DQ4" s="17">
-        <v>2010</v>
-      </c>
-      <c r="DR4" s="18">
-        <v>2010</v>
-      </c>
-      <c r="DS4" s="18">
-        <v>2010</v>
-      </c>
-      <c r="DT4" s="18">
-        <v>2010</v>
-      </c>
-      <c r="DU4" s="18">
-        <v>2010</v>
-      </c>
-      <c r="DV4" s="18">
-        <v>2010</v>
-      </c>
-      <c r="DW4" s="18">
-        <v>2010</v>
-      </c>
-      <c r="DX4" s="18">
-        <v>2010</v>
-      </c>
-      <c r="DY4" s="18">
-        <v>2010</v>
-      </c>
-      <c r="DZ4" s="18">
-        <v>2010</v>
-      </c>
-      <c r="EA4" s="18">
-        <v>2010</v>
-      </c>
-      <c r="EB4" s="18">
-        <v>2010</v>
-      </c>
-      <c r="EC4" s="17">
-        <v>2011</v>
-      </c>
-      <c r="ED4" s="18">
-        <v>2011</v>
-      </c>
-      <c r="EE4" s="18">
-        <v>2011</v>
-      </c>
-      <c r="EF4" s="18">
-        <v>2011</v>
-      </c>
-      <c r="EG4" s="18">
-        <v>2011</v>
-      </c>
-      <c r="EH4" s="18">
-        <v>2011</v>
-      </c>
-      <c r="EI4" s="18">
-        <v>2011</v>
-      </c>
-      <c r="EJ4" s="18">
-        <v>2011</v>
-      </c>
-      <c r="EK4" s="18">
-        <v>2011</v>
-      </c>
-      <c r="EL4" s="18">
-        <v>2011</v>
-      </c>
-      <c r="EM4" s="18">
-        <v>2011</v>
-      </c>
-      <c r="EN4" s="18">
-        <v>2011</v>
-      </c>
-      <c r="EO4" s="17">
-        <v>2012</v>
-      </c>
-      <c r="EP4" s="18">
-        <v>2012</v>
-      </c>
-      <c r="EQ4" s="18">
-        <v>2012</v>
-      </c>
-      <c r="ER4" s="18">
-        <v>2012</v>
-      </c>
-      <c r="ES4" s="18">
-        <v>2012</v>
-      </c>
-      <c r="ET4" s="18">
-        <v>2012</v>
-      </c>
-      <c r="EU4" s="18">
-        <v>2012</v>
-      </c>
-      <c r="EV4" s="18">
-        <v>2012</v>
-      </c>
-      <c r="EW4" s="18">
-        <v>2012</v>
-      </c>
-      <c r="EX4" s="18">
-        <v>2012</v>
-      </c>
-      <c r="EY4" s="18">
-        <v>2012</v>
-      </c>
-      <c r="EZ4" s="18">
-        <v>2012</v>
-      </c>
-      <c r="FA4" s="17">
-        <v>2013</v>
-      </c>
-      <c r="FB4" s="18">
-        <v>2013</v>
-      </c>
-      <c r="FC4" s="18">
-        <v>2013</v>
-      </c>
-      <c r="FD4" s="18">
-        <v>2013</v>
-      </c>
-      <c r="FE4" s="18">
-        <v>2013</v>
-      </c>
-      <c r="FF4" s="18">
-        <v>2013</v>
-      </c>
-      <c r="FG4" s="18">
-        <v>2013</v>
-      </c>
-      <c r="FH4" s="18">
-        <v>2013</v>
-      </c>
-      <c r="FI4" s="18">
-        <v>2013</v>
-      </c>
-      <c r="FJ4" s="18">
-        <v>2013</v>
-      </c>
-      <c r="FK4" s="18">
-        <v>2013</v>
-      </c>
-      <c r="FL4" s="18">
-        <v>2013</v>
-      </c>
-      <c r="FM4" s="17">
-        <v>2014</v>
-      </c>
-      <c r="FN4" s="18">
-        <v>2014</v>
-      </c>
-      <c r="FO4" s="18">
-        <v>2014</v>
-      </c>
-      <c r="FP4" s="18">
-        <v>2014</v>
-      </c>
-      <c r="FQ4" s="18">
-        <v>2014</v>
-      </c>
-      <c r="FR4" s="18">
-        <v>2014</v>
-      </c>
-      <c r="FS4" s="18">
-        <v>2014</v>
-      </c>
-      <c r="FT4" s="18">
-        <v>2014</v>
-      </c>
-      <c r="FU4" s="18">
-        <v>2014</v>
-      </c>
-      <c r="FV4" s="18">
-        <v>2014</v>
-      </c>
-      <c r="FW4" s="18">
-        <v>2014</v>
-      </c>
-      <c r="FX4" s="18">
-        <v>2014</v>
-      </c>
-      <c r="FY4" s="17">
-        <v>2015</v>
-      </c>
-      <c r="FZ4" s="18">
-        <v>2015</v>
-      </c>
-      <c r="GA4" s="18">
-        <v>2015</v>
-      </c>
-      <c r="GB4" s="18">
-        <v>2015</v>
-      </c>
-      <c r="GC4" s="18">
-        <v>2015</v>
-      </c>
-      <c r="GD4" s="18">
-        <v>2015</v>
-      </c>
-      <c r="GE4" s="18">
-        <v>2015</v>
-      </c>
-      <c r="GF4" s="18">
-        <v>2015</v>
-      </c>
-      <c r="GG4" s="18">
-        <v>2015</v>
-      </c>
-      <c r="GH4" s="18">
-        <v>2015</v>
-      </c>
-      <c r="GI4" s="18">
-        <v>2015</v>
-      </c>
-      <c r="GJ4" s="18">
-        <v>2015</v>
-      </c>
-      <c r="GK4" s="17">
-        <v>2016</v>
-      </c>
-      <c r="GL4" s="18">
-        <v>2016</v>
-      </c>
-      <c r="GM4" s="18">
-        <v>2016</v>
-      </c>
-      <c r="GN4" s="18">
-        <v>2016</v>
-      </c>
-      <c r="GO4" s="18">
-        <v>2016</v>
-      </c>
-      <c r="GP4" s="18">
-        <v>2016</v>
-      </c>
-      <c r="GQ4" s="18">
-        <v>2016</v>
-      </c>
-      <c r="GR4" s="18">
-        <v>2016</v>
-      </c>
-      <c r="GS4" s="18">
-        <v>2016</v>
-      </c>
-      <c r="GT4" s="18">
-        <v>2016</v>
-      </c>
-      <c r="GU4" s="18">
-        <v>2016</v>
-      </c>
-      <c r="GV4" s="18">
-        <v>2016</v>
-      </c>
-      <c r="GW4" s="17">
-        <v>2017</v>
-      </c>
-      <c r="GX4" s="18">
-        <v>2017</v>
-      </c>
-      <c r="GY4" s="18">
-        <v>2017</v>
-      </c>
-      <c r="GZ4" s="18">
-        <v>2017</v>
-      </c>
-      <c r="HA4" s="18">
-        <v>2017</v>
-      </c>
-      <c r="HB4" s="18">
-        <v>2017</v>
-      </c>
-      <c r="HC4" s="18">
-        <v>2017</v>
-      </c>
-      <c r="HD4" s="18">
-        <v>2017</v>
-      </c>
-      <c r="HE4" s="18">
-        <v>2017</v>
-      </c>
-      <c r="HF4" s="18">
-        <v>2017</v>
-      </c>
-      <c r="HG4" s="18">
-        <v>2017</v>
-      </c>
-      <c r="HH4" s="18">
-        <v>2017</v>
-      </c>
-      <c r="HI4" s="17">
-        <v>2018</v>
-      </c>
-      <c r="HJ4" s="18">
-        <v>2018</v>
-      </c>
-      <c r="HK4" s="18">
-        <v>2018</v>
-      </c>
-      <c r="HL4" s="18">
-        <v>2018</v>
-      </c>
-      <c r="HM4" s="18">
-        <v>2018</v>
-      </c>
-      <c r="HN4" s="18">
-        <v>2018</v>
-      </c>
-      <c r="HO4" s="18">
-        <v>2018</v>
-      </c>
-      <c r="HP4" s="18">
-        <v>2018</v>
-      </c>
-      <c r="HQ4" s="18">
-        <v>2018</v>
-      </c>
-      <c r="HR4" s="18">
-        <v>2018</v>
-      </c>
-      <c r="HS4" s="18">
-        <v>2018</v>
-      </c>
-      <c r="HT4" s="18">
-        <v>2018</v>
-      </c>
-      <c r="HU4" s="17">
-        <v>2019</v>
-      </c>
-      <c r="HV4" s="18">
-        <v>2019</v>
-      </c>
-      <c r="HW4" s="18">
-        <v>2019</v>
-      </c>
-      <c r="HX4" s="18">
-        <v>2019</v>
-      </c>
-      <c r="HY4" s="18">
-        <v>2019</v>
-      </c>
-      <c r="HZ4" s="18">
-        <v>2019</v>
-      </c>
-      <c r="IA4" s="18">
-        <v>2019</v>
-      </c>
-      <c r="IB4" s="18">
-        <v>2019</v>
-      </c>
-      <c r="IC4" s="18">
-        <v>2019</v>
-      </c>
-      <c r="ID4" s="18">
-        <v>2019</v>
-      </c>
-      <c r="IE4" s="18">
-        <v>2019</v>
-      </c>
-      <c r="IF4" s="18">
-        <v>2019</v>
-      </c>
-      <c r="IG4" s="28">
-        <v>2020</v>
-      </c>
-      <c r="IH4" s="29">
-        <v>2020</v>
-      </c>
-      <c r="II4" s="29">
-        <v>2020</v>
-      </c>
-      <c r="IJ4" s="29">
-        <v>2020</v>
-      </c>
-      <c r="IK4" s="29">
-        <v>2020</v>
-      </c>
-      <c r="IL4" s="29">
-        <v>2020</v>
-      </c>
-      <c r="IM4" s="29">
-        <v>2020</v>
-      </c>
-      <c r="IN4" s="29">
-        <v>2020</v>
-      </c>
-      <c r="IO4" s="29">
-        <v>2020</v>
-      </c>
-      <c r="IP4" s="29">
-        <v>2020</v>
-      </c>
-      <c r="IQ4" s="29">
-        <v>2020</v>
-      </c>
-      <c r="IR4" s="29">
-        <v>2020</v>
-      </c>
-      <c r="IS4" s="35">
-        <v>2021</v>
-      </c>
-      <c r="IT4" s="36">
-        <v>2021</v>
-      </c>
-      <c r="IU4" s="36">
-        <v>2021</v>
-      </c>
-      <c r="IV4" s="36">
-        <v>2021</v>
-      </c>
-      <c r="IW4" s="36">
-        <v>2021</v>
-      </c>
-      <c r="IX4" s="36">
-        <v>2021</v>
-      </c>
-      <c r="IY4" s="36">
-        <v>2021</v>
-      </c>
-      <c r="IZ4" s="36">
-        <v>2021</v>
-      </c>
-      <c r="JA4" s="36">
-        <v>2021</v>
-      </c>
-      <c r="JB4" s="36">
-        <v>2021</v>
-      </c>
-      <c r="JC4" s="36">
-        <v>2021</v>
-      </c>
-      <c r="JD4" s="37">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:264" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="BB5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="BE5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="BF5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="BG5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="BH5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="BI5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="BJ5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="BK5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="BL5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="BM5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="BN5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BO5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="BP5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="BQ5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="BR5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="BS5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="BT5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="BU5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="BV5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="BW5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="BX5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="BY5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="BZ5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="CA5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="CB5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="CC5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="CD5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="CE5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="CF5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="CG5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="CH5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="CI5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="CJ5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CK5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="CL5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="CM5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="CN5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="CO5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="CP5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="CQ5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="CR5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="CS5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="CT5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="CU5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="CV5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="CW5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="CX5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="CY5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="CZ5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="DA5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="DB5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="DC5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="DD5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="DE5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="DF5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="DG5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="DH5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DI5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="DJ5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="DK5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="DL5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="DM5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="DN5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="DO5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="DP5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="DQ5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="DR5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="DS5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="DT5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="DU5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="DV5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="DW5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="DX5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="DY5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="DZ5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="EA5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="EB5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="EC5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="ED5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="EE5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="EF5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="EG5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="EH5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="EI5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="EJ5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="EK5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="EL5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="EM5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="EN5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="EO5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="EP5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="EQ5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="ER5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="ES5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="ET5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="EU5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="EV5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="EW5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="EX5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="EY5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="EZ5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="FA5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="FB5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="FC5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="FD5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="FE5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="FF5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="FG5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="FH5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="FI5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="FJ5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="FK5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="FL5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="FM5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="FN5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="FO5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="FP5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="FQ5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="FR5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="FS5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="FT5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="FU5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="FV5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="FW5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="FX5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="FY5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="FZ5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="GA5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="GB5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="GC5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="GD5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="GE5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="GF5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="GG5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="GH5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="GI5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="GJ5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="GK5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="GL5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="GM5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="GN5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="GO5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="GP5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="GQ5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="GR5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="GS5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="GT5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="GU5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="GV5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="GW5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="GX5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="GY5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="GZ5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="HA5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="HB5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="HC5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="HD5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="HE5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="HF5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="HG5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="HH5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="HI5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="HJ5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="HK5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="HL5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="HM5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="HN5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="HO5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="HP5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="HQ5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="HR5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="HS5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="HT5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="HU5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="HV5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="HW5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="HX5" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="HY5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="HZ5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="IA5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="IB5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="IC5" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="ID5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="IE5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="IF5" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="IG5" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="IH5" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="II5" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="IJ5" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="IK5" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="IL5" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="IM5" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="IN5" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="IO5" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="IP5" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="IQ5" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="IR5" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="IS5" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="IT5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="IU5" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="IV5" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="IW5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="IX5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="IY5" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="IZ5" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="JA5" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="JB5" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="JC5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="JD5" s="34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3752,11 +3783,14 @@
       <c r="JC6" s="14">
         <v>340465</v>
       </c>
-      <c r="JD6" s="15">
+      <c r="JD6" s="14">
         <v>335529</v>
       </c>
+      <c r="JE6" s="39">
+        <v>338642</v>
+      </c>
     </row>
-    <row r="7" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4546,11 +4580,14 @@
       <c r="JC7" s="14">
         <v>1002417</v>
       </c>
-      <c r="JD7" s="15">
+      <c r="JD7" s="14">
         <v>975398</v>
       </c>
+      <c r="JE7" s="4">
+        <v>990557</v>
+      </c>
     </row>
-    <row r="8" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5340,11 +5377,14 @@
       <c r="JC8" s="14">
         <v>198399</v>
       </c>
-      <c r="JD8" s="15">
+      <c r="JD8" s="14">
         <v>189833</v>
       </c>
+      <c r="JE8" s="4">
+        <v>191747</v>
+      </c>
     </row>
-    <row r="9" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6134,11 +6174,14 @@
       <c r="JC9" s="14">
         <v>134083</v>
       </c>
-      <c r="JD9" s="15">
+      <c r="JD9" s="14">
         <v>131218</v>
       </c>
+      <c r="JE9" s="4">
+        <v>131690</v>
+      </c>
     </row>
-    <row r="10" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -6928,11 +6971,14 @@
       <c r="JC10" s="14">
         <v>236364</v>
       </c>
-      <c r="JD10" s="15">
+      <c r="JD10" s="14">
         <v>235059</v>
       </c>
+      <c r="JE10" s="4">
+        <v>231464</v>
+      </c>
     </row>
-    <row r="11" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7722,11 +7768,14 @@
       <c r="JC11" s="14">
         <v>947984</v>
       </c>
-      <c r="JD11" s="15">
+      <c r="JD11" s="14">
         <v>930477</v>
       </c>
+      <c r="JE11" s="4">
+        <v>945569</v>
+      </c>
     </row>
-    <row r="12" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -8516,11 +8565,14 @@
       <c r="JC12" s="14">
         <v>3348570</v>
       </c>
-      <c r="JD12" s="15">
+      <c r="JD12" s="14">
         <v>3312592</v>
       </c>
+      <c r="JE12" s="4">
+        <v>3301167</v>
+      </c>
     </row>
-    <row r="13" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -9310,11 +9362,14 @@
       <c r="JC13" s="14">
         <v>803466</v>
       </c>
-      <c r="JD13" s="15">
+      <c r="JD13" s="14">
         <v>789518</v>
       </c>
+      <c r="JE13" s="4">
+        <v>799609</v>
+      </c>
     </row>
-    <row r="14" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -10104,11 +10159,14 @@
       <c r="JC14" s="14">
         <v>141861</v>
       </c>
-      <c r="JD14" s="15">
+      <c r="JD14" s="14">
         <v>139423</v>
       </c>
+      <c r="JE14" s="4">
+        <v>141193</v>
+      </c>
     </row>
-    <row r="15" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -10898,11 +10956,14 @@
       <c r="JC15" s="14">
         <v>258213</v>
       </c>
-      <c r="JD15" s="15">
+      <c r="JD15" s="14">
         <v>254204</v>
       </c>
+      <c r="JE15" s="4">
+        <v>256588</v>
+      </c>
     </row>
-    <row r="16" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -11692,11 +11753,14 @@
       <c r="JC16" s="14">
         <v>1681296</v>
       </c>
-      <c r="JD16" s="15">
+      <c r="JD16" s="14">
         <v>1650381</v>
       </c>
+      <c r="JE16" s="4">
+        <v>1659857</v>
+      </c>
     </row>
-    <row r="17" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -12486,11 +12550,14 @@
       <c r="JC17" s="14">
         <v>1035894</v>
       </c>
-      <c r="JD17" s="15">
+      <c r="JD17" s="14">
         <v>1019332</v>
       </c>
+      <c r="JE17" s="4">
+        <v>1027712</v>
+      </c>
     </row>
-    <row r="18" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -13280,11 +13347,14 @@
       <c r="JC18" s="14">
         <v>150690</v>
       </c>
-      <c r="JD18" s="15">
+      <c r="JD18" s="14">
         <v>153546</v>
       </c>
+      <c r="JE18" s="4">
+        <v>147486</v>
+      </c>
     </row>
-    <row r="19" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -14074,805 +14144,811 @@
       <c r="JC19" s="14">
         <v>244466</v>
       </c>
-      <c r="JD19" s="15">
+      <c r="JD19" s="14">
         <v>240431</v>
       </c>
+      <c r="JE19" s="4">
+        <v>244265</v>
+      </c>
     </row>
-    <row r="20" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>986809</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <v>995832</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <v>1001069</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <v>999403</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="26">
         <v>1002441</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="26">
         <v>1006280</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="26">
         <v>1019506</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="26">
         <v>1028391</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="26">
         <v>1035137</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="26">
         <v>1046247</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="26">
         <v>1054346</v>
       </c>
-      <c r="M20" s="27">
+      <c r="M20" s="26">
         <v>1034215</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="25">
         <v>1034052</v>
       </c>
-      <c r="O20" s="27">
+      <c r="O20" s="26">
         <v>1033583</v>
       </c>
-      <c r="P20" s="27">
+      <c r="P20" s="26">
         <v>1026253</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="Q20" s="26">
         <v>1021573</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="26">
         <v>1017168</v>
       </c>
-      <c r="S20" s="27">
+      <c r="S20" s="26">
         <v>1012668</v>
       </c>
-      <c r="T20" s="27">
+      <c r="T20" s="26">
         <v>1015524</v>
       </c>
-      <c r="U20" s="27">
+      <c r="U20" s="26">
         <v>1017448</v>
       </c>
-      <c r="V20" s="27">
+      <c r="V20" s="26">
         <v>1015693</v>
       </c>
-      <c r="W20" s="27">
+      <c r="W20" s="26">
         <v>1023232</v>
       </c>
-      <c r="X20" s="27">
+      <c r="X20" s="26">
         <v>1028481</v>
       </c>
-      <c r="Y20" s="27">
+      <c r="Y20" s="26">
         <v>1011723</v>
       </c>
-      <c r="Z20" s="26">
+      <c r="Z20" s="25">
         <v>1011211</v>
       </c>
-      <c r="AA20" s="27">
+      <c r="AA20" s="26">
         <v>1021306</v>
       </c>
-      <c r="AB20" s="27">
+      <c r="AB20" s="26">
         <v>1017902</v>
       </c>
-      <c r="AC20" s="27">
+      <c r="AC20" s="26">
         <v>1025252</v>
       </c>
-      <c r="AD20" s="27">
+      <c r="AD20" s="26">
         <v>1020616</v>
       </c>
-      <c r="AE20" s="27">
+      <c r="AE20" s="26">
         <v>1017493</v>
       </c>
-      <c r="AF20" s="27">
+      <c r="AF20" s="26">
         <v>1023783</v>
       </c>
-      <c r="AG20" s="27">
+      <c r="AG20" s="26">
         <v>1022753</v>
       </c>
-      <c r="AH20" s="27">
+      <c r="AH20" s="26">
         <v>1029827</v>
       </c>
-      <c r="AI20" s="27">
+      <c r="AI20" s="26">
         <v>1038774</v>
       </c>
-      <c r="AJ20" s="27">
+      <c r="AJ20" s="26">
         <v>1046838</v>
       </c>
-      <c r="AK20" s="27">
+      <c r="AK20" s="26">
         <v>1029691</v>
       </c>
-      <c r="AL20" s="26">
+      <c r="AL20" s="25">
         <v>1031082</v>
       </c>
-      <c r="AM20" s="27">
+      <c r="AM20" s="26">
         <v>1034757</v>
       </c>
-      <c r="AN20" s="27">
+      <c r="AN20" s="26">
         <v>1034228</v>
       </c>
-      <c r="AO20" s="27">
+      <c r="AO20" s="26">
         <v>1034680</v>
       </c>
-      <c r="AP20" s="27">
+      <c r="AP20" s="26">
         <v>1026751</v>
       </c>
-      <c r="AQ20" s="27">
+      <c r="AQ20" s="26">
         <v>1025662</v>
       </c>
-      <c r="AR20" s="27">
+      <c r="AR20" s="26">
         <v>1027412</v>
       </c>
-      <c r="AS20" s="27">
+      <c r="AS20" s="26">
         <v>1035397</v>
       </c>
-      <c r="AT20" s="27">
+      <c r="AT20" s="26">
         <v>1044767</v>
       </c>
-      <c r="AU20" s="27">
+      <c r="AU20" s="26">
         <v>1047273</v>
       </c>
-      <c r="AV20" s="27">
+      <c r="AV20" s="26">
         <v>1041281</v>
       </c>
-      <c r="AW20" s="26">
+      <c r="AW20" s="25">
         <v>1040993</v>
       </c>
-      <c r="AX20" s="27">
+      <c r="AX20" s="26">
         <v>1045612</v>
       </c>
-      <c r="AY20" s="27">
+      <c r="AY20" s="26">
         <v>1056463</v>
       </c>
-      <c r="AZ20" s="27">
+      <c r="AZ20" s="26">
         <v>1058029</v>
       </c>
-      <c r="BA20" s="27">
+      <c r="BA20" s="26">
         <v>1053918</v>
       </c>
-      <c r="BB20" s="27">
+      <c r="BB20" s="26">
         <v>1052893</v>
       </c>
-      <c r="BC20" s="27">
+      <c r="BC20" s="26">
         <v>1056562</v>
       </c>
-      <c r="BD20" s="27">
+      <c r="BD20" s="26">
         <v>1056251</v>
       </c>
-      <c r="BE20" s="27">
+      <c r="BE20" s="26">
         <v>1060955</v>
       </c>
-      <c r="BF20" s="27">
+      <c r="BF20" s="26">
         <v>1064156</v>
       </c>
-      <c r="BG20" s="27">
+      <c r="BG20" s="26">
         <v>1075523</v>
       </c>
-      <c r="BH20" s="27">
+      <c r="BH20" s="26">
         <v>1062895</v>
       </c>
-      <c r="BI20" s="26">
+      <c r="BI20" s="25">
         <v>1067563</v>
       </c>
-      <c r="BJ20" s="27">
+      <c r="BJ20" s="26">
         <v>1073734</v>
       </c>
-      <c r="BK20" s="27">
+      <c r="BK20" s="26">
         <v>1074159</v>
       </c>
-      <c r="BL20" s="27">
+      <c r="BL20" s="26">
         <v>1074608</v>
       </c>
-      <c r="BM20" s="27">
+      <c r="BM20" s="26">
         <v>1076803</v>
       </c>
-      <c r="BN20" s="27">
+      <c r="BN20" s="26">
         <v>1077808</v>
       </c>
-      <c r="BO20" s="27">
+      <c r="BO20" s="26">
         <v>1077279</v>
       </c>
-      <c r="BP20" s="27">
+      <c r="BP20" s="26">
         <v>1079119</v>
       </c>
-      <c r="BQ20" s="27">
+      <c r="BQ20" s="26">
         <v>1088567</v>
       </c>
-      <c r="BR20" s="27">
+      <c r="BR20" s="26">
         <v>1099330</v>
       </c>
-      <c r="BS20" s="27">
+      <c r="BS20" s="26">
         <v>1113239</v>
       </c>
-      <c r="BT20" s="27">
+      <c r="BT20" s="26">
         <v>1095746</v>
       </c>
-      <c r="BU20" s="26">
+      <c r="BU20" s="25">
         <v>1101257</v>
       </c>
-      <c r="BV20" s="27">
+      <c r="BV20" s="26">
         <v>1109025</v>
       </c>
-      <c r="BW20" s="27">
+      <c r="BW20" s="26">
         <v>1119209</v>
       </c>
-      <c r="BX20" s="27">
+      <c r="BX20" s="26">
         <v>1116487</v>
       </c>
-      <c r="BY20" s="27">
+      <c r="BY20" s="26">
         <v>1121279</v>
       </c>
-      <c r="BZ20" s="27">
+      <c r="BZ20" s="26">
         <v>1129262</v>
       </c>
-      <c r="CA20" s="27">
+      <c r="CA20" s="26">
         <v>1132219</v>
       </c>
-      <c r="CB20" s="27">
+      <c r="CB20" s="26">
         <v>1138666</v>
       </c>
-      <c r="CC20" s="27">
+      <c r="CC20" s="26">
         <v>1147420</v>
       </c>
-      <c r="CD20" s="27">
+      <c r="CD20" s="26">
         <v>1157739</v>
       </c>
-      <c r="CE20" s="27">
+      <c r="CE20" s="26">
         <v>1168371</v>
       </c>
-      <c r="CF20" s="27">
+      <c r="CF20" s="26">
         <v>1147143</v>
       </c>
-      <c r="CG20" s="26">
+      <c r="CG20" s="25">
         <v>1159470</v>
       </c>
-      <c r="CH20" s="27">
+      <c r="CH20" s="26">
         <v>1167071</v>
       </c>
-      <c r="CI20" s="27">
+      <c r="CI20" s="26">
         <v>1173248</v>
       </c>
-      <c r="CJ20" s="27">
+      <c r="CJ20" s="26">
         <v>1175642</v>
       </c>
-      <c r="CK20" s="27">
+      <c r="CK20" s="26">
         <v>1177550</v>
       </c>
-      <c r="CL20" s="27">
+      <c r="CL20" s="26">
         <v>1181306</v>
       </c>
-      <c r="CM20" s="27">
+      <c r="CM20" s="26">
         <v>1186605</v>
       </c>
-      <c r="CN20" s="27">
+      <c r="CN20" s="26">
         <v>1191437</v>
       </c>
-      <c r="CO20" s="27">
+      <c r="CO20" s="26">
         <v>1196379</v>
       </c>
-      <c r="CP20" s="27">
+      <c r="CP20" s="26">
         <v>1210081</v>
       </c>
-      <c r="CQ20" s="27">
+      <c r="CQ20" s="26">
         <v>1219614</v>
       </c>
-      <c r="CR20" s="27">
+      <c r="CR20" s="26">
         <v>1194386</v>
       </c>
-      <c r="CS20" s="26">
+      <c r="CS20" s="25">
         <v>1206391</v>
       </c>
-      <c r="CT20" s="27">
+      <c r="CT20" s="26">
         <v>1214066</v>
       </c>
-      <c r="CU20" s="27">
+      <c r="CU20" s="26">
         <v>1214015</v>
       </c>
-      <c r="CV20" s="27">
+      <c r="CV20" s="26">
         <v>1218746</v>
       </c>
-      <c r="CW20" s="27">
+      <c r="CW20" s="26">
         <v>1216016</v>
       </c>
-      <c r="CX20" s="27">
+      <c r="CX20" s="26">
         <v>1219272</v>
       </c>
-      <c r="CY20" s="27">
+      <c r="CY20" s="26">
         <v>1220144</v>
       </c>
-      <c r="CZ20" s="27">
+      <c r="CZ20" s="26">
         <v>1222971</v>
       </c>
-      <c r="DA20" s="27">
+      <c r="DA20" s="26">
         <v>1226715</v>
       </c>
-      <c r="DB20" s="27">
+      <c r="DB20" s="26">
         <v>1228030</v>
       </c>
-      <c r="DC20" s="27">
+      <c r="DC20" s="26">
         <v>1225338</v>
       </c>
-      <c r="DD20" s="27">
+      <c r="DD20" s="26">
         <v>1204590</v>
       </c>
-      <c r="DE20" s="26">
+      <c r="DE20" s="25">
         <v>1200192</v>
       </c>
-      <c r="DF20" s="27">
+      <c r="DF20" s="26">
         <v>1194715</v>
       </c>
-      <c r="DG20" s="27">
+      <c r="DG20" s="26">
         <v>1198805</v>
       </c>
-      <c r="DH20" s="27">
+      <c r="DH20" s="26">
         <v>1193947</v>
       </c>
-      <c r="DI20" s="27">
+      <c r="DI20" s="26">
         <v>1190262</v>
       </c>
-      <c r="DJ20" s="27">
+      <c r="DJ20" s="26">
         <v>1194763</v>
       </c>
-      <c r="DK20" s="27">
+      <c r="DK20" s="26">
         <v>1198518</v>
       </c>
-      <c r="DL20" s="27">
+      <c r="DL20" s="26">
         <v>1198986</v>
       </c>
-      <c r="DM20" s="27">
+      <c r="DM20" s="26">
         <v>1197731</v>
       </c>
-      <c r="DN20" s="27">
+      <c r="DN20" s="26">
         <v>1210664</v>
       </c>
-      <c r="DO20" s="27">
+      <c r="DO20" s="26">
         <v>1221907</v>
       </c>
-      <c r="DP20" s="27">
+      <c r="DP20" s="26">
         <v>1208019</v>
       </c>
-      <c r="DQ20" s="26">
+      <c r="DQ20" s="25">
         <v>1207686</v>
       </c>
-      <c r="DR20" s="27">
+      <c r="DR20" s="26">
         <v>1215559</v>
       </c>
-      <c r="DS20" s="27">
+      <c r="DS20" s="26">
         <v>1226178</v>
       </c>
-      <c r="DT20" s="27">
+      <c r="DT20" s="26">
         <v>1232200</v>
       </c>
-      <c r="DU20" s="27">
+      <c r="DU20" s="26">
         <v>1233199</v>
       </c>
-      <c r="DV20" s="27">
+      <c r="DV20" s="26">
         <v>1236525</v>
       </c>
-      <c r="DW20" s="27">
+      <c r="DW20" s="26">
         <v>1243416</v>
       </c>
-      <c r="DX20" s="27">
+      <c r="DX20" s="26">
         <v>1251516</v>
       </c>
-      <c r="DY20" s="27">
+      <c r="DY20" s="26">
         <v>1256598</v>
       </c>
-      <c r="DZ20" s="27">
+      <c r="DZ20" s="26">
         <v>1268034</v>
       </c>
-      <c r="EA20" s="27">
+      <c r="EA20" s="26">
         <v>1277314</v>
       </c>
-      <c r="EB20" s="27">
+      <c r="EB20" s="26">
         <v>1263487</v>
       </c>
-      <c r="EC20" s="26">
+      <c r="EC20" s="25">
         <v>1264788</v>
       </c>
-      <c r="ED20" s="27">
+      <c r="ED20" s="26">
         <v>1274313</v>
       </c>
-      <c r="EE20" s="27">
+      <c r="EE20" s="26">
         <v>1282251</v>
       </c>
-      <c r="EF20" s="27">
+      <c r="EF20" s="26">
         <v>1284045</v>
       </c>
-      <c r="EG20" s="27">
+      <c r="EG20" s="26">
         <v>1285810</v>
       </c>
-      <c r="EH20" s="27">
+      <c r="EH20" s="26">
         <v>1288822</v>
       </c>
-      <c r="EI20" s="27">
+      <c r="EI20" s="26">
         <v>1294392</v>
       </c>
-      <c r="EJ20" s="27">
+      <c r="EJ20" s="26">
         <v>1299060</v>
       </c>
-      <c r="EK20" s="27">
+      <c r="EK20" s="26">
         <v>1307965</v>
       </c>
-      <c r="EL20" s="27">
+      <c r="EL20" s="26">
         <v>1317875</v>
       </c>
-      <c r="EM20" s="27">
+      <c r="EM20" s="26">
         <v>1325584</v>
       </c>
-      <c r="EN20" s="27">
+      <c r="EN20" s="26">
         <v>1308282</v>
       </c>
-      <c r="EO20" s="26">
+      <c r="EO20" s="25">
         <v>1307399</v>
       </c>
-      <c r="EP20" s="27">
+      <c r="EP20" s="26">
         <v>1316368</v>
       </c>
-      <c r="EQ20" s="27">
+      <c r="EQ20" s="26">
         <v>1327266</v>
       </c>
-      <c r="ER20" s="27">
+      <c r="ER20" s="26">
         <v>1325979</v>
       </c>
-      <c r="ES20" s="27">
+      <c r="ES20" s="26">
         <v>1325783</v>
       </c>
-      <c r="ET20" s="27">
+      <c r="ET20" s="26">
         <v>1328013</v>
       </c>
-      <c r="EU20" s="27">
+      <c r="EU20" s="26">
         <v>1334119</v>
       </c>
-      <c r="EV20" s="27">
+      <c r="EV20" s="26">
         <v>1335671</v>
       </c>
-      <c r="EW20" s="27">
+      <c r="EW20" s="26">
         <v>1340225</v>
       </c>
-      <c r="EX20" s="27">
+      <c r="EX20" s="26">
         <v>1349654</v>
       </c>
-      <c r="EY20" s="27">
+      <c r="EY20" s="26">
         <v>1358570</v>
       </c>
-      <c r="EZ20" s="27">
+      <c r="EZ20" s="26">
         <v>1349657</v>
       </c>
-      <c r="FA20" s="26">
+      <c r="FA20" s="25">
         <v>1353365</v>
       </c>
-      <c r="FB20" s="27">
+      <c r="FB20" s="26">
         <v>1361492</v>
       </c>
-      <c r="FC20" s="27">
+      <c r="FC20" s="26">
         <v>1368619</v>
       </c>
-      <c r="FD20" s="27">
+      <c r="FD20" s="26">
         <v>1374487</v>
       </c>
-      <c r="FE20" s="27">
+      <c r="FE20" s="26">
         <v>1378318</v>
       </c>
-      <c r="FF20" s="27">
+      <c r="FF20" s="26">
         <v>1380069</v>
       </c>
-      <c r="FG20" s="27">
+      <c r="FG20" s="26">
         <v>1383564</v>
       </c>
-      <c r="FH20" s="27">
+      <c r="FH20" s="26">
         <v>1387421</v>
       </c>
-      <c r="FI20" s="27">
+      <c r="FI20" s="26">
         <v>1391042</v>
       </c>
-      <c r="FJ20" s="27">
+      <c r="FJ20" s="26">
         <v>1403518</v>
       </c>
-      <c r="FK20" s="27">
+      <c r="FK20" s="26">
         <v>1410118</v>
       </c>
-      <c r="FL20" s="27">
+      <c r="FL20" s="26">
         <v>1397248</v>
       </c>
-      <c r="FM20" s="26">
+      <c r="FM20" s="25">
         <v>1396563</v>
       </c>
-      <c r="FN20" s="27">
+      <c r="FN20" s="26">
         <v>1402503</v>
       </c>
-      <c r="FO20" s="27">
+      <c r="FO20" s="26">
         <v>1413343</v>
       </c>
-      <c r="FP20" s="27">
+      <c r="FP20" s="26">
         <v>1415615</v>
       </c>
-      <c r="FQ20" s="27">
+      <c r="FQ20" s="26">
         <v>1421309</v>
       </c>
-      <c r="FR20" s="27">
+      <c r="FR20" s="26">
         <v>1423620</v>
       </c>
-      <c r="FS20" s="27">
+      <c r="FS20" s="26">
         <v>1433741</v>
       </c>
-      <c r="FT20" s="27">
+      <c r="FT20" s="26">
         <v>1435303</v>
       </c>
-      <c r="FU20" s="27">
+      <c r="FU20" s="26">
         <v>1447119</v>
       </c>
-      <c r="FV20" s="27">
+      <c r="FV20" s="26">
         <v>1463050</v>
       </c>
-      <c r="FW20" s="27">
+      <c r="FW20" s="26">
         <v>1477172</v>
       </c>
-      <c r="FX20" s="27">
+      <c r="FX20" s="26">
         <v>1463340</v>
       </c>
-      <c r="FY20" s="26">
+      <c r="FY20" s="25">
         <v>1466848</v>
       </c>
-      <c r="FZ20" s="27">
+      <c r="FZ20" s="26">
         <v>1479593</v>
       </c>
-      <c r="GA20" s="27">
+      <c r="GA20" s="26">
         <v>1493885</v>
       </c>
-      <c r="GB20" s="27">
+      <c r="GB20" s="26">
         <v>1496860</v>
       </c>
-      <c r="GC20" s="27">
+      <c r="GC20" s="26">
         <v>1496590</v>
       </c>
-      <c r="GD20" s="27">
+      <c r="GD20" s="26">
         <v>1494289</v>
       </c>
-      <c r="GE20" s="27">
+      <c r="GE20" s="26">
         <v>1498787</v>
       </c>
-      <c r="GF20" s="27">
+      <c r="GF20" s="26">
         <v>1505250</v>
       </c>
-      <c r="GG20" s="27">
+      <c r="GG20" s="26">
         <v>1517710</v>
       </c>
-      <c r="GH20" s="27">
+      <c r="GH20" s="26">
         <v>1530447</v>
       </c>
-      <c r="GI20" s="27">
+      <c r="GI20" s="26">
         <v>1548821</v>
       </c>
-      <c r="GJ20" s="27">
+      <c r="GJ20" s="26">
         <v>1535255</v>
       </c>
-      <c r="GK20" s="26">
+      <c r="GK20" s="25">
         <v>1539143</v>
       </c>
-      <c r="GL20" s="27">
+      <c r="GL20" s="26">
         <v>1552349</v>
       </c>
-      <c r="GM20" s="27">
+      <c r="GM20" s="26">
         <v>1559149</v>
       </c>
-      <c r="GN20" s="27">
+      <c r="GN20" s="26">
         <v>1569657</v>
       </c>
-      <c r="GO20" s="27">
+      <c r="GO20" s="26">
         <v>1571236</v>
       </c>
-      <c r="GP20" s="27">
+      <c r="GP20" s="26">
         <v>1576839</v>
       </c>
-      <c r="GQ20" s="27">
+      <c r="GQ20" s="26">
         <v>1582329</v>
       </c>
-      <c r="GR20" s="27">
+      <c r="GR20" s="26">
         <v>1592063</v>
       </c>
-      <c r="GS20" s="27">
+      <c r="GS20" s="26">
         <v>1608623</v>
       </c>
-      <c r="GT20" s="27">
+      <c r="GT20" s="26">
         <v>1627392</v>
       </c>
-      <c r="GU20" s="27">
+      <c r="GU20" s="26">
         <v>1643345</v>
       </c>
-      <c r="GV20" s="27">
+      <c r="GV20" s="26">
         <v>1624237</v>
       </c>
-      <c r="GW20" s="26">
+      <c r="GW20" s="25">
         <v>1635012</v>
       </c>
-      <c r="GX20" s="27">
+      <c r="GX20" s="26">
         <v>1640265</v>
       </c>
-      <c r="GY20" s="27">
+      <c r="GY20" s="26">
         <v>1661636</v>
       </c>
-      <c r="GZ20" s="27">
+      <c r="GZ20" s="26">
         <v>1662463</v>
       </c>
-      <c r="HA20" s="27">
+      <c r="HA20" s="26">
         <v>1664615</v>
       </c>
-      <c r="HB20" s="27">
+      <c r="HB20" s="26">
         <v>1672581</v>
       </c>
-      <c r="HC20" s="27">
+      <c r="HC20" s="26">
         <v>1675221</v>
       </c>
-      <c r="HD20" s="27">
+      <c r="HD20" s="26">
         <v>1694618</v>
       </c>
-      <c r="HE20" s="27">
+      <c r="HE20" s="26">
         <v>1708982</v>
       </c>
-      <c r="HF20" s="27">
+      <c r="HF20" s="26">
         <v>1728026</v>
       </c>
-      <c r="HG20" s="27">
+      <c r="HG20" s="26">
         <v>1740013</v>
       </c>
-      <c r="HH20" s="27">
+      <c r="HH20" s="26">
         <v>1717868</v>
       </c>
-      <c r="HI20" s="26">
+      <c r="HI20" s="25">
         <v>1723991</v>
       </c>
-      <c r="HJ20" s="27">
+      <c r="HJ20" s="26">
         <v>1738722</v>
       </c>
-      <c r="HK20" s="27">
+      <c r="HK20" s="26">
         <v>1743804</v>
       </c>
-      <c r="HL20" s="27">
+      <c r="HL20" s="26">
         <v>1749012</v>
       </c>
-      <c r="HM20" s="27">
+      <c r="HM20" s="26">
         <v>1752923</v>
       </c>
-      <c r="HN20" s="27">
+      <c r="HN20" s="26">
         <v>1755753</v>
       </c>
-      <c r="HO20" s="27">
+      <c r="HO20" s="26">
         <v>1750450</v>
       </c>
-      <c r="HP20" s="27">
+      <c r="HP20" s="26">
         <v>1766168</v>
       </c>
-      <c r="HQ20" s="27">
+      <c r="HQ20" s="26">
         <v>1774072</v>
       </c>
-      <c r="HR20" s="27">
+      <c r="HR20" s="26">
         <v>1782918</v>
       </c>
-      <c r="HS20" s="27">
+      <c r="HS20" s="26">
         <v>1792036</v>
       </c>
-      <c r="HT20" s="27">
+      <c r="HT20" s="26">
         <v>1761000</v>
       </c>
-      <c r="HU20" s="26">
+      <c r="HU20" s="25">
         <v>1778570</v>
       </c>
-      <c r="HV20" s="27">
+      <c r="HV20" s="26">
         <v>1792233</v>
       </c>
-      <c r="HW20" s="27">
+      <c r="HW20" s="26">
         <v>1796144</v>
       </c>
-      <c r="HX20" s="27">
+      <c r="HX20" s="26">
         <v>1798713</v>
       </c>
-      <c r="HY20" s="27">
+      <c r="HY20" s="26">
         <v>1798861</v>
       </c>
-      <c r="HZ20" s="27">
+      <c r="HZ20" s="26">
         <v>1796535</v>
       </c>
-      <c r="IA20" s="27">
+      <c r="IA20" s="26">
         <v>1792119</v>
       </c>
-      <c r="IB20" s="27">
+      <c r="IB20" s="26">
         <v>1800138</v>
       </c>
-      <c r="IC20" s="27">
+      <c r="IC20" s="26">
         <v>1815615</v>
       </c>
-      <c r="ID20" s="27">
+      <c r="ID20" s="26">
         <v>1828691</v>
       </c>
-      <c r="IE20" s="27">
+      <c r="IE20" s="26">
         <v>1840150</v>
       </c>
-      <c r="IF20" s="27">
+      <c r="IF20" s="26">
         <v>1812699</v>
       </c>
-      <c r="IG20" s="26">
+      <c r="IG20" s="25">
         <v>1822293</v>
       </c>
-      <c r="IH20" s="27">
+      <c r="IH20" s="26">
         <v>1837966</v>
       </c>
-      <c r="II20" s="27">
+      <c r="II20" s="26">
         <v>1831940</v>
       </c>
-      <c r="IJ20" s="27">
+      <c r="IJ20" s="26">
         <v>1793795</v>
       </c>
-      <c r="IK20" s="27">
+      <c r="IK20" s="26">
         <v>1770324</v>
       </c>
-      <c r="IL20" s="27">
+      <c r="IL20" s="26">
         <v>1755765</v>
       </c>
-      <c r="IM20" s="27">
+      <c r="IM20" s="26">
         <v>1742635</v>
       </c>
-      <c r="IN20" s="27">
+      <c r="IN20" s="26">
         <v>1758496</v>
       </c>
-      <c r="IO20" s="27">
+      <c r="IO20" s="26">
         <v>1769661</v>
       </c>
-      <c r="IP20" s="27">
+      <c r="IP20" s="26">
         <v>1788334</v>
       </c>
-      <c r="IQ20" s="27">
+      <c r="IQ20" s="26">
         <v>1805269</v>
       </c>
-      <c r="IR20" s="27">
+      <c r="IR20" s="26">
         <v>1780367</v>
       </c>
-      <c r="IS20" s="26">
+      <c r="IS20" s="25">
         <v>1787122</v>
       </c>
-      <c r="IT20" s="27">
+      <c r="IT20" s="26">
         <v>1800733</v>
       </c>
-      <c r="IU20" s="27">
+      <c r="IU20" s="26">
         <v>1803619</v>
       </c>
-      <c r="IV20" s="27">
+      <c r="IV20" s="26">
         <v>1810884</v>
       </c>
-      <c r="IW20" s="27">
+      <c r="IW20" s="26">
         <v>1815607</v>
       </c>
-      <c r="IX20" s="27">
+      <c r="IX20" s="26">
         <v>1820785</v>
       </c>
-      <c r="IY20" s="27">
+      <c r="IY20" s="26">
         <v>1826575</v>
       </c>
-      <c r="IZ20" s="27">
+      <c r="IZ20" s="26">
         <v>1837975</v>
       </c>
-      <c r="JA20" s="27">
+      <c r="JA20" s="26">
         <v>1847731</v>
       </c>
-      <c r="JB20" s="27">
+      <c r="JB20" s="26">
         <v>1858235</v>
       </c>
-      <c r="JC20" s="27">
+      <c r="JC20" s="26">
         <v>1873476</v>
       </c>
-      <c r="JD20" s="38">
+      <c r="JD20" s="26">
         <v>1849999</v>
       </c>
+      <c r="JE20" s="24">
+        <v>1861159</v>
+      </c>
     </row>
-    <row r="21" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -15662,11 +15738,14 @@
       <c r="JC21" s="14">
         <v>466532</v>
       </c>
-      <c r="JD21" s="15">
+      <c r="JD21" s="14">
         <v>461758</v>
       </c>
+      <c r="JE21" s="4">
+        <v>461499</v>
+      </c>
     </row>
-    <row r="22" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -16456,11 +16535,14 @@
       <c r="JC22" s="14">
         <v>215678</v>
       </c>
-      <c r="JD22" s="15">
+      <c r="JD22" s="14">
         <v>213192</v>
       </c>
+      <c r="JE22" s="4">
+        <v>212020</v>
+      </c>
     </row>
-    <row r="23" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -17250,11 +17332,14 @@
       <c r="JC23" s="14">
         <v>164103</v>
       </c>
-      <c r="JD23" s="15">
+      <c r="JD23" s="14">
         <v>160665</v>
       </c>
+      <c r="JE23" s="4">
+        <v>166107</v>
+      </c>
     </row>
-    <row r="24" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -18044,11 +18129,14 @@
       <c r="JC24" s="14">
         <v>1730303</v>
       </c>
-      <c r="JD24" s="15">
+      <c r="JD24" s="14">
         <v>1696689</v>
       </c>
+      <c r="JE24" s="4">
+        <v>1711522</v>
+      </c>
     </row>
-    <row r="25" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -18838,11 +18926,14 @@
       <c r="JC25" s="14">
         <v>218085</v>
       </c>
-      <c r="JD25" s="15">
+      <c r="JD25" s="14">
         <v>216374</v>
       </c>
+      <c r="JE25" s="4">
+        <v>215571</v>
+      </c>
     </row>
-    <row r="26" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -19632,11 +19723,14 @@
       <c r="JC26" s="14">
         <v>615837</v>
       </c>
-      <c r="JD26" s="15">
+      <c r="JD26" s="14">
         <v>611779</v>
       </c>
+      <c r="JE26" s="4">
+        <v>608463</v>
+      </c>
     </row>
-    <row r="27" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -20426,11 +20520,14 @@
       <c r="JC27" s="14">
         <v>639432</v>
       </c>
-      <c r="JD27" s="15">
+      <c r="JD27" s="14">
         <v>628676</v>
       </c>
+      <c r="JE27" s="4">
+        <v>633157</v>
+      </c>
     </row>
-    <row r="28" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -21220,11 +21317,14 @@
       <c r="JC28" s="14">
         <v>442048</v>
       </c>
-      <c r="JD28" s="15">
+      <c r="JD28" s="14">
         <v>432986</v>
       </c>
+      <c r="JE28" s="4">
+        <v>443448</v>
+      </c>
     </row>
-    <row r="29" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -22014,11 +22114,14 @@
       <c r="JC29" s="14">
         <v>458236</v>
       </c>
-      <c r="JD29" s="15">
+      <c r="JD29" s="14">
         <v>451010</v>
       </c>
+      <c r="JE29" s="4">
+        <v>454608</v>
+      </c>
     </row>
-    <row r="30" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -22808,11 +22911,14 @@
       <c r="JC30" s="14">
         <v>587453</v>
       </c>
-      <c r="JD30" s="15">
+      <c r="JD30" s="14">
         <v>586281</v>
       </c>
+      <c r="JE30" s="4">
+        <v>607529</v>
+      </c>
     </row>
-    <row r="31" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -23602,11 +23708,14 @@
       <c r="JC31" s="14">
         <v>646482</v>
       </c>
-      <c r="JD31" s="15">
+      <c r="JD31" s="14">
         <v>626610</v>
       </c>
+      <c r="JE31" s="4">
+        <v>640462</v>
+      </c>
     </row>
-    <row r="32" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -24396,11 +24505,14 @@
       <c r="JC32" s="14">
         <v>213110</v>
       </c>
-      <c r="JD32" s="15">
+      <c r="JD32" s="14">
         <v>209338</v>
       </c>
+      <c r="JE32" s="4">
+        <v>213100</v>
+      </c>
     </row>
-    <row r="33" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -25190,11 +25302,14 @@
       <c r="JC33" s="14">
         <v>695701</v>
       </c>
-      <c r="JD33" s="15">
+      <c r="JD33" s="14">
         <v>681365</v>
       </c>
+      <c r="JE33" s="4">
+        <v>688907</v>
+      </c>
     </row>
-    <row r="34" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -25984,11 +26099,14 @@
       <c r="JC34" s="14">
         <v>105292</v>
       </c>
-      <c r="JD34" s="15">
+      <c r="JD34" s="14">
         <v>103100</v>
       </c>
+      <c r="JE34" s="4">
+        <v>102229</v>
+      </c>
     </row>
-    <row r="35" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -26778,11 +26896,14 @@
       <c r="JC35" s="14">
         <v>742630</v>
       </c>
-      <c r="JD35" s="15">
+      <c r="JD35" s="14">
         <v>744070</v>
       </c>
+      <c r="JE35" s="4">
+        <v>744096</v>
+      </c>
     </row>
-    <row r="36" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -27572,11 +27693,14 @@
       <c r="JC36" s="14">
         <v>397354</v>
       </c>
-      <c r="JD36" s="15">
+      <c r="JD36" s="14">
         <v>393339</v>
       </c>
+      <c r="JE36" s="4">
+        <v>395682</v>
+      </c>
     </row>
-    <row r="37" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -28261,40 +28385,40 @@
       <c r="HT37" s="14">
         <v>185244</v>
       </c>
-      <c r="HU37" s="23">
+      <c r="HU37" s="22">
         <v>186528</v>
       </c>
-      <c r="HV37" s="24">
+      <c r="HV37" s="23">
         <v>186608</v>
       </c>
-      <c r="HW37" s="24">
+      <c r="HW37" s="23">
         <v>186757</v>
       </c>
-      <c r="HX37" s="24">
+      <c r="HX37" s="23">
         <v>186925</v>
       </c>
-      <c r="HY37" s="24">
+      <c r="HY37" s="23">
         <v>186385</v>
       </c>
-      <c r="HZ37" s="24">
+      <c r="HZ37" s="23">
         <v>187724</v>
       </c>
-      <c r="IA37" s="24">
+      <c r="IA37" s="23">
         <v>187144</v>
       </c>
-      <c r="IB37" s="24">
+      <c r="IB37" s="23">
         <v>187285</v>
       </c>
-      <c r="IC37" s="24">
+      <c r="IC37" s="23">
         <v>187149</v>
       </c>
-      <c r="ID37" s="24">
+      <c r="ID37" s="23">
         <v>189446</v>
       </c>
-      <c r="IE37" s="24">
+      <c r="IE37" s="23">
         <v>190762</v>
       </c>
-      <c r="IF37" s="24">
+      <c r="IF37" s="23">
         <v>189173</v>
       </c>
       <c r="IG37" s="13">
@@ -28333,22 +28457,22 @@
       <c r="IR37" s="14">
         <v>187080</v>
       </c>
-      <c r="IS37" s="23">
+      <c r="IS37" s="22">
         <v>186492</v>
       </c>
-      <c r="IT37" s="24">
+      <c r="IT37" s="23">
         <v>187902</v>
       </c>
-      <c r="IU37" s="24">
+      <c r="IU37" s="23">
         <v>189159</v>
       </c>
-      <c r="IV37" s="24">
+      <c r="IV37" s="23">
         <v>189657</v>
       </c>
-      <c r="IW37" s="24">
+      <c r="IW37" s="23">
         <v>189898</v>
       </c>
-      <c r="IX37" s="24">
+      <c r="IX37" s="23">
         <v>189848</v>
       </c>
       <c r="IY37" s="14">
@@ -28366,15 +28490,18 @@
       <c r="JC37" s="14">
         <v>197130</v>
       </c>
-      <c r="JD37" s="15">
+      <c r="JD37" s="14">
         <v>195976</v>
       </c>
+      <c r="JE37" s="40">
+        <v>195314</v>
+      </c>
     </row>
-    <row r="38" spans="1:264" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="15">
         <v>12034095</v>
       </c>
       <c r="C38" s="10">
@@ -28410,7 +28537,7 @@
       <c r="M38" s="10">
         <v>12437760</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N38" s="15">
         <v>12525949</v>
       </c>
       <c r="O38" s="10">
@@ -28446,7 +28573,7 @@
       <c r="Y38" s="10">
         <v>12170945</v>
       </c>
-      <c r="Z38" s="16">
+      <c r="Z38" s="15">
         <v>12195513</v>
       </c>
       <c r="AA38" s="10">
@@ -28482,7 +28609,7 @@
       <c r="AK38" s="10">
         <v>12232301</v>
       </c>
-      <c r="AL38" s="16">
+      <c r="AL38" s="15">
         <v>12269469</v>
       </c>
       <c r="AM38" s="10">
@@ -28515,7 +28642,7 @@
       <c r="AV38" s="10">
         <v>12257581</v>
       </c>
-      <c r="AW38" s="16">
+      <c r="AW38" s="15">
         <v>12294000</v>
       </c>
       <c r="AX38" s="10">
@@ -28551,7 +28678,7 @@
       <c r="BH38" s="10">
         <v>12632877</v>
       </c>
-      <c r="BI38" s="16">
+      <c r="BI38" s="15">
         <v>12697125</v>
       </c>
       <c r="BJ38" s="10">
@@ -28587,7 +28714,7 @@
       <c r="BT38" s="10">
         <v>13061565</v>
       </c>
-      <c r="BU38" s="16">
+      <c r="BU38" s="15">
         <v>13174495</v>
       </c>
       <c r="BV38" s="10">
@@ -28623,7 +28750,7 @@
       <c r="CF38" s="10">
         <v>13678492</v>
       </c>
-      <c r="CG38" s="16">
+      <c r="CG38" s="15">
         <v>13794601</v>
       </c>
       <c r="CH38" s="10">
@@ -28659,7 +28786,7 @@
       <c r="CR38" s="10">
         <v>14207706</v>
       </c>
-      <c r="CS38" s="16">
+      <c r="CS38" s="15">
         <v>14315318</v>
       </c>
       <c r="CT38" s="10">
@@ -28695,7 +28822,7 @@
       <c r="DD38" s="10">
         <v>14178117</v>
       </c>
-      <c r="DE38" s="16">
+      <c r="DE38" s="15">
         <v>14073102</v>
       </c>
       <c r="DF38" s="10">
@@ -28731,7 +28858,7 @@
       <c r="DP38" s="10">
         <v>14006404</v>
       </c>
-      <c r="DQ38" s="16">
+      <c r="DQ38" s="15">
         <v>14076279</v>
       </c>
       <c r="DR38" s="10">
@@ -28767,7 +28894,7 @@
       <c r="EB38" s="10">
         <v>14738783</v>
       </c>
-      <c r="EC38" s="16">
+      <c r="EC38" s="15">
         <v>14787440</v>
       </c>
       <c r="ED38" s="10">
@@ -28803,7 +28930,7 @@
       <c r="EN38" s="10">
         <v>15350335</v>
       </c>
-      <c r="EO38" s="16">
+      <c r="EO38" s="15">
         <v>15427859</v>
       </c>
       <c r="EP38" s="10">
@@ -28839,7 +28966,7 @@
       <c r="EZ38" s="10">
         <v>16062043</v>
       </c>
-      <c r="FA38" s="16">
+      <c r="FA38" s="15">
         <v>16106212</v>
       </c>
       <c r="FB38" s="10">
@@ -28875,7 +29002,7 @@
       <c r="FL38" s="10">
         <v>16525061</v>
       </c>
-      <c r="FM38" s="16">
+      <c r="FM38" s="15">
         <v>16547040</v>
       </c>
       <c r="FN38" s="10">
@@ -28911,7 +29038,7 @@
       <c r="FX38" s="10">
         <v>17239587</v>
       </c>
-      <c r="FY38" s="16">
+      <c r="FY38" s="15">
         <v>17299371</v>
       </c>
       <c r="FZ38" s="10">
@@ -28947,7 +29074,7 @@
       <c r="GJ38" s="10">
         <v>17882161</v>
       </c>
-      <c r="GK38" s="16">
+      <c r="GK38" s="15">
         <v>17953203</v>
       </c>
       <c r="GL38" s="10">
@@ -28983,7 +29110,7 @@
       <c r="GV38" s="10">
         <v>18616624</v>
       </c>
-      <c r="GW38" s="16">
+      <c r="GW38" s="15">
         <v>18699916</v>
       </c>
       <c r="GX38" s="10">
@@ -29019,7 +29146,7 @@
       <c r="HH38" s="10">
         <v>19418455</v>
       </c>
-      <c r="HI38" s="16">
+      <c r="HI38" s="15">
         <v>19532177</v>
       </c>
       <c r="HJ38" s="10">
@@ -29055,7 +29182,7 @@
       <c r="HT38" s="10">
         <v>20079365</v>
       </c>
-      <c r="HU38" s="16">
+      <c r="HU38" s="15">
         <v>20174011</v>
       </c>
       <c r="HV38" s="10">
@@ -29091,7 +29218,7 @@
       <c r="IF38" s="10">
         <v>20421442</v>
       </c>
-      <c r="IG38" s="16">
+      <c r="IG38" s="15">
         <v>20490397</v>
       </c>
       <c r="IH38" s="10">
@@ -29127,7 +29254,7 @@
       <c r="IR38" s="10">
         <v>19773732</v>
       </c>
-      <c r="IS38" s="16">
+      <c r="IS38" s="15">
         <v>19821651</v>
       </c>
       <c r="IT38" s="10">
@@ -29164,13 +29291,16 @@
       <c r="JD38" s="11">
         <v>20620148</v>
       </c>
+      <c r="JE38" s="42">
+        <v>20762419</v>
+      </c>
     </row>
-    <row r="40" spans="1:264" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:265" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="HR40" s="22"/>
-      <c r="HS40" s="22"/>
+      <c r="HR40" s="21"/>
+      <c r="HS40" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -783,9 +783,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -796,16 +794,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -854,7 +848,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -914,9 +908,6 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,15 +920,15 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1284,11 +1275,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JE40"/>
+  <dimension ref="A1:JF40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JH31" sqref="JH31"/>
+      <selection pane="topRight" activeCell="JH17" sqref="JH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,22 +1378,22 @@
     <col min="252" max="260" width="10.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="261" max="263" width="10.5703125" style="7" customWidth="1"/>
     <col min="264" max="264" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="10.7109375" style="7" customWidth="1"/>
+    <col min="265" max="266" width="10.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:265" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:265" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="3" spans="1:266" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:266" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="17">
@@ -2158,48 +2149,51 @@
       <c r="IR4" s="28">
         <v>2020</v>
       </c>
-      <c r="IS4" s="34">
+      <c r="IS4" s="33">
         <v>2021</v>
       </c>
-      <c r="IT4" s="35">
+      <c r="IT4" s="34">
         <v>2021</v>
       </c>
-      <c r="IU4" s="35">
+      <c r="IU4" s="34">
         <v>2021</v>
       </c>
-      <c r="IV4" s="35">
+      <c r="IV4" s="34">
         <v>2021</v>
       </c>
-      <c r="IW4" s="35">
+      <c r="IW4" s="34">
         <v>2021</v>
       </c>
-      <c r="IX4" s="35">
+      <c r="IX4" s="34">
         <v>2021</v>
       </c>
-      <c r="IY4" s="35">
+      <c r="IY4" s="34">
         <v>2021</v>
       </c>
-      <c r="IZ4" s="35">
+      <c r="IZ4" s="34">
         <v>2021</v>
       </c>
-      <c r="JA4" s="35">
+      <c r="JA4" s="34">
         <v>2021</v>
       </c>
-      <c r="JB4" s="35">
+      <c r="JB4" s="34">
         <v>2021</v>
       </c>
-      <c r="JC4" s="35">
+      <c r="JC4" s="34">
         <v>2021</v>
       </c>
-      <c r="JD4" s="36">
+      <c r="JD4" s="34">
         <v>2021</v>
       </c>
-      <c r="JE4" s="38">
+      <c r="JE4" s="33">
         <v>2022</v>
       </c>
+      <c r="JF4" s="35">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:265" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:266" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
       <c r="B5" s="9" t="s">
         <v>36</v>
       </c>
@@ -2986,14 +2980,17 @@
       <c r="JC5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="JD5" s="33" t="s">
+      <c r="JD5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="JE5" s="41" t="s">
+      <c r="JE5" s="40" t="s">
         <v>36</v>
       </c>
+      <c r="JF5" s="39" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3786,11 +3783,14 @@
       <c r="JD6" s="14">
         <v>335529</v>
       </c>
-      <c r="JE6" s="39">
+      <c r="JE6" s="2">
         <v>338642</v>
       </c>
+      <c r="JF6" s="37">
+        <v>340944</v>
+      </c>
     </row>
-    <row r="7" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4583,11 +4583,14 @@
       <c r="JD7" s="14">
         <v>975398</v>
       </c>
-      <c r="JE7" s="4">
+      <c r="JE7" s="13">
         <v>990557</v>
       </c>
+      <c r="JF7" s="38">
+        <v>995803</v>
+      </c>
     </row>
-    <row r="8" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5380,11 +5383,14 @@
       <c r="JD8" s="14">
         <v>189833</v>
       </c>
-      <c r="JE8" s="4">
+      <c r="JE8" s="13">
         <v>191747</v>
       </c>
+      <c r="JF8" s="38">
+        <v>194402</v>
+      </c>
     </row>
-    <row r="9" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6177,11 +6183,14 @@
       <c r="JD9" s="14">
         <v>131218</v>
       </c>
-      <c r="JE9" s="4">
+      <c r="JE9" s="13">
         <v>131690</v>
       </c>
+      <c r="JF9" s="38">
+        <v>132523</v>
+      </c>
     </row>
-    <row r="10" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -6974,11 +6983,14 @@
       <c r="JD10" s="14">
         <v>235059</v>
       </c>
-      <c r="JE10" s="4">
+      <c r="JE10" s="13">
         <v>231464</v>
       </c>
+      <c r="JF10" s="38">
+        <v>234202</v>
+      </c>
     </row>
-    <row r="11" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7771,11 +7783,14 @@
       <c r="JD11" s="14">
         <v>930477</v>
       </c>
-      <c r="JE11" s="4">
+      <c r="JE11" s="13">
         <v>945569</v>
       </c>
+      <c r="JF11" s="38">
+        <v>955326</v>
+      </c>
     </row>
-    <row r="12" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -8568,11 +8583,14 @@
       <c r="JD12" s="14">
         <v>3312592</v>
       </c>
-      <c r="JE12" s="4">
+      <c r="JE12" s="13">
         <v>3301167</v>
       </c>
+      <c r="JF12" s="38">
+        <v>3321460</v>
+      </c>
     </row>
-    <row r="13" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -9365,11 +9383,14 @@
       <c r="JD13" s="14">
         <v>789518</v>
       </c>
-      <c r="JE13" s="4">
+      <c r="JE13" s="13">
         <v>799609</v>
       </c>
+      <c r="JF13" s="38">
+        <v>807975</v>
+      </c>
     </row>
-    <row r="14" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -10162,11 +10183,14 @@
       <c r="JD14" s="14">
         <v>139423</v>
       </c>
-      <c r="JE14" s="4">
+      <c r="JE14" s="13">
         <v>141193</v>
       </c>
+      <c r="JF14" s="38">
+        <v>141808</v>
+      </c>
     </row>
-    <row r="15" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -10959,11 +10983,14 @@
       <c r="JD15" s="14">
         <v>254204</v>
       </c>
-      <c r="JE15" s="4">
+      <c r="JE15" s="13">
         <v>256588</v>
       </c>
+      <c r="JF15" s="38">
+        <v>257932</v>
+      </c>
     </row>
-    <row r="16" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -11756,11 +11783,14 @@
       <c r="JD16" s="14">
         <v>1650381</v>
       </c>
-      <c r="JE16" s="4">
+      <c r="JE16" s="13">
         <v>1659857</v>
       </c>
+      <c r="JF16" s="38">
+        <v>1670417</v>
+      </c>
     </row>
-    <row r="17" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -12553,11 +12583,14 @@
       <c r="JD17" s="14">
         <v>1019332</v>
       </c>
-      <c r="JE17" s="4">
+      <c r="JE17" s="13">
         <v>1027712</v>
       </c>
+      <c r="JF17" s="38">
+        <v>1036473</v>
+      </c>
     </row>
-    <row r="18" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -13350,11 +13383,14 @@
       <c r="JD18" s="14">
         <v>153546</v>
       </c>
-      <c r="JE18" s="4">
+      <c r="JE18" s="13">
         <v>147486</v>
       </c>
+      <c r="JF18" s="38">
+        <v>149507</v>
+      </c>
     </row>
-    <row r="19" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -14147,11 +14183,14 @@
       <c r="JD19" s="14">
         <v>240431</v>
       </c>
-      <c r="JE19" s="4">
+      <c r="JE19" s="13">
         <v>244265</v>
       </c>
+      <c r="JF19" s="38">
+        <v>247384</v>
+      </c>
     </row>
-    <row r="20" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>14</v>
       </c>
@@ -14944,11 +14983,14 @@
       <c r="JD20" s="26">
         <v>1849999</v>
       </c>
-      <c r="JE20" s="24">
+      <c r="JE20" s="25">
         <v>1861159</v>
       </c>
+      <c r="JF20" s="41">
+        <v>1874622</v>
+      </c>
     </row>
-    <row r="21" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -15741,11 +15783,14 @@
       <c r="JD21" s="14">
         <v>461758</v>
       </c>
-      <c r="JE21" s="4">
+      <c r="JE21" s="13">
         <v>461499</v>
       </c>
+      <c r="JF21" s="38">
+        <v>463919</v>
+      </c>
     </row>
-    <row r="22" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -16538,11 +16583,14 @@
       <c r="JD22" s="14">
         <v>213192</v>
       </c>
-      <c r="JE22" s="4">
+      <c r="JE22" s="13">
         <v>212020</v>
       </c>
+      <c r="JF22" s="38">
+        <v>213831</v>
+      </c>
     </row>
-    <row r="23" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -17335,11 +17383,14 @@
       <c r="JD23" s="14">
         <v>160665</v>
       </c>
-      <c r="JE23" s="4">
+      <c r="JE23" s="13">
         <v>166107</v>
       </c>
+      <c r="JF23" s="38">
+        <v>167280</v>
+      </c>
     </row>
-    <row r="24" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -18132,11 +18183,14 @@
       <c r="JD24" s="14">
         <v>1696689</v>
       </c>
-      <c r="JE24" s="4">
+      <c r="JE24" s="13">
         <v>1711522</v>
       </c>
+      <c r="JF24" s="38">
+        <v>1733020</v>
+      </c>
     </row>
-    <row r="25" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -18929,11 +18983,14 @@
       <c r="JD25" s="14">
         <v>216374</v>
       </c>
-      <c r="JE25" s="4">
+      <c r="JE25" s="13">
         <v>215571</v>
       </c>
+      <c r="JF25" s="38">
+        <v>216717</v>
+      </c>
     </row>
-    <row r="26" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -19726,11 +19783,14 @@
       <c r="JD26" s="14">
         <v>611779</v>
       </c>
-      <c r="JE26" s="4">
+      <c r="JE26" s="13">
         <v>608463</v>
       </c>
+      <c r="JF26" s="38">
+        <v>612514</v>
+      </c>
     </row>
-    <row r="27" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -20523,11 +20583,14 @@
       <c r="JD27" s="14">
         <v>628676</v>
       </c>
-      <c r="JE27" s="4">
+      <c r="JE27" s="13">
         <v>633157</v>
       </c>
+      <c r="JF27" s="38">
+        <v>641638</v>
+      </c>
     </row>
-    <row r="28" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -21320,11 +21383,14 @@
       <c r="JD28" s="14">
         <v>432986</v>
       </c>
-      <c r="JE28" s="4">
+      <c r="JE28" s="13">
         <v>443448</v>
       </c>
+      <c r="JF28" s="38">
+        <v>448714</v>
+      </c>
     </row>
-    <row r="29" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -22117,11 +22183,14 @@
       <c r="JD29" s="14">
         <v>451010</v>
       </c>
-      <c r="JE29" s="4">
+      <c r="JE29" s="13">
         <v>454608</v>
       </c>
+      <c r="JF29" s="38">
+        <v>456461</v>
+      </c>
     </row>
-    <row r="30" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -22914,11 +22983,14 @@
       <c r="JD30" s="14">
         <v>586281</v>
       </c>
-      <c r="JE30" s="4">
+      <c r="JE30" s="13">
         <v>607529</v>
       </c>
+      <c r="JF30" s="38">
+        <v>607676</v>
+      </c>
     </row>
-    <row r="31" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -23711,11 +23783,14 @@
       <c r="JD31" s="14">
         <v>626610</v>
       </c>
-      <c r="JE31" s="4">
+      <c r="JE31" s="13">
         <v>640462</v>
       </c>
+      <c r="JF31" s="38">
+        <v>657200</v>
+      </c>
     </row>
-    <row r="32" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -24508,11 +24583,14 @@
       <c r="JD32" s="14">
         <v>209338</v>
       </c>
-      <c r="JE32" s="4">
+      <c r="JE32" s="13">
         <v>213100</v>
       </c>
+      <c r="JF32" s="38">
+        <v>218065</v>
+      </c>
     </row>
-    <row r="33" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -25305,11 +25383,14 @@
       <c r="JD33" s="14">
         <v>681365</v>
       </c>
-      <c r="JE33" s="4">
+      <c r="JE33" s="13">
         <v>688907</v>
       </c>
+      <c r="JF33" s="38">
+        <v>696124</v>
+      </c>
     </row>
-    <row r="34" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -26102,11 +26183,14 @@
       <c r="JD34" s="14">
         <v>103100</v>
       </c>
-      <c r="JE34" s="4">
+      <c r="JE34" s="13">
         <v>102229</v>
       </c>
+      <c r="JF34" s="38">
+        <v>103766</v>
+      </c>
     </row>
-    <row r="35" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -26899,11 +26983,14 @@
       <c r="JD35" s="14">
         <v>744070</v>
       </c>
-      <c r="JE35" s="4">
+      <c r="JE35" s="13">
         <v>744096</v>
       </c>
+      <c r="JF35" s="38">
+        <v>748856</v>
+      </c>
     </row>
-    <row r="36" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -27696,11 +27783,14 @@
       <c r="JD36" s="14">
         <v>393339</v>
       </c>
-      <c r="JE36" s="4">
+      <c r="JE36" s="13">
         <v>395682</v>
       </c>
+      <c r="JF36" s="38">
+        <v>398497</v>
+      </c>
     </row>
-    <row r="37" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -28493,11 +28583,14 @@
       <c r="JD37" s="14">
         <v>195976</v>
       </c>
-      <c r="JE37" s="40">
+      <c r="JE37" s="13">
         <v>195314</v>
       </c>
+      <c r="JF37" s="38">
+        <v>196230</v>
+      </c>
     </row>
-    <row r="38" spans="1:265" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:266" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
@@ -29288,14 +29381,17 @@
       <c r="JC38" s="10">
         <v>20933050</v>
       </c>
-      <c r="JD38" s="11">
+      <c r="JD38" s="10">
         <v>20620148</v>
       </c>
-      <c r="JE38" s="42">
+      <c r="JE38" s="15">
         <v>20762419</v>
       </c>
+      <c r="JF38" s="11">
+        <v>20941286</v>
+      </c>
     </row>
-    <row r="40" spans="1:265" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:266" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344"/>
   </bookViews>
   <sheets>
     <sheet name="ta entidades" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -555,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -791,17 +791,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -848,7 +837,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -920,15 +909,14 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1275,124 +1263,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JG40"/>
+  <dimension ref="A1:JH40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JI15" sqref="JI15"/>
+      <selection pane="topRight" activeCell="JI5" sqref="JI1:JK1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="33" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="33" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="44" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="44" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="11" bestFit="1" customWidth="1"/>
-    <col min="48" max="56" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="56" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="11" bestFit="1" customWidth="1"/>
-    <col min="60" max="68" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="68" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.125" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="11" bestFit="1" customWidth="1"/>
-    <col min="72" max="80" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="80" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.125" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="11" bestFit="1" customWidth="1"/>
-    <col min="84" max="92" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="92" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="10.125" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="11" bestFit="1" customWidth="1"/>
-    <col min="96" max="104" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="104" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="10.125" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="11" bestFit="1" customWidth="1"/>
-    <col min="108" max="116" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="108" max="116" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="10.125" bestFit="1" customWidth="1"/>
     <col min="119" max="119" width="11" bestFit="1" customWidth="1"/>
-    <col min="120" max="128" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="120" max="128" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.125" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="11" bestFit="1" customWidth="1"/>
-    <col min="132" max="140" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="132" max="140" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="10.125" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="11" bestFit="1" customWidth="1"/>
-    <col min="144" max="152" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="144" max="152" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="10.125" bestFit="1" customWidth="1"/>
     <col min="155" max="155" width="11" bestFit="1" customWidth="1"/>
-    <col min="156" max="164" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="156" max="164" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="10.125" bestFit="1" customWidth="1"/>
     <col min="167" max="167" width="11" bestFit="1" customWidth="1"/>
-    <col min="168" max="176" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="168" max="176" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="10.125" bestFit="1" customWidth="1"/>
     <col min="179" max="179" width="11" bestFit="1" customWidth="1"/>
-    <col min="180" max="188" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="180" max="188" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="10.125" bestFit="1" customWidth="1"/>
     <col min="191" max="191" width="11" bestFit="1" customWidth="1"/>
-    <col min="192" max="200" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="192" max="200" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="10.125" bestFit="1" customWidth="1"/>
     <col min="203" max="203" width="11" bestFit="1" customWidth="1"/>
-    <col min="204" max="212" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="204" max="212" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="213" max="213" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="10.125" bestFit="1" customWidth="1"/>
     <col min="215" max="215" width="11" bestFit="1" customWidth="1"/>
-    <col min="216" max="224" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="216" max="224" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="10.125" bestFit="1" customWidth="1"/>
     <col min="227" max="227" width="11" bestFit="1" customWidth="1"/>
-    <col min="228" max="230" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="231" max="231" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="232" max="234" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="235" max="235" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="228" max="230" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="231" max="231" width="10.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="232" max="234" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="235" max="235" width="10.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="239" max="239" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="241" max="246" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="247" max="248" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="249" max="249" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="10.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="241" max="246" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="247" max="248" width="10.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="249" max="249" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="251" max="251" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="252" max="260" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="261" max="263" width="10.5703125" style="7" customWidth="1"/>
-    <col min="264" max="264" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="265" max="267" width="10.7109375" style="7" customWidth="1"/>
+    <col min="252" max="260" width="10.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="261" max="263" width="10.625" style="7" customWidth="1"/>
+    <col min="264" max="264" width="11.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="265" max="268" width="10.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:267" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:268" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>35</v>
       </c>
@@ -2191,11 +2179,14 @@
       <c r="JF4" s="33">
         <v>2022</v>
       </c>
-      <c r="JG4" s="34">
+      <c r="JG4" s="33">
         <v>2022</v>
       </c>
+      <c r="JH4" s="34">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>36</v>
@@ -2992,11 +2983,14 @@
       <c r="JF5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="JG5" s="40" t="s">
+      <c r="JG5" s="30" t="s">
         <v>38</v>
       </c>
+      <c r="JH5" s="37" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3795,11 +3789,14 @@
       <c r="JF6" s="3">
         <v>340944</v>
       </c>
-      <c r="JG6" s="35">
+      <c r="JG6" s="13">
         <v>341250</v>
       </c>
+      <c r="JH6" s="35">
+        <v>341747</v>
+      </c>
     </row>
-    <row r="7" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4598,11 +4595,14 @@
       <c r="JF7" s="13">
         <v>995803</v>
       </c>
-      <c r="JG7" s="35">
+      <c r="JG7" s="13">
         <v>1005600</v>
       </c>
+      <c r="JH7" s="35">
+        <v>1005246</v>
+      </c>
     </row>
-    <row r="8" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5401,11 +5401,14 @@
       <c r="JF8" s="13">
         <v>194402</v>
       </c>
-      <c r="JG8" s="35">
+      <c r="JG8" s="13">
         <v>197167</v>
       </c>
+      <c r="JH8" s="35">
+        <v>200038</v>
+      </c>
     </row>
-    <row r="9" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6204,11 +6207,14 @@
       <c r="JF9" s="13">
         <v>132523</v>
       </c>
-      <c r="JG9" s="35">
+      <c r="JG9" s="13">
         <v>133197</v>
       </c>
+      <c r="JH9" s="35">
+        <v>133270</v>
+      </c>
     </row>
-    <row r="10" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7007,11 +7013,14 @@
       <c r="JF10" s="13">
         <v>234202</v>
       </c>
-      <c r="JG10" s="35">
+      <c r="JG10" s="13">
         <v>236234</v>
       </c>
+      <c r="JH10" s="35">
+        <v>237801</v>
+      </c>
     </row>
-    <row r="11" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7810,11 +7819,14 @@
       <c r="JF11" s="13">
         <v>955326</v>
       </c>
-      <c r="JG11" s="35">
+      <c r="JG11" s="13">
         <v>960620</v>
       </c>
+      <c r="JH11" s="35">
+        <v>959575</v>
+      </c>
     </row>
-    <row r="12" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -8613,11 +8625,14 @@
       <c r="JF12" s="13">
         <v>3321460</v>
       </c>
-      <c r="JG12" s="35">
+      <c r="JG12" s="13">
         <v>3323522</v>
       </c>
+      <c r="JH12" s="35">
+        <v>3326256</v>
+      </c>
     </row>
-    <row r="13" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -9416,11 +9431,14 @@
       <c r="JF13" s="13">
         <v>807975</v>
       </c>
-      <c r="JG13" s="35">
+      <c r="JG13" s="13">
         <v>814225</v>
       </c>
+      <c r="JH13" s="35">
+        <v>814563</v>
+      </c>
     </row>
-    <row r="14" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -10219,11 +10237,14 @@
       <c r="JF14" s="13">
         <v>141808</v>
       </c>
-      <c r="JG14" s="35">
+      <c r="JG14" s="13">
         <v>142032</v>
       </c>
+      <c r="JH14" s="35">
+        <v>141981</v>
+      </c>
     </row>
-    <row r="15" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -11022,11 +11043,14 @@
       <c r="JF15" s="13">
         <v>257932</v>
       </c>
-      <c r="JG15" s="35">
+      <c r="JG15" s="13">
         <v>259036</v>
       </c>
+      <c r="JH15" s="35">
+        <v>258662</v>
+      </c>
     </row>
-    <row r="16" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -11825,11 +11849,14 @@
       <c r="JF16" s="13">
         <v>1670417</v>
       </c>
-      <c r="JG16" s="35">
+      <c r="JG16" s="13">
         <v>1674576</v>
       </c>
+      <c r="JH16" s="35">
+        <v>1679022</v>
+      </c>
     </row>
-    <row r="17" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -12628,11 +12655,14 @@
       <c r="JF17" s="13">
         <v>1036473</v>
       </c>
-      <c r="JG17" s="35">
+      <c r="JG17" s="13">
         <v>1040990</v>
       </c>
+      <c r="JH17" s="35">
+        <v>1039960</v>
+      </c>
     </row>
-    <row r="18" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -13431,11 +13461,14 @@
       <c r="JF18" s="13">
         <v>149507</v>
       </c>
-      <c r="JG18" s="35">
+      <c r="JG18" s="13">
         <v>150643</v>
       </c>
+      <c r="JH18" s="35">
+        <v>150848</v>
+      </c>
     </row>
-    <row r="19" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -14234,11 +14267,14 @@
       <c r="JF19" s="13">
         <v>247384</v>
       </c>
-      <c r="JG19" s="35">
+      <c r="JG19" s="13">
         <v>248308</v>
       </c>
+      <c r="JH19" s="35">
+        <v>249917</v>
+      </c>
     </row>
-    <row r="20" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
@@ -15037,11 +15073,14 @@
       <c r="JF20" s="25">
         <v>1874622</v>
       </c>
-      <c r="JG20" s="37">
+      <c r="JG20" s="25">
         <v>1886776</v>
       </c>
+      <c r="JH20" s="40">
+        <v>1884715</v>
+      </c>
     </row>
-    <row r="21" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -15840,11 +15879,14 @@
       <c r="JF21" s="13">
         <v>463919</v>
       </c>
-      <c r="JG21" s="35">
+      <c r="JG21" s="13">
         <v>465197</v>
       </c>
+      <c r="JH21" s="35">
+        <v>462608</v>
+      </c>
     </row>
-    <row r="22" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -16643,11 +16685,14 @@
       <c r="JF22" s="13">
         <v>213831</v>
       </c>
-      <c r="JG22" s="35">
+      <c r="JG22" s="13">
         <v>214140</v>
       </c>
+      <c r="JH22" s="35">
+        <v>214838</v>
+      </c>
     </row>
-    <row r="23" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -17446,11 +17491,14 @@
       <c r="JF23" s="13">
         <v>167280</v>
       </c>
-      <c r="JG23" s="35">
+      <c r="JG23" s="13">
         <v>167333</v>
       </c>
+      <c r="JH23" s="35">
+        <v>168519</v>
+      </c>
     </row>
-    <row r="24" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -18249,11 +18297,14 @@
       <c r="JF24" s="13">
         <v>1733020</v>
       </c>
-      <c r="JG24" s="35">
+      <c r="JG24" s="13">
         <v>1741967</v>
       </c>
+      <c r="JH24" s="35">
+        <v>1735312</v>
+      </c>
     </row>
-    <row r="25" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -19052,11 +19103,14 @@
       <c r="JF25" s="13">
         <v>216717</v>
       </c>
-      <c r="JG25" s="35">
+      <c r="JG25" s="13">
         <v>217256</v>
       </c>
+      <c r="JH25" s="35">
+        <v>217228</v>
+      </c>
     </row>
-    <row r="26" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -19855,11 +19909,14 @@
       <c r="JF26" s="13">
         <v>612514</v>
       </c>
-      <c r="JG26" s="35">
+      <c r="JG26" s="13">
         <v>613712</v>
       </c>
+      <c r="JH26" s="35">
+        <v>616226</v>
+      </c>
     </row>
-    <row r="27" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -20658,11 +20715,14 @@
       <c r="JF27" s="13">
         <v>641638</v>
       </c>
-      <c r="JG27" s="35">
+      <c r="JG27" s="13">
         <v>645716</v>
       </c>
+      <c r="JH27" s="35">
+        <v>646893</v>
+      </c>
     </row>
-    <row r="28" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -21461,11 +21521,14 @@
       <c r="JF28" s="13">
         <v>448714</v>
       </c>
-      <c r="JG28" s="35">
+      <c r="JG28" s="13">
         <v>445823</v>
       </c>
+      <c r="JH28" s="35">
+        <v>453929</v>
+      </c>
     </row>
-    <row r="29" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -22264,11 +22327,14 @@
       <c r="JF29" s="13">
         <v>456461</v>
       </c>
-      <c r="JG29" s="35">
+      <c r="JG29" s="13">
         <v>458029</v>
       </c>
+      <c r="JH29" s="35">
+        <v>458772</v>
+      </c>
     </row>
-    <row r="30" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -23067,11 +23133,14 @@
       <c r="JF30" s="13">
         <v>607676</v>
       </c>
-      <c r="JG30" s="35">
+      <c r="JG30" s="13">
         <v>599919</v>
       </c>
+      <c r="JH30" s="35">
+        <v>593724</v>
+      </c>
     </row>
-    <row r="31" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -23870,11 +23939,14 @@
       <c r="JF31" s="13">
         <v>657200</v>
       </c>
-      <c r="JG31" s="35">
+      <c r="JG31" s="13">
         <v>655721</v>
       </c>
+      <c r="JH31" s="35">
+        <v>653571</v>
+      </c>
     </row>
-    <row r="32" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -24673,11 +24745,14 @@
       <c r="JF32" s="13">
         <v>218065</v>
       </c>
-      <c r="JG32" s="35">
+      <c r="JG32" s="13">
         <v>219759</v>
       </c>
+      <c r="JH32" s="35">
+        <v>220036</v>
+      </c>
     </row>
-    <row r="33" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -25476,11 +25551,14 @@
       <c r="JF33" s="13">
         <v>696124</v>
       </c>
-      <c r="JG33" s="35">
+      <c r="JG33" s="13">
         <v>698895</v>
       </c>
+      <c r="JH33" s="35">
+        <v>696239</v>
+      </c>
     </row>
-    <row r="34" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -26279,11 +26357,14 @@
       <c r="JF34" s="13">
         <v>103766</v>
       </c>
-      <c r="JG34" s="35">
+      <c r="JG34" s="13">
         <v>105153</v>
       </c>
+      <c r="JH34" s="35">
+        <v>105946</v>
+      </c>
     </row>
-    <row r="35" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -27082,11 +27163,14 @@
       <c r="JF35" s="13">
         <v>748856</v>
       </c>
-      <c r="JG35" s="35">
+      <c r="JG35" s="13">
         <v>746305</v>
       </c>
+      <c r="JH35" s="35">
+        <v>746297</v>
+      </c>
     </row>
-    <row r="36" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -27885,11 +27969,14 @@
       <c r="JF36" s="13">
         <v>398497</v>
       </c>
-      <c r="JG36" s="35">
+      <c r="JG36" s="13">
         <v>400048</v>
       </c>
+      <c r="JH36" s="35">
+        <v>401534</v>
+      </c>
     </row>
-    <row r="37" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -28688,11 +28775,14 @@
       <c r="JF37" s="13">
         <v>196230</v>
       </c>
-      <c r="JG37" s="41">
+      <c r="JG37" s="13">
         <v>196703</v>
       </c>
+      <c r="JH37" s="35">
+        <v>196069</v>
+      </c>
     </row>
-    <row r="38" spans="1:267" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
@@ -29492,11 +29582,14 @@
       <c r="JF38" s="10">
         <v>20941286</v>
       </c>
-      <c r="JG38" s="39">
+      <c r="JG38" s="10">
         <v>21005852</v>
       </c>
+      <c r="JH38" s="39">
+        <v>21011342</v>
+      </c>
     </row>
-    <row r="40" spans="1:267" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:268" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -912,11 +912,11 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1263,11 +1263,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH40"/>
+  <dimension ref="A1:JI40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JI5" sqref="JI1:JK1048576"/>
+      <selection pane="topRight" activeCell="JL21" sqref="JL21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1366,22 +1366,22 @@
     <col min="252" max="260" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="261" max="263" width="10.625" style="7" customWidth="1"/>
     <col min="264" max="264" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="265" max="268" width="10.75" style="7" customWidth="1"/>
+    <col min="265" max="269" width="10.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:268" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="3" spans="1:269" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="16">
@@ -2182,12 +2182,15 @@
       <c r="JG4" s="33">
         <v>2022</v>
       </c>
-      <c r="JH4" s="34">
+      <c r="JH4" s="33">
         <v>2022</v>
       </c>
+      <c r="JI4" s="34">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+    <row r="5" spans="1:269" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
       <c r="B5" s="9" t="s">
         <v>36</v>
       </c>
@@ -2986,11 +2989,14 @@
       <c r="JG5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="JH5" s="37" t="s">
+      <c r="JH5" s="30" t="s">
         <v>39</v>
       </c>
+      <c r="JI5" s="37" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3792,11 +3798,14 @@
       <c r="JG6" s="13">
         <v>341250</v>
       </c>
-      <c r="JH6" s="35">
+      <c r="JH6" s="13">
         <v>341747</v>
       </c>
+      <c r="JI6" s="35">
+        <v>340347</v>
+      </c>
     </row>
-    <row r="7" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4598,11 +4607,14 @@
       <c r="JG7" s="13">
         <v>1005600</v>
       </c>
-      <c r="JH7" s="35">
+      <c r="JH7" s="13">
         <v>1005246</v>
       </c>
+      <c r="JI7" s="35">
+        <v>1005499</v>
+      </c>
     </row>
-    <row r="8" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5404,11 +5416,14 @@
       <c r="JG8" s="13">
         <v>197167</v>
       </c>
-      <c r="JH8" s="35">
+      <c r="JH8" s="13">
         <v>200038</v>
       </c>
+      <c r="JI8" s="35">
+        <v>204126</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6210,11 +6225,14 @@
       <c r="JG9" s="13">
         <v>133197</v>
       </c>
-      <c r="JH9" s="35">
+      <c r="JH9" s="13">
         <v>133270</v>
       </c>
+      <c r="JI9" s="35">
+        <v>133768</v>
+      </c>
     </row>
-    <row r="10" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7016,11 +7034,14 @@
       <c r="JG10" s="13">
         <v>236234</v>
       </c>
-      <c r="JH10" s="35">
+      <c r="JH10" s="13">
         <v>237801</v>
       </c>
+      <c r="JI10" s="35">
+        <v>237487</v>
+      </c>
     </row>
-    <row r="11" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7822,11 +7843,14 @@
       <c r="JG11" s="13">
         <v>960620</v>
       </c>
-      <c r="JH11" s="35">
+      <c r="JH11" s="13">
         <v>959575</v>
       </c>
+      <c r="JI11" s="35">
+        <v>958691</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -8628,11 +8652,14 @@
       <c r="JG12" s="13">
         <v>3323522</v>
       </c>
-      <c r="JH12" s="35">
+      <c r="JH12" s="13">
         <v>3326256</v>
       </c>
+      <c r="JI12" s="35">
+        <v>3326061</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -9434,11 +9461,14 @@
       <c r="JG13" s="13">
         <v>814225</v>
       </c>
-      <c r="JH13" s="35">
+      <c r="JH13" s="13">
         <v>814563</v>
       </c>
+      <c r="JI13" s="35">
+        <v>814193</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -10240,11 +10270,14 @@
       <c r="JG14" s="13">
         <v>142032</v>
       </c>
-      <c r="JH14" s="35">
+      <c r="JH14" s="13">
         <v>141981</v>
       </c>
+      <c r="JI14" s="35">
+        <v>140744</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -11046,11 +11079,14 @@
       <c r="JG15" s="13">
         <v>259036</v>
       </c>
-      <c r="JH15" s="35">
+      <c r="JH15" s="13">
         <v>258662</v>
       </c>
+      <c r="JI15" s="35">
+        <v>258276</v>
+      </c>
     </row>
-    <row r="16" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -11852,11 +11888,14 @@
       <c r="JG16" s="13">
         <v>1674576</v>
       </c>
-      <c r="JH16" s="35">
+      <c r="JH16" s="13">
         <v>1679022</v>
       </c>
+      <c r="JI16" s="35">
+        <v>1686619</v>
+      </c>
     </row>
-    <row r="17" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -12658,11 +12697,14 @@
       <c r="JG17" s="13">
         <v>1040990</v>
       </c>
-      <c r="JH17" s="35">
+      <c r="JH17" s="13">
         <v>1039960</v>
       </c>
+      <c r="JI17" s="35">
+        <v>1040189</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -13464,11 +13506,14 @@
       <c r="JG18" s="13">
         <v>150643</v>
       </c>
-      <c r="JH18" s="35">
+      <c r="JH18" s="13">
         <v>150848</v>
       </c>
+      <c r="JI18" s="35">
+        <v>150869</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -14270,11 +14315,14 @@
       <c r="JG19" s="13">
         <v>248308</v>
       </c>
-      <c r="JH19" s="35">
+      <c r="JH19" s="13">
         <v>249917</v>
       </c>
+      <c r="JI19" s="35">
+        <v>250837</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
@@ -15076,11 +15124,14 @@
       <c r="JG20" s="25">
         <v>1886776</v>
       </c>
-      <c r="JH20" s="40">
+      <c r="JH20" s="25">
         <v>1884715</v>
       </c>
+      <c r="JI20" s="39">
+        <v>1888232</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -15882,11 +15933,14 @@
       <c r="JG21" s="13">
         <v>465197</v>
       </c>
-      <c r="JH21" s="35">
+      <c r="JH21" s="13">
         <v>462608</v>
       </c>
+      <c r="JI21" s="35">
+        <v>461382</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -16688,11 +16742,14 @@
       <c r="JG22" s="13">
         <v>214140</v>
       </c>
-      <c r="JH22" s="35">
+      <c r="JH22" s="13">
         <v>214838</v>
       </c>
+      <c r="JI22" s="35">
+        <v>212927</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -17494,11 +17551,14 @@
       <c r="JG23" s="13">
         <v>167333</v>
       </c>
-      <c r="JH23" s="35">
+      <c r="JH23" s="13">
         <v>168519</v>
       </c>
+      <c r="JI23" s="35">
+        <v>168876</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -18300,11 +18360,14 @@
       <c r="JG24" s="13">
         <v>1741967</v>
       </c>
-      <c r="JH24" s="35">
+      <c r="JH24" s="13">
         <v>1735312</v>
       </c>
+      <c r="JI24" s="35">
+        <v>1742353</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -19106,11 +19169,14 @@
       <c r="JG25" s="13">
         <v>217256</v>
       </c>
-      <c r="JH25" s="35">
+      <c r="JH25" s="13">
         <v>217228</v>
       </c>
+      <c r="JI25" s="35">
+        <v>216898</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -19912,11 +19978,14 @@
       <c r="JG26" s="13">
         <v>613712</v>
       </c>
-      <c r="JH26" s="35">
+      <c r="JH26" s="13">
         <v>616226</v>
       </c>
+      <c r="JI26" s="35">
+        <v>616137</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -20718,11 +20787,14 @@
       <c r="JG27" s="13">
         <v>645716</v>
       </c>
-      <c r="JH27" s="35">
+      <c r="JH27" s="13">
         <v>646893</v>
       </c>
+      <c r="JI27" s="35">
+        <v>651828</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -21524,11 +21596,14 @@
       <c r="JG28" s="13">
         <v>445823</v>
       </c>
-      <c r="JH28" s="35">
+      <c r="JH28" s="13">
         <v>453929</v>
       </c>
+      <c r="JI28" s="35">
+        <v>457405</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -22330,11 +22405,14 @@
       <c r="JG29" s="13">
         <v>458029</v>
       </c>
-      <c r="JH29" s="35">
+      <c r="JH29" s="13">
         <v>458772</v>
       </c>
+      <c r="JI29" s="35">
+        <v>458088</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -23136,11 +23214,14 @@
       <c r="JG30" s="13">
         <v>599919</v>
       </c>
-      <c r="JH30" s="35">
+      <c r="JH30" s="13">
         <v>593724</v>
       </c>
+      <c r="JI30" s="35">
+        <v>573993</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -23942,11 +24023,14 @@
       <c r="JG31" s="13">
         <v>655721</v>
       </c>
-      <c r="JH31" s="35">
+      <c r="JH31" s="13">
         <v>653571</v>
       </c>
+      <c r="JI31" s="35">
+        <v>648773</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -24748,11 +24832,14 @@
       <c r="JG32" s="13">
         <v>219759</v>
       </c>
-      <c r="JH32" s="35">
+      <c r="JH32" s="13">
         <v>220036</v>
       </c>
+      <c r="JI32" s="35">
+        <v>224698</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -25554,11 +25641,14 @@
       <c r="JG33" s="13">
         <v>698895</v>
       </c>
-      <c r="JH33" s="35">
+      <c r="JH33" s="13">
         <v>696239</v>
       </c>
+      <c r="JI33" s="35">
+        <v>695874</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -26360,11 +26450,14 @@
       <c r="JG34" s="13">
         <v>105153</v>
       </c>
-      <c r="JH34" s="35">
+      <c r="JH34" s="13">
         <v>105946</v>
       </c>
+      <c r="JI34" s="35">
+        <v>106877</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -27166,11 +27259,14 @@
       <c r="JG35" s="13">
         <v>746305</v>
       </c>
-      <c r="JH35" s="35">
+      <c r="JH35" s="13">
         <v>746297</v>
       </c>
+      <c r="JI35" s="35">
+        <v>738414</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -27972,11 +28068,14 @@
       <c r="JG36" s="13">
         <v>400048</v>
       </c>
-      <c r="JH36" s="35">
+      <c r="JH36" s="13">
         <v>401534</v>
       </c>
+      <c r="JI36" s="35">
+        <v>402221</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -28778,11 +28877,14 @@
       <c r="JG37" s="13">
         <v>196703</v>
       </c>
-      <c r="JH37" s="35">
+      <c r="JH37" s="13">
         <v>196069</v>
       </c>
+      <c r="JI37" s="35">
+        <v>195805</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:269" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
@@ -29585,11 +29687,15 @@
       <c r="JG38" s="10">
         <v>21005852</v>
       </c>
-      <c r="JH38" s="39">
+      <c r="JH38" s="10">
         <v>21011342</v>
       </c>
+      <c r="JI38" s="38">
+        <f>SUM(JI6:JI37)</f>
+        <v>21008487</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1263,11 +1263,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ40"/>
+  <dimension ref="A1:JK40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS39" sqref="AS39"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JN6" sqref="JN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1368,21 +1368,21 @@
     <col min="253" max="261" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="262" max="264" width="10.625" style="7" customWidth="1"/>
     <col min="265" max="265" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="266" max="270" width="10.75" style="7" customWidth="1"/>
+    <col min="266" max="271" width="10.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:270" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:271" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>35</v>
       </c>
@@ -2190,11 +2190,14 @@
       <c r="JI4" s="33">
         <v>2022</v>
       </c>
-      <c r="JJ4" s="34">
+      <c r="JJ4" s="33">
         <v>2022</v>
       </c>
+      <c r="JK4" s="34">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="9" t="s">
         <v>36</v>
@@ -3000,11 +3003,14 @@
       <c r="JI5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="JJ5" s="37" t="s">
+      <c r="JJ5" s="30" t="s">
         <v>40</v>
       </c>
+      <c r="JK5" s="37" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3812,11 +3818,14 @@
       <c r="JI6" s="13">
         <v>341747</v>
       </c>
-      <c r="JJ6" s="35">
+      <c r="JJ6" s="13">
         <v>340347</v>
       </c>
+      <c r="JK6" s="35">
+        <v>341163</v>
+      </c>
     </row>
-    <row r="7" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4624,11 +4633,14 @@
       <c r="JI7" s="13">
         <v>1005246</v>
       </c>
-      <c r="JJ7" s="35">
+      <c r="JJ7" s="13">
         <v>1005499</v>
       </c>
+      <c r="JK7" s="35">
+        <v>1013585</v>
+      </c>
     </row>
-    <row r="8" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5436,11 +5448,14 @@
       <c r="JI8" s="13">
         <v>200038</v>
       </c>
-      <c r="JJ8" s="35">
+      <c r="JJ8" s="13">
         <v>204126</v>
       </c>
+      <c r="JK8" s="35">
+        <v>207020</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6248,11 +6263,14 @@
       <c r="JI9" s="13">
         <v>133270</v>
       </c>
-      <c r="JJ9" s="35">
+      <c r="JJ9" s="13">
         <v>133768</v>
       </c>
+      <c r="JK9" s="35">
+        <v>133445</v>
+      </c>
     </row>
-    <row r="10" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7060,11 +7078,14 @@
       <c r="JI10" s="13">
         <v>237801</v>
       </c>
-      <c r="JJ10" s="35">
+      <c r="JJ10" s="13">
         <v>237487</v>
       </c>
+      <c r="JK10" s="35">
+        <v>237565</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7872,11 +7893,14 @@
       <c r="JI11" s="13">
         <v>959575</v>
       </c>
-      <c r="JJ11" s="35">
+      <c r="JJ11" s="13">
         <v>958691</v>
       </c>
+      <c r="JK11" s="35">
+        <v>960072</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -8684,11 +8708,14 @@
       <c r="JI12" s="13">
         <v>3326256</v>
       </c>
-      <c r="JJ12" s="35">
+      <c r="JJ12" s="13">
         <v>3326061</v>
       </c>
+      <c r="JK12" s="35">
+        <v>3337399</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -9496,11 +9523,14 @@
       <c r="JI13" s="13">
         <v>814563</v>
       </c>
-      <c r="JJ13" s="35">
+      <c r="JJ13" s="13">
         <v>814193</v>
       </c>
+      <c r="JK13" s="35">
+        <v>814670</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -10308,11 +10338,14 @@
       <c r="JI14" s="13">
         <v>141981</v>
       </c>
-      <c r="JJ14" s="35">
+      <c r="JJ14" s="13">
         <v>140744</v>
       </c>
+      <c r="JK14" s="35">
+        <v>141806</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -11120,11 +11153,14 @@
       <c r="JI15" s="13">
         <v>258662</v>
       </c>
-      <c r="JJ15" s="35">
+      <c r="JJ15" s="13">
         <v>258276</v>
       </c>
+      <c r="JK15" s="35">
+        <v>257638</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -11932,11 +11968,14 @@
       <c r="JI16" s="13">
         <v>1679022</v>
       </c>
-      <c r="JJ16" s="35">
+      <c r="JJ16" s="13">
         <v>1686619</v>
       </c>
+      <c r="JK16" s="35">
+        <v>1693231</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -12744,11 +12783,14 @@
       <c r="JI17" s="13">
         <v>1039960</v>
       </c>
-      <c r="JJ17" s="35">
+      <c r="JJ17" s="13">
         <v>1040189</v>
       </c>
+      <c r="JK17" s="35">
+        <v>1044298</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -13556,11 +13598,14 @@
       <c r="JI18" s="13">
         <v>150848</v>
       </c>
-      <c r="JJ18" s="35">
+      <c r="JJ18" s="13">
         <v>150869</v>
       </c>
+      <c r="JK18" s="35">
+        <v>151181</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -14368,11 +14413,14 @@
       <c r="JI19" s="13">
         <v>249917</v>
       </c>
-      <c r="JJ19" s="35">
+      <c r="JJ19" s="13">
         <v>250837</v>
       </c>
+      <c r="JK19" s="35">
+        <v>253120</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
@@ -15180,11 +15228,14 @@
       <c r="JI20" s="25">
         <v>1884715</v>
       </c>
-      <c r="JJ20" s="39">
+      <c r="JJ20" s="25">
         <v>1888232</v>
       </c>
+      <c r="JK20" s="39">
+        <v>1896755</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -15992,11 +16043,14 @@
       <c r="JI21" s="13">
         <v>462608</v>
       </c>
-      <c r="JJ21" s="35">
+      <c r="JJ21" s="13">
         <v>461382</v>
       </c>
+      <c r="JK21" s="35">
+        <v>460625</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -16804,11 +16858,14 @@
       <c r="JI22" s="13">
         <v>214838</v>
       </c>
-      <c r="JJ22" s="35">
+      <c r="JJ22" s="13">
         <v>212927</v>
       </c>
+      <c r="JK22" s="35">
+        <v>213611</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -17616,11 +17673,14 @@
       <c r="JI23" s="13">
         <v>168519</v>
       </c>
-      <c r="JJ23" s="35">
+      <c r="JJ23" s="13">
         <v>168876</v>
       </c>
+      <c r="JK23" s="35">
+        <v>168878</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -18428,11 +18488,14 @@
       <c r="JI24" s="13">
         <v>1735312</v>
       </c>
-      <c r="JJ24" s="35">
+      <c r="JJ24" s="13">
         <v>1742353</v>
       </c>
+      <c r="JK24" s="35">
+        <v>1752922</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -19240,11 +19303,14 @@
       <c r="JI25" s="13">
         <v>217228</v>
       </c>
-      <c r="JJ25" s="35">
+      <c r="JJ25" s="13">
         <v>216898</v>
       </c>
+      <c r="JK25" s="35">
+        <v>217994</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -20052,11 +20118,14 @@
       <c r="JI26" s="13">
         <v>616226</v>
       </c>
-      <c r="JJ26" s="35">
+      <c r="JJ26" s="13">
         <v>616137</v>
       </c>
+      <c r="JK26" s="35">
+        <v>619282</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -20864,11 +20933,14 @@
       <c r="JI27" s="13">
         <v>646893</v>
       </c>
-      <c r="JJ27" s="35">
+      <c r="JJ27" s="13">
         <v>651828</v>
       </c>
+      <c r="JK27" s="35">
+        <v>655295</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -21676,11 +21748,14 @@
       <c r="JI28" s="13">
         <v>453929</v>
       </c>
-      <c r="JJ28" s="35">
+      <c r="JJ28" s="13">
         <v>457405</v>
       </c>
+      <c r="JK28" s="35">
+        <v>462635</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -22488,11 +22563,14 @@
       <c r="JI29" s="13">
         <v>458772</v>
       </c>
-      <c r="JJ29" s="35">
+      <c r="JJ29" s="13">
         <v>458088</v>
       </c>
+      <c r="JK29" s="35">
+        <v>457458</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -23300,11 +23378,14 @@
       <c r="JI30" s="13">
         <v>593724</v>
       </c>
-      <c r="JJ30" s="35">
+      <c r="JJ30" s="13">
         <v>573993</v>
       </c>
+      <c r="JK30" s="35">
+        <v>566170</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -24112,11 +24193,14 @@
       <c r="JI31" s="13">
         <v>653571</v>
       </c>
-      <c r="JJ31" s="35">
+      <c r="JJ31" s="13">
         <v>648773</v>
       </c>
+      <c r="JK31" s="35">
+        <v>648310</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -24924,11 +25008,14 @@
       <c r="JI32" s="13">
         <v>220036</v>
       </c>
-      <c r="JJ32" s="35">
+      <c r="JJ32" s="13">
         <v>224698</v>
       </c>
+      <c r="JK32" s="35">
+        <v>225937</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -25736,11 +25823,14 @@
       <c r="JI33" s="13">
         <v>696239</v>
       </c>
-      <c r="JJ33" s="35">
+      <c r="JJ33" s="13">
         <v>695874</v>
       </c>
+      <c r="JK33" s="35">
+        <v>695848</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -26548,11 +26638,14 @@
       <c r="JI34" s="13">
         <v>105946</v>
       </c>
-      <c r="JJ34" s="35">
+      <c r="JJ34" s="13">
         <v>106877</v>
       </c>
+      <c r="JK34" s="35">
+        <v>108344</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -27360,11 +27453,14 @@
       <c r="JI35" s="13">
         <v>746297</v>
       </c>
-      <c r="JJ35" s="35">
+      <c r="JJ35" s="13">
         <v>738414</v>
       </c>
+      <c r="JK35" s="35">
+        <v>732739</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -28172,11 +28268,14 @@
       <c r="JI36" s="13">
         <v>401534</v>
       </c>
-      <c r="JJ36" s="35">
+      <c r="JJ36" s="13">
         <v>402221</v>
       </c>
+      <c r="JK36" s="35">
+        <v>404191</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -28984,11 +29083,14 @@
       <c r="JI37" s="13">
         <v>196069</v>
       </c>
-      <c r="JJ37" s="35">
+      <c r="JJ37" s="13">
         <v>195805</v>
       </c>
+      <c r="JK37" s="35">
+        <v>195521</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
@@ -29797,12 +29899,15 @@
       <c r="JI38" s="10">
         <v>21011342</v>
       </c>
-      <c r="JJ38" s="38">
-        <f>SUM(JJ6:JJ37)</f>
+      <c r="JJ38" s="10">
         <v>21008487</v>
       </c>
+      <c r="JK38" s="38">
+        <f>SUM(JK6:JK37)</f>
+        <v>21068708</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:271" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1263,11 +1263,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JK40"/>
+  <dimension ref="A1:JL40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JN6" sqref="JN6"/>
+      <selection pane="topRight" activeCell="JL20" sqref="JL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1368,21 +1368,21 @@
     <col min="253" max="261" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="262" max="264" width="10.625" style="7" customWidth="1"/>
     <col min="265" max="265" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="266" max="271" width="10.75" style="7" customWidth="1"/>
+    <col min="266" max="272" width="10.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:271" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>35</v>
       </c>
@@ -2193,11 +2193,14 @@
       <c r="JJ4" s="33">
         <v>2022</v>
       </c>
-      <c r="JK4" s="34">
+      <c r="JK4" s="33">
         <v>2022</v>
       </c>
+      <c r="JL4" s="34">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="9" t="s">
         <v>36</v>
@@ -3006,11 +3009,14 @@
       <c r="JJ5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="JK5" s="37" t="s">
+      <c r="JK5" s="30" t="s">
         <v>41</v>
       </c>
+      <c r="JL5" s="37" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3821,11 +3827,14 @@
       <c r="JJ6" s="13">
         <v>340347</v>
       </c>
-      <c r="JK6" s="35">
+      <c r="JK6" s="13">
         <v>341163</v>
       </c>
+      <c r="JL6" s="35">
+        <v>340196</v>
+      </c>
     </row>
-    <row r="7" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4636,11 +4645,14 @@
       <c r="JJ7" s="13">
         <v>1005499</v>
       </c>
-      <c r="JK7" s="35">
+      <c r="JK7" s="13">
         <v>1013585</v>
       </c>
+      <c r="JL7" s="35">
+        <v>1014119</v>
+      </c>
     </row>
-    <row r="8" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5451,11 +5463,14 @@
       <c r="JJ8" s="13">
         <v>204126</v>
       </c>
-      <c r="JK8" s="35">
+      <c r="JK8" s="13">
         <v>207020</v>
       </c>
+      <c r="JL8" s="35">
+        <v>205437</v>
+      </c>
     </row>
-    <row r="9" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6266,11 +6281,14 @@
       <c r="JJ9" s="13">
         <v>133768</v>
       </c>
-      <c r="JK9" s="35">
+      <c r="JK9" s="13">
         <v>133445</v>
       </c>
+      <c r="JL9" s="35">
+        <v>133997</v>
+      </c>
     </row>
-    <row r="10" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7081,11 +7099,14 @@
       <c r="JJ10" s="13">
         <v>237487</v>
       </c>
-      <c r="JK10" s="35">
+      <c r="JK10" s="13">
         <v>237565</v>
       </c>
+      <c r="JL10" s="35">
+        <v>235689</v>
+      </c>
     </row>
-    <row r="11" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7896,11 +7917,14 @@
       <c r="JJ11" s="13">
         <v>958691</v>
       </c>
-      <c r="JK11" s="35">
+      <c r="JK11" s="13">
         <v>960072</v>
       </c>
+      <c r="JL11" s="35">
+        <v>959639</v>
+      </c>
     </row>
-    <row r="12" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -8711,11 +8735,14 @@
       <c r="JJ12" s="13">
         <v>3326061</v>
       </c>
-      <c r="JK12" s="35">
+      <c r="JK12" s="13">
         <v>3337399</v>
       </c>
+      <c r="JL12" s="35">
+        <v>3347891</v>
+      </c>
     </row>
-    <row r="13" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -9526,11 +9553,14 @@
       <c r="JJ13" s="13">
         <v>814193</v>
       </c>
-      <c r="JK13" s="35">
+      <c r="JK13" s="13">
         <v>814670</v>
       </c>
+      <c r="JL13" s="35">
+        <v>817905</v>
+      </c>
     </row>
-    <row r="14" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -10341,11 +10371,14 @@
       <c r="JJ14" s="13">
         <v>140744</v>
       </c>
-      <c r="JK14" s="35">
+      <c r="JK14" s="13">
         <v>141806</v>
       </c>
+      <c r="JL14" s="35">
+        <v>141930</v>
+      </c>
     </row>
-    <row r="15" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -11156,11 +11189,14 @@
       <c r="JJ15" s="13">
         <v>258276</v>
       </c>
-      <c r="JK15" s="35">
+      <c r="JK15" s="13">
         <v>257638</v>
       </c>
+      <c r="JL15" s="35">
+        <v>256989</v>
+      </c>
     </row>
-    <row r="16" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -11971,11 +12007,14 @@
       <c r="JJ16" s="13">
         <v>1686619</v>
       </c>
-      <c r="JK16" s="35">
+      <c r="JK16" s="13">
         <v>1693231</v>
       </c>
+      <c r="JL16" s="35">
+        <v>1701100</v>
+      </c>
     </row>
-    <row r="17" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -12786,11 +12825,14 @@
       <c r="JJ17" s="13">
         <v>1040189</v>
       </c>
-      <c r="JK17" s="35">
+      <c r="JK17" s="13">
         <v>1044298</v>
       </c>
+      <c r="JL17" s="35">
+        <v>1045386</v>
+      </c>
     </row>
-    <row r="18" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -13601,11 +13643,14 @@
       <c r="JJ18" s="13">
         <v>150869</v>
       </c>
-      <c r="JK18" s="35">
+      <c r="JK18" s="13">
         <v>151181</v>
       </c>
+      <c r="JL18" s="35">
+        <v>152967</v>
+      </c>
     </row>
-    <row r="19" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -14416,11 +14461,14 @@
       <c r="JJ19" s="13">
         <v>250837</v>
       </c>
-      <c r="JK19" s="35">
+      <c r="JK19" s="13">
         <v>253120</v>
       </c>
+      <c r="JL19" s="35">
+        <v>254315</v>
+      </c>
     </row>
-    <row r="20" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
@@ -15231,11 +15279,14 @@
       <c r="JJ20" s="25">
         <v>1888232</v>
       </c>
-      <c r="JK20" s="39">
+      <c r="JK20" s="25">
         <v>1896755</v>
       </c>
+      <c r="JL20" s="39">
+        <v>1896517</v>
+      </c>
     </row>
-    <row r="21" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -16046,11 +16097,14 @@
       <c r="JJ21" s="13">
         <v>461382</v>
       </c>
-      <c r="JK21" s="35">
+      <c r="JK21" s="13">
         <v>460625</v>
       </c>
+      <c r="JL21" s="35">
+        <v>459351</v>
+      </c>
     </row>
-    <row r="22" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -16861,11 +16915,14 @@
       <c r="JJ22" s="13">
         <v>212927</v>
       </c>
-      <c r="JK22" s="35">
+      <c r="JK22" s="13">
         <v>213611</v>
       </c>
+      <c r="JL22" s="35">
+        <v>213012</v>
+      </c>
     </row>
-    <row r="23" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -17676,11 +17733,14 @@
       <c r="JJ23" s="13">
         <v>168876</v>
       </c>
-      <c r="JK23" s="35">
+      <c r="JK23" s="13">
         <v>168878</v>
       </c>
+      <c r="JL23" s="35">
+        <v>168161</v>
+      </c>
     </row>
-    <row r="24" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -18491,11 +18551,14 @@
       <c r="JJ24" s="13">
         <v>1742353</v>
       </c>
-      <c r="JK24" s="35">
+      <c r="JK24" s="13">
         <v>1752922</v>
       </c>
+      <c r="JL24" s="35">
+        <v>1753857</v>
+      </c>
     </row>
-    <row r="25" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -19306,11 +19369,14 @@
       <c r="JJ25" s="13">
         <v>216898</v>
       </c>
-      <c r="JK25" s="35">
+      <c r="JK25" s="13">
         <v>217994</v>
       </c>
+      <c r="JL25" s="35">
+        <v>217426</v>
+      </c>
     </row>
-    <row r="26" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -20121,11 +20187,14 @@
       <c r="JJ26" s="13">
         <v>616137</v>
       </c>
-      <c r="JK26" s="35">
+      <c r="JK26" s="13">
         <v>619282</v>
       </c>
+      <c r="JL26" s="35">
+        <v>621244</v>
+      </c>
     </row>
-    <row r="27" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -20936,11 +21005,14 @@
       <c r="JJ27" s="13">
         <v>651828</v>
       </c>
-      <c r="JK27" s="35">
+      <c r="JK27" s="13">
         <v>655295</v>
       </c>
+      <c r="JL27" s="35">
+        <v>655196</v>
+      </c>
     </row>
-    <row r="28" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -21751,11 +21823,14 @@
       <c r="JJ28" s="13">
         <v>457405</v>
       </c>
-      <c r="JK28" s="35">
+      <c r="JK28" s="13">
         <v>462635</v>
       </c>
+      <c r="JL28" s="35">
+        <v>463704</v>
+      </c>
     </row>
-    <row r="29" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -22566,11 +22641,14 @@
       <c r="JJ29" s="13">
         <v>458088</v>
       </c>
-      <c r="JK29" s="35">
+      <c r="JK29" s="13">
         <v>457458</v>
       </c>
+      <c r="JL29" s="35">
+        <v>457802</v>
+      </c>
     </row>
-    <row r="30" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -23381,11 +23459,14 @@
       <c r="JJ30" s="13">
         <v>573993</v>
       </c>
-      <c r="JK30" s="35">
+      <c r="JK30" s="13">
         <v>566170</v>
       </c>
+      <c r="JL30" s="35">
+        <v>563344</v>
+      </c>
     </row>
-    <row r="31" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -24196,11 +24277,14 @@
       <c r="JJ31" s="13">
         <v>648773</v>
       </c>
-      <c r="JK31" s="35">
+      <c r="JK31" s="13">
         <v>648310</v>
       </c>
+      <c r="JL31" s="35">
+        <v>643953</v>
+      </c>
     </row>
-    <row r="32" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -25011,11 +25095,14 @@
       <c r="JJ32" s="13">
         <v>224698</v>
       </c>
-      <c r="JK32" s="35">
+      <c r="JK32" s="13">
         <v>225937</v>
       </c>
+      <c r="JL32" s="35">
+        <v>226845</v>
+      </c>
     </row>
-    <row r="33" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -25826,11 +25913,14 @@
       <c r="JJ33" s="13">
         <v>695874</v>
       </c>
-      <c r="JK33" s="35">
+      <c r="JK33" s="13">
         <v>695848</v>
       </c>
+      <c r="JL33" s="35">
+        <v>694124</v>
+      </c>
     </row>
-    <row r="34" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -26641,11 +26731,14 @@
       <c r="JJ34" s="13">
         <v>106877</v>
       </c>
-      <c r="JK34" s="35">
+      <c r="JK34" s="13">
         <v>108344</v>
       </c>
+      <c r="JL34" s="35">
+        <v>109130</v>
+      </c>
     </row>
-    <row r="35" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -27456,11 +27549,14 @@
       <c r="JJ35" s="13">
         <v>738414</v>
       </c>
-      <c r="JK35" s="35">
+      <c r="JK35" s="13">
         <v>732739</v>
       </c>
+      <c r="JL35" s="35">
+        <v>732518</v>
+      </c>
     </row>
-    <row r="36" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -28271,11 +28367,14 @@
       <c r="JJ36" s="13">
         <v>402221</v>
       </c>
-      <c r="JK36" s="35">
+      <c r="JK36" s="13">
         <v>404191</v>
       </c>
+      <c r="JL36" s="35">
+        <v>401249</v>
+      </c>
     </row>
-    <row r="37" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -29086,11 +29185,14 @@
       <c r="JJ37" s="13">
         <v>195805</v>
       </c>
-      <c r="JK37" s="35">
+      <c r="JK37" s="13">
         <v>195521</v>
       </c>
+      <c r="JL37" s="35">
+        <v>194441</v>
+      </c>
     </row>
-    <row r="38" spans="1:271" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
@@ -29902,12 +30004,14 @@
       <c r="JJ38" s="10">
         <v>21008487</v>
       </c>
-      <c r="JK38" s="38">
-        <f>SUM(JK6:JK37)</f>
+      <c r="JK38" s="10">
         <v>21068708</v>
       </c>
+      <c r="JL38" s="38">
+        <v>21079434</v>
+      </c>
     </row>
-    <row r="40" spans="1:271" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -555,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -791,6 +791,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -837,7 +848,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -906,16 +917,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1263,11 +1271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JL40"/>
+  <dimension ref="A1:JM40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JL20" sqref="JL20"/>
+      <selection pane="topRight" activeCell="JO18" sqref="JO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1368,22 +1376,22 @@
     <col min="253" max="261" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="262" max="264" width="10.625" style="7" customWidth="1"/>
     <col min="265" max="265" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="266" max="272" width="10.75" style="7" customWidth="1"/>
+    <col min="266" max="273" width="10.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:272" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="3" spans="1:273" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="16">
@@ -2196,12 +2204,15 @@
       <c r="JK4" s="33">
         <v>2022</v>
       </c>
-      <c r="JL4" s="34">
+      <c r="JL4" s="33">
         <v>2022</v>
       </c>
+      <c r="JM4" s="34">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:272" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+    <row r="5" spans="1:273" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
       <c r="B5" s="9" t="s">
         <v>36</v>
       </c>
@@ -2994,29 +3005,32 @@
       <c r="JE5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="JF5" s="36" t="s">
+      <c r="JF5" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="JG5" s="30" t="s">
+      <c r="JG5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="JH5" s="30" t="s">
+      <c r="JH5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="JI5" s="30" t="s">
+      <c r="JI5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="JJ5" s="30" t="s">
+      <c r="JJ5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="JK5" s="30" t="s">
+      <c r="JK5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="JL5" s="37" t="s">
+      <c r="JL5" s="19" t="s">
         <v>42</v>
       </c>
+      <c r="JM5" s="39" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3818,23 +3832,26 @@
       <c r="JG6" s="3">
         <v>340944</v>
       </c>
-      <c r="JH6" s="13">
+      <c r="JH6" s="3">
         <v>341250</v>
       </c>
-      <c r="JI6" s="13">
+      <c r="JI6" s="3">
         <v>341747</v>
       </c>
-      <c r="JJ6" s="13">
+      <c r="JJ6" s="3">
         <v>340347</v>
       </c>
-      <c r="JK6" s="13">
+      <c r="JK6" s="3">
         <v>341163</v>
       </c>
-      <c r="JL6" s="35">
+      <c r="JL6" s="3">
         <v>340196</v>
       </c>
+      <c r="JM6" s="35">
+        <v>341234</v>
+      </c>
     </row>
-    <row r="7" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4648,11 +4665,14 @@
       <c r="JK7" s="13">
         <v>1013585</v>
       </c>
-      <c r="JL7" s="35">
+      <c r="JL7" s="13">
         <v>1014119</v>
       </c>
+      <c r="JM7" s="35">
+        <v>1019943</v>
+      </c>
     </row>
-    <row r="8" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5466,11 +5486,14 @@
       <c r="JK8" s="13">
         <v>207020</v>
       </c>
-      <c r="JL8" s="35">
+      <c r="JL8" s="13">
         <v>205437</v>
       </c>
+      <c r="JM8" s="35">
+        <v>209081</v>
+      </c>
     </row>
-    <row r="9" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6284,11 +6307,14 @@
       <c r="JK9" s="13">
         <v>133445</v>
       </c>
-      <c r="JL9" s="35">
+      <c r="JL9" s="13">
         <v>133997</v>
       </c>
+      <c r="JM9" s="35">
+        <v>134517</v>
+      </c>
     </row>
-    <row r="10" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7102,11 +7128,14 @@
       <c r="JK10" s="13">
         <v>237565</v>
       </c>
-      <c r="JL10" s="35">
+      <c r="JL10" s="13">
         <v>235689</v>
       </c>
+      <c r="JM10" s="35">
+        <v>237944</v>
+      </c>
     </row>
-    <row r="11" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7920,11 +7949,14 @@
       <c r="JK11" s="13">
         <v>960072</v>
       </c>
-      <c r="JL11" s="35">
+      <c r="JL11" s="13">
         <v>959639</v>
       </c>
+      <c r="JM11" s="35">
+        <v>968430</v>
+      </c>
     </row>
-    <row r="12" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -8738,11 +8770,14 @@
       <c r="JK12" s="13">
         <v>3337399</v>
       </c>
-      <c r="JL12" s="35">
+      <c r="JL12" s="13">
         <v>3347891</v>
       </c>
+      <c r="JM12" s="35">
+        <v>3367457</v>
+      </c>
     </row>
-    <row r="13" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -9556,11 +9591,14 @@
       <c r="JK13" s="13">
         <v>814670</v>
       </c>
-      <c r="JL13" s="35">
+      <c r="JL13" s="13">
         <v>817905</v>
       </c>
+      <c r="JM13" s="35">
+        <v>827376</v>
+      </c>
     </row>
-    <row r="14" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -10374,11 +10412,14 @@
       <c r="JK14" s="13">
         <v>141806</v>
       </c>
-      <c r="JL14" s="35">
+      <c r="JL14" s="13">
         <v>141930</v>
       </c>
+      <c r="JM14" s="35">
+        <v>143622</v>
+      </c>
     </row>
-    <row r="15" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -11192,11 +11233,14 @@
       <c r="JK15" s="13">
         <v>257638</v>
       </c>
-      <c r="JL15" s="35">
+      <c r="JL15" s="13">
         <v>256989</v>
       </c>
+      <c r="JM15" s="35">
+        <v>257495</v>
+      </c>
     </row>
-    <row r="16" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -12010,11 +12054,14 @@
       <c r="JK16" s="13">
         <v>1693231</v>
       </c>
-      <c r="JL16" s="35">
+      <c r="JL16" s="13">
         <v>1701100</v>
       </c>
+      <c r="JM16" s="35">
+        <v>1711288</v>
+      </c>
     </row>
-    <row r="17" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -12828,11 +12875,14 @@
       <c r="JK17" s="13">
         <v>1044298</v>
       </c>
-      <c r="JL17" s="35">
+      <c r="JL17" s="13">
         <v>1045386</v>
       </c>
+      <c r="JM17" s="35">
+        <v>1048237</v>
+      </c>
     </row>
-    <row r="18" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -13646,11 +13696,14 @@
       <c r="JK18" s="13">
         <v>151181</v>
       </c>
-      <c r="JL18" s="35">
+      <c r="JL18" s="13">
         <v>152967</v>
       </c>
+      <c r="JM18" s="35">
+        <v>152213</v>
+      </c>
     </row>
-    <row r="19" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -14464,11 +14517,14 @@
       <c r="JK19" s="13">
         <v>253120</v>
       </c>
-      <c r="JL19" s="35">
+      <c r="JL19" s="13">
         <v>254315</v>
       </c>
+      <c r="JM19" s="35">
+        <v>257088</v>
+      </c>
     </row>
-    <row r="20" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
@@ -15282,11 +15338,14 @@
       <c r="JK20" s="25">
         <v>1896755</v>
       </c>
-      <c r="JL20" s="39">
+      <c r="JL20" s="25">
         <v>1896517</v>
       </c>
+      <c r="JM20" s="37">
+        <v>1910627</v>
+      </c>
     </row>
-    <row r="21" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -16100,11 +16159,14 @@
       <c r="JK21" s="13">
         <v>460625</v>
       </c>
-      <c r="JL21" s="35">
+      <c r="JL21" s="13">
         <v>459351</v>
       </c>
+      <c r="JM21" s="35">
+        <v>465298</v>
+      </c>
     </row>
-    <row r="22" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -16918,11 +16980,14 @@
       <c r="JK22" s="13">
         <v>213611</v>
       </c>
-      <c r="JL22" s="35">
+      <c r="JL22" s="13">
         <v>213012</v>
       </c>
+      <c r="JM22" s="35">
+        <v>212013</v>
+      </c>
     </row>
-    <row r="23" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -17736,11 +17801,14 @@
       <c r="JK23" s="13">
         <v>168878</v>
       </c>
-      <c r="JL23" s="35">
+      <c r="JL23" s="13">
         <v>168161</v>
       </c>
+      <c r="JM23" s="35">
+        <v>168864</v>
+      </c>
     </row>
-    <row r="24" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -18554,11 +18622,14 @@
       <c r="JK24" s="13">
         <v>1752922</v>
       </c>
-      <c r="JL24" s="35">
+      <c r="JL24" s="13">
         <v>1753857</v>
       </c>
+      <c r="JM24" s="35">
+        <v>1772210</v>
+      </c>
     </row>
-    <row r="25" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -19372,11 +19443,14 @@
       <c r="JK25" s="13">
         <v>217994</v>
       </c>
-      <c r="JL25" s="35">
+      <c r="JL25" s="13">
         <v>217426</v>
       </c>
+      <c r="JM25" s="35">
+        <v>218523</v>
+      </c>
     </row>
-    <row r="26" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -20190,11 +20264,14 @@
       <c r="JK26" s="13">
         <v>619282</v>
       </c>
-      <c r="JL26" s="35">
+      <c r="JL26" s="13">
         <v>621244</v>
       </c>
+      <c r="JM26" s="35">
+        <v>625520</v>
+      </c>
     </row>
-    <row r="27" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -21008,11 +21085,14 @@
       <c r="JK27" s="13">
         <v>655295</v>
       </c>
-      <c r="JL27" s="35">
+      <c r="JL27" s="13">
         <v>655196</v>
       </c>
+      <c r="JM27" s="35">
+        <v>661205</v>
+      </c>
     </row>
-    <row r="28" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -21826,11 +21906,14 @@
       <c r="JK28" s="13">
         <v>462635</v>
       </c>
-      <c r="JL28" s="35">
+      <c r="JL28" s="13">
         <v>463704</v>
       </c>
+      <c r="JM28" s="35">
+        <v>469458</v>
+      </c>
     </row>
-    <row r="29" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -22644,11 +22727,14 @@
       <c r="JK29" s="13">
         <v>457458</v>
       </c>
-      <c r="JL29" s="35">
+      <c r="JL29" s="13">
         <v>457802</v>
       </c>
+      <c r="JM29" s="35">
+        <v>460713</v>
+      </c>
     </row>
-    <row r="30" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -23462,11 +23548,14 @@
       <c r="JK30" s="13">
         <v>566170</v>
       </c>
-      <c r="JL30" s="35">
+      <c r="JL30" s="13">
         <v>563344</v>
       </c>
+      <c r="JM30" s="35">
+        <v>567002</v>
+      </c>
     </row>
-    <row r="31" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -24280,11 +24369,14 @@
       <c r="JK31" s="13">
         <v>648310</v>
       </c>
-      <c r="JL31" s="35">
+      <c r="JL31" s="13">
         <v>643953</v>
       </c>
+      <c r="JM31" s="35">
+        <v>649044</v>
+      </c>
     </row>
-    <row r="32" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -25098,11 +25190,14 @@
       <c r="JK32" s="13">
         <v>225937</v>
       </c>
-      <c r="JL32" s="35">
+      <c r="JL32" s="13">
         <v>226845</v>
       </c>
+      <c r="JM32" s="35">
+        <v>228940</v>
+      </c>
     </row>
-    <row r="33" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -25916,11 +26011,14 @@
       <c r="JK33" s="13">
         <v>695848</v>
       </c>
-      <c r="JL33" s="35">
+      <c r="JL33" s="13">
         <v>694124</v>
       </c>
+      <c r="JM33" s="35">
+        <v>701468</v>
+      </c>
     </row>
-    <row r="34" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -26734,11 +26832,14 @@
       <c r="JK34" s="13">
         <v>108344</v>
       </c>
-      <c r="JL34" s="35">
+      <c r="JL34" s="13">
         <v>109130</v>
       </c>
+      <c r="JM34" s="35">
+        <v>110420</v>
+      </c>
     </row>
-    <row r="35" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -27552,11 +27653,14 @@
       <c r="JK35" s="13">
         <v>732739</v>
       </c>
-      <c r="JL35" s="35">
+      <c r="JL35" s="13">
         <v>732518</v>
       </c>
+      <c r="JM35" s="35">
+        <v>738970</v>
+      </c>
     </row>
-    <row r="36" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -28370,11 +28474,14 @@
       <c r="JK36" s="13">
         <v>404191</v>
       </c>
-      <c r="JL36" s="35">
+      <c r="JL36" s="13">
         <v>401249</v>
       </c>
+      <c r="JM36" s="35">
+        <v>405906</v>
+      </c>
     </row>
-    <row r="37" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -29188,11 +29295,14 @@
       <c r="JK37" s="13">
         <v>195521</v>
       </c>
-      <c r="JL37" s="35">
+      <c r="JL37" s="13">
         <v>194441</v>
       </c>
+      <c r="JM37" s="35">
+        <v>194760</v>
+      </c>
     </row>
-    <row r="38" spans="1:272" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
@@ -30007,11 +30117,14 @@
       <c r="JK38" s="10">
         <v>21068708</v>
       </c>
-      <c r="JL38" s="38">
+      <c r="JL38" s="10">
         <v>21079434</v>
       </c>
+      <c r="JM38" s="36">
+        <v>21236866</v>
+      </c>
     </row>
-    <row r="40" spans="1:272" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:273" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -919,11 +919,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1271,11 +1271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JM40"/>
+  <dimension ref="A1:JN40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JO18" sqref="JO18"/>
+      <selection pane="topRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1376,22 +1376,22 @@
     <col min="253" max="261" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="262" max="264" width="10.625" style="7" customWidth="1"/>
     <col min="265" max="265" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="266" max="273" width="10.75" style="7" customWidth="1"/>
+    <col min="266" max="274" width="10.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:273" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:274" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:273" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:274" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:273" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:273" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="3" spans="1:274" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:274" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="16">
@@ -2207,12 +2207,15 @@
       <c r="JL4" s="33">
         <v>2022</v>
       </c>
-      <c r="JM4" s="34">
+      <c r="JM4" s="33">
         <v>2022</v>
       </c>
+      <c r="JN4" s="34">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:273" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+    <row r="5" spans="1:274" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>36</v>
       </c>
@@ -3026,11 +3029,14 @@
       <c r="JL5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="JM5" s="39" t="s">
+      <c r="JM5" s="30" t="s">
         <v>43</v>
       </c>
+      <c r="JN5" s="38" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3847,11 +3853,14 @@
       <c r="JL6" s="3">
         <v>340196</v>
       </c>
-      <c r="JM6" s="35">
+      <c r="JM6" s="13">
         <v>341234</v>
       </c>
+      <c r="JN6" s="35">
+        <v>344149</v>
+      </c>
     </row>
-    <row r="7" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4668,11 +4677,14 @@
       <c r="JL7" s="13">
         <v>1014119</v>
       </c>
-      <c r="JM7" s="35">
+      <c r="JM7" s="13">
         <v>1019943</v>
       </c>
+      <c r="JN7" s="35">
+        <v>1030658</v>
+      </c>
     </row>
-    <row r="8" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5489,11 +5501,14 @@
       <c r="JL8" s="13">
         <v>205437</v>
       </c>
-      <c r="JM8" s="35">
+      <c r="JM8" s="13">
         <v>209081</v>
       </c>
+      <c r="JN8" s="35">
+        <v>214253</v>
+      </c>
     </row>
-    <row r="9" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6310,11 +6325,14 @@
       <c r="JL9" s="13">
         <v>133997</v>
       </c>
-      <c r="JM9" s="35">
+      <c r="JM9" s="13">
         <v>134517</v>
       </c>
+      <c r="JN9" s="35">
+        <v>135641</v>
+      </c>
     </row>
-    <row r="10" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7131,11 +7149,14 @@
       <c r="JL10" s="13">
         <v>235689</v>
       </c>
-      <c r="JM10" s="35">
+      <c r="JM10" s="13">
         <v>237944</v>
       </c>
+      <c r="JN10" s="35">
+        <v>238994</v>
+      </c>
     </row>
-    <row r="11" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7952,11 +7973,14 @@
       <c r="JL11" s="13">
         <v>959639</v>
       </c>
-      <c r="JM11" s="35">
+      <c r="JM11" s="13">
         <v>968430</v>
       </c>
+      <c r="JN11" s="35">
+        <v>973906</v>
+      </c>
     </row>
-    <row r="12" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -8773,11 +8797,14 @@
       <c r="JL12" s="13">
         <v>3347891</v>
       </c>
-      <c r="JM12" s="35">
+      <c r="JM12" s="13">
         <v>3367457</v>
       </c>
+      <c r="JN12" s="35">
+        <v>3397330</v>
+      </c>
     </row>
-    <row r="13" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -9594,11 +9621,14 @@
       <c r="JL13" s="13">
         <v>817905</v>
       </c>
-      <c r="JM13" s="35">
+      <c r="JM13" s="13">
         <v>827376</v>
       </c>
+      <c r="JN13" s="35">
+        <v>833440</v>
+      </c>
     </row>
-    <row r="14" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -10415,11 +10445,14 @@
       <c r="JL14" s="13">
         <v>141930</v>
       </c>
-      <c r="JM14" s="35">
+      <c r="JM14" s="13">
         <v>143622</v>
       </c>
+      <c r="JN14" s="35">
+        <v>144895</v>
+      </c>
     </row>
-    <row r="15" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -11236,11 +11269,14 @@
       <c r="JL15" s="13">
         <v>256989</v>
       </c>
-      <c r="JM15" s="35">
+      <c r="JM15" s="13">
         <v>257495</v>
       </c>
+      <c r="JN15" s="35">
+        <v>258835</v>
+      </c>
     </row>
-    <row r="16" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -12057,11 +12093,14 @@
       <c r="JL16" s="13">
         <v>1701100</v>
       </c>
-      <c r="JM16" s="35">
+      <c r="JM16" s="13">
         <v>1711288</v>
       </c>
+      <c r="JN16" s="35">
+        <v>1724144</v>
+      </c>
     </row>
-    <row r="17" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -12878,11 +12917,14 @@
       <c r="JL17" s="13">
         <v>1045386</v>
       </c>
-      <c r="JM17" s="35">
+      <c r="JM17" s="13">
         <v>1048237</v>
       </c>
+      <c r="JN17" s="35">
+        <v>1055136</v>
+      </c>
     </row>
-    <row r="18" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -13699,11 +13741,14 @@
       <c r="JL18" s="13">
         <v>152967</v>
       </c>
-      <c r="JM18" s="35">
+      <c r="JM18" s="13">
         <v>152213</v>
       </c>
+      <c r="JN18" s="35">
+        <v>153337</v>
+      </c>
     </row>
-    <row r="19" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -14520,11 +14565,14 @@
       <c r="JL19" s="13">
         <v>254315</v>
       </c>
-      <c r="JM19" s="35">
+      <c r="JM19" s="13">
         <v>257088</v>
       </c>
+      <c r="JN19" s="35">
+        <v>258240</v>
+      </c>
     </row>
-    <row r="20" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>14</v>
       </c>
@@ -15341,11 +15389,14 @@
       <c r="JL20" s="25">
         <v>1896517</v>
       </c>
-      <c r="JM20" s="37">
+      <c r="JM20" s="25">
         <v>1910627</v>
       </c>
+      <c r="JN20" s="37">
+        <v>1927647</v>
+      </c>
     </row>
-    <row r="21" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -16162,11 +16213,14 @@
       <c r="JL21" s="13">
         <v>459351</v>
       </c>
-      <c r="JM21" s="35">
+      <c r="JM21" s="13">
         <v>465298</v>
       </c>
+      <c r="JN21" s="35">
+        <v>466060</v>
+      </c>
     </row>
-    <row r="22" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -16983,11 +17037,14 @@
       <c r="JL22" s="13">
         <v>213012</v>
       </c>
-      <c r="JM22" s="35">
+      <c r="JM22" s="13">
         <v>212013</v>
       </c>
+      <c r="JN22" s="35">
+        <v>213316</v>
+      </c>
     </row>
-    <row r="23" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -17804,11 +17861,14 @@
       <c r="JL23" s="13">
         <v>168161</v>
       </c>
-      <c r="JM23" s="35">
+      <c r="JM23" s="13">
         <v>168864</v>
       </c>
+      <c r="JN23" s="35">
+        <v>170874</v>
+      </c>
     </row>
-    <row r="24" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -18625,11 +18685,14 @@
       <c r="JL24" s="13">
         <v>1753857</v>
       </c>
-      <c r="JM24" s="35">
+      <c r="JM24" s="13">
         <v>1772210</v>
       </c>
+      <c r="JN24" s="35">
+        <v>1785451</v>
+      </c>
     </row>
-    <row r="25" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -19446,11 +19509,14 @@
       <c r="JL25" s="13">
         <v>217426</v>
       </c>
-      <c r="JM25" s="35">
+      <c r="JM25" s="13">
         <v>218523</v>
       </c>
+      <c r="JN25" s="35">
+        <v>220481</v>
+      </c>
     </row>
-    <row r="26" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -20267,11 +20333,14 @@
       <c r="JL26" s="13">
         <v>621244</v>
       </c>
-      <c r="JM26" s="35">
+      <c r="JM26" s="13">
         <v>625520</v>
       </c>
+      <c r="JN26" s="35">
+        <v>627290</v>
+      </c>
     </row>
-    <row r="27" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -21088,11 +21157,14 @@
       <c r="JL27" s="13">
         <v>655196</v>
       </c>
-      <c r="JM27" s="35">
+      <c r="JM27" s="13">
         <v>661205</v>
       </c>
+      <c r="JN27" s="35">
+        <v>666303</v>
+      </c>
     </row>
-    <row r="28" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -21909,11 +21981,14 @@
       <c r="JL28" s="13">
         <v>463704</v>
       </c>
-      <c r="JM28" s="35">
+      <c r="JM28" s="13">
         <v>469458</v>
       </c>
+      <c r="JN28" s="35">
+        <v>472163</v>
+      </c>
     </row>
-    <row r="29" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -22730,11 +22805,14 @@
       <c r="JL29" s="13">
         <v>457802</v>
       </c>
-      <c r="JM29" s="35">
+      <c r="JM29" s="13">
         <v>460713</v>
       </c>
+      <c r="JN29" s="35">
+        <v>462755</v>
+      </c>
     </row>
-    <row r="30" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
@@ -23551,11 +23629,14 @@
       <c r="JL30" s="13">
         <v>563344</v>
       </c>
-      <c r="JM30" s="35">
+      <c r="JM30" s="13">
         <v>567002</v>
       </c>
+      <c r="JN30" s="35">
+        <v>576819</v>
+      </c>
     </row>
-    <row r="31" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -24372,11 +24453,14 @@
       <c r="JL31" s="13">
         <v>643953</v>
       </c>
-      <c r="JM31" s="35">
+      <c r="JM31" s="13">
         <v>649044</v>
       </c>
+      <c r="JN31" s="35">
+        <v>659689</v>
+      </c>
     </row>
-    <row r="32" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
@@ -25193,11 +25277,14 @@
       <c r="JL32" s="13">
         <v>226845</v>
       </c>
-      <c r="JM32" s="35">
+      <c r="JM32" s="13">
         <v>228940</v>
       </c>
+      <c r="JN32" s="35">
+        <v>232764</v>
+      </c>
     </row>
-    <row r="33" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -26014,11 +26101,14 @@
       <c r="JL33" s="13">
         <v>694124</v>
       </c>
-      <c r="JM33" s="35">
+      <c r="JM33" s="13">
         <v>701468</v>
       </c>
+      <c r="JN33" s="35">
+        <v>705173</v>
+      </c>
     </row>
-    <row r="34" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -26835,11 +26925,14 @@
       <c r="JL34" s="13">
         <v>109130</v>
       </c>
-      <c r="JM34" s="35">
+      <c r="JM34" s="13">
         <v>110420</v>
       </c>
+      <c r="JN34" s="35">
+        <v>110724</v>
+      </c>
     </row>
-    <row r="35" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -27656,11 +27749,14 @@
       <c r="JL35" s="13">
         <v>732518</v>
       </c>
-      <c r="JM35" s="35">
+      <c r="JM35" s="13">
         <v>738970</v>
       </c>
+      <c r="JN35" s="35">
+        <v>743173</v>
+      </c>
     </row>
-    <row r="36" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -28477,11 +28573,14 @@
       <c r="JL36" s="13">
         <v>401249</v>
       </c>
-      <c r="JM36" s="35">
+      <c r="JM36" s="13">
         <v>405906</v>
       </c>
+      <c r="JN36" s="35">
+        <v>410282</v>
+      </c>
     </row>
-    <row r="37" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
@@ -29298,11 +29397,14 @@
       <c r="JL37" s="13">
         <v>194441</v>
       </c>
-      <c r="JM37" s="35">
+      <c r="JM37" s="13">
         <v>194760</v>
       </c>
+      <c r="JN37" s="35">
+        <v>195436</v>
+      </c>
     </row>
-    <row r="38" spans="1:273" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
@@ -30120,11 +30222,14 @@
       <c r="JL38" s="10">
         <v>21079434</v>
       </c>
-      <c r="JM38" s="36">
+      <c r="JM38" s="10">
         <v>21236866</v>
       </c>
+      <c r="JN38" s="36">
+        <v>21409358</v>
+      </c>
     </row>
-    <row r="40" spans="1:273" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:274" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -39,9 +39,6 @@
     <t>CHIHUAHUA</t>
   </si>
   <si>
-    <t>CIUDAD DE MEXICO</t>
-  </si>
-  <si>
     <t>COAHUILA</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
   </si>
   <si>
     <t>DURANGO</t>
-  </si>
-  <si>
-    <t>ESTADO DE MEXICO</t>
   </si>
   <si>
     <t>GUANAJUATO</t>
@@ -66,16 +60,10 @@
     <t>JALISCO</t>
   </si>
   <si>
-    <t>MICHOACAN</t>
-  </si>
-  <si>
     <t>MORELOS</t>
   </si>
   <si>
     <t>NAYARIT</t>
-  </si>
-  <si>
-    <t>NUEVO LEON</t>
   </si>
   <si>
     <t>OAXACA</t>
@@ -84,13 +72,7 @@
     <t>PUEBLA</t>
   </si>
   <si>
-    <t>QUERETARO</t>
-  </si>
-  <si>
     <t>QUINTANA ROO</t>
-  </si>
-  <si>
-    <t>SAN LUIS POTOSI</t>
   </si>
   <si>
     <t>SINALOA</t>
@@ -109,9 +91,6 @@
   </si>
   <si>
     <t>VERACRUZ</t>
-  </si>
-  <si>
-    <t>YUCATAN</t>
   </si>
   <si>
     <t>ZACATECAS</t>
@@ -186,6 +165,27 @@
   </si>
   <si>
     <t>2000-2022</t>
+  </si>
+  <si>
+    <t>CIUDAD DE MÉXICO</t>
+  </si>
+  <si>
+    <t>ESTADO DE MÉXICO</t>
+  </si>
+  <si>
+    <t>MICHOACÁN</t>
+  </si>
+  <si>
+    <t>NUEVO LEÓN</t>
+  </si>
+  <si>
+    <t>QUERÉTARO</t>
+  </si>
+  <si>
+    <t>SAN LUIS POTOSÍ</t>
+  </si>
+  <si>
+    <t>YUCATÁN</t>
   </si>
 </sst>
 </file>
@@ -1271,11 +1271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JN40"/>
+  <dimension ref="A1:JO40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L2" sqref="L2"/>
+      <pane xSplit="1" topLeftCell="JC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JS18" sqref="JS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1376,23 +1376,23 @@
     <col min="253" max="261" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="262" max="264" width="10.625" style="7" customWidth="1"/>
     <col min="265" max="265" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="266" max="274" width="10.75" style="7" customWidth="1"/>
+    <col min="266" max="275" width="10.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:274" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:275" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B4" s="16">
         <v>2000</v>
@@ -2210,833 +2210,839 @@
       <c r="JM4" s="33">
         <v>2022</v>
       </c>
-      <c r="JN4" s="34">
+      <c r="JN4" s="33">
         <v>2022</v>
       </c>
+      <c r="JO4" s="34">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="M5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="N5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="V5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="W5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="Y5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="Z5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AH5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" s="9" t="s">
+      <c r="AI5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AD5" s="9" t="s">
+      <c r="AK5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AE5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="AL5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AM5" s="9" t="s">
+      <c r="AT5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AN5" s="11" t="s">
+      <c r="AU5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AO5" s="9" t="s">
+      <c r="AV5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AP5" s="11" t="s">
+      <c r="AW5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AQ5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="AX5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="BE5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AY5" s="9" t="s">
+      <c r="BF5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AZ5" s="9" t="s">
+      <c r="BG5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="BA5" s="9" t="s">
+      <c r="BH5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="BB5" s="9" t="s">
+      <c r="BI5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BC5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="BG5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="BH5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="BI5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="BJ5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="BN5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="BP5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="BQ5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="BK5" s="9" t="s">
+      <c r="BR5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="BL5" s="9" t="s">
+      <c r="BS5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="BM5" s="9" t="s">
+      <c r="BT5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="BN5" s="9" t="s">
+      <c r="BU5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BO5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="BP5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="BQ5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="BR5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="BS5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="BT5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="BU5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="BV5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="BW5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="BX5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="BZ5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="CA5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="CB5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="BW5" s="9" t="s">
+      <c r="CD5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="BX5" s="9" t="s">
+      <c r="CE5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="BY5" s="9" t="s">
+      <c r="CF5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="BZ5" s="9" t="s">
+      <c r="CG5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="CA5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="CB5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="CC5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="CD5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="CE5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="CF5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="CG5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="CH5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="CI5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="CJ5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CK5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="CL5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="CM5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="CN5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="CI5" s="9" t="s">
+      <c r="CP5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="CJ5" s="9" t="s">
+      <c r="CQ5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="CK5" s="9" t="s">
+      <c r="CR5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="CL5" s="9" t="s">
+      <c r="CS5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="CM5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="CN5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="CO5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="CP5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="CQ5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="CR5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="CS5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="CT5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="CU5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="CV5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="CW5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="CX5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="CY5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="CZ5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="DA5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="CU5" s="9" t="s">
+      <c r="DB5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="CV5" s="9" t="s">
+      <c r="DC5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="CW5" s="9" t="s">
+      <c r="DD5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="CX5" s="9" t="s">
+      <c r="DE5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="CY5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="CZ5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="DA5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="DB5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="DC5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="DD5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="DE5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="DF5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="DG5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="DH5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="DI5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="DJ5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="DK5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="DL5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="DM5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="DG5" s="9" t="s">
+      <c r="DN5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="DH5" s="9" t="s">
+      <c r="DO5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="DI5" s="9" t="s">
+      <c r="DP5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="DJ5" s="9" t="s">
+      <c r="DQ5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="DK5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="DL5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="DM5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="DN5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="DO5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="DP5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="DQ5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="DR5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="DS5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="DT5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="DU5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="DV5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="DW5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="DX5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="DY5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="DS5" s="9" t="s">
+      <c r="DZ5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="DT5" s="9" t="s">
+      <c r="EA5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="DU5" s="9" t="s">
+      <c r="EB5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="DV5" s="9" t="s">
+      <c r="EC5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="DW5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="DX5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="DY5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="DZ5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="EA5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="EB5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="EC5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="ED5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="EE5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="EF5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="EG5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="EH5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="EI5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="EJ5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="EK5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="EE5" s="9" t="s">
+      <c r="EL5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="EF5" s="9" t="s">
+      <c r="EM5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="EG5" s="9" t="s">
+      <c r="EN5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="EH5" s="9" t="s">
+      <c r="EO5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="EI5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="EJ5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="EK5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="EL5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="EM5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="EN5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="EO5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="EP5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="EQ5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="ER5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="ES5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="ET5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="EU5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="EV5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="EW5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="EQ5" s="9" t="s">
+      <c r="EX5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="ER5" s="9" t="s">
+      <c r="EY5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="ES5" s="9" t="s">
+      <c r="EZ5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="ET5" s="9" t="s">
+      <c r="FA5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="EU5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="EV5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="EW5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="EX5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="EY5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="EZ5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="FA5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="FB5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="FC5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="FD5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="FE5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="FF5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="FG5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="FH5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="FI5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="FC5" s="9" t="s">
+      <c r="FJ5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="FD5" s="9" t="s">
+      <c r="FK5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="FE5" s="9" t="s">
+      <c r="FL5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="FF5" s="9" t="s">
+      <c r="FM5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="FG5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="FH5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="FI5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="FJ5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="FK5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="FL5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="FM5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="FN5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="FO5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="FP5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="FQ5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="FR5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="FS5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="FT5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="FU5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="FO5" s="9" t="s">
+      <c r="FV5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="FP5" s="9" t="s">
+      <c r="FW5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="FQ5" s="9" t="s">
+      <c r="FX5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="FR5" s="9" t="s">
+      <c r="FY5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="FS5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="FT5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="FU5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="FV5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="FW5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="FX5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="FY5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="FZ5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="GA5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="GB5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="GC5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="GD5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="GE5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="GF5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="GG5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="GA5" s="9" t="s">
+      <c r="GH5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="GB5" s="9" t="s">
+      <c r="GI5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="GC5" s="9" t="s">
+      <c r="GJ5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="GD5" s="9" t="s">
+      <c r="GK5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="GE5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="GF5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="GG5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="GH5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="GI5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="GJ5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="GK5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="GL5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="GM5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="GN5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="GO5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="GP5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="GQ5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="GR5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="GS5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="GM5" s="9" t="s">
+      <c r="GT5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="GN5" s="9" t="s">
+      <c r="GU5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="GO5" s="9" t="s">
+      <c r="GV5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="GP5" s="9" t="s">
+      <c r="GW5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="GQ5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="GR5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="GS5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="GT5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="GU5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="GV5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="GW5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="GX5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="GY5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="GZ5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="HA5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="HB5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="HC5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="HD5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="HE5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="GY5" s="9" t="s">
+      <c r="HF5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="GZ5" s="9" t="s">
+      <c r="HG5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="HA5" s="9" t="s">
+      <c r="HH5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="HB5" s="9" t="s">
+      <c r="HI5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="HC5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="HD5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="HE5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="HF5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="HG5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="HH5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="HI5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="HJ5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="HK5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="HL5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="HM5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="HN5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="HO5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="HP5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="HQ5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="HK5" s="9" t="s">
+      <c r="HR5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="HL5" s="9" t="s">
+      <c r="HS5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="HM5" s="9" t="s">
+      <c r="HT5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="HN5" s="9" t="s">
+      <c r="HU5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="HO5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="HP5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="HQ5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="HR5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="HS5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="HT5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="HU5" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="HV5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="HW5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="HX5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="HY5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="HZ5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="IA5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="IB5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="IC5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="HW5" s="18" t="s">
+      <c r="ID5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="HX5" s="18" t="s">
+      <c r="IE5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="HY5" s="18" t="s">
+      <c r="IF5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="HZ5" s="19" t="s">
+      <c r="IG5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="IA5" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="IB5" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="IC5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="ID5" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="IE5" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="IF5" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="IG5" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="IH5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="II5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="IJ5" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="IK5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="IL5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="IM5" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="IN5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="IO5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="II5" s="29" t="s">
+      <c r="IP5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="IJ5" s="29" t="s">
+      <c r="IQ5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="IK5" s="29" t="s">
+      <c r="IR5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="IL5" s="30" t="s">
+      <c r="IS5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="IM5" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="IN5" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="IO5" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="IP5" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="IQ5" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="IR5" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="IS5" s="30" t="s">
-        <v>47</v>
-      </c>
       <c r="IT5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="IU5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="IV5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="IW5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="IX5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="IY5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="IZ5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="JA5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="IU5" s="19" t="s">
+      <c r="JB5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="IV5" s="19" t="s">
+      <c r="JC5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="IW5" s="19" t="s">
+      <c r="JD5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="IX5" s="19" t="s">
+      <c r="JE5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="IY5" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="IZ5" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="JA5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="JB5" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="JC5" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="JD5" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="JE5" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="JF5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="JG5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="JH5" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="JI5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="JJ5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="JK5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="JL5" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="JM5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="JG5" s="19" t="s">
+      <c r="JN5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="JH5" s="19" t="s">
+      <c r="JO5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="JI5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="JJ5" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="JK5" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="JL5" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="JM5" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="JN5" s="38" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="6" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3856,11 +3862,14 @@
       <c r="JM6" s="13">
         <v>341234</v>
       </c>
-      <c r="JN6" s="35">
+      <c r="JN6" s="13">
         <v>344149</v>
       </c>
+      <c r="JO6" s="35">
+        <v>345189</v>
+      </c>
     </row>
-    <row r="7" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4680,11 +4689,14 @@
       <c r="JM7" s="13">
         <v>1019943</v>
       </c>
-      <c r="JN7" s="35">
+      <c r="JN7" s="13">
         <v>1030658</v>
       </c>
+      <c r="JO7" s="35">
+        <v>1037831</v>
+      </c>
     </row>
-    <row r="8" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5504,11 +5516,14 @@
       <c r="JM8" s="13">
         <v>209081</v>
       </c>
-      <c r="JN8" s="35">
+      <c r="JN8" s="13">
         <v>214253</v>
       </c>
+      <c r="JO8" s="35">
+        <v>217917</v>
+      </c>
     </row>
-    <row r="9" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6328,11 +6343,14 @@
       <c r="JM9" s="13">
         <v>134517</v>
       </c>
-      <c r="JN9" s="35">
+      <c r="JN9" s="13">
         <v>135641</v>
       </c>
+      <c r="JO9" s="35">
+        <v>138094</v>
+      </c>
     </row>
-    <row r="10" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7152,11 +7170,14 @@
       <c r="JM10" s="13">
         <v>237944</v>
       </c>
-      <c r="JN10" s="35">
+      <c r="JN10" s="13">
         <v>238994</v>
       </c>
+      <c r="JO10" s="35">
+        <v>240323</v>
+      </c>
     </row>
-    <row r="11" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -7976,13 +7997,16 @@
       <c r="JM11" s="13">
         <v>968430</v>
       </c>
-      <c r="JN11" s="35">
+      <c r="JN11" s="13">
         <v>973906</v>
       </c>
+      <c r="JO11" s="35">
+        <v>980619</v>
+      </c>
     </row>
-    <row r="12" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B12" s="12">
         <v>2166242</v>
@@ -8800,13 +8824,16 @@
       <c r="JM12" s="13">
         <v>3367457</v>
       </c>
-      <c r="JN12" s="35">
+      <c r="JN12" s="13">
         <v>3397330</v>
       </c>
+      <c r="JO12" s="35">
+        <v>3427062</v>
+      </c>
     </row>
-    <row r="13" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="12">
         <v>500999</v>
@@ -9624,13 +9651,16 @@
       <c r="JM13" s="13">
         <v>827376</v>
       </c>
-      <c r="JN13" s="35">
+      <c r="JN13" s="13">
         <v>833440</v>
       </c>
+      <c r="JO13" s="35">
+        <v>839945</v>
+      </c>
     </row>
-    <row r="14" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="12">
         <v>72681</v>
@@ -10448,13 +10478,16 @@
       <c r="JM14" s="13">
         <v>143622</v>
       </c>
-      <c r="JN14" s="35">
+      <c r="JN14" s="13">
         <v>144895</v>
       </c>
+      <c r="JO14" s="35">
+        <v>145600</v>
+      </c>
     </row>
-    <row r="15" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="12">
         <v>178572</v>
@@ -11272,13 +11305,16 @@
       <c r="JM15" s="13">
         <v>257495</v>
       </c>
-      <c r="JN15" s="35">
+      <c r="JN15" s="13">
         <v>258835</v>
       </c>
+      <c r="JO15" s="35">
+        <v>261238</v>
+      </c>
     </row>
-    <row r="16" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B16" s="12">
         <v>963208</v>
@@ -12096,13 +12132,16 @@
       <c r="JM16" s="13">
         <v>1711288</v>
       </c>
-      <c r="JN16" s="35">
+      <c r="JN16" s="13">
         <v>1724144</v>
       </c>
+      <c r="JO16" s="35">
+        <v>1747660</v>
+      </c>
     </row>
-    <row r="17" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="12">
         <v>480068</v>
@@ -12920,13 +12959,16 @@
       <c r="JM17" s="13">
         <v>1048237</v>
       </c>
-      <c r="JN17" s="35">
+      <c r="JN17" s="13">
         <v>1055136</v>
       </c>
+      <c r="JO17" s="35">
+        <v>1061649</v>
+      </c>
     </row>
-    <row r="18" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="12">
         <v>117122</v>
@@ -13744,13 +13786,16 @@
       <c r="JM18" s="13">
         <v>152213</v>
       </c>
-      <c r="JN18" s="35">
+      <c r="JN18" s="13">
         <v>153337</v>
       </c>
+      <c r="JO18" s="35">
+        <v>156353</v>
+      </c>
     </row>
-    <row r="19" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19" s="12">
         <v>142152</v>
@@ -14568,13 +14613,16 @@
       <c r="JM19" s="13">
         <v>257088</v>
       </c>
-      <c r="JN19" s="35">
+      <c r="JN19" s="13">
         <v>258240</v>
       </c>
+      <c r="JO19" s="35">
+        <v>260883</v>
+      </c>
     </row>
-    <row r="20" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" s="24">
         <v>986809</v>
@@ -15392,13 +15440,16 @@
       <c r="JM20" s="25">
         <v>1910627</v>
       </c>
-      <c r="JN20" s="37">
+      <c r="JN20" s="25">
         <v>1927647</v>
       </c>
+      <c r="JO20" s="37">
+        <v>1950941</v>
+      </c>
     </row>
-    <row r="21" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B21" s="12">
         <v>234258</v>
@@ -16216,13 +16267,16 @@
       <c r="JM21" s="13">
         <v>465298</v>
       </c>
-      <c r="JN21" s="35">
+      <c r="JN21" s="13">
         <v>466060</v>
       </c>
+      <c r="JO21" s="35">
+        <v>473844</v>
+      </c>
     </row>
-    <row r="22" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22" s="12">
         <v>148278</v>
@@ -17040,13 +17094,16 @@
       <c r="JM22" s="13">
         <v>212013</v>
       </c>
-      <c r="JN22" s="35">
+      <c r="JN22" s="13">
         <v>213316</v>
       </c>
+      <c r="JO22" s="35">
+        <v>215111</v>
+      </c>
     </row>
-    <row r="23" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B23" s="12">
         <v>79982</v>
@@ -17864,13 +17921,16 @@
       <c r="JM23" s="13">
         <v>168864</v>
       </c>
-      <c r="JN23" s="35">
+      <c r="JN23" s="13">
         <v>170874</v>
       </c>
+      <c r="JO23" s="35">
+        <v>173150</v>
+      </c>
     </row>
-    <row r="24" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B24" s="12">
         <v>912821</v>
@@ -18688,13 +18748,16 @@
       <c r="JM24" s="13">
         <v>1772210</v>
       </c>
-      <c r="JN24" s="35">
+      <c r="JN24" s="13">
         <v>1785451</v>
       </c>
+      <c r="JO24" s="35">
+        <v>1800312</v>
+      </c>
     </row>
-    <row r="25" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B25" s="12">
         <v>132816</v>
@@ -19512,13 +19575,16 @@
       <c r="JM25" s="13">
         <v>218523</v>
       </c>
-      <c r="JN25" s="35">
+      <c r="JN25" s="13">
         <v>220481</v>
       </c>
+      <c r="JO25" s="35">
+        <v>223093</v>
+      </c>
     </row>
-    <row r="26" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B26" s="12">
         <v>400283</v>
@@ -20336,13 +20402,16 @@
       <c r="JM26" s="13">
         <v>625520</v>
       </c>
-      <c r="JN26" s="35">
+      <c r="JN26" s="13">
         <v>627290</v>
       </c>
+      <c r="JO26" s="35">
+        <v>631105</v>
+      </c>
     </row>
-    <row r="27" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B27" s="12">
         <v>233811</v>
@@ -21160,13 +21229,16 @@
       <c r="JM27" s="13">
         <v>661205</v>
       </c>
-      <c r="JN27" s="35">
+      <c r="JN27" s="13">
         <v>666303</v>
       </c>
+      <c r="JO27" s="35">
+        <v>673467</v>
+      </c>
     </row>
-    <row r="28" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B28" s="12">
         <v>155477</v>
@@ -21984,13 +22056,16 @@
       <c r="JM28" s="13">
         <v>469458</v>
       </c>
-      <c r="JN28" s="35">
+      <c r="JN28" s="13">
         <v>472163</v>
       </c>
+      <c r="JO28" s="35">
+        <v>480149</v>
+      </c>
     </row>
-    <row r="29" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B29" s="12">
         <v>224100</v>
@@ -22808,13 +22883,16 @@
       <c r="JM29" s="13">
         <v>460713</v>
       </c>
-      <c r="JN29" s="35">
+      <c r="JN29" s="13">
         <v>462755</v>
       </c>
+      <c r="JO29" s="35">
+        <v>465172</v>
+      </c>
     </row>
-    <row r="30" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B30" s="12">
         <v>300159</v>
@@ -23632,13 +23710,16 @@
       <c r="JM30" s="13">
         <v>567002</v>
       </c>
-      <c r="JN30" s="35">
+      <c r="JN30" s="13">
         <v>576819</v>
       </c>
+      <c r="JO30" s="35">
+        <v>589565</v>
+      </c>
     </row>
-    <row r="31" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B31" s="12">
         <v>376178</v>
@@ -24456,13 +24537,16 @@
       <c r="JM31" s="13">
         <v>649044</v>
       </c>
-      <c r="JN31" s="35">
+      <c r="JN31" s="13">
         <v>659689</v>
       </c>
+      <c r="JO31" s="35">
+        <v>657975</v>
+      </c>
     </row>
-    <row r="32" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B32" s="12">
         <v>99651</v>
@@ -25280,13 +25364,16 @@
       <c r="JM32" s="13">
         <v>228940</v>
       </c>
-      <c r="JN32" s="35">
+      <c r="JN32" s="13">
         <v>232764</v>
       </c>
+      <c r="JO32" s="35">
+        <v>236883</v>
+      </c>
     </row>
-    <row r="33" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B33" s="12">
         <v>482748</v>
@@ -26104,13 +26191,16 @@
       <c r="JM33" s="13">
         <v>701468</v>
       </c>
-      <c r="JN33" s="35">
+      <c r="JN33" s="13">
         <v>705173</v>
       </c>
+      <c r="JO33" s="35">
+        <v>705619</v>
+      </c>
     </row>
-    <row r="34" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B34" s="12">
         <v>73394</v>
@@ -26928,13 +27018,16 @@
       <c r="JM34" s="13">
         <v>110420</v>
       </c>
-      <c r="JN34" s="35">
+      <c r="JN34" s="13">
         <v>110724</v>
       </c>
+      <c r="JO34" s="35">
+        <v>112637</v>
+      </c>
     </row>
-    <row r="35" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B35" s="12">
         <v>555992</v>
@@ -27752,13 +27845,16 @@
       <c r="JM35" s="13">
         <v>738970</v>
       </c>
-      <c r="JN35" s="35">
+      <c r="JN35" s="13">
         <v>743173</v>
       </c>
+      <c r="JO35" s="35">
+        <v>753342</v>
+      </c>
     </row>
-    <row r="36" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B36" s="12">
         <v>224964</v>
@@ -28576,13 +28672,16 @@
       <c r="JM36" s="13">
         <v>405906</v>
       </c>
-      <c r="JN36" s="35">
+      <c r="JN36" s="13">
         <v>410282</v>
       </c>
+      <c r="JO36" s="35">
+        <v>418066</v>
+      </c>
     </row>
-    <row r="37" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B37" s="12">
         <v>91166</v>
@@ -29400,13 +29499,16 @@
       <c r="JM37" s="13">
         <v>194760</v>
       </c>
-      <c r="JN37" s="35">
+      <c r="JN37" s="13">
         <v>195436</v>
       </c>
+      <c r="JO37" s="35">
+        <v>196532</v>
+      </c>
     </row>
-    <row r="38" spans="1:274" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B38" s="14">
         <v>12034095</v>
@@ -30225,13 +30327,16 @@
       <c r="JM38" s="10">
         <v>21236866</v>
       </c>
-      <c r="JN38" s="36">
+      <c r="JN38" s="10">
         <v>21409358</v>
       </c>
+      <c r="JO38" s="36">
+        <v>21617326</v>
+      </c>
     </row>
-    <row r="40" spans="1:274" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:275" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="HS40" s="20"/>
       <c r="HT40" s="20"/>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1271,11 +1271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JO40"/>
+  <dimension ref="A1:JP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="JC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JS18" sqref="JS18"/>
+      <selection pane="topRight" activeCell="JQ11" sqref="JQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1376,21 +1376,21 @@
     <col min="253" max="261" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="262" max="264" width="10.625" style="7" customWidth="1"/>
     <col min="265" max="265" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="266" max="275" width="10.75" style="7" customWidth="1"/>
+    <col min="266" max="276" width="10.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:275" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:276" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>28</v>
       </c>
@@ -2213,11 +2213,14 @@
       <c r="JN4" s="33">
         <v>2022</v>
       </c>
-      <c r="JO4" s="34">
+      <c r="JO4" s="33">
         <v>2022</v>
       </c>
+      <c r="JP4" s="34">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
@@ -3038,11 +3041,14 @@
       <c r="JN5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="JO5" s="38" t="s">
+      <c r="JO5" s="30" t="s">
         <v>38</v>
       </c>
+      <c r="JP5" s="38" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3865,11 +3871,14 @@
       <c r="JN6" s="13">
         <v>344149</v>
       </c>
-      <c r="JO6" s="35">
+      <c r="JO6" s="13">
         <v>345189</v>
       </c>
+      <c r="JP6" s="35">
+        <v>347069</v>
+      </c>
     </row>
-    <row r="7" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4692,11 +4701,14 @@
       <c r="JN7" s="13">
         <v>1030658</v>
       </c>
-      <c r="JO7" s="35">
+      <c r="JO7" s="13">
         <v>1037831</v>
       </c>
+      <c r="JP7" s="35">
+        <v>1039247</v>
+      </c>
     </row>
-    <row r="8" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5519,11 +5531,14 @@
       <c r="JN8" s="13">
         <v>214253</v>
       </c>
-      <c r="JO8" s="35">
+      <c r="JO8" s="13">
         <v>217917</v>
       </c>
+      <c r="JP8" s="35">
+        <v>219230</v>
+      </c>
     </row>
-    <row r="9" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6346,11 +6361,14 @@
       <c r="JN9" s="13">
         <v>135641</v>
       </c>
-      <c r="JO9" s="35">
+      <c r="JO9" s="13">
         <v>138094</v>
       </c>
+      <c r="JP9" s="35">
+        <v>139994</v>
+      </c>
     </row>
-    <row r="10" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7173,11 +7191,14 @@
       <c r="JN10" s="13">
         <v>238994</v>
       </c>
-      <c r="JO10" s="35">
+      <c r="JO10" s="13">
         <v>240323</v>
       </c>
+      <c r="JP10" s="35">
+        <v>242308</v>
+      </c>
     </row>
-    <row r="11" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8000,11 +8021,14 @@
       <c r="JN11" s="13">
         <v>973906</v>
       </c>
-      <c r="JO11" s="35">
+      <c r="JO11" s="13">
         <v>980619</v>
       </c>
+      <c r="JP11" s="35">
+        <v>982033</v>
+      </c>
     </row>
-    <row r="12" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
@@ -8827,11 +8851,14 @@
       <c r="JN12" s="13">
         <v>3397330</v>
       </c>
-      <c r="JO12" s="35">
+      <c r="JO12" s="13">
         <v>3427062</v>
       </c>
+      <c r="JP12" s="35">
+        <v>3441069</v>
+      </c>
     </row>
-    <row r="13" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9654,11 +9681,14 @@
       <c r="JN13" s="13">
         <v>833440</v>
       </c>
-      <c r="JO13" s="35">
+      <c r="JO13" s="13">
         <v>839945</v>
       </c>
+      <c r="JP13" s="35">
+        <v>841577</v>
+      </c>
     </row>
-    <row r="14" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10481,11 +10511,14 @@
       <c r="JN14" s="13">
         <v>144895</v>
       </c>
-      <c r="JO14" s="35">
+      <c r="JO14" s="13">
         <v>145600</v>
       </c>
+      <c r="JP14" s="35">
+        <v>146783</v>
+      </c>
     </row>
-    <row r="15" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11308,11 +11341,14 @@
       <c r="JN15" s="13">
         <v>258835</v>
       </c>
-      <c r="JO15" s="35">
+      <c r="JO15" s="13">
         <v>261238</v>
       </c>
+      <c r="JP15" s="35">
+        <v>262234</v>
+      </c>
     </row>
-    <row r="16" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -12135,11 +12171,14 @@
       <c r="JN16" s="13">
         <v>1724144</v>
       </c>
-      <c r="JO16" s="35">
+      <c r="JO16" s="13">
         <v>1747660</v>
       </c>
+      <c r="JP16" s="35">
+        <v>1760793</v>
+      </c>
     </row>
-    <row r="17" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -12962,11 +13001,14 @@
       <c r="JN17" s="13">
         <v>1055136</v>
       </c>
-      <c r="JO17" s="35">
+      <c r="JO17" s="13">
         <v>1061649</v>
       </c>
+      <c r="JP17" s="35">
+        <v>1066752</v>
+      </c>
     </row>
-    <row r="18" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13789,11 +13831,14 @@
       <c r="JN18" s="13">
         <v>153337</v>
       </c>
-      <c r="JO18" s="35">
+      <c r="JO18" s="13">
         <v>156353</v>
       </c>
+      <c r="JP18" s="35">
+        <v>158615</v>
+      </c>
     </row>
-    <row r="19" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14616,11 +14661,14 @@
       <c r="JN19" s="13">
         <v>258240</v>
       </c>
-      <c r="JO19" s="35">
+      <c r="JO19" s="13">
         <v>260883</v>
       </c>
+      <c r="JP19" s="35">
+        <v>261803</v>
+      </c>
     </row>
-    <row r="20" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
@@ -15443,11 +15491,14 @@
       <c r="JN20" s="25">
         <v>1927647</v>
       </c>
-      <c r="JO20" s="37">
+      <c r="JO20" s="25">
         <v>1950941</v>
       </c>
+      <c r="JP20" s="37">
+        <v>1960510</v>
+      </c>
     </row>
-    <row r="21" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
@@ -16270,11 +16321,14 @@
       <c r="JN21" s="13">
         <v>466060</v>
       </c>
-      <c r="JO21" s="35">
+      <c r="JO21" s="13">
         <v>473844</v>
       </c>
+      <c r="JP21" s="35">
+        <v>476205</v>
+      </c>
     </row>
-    <row r="22" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17097,11 +17151,14 @@
       <c r="JN22" s="13">
         <v>213316</v>
       </c>
-      <c r="JO22" s="35">
+      <c r="JO22" s="13">
         <v>215111</v>
       </c>
+      <c r="JP22" s="35">
+        <v>217207</v>
+      </c>
     </row>
-    <row r="23" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17924,11 +17981,14 @@
       <c r="JN23" s="13">
         <v>170874</v>
       </c>
-      <c r="JO23" s="35">
+      <c r="JO23" s="13">
         <v>173150</v>
       </c>
+      <c r="JP23" s="35">
+        <v>175959</v>
+      </c>
     </row>
-    <row r="24" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>45</v>
       </c>
@@ -18751,11 +18811,14 @@
       <c r="JN24" s="13">
         <v>1785451</v>
       </c>
-      <c r="JO24" s="35">
+      <c r="JO24" s="13">
         <v>1800312</v>
       </c>
+      <c r="JP24" s="35">
+        <v>1806792</v>
+      </c>
     </row>
-    <row r="25" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19578,11 +19641,14 @@
       <c r="JN25" s="13">
         <v>220481</v>
       </c>
-      <c r="JO25" s="35">
+      <c r="JO25" s="13">
         <v>223093</v>
       </c>
+      <c r="JP25" s="35">
+        <v>225517</v>
+      </c>
     </row>
-    <row r="26" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20405,11 +20471,14 @@
       <c r="JN26" s="13">
         <v>627290</v>
       </c>
-      <c r="JO26" s="35">
+      <c r="JO26" s="13">
         <v>631105</v>
       </c>
+      <c r="JP26" s="35">
+        <v>632568</v>
+      </c>
     </row>
-    <row r="27" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>46</v>
       </c>
@@ -21232,11 +21301,14 @@
       <c r="JN27" s="13">
         <v>666303</v>
       </c>
-      <c r="JO27" s="35">
+      <c r="JO27" s="13">
         <v>673467</v>
       </c>
+      <c r="JP27" s="35">
+        <v>675067</v>
+      </c>
     </row>
-    <row r="28" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22059,11 +22131,14 @@
       <c r="JN28" s="13">
         <v>472163</v>
       </c>
-      <c r="JO28" s="35">
+      <c r="JO28" s="13">
         <v>480149</v>
       </c>
+      <c r="JP28" s="35">
+        <v>484025</v>
+      </c>
     </row>
-    <row r="29" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>47</v>
       </c>
@@ -22886,11 +22961,14 @@
       <c r="JN29" s="13">
         <v>462755</v>
       </c>
-      <c r="JO29" s="35">
+      <c r="JO29" s="13">
         <v>465172</v>
       </c>
+      <c r="JP29" s="35">
+        <v>465586</v>
+      </c>
     </row>
-    <row r="30" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23713,11 +23791,14 @@
       <c r="JN30" s="13">
         <v>576819</v>
       </c>
-      <c r="JO30" s="35">
+      <c r="JO30" s="13">
         <v>589565</v>
       </c>
+      <c r="JP30" s="35">
+        <v>602189</v>
+      </c>
     </row>
-    <row r="31" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24540,11 +24621,14 @@
       <c r="JN31" s="13">
         <v>659689</v>
       </c>
-      <c r="JO31" s="35">
+      <c r="JO31" s="13">
         <v>657975</v>
       </c>
+      <c r="JP31" s="35">
+        <v>654008</v>
+      </c>
     </row>
-    <row r="32" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25367,11 +25451,14 @@
       <c r="JN32" s="13">
         <v>232764</v>
       </c>
-      <c r="JO32" s="35">
+      <c r="JO32" s="13">
         <v>236883</v>
       </c>
+      <c r="JP32" s="35">
+        <v>240519</v>
+      </c>
     </row>
-    <row r="33" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26194,11 +26281,14 @@
       <c r="JN33" s="13">
         <v>705173</v>
       </c>
-      <c r="JO33" s="35">
+      <c r="JO33" s="13">
         <v>705619</v>
       </c>
+      <c r="JP33" s="35">
+        <v>700997</v>
+      </c>
     </row>
-    <row r="34" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27021,11 +27111,14 @@
       <c r="JN34" s="13">
         <v>110724</v>
       </c>
-      <c r="JO34" s="35">
+      <c r="JO34" s="13">
         <v>112637</v>
       </c>
+      <c r="JP34" s="35">
+        <v>113585</v>
+      </c>
     </row>
-    <row r="35" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -27848,11 +27941,14 @@
       <c r="JN35" s="13">
         <v>743173</v>
       </c>
-      <c r="JO35" s="35">
+      <c r="JO35" s="13">
         <v>753342</v>
       </c>
+      <c r="JP35" s="35">
+        <v>760312</v>
+      </c>
     </row>
-    <row r="36" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -28675,11 +28771,14 @@
       <c r="JN36" s="13">
         <v>410282</v>
       </c>
-      <c r="JO36" s="35">
+      <c r="JO36" s="13">
         <v>418066</v>
       </c>
+      <c r="JP36" s="35">
+        <v>420862</v>
+      </c>
     </row>
-    <row r="37" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29502,11 +29601,14 @@
       <c r="JN37" s="13">
         <v>195436</v>
       </c>
-      <c r="JO37" s="35">
+      <c r="JO37" s="13">
         <v>196532</v>
       </c>
+      <c r="JP37" s="35">
+        <v>197186</v>
+      </c>
     </row>
-    <row r="38" spans="1:275" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -30330,11 +30432,14 @@
       <c r="JN38" s="10">
         <v>21409358</v>
       </c>
-      <c r="JO38" s="36">
+      <c r="JO38" s="10">
         <v>21617326</v>
       </c>
+      <c r="JP38" s="36">
+        <v>21718601</v>
+      </c>
     </row>
-    <row r="40" spans="1:275" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:276" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1271,11 +1271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JP40"/>
+  <dimension ref="A1:JQ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="JC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JQ11" sqref="JQ11"/>
+      <selection pane="topRight" activeCell="JS9" sqref="JS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1376,21 +1376,21 @@
     <col min="253" max="261" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="262" max="264" width="10.625" style="7" customWidth="1"/>
     <col min="265" max="265" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="266" max="276" width="10.75" style="7" customWidth="1"/>
+    <col min="266" max="277" width="10.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:276" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:277" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>28</v>
       </c>
@@ -2216,11 +2216,14 @@
       <c r="JO4" s="33">
         <v>2022</v>
       </c>
-      <c r="JP4" s="34">
+      <c r="JP4" s="33">
         <v>2022</v>
       </c>
+      <c r="JQ4" s="34">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
@@ -3044,11 +3047,14 @@
       <c r="JO5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="JP5" s="38" t="s">
+      <c r="JP5" s="30" t="s">
         <v>39</v>
       </c>
+      <c r="JQ5" s="38" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3874,11 +3880,14 @@
       <c r="JO6" s="13">
         <v>345189</v>
       </c>
-      <c r="JP6" s="35">
+      <c r="JP6" s="13">
         <v>347069</v>
       </c>
+      <c r="JQ6" s="35">
+        <v>342215</v>
+      </c>
     </row>
-    <row r="7" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4704,11 +4713,14 @@
       <c r="JO7" s="13">
         <v>1037831</v>
       </c>
-      <c r="JP7" s="35">
+      <c r="JP7" s="13">
         <v>1039247</v>
       </c>
+      <c r="JQ7" s="35">
+        <v>1011231</v>
+      </c>
     </row>
-    <row r="8" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5534,11 +5546,14 @@
       <c r="JO8" s="13">
         <v>217917</v>
       </c>
-      <c r="JP8" s="35">
+      <c r="JP8" s="13">
         <v>219230</v>
       </c>
+      <c r="JQ8" s="35">
+        <v>209025</v>
+      </c>
     </row>
-    <row r="9" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6364,11 +6379,14 @@
       <c r="JO9" s="13">
         <v>138094</v>
       </c>
-      <c r="JP9" s="35">
+      <c r="JP9" s="13">
         <v>139994</v>
       </c>
+      <c r="JQ9" s="35">
+        <v>137105</v>
+      </c>
     </row>
-    <row r="10" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7194,11 +7212,14 @@
       <c r="JO10" s="13">
         <v>240323</v>
       </c>
-      <c r="JP10" s="35">
+      <c r="JP10" s="13">
         <v>242308</v>
       </c>
+      <c r="JQ10" s="35">
+        <v>241142</v>
+      </c>
     </row>
-    <row r="11" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8024,11 +8045,14 @@
       <c r="JO11" s="13">
         <v>980619</v>
       </c>
-      <c r="JP11" s="35">
+      <c r="JP11" s="13">
         <v>982033</v>
       </c>
+      <c r="JQ11" s="35">
+        <v>962905</v>
+      </c>
     </row>
-    <row r="12" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
@@ -8854,11 +8878,14 @@
       <c r="JO12" s="13">
         <v>3427062</v>
       </c>
-      <c r="JP12" s="35">
+      <c r="JP12" s="13">
         <v>3441069</v>
       </c>
+      <c r="JQ12" s="35">
+        <v>3394982</v>
+      </c>
     </row>
-    <row r="13" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9684,11 +9711,14 @@
       <c r="JO13" s="13">
         <v>839945</v>
       </c>
-      <c r="JP13" s="35">
+      <c r="JP13" s="13">
         <v>841577</v>
       </c>
+      <c r="JQ13" s="35">
+        <v>825212</v>
+      </c>
     </row>
-    <row r="14" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10514,11 +10544,14 @@
       <c r="JO14" s="13">
         <v>145600</v>
       </c>
-      <c r="JP14" s="35">
+      <c r="JP14" s="13">
         <v>146783</v>
       </c>
+      <c r="JQ14" s="35">
+        <v>146321</v>
+      </c>
     </row>
-    <row r="15" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11344,11 +11377,14 @@
       <c r="JO15" s="13">
         <v>261238</v>
       </c>
-      <c r="JP15" s="35">
+      <c r="JP15" s="13">
         <v>262234</v>
       </c>
+      <c r="JQ15" s="35">
+        <v>256778</v>
+      </c>
     </row>
-    <row r="16" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -12174,11 +12210,14 @@
       <c r="JO16" s="13">
         <v>1747660</v>
       </c>
-      <c r="JP16" s="35">
+      <c r="JP16" s="13">
         <v>1760793</v>
       </c>
+      <c r="JQ16" s="35">
+        <v>1732700</v>
+      </c>
     </row>
-    <row r="17" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13004,11 +13043,14 @@
       <c r="JO17" s="13">
         <v>1061649</v>
       </c>
-      <c r="JP17" s="35">
+      <c r="JP17" s="13">
         <v>1066752</v>
       </c>
+      <c r="JQ17" s="35">
+        <v>1046349</v>
+      </c>
     </row>
-    <row r="18" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13834,11 +13876,14 @@
       <c r="JO18" s="13">
         <v>156353</v>
       </c>
-      <c r="JP18" s="35">
+      <c r="JP18" s="13">
         <v>158615</v>
       </c>
+      <c r="JQ18" s="35">
+        <v>159520</v>
+      </c>
     </row>
-    <row r="19" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14664,11 +14709,14 @@
       <c r="JO19" s="13">
         <v>260883</v>
       </c>
-      <c r="JP19" s="35">
+      <c r="JP19" s="13">
         <v>261803</v>
       </c>
+      <c r="JQ19" s="35">
+        <v>256643</v>
+      </c>
     </row>
-    <row r="20" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
@@ -15494,11 +15542,14 @@
       <c r="JO20" s="25">
         <v>1950941</v>
       </c>
-      <c r="JP20" s="37">
+      <c r="JP20" s="25">
         <v>1960510</v>
       </c>
+      <c r="JQ20" s="37">
+        <v>1932962</v>
+      </c>
     </row>
-    <row r="21" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
@@ -16324,11 +16375,14 @@
       <c r="JO21" s="13">
         <v>473844</v>
       </c>
-      <c r="JP21" s="35">
+      <c r="JP21" s="13">
         <v>476205</v>
       </c>
+      <c r="JQ21" s="35">
+        <v>471219</v>
+      </c>
     </row>
-    <row r="22" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17154,11 +17208,14 @@
       <c r="JO22" s="13">
         <v>215111</v>
       </c>
-      <c r="JP22" s="35">
+      <c r="JP22" s="13">
         <v>217207</v>
       </c>
+      <c r="JQ22" s="35">
+        <v>215779</v>
+      </c>
     </row>
-    <row r="23" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -17984,11 +18041,14 @@
       <c r="JO23" s="13">
         <v>173150</v>
       </c>
-      <c r="JP23" s="35">
+      <c r="JP23" s="13">
         <v>175959</v>
       </c>
+      <c r="JQ23" s="35">
+        <v>172495</v>
+      </c>
     </row>
-    <row r="24" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>45</v>
       </c>
@@ -18814,11 +18874,14 @@
       <c r="JO24" s="13">
         <v>1800312</v>
       </c>
-      <c r="JP24" s="35">
+      <c r="JP24" s="13">
         <v>1806792</v>
       </c>
+      <c r="JQ24" s="35">
+        <v>1773101</v>
+      </c>
     </row>
-    <row r="25" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19644,11 +19707,14 @@
       <c r="JO25" s="13">
         <v>223093</v>
       </c>
-      <c r="JP25" s="35">
+      <c r="JP25" s="13">
         <v>225517</v>
       </c>
+      <c r="JQ25" s="35">
+        <v>223694</v>
+      </c>
     </row>
-    <row r="26" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20474,11 +20540,14 @@
       <c r="JO26" s="13">
         <v>631105</v>
       </c>
-      <c r="JP26" s="35">
+      <c r="JP26" s="13">
         <v>632568</v>
       </c>
+      <c r="JQ26" s="35">
+        <v>628792</v>
+      </c>
     </row>
-    <row r="27" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>46</v>
       </c>
@@ -21304,11 +21373,14 @@
       <c r="JO27" s="13">
         <v>673467</v>
       </c>
-      <c r="JP27" s="35">
+      <c r="JP27" s="13">
         <v>675067</v>
       </c>
+      <c r="JQ27" s="35">
+        <v>662609</v>
+      </c>
     </row>
-    <row r="28" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22134,11 +22206,14 @@
       <c r="JO28" s="13">
         <v>480149</v>
       </c>
-      <c r="JP28" s="35">
+      <c r="JP28" s="13">
         <v>484025</v>
       </c>
+      <c r="JQ28" s="35">
+        <v>468732</v>
+      </c>
     </row>
-    <row r="29" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>47</v>
       </c>
@@ -22964,11 +23039,14 @@
       <c r="JO29" s="13">
         <v>465172</v>
       </c>
-      <c r="JP29" s="35">
+      <c r="JP29" s="13">
         <v>465586</v>
       </c>
+      <c r="JQ29" s="35">
+        <v>461059</v>
+      </c>
     </row>
-    <row r="30" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23794,11 +23872,14 @@
       <c r="JO30" s="13">
         <v>589565</v>
       </c>
-      <c r="JP30" s="35">
+      <c r="JP30" s="13">
         <v>602189</v>
       </c>
+      <c r="JQ30" s="35">
+        <v>598307</v>
+      </c>
     </row>
-    <row r="31" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24624,11 +24705,14 @@
       <c r="JO31" s="13">
         <v>657975</v>
       </c>
-      <c r="JP31" s="35">
+      <c r="JP31" s="13">
         <v>654008</v>
       </c>
+      <c r="JQ31" s="35">
+        <v>640492</v>
+      </c>
     </row>
-    <row r="32" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25454,11 +25538,14 @@
       <c r="JO32" s="13">
         <v>236883</v>
       </c>
-      <c r="JP32" s="35">
+      <c r="JP32" s="13">
         <v>240519</v>
       </c>
+      <c r="JQ32" s="35">
+        <v>236579</v>
+      </c>
     </row>
-    <row r="33" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26284,11 +26371,14 @@
       <c r="JO33" s="13">
         <v>705619</v>
       </c>
-      <c r="JP33" s="35">
+      <c r="JP33" s="13">
         <v>700997</v>
       </c>
+      <c r="JQ33" s="35">
+        <v>686313</v>
+      </c>
     </row>
-    <row r="34" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27114,11 +27204,14 @@
       <c r="JO34" s="13">
         <v>112637</v>
       </c>
-      <c r="JP34" s="35">
+      <c r="JP34" s="13">
         <v>113585</v>
       </c>
+      <c r="JQ34" s="35">
+        <v>109884</v>
+      </c>
     </row>
-    <row r="35" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -27944,11 +28037,14 @@
       <c r="JO35" s="13">
         <v>753342</v>
       </c>
-      <c r="JP35" s="35">
+      <c r="JP35" s="13">
         <v>760312</v>
       </c>
+      <c r="JQ35" s="35">
+        <v>759569</v>
+      </c>
     </row>
-    <row r="36" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>48</v>
       </c>
@@ -28774,11 +28870,14 @@
       <c r="JO36" s="13">
         <v>418066</v>
       </c>
-      <c r="JP36" s="35">
+      <c r="JP36" s="13">
         <v>420862</v>
       </c>
+      <c r="JQ36" s="35">
+        <v>414439</v>
+      </c>
     </row>
-    <row r="37" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29604,11 +29703,14 @@
       <c r="JO37" s="13">
         <v>196532</v>
       </c>
-      <c r="JP37" s="35">
+      <c r="JP37" s="13">
         <v>197186</v>
       </c>
+      <c r="JQ37" s="35">
+        <v>194743</v>
+      </c>
     </row>
-    <row r="38" spans="1:276" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -30435,11 +30537,15 @@
       <c r="JO38" s="10">
         <v>21617326</v>
       </c>
-      <c r="JP38" s="36">
+      <c r="JP38" s="10">
         <v>21718601</v>
       </c>
+      <c r="JQ38" s="36">
+        <f>SUM(JQ6:JQ37)</f>
+        <v>21372896</v>
+      </c>
     </row>
-    <row r="40" spans="1:276" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:277" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1275,7 +1275,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="JC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JS9" sqref="JS9"/>
+      <selection pane="topRight" activeCell="JP16" sqref="JP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Diciembre</t>
   </si>
   <si>
-    <t>2000-2022</t>
-  </si>
-  <si>
     <t>CIUDAD DE MÉXICO</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>YUCATÁN</t>
+  </si>
+  <si>
+    <t>2000-2023</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -787,12 +787,29 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -848,7 +865,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -916,10 +933,15 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1271,11 +1293,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JQ40"/>
+  <dimension ref="A1:JR40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JP16" sqref="JP16"/>
+      <pane xSplit="1" topLeftCell="IZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JW12" sqref="JW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1376,22 +1398,22 @@
     <col min="253" max="261" width="10.125" style="7" bestFit="1" customWidth="1"/>
     <col min="262" max="264" width="10.625" style="7" customWidth="1"/>
     <col min="265" max="265" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="266" max="277" width="10.75" style="7" customWidth="1"/>
+    <col min="266" max="278" width="10.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:277" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:277" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="3" spans="1:278" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:278" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="16">
@@ -2222,9 +2244,12 @@
       <c r="JQ4" s="34">
         <v>2022</v>
       </c>
+      <c r="JR4" s="32">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:277" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+    <row r="5" spans="1:278" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
@@ -3050,11 +3075,14 @@
       <c r="JP5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="JQ5" s="38" t="s">
+      <c r="JQ5" s="36" t="s">
         <v>40</v>
       </c>
+      <c r="JR5" s="41" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3883,11 +3911,14 @@
       <c r="JP6" s="13">
         <v>347069</v>
       </c>
-      <c r="JQ6" s="35">
+      <c r="JQ6" s="13">
         <v>342215</v>
       </c>
+      <c r="JR6" s="38">
+        <v>344328</v>
+      </c>
     </row>
-    <row r="7" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4716,11 +4747,14 @@
       <c r="JP7" s="13">
         <v>1039247</v>
       </c>
-      <c r="JQ7" s="35">
+      <c r="JQ7" s="13">
         <v>1011231</v>
       </c>
+      <c r="JR7" s="4">
+        <v>1028938</v>
+      </c>
     </row>
-    <row r="8" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5549,11 +5583,14 @@
       <c r="JP8" s="13">
         <v>219230</v>
       </c>
-      <c r="JQ8" s="35">
+      <c r="JQ8" s="13">
         <v>209025</v>
       </c>
+      <c r="JR8" s="4">
+        <v>210964</v>
+      </c>
     </row>
-    <row r="9" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6382,11 +6419,14 @@
       <c r="JP9" s="13">
         <v>139994</v>
       </c>
-      <c r="JQ9" s="35">
+      <c r="JQ9" s="13">
         <v>137105</v>
       </c>
+      <c r="JR9" s="4">
+        <v>138820</v>
+      </c>
     </row>
-    <row r="10" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7215,11 +7255,14 @@
       <c r="JP10" s="13">
         <v>242308</v>
       </c>
-      <c r="JQ10" s="35">
+      <c r="JQ10" s="13">
         <v>241142</v>
       </c>
+      <c r="JR10" s="4">
+        <v>240012</v>
+      </c>
     </row>
-    <row r="11" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8048,13 +8091,16 @@
       <c r="JP11" s="13">
         <v>982033</v>
       </c>
-      <c r="JQ11" s="35">
+      <c r="JQ11" s="13">
         <v>962905</v>
       </c>
+      <c r="JR11" s="4">
+        <v>974271</v>
+      </c>
     </row>
-    <row r="12" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="12">
         <v>2166242</v>
@@ -8881,11 +8927,14 @@
       <c r="JP12" s="13">
         <v>3441069</v>
       </c>
-      <c r="JQ12" s="35">
+      <c r="JQ12" s="13">
         <v>3394982</v>
       </c>
+      <c r="JR12" s="4">
+        <v>3378694</v>
+      </c>
     </row>
-    <row r="13" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9714,11 +9763,14 @@
       <c r="JP13" s="13">
         <v>841577</v>
       </c>
-      <c r="JQ13" s="35">
+      <c r="JQ13" s="13">
         <v>825212</v>
       </c>
+      <c r="JR13" s="4">
+        <v>832780</v>
+      </c>
     </row>
-    <row r="14" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10547,11 +10599,14 @@
       <c r="JP14" s="13">
         <v>146783</v>
       </c>
-      <c r="JQ14" s="35">
+      <c r="JQ14" s="13">
         <v>146321</v>
       </c>
+      <c r="JR14" s="4">
+        <v>147284</v>
+      </c>
     </row>
-    <row r="15" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11380,13 +11435,16 @@
       <c r="JP15" s="13">
         <v>262234</v>
       </c>
-      <c r="JQ15" s="35">
+      <c r="JQ15" s="13">
         <v>256778</v>
       </c>
+      <c r="JR15" s="4">
+        <v>258023</v>
+      </c>
     </row>
-    <row r="16" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="12">
         <v>963208</v>
@@ -12213,11 +12271,14 @@
       <c r="JP16" s="13">
         <v>1760793</v>
       </c>
-      <c r="JQ16" s="35">
+      <c r="JQ16" s="13">
         <v>1732700</v>
       </c>
+      <c r="JR16" s="4">
+        <v>1726186</v>
+      </c>
     </row>
-    <row r="17" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13046,11 +13107,14 @@
       <c r="JP17" s="13">
         <v>1066752</v>
       </c>
-      <c r="JQ17" s="35">
+      <c r="JQ17" s="13">
         <v>1046349</v>
       </c>
+      <c r="JR17" s="4">
+        <v>1052198</v>
+      </c>
     </row>
-    <row r="18" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13879,11 +13943,14 @@
       <c r="JP18" s="13">
         <v>158615</v>
       </c>
-      <c r="JQ18" s="35">
+      <c r="JQ18" s="13">
         <v>159520</v>
       </c>
+      <c r="JR18" s="4">
+        <v>156417</v>
+      </c>
     </row>
-    <row r="19" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14712,11 +14779,14 @@
       <c r="JP19" s="13">
         <v>261803</v>
       </c>
-      <c r="JQ19" s="35">
+      <c r="JQ19" s="13">
         <v>256643</v>
       </c>
+      <c r="JR19" s="4">
+        <v>258198</v>
+      </c>
     </row>
-    <row r="20" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
@@ -15545,13 +15615,16 @@
       <c r="JP20" s="25">
         <v>1960510</v>
       </c>
-      <c r="JQ20" s="37">
+      <c r="JQ20" s="25">
         <v>1932962</v>
       </c>
+      <c r="JR20" s="39">
+        <v>1951256</v>
+      </c>
     </row>
-    <row r="21" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="12">
         <v>234258</v>
@@ -16378,11 +16451,14 @@
       <c r="JP21" s="13">
         <v>476205</v>
       </c>
-      <c r="JQ21" s="35">
+      <c r="JQ21" s="13">
         <v>471219</v>
       </c>
+      <c r="JR21" s="4">
+        <v>472641</v>
+      </c>
     </row>
-    <row r="22" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17211,11 +17287,14 @@
       <c r="JP22" s="13">
         <v>217207</v>
       </c>
-      <c r="JQ22" s="35">
+      <c r="JQ22" s="13">
         <v>215779</v>
       </c>
+      <c r="JR22" s="4">
+        <v>214502</v>
+      </c>
     </row>
-    <row r="23" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18044,13 +18123,16 @@
       <c r="JP23" s="13">
         <v>175959</v>
       </c>
-      <c r="JQ23" s="35">
+      <c r="JQ23" s="13">
         <v>172495</v>
       </c>
+      <c r="JR23" s="4">
+        <v>176638</v>
+      </c>
     </row>
-    <row r="24" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="12">
         <v>912821</v>
@@ -18877,11 +18959,14 @@
       <c r="JP24" s="13">
         <v>1806792</v>
       </c>
-      <c r="JQ24" s="35">
+      <c r="JQ24" s="13">
         <v>1773101</v>
       </c>
+      <c r="JR24" s="4">
+        <v>1790298</v>
+      </c>
     </row>
-    <row r="25" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19710,11 +19795,14 @@
       <c r="JP25" s="13">
         <v>225517</v>
       </c>
-      <c r="JQ25" s="35">
+      <c r="JQ25" s="13">
         <v>223694</v>
       </c>
+      <c r="JR25" s="4">
+        <v>224466</v>
+      </c>
     </row>
-    <row r="26" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20543,13 +20631,16 @@
       <c r="JP26" s="13">
         <v>632568</v>
       </c>
-      <c r="JQ26" s="35">
+      <c r="JQ26" s="13">
         <v>628792</v>
       </c>
+      <c r="JR26" s="4">
+        <v>629907</v>
+      </c>
     </row>
-    <row r="27" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="12">
         <v>233811</v>
@@ -21376,11 +21467,14 @@
       <c r="JP27" s="13">
         <v>675067</v>
       </c>
-      <c r="JQ27" s="35">
+      <c r="JQ27" s="13">
         <v>662609</v>
       </c>
+      <c r="JR27" s="4">
+        <v>668677</v>
+      </c>
     </row>
-    <row r="28" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22209,13 +22303,16 @@
       <c r="JP28" s="13">
         <v>484025</v>
       </c>
-      <c r="JQ28" s="35">
+      <c r="JQ28" s="13">
         <v>468732</v>
       </c>
+      <c r="JR28" s="4">
+        <v>479784</v>
+      </c>
     </row>
-    <row r="29" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="12">
         <v>224100</v>
@@ -23042,11 +23139,14 @@
       <c r="JP29" s="13">
         <v>465586</v>
       </c>
-      <c r="JQ29" s="35">
+      <c r="JQ29" s="13">
         <v>461059</v>
       </c>
+      <c r="JR29" s="4">
+        <v>458353</v>
+      </c>
     </row>
-    <row r="30" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23875,11 +23975,14 @@
       <c r="JP30" s="13">
         <v>602189</v>
       </c>
-      <c r="JQ30" s="35">
+      <c r="JQ30" s="13">
         <v>598307</v>
       </c>
+      <c r="JR30" s="4">
+        <v>611206</v>
+      </c>
     </row>
-    <row r="31" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24708,11 +24811,14 @@
       <c r="JP31" s="13">
         <v>654008</v>
       </c>
-      <c r="JQ31" s="35">
+      <c r="JQ31" s="13">
         <v>640492</v>
       </c>
+      <c r="JR31" s="4">
+        <v>649294</v>
+      </c>
     </row>
-    <row r="32" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25541,11 +25647,14 @@
       <c r="JP32" s="13">
         <v>240519</v>
       </c>
-      <c r="JQ32" s="35">
+      <c r="JQ32" s="13">
         <v>236579</v>
       </c>
+      <c r="JR32" s="4">
+        <v>236993</v>
+      </c>
     </row>
-    <row r="33" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26374,11 +26483,14 @@
       <c r="JP33" s="13">
         <v>700997</v>
       </c>
-      <c r="JQ33" s="35">
+      <c r="JQ33" s="13">
         <v>686313</v>
       </c>
+      <c r="JR33" s="4">
+        <v>691670</v>
+      </c>
     </row>
-    <row r="34" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27207,11 +27319,14 @@
       <c r="JP34" s="13">
         <v>113585</v>
       </c>
-      <c r="JQ34" s="35">
+      <c r="JQ34" s="13">
         <v>109884</v>
       </c>
+      <c r="JR34" s="4">
+        <v>110476</v>
+      </c>
     </row>
-    <row r="35" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28040,13 +28155,16 @@
       <c r="JP35" s="13">
         <v>760312</v>
       </c>
-      <c r="JQ35" s="35">
+      <c r="JQ35" s="13">
         <v>759569</v>
       </c>
+      <c r="JR35" s="4">
+        <v>759626</v>
+      </c>
     </row>
-    <row r="36" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="12">
         <v>224964</v>
@@ -28873,11 +28991,14 @@
       <c r="JP36" s="13">
         <v>420862</v>
       </c>
-      <c r="JQ36" s="35">
+      <c r="JQ36" s="13">
         <v>414439</v>
       </c>
+      <c r="JR36" s="4">
+        <v>417035</v>
+      </c>
     </row>
-    <row r="37" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29706,11 +29827,14 @@
       <c r="JP37" s="13">
         <v>197186</v>
       </c>
-      <c r="JQ37" s="35">
+      <c r="JQ37" s="13">
         <v>194743</v>
       </c>
+      <c r="JR37" s="40">
+        <v>194660</v>
+      </c>
     </row>
-    <row r="38" spans="1:277" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -30540,12 +30664,15 @@
       <c r="JP38" s="10">
         <v>21718601</v>
       </c>
-      <c r="JQ38" s="36">
+      <c r="JQ38" s="35">
         <f>SUM(JQ6:JQ37)</f>
         <v>21372896</v>
       </c>
+      <c r="JR38" s="37">
+        <v>21484595</v>
+      </c>
     </row>
-    <row r="40" spans="1:277" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:278" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB51358E-2CE0-4390-9990-64CA5EEC5CDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6344"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ta entidades" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -191,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -682,19 +683,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -782,43 +770,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -865,33 +816,33 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -901,50 +852,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1082,6 +1019,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1117,6 +1071,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1292,128 +1263,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JR40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:JS40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="IZ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JW12" sqref="JW12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="JE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JT21" sqref="JT21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.75" customWidth="1"/>
-    <col min="2" max="9" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="33" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="43" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.125" style="7" customWidth="1"/>
-    <col min="45" max="45" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="37" max="43" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.140625" style="7" customWidth="1"/>
+    <col min="45" max="45" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="11" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="11" bestFit="1" customWidth="1"/>
-    <col min="61" max="69" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="61" max="69" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="11" bestFit="1" customWidth="1"/>
-    <col min="73" max="81" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="73" max="81" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="11" bestFit="1" customWidth="1"/>
-    <col min="85" max="93" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="85" max="93" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="11" bestFit="1" customWidth="1"/>
-    <col min="97" max="105" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="97" max="105" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="11" bestFit="1" customWidth="1"/>
-    <col min="109" max="117" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="109" max="117" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="11" bestFit="1" customWidth="1"/>
-    <col min="121" max="129" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="121" max="129" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="11" bestFit="1" customWidth="1"/>
-    <col min="133" max="141" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="133" max="141" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="11" bestFit="1" customWidth="1"/>
-    <col min="145" max="153" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="145" max="153" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="156" max="156" width="11" bestFit="1" customWidth="1"/>
-    <col min="157" max="165" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="157" max="165" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="168" max="168" width="11" bestFit="1" customWidth="1"/>
-    <col min="169" max="177" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="169" max="177" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="180" max="180" width="11" bestFit="1" customWidth="1"/>
-    <col min="181" max="189" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="181" max="189" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="192" max="192" width="11" bestFit="1" customWidth="1"/>
-    <col min="193" max="201" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="193" max="201" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="204" max="204" width="11" bestFit="1" customWidth="1"/>
-    <col min="205" max="213" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="205" max="213" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="216" max="216" width="11" bestFit="1" customWidth="1"/>
-    <col min="217" max="225" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="217" max="225" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="11" bestFit="1" customWidth="1"/>
-    <col min="229" max="231" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="10.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="233" max="235" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="10.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="10.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="229" max="231" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="233" max="235" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="10.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="240" max="240" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="10.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="242" max="247" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="248" max="249" width="10.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="10.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="242" max="247" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="248" max="249" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="10.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="253" max="261" width="10.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="262" max="264" width="10.625" style="7" customWidth="1"/>
-    <col min="265" max="265" width="11.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="266" max="278" width="10.75" style="7" customWidth="1"/>
+    <col min="253" max="261" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="262" max="264" width="10.5703125" style="7" customWidth="1"/>
+    <col min="265" max="265" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="266" max="278" width="10.7109375" style="7" customWidth="1"/>
+    <col min="281" max="281" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:278" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="3" spans="1:279" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="16">
@@ -2241,15 +2213,18 @@
       <c r="JP4" s="33">
         <v>2022</v>
       </c>
-      <c r="JQ4" s="34">
+      <c r="JQ4" s="33">
         <v>2022</v>
       </c>
-      <c r="JR4" s="32">
+      <c r="JR4" s="33">
         <v>2023</v>
       </c>
+      <c r="JS4" s="33">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:278" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+    <row r="5" spans="1:279" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
@@ -3063,26 +3038,29 @@
       <c r="JL5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="JM5" s="30" t="s">
+      <c r="JM5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="JN5" s="30" t="s">
+      <c r="JN5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="JO5" s="30" t="s">
+      <c r="JO5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="JP5" s="30" t="s">
+      <c r="JP5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="JQ5" s="36" t="s">
+      <c r="JQ5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="JR5" s="41" t="s">
+      <c r="JR5" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="JS5" s="19" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3914,11 +3892,14 @@
       <c r="JQ6" s="13">
         <v>342215</v>
       </c>
-      <c r="JR6" s="38">
+      <c r="JR6" s="13">
         <v>344328</v>
       </c>
+      <c r="JS6" s="13">
+        <v>348017</v>
+      </c>
     </row>
-    <row r="7" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4750,11 +4731,14 @@
       <c r="JQ7" s="13">
         <v>1011231</v>
       </c>
-      <c r="JR7" s="4">
+      <c r="JR7" s="13">
         <v>1028938</v>
       </c>
+      <c r="JS7" s="13">
+        <v>1067777</v>
+      </c>
     </row>
-    <row r="8" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5586,11 +5570,14 @@
       <c r="JQ8" s="13">
         <v>209025</v>
       </c>
-      <c r="JR8" s="4">
+      <c r="JR8" s="13">
         <v>210964</v>
       </c>
+      <c r="JS8" s="13">
+        <v>215851</v>
+      </c>
     </row>
-    <row r="9" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6422,11 +6409,14 @@
       <c r="JQ9" s="13">
         <v>137105</v>
       </c>
-      <c r="JR9" s="4">
+      <c r="JR9" s="13">
         <v>138820</v>
       </c>
+      <c r="JS9" s="13">
+        <v>139410</v>
+      </c>
     </row>
-    <row r="10" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7258,11 +7248,14 @@
       <c r="JQ10" s="13">
         <v>241142</v>
       </c>
-      <c r="JR10" s="4">
+      <c r="JR10" s="13">
         <v>240012</v>
       </c>
+      <c r="JS10" s="13">
+        <v>241547</v>
+      </c>
     </row>
-    <row r="11" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8094,11 +8087,14 @@
       <c r="JQ11" s="13">
         <v>962905</v>
       </c>
-      <c r="JR11" s="4">
+      <c r="JR11" s="13">
         <v>974271</v>
       </c>
+      <c r="JS11" s="13">
+        <v>981673</v>
+      </c>
     </row>
-    <row r="12" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -8930,11 +8926,14 @@
       <c r="JQ12" s="13">
         <v>3394982</v>
       </c>
-      <c r="JR12" s="4">
+      <c r="JR12" s="13">
         <v>3378694</v>
       </c>
+      <c r="JS12" s="13">
+        <v>3397269</v>
+      </c>
     </row>
-    <row r="13" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9766,11 +9765,14 @@
       <c r="JQ13" s="13">
         <v>825212</v>
       </c>
-      <c r="JR13" s="4">
+      <c r="JR13" s="13">
         <v>832780</v>
       </c>
+      <c r="JS13" s="13">
+        <v>840249</v>
+      </c>
     </row>
-    <row r="14" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10602,11 +10604,14 @@
       <c r="JQ14" s="13">
         <v>146321</v>
       </c>
-      <c r="JR14" s="4">
+      <c r="JR14" s="13">
         <v>147284</v>
       </c>
+      <c r="JS14" s="13">
+        <v>148842</v>
+      </c>
     </row>
-    <row r="15" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11438,11 +11443,14 @@
       <c r="JQ15" s="13">
         <v>256778</v>
       </c>
-      <c r="JR15" s="4">
+      <c r="JR15" s="13">
         <v>258023</v>
       </c>
+      <c r="JS15" s="13">
+        <v>260506</v>
+      </c>
     </row>
-    <row r="16" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12274,11 +12282,14 @@
       <c r="JQ16" s="13">
         <v>1732700</v>
       </c>
-      <c r="JR16" s="4">
+      <c r="JR16" s="13">
         <v>1726186</v>
       </c>
+      <c r="JS16" s="13">
+        <v>1737289</v>
+      </c>
     </row>
-    <row r="17" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13110,11 +13121,14 @@
       <c r="JQ17" s="13">
         <v>1046349</v>
       </c>
-      <c r="JR17" s="4">
+      <c r="JR17" s="13">
         <v>1052198</v>
       </c>
+      <c r="JS17" s="13">
+        <v>1060696</v>
+      </c>
     </row>
-    <row r="18" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13946,11 +13960,14 @@
       <c r="JQ18" s="13">
         <v>159520</v>
       </c>
-      <c r="JR18" s="4">
+      <c r="JR18" s="13">
         <v>156417</v>
       </c>
+      <c r="JS18" s="13">
+        <v>157749</v>
+      </c>
     </row>
-    <row r="19" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14782,11 +14799,14 @@
       <c r="JQ19" s="13">
         <v>256643</v>
       </c>
-      <c r="JR19" s="4">
+      <c r="JR19" s="13">
         <v>258198</v>
       </c>
+      <c r="JS19" s="13">
+        <v>260429</v>
+      </c>
     </row>
-    <row r="20" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
@@ -15618,11 +15638,14 @@
       <c r="JQ20" s="25">
         <v>1932962</v>
       </c>
-      <c r="JR20" s="39">
+      <c r="JR20" s="25">
         <v>1951256</v>
       </c>
+      <c r="JS20" s="25">
+        <v>1964519</v>
+      </c>
     </row>
-    <row r="21" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -16454,11 +16477,14 @@
       <c r="JQ21" s="13">
         <v>471219</v>
       </c>
-      <c r="JR21" s="4">
+      <c r="JR21" s="13">
         <v>472641</v>
       </c>
+      <c r="JS21" s="13">
+        <v>479469</v>
+      </c>
     </row>
-    <row r="22" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17290,11 +17316,14 @@
       <c r="JQ22" s="13">
         <v>215779</v>
       </c>
-      <c r="JR22" s="4">
+      <c r="JR22" s="13">
         <v>214502</v>
       </c>
+      <c r="JS22" s="13">
+        <v>217018</v>
+      </c>
     </row>
-    <row r="23" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18126,11 +18155,14 @@
       <c r="JQ23" s="13">
         <v>172495</v>
       </c>
-      <c r="JR23" s="4">
+      <c r="JR23" s="13">
         <v>176638</v>
       </c>
+      <c r="JS23" s="13">
+        <v>178399</v>
+      </c>
     </row>
-    <row r="24" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -18962,11 +18994,14 @@
       <c r="JQ24" s="13">
         <v>1773101</v>
       </c>
-      <c r="JR24" s="4">
+      <c r="JR24" s="13">
         <v>1790298</v>
       </c>
+      <c r="JS24" s="13">
+        <v>1807183</v>
+      </c>
     </row>
-    <row r="25" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19798,11 +19833,14 @@
       <c r="JQ25" s="13">
         <v>223694</v>
       </c>
-      <c r="JR25" s="4">
+      <c r="JR25" s="13">
         <v>224466</v>
       </c>
+      <c r="JS25" s="13">
+        <v>220988</v>
+      </c>
     </row>
-    <row r="26" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20634,11 +20672,14 @@
       <c r="JQ26" s="13">
         <v>628792</v>
       </c>
-      <c r="JR26" s="4">
+      <c r="JR26" s="13">
         <v>629907</v>
       </c>
+      <c r="JS26" s="13">
+        <v>634127</v>
+      </c>
     </row>
-    <row r="27" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -21470,11 +21511,14 @@
       <c r="JQ27" s="13">
         <v>662609</v>
       </c>
-      <c r="JR27" s="4">
+      <c r="JR27" s="13">
         <v>668677</v>
       </c>
+      <c r="JS27" s="13">
+        <v>676216</v>
+      </c>
     </row>
-    <row r="28" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22306,11 +22350,14 @@
       <c r="JQ28" s="13">
         <v>468732</v>
       </c>
-      <c r="JR28" s="4">
+      <c r="JR28" s="13">
         <v>479784</v>
       </c>
+      <c r="JS28" s="13">
+        <v>487185</v>
+      </c>
     </row>
-    <row r="29" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -23142,11 +23189,14 @@
       <c r="JQ29" s="13">
         <v>461059</v>
       </c>
-      <c r="JR29" s="4">
+      <c r="JR29" s="13">
         <v>458353</v>
       </c>
+      <c r="JS29" s="13">
+        <v>464403</v>
+      </c>
     </row>
-    <row r="30" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -23978,11 +24028,14 @@
       <c r="JQ30" s="13">
         <v>598307</v>
       </c>
-      <c r="JR30" s="4">
+      <c r="JR30" s="13">
         <v>611206</v>
       </c>
+      <c r="JS30" s="13">
+        <v>610874</v>
+      </c>
     </row>
-    <row r="31" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24814,11 +24867,14 @@
       <c r="JQ31" s="13">
         <v>640492</v>
       </c>
-      <c r="JR31" s="4">
+      <c r="JR31" s="13">
         <v>649294</v>
       </c>
+      <c r="JS31" s="13">
+        <v>628318</v>
+      </c>
     </row>
-    <row r="32" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25650,11 +25706,14 @@
       <c r="JQ32" s="13">
         <v>236579</v>
       </c>
-      <c r="JR32" s="4">
+      <c r="JR32" s="13">
         <v>236993</v>
       </c>
+      <c r="JS32" s="13">
+        <v>240999</v>
+      </c>
     </row>
-    <row r="33" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26486,11 +26545,14 @@
       <c r="JQ33" s="13">
         <v>686313</v>
       </c>
-      <c r="JR33" s="4">
+      <c r="JR33" s="13">
         <v>691670</v>
       </c>
+      <c r="JS33" s="13">
+        <v>711372</v>
+      </c>
     </row>
-    <row r="34" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27322,11 +27384,14 @@
       <c r="JQ34" s="13">
         <v>109884</v>
       </c>
-      <c r="JR34" s="4">
+      <c r="JR34" s="13">
         <v>110476</v>
       </c>
+      <c r="JS34" s="13">
+        <v>112119</v>
+      </c>
     </row>
-    <row r="35" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28158,11 +28223,14 @@
       <c r="JQ35" s="13">
         <v>759569</v>
       </c>
-      <c r="JR35" s="4">
+      <c r="JR35" s="13">
         <v>759626</v>
       </c>
+      <c r="JS35" s="13">
+        <v>753421</v>
+      </c>
     </row>
-    <row r="36" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -28994,11 +29062,14 @@
       <c r="JQ36" s="13">
         <v>414439</v>
       </c>
-      <c r="JR36" s="4">
+      <c r="JR36" s="13">
         <v>417035</v>
       </c>
+      <c r="JS36" s="13">
+        <v>420905</v>
+      </c>
     </row>
-    <row r="37" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29830,11 +29901,14 @@
       <c r="JQ37" s="13">
         <v>194743</v>
       </c>
-      <c r="JR37" s="40">
+      <c r="JR37" s="13">
         <v>194660</v>
       </c>
+      <c r="JS37" s="13">
+        <v>195650</v>
+      </c>
     </row>
-    <row r="38" spans="1:278" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -30664,15 +30738,18 @@
       <c r="JP38" s="10">
         <v>21718601</v>
       </c>
-      <c r="JQ38" s="35">
+      <c r="JQ38" s="10">
         <f>SUM(JQ6:JQ37)</f>
         <v>21372896</v>
       </c>
-      <c r="JR38" s="37">
+      <c r="JR38" s="10">
         <v>21484595</v>
       </c>
+      <c r="JS38" s="10">
+        <v>21484595</v>
+      </c>
     </row>
-    <row r="40" spans="1:278" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:279" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB51358E-2CE0-4390-9990-64CA5EEC5CDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9476BDAA-F1D1-4796-A4DA-E2256F98D54D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1264,11 +1264,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JS40"/>
+  <dimension ref="A1:JT40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="JE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JT21" sqref="JT21"/>
+      <selection pane="topRight" activeCell="JS31" sqref="JS31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,21 +1370,21 @@
     <col min="262" max="264" width="10.5703125" style="7" customWidth="1"/>
     <col min="265" max="265" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="266" max="278" width="10.7109375" style="7" customWidth="1"/>
-    <col min="281" max="281" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="281" max="282" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:279" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:280" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>28</v>
       </c>
@@ -2222,8 +2222,11 @@
       <c r="JS4" s="33">
         <v>2023</v>
       </c>
+      <c r="JT4" s="33">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
@@ -3059,8 +3062,11 @@
       <c r="JS5" s="19" t="s">
         <v>30</v>
       </c>
+      <c r="JT5" s="19" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3898,8 +3904,11 @@
       <c r="JS6" s="13">
         <v>348017</v>
       </c>
+      <c r="JT6" s="5">
+        <v>352010</v>
+      </c>
     </row>
-    <row r="7" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4737,8 +4746,11 @@
       <c r="JS7" s="13">
         <v>1067777</v>
       </c>
+      <c r="JT7" s="5">
+        <v>1042019</v>
+      </c>
     </row>
-    <row r="8" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5576,8 +5588,11 @@
       <c r="JS8" s="13">
         <v>215851</v>
       </c>
+      <c r="JT8" s="5">
+        <v>217046</v>
+      </c>
     </row>
-    <row r="9" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6415,8 +6430,11 @@
       <c r="JS9" s="13">
         <v>139410</v>
       </c>
+      <c r="JT9" s="5">
+        <v>139841</v>
+      </c>
     </row>
-    <row r="10" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7254,8 +7272,11 @@
       <c r="JS10" s="13">
         <v>241547</v>
       </c>
+      <c r="JT10" s="5">
+        <v>243734</v>
+      </c>
     </row>
-    <row r="11" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8093,8 +8114,11 @@
       <c r="JS11" s="13">
         <v>981673</v>
       </c>
+      <c r="JT11" s="5">
+        <v>987450</v>
+      </c>
     </row>
-    <row r="12" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -8932,8 +8956,11 @@
       <c r="JS12" s="13">
         <v>3397269</v>
       </c>
+      <c r="JT12" s="5">
+        <v>3411513</v>
+      </c>
     </row>
-    <row r="13" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9771,8 +9798,11 @@
       <c r="JS13" s="13">
         <v>840249</v>
       </c>
+      <c r="JT13" s="5">
+        <v>846697</v>
+      </c>
     </row>
-    <row r="14" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10610,8 +10640,11 @@
       <c r="JS14" s="13">
         <v>148842</v>
       </c>
+      <c r="JT14" s="5">
+        <v>148585</v>
+      </c>
     </row>
-    <row r="15" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11449,8 +11482,11 @@
       <c r="JS15" s="13">
         <v>260506</v>
       </c>
+      <c r="JT15" s="5">
+        <v>260331</v>
+      </c>
     </row>
-    <row r="16" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12288,8 +12324,11 @@
       <c r="JS16" s="13">
         <v>1737289</v>
       </c>
+      <c r="JT16" s="5">
+        <v>1751101</v>
+      </c>
     </row>
-    <row r="17" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13127,8 +13166,11 @@
       <c r="JS17" s="13">
         <v>1060696</v>
       </c>
+      <c r="JT17" s="5">
+        <v>1073605</v>
+      </c>
     </row>
-    <row r="18" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -13966,8 +14008,11 @@
       <c r="JS18" s="13">
         <v>157749</v>
       </c>
+      <c r="JT18" s="5">
+        <v>158225</v>
+      </c>
     </row>
-    <row r="19" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14805,8 +14850,11 @@
       <c r="JS19" s="13">
         <v>260429</v>
       </c>
+      <c r="JT19" s="5">
+        <v>261584</v>
+      </c>
     </row>
-    <row r="20" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
@@ -15644,8 +15692,11 @@
       <c r="JS20" s="25">
         <v>1964519</v>
       </c>
+      <c r="JT20" s="25">
+        <v>1972715</v>
+      </c>
     </row>
-    <row r="21" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -16483,8 +16534,11 @@
       <c r="JS21" s="13">
         <v>479469</v>
       </c>
+      <c r="JT21" s="5">
+        <v>479369</v>
+      </c>
     </row>
-    <row r="22" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17322,8 +17376,11 @@
       <c r="JS22" s="13">
         <v>217018</v>
       </c>
+      <c r="JT22" s="5">
+        <v>217395</v>
+      </c>
     </row>
-    <row r="23" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18161,8 +18218,11 @@
       <c r="JS23" s="13">
         <v>178399</v>
       </c>
+      <c r="JT23" s="5">
+        <v>178378</v>
+      </c>
     </row>
-    <row r="24" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -19000,8 +19060,11 @@
       <c r="JS24" s="13">
         <v>1807183</v>
       </c>
+      <c r="JT24" s="5">
+        <v>1820641</v>
+      </c>
     </row>
-    <row r="25" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19839,8 +19902,11 @@
       <c r="JS25" s="13">
         <v>220988</v>
       </c>
+      <c r="JT25" s="5">
+        <v>227470</v>
+      </c>
     </row>
-    <row r="26" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20678,8 +20744,11 @@
       <c r="JS26" s="13">
         <v>634127</v>
       </c>
+      <c r="JT26" s="5">
+        <v>637925</v>
+      </c>
     </row>
-    <row r="27" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -21517,8 +21586,11 @@
       <c r="JS27" s="13">
         <v>676216</v>
       </c>
+      <c r="JT27" s="5">
+        <v>681441</v>
+      </c>
     </row>
-    <row r="28" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22356,8 +22428,11 @@
       <c r="JS28" s="13">
         <v>487185</v>
       </c>
+      <c r="JT28" s="5">
+        <v>490183</v>
+      </c>
     </row>
-    <row r="29" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -23195,8 +23270,11 @@
       <c r="JS29" s="13">
         <v>464403</v>
       </c>
+      <c r="JT29" s="5">
+        <v>471834</v>
+      </c>
     </row>
-    <row r="30" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24034,8 +24112,11 @@
       <c r="JS30" s="13">
         <v>610874</v>
       </c>
+      <c r="JT30" s="5">
+        <v>619013</v>
+      </c>
     </row>
-    <row r="31" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24873,8 +24954,11 @@
       <c r="JS31" s="13">
         <v>628318</v>
       </c>
+      <c r="JT31" s="5">
+        <v>667678</v>
+      </c>
     </row>
-    <row r="32" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25712,8 +25796,11 @@
       <c r="JS32" s="13">
         <v>240999</v>
       </c>
+      <c r="JT32" s="5">
+        <v>243760</v>
+      </c>
     </row>
-    <row r="33" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26551,8 +26638,11 @@
       <c r="JS33" s="13">
         <v>711372</v>
       </c>
+      <c r="JT33" s="5">
+        <v>699400</v>
+      </c>
     </row>
-    <row r="34" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27390,8 +27480,11 @@
       <c r="JS34" s="13">
         <v>112119</v>
       </c>
+      <c r="JT34" s="5">
+        <v>113139</v>
+      </c>
     </row>
-    <row r="35" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28229,8 +28322,11 @@
       <c r="JS35" s="13">
         <v>753421</v>
       </c>
+      <c r="JT35" s="5">
+        <v>763371</v>
+      </c>
     </row>
-    <row r="36" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -29068,8 +29164,11 @@
       <c r="JS36" s="13">
         <v>420905</v>
       </c>
+      <c r="JT36" s="5">
+        <v>421696</v>
+      </c>
     </row>
-    <row r="37" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -29907,8 +30006,11 @@
       <c r="JS37" s="13">
         <v>195650</v>
       </c>
+      <c r="JT37" s="5">
+        <v>197131</v>
+      </c>
     </row>
-    <row r="38" spans="1:279" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -30748,8 +30850,12 @@
       <c r="JS38" s="10">
         <v>21484595</v>
       </c>
+      <c r="JT38" s="10">
+        <f>SUM(JT6:JT37)</f>
+        <v>21796280</v>
+      </c>
     </row>
-    <row r="40" spans="1:279" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:280" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
@@ -30757,6 +30863,9 @@
       <c r="HT40" s="20"/>
     </row>
   </sheetData>
+  <sortState ref="JT6:JU37">
+    <sortCondition ref="JT6"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A4:A5"/>
   </mergeCells>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9476BDAA-F1D1-4796-A4DA-E2256F98D54D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB4731B-27C0-4CC2-B416-5C458FAC9F53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1264,11 +1264,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JT40"/>
+  <dimension ref="A1:JY40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JS31" sqref="JS31"/>
+      <pane xSplit="1" topLeftCell="JK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JU4" sqref="JU4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,20 +1371,21 @@
     <col min="265" max="265" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="266" max="278" width="10.7109375" style="7" customWidth="1"/>
     <col min="281" max="282" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="285" max="285" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:285" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:285" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:280" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:285" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:285" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>28</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:285" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
@@ -3066,7 +3067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3907,8 +3908,13 @@
       <c r="JT6" s="5">
         <v>352010</v>
       </c>
+      <c r="JU6"/>
+      <c r="JV6"/>
+      <c r="JW6"/>
+      <c r="JX6"/>
+      <c r="JY6"/>
     </row>
-    <row r="7" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4744,13 +4750,18 @@
         <v>1028938</v>
       </c>
       <c r="JS7" s="13">
-        <v>1067777</v>
+        <v>1034668</v>
       </c>
       <c r="JT7" s="5">
         <v>1042019</v>
       </c>
+      <c r="JU7"/>
+      <c r="JV7"/>
+      <c r="JW7"/>
+      <c r="JX7"/>
+      <c r="JY7"/>
     </row>
-    <row r="8" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5586,13 +5597,18 @@
         <v>210964</v>
       </c>
       <c r="JS8" s="13">
-        <v>215851</v>
+        <v>214679</v>
       </c>
       <c r="JT8" s="5">
         <v>217046</v>
       </c>
+      <c r="JU8"/>
+      <c r="JV8"/>
+      <c r="JW8"/>
+      <c r="JX8"/>
+      <c r="JY8"/>
     </row>
-    <row r="9" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6433,8 +6449,13 @@
       <c r="JT9" s="5">
         <v>139841</v>
       </c>
+      <c r="JU9"/>
+      <c r="JV9"/>
+      <c r="JW9"/>
+      <c r="JX9"/>
+      <c r="JY9"/>
     </row>
-    <row r="10" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7275,8 +7296,13 @@
       <c r="JT10" s="5">
         <v>243734</v>
       </c>
+      <c r="JU10"/>
+      <c r="JV10"/>
+      <c r="JW10"/>
+      <c r="JX10"/>
+      <c r="JY10"/>
     </row>
-    <row r="11" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8117,8 +8143,13 @@
       <c r="JT11" s="5">
         <v>987450</v>
       </c>
+      <c r="JU11"/>
+      <c r="JV11"/>
+      <c r="JW11"/>
+      <c r="JX11"/>
+      <c r="JY11"/>
     </row>
-    <row r="12" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -8959,8 +8990,13 @@
       <c r="JT12" s="5">
         <v>3411513</v>
       </c>
+      <c r="JU12"/>
+      <c r="JV12"/>
+      <c r="JW12"/>
+      <c r="JX12"/>
+      <c r="JY12"/>
     </row>
-    <row r="13" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9796,13 +9832,18 @@
         <v>832780</v>
       </c>
       <c r="JS13" s="13">
-        <v>840249</v>
+        <v>840308</v>
       </c>
       <c r="JT13" s="5">
         <v>846697</v>
       </c>
+      <c r="JU13"/>
+      <c r="JV13"/>
+      <c r="JW13"/>
+      <c r="JX13"/>
+      <c r="JY13"/>
     </row>
-    <row r="14" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10638,13 +10679,18 @@
         <v>147284</v>
       </c>
       <c r="JS14" s="13">
-        <v>148842</v>
+        <v>147989</v>
       </c>
       <c r="JT14" s="5">
         <v>148585</v>
       </c>
+      <c r="JU14"/>
+      <c r="JV14"/>
+      <c r="JW14"/>
+      <c r="JX14"/>
+      <c r="JY14"/>
     </row>
-    <row r="15" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11485,8 +11531,13 @@
       <c r="JT15" s="5">
         <v>260331</v>
       </c>
+      <c r="JU15"/>
+      <c r="JV15"/>
+      <c r="JW15"/>
+      <c r="JX15"/>
+      <c r="JY15"/>
     </row>
-    <row r="16" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12327,8 +12378,13 @@
       <c r="JT16" s="5">
         <v>1751101</v>
       </c>
+      <c r="JU16"/>
+      <c r="JV16"/>
+      <c r="JW16"/>
+      <c r="JX16"/>
+      <c r="JY16"/>
     </row>
-    <row r="17" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13164,13 +13220,18 @@
         <v>1052198</v>
       </c>
       <c r="JS17" s="13">
-        <v>1060696</v>
+        <v>1065032</v>
       </c>
       <c r="JT17" s="5">
         <v>1073605</v>
       </c>
+      <c r="JU17"/>
+      <c r="JV17"/>
+      <c r="JW17"/>
+      <c r="JX17"/>
+      <c r="JY17"/>
     </row>
-    <row r="18" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14011,8 +14072,13 @@
       <c r="JT18" s="5">
         <v>158225</v>
       </c>
+      <c r="JU18"/>
+      <c r="JV18"/>
+      <c r="JW18"/>
+      <c r="JX18"/>
+      <c r="JY18"/>
     </row>
-    <row r="19" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14853,8 +14919,13 @@
       <c r="JT19" s="5">
         <v>261584</v>
       </c>
+      <c r="JU19"/>
+      <c r="JV19"/>
+      <c r="JW19"/>
+      <c r="JX19"/>
+      <c r="JY19"/>
     </row>
-    <row r="20" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
@@ -15695,8 +15766,13 @@
       <c r="JT20" s="25">
         <v>1972715</v>
       </c>
+      <c r="JU20"/>
+      <c r="JV20"/>
+      <c r="JW20"/>
+      <c r="JX20"/>
+      <c r="JY20"/>
     </row>
-    <row r="21" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -16532,13 +16608,18 @@
         <v>472641</v>
       </c>
       <c r="JS21" s="13">
-        <v>479469</v>
+        <v>475986</v>
       </c>
       <c r="JT21" s="5">
         <v>479369</v>
       </c>
+      <c r="JU21"/>
+      <c r="JV21"/>
+      <c r="JW21"/>
+      <c r="JX21"/>
+      <c r="JY21"/>
     </row>
-    <row r="22" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17379,8 +17460,13 @@
       <c r="JT22" s="5">
         <v>217395</v>
       </c>
+      <c r="JU22"/>
+      <c r="JV22"/>
+      <c r="JW22"/>
+      <c r="JX22"/>
+      <c r="JY22"/>
     </row>
-    <row r="23" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18221,8 +18307,13 @@
       <c r="JT23" s="5">
         <v>178378</v>
       </c>
+      <c r="JU23"/>
+      <c r="JV23"/>
+      <c r="JW23"/>
+      <c r="JX23"/>
+      <c r="JY23"/>
     </row>
-    <row r="24" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -19058,13 +19149,18 @@
         <v>1790298</v>
       </c>
       <c r="JS24" s="13">
-        <v>1807183</v>
+        <v>1807149</v>
       </c>
       <c r="JT24" s="5">
         <v>1820641</v>
       </c>
+      <c r="JU24"/>
+      <c r="JV24"/>
+      <c r="JW24"/>
+      <c r="JX24"/>
+      <c r="JY24"/>
     </row>
-    <row r="25" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19900,13 +19996,18 @@
         <v>224466</v>
       </c>
       <c r="JS25" s="13">
-        <v>220988</v>
+        <v>226566</v>
       </c>
       <c r="JT25" s="5">
         <v>227470</v>
       </c>
+      <c r="JU25"/>
+      <c r="JV25"/>
+      <c r="JW25"/>
+      <c r="JX25"/>
+      <c r="JY25"/>
     </row>
-    <row r="26" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20747,8 +20848,13 @@
       <c r="JT26" s="5">
         <v>637925</v>
       </c>
+      <c r="JU26"/>
+      <c r="JV26"/>
+      <c r="JW26"/>
+      <c r="JX26"/>
+      <c r="JY26"/>
     </row>
-    <row r="27" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -21589,8 +21695,13 @@
       <c r="JT27" s="5">
         <v>681441</v>
       </c>
+      <c r="JU27"/>
+      <c r="JV27"/>
+      <c r="JW27"/>
+      <c r="JX27"/>
+      <c r="JY27"/>
     </row>
-    <row r="28" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22431,8 +22542,13 @@
       <c r="JT28" s="5">
         <v>490183</v>
       </c>
+      <c r="JU28"/>
+      <c r="JV28"/>
+      <c r="JW28"/>
+      <c r="JX28"/>
+      <c r="JY28"/>
     </row>
-    <row r="29" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -23273,8 +23389,13 @@
       <c r="JT29" s="5">
         <v>471834</v>
       </c>
+      <c r="JU29"/>
+      <c r="JV29"/>
+      <c r="JW29"/>
+      <c r="JX29"/>
+      <c r="JY29"/>
     </row>
-    <row r="30" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24115,8 +24236,13 @@
       <c r="JT30" s="5">
         <v>619013</v>
       </c>
+      <c r="JU30"/>
+      <c r="JV30"/>
+      <c r="JW30"/>
+      <c r="JX30"/>
+      <c r="JY30"/>
     </row>
-    <row r="31" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -24952,13 +25078,18 @@
         <v>649294</v>
       </c>
       <c r="JS31" s="13">
-        <v>628318</v>
+        <v>662599</v>
       </c>
       <c r="JT31" s="5">
         <v>667678</v>
       </c>
+      <c r="JU31"/>
+      <c r="JV31"/>
+      <c r="JW31"/>
+      <c r="JX31"/>
+      <c r="JY31"/>
     </row>
-    <row r="32" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25799,8 +25930,13 @@
       <c r="JT32" s="5">
         <v>243760</v>
       </c>
+      <c r="JU32"/>
+      <c r="JV32"/>
+      <c r="JW32"/>
+      <c r="JX32"/>
+      <c r="JY32"/>
     </row>
-    <row r="33" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26636,13 +26772,18 @@
         <v>691670</v>
       </c>
       <c r="JS33" s="13">
-        <v>711372</v>
+        <v>696614</v>
       </c>
       <c r="JT33" s="5">
         <v>699400</v>
       </c>
+      <c r="JU33"/>
+      <c r="JV33"/>
+      <c r="JW33"/>
+      <c r="JX33"/>
+      <c r="JY33"/>
     </row>
-    <row r="34" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27483,8 +27624,13 @@
       <c r="JT34" s="5">
         <v>113139</v>
       </c>
+      <c r="JU34"/>
+      <c r="JV34"/>
+      <c r="JW34"/>
+      <c r="JX34"/>
+      <c r="JY34"/>
     </row>
-    <row r="35" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28320,13 +28466,18 @@
         <v>759626</v>
       </c>
       <c r="JS35" s="13">
-        <v>753421</v>
+        <v>762576</v>
       </c>
       <c r="JT35" s="5">
         <v>763371</v>
       </c>
+      <c r="JU35"/>
+      <c r="JV35"/>
+      <c r="JW35"/>
+      <c r="JX35"/>
+      <c r="JY35"/>
     </row>
-    <row r="36" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -29167,8 +29318,13 @@
       <c r="JT36" s="5">
         <v>421696</v>
       </c>
+      <c r="JU36"/>
+      <c r="JV36"/>
+      <c r="JW36"/>
+      <c r="JX36"/>
+      <c r="JY36"/>
     </row>
-    <row r="37" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -30009,8 +30165,13 @@
       <c r="JT37" s="5">
         <v>197131</v>
       </c>
+      <c r="JU37"/>
+      <c r="JV37"/>
+      <c r="JW37"/>
+      <c r="JX37"/>
+      <c r="JY37"/>
     </row>
-    <row r="38" spans="1:280" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -30854,8 +31015,13 @@
         <f>SUM(JT6:JT37)</f>
         <v>21796280</v>
       </c>
+      <c r="JU38"/>
+      <c r="JV38"/>
+      <c r="JW38"/>
+      <c r="JX38"/>
+      <c r="JY38"/>
     </row>
-    <row r="40" spans="1:280" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:285" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20397"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB4731B-27C0-4CC2-B416-5C458FAC9F53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="ta entidades" sheetId="1" r:id="rId1"/>
@@ -192,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1019,23 +1018,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1071,23 +1053,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1263,12 +1228,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JY40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="JK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JU4" sqref="JU4"/>
+      <selection pane="topRight" activeCell="JU4" sqref="JU4:JU38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iieg\OneDrive\Escritorio\Susana\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6348"/>
   </bookViews>
   <sheets>
     <sheet name="ta entidades" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -555,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -682,6 +682,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -769,6 +782,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -815,33 +848,33 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,38 +884,50 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1229,129 +1274,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JY40"/>
+  <dimension ref="A1:JU40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JU4" sqref="JU4:JU38"/>
+      <pane xSplit="1" topLeftCell="JJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JX18" sqref="JX18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="33" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="33" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="43" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.140625" style="7" customWidth="1"/>
-    <col min="45" max="45" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="43" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.109375" style="7" customWidth="1"/>
+    <col min="45" max="45" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="11" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="11" bestFit="1" customWidth="1"/>
-    <col min="61" max="69" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="69" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="11" bestFit="1" customWidth="1"/>
-    <col min="73" max="81" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="81" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="11" bestFit="1" customWidth="1"/>
-    <col min="85" max="93" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="93" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="11" bestFit="1" customWidth="1"/>
-    <col min="97" max="105" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="97" max="105" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="11" bestFit="1" customWidth="1"/>
-    <col min="109" max="117" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="109" max="117" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="11" bestFit="1" customWidth="1"/>
-    <col min="121" max="129" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="121" max="129" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="11" bestFit="1" customWidth="1"/>
-    <col min="133" max="141" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="133" max="141" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="11" bestFit="1" customWidth="1"/>
-    <col min="145" max="153" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="145" max="153" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="156" max="156" width="11" bestFit="1" customWidth="1"/>
-    <col min="157" max="165" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="157" max="165" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="168" max="168" width="11" bestFit="1" customWidth="1"/>
-    <col min="169" max="177" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="169" max="177" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="180" max="180" width="11" bestFit="1" customWidth="1"/>
-    <col min="181" max="189" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="181" max="189" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="192" max="192" width="11" bestFit="1" customWidth="1"/>
-    <col min="193" max="201" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="193" max="201" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="204" max="204" width="11" bestFit="1" customWidth="1"/>
-    <col min="205" max="213" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="205" max="213" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="216" max="216" width="11" bestFit="1" customWidth="1"/>
-    <col min="217" max="225" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="217" max="225" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="11" bestFit="1" customWidth="1"/>
-    <col min="229" max="231" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="232" max="232" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="233" max="235" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="236" max="236" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="237" max="237" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="229" max="231" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="10.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="233" max="235" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="236" max="236" width="10.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="237" max="237" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="10.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="240" max="240" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="242" max="247" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="248" max="249" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="10.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="242" max="247" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="248" max="249" width="10.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="10.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="253" max="261" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="262" max="264" width="10.5703125" style="7" customWidth="1"/>
-    <col min="265" max="265" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="266" max="278" width="10.7109375" style="7" customWidth="1"/>
-    <col min="281" max="282" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="285" max="285" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="253" max="261" width="10.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="262" max="264" width="10.6640625" style="7" customWidth="1"/>
+    <col min="265" max="265" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="266" max="278" width="10.77734375" style="7" customWidth="1"/>
+    <col min="280" max="280" width="11.5546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:285" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+    <row r="3" spans="1:281" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="16">
@@ -2182,7 +2226,7 @@
       <c r="JQ4" s="33">
         <v>2022</v>
       </c>
-      <c r="JR4" s="33">
+      <c r="JR4" s="32">
         <v>2023</v>
       </c>
       <c r="JS4" s="33">
@@ -2191,9 +2235,12 @@
       <c r="JT4" s="33">
         <v>2023</v>
       </c>
+      <c r="JU4" s="34">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:285" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:281" x14ac:dyDescent="0.3">
+      <c r="A5" s="41"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
@@ -3007,22 +3054,22 @@
       <c r="JL5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="JM5" s="19" t="s">
+      <c r="JM5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="JN5" s="19" t="s">
+      <c r="JN5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="JO5" s="19" t="s">
+      <c r="JO5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="JP5" s="19" t="s">
+      <c r="JP5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="JQ5" s="19" t="s">
+      <c r="JQ5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="JR5" s="19" t="s">
+      <c r="JR5" s="31" t="s">
         <v>29</v>
       </c>
       <c r="JS5" s="19" t="s">
@@ -3031,8 +3078,11 @@
       <c r="JT5" s="19" t="s">
         <v>31</v>
       </c>
+      <c r="JU5" s="39" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3864,22 +3914,20 @@
       <c r="JQ6" s="13">
         <v>342215</v>
       </c>
-      <c r="JR6" s="13">
+      <c r="JR6" s="2">
         <v>344328</v>
       </c>
-      <c r="JS6" s="13">
+      <c r="JS6" s="3">
         <v>348017</v>
       </c>
-      <c r="JT6" s="5">
+      <c r="JT6" s="3">
         <v>352010</v>
       </c>
-      <c r="JU6"/>
-      <c r="JV6"/>
-      <c r="JW6"/>
-      <c r="JX6"/>
-      <c r="JY6"/>
+      <c r="JU6" s="40">
+        <v>350248</v>
+      </c>
     </row>
-    <row r="7" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4711,22 +4759,20 @@
       <c r="JQ7" s="13">
         <v>1011231</v>
       </c>
-      <c r="JR7" s="13">
+      <c r="JR7" s="12">
         <v>1028938</v>
       </c>
       <c r="JS7" s="13">
         <v>1034668</v>
       </c>
-      <c r="JT7" s="5">
+      <c r="JT7" s="13">
         <v>1042019</v>
       </c>
-      <c r="JU7"/>
-      <c r="JV7"/>
-      <c r="JW7"/>
-      <c r="JX7"/>
-      <c r="JY7"/>
+      <c r="JU7" s="36">
+        <v>1044130</v>
+      </c>
     </row>
-    <row r="8" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5558,22 +5604,20 @@
       <c r="JQ8" s="13">
         <v>209025</v>
       </c>
-      <c r="JR8" s="13">
+      <c r="JR8" s="12">
         <v>210964</v>
       </c>
       <c r="JS8" s="13">
         <v>214679</v>
       </c>
-      <c r="JT8" s="5">
+      <c r="JT8" s="13">
         <v>217046</v>
       </c>
-      <c r="JU8"/>
-      <c r="JV8"/>
-      <c r="JW8"/>
-      <c r="JX8"/>
-      <c r="JY8"/>
+      <c r="JU8" s="36">
+        <v>217679</v>
+      </c>
     </row>
-    <row r="9" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6405,22 +6449,20 @@
       <c r="JQ9" s="13">
         <v>137105</v>
       </c>
-      <c r="JR9" s="13">
+      <c r="JR9" s="12">
         <v>138820</v>
       </c>
       <c r="JS9" s="13">
         <v>139410</v>
       </c>
-      <c r="JT9" s="5">
+      <c r="JT9" s="13">
         <v>139841</v>
       </c>
-      <c r="JU9"/>
-      <c r="JV9"/>
-      <c r="JW9"/>
-      <c r="JX9"/>
-      <c r="JY9"/>
+      <c r="JU9" s="36">
+        <v>140182</v>
+      </c>
     </row>
-    <row r="10" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7252,22 +7294,20 @@
       <c r="JQ10" s="13">
         <v>241142</v>
       </c>
-      <c r="JR10" s="13">
+      <c r="JR10" s="12">
         <v>240012</v>
       </c>
       <c r="JS10" s="13">
         <v>241547</v>
       </c>
-      <c r="JT10" s="5">
+      <c r="JT10" s="13">
         <v>243734</v>
       </c>
-      <c r="JU10"/>
-      <c r="JV10"/>
-      <c r="JW10"/>
-      <c r="JX10"/>
-      <c r="JY10"/>
+      <c r="JU10" s="36">
+        <v>245920</v>
+      </c>
     </row>
-    <row r="11" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8099,22 +8139,20 @@
       <c r="JQ11" s="13">
         <v>962905</v>
       </c>
-      <c r="JR11" s="13">
+      <c r="JR11" s="12">
         <v>974271</v>
       </c>
       <c r="JS11" s="13">
         <v>981673</v>
       </c>
-      <c r="JT11" s="5">
+      <c r="JT11" s="13">
         <v>987450</v>
       </c>
-      <c r="JU11"/>
-      <c r="JV11"/>
-      <c r="JW11"/>
-      <c r="JX11"/>
-      <c r="JY11"/>
+      <c r="JU11" s="36">
+        <v>986550</v>
+      </c>
     </row>
-    <row r="12" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -8946,22 +8984,20 @@
       <c r="JQ12" s="13">
         <v>3394982</v>
       </c>
-      <c r="JR12" s="13">
+      <c r="JR12" s="12">
         <v>3378694</v>
       </c>
       <c r="JS12" s="13">
         <v>3397269</v>
       </c>
-      <c r="JT12" s="5">
+      <c r="JT12" s="13">
         <v>3411513</v>
       </c>
-      <c r="JU12"/>
-      <c r="JV12"/>
-      <c r="JW12"/>
-      <c r="JX12"/>
-      <c r="JY12"/>
+      <c r="JU12" s="36">
+        <v>3421435</v>
+      </c>
     </row>
-    <row r="13" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9793,22 +9829,20 @@
       <c r="JQ13" s="13">
         <v>825212</v>
       </c>
-      <c r="JR13" s="13">
+      <c r="JR13" s="12">
         <v>832780</v>
       </c>
       <c r="JS13" s="13">
         <v>840308</v>
       </c>
-      <c r="JT13" s="5">
+      <c r="JT13" s="13">
         <v>846697</v>
       </c>
-      <c r="JU13"/>
-      <c r="JV13"/>
-      <c r="JW13"/>
-      <c r="JX13"/>
-      <c r="JY13"/>
+      <c r="JU13" s="36">
+        <v>850971</v>
+      </c>
     </row>
-    <row r="14" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10640,22 +10674,20 @@
       <c r="JQ14" s="13">
         <v>146321</v>
       </c>
-      <c r="JR14" s="13">
+      <c r="JR14" s="12">
         <v>147284</v>
       </c>
       <c r="JS14" s="13">
         <v>147989</v>
       </c>
-      <c r="JT14" s="5">
+      <c r="JT14" s="13">
         <v>148585</v>
       </c>
-      <c r="JU14"/>
-      <c r="JV14"/>
-      <c r="JW14"/>
-      <c r="JX14"/>
-      <c r="JY14"/>
+      <c r="JU14" s="36">
+        <v>149082</v>
+      </c>
     </row>
-    <row r="15" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11487,22 +11519,20 @@
       <c r="JQ15" s="13">
         <v>256778</v>
       </c>
-      <c r="JR15" s="13">
+      <c r="JR15" s="12">
         <v>258023</v>
       </c>
       <c r="JS15" s="13">
         <v>260506</v>
       </c>
-      <c r="JT15" s="5">
+      <c r="JT15" s="13">
         <v>260331</v>
       </c>
-      <c r="JU15"/>
-      <c r="JV15"/>
-      <c r="JW15"/>
-      <c r="JX15"/>
-      <c r="JY15"/>
+      <c r="JU15" s="36">
+        <v>260824</v>
+      </c>
     </row>
-    <row r="16" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12334,22 +12364,20 @@
       <c r="JQ16" s="13">
         <v>1732700</v>
       </c>
-      <c r="JR16" s="13">
+      <c r="JR16" s="12">
         <v>1726186</v>
       </c>
       <c r="JS16" s="13">
         <v>1737289</v>
       </c>
-      <c r="JT16" s="5">
+      <c r="JT16" s="13">
         <v>1751101</v>
       </c>
-      <c r="JU16"/>
-      <c r="JV16"/>
-      <c r="JW16"/>
-      <c r="JX16"/>
-      <c r="JY16"/>
+      <c r="JU16" s="36">
+        <v>1755514</v>
+      </c>
     </row>
-    <row r="17" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13181,22 +13209,20 @@
       <c r="JQ17" s="13">
         <v>1046349</v>
       </c>
-      <c r="JR17" s="13">
+      <c r="JR17" s="12">
         <v>1052198</v>
       </c>
       <c r="JS17" s="13">
         <v>1065032</v>
       </c>
-      <c r="JT17" s="5">
+      <c r="JT17" s="13">
         <v>1073605</v>
       </c>
-      <c r="JU17"/>
-      <c r="JV17"/>
-      <c r="JW17"/>
-      <c r="JX17"/>
-      <c r="JY17"/>
+      <c r="JU17" s="36">
+        <v>1077268</v>
+      </c>
     </row>
-    <row r="18" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14028,22 +14054,20 @@
       <c r="JQ18" s="13">
         <v>159520</v>
       </c>
-      <c r="JR18" s="13">
+      <c r="JR18" s="12">
         <v>156417</v>
       </c>
       <c r="JS18" s="13">
         <v>157749</v>
       </c>
-      <c r="JT18" s="5">
+      <c r="JT18" s="13">
         <v>158225</v>
       </c>
-      <c r="JU18"/>
-      <c r="JV18"/>
-      <c r="JW18"/>
-      <c r="JX18"/>
-      <c r="JY18"/>
+      <c r="JU18" s="36">
+        <v>158324</v>
+      </c>
     </row>
-    <row r="19" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -14875,22 +14899,20 @@
       <c r="JQ19" s="13">
         <v>256643</v>
       </c>
-      <c r="JR19" s="13">
+      <c r="JR19" s="12">
         <v>258198</v>
       </c>
       <c r="JS19" s="13">
         <v>260429</v>
       </c>
-      <c r="JT19" s="5">
+      <c r="JT19" s="13">
         <v>261584</v>
       </c>
-      <c r="JU19"/>
-      <c r="JV19"/>
-      <c r="JW19"/>
-      <c r="JX19"/>
-      <c r="JY19"/>
+      <c r="JU19" s="36">
+        <v>263144</v>
+      </c>
     </row>
-    <row r="20" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>12</v>
       </c>
@@ -15722,22 +15744,20 @@
       <c r="JQ20" s="25">
         <v>1932962</v>
       </c>
-      <c r="JR20" s="25">
+      <c r="JR20" s="37">
         <v>1951256</v>
       </c>
-      <c r="JS20" s="25">
+      <c r="JS20" s="35">
         <v>1964519</v>
       </c>
-      <c r="JT20" s="25">
+      <c r="JT20" s="35">
         <v>1972715</v>
       </c>
-      <c r="JU20"/>
-      <c r="JV20"/>
-      <c r="JW20"/>
-      <c r="JX20"/>
-      <c r="JY20"/>
+      <c r="JU20" s="38">
+        <v>1973202</v>
+      </c>
     </row>
-    <row r="21" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -16569,22 +16589,20 @@
       <c r="JQ21" s="13">
         <v>471219</v>
       </c>
-      <c r="JR21" s="13">
+      <c r="JR21" s="12">
         <v>472641</v>
       </c>
       <c r="JS21" s="13">
         <v>475986</v>
       </c>
-      <c r="JT21" s="5">
+      <c r="JT21" s="13">
         <v>479369</v>
       </c>
-      <c r="JU21"/>
-      <c r="JV21"/>
-      <c r="JW21"/>
-      <c r="JX21"/>
-      <c r="JY21"/>
+      <c r="JU21" s="36">
+        <v>477659</v>
+      </c>
     </row>
-    <row r="22" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17416,22 +17434,20 @@
       <c r="JQ22" s="13">
         <v>215779</v>
       </c>
-      <c r="JR22" s="13">
+      <c r="JR22" s="12">
         <v>214502</v>
       </c>
       <c r="JS22" s="13">
         <v>217018</v>
       </c>
-      <c r="JT22" s="5">
+      <c r="JT22" s="13">
         <v>217395</v>
       </c>
-      <c r="JU22"/>
-      <c r="JV22"/>
-      <c r="JW22"/>
-      <c r="JX22"/>
-      <c r="JY22"/>
+      <c r="JU22" s="36">
+        <v>216611</v>
+      </c>
     </row>
-    <row r="23" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18263,22 +18279,20 @@
       <c r="JQ23" s="13">
         <v>172495</v>
       </c>
-      <c r="JR23" s="13">
+      <c r="JR23" s="12">
         <v>176638</v>
       </c>
       <c r="JS23" s="13">
         <v>178399</v>
       </c>
-      <c r="JT23" s="5">
+      <c r="JT23" s="13">
         <v>178378</v>
       </c>
-      <c r="JU23"/>
-      <c r="JV23"/>
-      <c r="JW23"/>
-      <c r="JX23"/>
-      <c r="JY23"/>
+      <c r="JU23" s="36">
+        <v>179172</v>
+      </c>
     </row>
-    <row r="24" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -19110,22 +19124,20 @@
       <c r="JQ24" s="13">
         <v>1773101</v>
       </c>
-      <c r="JR24" s="13">
+      <c r="JR24" s="12">
         <v>1790298</v>
       </c>
       <c r="JS24" s="13">
         <v>1807149</v>
       </c>
-      <c r="JT24" s="5">
+      <c r="JT24" s="13">
         <v>1820641</v>
       </c>
-      <c r="JU24"/>
-      <c r="JV24"/>
-      <c r="JW24"/>
-      <c r="JX24"/>
-      <c r="JY24"/>
+      <c r="JU24" s="36">
+        <v>1826259</v>
+      </c>
     </row>
-    <row r="25" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -19957,22 +19969,20 @@
       <c r="JQ25" s="13">
         <v>223694</v>
       </c>
-      <c r="JR25" s="13">
+      <c r="JR25" s="12">
         <v>224466</v>
       </c>
       <c r="JS25" s="13">
         <v>226566</v>
       </c>
-      <c r="JT25" s="5">
+      <c r="JT25" s="13">
         <v>227470</v>
       </c>
-      <c r="JU25"/>
-      <c r="JV25"/>
-      <c r="JW25"/>
-      <c r="JX25"/>
-      <c r="JY25"/>
+      <c r="JU25" s="36">
+        <v>225008</v>
+      </c>
     </row>
-    <row r="26" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20804,22 +20814,20 @@
       <c r="JQ26" s="13">
         <v>628792</v>
       </c>
-      <c r="JR26" s="13">
+      <c r="JR26" s="12">
         <v>629907</v>
       </c>
       <c r="JS26" s="13">
         <v>634127</v>
       </c>
-      <c r="JT26" s="5">
+      <c r="JT26" s="13">
         <v>637925</v>
       </c>
-      <c r="JU26"/>
-      <c r="JV26"/>
-      <c r="JW26"/>
-      <c r="JX26"/>
-      <c r="JY26"/>
+      <c r="JU26" s="36">
+        <v>637791</v>
+      </c>
     </row>
-    <row r="27" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -21651,22 +21659,20 @@
       <c r="JQ27" s="13">
         <v>662609</v>
       </c>
-      <c r="JR27" s="13">
+      <c r="JR27" s="12">
         <v>668677</v>
       </c>
       <c r="JS27" s="13">
         <v>676216</v>
       </c>
-      <c r="JT27" s="5">
+      <c r="JT27" s="13">
         <v>681441</v>
       </c>
-      <c r="JU27"/>
-      <c r="JV27"/>
-      <c r="JW27"/>
-      <c r="JX27"/>
-      <c r="JY27"/>
+      <c r="JU27" s="36">
+        <v>682969</v>
+      </c>
     </row>
-    <row r="28" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22498,22 +22504,20 @@
       <c r="JQ28" s="13">
         <v>468732</v>
       </c>
-      <c r="JR28" s="13">
+      <c r="JR28" s="12">
         <v>479784</v>
       </c>
       <c r="JS28" s="13">
         <v>487185</v>
       </c>
-      <c r="JT28" s="5">
+      <c r="JT28" s="13">
         <v>490183</v>
       </c>
-      <c r="JU28"/>
-      <c r="JV28"/>
-      <c r="JW28"/>
-      <c r="JX28"/>
-      <c r="JY28"/>
+      <c r="JU28" s="36">
+        <v>491986</v>
+      </c>
     </row>
-    <row r="29" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -23345,22 +23349,20 @@
       <c r="JQ29" s="13">
         <v>461059</v>
       </c>
-      <c r="JR29" s="13">
+      <c r="JR29" s="12">
         <v>458353</v>
       </c>
       <c r="JS29" s="13">
         <v>464403</v>
       </c>
-      <c r="JT29" s="5">
+      <c r="JT29" s="13">
         <v>471834</v>
       </c>
-      <c r="JU29"/>
-      <c r="JV29"/>
-      <c r="JW29"/>
-      <c r="JX29"/>
-      <c r="JY29"/>
+      <c r="JU29" s="36">
+        <v>472317</v>
+      </c>
     </row>
-    <row r="30" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24192,22 +24194,20 @@
       <c r="JQ30" s="13">
         <v>598307</v>
       </c>
-      <c r="JR30" s="13">
+      <c r="JR30" s="12">
         <v>611206</v>
       </c>
       <c r="JS30" s="13">
         <v>610874</v>
       </c>
-      <c r="JT30" s="5">
+      <c r="JT30" s="13">
         <v>619013</v>
       </c>
-      <c r="JU30"/>
-      <c r="JV30"/>
-      <c r="JW30"/>
-      <c r="JX30"/>
-      <c r="JY30"/>
+      <c r="JU30" s="36">
+        <v>615722</v>
+      </c>
     </row>
-    <row r="31" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -25039,22 +25039,20 @@
       <c r="JQ31" s="13">
         <v>640492</v>
       </c>
-      <c r="JR31" s="13">
+      <c r="JR31" s="12">
         <v>649294</v>
       </c>
       <c r="JS31" s="13">
         <v>662599</v>
       </c>
-      <c r="JT31" s="5">
+      <c r="JT31" s="13">
         <v>667678</v>
       </c>
-      <c r="JU31"/>
-      <c r="JV31"/>
-      <c r="JW31"/>
-      <c r="JX31"/>
-      <c r="JY31"/>
+      <c r="JU31" s="36">
+        <v>666038</v>
+      </c>
     </row>
-    <row r="32" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -25886,22 +25884,20 @@
       <c r="JQ32" s="13">
         <v>236579</v>
       </c>
-      <c r="JR32" s="13">
+      <c r="JR32" s="12">
         <v>236993</v>
       </c>
       <c r="JS32" s="13">
         <v>240999</v>
       </c>
-      <c r="JT32" s="5">
+      <c r="JT32" s="13">
         <v>243760</v>
       </c>
-      <c r="JU32"/>
-      <c r="JV32"/>
-      <c r="JW32"/>
-      <c r="JX32"/>
-      <c r="JY32"/>
+      <c r="JU32" s="36">
+        <v>244054</v>
+      </c>
     </row>
-    <row r="33" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26733,22 +26729,20 @@
       <c r="JQ33" s="13">
         <v>686313</v>
       </c>
-      <c r="JR33" s="13">
+      <c r="JR33" s="12">
         <v>691670</v>
       </c>
       <c r="JS33" s="13">
         <v>696614</v>
       </c>
-      <c r="JT33" s="5">
+      <c r="JT33" s="13">
         <v>699400</v>
       </c>
-      <c r="JU33"/>
-      <c r="JV33"/>
-      <c r="JW33"/>
-      <c r="JX33"/>
-      <c r="JY33"/>
+      <c r="JU33" s="36">
+        <v>697273</v>
+      </c>
     </row>
-    <row r="34" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27580,22 +27574,20 @@
       <c r="JQ34" s="13">
         <v>109884</v>
       </c>
-      <c r="JR34" s="13">
+      <c r="JR34" s="12">
         <v>110476</v>
       </c>
       <c r="JS34" s="13">
         <v>112119</v>
       </c>
-      <c r="JT34" s="5">
+      <c r="JT34" s="13">
         <v>113139</v>
       </c>
-      <c r="JU34"/>
-      <c r="JV34"/>
-      <c r="JW34"/>
-      <c r="JX34"/>
-      <c r="JY34"/>
+      <c r="JU34" s="36">
+        <v>113760</v>
+      </c>
     </row>
-    <row r="35" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28427,22 +28419,20 @@
       <c r="JQ35" s="13">
         <v>759569</v>
       </c>
-      <c r="JR35" s="13">
+      <c r="JR35" s="12">
         <v>759626</v>
       </c>
       <c r="JS35" s="13">
         <v>762576</v>
       </c>
-      <c r="JT35" s="5">
+      <c r="JT35" s="13">
         <v>763371</v>
       </c>
-      <c r="JU35"/>
-      <c r="JV35"/>
-      <c r="JW35"/>
-      <c r="JX35"/>
-      <c r="JY35"/>
+      <c r="JU35" s="36">
+        <v>759530</v>
+      </c>
     </row>
-    <row r="36" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -29274,22 +29264,20 @@
       <c r="JQ36" s="13">
         <v>414439</v>
       </c>
-      <c r="JR36" s="13">
+      <c r="JR36" s="12">
         <v>417035</v>
       </c>
       <c r="JS36" s="13">
         <v>420905</v>
       </c>
-      <c r="JT36" s="5">
+      <c r="JT36" s="13">
         <v>421696</v>
       </c>
-      <c r="JU36"/>
-      <c r="JV36"/>
-      <c r="JW36"/>
-      <c r="JX36"/>
-      <c r="JY36"/>
+      <c r="JU36" s="36">
+        <v>421816</v>
+      </c>
     </row>
-    <row r="37" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -30121,22 +30109,20 @@
       <c r="JQ37" s="13">
         <v>194743</v>
       </c>
-      <c r="JR37" s="13">
+      <c r="JR37" s="12">
         <v>194660</v>
       </c>
       <c r="JS37" s="13">
         <v>195650</v>
       </c>
-      <c r="JT37" s="5">
+      <c r="JT37" s="13">
         <v>197131</v>
       </c>
-      <c r="JU37"/>
-      <c r="JV37"/>
-      <c r="JW37"/>
-      <c r="JX37"/>
-      <c r="JY37"/>
+      <c r="JU37" s="36">
+        <v>197853</v>
+      </c>
     </row>
-    <row r="38" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:281" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -30970,23 +30956,20 @@
         <f>SUM(JQ6:JQ37)</f>
         <v>21372896</v>
       </c>
-      <c r="JR38" s="10">
+      <c r="JR38" s="14">
         <v>21484595</v>
       </c>
       <c r="JS38" s="10">
-        <v>21484595</v>
+        <v>21660469</v>
       </c>
       <c r="JT38" s="10">
-        <f>SUM(JT6:JT37)</f>
         <v>21796280</v>
       </c>
-      <c r="JU38"/>
-      <c r="JV38"/>
-      <c r="JW38"/>
-      <c r="JX38"/>
-      <c r="JY38"/>
+      <c r="JU38" s="42">
+        <v>21820291</v>
+      </c>
     </row>
-    <row r="40" spans="1:285" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:281" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
@@ -30994,9 +30977,6 @@
       <c r="HT40" s="20"/>
     </row>
   </sheetData>
-  <sortState ref="JT6:JU37">
-    <sortCondition ref="JT6"/>
-  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A4:A5"/>
   </mergeCells>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A06329-869B-41DB-AE4E-F7E39876CFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C32AAE7-BDC7-4BD6-94CC-7A907B5C3EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1283,11 +1283,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JW40"/>
+  <dimension ref="A1:JX40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JZ10" sqref="JZ10"/>
+      <pane xSplit="1" topLeftCell="JI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JZ13" sqref="JZ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,17 +1385,17 @@
     <col min="266" max="278" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>28</v>
       </c>
@@ -2242,11 +2242,14 @@
       <c r="JV4" s="31">
         <v>2023</v>
       </c>
-      <c r="JW4" s="32">
+      <c r="JW4" s="31">
         <v>2023</v>
       </c>
+      <c r="JX4" s="32">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
@@ -3091,11 +3094,14 @@
       <c r="JV5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="JW5" s="38" t="s">
+      <c r="JW5" s="28" t="s">
         <v>34</v>
       </c>
+      <c r="JX5" s="38" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3942,11 +3948,14 @@
       <c r="JV6" s="5">
         <v>351682</v>
       </c>
-      <c r="JW6" s="34">
+      <c r="JW6" s="5">
         <v>352869</v>
       </c>
+      <c r="JX6" s="34">
+        <v>353314</v>
+      </c>
     </row>
-    <row r="7" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4793,11 +4802,14 @@
       <c r="JV7" s="5">
         <v>1043557</v>
       </c>
-      <c r="JW7" s="34">
+      <c r="JW7" s="5">
         <v>1045333</v>
       </c>
+      <c r="JX7" s="34">
+        <v>1044146</v>
+      </c>
     </row>
-    <row r="8" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5644,11 +5656,14 @@
       <c r="JV8" s="5">
         <v>221292</v>
       </c>
-      <c r="JW8" s="34">
+      <c r="JW8" s="5">
         <v>223911</v>
       </c>
+      <c r="JX8" s="34">
+        <v>221789</v>
+      </c>
     </row>
-    <row r="9" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6495,11 +6510,14 @@
       <c r="JV9" s="5">
         <v>139905</v>
       </c>
-      <c r="JW9" s="34">
+      <c r="JW9" s="5">
         <v>141245</v>
       </c>
+      <c r="JX9" s="34">
+        <v>141252</v>
+      </c>
     </row>
-    <row r="10" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7346,11 +7364,14 @@
       <c r="JV10" s="5">
         <v>243926</v>
       </c>
-      <c r="JW10" s="34">
+      <c r="JW10" s="5">
         <v>245769</v>
       </c>
+      <c r="JX10" s="34">
+        <v>246191</v>
+      </c>
     </row>
-    <row r="11" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8197,11 +8218,14 @@
       <c r="JV11" s="5">
         <v>988994</v>
       </c>
-      <c r="JW11" s="34">
+      <c r="JW11" s="5">
         <v>989243</v>
       </c>
+      <c r="JX11" s="34">
+        <v>985556</v>
+      </c>
     </row>
-    <row r="12" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -9048,11 +9072,14 @@
       <c r="JV12" s="5">
         <v>3434727</v>
       </c>
-      <c r="JW12" s="34">
+      <c r="JW12" s="5">
         <v>3435501</v>
       </c>
+      <c r="JX12" s="34">
+        <v>3437595</v>
+      </c>
     </row>
-    <row r="13" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9899,11 +9926,14 @@
       <c r="JV13" s="5">
         <v>854579</v>
       </c>
-      <c r="JW13" s="34">
+      <c r="JW13" s="5">
         <v>856217</v>
       </c>
+      <c r="JX13" s="34">
+        <v>858097</v>
+      </c>
     </row>
-    <row r="14" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10750,11 +10780,14 @@
       <c r="JV14" s="5">
         <v>148990</v>
       </c>
-      <c r="JW14" s="34">
+      <c r="JW14" s="5">
         <v>147497</v>
       </c>
+      <c r="JX14" s="34">
+        <v>147717</v>
+      </c>
     </row>
-    <row r="15" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11601,11 +11634,14 @@
       <c r="JV15" s="5">
         <v>261209</v>
       </c>
-      <c r="JW15" s="34">
+      <c r="JW15" s="5">
         <v>260828</v>
       </c>
+      <c r="JX15" s="34">
+        <v>259414</v>
+      </c>
     </row>
-    <row r="16" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12452,11 +12488,14 @@
       <c r="JV16" s="5">
         <v>1770513</v>
       </c>
-      <c r="JW16" s="34">
+      <c r="JW16" s="5">
         <v>1774815</v>
       </c>
+      <c r="JX16" s="34">
+        <v>1778037</v>
+      </c>
     </row>
-    <row r="17" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13303,11 +13342,14 @@
       <c r="JV17" s="5">
         <v>1083248</v>
       </c>
-      <c r="JW17" s="34">
+      <c r="JW17" s="5">
         <v>1089716</v>
       </c>
+      <c r="JX17" s="34">
+        <v>1089215</v>
+      </c>
     </row>
-    <row r="18" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14154,11 +14196,14 @@
       <c r="JV18" s="5">
         <v>157429</v>
       </c>
-      <c r="JW18" s="34">
+      <c r="JW18" s="5">
         <v>158647</v>
       </c>
+      <c r="JX18" s="34">
+        <v>161654</v>
+      </c>
     </row>
-    <row r="19" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15005,11 +15050,14 @@
       <c r="JV19" s="5">
         <v>264145</v>
       </c>
-      <c r="JW19" s="34">
+      <c r="JW19" s="5">
         <v>265857</v>
       </c>
+      <c r="JX19" s="34">
+        <v>265391</v>
+      </c>
     </row>
-    <row r="20" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -15856,11 +15904,14 @@
       <c r="JV20" s="33">
         <v>1974565</v>
       </c>
-      <c r="JW20" s="36">
+      <c r="JW20" s="33">
         <v>1980790</v>
       </c>
+      <c r="JX20" s="36">
+        <v>1981146</v>
+      </c>
     </row>
-    <row r="21" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -16707,11 +16758,14 @@
       <c r="JV21" s="5">
         <v>477373</v>
       </c>
-      <c r="JW21" s="34">
+      <c r="JW21" s="5">
         <v>474510</v>
       </c>
+      <c r="JX21" s="34">
+        <v>473960</v>
+      </c>
     </row>
-    <row r="22" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17558,11 +17612,14 @@
       <c r="JV22" s="5">
         <v>216522</v>
       </c>
-      <c r="JW22" s="34">
+      <c r="JW22" s="5">
         <v>216297</v>
       </c>
+      <c r="JX22" s="34">
+        <v>217388</v>
+      </c>
     </row>
-    <row r="23" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18409,11 +18466,14 @@
       <c r="JV23" s="5">
         <v>179978</v>
       </c>
-      <c r="JW23" s="34">
+      <c r="JW23" s="5">
         <v>180779</v>
       </c>
+      <c r="JX23" s="34">
+        <v>179570</v>
+      </c>
     </row>
-    <row r="24" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -19260,11 +19320,14 @@
       <c r="JV24" s="5">
         <v>1831995</v>
       </c>
-      <c r="JW24" s="34">
+      <c r="JW24" s="5">
         <v>1836446</v>
       </c>
+      <c r="JX24" s="34">
+        <v>1843396</v>
+      </c>
     </row>
-    <row r="25" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20111,11 +20174,14 @@
       <c r="JV25" s="5">
         <v>224316</v>
       </c>
-      <c r="JW25" s="34">
+      <c r="JW25" s="5">
         <v>224997</v>
       </c>
+      <c r="JX25" s="34">
+        <v>225886</v>
+      </c>
     </row>
-    <row r="26" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -20962,11 +21028,14 @@
       <c r="JV26" s="5">
         <v>637794</v>
       </c>
-      <c r="JW26" s="34">
+      <c r="JW26" s="5">
         <v>641125</v>
       </c>
+      <c r="JX26" s="34">
+        <v>644088</v>
+      </c>
     </row>
-    <row r="27" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -21813,11 +21882,14 @@
       <c r="JV27" s="5">
         <v>687827</v>
       </c>
-      <c r="JW27" s="34">
+      <c r="JW27" s="5">
         <v>688819</v>
       </c>
+      <c r="JX27" s="34">
+        <v>690086</v>
+      </c>
     </row>
-    <row r="28" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22664,11 +22736,14 @@
       <c r="JV28" s="5">
         <v>498653</v>
       </c>
-      <c r="JW28" s="34">
+      <c r="JW28" s="5">
         <v>503626</v>
       </c>
+      <c r="JX28" s="34">
+        <v>502969</v>
+      </c>
     </row>
-    <row r="29" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -23515,11 +23590,14 @@
       <c r="JV29" s="5">
         <v>473349</v>
       </c>
-      <c r="JW29" s="34">
+      <c r="JW29" s="5">
         <v>472947</v>
       </c>
+      <c r="JX29" s="34">
+        <v>473609</v>
+      </c>
     </row>
-    <row r="30" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24366,11 +24444,14 @@
       <c r="JV30" s="5">
         <v>595370</v>
       </c>
-      <c r="JW30" s="34">
+      <c r="JW30" s="5">
         <v>582043</v>
       </c>
+      <c r="JX30" s="34">
+        <v>582080</v>
+      </c>
     </row>
-    <row r="31" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -25217,11 +25298,14 @@
       <c r="JV31" s="5">
         <v>664510</v>
       </c>
-      <c r="JW31" s="34">
+      <c r="JW31" s="5">
         <v>662263</v>
       </c>
+      <c r="JX31" s="34">
+        <v>651398</v>
+      </c>
     </row>
-    <row r="32" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -26068,11 +26152,14 @@
       <c r="JV32" s="5">
         <v>245443</v>
       </c>
-      <c r="JW32" s="34">
+      <c r="JW32" s="5">
         <v>244679</v>
       </c>
+      <c r="JX32" s="34">
+        <v>245459</v>
+      </c>
     </row>
-    <row r="33" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -26919,11 +27006,14 @@
       <c r="JV33" s="5">
         <v>699836</v>
       </c>
-      <c r="JW33" s="34">
+      <c r="JW33" s="5">
         <v>698058</v>
       </c>
+      <c r="JX33" s="34">
+        <v>696401</v>
+      </c>
     </row>
-    <row r="34" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27770,11 +27860,14 @@
       <c r="JV34" s="5">
         <v>114356</v>
       </c>
-      <c r="JW34" s="34">
+      <c r="JW34" s="5">
         <v>114739</v>
       </c>
+      <c r="JX34" s="34">
+        <v>114464</v>
+      </c>
     </row>
-    <row r="35" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28621,11 +28714,14 @@
       <c r="JV35" s="5">
         <v>754613</v>
       </c>
-      <c r="JW35" s="34">
+      <c r="JW35" s="5">
         <v>753757</v>
       </c>
+      <c r="JX35" s="34">
+        <v>752893</v>
+      </c>
     </row>
-    <row r="36" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -29472,11 +29568,14 @@
       <c r="JV36" s="5">
         <v>423677</v>
       </c>
-      <c r="JW36" s="34">
+      <c r="JW36" s="5">
         <v>424406</v>
       </c>
+      <c r="JX36" s="34">
+        <v>422665</v>
+      </c>
     </row>
-    <row r="37" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -30323,11 +30422,14 @@
       <c r="JV37" s="5">
         <v>198536</v>
       </c>
-      <c r="JW37" s="34">
+      <c r="JW37" s="5">
         <v>199578</v>
       </c>
+      <c r="JX37" s="34">
+        <v>198313</v>
+      </c>
     </row>
-    <row r="38" spans="1:283" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -31176,11 +31278,14 @@
       <c r="JV38" s="9">
         <v>21862909</v>
       </c>
-      <c r="JW38" s="37">
+      <c r="JW38" s="9">
         <v>21887307</v>
       </c>
+      <c r="JX38" s="37">
+        <v>21885139</v>
+      </c>
     </row>
-    <row r="40" spans="1:283" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:284" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C32AAE7-BDC7-4BD6-94CC-7A907B5C3EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B74E59-DDB4-43A7-B104-87199B1BB115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1283,11 +1283,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JX40"/>
+  <dimension ref="A1:JY40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JZ13" sqref="JZ13"/>
+      <pane xSplit="1" topLeftCell="JJ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KB18" sqref="KB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,17 +1385,17 @@
     <col min="266" max="278" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:285" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:285" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:285" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>28</v>
       </c>
@@ -2245,11 +2245,14 @@
       <c r="JW4" s="31">
         <v>2023</v>
       </c>
-      <c r="JX4" s="32">
+      <c r="JX4" s="31">
         <v>2023</v>
       </c>
+      <c r="JY4" s="32">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:285" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
@@ -3097,11 +3100,14 @@
       <c r="JW5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="JX5" s="38" t="s">
+      <c r="JX5" s="28" t="s">
         <v>35</v>
       </c>
+      <c r="JY5" s="38" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3951,11 +3957,14 @@
       <c r="JW6" s="5">
         <v>352869</v>
       </c>
-      <c r="JX6" s="34">
+      <c r="JX6" s="5">
         <v>353314</v>
       </c>
+      <c r="JY6" s="34">
+        <v>355756</v>
+      </c>
     </row>
-    <row r="7" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4805,11 +4814,14 @@
       <c r="JW7" s="5">
         <v>1045333</v>
       </c>
-      <c r="JX7" s="34">
+      <c r="JX7" s="5">
         <v>1044146</v>
       </c>
+      <c r="JY7" s="34">
+        <v>1043482</v>
+      </c>
     </row>
-    <row r="8" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5659,11 +5671,14 @@
       <c r="JW8" s="5">
         <v>223911</v>
       </c>
-      <c r="JX8" s="34">
+      <c r="JX8" s="5">
         <v>221789</v>
       </c>
+      <c r="JY8" s="34">
+        <v>222023</v>
+      </c>
     </row>
-    <row r="9" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6513,11 +6528,14 @@
       <c r="JW9" s="5">
         <v>141245</v>
       </c>
-      <c r="JX9" s="34">
+      <c r="JX9" s="5">
         <v>141252</v>
       </c>
+      <c r="JY9" s="34">
+        <v>142081</v>
+      </c>
     </row>
-    <row r="10" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7367,11 +7385,14 @@
       <c r="JW10" s="5">
         <v>245769</v>
       </c>
-      <c r="JX10" s="34">
+      <c r="JX10" s="5">
         <v>246191</v>
       </c>
+      <c r="JY10" s="34">
+        <v>247892</v>
+      </c>
     </row>
-    <row r="11" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8221,11 +8242,14 @@
       <c r="JW11" s="5">
         <v>989243</v>
       </c>
-      <c r="JX11" s="34">
+      <c r="JX11" s="5">
         <v>985556</v>
       </c>
+      <c r="JY11" s="34">
+        <v>989672</v>
+      </c>
     </row>
-    <row r="12" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -9075,11 +9099,14 @@
       <c r="JW12" s="5">
         <v>3435501</v>
       </c>
-      <c r="JX12" s="34">
+      <c r="JX12" s="5">
         <v>3437595</v>
       </c>
+      <c r="JY12" s="34">
+        <v>3457511</v>
+      </c>
     </row>
-    <row r="13" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9929,11 +9956,14 @@
       <c r="JW13" s="5">
         <v>856217</v>
       </c>
-      <c r="JX13" s="34">
+      <c r="JX13" s="5">
         <v>858097</v>
       </c>
+      <c r="JY13" s="34">
+        <v>864471</v>
+      </c>
     </row>
-    <row r="14" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10783,11 +10813,14 @@
       <c r="JW14" s="5">
         <v>147497</v>
       </c>
-      <c r="JX14" s="34">
+      <c r="JX14" s="5">
         <v>147717</v>
       </c>
+      <c r="JY14" s="34">
+        <v>149276</v>
+      </c>
     </row>
-    <row r="15" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11637,11 +11670,14 @@
       <c r="JW15" s="5">
         <v>260828</v>
       </c>
-      <c r="JX15" s="34">
+      <c r="JX15" s="5">
         <v>259414</v>
       </c>
+      <c r="JY15" s="34">
+        <v>260941</v>
+      </c>
     </row>
-    <row r="16" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12491,11 +12527,14 @@
       <c r="JW16" s="5">
         <v>1774815</v>
       </c>
-      <c r="JX16" s="34">
+      <c r="JX16" s="5">
         <v>1778037</v>
       </c>
+      <c r="JY16" s="34">
+        <v>1780259</v>
+      </c>
     </row>
-    <row r="17" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13345,11 +13384,14 @@
       <c r="JW17" s="5">
         <v>1089716</v>
       </c>
-      <c r="JX17" s="34">
+      <c r="JX17" s="5">
         <v>1089215</v>
       </c>
+      <c r="JY17" s="34">
+        <v>1094757</v>
+      </c>
     </row>
-    <row r="18" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14199,11 +14241,14 @@
       <c r="JW18" s="5">
         <v>158647</v>
       </c>
-      <c r="JX18" s="34">
+      <c r="JX18" s="5">
         <v>161654</v>
       </c>
+      <c r="JY18" s="34">
+        <v>160276</v>
+      </c>
     </row>
-    <row r="19" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15053,11 +15098,14 @@
       <c r="JW19" s="5">
         <v>265857</v>
       </c>
-      <c r="JX19" s="34">
+      <c r="JX19" s="5">
         <v>265391</v>
       </c>
+      <c r="JY19" s="34">
+        <v>268862</v>
+      </c>
     </row>
-    <row r="20" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -15907,11 +15955,14 @@
       <c r="JW20" s="33">
         <v>1980790</v>
       </c>
-      <c r="JX20" s="36">
+      <c r="JX20" s="33">
         <v>1981146</v>
       </c>
+      <c r="JY20" s="36">
+        <v>1988746</v>
+      </c>
     </row>
-    <row r="21" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -16761,11 +16812,14 @@
       <c r="JW21" s="5">
         <v>474510</v>
       </c>
-      <c r="JX21" s="34">
+      <c r="JX21" s="5">
         <v>473960</v>
       </c>
+      <c r="JY21" s="34">
+        <v>474906</v>
+      </c>
     </row>
-    <row r="22" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17615,11 +17669,14 @@
       <c r="JW22" s="5">
         <v>216297</v>
       </c>
-      <c r="JX22" s="34">
+      <c r="JX22" s="5">
         <v>217388</v>
       </c>
+      <c r="JY22" s="34">
+        <v>217650</v>
+      </c>
     </row>
-    <row r="23" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18469,11 +18526,14 @@
       <c r="JW23" s="5">
         <v>180779</v>
       </c>
-      <c r="JX23" s="34">
+      <c r="JX23" s="5">
         <v>179570</v>
       </c>
+      <c r="JY23" s="34">
+        <v>182215</v>
+      </c>
     </row>
-    <row r="24" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -19323,11 +19383,14 @@
       <c r="JW24" s="5">
         <v>1836446</v>
       </c>
-      <c r="JX24" s="34">
+      <c r="JX24" s="5">
         <v>1843396</v>
       </c>
+      <c r="JY24" s="34">
+        <v>1853669</v>
+      </c>
     </row>
-    <row r="25" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20177,11 +20240,14 @@
       <c r="JW25" s="5">
         <v>224997</v>
       </c>
-      <c r="JX25" s="34">
+      <c r="JX25" s="5">
         <v>225886</v>
       </c>
+      <c r="JY25" s="34">
+        <v>225997</v>
+      </c>
     </row>
-    <row r="26" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21031,11 +21097,14 @@
       <c r="JW26" s="5">
         <v>641125</v>
       </c>
-      <c r="JX26" s="34">
+      <c r="JX26" s="5">
         <v>644088</v>
       </c>
+      <c r="JY26" s="34">
+        <v>646699</v>
+      </c>
     </row>
-    <row r="27" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -21885,11 +21954,14 @@
       <c r="JW27" s="5">
         <v>688819</v>
       </c>
-      <c r="JX27" s="34">
+      <c r="JX27" s="5">
         <v>690086</v>
       </c>
+      <c r="JY27" s="34">
+        <v>697978</v>
+      </c>
     </row>
-    <row r="28" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22739,11 +22811,14 @@
       <c r="JW28" s="5">
         <v>503626</v>
       </c>
-      <c r="JX28" s="34">
+      <c r="JX28" s="5">
         <v>502969</v>
       </c>
+      <c r="JY28" s="34">
+        <v>507573</v>
+      </c>
     </row>
-    <row r="29" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -23593,11 +23668,14 @@
       <c r="JW29" s="5">
         <v>472947</v>
       </c>
-      <c r="JX29" s="34">
+      <c r="JX29" s="5">
         <v>473609</v>
       </c>
+      <c r="JY29" s="34">
+        <v>478489</v>
+      </c>
     </row>
-    <row r="30" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24447,11 +24525,14 @@
       <c r="JW30" s="5">
         <v>582043</v>
       </c>
-      <c r="JX30" s="34">
+      <c r="JX30" s="5">
         <v>582080</v>
       </c>
+      <c r="JY30" s="34">
+        <v>586823</v>
+      </c>
     </row>
-    <row r="31" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -25301,11 +25382,14 @@
       <c r="JW31" s="5">
         <v>662263</v>
       </c>
-      <c r="JX31" s="34">
+      <c r="JX31" s="5">
         <v>651398</v>
       </c>
+      <c r="JY31" s="34">
+        <v>657256</v>
+      </c>
     </row>
-    <row r="32" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -26155,11 +26239,14 @@
       <c r="JW32" s="5">
         <v>244679</v>
       </c>
-      <c r="JX32" s="34">
+      <c r="JX32" s="5">
         <v>245459</v>
       </c>
+      <c r="JY32" s="34">
+        <v>243907</v>
+      </c>
     </row>
-    <row r="33" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -27009,11 +27096,14 @@
       <c r="JW33" s="5">
         <v>698058</v>
       </c>
-      <c r="JX33" s="34">
+      <c r="JX33" s="5">
         <v>696401</v>
       </c>
+      <c r="JY33" s="34">
+        <v>700761</v>
+      </c>
     </row>
-    <row r="34" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27863,11 +27953,14 @@
       <c r="JW34" s="5">
         <v>114739</v>
       </c>
-      <c r="JX34" s="34">
+      <c r="JX34" s="5">
         <v>114464</v>
       </c>
+      <c r="JY34" s="34">
+        <v>114467</v>
+      </c>
     </row>
-    <row r="35" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28717,11 +28810,14 @@
       <c r="JW35" s="5">
         <v>753757</v>
       </c>
-      <c r="JX35" s="34">
+      <c r="JX35" s="5">
         <v>752893</v>
       </c>
+      <c r="JY35" s="34">
+        <v>759554</v>
+      </c>
     </row>
-    <row r="36" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -29571,11 +29667,14 @@
       <c r="JW36" s="5">
         <v>424406</v>
       </c>
-      <c r="JX36" s="34">
+      <c r="JX36" s="5">
         <v>422665</v>
       </c>
+      <c r="JY36" s="34">
+        <v>425668</v>
+      </c>
     </row>
-    <row r="37" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -30425,11 +30524,14 @@
       <c r="JW37" s="5">
         <v>199578</v>
       </c>
-      <c r="JX37" s="34">
+      <c r="JX37" s="5">
         <v>198313</v>
       </c>
+      <c r="JY37" s="34">
+        <v>197258</v>
+      </c>
     </row>
-    <row r="38" spans="1:284" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -31281,11 +31383,14 @@
       <c r="JW38" s="9">
         <v>21887307</v>
       </c>
-      <c r="JX38" s="37">
+      <c r="JX38" s="9">
         <v>21885139</v>
       </c>
+      <c r="JY38" s="37">
+        <v>21996875</v>
+      </c>
     </row>
-    <row r="40" spans="1:284" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:285" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B74E59-DDB4-43A7-B104-87199B1BB115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4075CB-C2DD-41C0-9E27-9454A88549CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1283,11 +1283,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JY40"/>
+  <dimension ref="A1:JZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JJ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KB18" sqref="KB18"/>
+      <pane xSplit="1" topLeftCell="JK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KB16" sqref="KB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,17 +1385,17 @@
     <col min="266" max="278" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:285" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:285" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:285" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>28</v>
       </c>
@@ -2248,11 +2248,14 @@
       <c r="JX4" s="31">
         <v>2023</v>
       </c>
-      <c r="JY4" s="32">
+      <c r="JY4" s="31">
         <v>2023</v>
       </c>
+      <c r="JZ4" s="32">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:285" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
@@ -3103,11 +3106,14 @@
       <c r="JX5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="JY5" s="38" t="s">
+      <c r="JY5" s="28" t="s">
         <v>36</v>
       </c>
+      <c r="JZ5" s="38" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3960,11 +3966,14 @@
       <c r="JX6" s="5">
         <v>353314</v>
       </c>
-      <c r="JY6" s="34">
+      <c r="JY6" s="5">
         <v>355756</v>
       </c>
+      <c r="JZ6" s="34">
+        <v>356983</v>
+      </c>
     </row>
-    <row r="7" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4817,11 +4826,14 @@
       <c r="JX7" s="5">
         <v>1044146</v>
       </c>
-      <c r="JY7" s="34">
+      <c r="JY7" s="5">
         <v>1043482</v>
       </c>
+      <c r="JZ7" s="34">
+        <v>1052411</v>
+      </c>
     </row>
-    <row r="8" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5674,11 +5686,14 @@
       <c r="JX8" s="5">
         <v>221789</v>
       </c>
-      <c r="JY8" s="34">
+      <c r="JY8" s="5">
         <v>222023</v>
       </c>
+      <c r="JZ8" s="34">
+        <v>224496</v>
+      </c>
     </row>
-    <row r="9" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6531,11 +6546,14 @@
       <c r="JX9" s="5">
         <v>141252</v>
       </c>
-      <c r="JY9" s="34">
+      <c r="JY9" s="5">
         <v>142081</v>
       </c>
+      <c r="JZ9" s="34">
+        <v>143390</v>
+      </c>
     </row>
-    <row r="10" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7388,11 +7406,14 @@
       <c r="JX10" s="5">
         <v>246191</v>
       </c>
-      <c r="JY10" s="34">
+      <c r="JY10" s="5">
         <v>247892</v>
       </c>
+      <c r="JZ10" s="34">
+        <v>249706</v>
+      </c>
     </row>
-    <row r="11" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8245,11 +8266,14 @@
       <c r="JX11" s="5">
         <v>985556</v>
       </c>
-      <c r="JY11" s="34">
+      <c r="JY11" s="5">
         <v>989672</v>
       </c>
+      <c r="JZ11" s="34">
+        <v>988753</v>
+      </c>
     </row>
-    <row r="12" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -9102,11 +9126,14 @@
       <c r="JX12" s="5">
         <v>3437595</v>
       </c>
-      <c r="JY12" s="34">
+      <c r="JY12" s="5">
         <v>3457511</v>
       </c>
+      <c r="JZ12" s="34">
+        <v>3481313</v>
+      </c>
     </row>
-    <row r="13" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9959,11 +9986,14 @@
       <c r="JX13" s="5">
         <v>858097</v>
       </c>
-      <c r="JY13" s="34">
+      <c r="JY13" s="5">
         <v>864471</v>
       </c>
+      <c r="JZ13" s="34">
+        <v>867251</v>
+      </c>
     </row>
-    <row r="14" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10816,11 +10846,14 @@
       <c r="JX14" s="5">
         <v>147717</v>
       </c>
-      <c r="JY14" s="34">
+      <c r="JY14" s="5">
         <v>149276</v>
       </c>
+      <c r="JZ14" s="34">
+        <v>149679</v>
+      </c>
     </row>
-    <row r="15" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11673,11 +11706,14 @@
       <c r="JX15" s="5">
         <v>259414</v>
       </c>
-      <c r="JY15" s="34">
+      <c r="JY15" s="5">
         <v>260941</v>
       </c>
+      <c r="JZ15" s="34">
+        <v>261590</v>
+      </c>
     </row>
-    <row r="16" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12530,11 +12566,14 @@
       <c r="JX16" s="5">
         <v>1778037</v>
       </c>
-      <c r="JY16" s="34">
+      <c r="JY16" s="5">
         <v>1780259</v>
       </c>
+      <c r="JZ16" s="34">
+        <v>1797453</v>
+      </c>
     </row>
-    <row r="17" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13387,11 +13426,14 @@
       <c r="JX17" s="5">
         <v>1089215</v>
       </c>
-      <c r="JY17" s="34">
+      <c r="JY17" s="5">
         <v>1094757</v>
       </c>
+      <c r="JZ17" s="34">
+        <v>1097414</v>
+      </c>
     </row>
-    <row r="18" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14244,11 +14286,14 @@
       <c r="JX18" s="5">
         <v>161654</v>
       </c>
-      <c r="JY18" s="34">
+      <c r="JY18" s="5">
         <v>160276</v>
       </c>
+      <c r="JZ18" s="34">
+        <v>161035</v>
+      </c>
     </row>
-    <row r="19" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15101,11 +15146,14 @@
       <c r="JX19" s="5">
         <v>265391</v>
       </c>
-      <c r="JY19" s="34">
+      <c r="JY19" s="5">
         <v>268862</v>
       </c>
+      <c r="JZ19" s="34">
+        <v>269495</v>
+      </c>
     </row>
-    <row r="20" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -15958,11 +16006,14 @@
       <c r="JX20" s="33">
         <v>1981146</v>
       </c>
-      <c r="JY20" s="36">
+      <c r="JY20" s="33">
         <v>1988746</v>
       </c>
+      <c r="JZ20" s="36">
+        <v>1999360</v>
+      </c>
     </row>
-    <row r="21" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -16815,11 +16866,14 @@
       <c r="JX21" s="5">
         <v>473960</v>
       </c>
-      <c r="JY21" s="34">
+      <c r="JY21" s="5">
         <v>474906</v>
       </c>
+      <c r="JZ21" s="34">
+        <v>478154</v>
+      </c>
     </row>
-    <row r="22" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17672,11 +17726,14 @@
       <c r="JX22" s="5">
         <v>217388</v>
       </c>
-      <c r="JY22" s="34">
+      <c r="JY22" s="5">
         <v>217650</v>
       </c>
+      <c r="JZ22" s="34">
+        <v>219447</v>
+      </c>
     </row>
-    <row r="23" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18529,11 +18586,14 @@
       <c r="JX23" s="5">
         <v>179570</v>
       </c>
-      <c r="JY23" s="34">
+      <c r="JY23" s="5">
         <v>182215</v>
       </c>
+      <c r="JZ23" s="34">
+        <v>183262</v>
+      </c>
     </row>
-    <row r="24" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -19386,11 +19446,14 @@
       <c r="JX24" s="5">
         <v>1843396</v>
       </c>
-      <c r="JY24" s="34">
+      <c r="JY24" s="5">
         <v>1853669</v>
       </c>
+      <c r="JZ24" s="34">
+        <v>1863085</v>
+      </c>
     </row>
-    <row r="25" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20243,11 +20306,14 @@
       <c r="JX25" s="5">
         <v>225886</v>
       </c>
-      <c r="JY25" s="34">
+      <c r="JY25" s="5">
         <v>225997</v>
       </c>
+      <c r="JZ25" s="34">
+        <v>226620</v>
+      </c>
     </row>
-    <row r="26" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21100,11 +21166,14 @@
       <c r="JX26" s="5">
         <v>644088</v>
       </c>
-      <c r="JY26" s="34">
+      <c r="JY26" s="5">
         <v>646699</v>
       </c>
+      <c r="JZ26" s="34">
+        <v>648509</v>
+      </c>
     </row>
-    <row r="27" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -21957,11 +22026,14 @@
       <c r="JX27" s="5">
         <v>690086</v>
       </c>
-      <c r="JY27" s="34">
+      <c r="JY27" s="5">
         <v>697978</v>
       </c>
+      <c r="JZ27" s="34">
+        <v>701522</v>
+      </c>
     </row>
-    <row r="28" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22814,11 +22886,14 @@
       <c r="JX28" s="5">
         <v>502969</v>
       </c>
-      <c r="JY28" s="34">
+      <c r="JY28" s="5">
         <v>507573</v>
       </c>
+      <c r="JZ28" s="34">
+        <v>507616</v>
+      </c>
     </row>
-    <row r="29" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -23671,11 +23746,14 @@
       <c r="JX29" s="5">
         <v>473609</v>
       </c>
-      <c r="JY29" s="34">
+      <c r="JY29" s="5">
         <v>478489</v>
       </c>
+      <c r="JZ29" s="34">
+        <v>482754</v>
+      </c>
     </row>
-    <row r="30" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24528,11 +24606,14 @@
       <c r="JX30" s="5">
         <v>582080</v>
       </c>
-      <c r="JY30" s="34">
+      <c r="JY30" s="5">
         <v>586823</v>
       </c>
+      <c r="JZ30" s="34">
+        <v>595946</v>
+      </c>
     </row>
-    <row r="31" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -25385,11 +25466,14 @@
       <c r="JX31" s="5">
         <v>651398</v>
       </c>
-      <c r="JY31" s="34">
+      <c r="JY31" s="5">
         <v>657256</v>
       </c>
+      <c r="JZ31" s="34">
+        <v>668408</v>
+      </c>
     </row>
-    <row r="32" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -26242,11 +26326,14 @@
       <c r="JX32" s="5">
         <v>245459</v>
       </c>
-      <c r="JY32" s="34">
+      <c r="JY32" s="5">
         <v>243907</v>
       </c>
+      <c r="JZ32" s="34">
+        <v>243501</v>
+      </c>
     </row>
-    <row r="33" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -27099,11 +27186,14 @@
       <c r="JX33" s="5">
         <v>696401</v>
       </c>
-      <c r="JY33" s="34">
+      <c r="JY33" s="5">
         <v>700761</v>
       </c>
+      <c r="JZ33" s="34">
+        <v>702813</v>
+      </c>
     </row>
-    <row r="34" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -27956,11 +28046,14 @@
       <c r="JX34" s="5">
         <v>114464</v>
       </c>
-      <c r="JY34" s="34">
+      <c r="JY34" s="5">
         <v>114467</v>
       </c>
+      <c r="JZ34" s="34">
+        <v>114896</v>
+      </c>
     </row>
-    <row r="35" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28813,11 +28906,14 @@
       <c r="JX35" s="5">
         <v>752893</v>
       </c>
-      <c r="JY35" s="34">
+      <c r="JY35" s="5">
         <v>759554</v>
       </c>
+      <c r="JZ35" s="34">
+        <v>765628</v>
+      </c>
     </row>
-    <row r="36" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -29670,11 +29766,14 @@
       <c r="JX36" s="5">
         <v>422665</v>
       </c>
-      <c r="JY36" s="34">
+      <c r="JY36" s="5">
         <v>425668</v>
       </c>
+      <c r="JZ36" s="34">
+        <v>428695</v>
+      </c>
     </row>
-    <row r="37" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -30527,11 +30626,14 @@
       <c r="JX37" s="5">
         <v>198313</v>
       </c>
-      <c r="JY37" s="34">
+      <c r="JY37" s="5">
         <v>197258</v>
       </c>
+      <c r="JZ37" s="34">
+        <v>198248</v>
+      </c>
     </row>
-    <row r="38" spans="1:285" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -31386,11 +31488,14 @@
       <c r="JX38" s="9">
         <v>21885139</v>
       </c>
-      <c r="JY38" s="37">
+      <c r="JY38" s="9">
         <v>21996875</v>
       </c>
+      <c r="JZ38" s="37">
+        <v>22129433</v>
+      </c>
     </row>
-    <row r="40" spans="1:285" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:286" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4075CB-C2DD-41C0-9E27-9454A88549CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FE5DA0-4751-4F30-91ED-674497F0D1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -860,7 +860,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -926,14 +926,12 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1283,11 +1281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JZ40"/>
+  <dimension ref="A1:KA40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KB16" sqref="KB16"/>
+      <pane xSplit="1" topLeftCell="JL1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KD15" sqref="KD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,18 +1383,18 @@
     <col min="266" max="278" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:286" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:287" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="14">
@@ -2251,12 +2249,15 @@
       <c r="JY4" s="31">
         <v>2023</v>
       </c>
-      <c r="JZ4" s="32">
+      <c r="JZ4" s="31">
         <v>2023</v>
       </c>
+      <c r="KA4" s="32">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:286" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+    <row r="5" spans="1:287" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
@@ -3109,11 +3110,14 @@
       <c r="JY5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="JZ5" s="38" t="s">
+      <c r="JZ5" s="28" t="s">
         <v>37</v>
       </c>
+      <c r="KA5" s="35" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3969,11 +3973,14 @@
       <c r="JY6" s="5">
         <v>355756</v>
       </c>
-      <c r="JZ6" s="34">
+      <c r="JZ6" s="5">
         <v>356983</v>
       </c>
+      <c r="KA6" s="33">
+        <v>359855</v>
+      </c>
     </row>
-    <row r="7" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4829,11 +4836,14 @@
       <c r="JY7" s="5">
         <v>1043482</v>
       </c>
-      <c r="JZ7" s="34">
+      <c r="JZ7" s="5">
         <v>1052411</v>
       </c>
+      <c r="KA7" s="33">
+        <v>1053062</v>
+      </c>
     </row>
-    <row r="8" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5689,11 +5699,14 @@
       <c r="JY8" s="5">
         <v>222023</v>
       </c>
-      <c r="JZ8" s="34">
+      <c r="JZ8" s="5">
         <v>224496</v>
       </c>
+      <c r="KA8" s="33">
+        <v>226464</v>
+      </c>
     </row>
-    <row r="9" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6549,11 +6562,14 @@
       <c r="JY9" s="5">
         <v>142081</v>
       </c>
-      <c r="JZ9" s="34">
+      <c r="JZ9" s="5">
         <v>143390</v>
       </c>
+      <c r="KA9" s="33">
+        <v>144679</v>
+      </c>
     </row>
-    <row r="10" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7409,11 +7425,14 @@
       <c r="JY10" s="5">
         <v>247892</v>
       </c>
-      <c r="JZ10" s="34">
+      <c r="JZ10" s="5">
         <v>249706</v>
       </c>
+      <c r="KA10" s="33">
+        <v>253480</v>
+      </c>
     </row>
-    <row r="11" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8269,11 +8288,14 @@
       <c r="JY11" s="5">
         <v>989672</v>
       </c>
-      <c r="JZ11" s="34">
+      <c r="JZ11" s="5">
         <v>988753</v>
       </c>
+      <c r="KA11" s="33">
+        <v>993563</v>
+      </c>
     </row>
-    <row r="12" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -9129,11 +9151,14 @@
       <c r="JY12" s="5">
         <v>3457511</v>
       </c>
-      <c r="JZ12" s="34">
+      <c r="JZ12" s="5">
         <v>3481313</v>
       </c>
+      <c r="KA12" s="33">
+        <v>3510190</v>
+      </c>
     </row>
-    <row r="13" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -9989,11 +10014,14 @@
       <c r="JY13" s="5">
         <v>864471</v>
       </c>
-      <c r="JZ13" s="34">
+      <c r="JZ13" s="5">
         <v>867251</v>
       </c>
+      <c r="KA13" s="33">
+        <v>872476</v>
+      </c>
     </row>
-    <row r="14" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10849,11 +10877,14 @@
       <c r="JY14" s="5">
         <v>149276</v>
       </c>
-      <c r="JZ14" s="34">
+      <c r="JZ14" s="5">
         <v>149679</v>
       </c>
+      <c r="KA14" s="33">
+        <v>150906</v>
+      </c>
     </row>
-    <row r="15" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11709,11 +11740,14 @@
       <c r="JY15" s="5">
         <v>260941</v>
       </c>
-      <c r="JZ15" s="34">
+      <c r="JZ15" s="5">
         <v>261590</v>
       </c>
+      <c r="KA15" s="33">
+        <v>262051</v>
+      </c>
     </row>
-    <row r="16" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12569,11 +12603,14 @@
       <c r="JY16" s="5">
         <v>1780259</v>
       </c>
-      <c r="JZ16" s="34">
+      <c r="JZ16" s="5">
         <v>1797453</v>
       </c>
+      <c r="KA16" s="33">
+        <v>1814390</v>
+      </c>
     </row>
-    <row r="17" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13429,11 +13466,14 @@
       <c r="JY17" s="5">
         <v>1094757</v>
       </c>
-      <c r="JZ17" s="34">
+      <c r="JZ17" s="5">
         <v>1097414</v>
       </c>
+      <c r="KA17" s="33">
+        <v>1106806</v>
+      </c>
     </row>
-    <row r="18" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14289,11 +14329,14 @@
       <c r="JY18" s="5">
         <v>160276</v>
       </c>
-      <c r="JZ18" s="34">
+      <c r="JZ18" s="5">
         <v>161035</v>
       </c>
+      <c r="KA18" s="33">
+        <v>163257</v>
+      </c>
     </row>
-    <row r="19" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15149,11 +15192,14 @@
       <c r="JY19" s="5">
         <v>268862</v>
       </c>
-      <c r="JZ19" s="34">
+      <c r="JZ19" s="5">
         <v>269495</v>
       </c>
+      <c r="KA19" s="33">
+        <v>273338</v>
+      </c>
     </row>
-    <row r="20" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -15985,35 +16031,38 @@
       <c r="JQ20" s="23">
         <v>1932962</v>
       </c>
-      <c r="JR20" s="35">
+      <c r="JR20" s="22">
         <v>1951256</v>
       </c>
-      <c r="JS20" s="33">
+      <c r="JS20" s="23">
         <v>1964519</v>
       </c>
-      <c r="JT20" s="33">
+      <c r="JT20" s="23">
         <v>1972715</v>
       </c>
-      <c r="JU20" s="33">
+      <c r="JU20" s="23">
         <v>1973202</v>
       </c>
-      <c r="JV20" s="33">
+      <c r="JV20" s="23">
         <v>1974565</v>
       </c>
-      <c r="JW20" s="33">
+      <c r="JW20" s="23">
         <v>1980790</v>
       </c>
-      <c r="JX20" s="33">
+      <c r="JX20" s="23">
         <v>1981146</v>
       </c>
-      <c r="JY20" s="33">
+      <c r="JY20" s="23">
         <v>1988746</v>
       </c>
-      <c r="JZ20" s="36">
+      <c r="JZ20" s="23">
         <v>1999360</v>
       </c>
+      <c r="KA20" s="36">
+        <v>2013431</v>
+      </c>
     </row>
-    <row r="21" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -16869,11 +16918,14 @@
       <c r="JY21" s="5">
         <v>474906</v>
       </c>
-      <c r="JZ21" s="34">
+      <c r="JZ21" s="5">
         <v>478154</v>
       </c>
+      <c r="KA21" s="33">
+        <v>484413</v>
+      </c>
     </row>
-    <row r="22" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17729,11 +17781,14 @@
       <c r="JY22" s="5">
         <v>217650</v>
       </c>
-      <c r="JZ22" s="34">
+      <c r="JZ22" s="5">
         <v>219447</v>
       </c>
+      <c r="KA22" s="33">
+        <v>221441</v>
+      </c>
     </row>
-    <row r="23" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18589,11 +18644,14 @@
       <c r="JY23" s="5">
         <v>182215</v>
       </c>
-      <c r="JZ23" s="34">
+      <c r="JZ23" s="5">
         <v>183262</v>
       </c>
+      <c r="KA23" s="33">
+        <v>185925</v>
+      </c>
     </row>
-    <row r="24" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -19449,11 +19507,14 @@
       <c r="JY24" s="5">
         <v>1853669</v>
       </c>
-      <c r="JZ24" s="34">
+      <c r="JZ24" s="5">
         <v>1863085</v>
       </c>
+      <c r="KA24" s="33">
+        <v>1878906</v>
+      </c>
     </row>
-    <row r="25" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20309,11 +20370,14 @@
       <c r="JY25" s="5">
         <v>225997</v>
       </c>
-      <c r="JZ25" s="34">
+      <c r="JZ25" s="5">
         <v>226620</v>
       </c>
+      <c r="KA25" s="33">
+        <v>230247</v>
+      </c>
     </row>
-    <row r="26" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21169,11 +21233,14 @@
       <c r="JY26" s="5">
         <v>646699</v>
       </c>
-      <c r="JZ26" s="34">
+      <c r="JZ26" s="5">
         <v>648509</v>
       </c>
+      <c r="KA26" s="33">
+        <v>652910</v>
+      </c>
     </row>
-    <row r="27" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -22029,11 +22096,14 @@
       <c r="JY27" s="5">
         <v>697978</v>
       </c>
-      <c r="JZ27" s="34">
+      <c r="JZ27" s="5">
         <v>701522</v>
       </c>
+      <c r="KA27" s="33">
+        <v>706727</v>
+      </c>
     </row>
-    <row r="28" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22889,11 +22959,14 @@
       <c r="JY28" s="5">
         <v>507573</v>
       </c>
-      <c r="JZ28" s="34">
+      <c r="JZ28" s="5">
         <v>507616</v>
       </c>
+      <c r="KA28" s="33">
+        <v>514901</v>
+      </c>
     </row>
-    <row r="29" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -23749,11 +23822,14 @@
       <c r="JY29" s="5">
         <v>478489</v>
       </c>
-      <c r="JZ29" s="34">
+      <c r="JZ29" s="5">
         <v>482754</v>
       </c>
+      <c r="KA29" s="33">
+        <v>484206</v>
+      </c>
     </row>
-    <row r="30" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24609,11 +24685,14 @@
       <c r="JY30" s="5">
         <v>586823</v>
       </c>
-      <c r="JZ30" s="34">
+      <c r="JZ30" s="5">
         <v>595946</v>
       </c>
+      <c r="KA30" s="33">
+        <v>599784</v>
+      </c>
     </row>
-    <row r="31" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -25469,11 +25548,14 @@
       <c r="JY31" s="5">
         <v>657256</v>
       </c>
-      <c r="JZ31" s="34">
+      <c r="JZ31" s="5">
         <v>668408</v>
       </c>
+      <c r="KA31" s="33">
+        <v>673300</v>
+      </c>
     </row>
-    <row r="32" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -26329,11 +26411,14 @@
       <c r="JY32" s="5">
         <v>243907</v>
       </c>
-      <c r="JZ32" s="34">
+      <c r="JZ32" s="5">
         <v>243501</v>
       </c>
+      <c r="KA32" s="33">
+        <v>245178</v>
+      </c>
     </row>
-    <row r="33" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -27189,11 +27274,14 @@
       <c r="JY33" s="5">
         <v>700761</v>
       </c>
-      <c r="JZ33" s="34">
+      <c r="JZ33" s="5">
         <v>702813</v>
       </c>
+      <c r="KA33" s="33">
+        <v>704394</v>
+      </c>
     </row>
-    <row r="34" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -28049,11 +28137,14 @@
       <c r="JY34" s="5">
         <v>114467</v>
       </c>
-      <c r="JZ34" s="34">
+      <c r="JZ34" s="5">
         <v>114896</v>
       </c>
+      <c r="KA34" s="33">
+        <v>115647</v>
+      </c>
     </row>
-    <row r="35" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -28909,11 +29000,14 @@
       <c r="JY35" s="5">
         <v>759554</v>
       </c>
-      <c r="JZ35" s="34">
+      <c r="JZ35" s="5">
         <v>765628</v>
       </c>
+      <c r="KA35" s="33">
+        <v>772887</v>
+      </c>
     </row>
-    <row r="36" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -29769,11 +29863,14 @@
       <c r="JY36" s="5">
         <v>425668</v>
       </c>
-      <c r="JZ36" s="34">
+      <c r="JZ36" s="5">
         <v>428695</v>
       </c>
+      <c r="KA36" s="33">
+        <v>435910</v>
+      </c>
     </row>
-    <row r="37" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -30629,11 +30726,14 @@
       <c r="JY37" s="5">
         <v>197258</v>
       </c>
-      <c r="JZ37" s="34">
+      <c r="JZ37" s="5">
         <v>198248</v>
       </c>
+      <c r="KA37" s="33">
+        <v>197966</v>
+      </c>
     </row>
-    <row r="38" spans="1:286" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -31491,11 +31591,14 @@
       <c r="JY38" s="9">
         <v>21996875</v>
       </c>
-      <c r="JZ38" s="37">
+      <c r="JZ38" s="9">
         <v>22129433</v>
       </c>
+      <c r="KA38" s="34">
+        <v>22302690</v>
+      </c>
     </row>
-    <row r="40" spans="1:286" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:287" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FE5DA0-4751-4F30-91ED-674497F0D1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D4AD36-8318-4358-9CCA-2F8E29380342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1281,11 +1281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KA40"/>
+  <dimension ref="A1:KB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KD15" sqref="KD15"/>
+      <pane xSplit="1" topLeftCell="JM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KF18" sqref="KF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,17 +1383,17 @@
     <col min="266" max="278" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>28</v>
       </c>
@@ -2252,11 +2252,14 @@
       <c r="JZ4" s="31">
         <v>2023</v>
       </c>
-      <c r="KA4" s="32">
+      <c r="KA4" s="31">
         <v>2023</v>
       </c>
+      <c r="KB4" s="32">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A5" s="37"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
@@ -3113,11 +3116,14 @@
       <c r="JZ5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="KA5" s="35" t="s">
+      <c r="KA5" s="28" t="s">
         <v>38</v>
       </c>
+      <c r="KB5" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="6" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3976,11 +3982,14 @@
       <c r="JZ6" s="5">
         <v>356983</v>
       </c>
-      <c r="KA6" s="33">
+      <c r="KA6" s="5">
         <v>359855</v>
       </c>
+      <c r="KB6" s="33">
+        <v>361685</v>
+      </c>
     </row>
-    <row r="7" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4839,11 +4848,14 @@
       <c r="JZ7" s="5">
         <v>1052411</v>
       </c>
-      <c r="KA7" s="33">
+      <c r="KA7" s="5">
         <v>1053062</v>
       </c>
+      <c r="KB7" s="33">
+        <v>1052398</v>
+      </c>
     </row>
-    <row r="8" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5702,11 +5714,14 @@
       <c r="JZ8" s="5">
         <v>224496</v>
       </c>
-      <c r="KA8" s="33">
+      <c r="KA8" s="5">
         <v>226464</v>
       </c>
+      <c r="KB8" s="33">
+        <v>227641</v>
+      </c>
     </row>
-    <row r="9" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6565,11 +6580,14 @@
       <c r="JZ9" s="5">
         <v>143390</v>
       </c>
-      <c r="KA9" s="33">
+      <c r="KA9" s="5">
         <v>144679</v>
       </c>
+      <c r="KB9" s="33">
+        <v>145539</v>
+      </c>
     </row>
-    <row r="10" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7428,11 +7446,14 @@
       <c r="JZ10" s="5">
         <v>249706</v>
       </c>
-      <c r="KA10" s="33">
+      <c r="KA10" s="5">
         <v>253480</v>
       </c>
+      <c r="KB10" s="33">
+        <v>257279</v>
+      </c>
     </row>
-    <row r="11" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8291,11 +8312,14 @@
       <c r="JZ11" s="5">
         <v>988753</v>
       </c>
-      <c r="KA11" s="33">
+      <c r="KA11" s="5">
         <v>993563</v>
       </c>
+      <c r="KB11" s="33">
+        <v>993266</v>
+      </c>
     </row>
-    <row r="12" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -9154,11 +9178,14 @@
       <c r="JZ12" s="5">
         <v>3481313</v>
       </c>
-      <c r="KA12" s="33">
+      <c r="KA12" s="5">
         <v>3510190</v>
       </c>
+      <c r="KB12" s="33">
+        <v>3525039</v>
+      </c>
     </row>
-    <row r="13" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -10017,11 +10044,14 @@
       <c r="JZ13" s="5">
         <v>867251</v>
       </c>
-      <c r="KA13" s="33">
+      <c r="KA13" s="5">
         <v>872476</v>
       </c>
+      <c r="KB13" s="33">
+        <v>871739</v>
+      </c>
     </row>
-    <row r="14" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10880,11 +10910,14 @@
       <c r="JZ14" s="5">
         <v>149679</v>
       </c>
-      <c r="KA14" s="33">
+      <c r="KA14" s="5">
         <v>150906</v>
       </c>
+      <c r="KB14" s="33">
+        <v>151154</v>
+      </c>
     </row>
-    <row r="15" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11743,11 +11776,14 @@
       <c r="JZ15" s="5">
         <v>261590</v>
       </c>
-      <c r="KA15" s="33">
+      <c r="KA15" s="5">
         <v>262051</v>
       </c>
+      <c r="KB15" s="33">
+        <v>261715</v>
+      </c>
     </row>
-    <row r="16" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12606,11 +12642,14 @@
       <c r="JZ16" s="5">
         <v>1797453</v>
       </c>
-      <c r="KA16" s="33">
+      <c r="KA16" s="5">
         <v>1814390</v>
       </c>
+      <c r="KB16" s="33">
+        <v>1827708</v>
+      </c>
     </row>
-    <row r="17" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13469,11 +13508,14 @@
       <c r="JZ17" s="5">
         <v>1097414</v>
       </c>
-      <c r="KA17" s="33">
+      <c r="KA17" s="5">
         <v>1106806</v>
       </c>
+      <c r="KB17" s="33">
+        <v>1110342</v>
+      </c>
     </row>
-    <row r="18" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14332,11 +14374,14 @@
       <c r="JZ18" s="5">
         <v>161035</v>
       </c>
-      <c r="KA18" s="33">
+      <c r="KA18" s="5">
         <v>163257</v>
       </c>
+      <c r="KB18" s="33">
+        <v>158855</v>
+      </c>
     </row>
-    <row r="19" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15195,11 +15240,14 @@
       <c r="JZ19" s="5">
         <v>269495</v>
       </c>
-      <c r="KA19" s="33">
+      <c r="KA19" s="5">
         <v>273338</v>
       </c>
+      <c r="KB19" s="33">
+        <v>275077</v>
+      </c>
     </row>
-    <row r="20" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -16058,11 +16106,14 @@
       <c r="JZ20" s="23">
         <v>1999360</v>
       </c>
-      <c r="KA20" s="36">
+      <c r="KA20" s="23">
         <v>2013431</v>
       </c>
+      <c r="KB20" s="36">
+        <v>2026935</v>
+      </c>
     </row>
-    <row r="21" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -16921,11 +16972,14 @@
       <c r="JZ21" s="5">
         <v>478154</v>
       </c>
-      <c r="KA21" s="33">
+      <c r="KA21" s="5">
         <v>484413</v>
       </c>
+      <c r="KB21" s="33">
+        <v>487300</v>
+      </c>
     </row>
-    <row r="22" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17784,11 +17838,14 @@
       <c r="JZ22" s="5">
         <v>219447</v>
       </c>
-      <c r="KA22" s="33">
+      <c r="KA22" s="5">
         <v>221441</v>
       </c>
+      <c r="KB22" s="33">
+        <v>224260</v>
+      </c>
     </row>
-    <row r="23" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18647,11 +18704,14 @@
       <c r="JZ23" s="5">
         <v>183262</v>
       </c>
-      <c r="KA23" s="33">
+      <c r="KA23" s="5">
         <v>185925</v>
       </c>
+      <c r="KB23" s="33">
+        <v>187459</v>
+      </c>
     </row>
-    <row r="24" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -19510,11 +19570,14 @@
       <c r="JZ24" s="5">
         <v>1863085</v>
       </c>
-      <c r="KA24" s="33">
+      <c r="KA24" s="5">
         <v>1878906</v>
       </c>
+      <c r="KB24" s="33">
+        <v>1887265</v>
+      </c>
     </row>
-    <row r="25" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20373,11 +20436,14 @@
       <c r="JZ25" s="5">
         <v>226620</v>
       </c>
-      <c r="KA25" s="33">
+      <c r="KA25" s="5">
         <v>230247</v>
       </c>
+      <c r="KB25" s="33">
+        <v>233978</v>
+      </c>
     </row>
-    <row r="26" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21236,11 +21302,14 @@
       <c r="JZ26" s="5">
         <v>648509</v>
       </c>
-      <c r="KA26" s="33">
+      <c r="KA26" s="5">
         <v>652910</v>
       </c>
+      <c r="KB26" s="33">
+        <v>657749</v>
+      </c>
     </row>
-    <row r="27" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -22099,11 +22168,14 @@
       <c r="JZ27" s="5">
         <v>701522</v>
       </c>
-      <c r="KA27" s="33">
+      <c r="KA27" s="5">
         <v>706727</v>
       </c>
+      <c r="KB27" s="33">
+        <v>708309</v>
+      </c>
     </row>
-    <row r="28" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -22962,11 +23034,14 @@
       <c r="JZ28" s="5">
         <v>507616</v>
       </c>
-      <c r="KA28" s="33">
+      <c r="KA28" s="5">
         <v>514901</v>
       </c>
+      <c r="KB28" s="33">
+        <v>520551</v>
+      </c>
     </row>
-    <row r="29" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -23825,11 +23900,14 @@
       <c r="JZ29" s="5">
         <v>482754</v>
       </c>
-      <c r="KA29" s="33">
+      <c r="KA29" s="5">
         <v>484206</v>
       </c>
+      <c r="KB29" s="33">
+        <v>486209</v>
+      </c>
     </row>
-    <row r="30" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24688,11 +24766,14 @@
       <c r="JZ30" s="5">
         <v>595946</v>
       </c>
-      <c r="KA30" s="33">
+      <c r="KA30" s="5">
         <v>599784</v>
       </c>
+      <c r="KB30" s="33">
+        <v>609833</v>
+      </c>
     </row>
-    <row r="31" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -25551,11 +25632,14 @@
       <c r="JZ31" s="5">
         <v>668408</v>
       </c>
-      <c r="KA31" s="33">
+      <c r="KA31" s="5">
         <v>673300</v>
       </c>
+      <c r="KB31" s="33">
+        <v>672246</v>
+      </c>
     </row>
-    <row r="32" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -26414,11 +26498,14 @@
       <c r="JZ32" s="5">
         <v>243501</v>
       </c>
-      <c r="KA32" s="33">
+      <c r="KA32" s="5">
         <v>245178</v>
       </c>
+      <c r="KB32" s="33">
+        <v>244267</v>
+      </c>
     </row>
-    <row r="33" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -27277,11 +27364,14 @@
       <c r="JZ33" s="5">
         <v>702813</v>
       </c>
-      <c r="KA33" s="33">
+      <c r="KA33" s="5">
         <v>704394</v>
       </c>
+      <c r="KB33" s="33">
+        <v>704522</v>
+      </c>
     </row>
-    <row r="34" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -28140,11 +28230,14 @@
       <c r="JZ34" s="5">
         <v>114896</v>
       </c>
-      <c r="KA34" s="33">
+      <c r="KA34" s="5">
         <v>115647</v>
       </c>
+      <c r="KB34" s="33">
+        <v>116221</v>
+      </c>
     </row>
-    <row r="35" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -29003,11 +29096,14 @@
       <c r="JZ35" s="5">
         <v>765628</v>
       </c>
-      <c r="KA35" s="33">
+      <c r="KA35" s="5">
         <v>772887</v>
       </c>
+      <c r="KB35" s="33">
+        <v>782590</v>
+      </c>
     </row>
-    <row r="36" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -29866,11 +29962,14 @@
       <c r="JZ36" s="5">
         <v>428695</v>
       </c>
-      <c r="KA36" s="33">
+      <c r="KA36" s="5">
         <v>435910</v>
       </c>
+      <c r="KB36" s="33">
+        <v>440985</v>
+      </c>
     </row>
-    <row r="37" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -30729,11 +30828,14 @@
       <c r="JZ37" s="5">
         <v>198248</v>
       </c>
-      <c r="KA37" s="33">
+      <c r="KA37" s="5">
         <v>197966</v>
       </c>
+      <c r="KB37" s="33">
+        <v>199152</v>
+      </c>
     </row>
-    <row r="38" spans="1:287" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -31594,11 +31696,14 @@
       <c r="JZ38" s="9">
         <v>22129433</v>
       </c>
-      <c r="KA38" s="34">
+      <c r="KA38" s="9">
         <v>22302690</v>
       </c>
+      <c r="KB38" s="34">
+        <v>22409268</v>
+      </c>
     </row>
-    <row r="40" spans="1:287" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:288" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D4AD36-8318-4358-9CCA-2F8E29380342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04823DBB-0796-470B-A27F-CB02EB5E815D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1281,11 +1281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KB40"/>
+  <dimension ref="A1:KC40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JM1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KF18" sqref="KF18"/>
+      <pane xSplit="1" topLeftCell="JO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="JO2" sqref="JO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,17 +1383,17 @@
     <col min="266" max="278" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>28</v>
       </c>
@@ -2255,11 +2255,14 @@
       <c r="KA4" s="31">
         <v>2023</v>
       </c>
-      <c r="KB4" s="32">
+      <c r="KB4" s="31">
         <v>2023</v>
       </c>
+      <c r="KC4" s="32">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A5" s="37"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
@@ -3119,11 +3122,14 @@
       <c r="KA5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="KB5" s="35" t="s">
+      <c r="KB5" s="28" t="s">
         <v>39</v>
       </c>
+      <c r="KC5" s="35" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3985,11 +3991,14 @@
       <c r="KA6" s="5">
         <v>359855</v>
       </c>
-      <c r="KB6" s="33">
+      <c r="KB6" s="5">
         <v>361685</v>
       </c>
+      <c r="KC6" s="33">
+        <v>356040</v>
+      </c>
     </row>
-    <row r="7" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4851,11 +4860,14 @@
       <c r="KA7" s="5">
         <v>1053062</v>
       </c>
-      <c r="KB7" s="33">
+      <c r="KB7" s="5">
         <v>1052398</v>
       </c>
+      <c r="KC7" s="33">
+        <v>1058575</v>
+      </c>
     </row>
-    <row r="8" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5717,11 +5729,14 @@
       <c r="KA8" s="5">
         <v>226464</v>
       </c>
-      <c r="KB8" s="33">
+      <c r="KB8" s="5">
         <v>227641</v>
       </c>
+      <c r="KC8" s="33">
+        <v>219971</v>
+      </c>
     </row>
-    <row r="9" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6583,11 +6598,14 @@
       <c r="KA9" s="5">
         <v>144679</v>
       </c>
-      <c r="KB9" s="33">
+      <c r="KB9" s="5">
         <v>145539</v>
       </c>
+      <c r="KC9" s="33">
+        <v>141577</v>
+      </c>
     </row>
-    <row r="10" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7449,11 +7467,14 @@
       <c r="KA10" s="5">
         <v>253480</v>
       </c>
-      <c r="KB10" s="33">
+      <c r="KB10" s="5">
         <v>257279</v>
       </c>
+      <c r="KC10" s="33">
+        <v>252975</v>
+      </c>
     </row>
-    <row r="11" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8315,11 +8336,14 @@
       <c r="KA11" s="5">
         <v>993563</v>
       </c>
-      <c r="KB11" s="33">
+      <c r="KB11" s="5">
         <v>993266</v>
       </c>
+      <c r="KC11" s="33">
+        <v>967878</v>
+      </c>
     </row>
-    <row r="12" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -9181,11 +9205,14 @@
       <c r="KA12" s="5">
         <v>3510190</v>
       </c>
-      <c r="KB12" s="33">
+      <c r="KB12" s="5">
         <v>3525039</v>
       </c>
+      <c r="KC12" s="33">
+        <v>3473825</v>
+      </c>
     </row>
-    <row r="13" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -10047,11 +10074,14 @@
       <c r="KA13" s="5">
         <v>872476</v>
       </c>
-      <c r="KB13" s="33">
+      <c r="KB13" s="5">
         <v>871739</v>
       </c>
+      <c r="KC13" s="33">
+        <v>856775</v>
+      </c>
     </row>
-    <row r="14" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10913,11 +10943,14 @@
       <c r="KA14" s="5">
         <v>150906</v>
       </c>
-      <c r="KB14" s="33">
+      <c r="KB14" s="5">
         <v>151154</v>
       </c>
+      <c r="KC14" s="33">
+        <v>151266</v>
+      </c>
     </row>
-    <row r="15" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11779,11 +11812,14 @@
       <c r="KA15" s="5">
         <v>262051</v>
       </c>
-      <c r="KB15" s="33">
+      <c r="KB15" s="5">
         <v>261715</v>
       </c>
+      <c r="KC15" s="33">
+        <v>256548</v>
+      </c>
     </row>
-    <row r="16" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12645,11 +12681,14 @@
       <c r="KA16" s="5">
         <v>1814390</v>
       </c>
-      <c r="KB16" s="33">
+      <c r="KB16" s="5">
         <v>1827708</v>
       </c>
+      <c r="KC16" s="33">
+        <v>1797179</v>
+      </c>
     </row>
-    <row r="17" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13511,11 +13550,14 @@
       <c r="KA17" s="5">
         <v>1106806</v>
       </c>
-      <c r="KB17" s="33">
+      <c r="KB17" s="5">
         <v>1110342</v>
       </c>
+      <c r="KC17" s="33">
+        <v>1084985</v>
+      </c>
     </row>
-    <row r="18" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14377,11 +14419,14 @@
       <c r="KA18" s="5">
         <v>163257</v>
       </c>
-      <c r="KB18" s="33">
+      <c r="KB18" s="5">
         <v>158855</v>
       </c>
+      <c r="KC18" s="33">
+        <v>156874</v>
+      </c>
     </row>
-    <row r="19" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15243,11 +15288,14 @@
       <c r="KA19" s="5">
         <v>273338</v>
       </c>
-      <c r="KB19" s="33">
+      <c r="KB19" s="5">
         <v>275077</v>
       </c>
+      <c r="KC19" s="33">
+        <v>269445</v>
+      </c>
     </row>
-    <row r="20" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -16109,11 +16157,14 @@
       <c r="KA20" s="23">
         <v>2013431</v>
       </c>
-      <c r="KB20" s="36">
+      <c r="KB20" s="23">
         <v>2026935</v>
       </c>
+      <c r="KC20" s="36">
+        <v>1995357</v>
+      </c>
     </row>
-    <row r="21" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -16975,11 +17026,14 @@
       <c r="KA21" s="5">
         <v>484413</v>
       </c>
-      <c r="KB21" s="33">
+      <c r="KB21" s="5">
         <v>487300</v>
       </c>
+      <c r="KC21" s="33">
+        <v>486480</v>
+      </c>
     </row>
-    <row r="22" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17841,11 +17895,14 @@
       <c r="KA22" s="5">
         <v>221441</v>
       </c>
-      <c r="KB22" s="33">
+      <c r="KB22" s="5">
         <v>224260</v>
       </c>
+      <c r="KC22" s="33">
+        <v>222971</v>
+      </c>
     </row>
-    <row r="23" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18707,11 +18764,14 @@
       <c r="KA23" s="5">
         <v>185925</v>
       </c>
-      <c r="KB23" s="33">
+      <c r="KB23" s="5">
         <v>187459</v>
       </c>
+      <c r="KC23" s="33">
+        <v>181574</v>
+      </c>
     </row>
-    <row r="24" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -19573,11 +19633,14 @@
       <c r="KA24" s="5">
         <v>1878906</v>
       </c>
-      <c r="KB24" s="33">
+      <c r="KB24" s="5">
         <v>1887265</v>
       </c>
+      <c r="KC24" s="33">
+        <v>1848518</v>
+      </c>
     </row>
-    <row r="25" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20439,11 +20502,14 @@
       <c r="KA25" s="5">
         <v>230247</v>
       </c>
-      <c r="KB25" s="33">
+      <c r="KB25" s="5">
         <v>233978</v>
       </c>
+      <c r="KC25" s="33">
+        <v>227190</v>
+      </c>
     </row>
-    <row r="26" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21305,11 +21371,14 @@
       <c r="KA26" s="5">
         <v>652910</v>
       </c>
-      <c r="KB26" s="33">
+      <c r="KB26" s="5">
         <v>657749</v>
       </c>
+      <c r="KC26" s="33">
+        <v>651620</v>
+      </c>
     </row>
-    <row r="27" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -22171,11 +22240,14 @@
       <c r="KA27" s="5">
         <v>706727</v>
       </c>
-      <c r="KB27" s="33">
+      <c r="KB27" s="5">
         <v>708309</v>
       </c>
+      <c r="KC27" s="33">
+        <v>695282</v>
+      </c>
     </row>
-    <row r="28" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -23037,11 +23109,14 @@
       <c r="KA28" s="5">
         <v>514901</v>
       </c>
-      <c r="KB28" s="33">
+      <c r="KB28" s="5">
         <v>520551</v>
       </c>
+      <c r="KC28" s="33">
+        <v>505885</v>
+      </c>
     </row>
-    <row r="29" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -23903,11 +23978,14 @@
       <c r="KA29" s="5">
         <v>484206</v>
       </c>
-      <c r="KB29" s="33">
+      <c r="KB29" s="5">
         <v>486209</v>
       </c>
+      <c r="KC29" s="33">
+        <v>478187</v>
+      </c>
     </row>
-    <row r="30" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24769,11 +24847,14 @@
       <c r="KA30" s="5">
         <v>599784</v>
       </c>
-      <c r="KB30" s="33">
+      <c r="KB30" s="5">
         <v>609833</v>
       </c>
+      <c r="KC30" s="33">
+        <v>607613</v>
+      </c>
     </row>
-    <row r="31" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -25635,11 +25716,14 @@
       <c r="KA31" s="5">
         <v>673300</v>
       </c>
-      <c r="KB31" s="33">
+      <c r="KB31" s="5">
         <v>672246</v>
       </c>
+      <c r="KC31" s="33">
+        <v>620594</v>
+      </c>
     </row>
-    <row r="32" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -26501,11 +26585,14 @@
       <c r="KA32" s="5">
         <v>245178</v>
       </c>
-      <c r="KB32" s="33">
+      <c r="KB32" s="5">
         <v>244267</v>
       </c>
+      <c r="KC32" s="33">
+        <v>234754</v>
+      </c>
     </row>
-    <row r="33" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -27367,11 +27454,14 @@
       <c r="KA33" s="5">
         <v>704394</v>
       </c>
-      <c r="KB33" s="33">
+      <c r="KB33" s="5">
         <v>704522</v>
       </c>
+      <c r="KC33" s="33">
+        <v>705666</v>
+      </c>
     </row>
-    <row r="34" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -28233,11 +28323,14 @@
       <c r="KA34" s="5">
         <v>115647</v>
       </c>
-      <c r="KB34" s="33">
+      <c r="KB34" s="5">
         <v>116221</v>
       </c>
+      <c r="KC34" s="33">
+        <v>114380</v>
+      </c>
     </row>
-    <row r="35" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -29099,11 +29192,14 @@
       <c r="KA35" s="5">
         <v>772887</v>
       </c>
-      <c r="KB35" s="33">
+      <c r="KB35" s="5">
         <v>782590</v>
       </c>
+      <c r="KC35" s="33">
+        <v>770729</v>
+      </c>
     </row>
-    <row r="36" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -29965,11 +30061,14 @@
       <c r="KA36" s="5">
         <v>435910</v>
       </c>
-      <c r="KB36" s="33">
+      <c r="KB36" s="5">
         <v>440985</v>
       </c>
+      <c r="KC36" s="33">
+        <v>435940</v>
+      </c>
     </row>
-    <row r="37" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -30831,11 +30930,14 @@
       <c r="KA37" s="5">
         <v>197966</v>
       </c>
-      <c r="KB37" s="33">
+      <c r="KB37" s="5">
         <v>199152</v>
       </c>
+      <c r="KC37" s="33">
+        <v>197733</v>
+      </c>
     </row>
-    <row r="38" spans="1:288" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -31699,11 +31801,14 @@
       <c r="KA38" s="9">
         <v>22302690</v>
       </c>
-      <c r="KB38" s="34">
+      <c r="KB38" s="9">
         <v>22409268</v>
       </c>
+      <c r="KC38" s="34">
+        <v>22024386</v>
+      </c>
     </row>
-    <row r="40" spans="1:288" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:289" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04823DBB-0796-470B-A27F-CB02EB5E815D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33524EA-8C2B-4BFF-B641-3030F5FBA865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -197,7 +197,7 @@
     <t>YUCATÁN</t>
   </si>
   <si>
-    <t>2000-2023</t>
+    <t>2000-2024</t>
   </si>
 </sst>
 </file>
@@ -1281,11 +1281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KC40"/>
+  <dimension ref="A1:KD40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="JO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="JO2" sqref="JO2"/>
+      <selection pane="topRight" activeCell="KE13" sqref="KE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,17 +1383,17 @@
     <col min="266" max="278" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>28</v>
       </c>
@@ -2258,11 +2258,14 @@
       <c r="KB4" s="31">
         <v>2023</v>
       </c>
-      <c r="KC4" s="32">
+      <c r="KC4" s="31">
         <v>2023</v>
       </c>
+      <c r="KD4" s="32">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A5" s="37"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
@@ -3125,11 +3128,14 @@
       <c r="KB5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="KC5" s="35" t="s">
+      <c r="KC5" s="28" t="s">
         <v>40</v>
       </c>
+      <c r="KD5" s="35" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3994,11 +4000,14 @@
       <c r="KB6" s="5">
         <v>361685</v>
       </c>
-      <c r="KC6" s="33">
+      <c r="KC6" s="5">
         <v>356040</v>
       </c>
+      <c r="KD6" s="33">
+        <v>358188</v>
+      </c>
     </row>
-    <row r="7" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4863,11 +4872,14 @@
       <c r="KB7" s="5">
         <v>1052398</v>
       </c>
-      <c r="KC7" s="33">
+      <c r="KC7" s="5">
         <v>1058575</v>
       </c>
+      <c r="KD7" s="33">
+        <v>1035383</v>
+      </c>
     </row>
-    <row r="8" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5732,11 +5744,14 @@
       <c r="KB8" s="5">
         <v>227641</v>
       </c>
-      <c r="KC8" s="33">
+      <c r="KC8" s="5">
         <v>219971</v>
       </c>
+      <c r="KD8" s="33">
+        <v>218124</v>
+      </c>
     </row>
-    <row r="9" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6601,11 +6616,14 @@
       <c r="KB9" s="5">
         <v>145539</v>
       </c>
-      <c r="KC9" s="33">
+      <c r="KC9" s="5">
         <v>141577</v>
       </c>
+      <c r="KD9" s="33">
+        <v>141865</v>
+      </c>
     </row>
-    <row r="10" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7470,11 +7488,14 @@
       <c r="KB10" s="5">
         <v>257279</v>
       </c>
-      <c r="KC10" s="33">
+      <c r="KC10" s="5">
         <v>252975</v>
       </c>
+      <c r="KD10" s="33">
+        <v>252749</v>
+      </c>
     </row>
-    <row r="11" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8339,11 +8360,14 @@
       <c r="KB11" s="5">
         <v>993266</v>
       </c>
-      <c r="KC11" s="33">
+      <c r="KC11" s="5">
         <v>967878</v>
       </c>
+      <c r="KD11" s="33">
+        <v>976755</v>
+      </c>
     </row>
-    <row r="12" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -9208,11 +9232,14 @@
       <c r="KB12" s="5">
         <v>3525039</v>
       </c>
-      <c r="KC12" s="33">
+      <c r="KC12" s="5">
         <v>3473825</v>
       </c>
+      <c r="KD12" s="33">
+        <v>3450496</v>
+      </c>
     </row>
-    <row r="13" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -10077,11 +10104,14 @@
       <c r="KB13" s="5">
         <v>871739</v>
       </c>
-      <c r="KC13" s="33">
+      <c r="KC13" s="5">
         <v>856775</v>
       </c>
+      <c r="KD13" s="33">
+        <v>862873</v>
+      </c>
     </row>
-    <row r="14" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10946,11 +10976,14 @@
       <c r="KB14" s="5">
         <v>151154</v>
       </c>
-      <c r="KC14" s="33">
+      <c r="KC14" s="5">
         <v>151266</v>
       </c>
+      <c r="KD14" s="33">
+        <v>150756</v>
+      </c>
     </row>
-    <row r="15" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11815,11 +11848,14 @@
       <c r="KB15" s="5">
         <v>261715</v>
       </c>
-      <c r="KC15" s="33">
+      <c r="KC15" s="5">
         <v>256548</v>
       </c>
+      <c r="KD15" s="33">
+        <v>259169</v>
+      </c>
     </row>
-    <row r="16" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12684,11 +12720,14 @@
       <c r="KB16" s="5">
         <v>1827708</v>
       </c>
-      <c r="KC16" s="33">
+      <c r="KC16" s="5">
         <v>1797179</v>
       </c>
+      <c r="KD16" s="33">
+        <v>1810126</v>
+      </c>
     </row>
-    <row r="17" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13553,11 +13592,14 @@
       <c r="KB17" s="5">
         <v>1110342</v>
       </c>
-      <c r="KC17" s="33">
+      <c r="KC17" s="5">
         <v>1084985</v>
       </c>
+      <c r="KD17" s="33">
+        <v>1097102</v>
+      </c>
     </row>
-    <row r="18" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14422,11 +14464,14 @@
       <c r="KB18" s="5">
         <v>158855</v>
       </c>
-      <c r="KC18" s="33">
+      <c r="KC18" s="5">
         <v>156874</v>
       </c>
+      <c r="KD18" s="33">
+        <v>157302</v>
+      </c>
     </row>
-    <row r="19" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15291,11 +15336,14 @@
       <c r="KB19" s="5">
         <v>275077</v>
       </c>
-      <c r="KC19" s="33">
+      <c r="KC19" s="5">
         <v>269445</v>
       </c>
+      <c r="KD19" s="33">
+        <v>272998</v>
+      </c>
     </row>
-    <row r="20" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -16160,11 +16208,14 @@
       <c r="KB20" s="23">
         <v>2026935</v>
       </c>
-      <c r="KC20" s="36">
+      <c r="KC20" s="23">
         <v>1995357</v>
       </c>
+      <c r="KD20" s="36">
+        <v>2009853</v>
+      </c>
     </row>
-    <row r="21" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -17029,11 +17080,14 @@
       <c r="KB21" s="5">
         <v>487300</v>
       </c>
-      <c r="KC21" s="33">
+      <c r="KC21" s="5">
         <v>486480</v>
       </c>
+      <c r="KD21" s="33">
+        <v>486194</v>
+      </c>
     </row>
-    <row r="22" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17898,11 +17952,14 @@
       <c r="KB22" s="5">
         <v>224260</v>
       </c>
-      <c r="KC22" s="33">
+      <c r="KC22" s="5">
         <v>222971</v>
       </c>
+      <c r="KD22" s="33">
+        <v>222583</v>
+      </c>
     </row>
-    <row r="23" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18767,11 +18824,14 @@
       <c r="KB23" s="5">
         <v>187459</v>
       </c>
-      <c r="KC23" s="33">
+      <c r="KC23" s="5">
         <v>181574</v>
       </c>
+      <c r="KD23" s="33">
+        <v>185919</v>
+      </c>
     </row>
-    <row r="24" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -19636,11 +19696,14 @@
       <c r="KB24" s="5">
         <v>1887265</v>
       </c>
-      <c r="KC24" s="33">
+      <c r="KC24" s="5">
         <v>1848518</v>
       </c>
+      <c r="KD24" s="33">
+        <v>1867243</v>
+      </c>
     </row>
-    <row r="25" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20505,11 +20568,14 @@
       <c r="KB25" s="5">
         <v>233978</v>
       </c>
-      <c r="KC25" s="33">
+      <c r="KC25" s="5">
         <v>227190</v>
       </c>
+      <c r="KD25" s="33">
+        <v>233373</v>
+      </c>
     </row>
-    <row r="26" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21374,11 +21440,14 @@
       <c r="KB26" s="5">
         <v>657749</v>
       </c>
-      <c r="KC26" s="33">
+      <c r="KC26" s="5">
         <v>651620</v>
       </c>
+      <c r="KD26" s="33">
+        <v>650785</v>
+      </c>
     </row>
-    <row r="27" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -22243,11 +22312,14 @@
       <c r="KB27" s="5">
         <v>708309</v>
       </c>
-      <c r="KC27" s="33">
+      <c r="KC27" s="5">
         <v>695282</v>
       </c>
+      <c r="KD27" s="33">
+        <v>701979</v>
+      </c>
     </row>
-    <row r="28" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -23112,11 +23184,14 @@
       <c r="KB28" s="5">
         <v>520551</v>
       </c>
-      <c r="KC28" s="33">
+      <c r="KC28" s="5">
         <v>505885</v>
       </c>
+      <c r="KD28" s="33">
+        <v>519739</v>
+      </c>
     </row>
-    <row r="29" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -23981,11 +24056,14 @@
       <c r="KB29" s="5">
         <v>486209</v>
       </c>
-      <c r="KC29" s="33">
+      <c r="KC29" s="5">
         <v>478187</v>
       </c>
+      <c r="KD29" s="33">
+        <v>483782</v>
+      </c>
     </row>
-    <row r="30" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24850,11 +24928,14 @@
       <c r="KB30" s="5">
         <v>609833</v>
       </c>
-      <c r="KC30" s="33">
+      <c r="KC30" s="5">
         <v>607613</v>
       </c>
+      <c r="KD30" s="33">
+        <v>610959</v>
+      </c>
     </row>
-    <row r="31" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -25719,11 +25800,14 @@
       <c r="KB31" s="5">
         <v>672246</v>
       </c>
-      <c r="KC31" s="33">
+      <c r="KC31" s="5">
         <v>620594</v>
       </c>
+      <c r="KD31" s="33">
+        <v>665301</v>
+      </c>
     </row>
-    <row r="32" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -26588,11 +26672,14 @@
       <c r="KB32" s="5">
         <v>244267</v>
       </c>
-      <c r="KC32" s="33">
+      <c r="KC32" s="5">
         <v>234754</v>
       </c>
+      <c r="KD32" s="33">
+        <v>228419</v>
+      </c>
     </row>
-    <row r="33" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -27457,11 +27544,14 @@
       <c r="KB33" s="5">
         <v>704522</v>
       </c>
-      <c r="KC33" s="33">
+      <c r="KC33" s="5">
         <v>705666</v>
       </c>
+      <c r="KD33" s="33">
+        <v>694620</v>
+      </c>
     </row>
-    <row r="34" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -28326,11 +28416,14 @@
       <c r="KB34" s="5">
         <v>116221</v>
       </c>
-      <c r="KC34" s="33">
+      <c r="KC34" s="5">
         <v>114380</v>
       </c>
+      <c r="KD34" s="33">
+        <v>115524</v>
+      </c>
     </row>
-    <row r="35" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -29195,11 +29288,14 @@
       <c r="KB35" s="5">
         <v>782590</v>
       </c>
-      <c r="KC35" s="33">
+      <c r="KC35" s="5">
         <v>770729</v>
       </c>
+      <c r="KD35" s="33">
+        <v>780585</v>
+      </c>
     </row>
-    <row r="36" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -30064,11 +30160,14 @@
       <c r="KB36" s="5">
         <v>440985</v>
       </c>
-      <c r="KC36" s="33">
+      <c r="KC36" s="5">
         <v>435940</v>
       </c>
+      <c r="KD36" s="33">
+        <v>436592</v>
+      </c>
     </row>
-    <row r="37" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -30933,11 +31032,14 @@
       <c r="KB37" s="5">
         <v>199152</v>
       </c>
-      <c r="KC37" s="33">
+      <c r="KC37" s="5">
         <v>197733</v>
       </c>
+      <c r="KD37" s="33">
+        <v>196071</v>
+      </c>
     </row>
-    <row r="38" spans="1:289" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -31804,11 +31906,14 @@
       <c r="KB38" s="9">
         <v>22409268</v>
       </c>
-      <c r="KC38" s="34">
+      <c r="KC38" s="9">
         <v>22024386</v>
       </c>
+      <c r="KD38" s="34">
+        <v>22133407</v>
+      </c>
     </row>
-    <row r="40" spans="1:289" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:290" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33524EA-8C2B-4BFF-B641-3030F5FBA865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223B78FF-A682-4E43-BE09-A6E894684143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -860,7 +860,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -935,6 +935,8 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1281,11 +1283,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KD40"/>
+  <dimension ref="A1:KE40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JO1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KE13" sqref="KE13"/>
+      <pane xSplit="1" topLeftCell="JQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KG14" sqref="KG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,17 +1385,17 @@
     <col min="266" max="278" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>28</v>
       </c>
@@ -2258,14 +2260,17 @@
       <c r="KB4" s="31">
         <v>2023</v>
       </c>
-      <c r="KC4" s="31">
+      <c r="KC4" s="32">
         <v>2023</v>
       </c>
-      <c r="KD4" s="32">
+      <c r="KD4" s="31">
         <v>2024</v>
       </c>
+      <c r="KE4" s="32">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A5" s="37"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
@@ -3128,14 +3133,17 @@
       <c r="KB5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="KC5" s="28" t="s">
+      <c r="KC5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="KD5" s="35" t="s">
+      <c r="KD5" s="28" t="s">
         <v>29</v>
       </c>
+      <c r="KE5" s="35" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3979,35 +3987,38 @@
       <c r="JU6" s="3">
         <v>350248</v>
       </c>
-      <c r="JV6" s="5">
+      <c r="JV6" s="38">
         <v>351682</v>
       </c>
-      <c r="JW6" s="5">
+      <c r="JW6" s="38">
         <v>352869</v>
       </c>
-      <c r="JX6" s="5">
+      <c r="JX6" s="38">
         <v>353314</v>
       </c>
-      <c r="JY6" s="5">
+      <c r="JY6" s="38">
         <v>355756</v>
       </c>
-      <c r="JZ6" s="5">
+      <c r="JZ6" s="38">
         <v>356983</v>
       </c>
-      <c r="KA6" s="5">
+      <c r="KA6" s="38">
         <v>359855</v>
       </c>
-      <c r="KB6" s="5">
+      <c r="KB6" s="38">
         <v>361685</v>
       </c>
-      <c r="KC6" s="5">
+      <c r="KC6" s="33">
         <v>356040</v>
       </c>
-      <c r="KD6" s="33">
+      <c r="KD6" s="5">
         <v>358188</v>
       </c>
+      <c r="KE6" s="33">
+        <v>360685</v>
+      </c>
     </row>
-    <row r="7" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4842,44 +4853,47 @@
       <c r="JR7" s="11">
         <v>1028938</v>
       </c>
-      <c r="JS7" s="5">
+      <c r="JS7" s="38">
         <v>1034668</v>
       </c>
-      <c r="JT7" s="5">
+      <c r="JT7" s="38">
         <v>1042019</v>
       </c>
-      <c r="JU7" s="5">
+      <c r="JU7" s="38">
         <v>1044130</v>
       </c>
-      <c r="JV7" s="5">
+      <c r="JV7" s="38">
         <v>1043557</v>
       </c>
-      <c r="JW7" s="5">
+      <c r="JW7" s="38">
         <v>1045333</v>
       </c>
-      <c r="JX7" s="5">
+      <c r="JX7" s="38">
         <v>1044146</v>
       </c>
-      <c r="JY7" s="5">
+      <c r="JY7" s="38">
         <v>1043482</v>
       </c>
-      <c r="JZ7" s="5">
+      <c r="JZ7" s="38">
         <v>1052411</v>
       </c>
-      <c r="KA7" s="5">
+      <c r="KA7" s="38">
         <v>1053062</v>
       </c>
-      <c r="KB7" s="5">
+      <c r="KB7" s="38">
         <v>1052398</v>
       </c>
-      <c r="KC7" s="5">
+      <c r="KC7" s="33">
         <v>1058575</v>
       </c>
-      <c r="KD7" s="33">
+      <c r="KD7" s="5">
         <v>1035383</v>
       </c>
+      <c r="KE7" s="33">
+        <v>1047545</v>
+      </c>
     </row>
-    <row r="8" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5714,44 +5728,47 @@
       <c r="JR8" s="11">
         <v>210964</v>
       </c>
-      <c r="JS8" s="5">
+      <c r="JS8" s="38">
         <v>214679</v>
       </c>
-      <c r="JT8" s="5">
+      <c r="JT8" s="38">
         <v>217046</v>
       </c>
-      <c r="JU8" s="5">
+      <c r="JU8" s="38">
         <v>217679</v>
       </c>
-      <c r="JV8" s="5">
+      <c r="JV8" s="38">
         <v>221292</v>
       </c>
-      <c r="JW8" s="5">
+      <c r="JW8" s="38">
         <v>223911</v>
       </c>
-      <c r="JX8" s="5">
+      <c r="JX8" s="38">
         <v>221789</v>
       </c>
-      <c r="JY8" s="5">
+      <c r="JY8" s="38">
         <v>222023</v>
       </c>
-      <c r="JZ8" s="5">
+      <c r="JZ8" s="38">
         <v>224496</v>
       </c>
-      <c r="KA8" s="5">
+      <c r="KA8" s="38">
         <v>226464</v>
       </c>
-      <c r="KB8" s="5">
+      <c r="KB8" s="38">
         <v>227641</v>
       </c>
-      <c r="KC8" s="5">
+      <c r="KC8" s="33">
         <v>219971</v>
       </c>
-      <c r="KD8" s="33">
+      <c r="KD8" s="5">
         <v>218124</v>
       </c>
+      <c r="KE8" s="33">
+        <v>220529</v>
+      </c>
     </row>
-    <row r="9" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6586,44 +6603,47 @@
       <c r="JR9" s="11">
         <v>138820</v>
       </c>
-      <c r="JS9" s="5">
+      <c r="JS9" s="38">
         <v>139410</v>
       </c>
-      <c r="JT9" s="5">
+      <c r="JT9" s="38">
         <v>139841</v>
       </c>
-      <c r="JU9" s="5">
+      <c r="JU9" s="38">
         <v>140182</v>
       </c>
-      <c r="JV9" s="5">
+      <c r="JV9" s="38">
         <v>139905</v>
       </c>
-      <c r="JW9" s="5">
+      <c r="JW9" s="38">
         <v>141245</v>
       </c>
-      <c r="JX9" s="5">
+      <c r="JX9" s="38">
         <v>141252</v>
       </c>
-      <c r="JY9" s="5">
+      <c r="JY9" s="38">
         <v>142081</v>
       </c>
-      <c r="JZ9" s="5">
+      <c r="JZ9" s="38">
         <v>143390</v>
       </c>
-      <c r="KA9" s="5">
+      <c r="KA9" s="38">
         <v>144679</v>
       </c>
-      <c r="KB9" s="5">
+      <c r="KB9" s="38">
         <v>145539</v>
       </c>
-      <c r="KC9" s="5">
+      <c r="KC9" s="33">
         <v>141577</v>
       </c>
-      <c r="KD9" s="33">
+      <c r="KD9" s="5">
         <v>141865</v>
       </c>
+      <c r="KE9" s="33">
+        <v>143456</v>
+      </c>
     </row>
-    <row r="10" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7458,44 +7478,47 @@
       <c r="JR10" s="11">
         <v>240012</v>
       </c>
-      <c r="JS10" s="5">
+      <c r="JS10" s="38">
         <v>241547</v>
       </c>
-      <c r="JT10" s="5">
+      <c r="JT10" s="38">
         <v>243734</v>
       </c>
-      <c r="JU10" s="5">
+      <c r="JU10" s="38">
         <v>245920</v>
       </c>
-      <c r="JV10" s="5">
+      <c r="JV10" s="38">
         <v>243926</v>
       </c>
-      <c r="JW10" s="5">
+      <c r="JW10" s="38">
         <v>245769</v>
       </c>
-      <c r="JX10" s="5">
+      <c r="JX10" s="38">
         <v>246191</v>
       </c>
-      <c r="JY10" s="5">
+      <c r="JY10" s="38">
         <v>247892</v>
       </c>
-      <c r="JZ10" s="5">
+      <c r="JZ10" s="38">
         <v>249706</v>
       </c>
-      <c r="KA10" s="5">
+      <c r="KA10" s="38">
         <v>253480</v>
       </c>
-      <c r="KB10" s="5">
+      <c r="KB10" s="38">
         <v>257279</v>
       </c>
-      <c r="KC10" s="5">
+      <c r="KC10" s="33">
         <v>252975</v>
       </c>
-      <c r="KD10" s="33">
+      <c r="KD10" s="5">
         <v>252749</v>
       </c>
+      <c r="KE10" s="33">
+        <v>256060</v>
+      </c>
     </row>
-    <row r="11" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8330,44 +8353,47 @@
       <c r="JR11" s="11">
         <v>974271</v>
       </c>
-      <c r="JS11" s="5">
+      <c r="JS11" s="38">
         <v>981673</v>
       </c>
-      <c r="JT11" s="5">
+      <c r="JT11" s="38">
         <v>987450</v>
       </c>
-      <c r="JU11" s="5">
+      <c r="JU11" s="38">
         <v>986550</v>
       </c>
-      <c r="JV11" s="5">
+      <c r="JV11" s="38">
         <v>988994</v>
       </c>
-      <c r="JW11" s="5">
+      <c r="JW11" s="38">
         <v>989243</v>
       </c>
-      <c r="JX11" s="5">
+      <c r="JX11" s="38">
         <v>985556</v>
       </c>
-      <c r="JY11" s="5">
+      <c r="JY11" s="38">
         <v>989672</v>
       </c>
-      <c r="JZ11" s="5">
+      <c r="JZ11" s="38">
         <v>988753</v>
       </c>
-      <c r="KA11" s="5">
+      <c r="KA11" s="38">
         <v>993563</v>
       </c>
-      <c r="KB11" s="5">
+      <c r="KB11" s="38">
         <v>993266</v>
       </c>
-      <c r="KC11" s="5">
+      <c r="KC11" s="33">
         <v>967878</v>
       </c>
-      <c r="KD11" s="33">
+      <c r="KD11" s="5">
         <v>976755</v>
       </c>
+      <c r="KE11" s="33">
+        <v>980496</v>
+      </c>
     </row>
-    <row r="12" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -9202,44 +9228,47 @@
       <c r="JR12" s="11">
         <v>3378694</v>
       </c>
-      <c r="JS12" s="5">
+      <c r="JS12" s="38">
         <v>3397269</v>
       </c>
-      <c r="JT12" s="5">
+      <c r="JT12" s="38">
         <v>3411513</v>
       </c>
-      <c r="JU12" s="5">
+      <c r="JU12" s="38">
         <v>3421435</v>
       </c>
-      <c r="JV12" s="5">
+      <c r="JV12" s="38">
         <v>3434727</v>
       </c>
-      <c r="JW12" s="5">
+      <c r="JW12" s="38">
         <v>3435501</v>
       </c>
-      <c r="JX12" s="5">
+      <c r="JX12" s="38">
         <v>3437595</v>
       </c>
-      <c r="JY12" s="5">
+      <c r="JY12" s="38">
         <v>3457511</v>
       </c>
-      <c r="JZ12" s="5">
+      <c r="JZ12" s="38">
         <v>3481313</v>
       </c>
-      <c r="KA12" s="5">
+      <c r="KA12" s="38">
         <v>3510190</v>
       </c>
-      <c r="KB12" s="5">
+      <c r="KB12" s="38">
         <v>3525039</v>
       </c>
-      <c r="KC12" s="5">
+      <c r="KC12" s="33">
         <v>3473825</v>
       </c>
-      <c r="KD12" s="33">
+      <c r="KD12" s="5">
         <v>3450496</v>
       </c>
+      <c r="KE12" s="33">
+        <v>3466984</v>
+      </c>
     </row>
-    <row r="13" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -10074,44 +10103,47 @@
       <c r="JR13" s="11">
         <v>832780</v>
       </c>
-      <c r="JS13" s="5">
+      <c r="JS13" s="38">
         <v>840308</v>
       </c>
-      <c r="JT13" s="5">
+      <c r="JT13" s="38">
         <v>846697</v>
       </c>
-      <c r="JU13" s="5">
+      <c r="JU13" s="38">
         <v>850971</v>
       </c>
-      <c r="JV13" s="5">
+      <c r="JV13" s="38">
         <v>854579</v>
       </c>
-      <c r="JW13" s="5">
+      <c r="JW13" s="38">
         <v>856217</v>
       </c>
-      <c r="JX13" s="5">
+      <c r="JX13" s="38">
         <v>858097</v>
       </c>
-      <c r="JY13" s="5">
+      <c r="JY13" s="38">
         <v>864471</v>
       </c>
-      <c r="JZ13" s="5">
+      <c r="JZ13" s="38">
         <v>867251</v>
       </c>
-      <c r="KA13" s="5">
+      <c r="KA13" s="38">
         <v>872476</v>
       </c>
-      <c r="KB13" s="5">
+      <c r="KB13" s="38">
         <v>871739</v>
       </c>
-      <c r="KC13" s="5">
+      <c r="KC13" s="33">
         <v>856775</v>
       </c>
-      <c r="KD13" s="33">
+      <c r="KD13" s="5">
         <v>862873</v>
       </c>
+      <c r="KE13" s="33">
+        <v>871609</v>
+      </c>
     </row>
-    <row r="14" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10946,44 +10978,47 @@
       <c r="JR14" s="11">
         <v>147284</v>
       </c>
-      <c r="JS14" s="5">
+      <c r="JS14" s="38">
         <v>147989</v>
       </c>
-      <c r="JT14" s="5">
+      <c r="JT14" s="38">
         <v>148585</v>
       </c>
-      <c r="JU14" s="5">
+      <c r="JU14" s="38">
         <v>149082</v>
       </c>
-      <c r="JV14" s="5">
+      <c r="JV14" s="38">
         <v>148990</v>
       </c>
-      <c r="JW14" s="5">
+      <c r="JW14" s="38">
         <v>147497</v>
       </c>
-      <c r="JX14" s="5">
+      <c r="JX14" s="38">
         <v>147717</v>
       </c>
-      <c r="JY14" s="5">
+      <c r="JY14" s="38">
         <v>149276</v>
       </c>
-      <c r="JZ14" s="5">
+      <c r="JZ14" s="38">
         <v>149679</v>
       </c>
-      <c r="KA14" s="5">
+      <c r="KA14" s="38">
         <v>150906</v>
       </c>
-      <c r="KB14" s="5">
+      <c r="KB14" s="38">
         <v>151154</v>
       </c>
-      <c r="KC14" s="5">
+      <c r="KC14" s="33">
         <v>151266</v>
       </c>
-      <c r="KD14" s="33">
+      <c r="KD14" s="5">
         <v>150756</v>
       </c>
+      <c r="KE14" s="33">
+        <v>151407</v>
+      </c>
     </row>
-    <row r="15" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11818,44 +11853,47 @@
       <c r="JR15" s="11">
         <v>258023</v>
       </c>
-      <c r="JS15" s="5">
+      <c r="JS15" s="38">
         <v>260506</v>
       </c>
-      <c r="JT15" s="5">
+      <c r="JT15" s="38">
         <v>260331</v>
       </c>
-      <c r="JU15" s="5">
+      <c r="JU15" s="38">
         <v>260824</v>
       </c>
-      <c r="JV15" s="5">
+      <c r="JV15" s="38">
         <v>261209</v>
       </c>
-      <c r="JW15" s="5">
+      <c r="JW15" s="38">
         <v>260828</v>
       </c>
-      <c r="JX15" s="5">
+      <c r="JX15" s="38">
         <v>259414</v>
       </c>
-      <c r="JY15" s="5">
+      <c r="JY15" s="38">
         <v>260941</v>
       </c>
-      <c r="JZ15" s="5">
+      <c r="JZ15" s="38">
         <v>261590</v>
       </c>
-      <c r="KA15" s="5">
+      <c r="KA15" s="38">
         <v>262051</v>
       </c>
-      <c r="KB15" s="5">
+      <c r="KB15" s="38">
         <v>261715</v>
       </c>
-      <c r="KC15" s="5">
+      <c r="KC15" s="33">
         <v>256548</v>
       </c>
-      <c r="KD15" s="33">
+      <c r="KD15" s="5">
         <v>259169</v>
       </c>
+      <c r="KE15" s="33">
+        <v>260555</v>
+      </c>
     </row>
-    <row r="16" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12690,44 +12728,47 @@
       <c r="JR16" s="11">
         <v>1726186</v>
       </c>
-      <c r="JS16" s="5">
+      <c r="JS16" s="38">
         <v>1737289</v>
       </c>
-      <c r="JT16" s="5">
+      <c r="JT16" s="38">
         <v>1751101</v>
       </c>
-      <c r="JU16" s="5">
+      <c r="JU16" s="38">
         <v>1755514</v>
       </c>
-      <c r="JV16" s="5">
+      <c r="JV16" s="38">
         <v>1770513</v>
       </c>
-      <c r="JW16" s="5">
+      <c r="JW16" s="38">
         <v>1774815</v>
       </c>
-      <c r="JX16" s="5">
+      <c r="JX16" s="38">
         <v>1778037</v>
       </c>
-      <c r="JY16" s="5">
+      <c r="JY16" s="38">
         <v>1780259</v>
       </c>
-      <c r="JZ16" s="5">
+      <c r="JZ16" s="38">
         <v>1797453</v>
       </c>
-      <c r="KA16" s="5">
+      <c r="KA16" s="38">
         <v>1814390</v>
       </c>
-      <c r="KB16" s="5">
+      <c r="KB16" s="38">
         <v>1827708</v>
       </c>
-      <c r="KC16" s="5">
+      <c r="KC16" s="33">
         <v>1797179</v>
       </c>
-      <c r="KD16" s="33">
+      <c r="KD16" s="5">
         <v>1810126</v>
       </c>
+      <c r="KE16" s="33">
+        <v>1824137</v>
+      </c>
     </row>
-    <row r="17" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13562,44 +13603,47 @@
       <c r="JR17" s="11">
         <v>1052198</v>
       </c>
-      <c r="JS17" s="5">
+      <c r="JS17" s="38">
         <v>1065032</v>
       </c>
-      <c r="JT17" s="5">
+      <c r="JT17" s="38">
         <v>1073605</v>
       </c>
-      <c r="JU17" s="5">
+      <c r="JU17" s="38">
         <v>1077268</v>
       </c>
-      <c r="JV17" s="5">
+      <c r="JV17" s="38">
         <v>1083248</v>
       </c>
-      <c r="JW17" s="5">
+      <c r="JW17" s="38">
         <v>1089716</v>
       </c>
-      <c r="JX17" s="5">
+      <c r="JX17" s="38">
         <v>1089215</v>
       </c>
-      <c r="JY17" s="5">
+      <c r="JY17" s="38">
         <v>1094757</v>
       </c>
-      <c r="JZ17" s="5">
+      <c r="JZ17" s="38">
         <v>1097414</v>
       </c>
-      <c r="KA17" s="5">
+      <c r="KA17" s="38">
         <v>1106806</v>
       </c>
-      <c r="KB17" s="5">
+      <c r="KB17" s="38">
         <v>1110342</v>
       </c>
-      <c r="KC17" s="5">
+      <c r="KC17" s="33">
         <v>1084985</v>
       </c>
-      <c r="KD17" s="33">
+      <c r="KD17" s="5">
         <v>1097102</v>
       </c>
+      <c r="KE17" s="33">
+        <v>1103644</v>
+      </c>
     </row>
-    <row r="18" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14434,44 +14478,47 @@
       <c r="JR18" s="11">
         <v>156417</v>
       </c>
-      <c r="JS18" s="5">
+      <c r="JS18" s="38">
         <v>157749</v>
       </c>
-      <c r="JT18" s="5">
+      <c r="JT18" s="38">
         <v>158225</v>
       </c>
-      <c r="JU18" s="5">
+      <c r="JU18" s="38">
         <v>158324</v>
       </c>
-      <c r="JV18" s="5">
+      <c r="JV18" s="38">
         <v>157429</v>
       </c>
-      <c r="JW18" s="5">
+      <c r="JW18" s="38">
         <v>158647</v>
       </c>
-      <c r="JX18" s="5">
+      <c r="JX18" s="38">
         <v>161654</v>
       </c>
-      <c r="JY18" s="5">
+      <c r="JY18" s="38">
         <v>160276</v>
       </c>
-      <c r="JZ18" s="5">
+      <c r="JZ18" s="38">
         <v>161035</v>
       </c>
-      <c r="KA18" s="5">
+      <c r="KA18" s="38">
         <v>163257</v>
       </c>
-      <c r="KB18" s="5">
+      <c r="KB18" s="38">
         <v>158855</v>
       </c>
-      <c r="KC18" s="5">
+      <c r="KC18" s="33">
         <v>156874</v>
       </c>
-      <c r="KD18" s="33">
+      <c r="KD18" s="5">
         <v>157302</v>
       </c>
+      <c r="KE18" s="33">
+        <v>160862</v>
+      </c>
     </row>
-    <row r="19" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15306,44 +15353,47 @@
       <c r="JR19" s="11">
         <v>258198</v>
       </c>
-      <c r="JS19" s="5">
+      <c r="JS19" s="38">
         <v>260429</v>
       </c>
-      <c r="JT19" s="5">
+      <c r="JT19" s="38">
         <v>261584</v>
       </c>
-      <c r="JU19" s="5">
+      <c r="JU19" s="38">
         <v>263144</v>
       </c>
-      <c r="JV19" s="5">
+      <c r="JV19" s="38">
         <v>264145</v>
       </c>
-      <c r="JW19" s="5">
+      <c r="JW19" s="38">
         <v>265857</v>
       </c>
-      <c r="JX19" s="5">
+      <c r="JX19" s="38">
         <v>265391</v>
       </c>
-      <c r="JY19" s="5">
+      <c r="JY19" s="38">
         <v>268862</v>
       </c>
-      <c r="JZ19" s="5">
+      <c r="JZ19" s="38">
         <v>269495</v>
       </c>
-      <c r="KA19" s="5">
+      <c r="KA19" s="38">
         <v>273338</v>
       </c>
-      <c r="KB19" s="5">
+      <c r="KB19" s="38">
         <v>275077</v>
       </c>
-      <c r="KC19" s="5">
+      <c r="KC19" s="33">
         <v>269445</v>
       </c>
-      <c r="KD19" s="33">
+      <c r="KD19" s="5">
         <v>272998</v>
       </c>
+      <c r="KE19" s="33">
+        <v>279243</v>
+      </c>
     </row>
-    <row r="20" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -16178,44 +16228,47 @@
       <c r="JR20" s="22">
         <v>1951256</v>
       </c>
-      <c r="JS20" s="23">
+      <c r="JS20" s="39">
         <v>1964519</v>
       </c>
-      <c r="JT20" s="23">
+      <c r="JT20" s="39">
         <v>1972715</v>
       </c>
-      <c r="JU20" s="23">
+      <c r="JU20" s="39">
         <v>1973202</v>
       </c>
-      <c r="JV20" s="23">
+      <c r="JV20" s="39">
         <v>1974565</v>
       </c>
-      <c r="JW20" s="23">
+      <c r="JW20" s="39">
         <v>1980790</v>
       </c>
-      <c r="JX20" s="23">
+      <c r="JX20" s="39">
         <v>1981146</v>
       </c>
-      <c r="JY20" s="23">
+      <c r="JY20" s="39">
         <v>1988746</v>
       </c>
-      <c r="JZ20" s="23">
+      <c r="JZ20" s="39">
         <v>1999360</v>
       </c>
-      <c r="KA20" s="23">
+      <c r="KA20" s="39">
         <v>2013431</v>
       </c>
-      <c r="KB20" s="23">
+      <c r="KB20" s="39">
         <v>2026935</v>
       </c>
-      <c r="KC20" s="23">
+      <c r="KC20" s="36">
         <v>1995357</v>
       </c>
-      <c r="KD20" s="36">
+      <c r="KD20" s="23">
         <v>2009853</v>
       </c>
+      <c r="KE20" s="36">
+        <v>2017879</v>
+      </c>
     </row>
-    <row r="21" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -17050,44 +17103,47 @@
       <c r="JR21" s="11">
         <v>472641</v>
       </c>
-      <c r="JS21" s="5">
+      <c r="JS21" s="38">
         <v>475986</v>
       </c>
-      <c r="JT21" s="5">
+      <c r="JT21" s="38">
         <v>479369</v>
       </c>
-      <c r="JU21" s="5">
+      <c r="JU21" s="38">
         <v>477659</v>
       </c>
-      <c r="JV21" s="5">
+      <c r="JV21" s="38">
         <v>477373</v>
       </c>
-      <c r="JW21" s="5">
+      <c r="JW21" s="38">
         <v>474510</v>
       </c>
-      <c r="JX21" s="5">
+      <c r="JX21" s="38">
         <v>473960</v>
       </c>
-      <c r="JY21" s="5">
+      <c r="JY21" s="38">
         <v>474906</v>
       </c>
-      <c r="JZ21" s="5">
+      <c r="JZ21" s="38">
         <v>478154</v>
       </c>
-      <c r="KA21" s="5">
+      <c r="KA21" s="38">
         <v>484413</v>
       </c>
-      <c r="KB21" s="5">
+      <c r="KB21" s="38">
         <v>487300</v>
       </c>
-      <c r="KC21" s="5">
+      <c r="KC21" s="33">
         <v>486480</v>
       </c>
-      <c r="KD21" s="33">
+      <c r="KD21" s="5">
         <v>486194</v>
       </c>
+      <c r="KE21" s="33">
+        <v>488387</v>
+      </c>
     </row>
-    <row r="22" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17922,44 +17978,47 @@
       <c r="JR22" s="11">
         <v>214502</v>
       </c>
-      <c r="JS22" s="5">
+      <c r="JS22" s="38">
         <v>217018</v>
       </c>
-      <c r="JT22" s="5">
+      <c r="JT22" s="38">
         <v>217395</v>
       </c>
-      <c r="JU22" s="5">
+      <c r="JU22" s="38">
         <v>216611</v>
       </c>
-      <c r="JV22" s="5">
+      <c r="JV22" s="38">
         <v>216522</v>
       </c>
-      <c r="JW22" s="5">
+      <c r="JW22" s="38">
         <v>216297</v>
       </c>
-      <c r="JX22" s="5">
+      <c r="JX22" s="38">
         <v>217388</v>
       </c>
-      <c r="JY22" s="5">
+      <c r="JY22" s="38">
         <v>217650</v>
       </c>
-      <c r="JZ22" s="5">
+      <c r="JZ22" s="38">
         <v>219447</v>
       </c>
-      <c r="KA22" s="5">
+      <c r="KA22" s="38">
         <v>221441</v>
       </c>
-      <c r="KB22" s="5">
+      <c r="KB22" s="38">
         <v>224260</v>
       </c>
-      <c r="KC22" s="5">
+      <c r="KC22" s="33">
         <v>222971</v>
       </c>
-      <c r="KD22" s="33">
+      <c r="KD22" s="5">
         <v>222583</v>
       </c>
+      <c r="KE22" s="33">
+        <v>223440</v>
+      </c>
     </row>
-    <row r="23" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18794,44 +18853,47 @@
       <c r="JR23" s="11">
         <v>176638</v>
       </c>
-      <c r="JS23" s="5">
+      <c r="JS23" s="38">
         <v>178399</v>
       </c>
-      <c r="JT23" s="5">
+      <c r="JT23" s="38">
         <v>178378</v>
       </c>
-      <c r="JU23" s="5">
+      <c r="JU23" s="38">
         <v>179172</v>
       </c>
-      <c r="JV23" s="5">
+      <c r="JV23" s="38">
         <v>179978</v>
       </c>
-      <c r="JW23" s="5">
+      <c r="JW23" s="38">
         <v>180779</v>
       </c>
-      <c r="JX23" s="5">
+      <c r="JX23" s="38">
         <v>179570</v>
       </c>
-      <c r="JY23" s="5">
+      <c r="JY23" s="38">
         <v>182215</v>
       </c>
-      <c r="JZ23" s="5">
+      <c r="JZ23" s="38">
         <v>183262</v>
       </c>
-      <c r="KA23" s="5">
+      <c r="KA23" s="38">
         <v>185925</v>
       </c>
-      <c r="KB23" s="5">
+      <c r="KB23" s="38">
         <v>187459</v>
       </c>
-      <c r="KC23" s="5">
+      <c r="KC23" s="33">
         <v>181574</v>
       </c>
-      <c r="KD23" s="33">
+      <c r="KD23" s="5">
         <v>185919</v>
       </c>
+      <c r="KE23" s="33">
+        <v>188234</v>
+      </c>
     </row>
-    <row r="24" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -19666,44 +19728,47 @@
       <c r="JR24" s="11">
         <v>1790298</v>
       </c>
-      <c r="JS24" s="5">
+      <c r="JS24" s="38">
         <v>1807149</v>
       </c>
-      <c r="JT24" s="5">
+      <c r="JT24" s="38">
         <v>1820641</v>
       </c>
-      <c r="JU24" s="5">
+      <c r="JU24" s="38">
         <v>1826259</v>
       </c>
-      <c r="JV24" s="5">
+      <c r="JV24" s="38">
         <v>1831995</v>
       </c>
-      <c r="JW24" s="5">
+      <c r="JW24" s="38">
         <v>1836446</v>
       </c>
-      <c r="JX24" s="5">
+      <c r="JX24" s="38">
         <v>1843396</v>
       </c>
-      <c r="JY24" s="5">
+      <c r="JY24" s="38">
         <v>1853669</v>
       </c>
-      <c r="JZ24" s="5">
+      <c r="JZ24" s="38">
         <v>1863085</v>
       </c>
-      <c r="KA24" s="5">
+      <c r="KA24" s="38">
         <v>1878906</v>
       </c>
-      <c r="KB24" s="5">
+      <c r="KB24" s="38">
         <v>1887265</v>
       </c>
-      <c r="KC24" s="5">
+      <c r="KC24" s="33">
         <v>1848518</v>
       </c>
-      <c r="KD24" s="33">
+      <c r="KD24" s="5">
         <v>1867243</v>
       </c>
+      <c r="KE24" s="33">
+        <v>1884748</v>
+      </c>
     </row>
-    <row r="25" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20538,44 +20603,47 @@
       <c r="JR25" s="11">
         <v>224466</v>
       </c>
-      <c r="JS25" s="5">
+      <c r="JS25" s="38">
         <v>226566</v>
       </c>
-      <c r="JT25" s="5">
+      <c r="JT25" s="38">
         <v>227470</v>
       </c>
-      <c r="JU25" s="5">
+      <c r="JU25" s="38">
         <v>225008</v>
       </c>
-      <c r="JV25" s="5">
+      <c r="JV25" s="38">
         <v>224316</v>
       </c>
-      <c r="JW25" s="5">
+      <c r="JW25" s="38">
         <v>224997</v>
       </c>
-      <c r="JX25" s="5">
+      <c r="JX25" s="38">
         <v>225886</v>
       </c>
-      <c r="JY25" s="5">
+      <c r="JY25" s="38">
         <v>225997</v>
       </c>
-      <c r="JZ25" s="5">
+      <c r="JZ25" s="38">
         <v>226620</v>
       </c>
-      <c r="KA25" s="5">
+      <c r="KA25" s="38">
         <v>230247</v>
       </c>
-      <c r="KB25" s="5">
+      <c r="KB25" s="38">
         <v>233978</v>
       </c>
-      <c r="KC25" s="5">
+      <c r="KC25" s="33">
         <v>227190</v>
       </c>
-      <c r="KD25" s="33">
+      <c r="KD25" s="5">
         <v>233373</v>
       </c>
+      <c r="KE25" s="33">
+        <v>233355</v>
+      </c>
     </row>
-    <row r="26" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21410,44 +21478,47 @@
       <c r="JR26" s="11">
         <v>629907</v>
       </c>
-      <c r="JS26" s="5">
+      <c r="JS26" s="38">
         <v>634127</v>
       </c>
-      <c r="JT26" s="5">
+      <c r="JT26" s="38">
         <v>637925</v>
       </c>
-      <c r="JU26" s="5">
+      <c r="JU26" s="38">
         <v>637791</v>
       </c>
-      <c r="JV26" s="5">
+      <c r="JV26" s="38">
         <v>637794</v>
       </c>
-      <c r="JW26" s="5">
+      <c r="JW26" s="38">
         <v>641125</v>
       </c>
-      <c r="JX26" s="5">
+      <c r="JX26" s="38">
         <v>644088</v>
       </c>
-      <c r="JY26" s="5">
+      <c r="JY26" s="38">
         <v>646699</v>
       </c>
-      <c r="JZ26" s="5">
+      <c r="JZ26" s="38">
         <v>648509</v>
       </c>
-      <c r="KA26" s="5">
+      <c r="KA26" s="38">
         <v>652910</v>
       </c>
-      <c r="KB26" s="5">
+      <c r="KB26" s="38">
         <v>657749</v>
       </c>
-      <c r="KC26" s="5">
+      <c r="KC26" s="33">
         <v>651620</v>
       </c>
-      <c r="KD26" s="33">
+      <c r="KD26" s="5">
         <v>650785</v>
       </c>
+      <c r="KE26" s="33">
+        <v>653152</v>
+      </c>
     </row>
-    <row r="27" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -22282,44 +22353,47 @@
       <c r="JR27" s="11">
         <v>668677</v>
       </c>
-      <c r="JS27" s="5">
+      <c r="JS27" s="38">
         <v>676216</v>
       </c>
-      <c r="JT27" s="5">
+      <c r="JT27" s="38">
         <v>681441</v>
       </c>
-      <c r="JU27" s="5">
+      <c r="JU27" s="38">
         <v>682969</v>
       </c>
-      <c r="JV27" s="5">
+      <c r="JV27" s="38">
         <v>687827</v>
       </c>
-      <c r="JW27" s="5">
+      <c r="JW27" s="38">
         <v>688819</v>
       </c>
-      <c r="JX27" s="5">
+      <c r="JX27" s="38">
         <v>690086</v>
       </c>
-      <c r="JY27" s="5">
+      <c r="JY27" s="38">
         <v>697978</v>
       </c>
-      <c r="JZ27" s="5">
+      <c r="JZ27" s="38">
         <v>701522</v>
       </c>
-      <c r="KA27" s="5">
+      <c r="KA27" s="38">
         <v>706727</v>
       </c>
-      <c r="KB27" s="5">
+      <c r="KB27" s="38">
         <v>708309</v>
       </c>
-      <c r="KC27" s="5">
+      <c r="KC27" s="33">
         <v>695282</v>
       </c>
-      <c r="KD27" s="33">
+      <c r="KD27" s="5">
         <v>701979</v>
       </c>
+      <c r="KE27" s="33">
+        <v>708177</v>
+      </c>
     </row>
-    <row r="28" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -23154,44 +23228,47 @@
       <c r="JR28" s="11">
         <v>479784</v>
       </c>
-      <c r="JS28" s="5">
+      <c r="JS28" s="38">
         <v>487185</v>
       </c>
-      <c r="JT28" s="5">
+      <c r="JT28" s="38">
         <v>490183</v>
       </c>
-      <c r="JU28" s="5">
+      <c r="JU28" s="38">
         <v>491986</v>
       </c>
-      <c r="JV28" s="5">
+      <c r="JV28" s="38">
         <v>498653</v>
       </c>
-      <c r="JW28" s="5">
+      <c r="JW28" s="38">
         <v>503626</v>
       </c>
-      <c r="JX28" s="5">
+      <c r="JX28" s="38">
         <v>502969</v>
       </c>
-      <c r="JY28" s="5">
+      <c r="JY28" s="38">
         <v>507573</v>
       </c>
-      <c r="JZ28" s="5">
+      <c r="JZ28" s="38">
         <v>507616</v>
       </c>
-      <c r="KA28" s="5">
+      <c r="KA28" s="38">
         <v>514901</v>
       </c>
-      <c r="KB28" s="5">
+      <c r="KB28" s="38">
         <v>520551</v>
       </c>
-      <c r="KC28" s="5">
+      <c r="KC28" s="33">
         <v>505885</v>
       </c>
-      <c r="KD28" s="33">
+      <c r="KD28" s="5">
         <v>519739</v>
       </c>
+      <c r="KE28" s="33">
+        <v>524804</v>
+      </c>
     </row>
-    <row r="29" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -24026,44 +24103,47 @@
       <c r="JR29" s="11">
         <v>458353</v>
       </c>
-      <c r="JS29" s="5">
+      <c r="JS29" s="38">
         <v>464403</v>
       </c>
-      <c r="JT29" s="5">
+      <c r="JT29" s="38">
         <v>471834</v>
       </c>
-      <c r="JU29" s="5">
+      <c r="JU29" s="38">
         <v>472317</v>
       </c>
-      <c r="JV29" s="5">
+      <c r="JV29" s="38">
         <v>473349</v>
       </c>
-      <c r="JW29" s="5">
+      <c r="JW29" s="38">
         <v>472947</v>
       </c>
-      <c r="JX29" s="5">
+      <c r="JX29" s="38">
         <v>473609</v>
       </c>
-      <c r="JY29" s="5">
+      <c r="JY29" s="38">
         <v>478489</v>
       </c>
-      <c r="JZ29" s="5">
+      <c r="JZ29" s="38">
         <v>482754</v>
       </c>
-      <c r="KA29" s="5">
+      <c r="KA29" s="38">
         <v>484206</v>
       </c>
-      <c r="KB29" s="5">
+      <c r="KB29" s="38">
         <v>486209</v>
       </c>
-      <c r="KC29" s="5">
+      <c r="KC29" s="33">
         <v>478187</v>
       </c>
-      <c r="KD29" s="33">
+      <c r="KD29" s="5">
         <v>483782</v>
       </c>
+      <c r="KE29" s="33">
+        <v>486666</v>
+      </c>
     </row>
-    <row r="30" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24898,44 +24978,47 @@
       <c r="JR30" s="11">
         <v>611206</v>
       </c>
-      <c r="JS30" s="5">
+      <c r="JS30" s="38">
         <v>610874</v>
       </c>
-      <c r="JT30" s="5">
+      <c r="JT30" s="38">
         <v>619013</v>
       </c>
-      <c r="JU30" s="5">
+      <c r="JU30" s="38">
         <v>615722</v>
       </c>
-      <c r="JV30" s="5">
+      <c r="JV30" s="38">
         <v>595370</v>
       </c>
-      <c r="JW30" s="5">
+      <c r="JW30" s="38">
         <v>582043</v>
       </c>
-      <c r="JX30" s="5">
+      <c r="JX30" s="38">
         <v>582080</v>
       </c>
-      <c r="JY30" s="5">
+      <c r="JY30" s="38">
         <v>586823</v>
       </c>
-      <c r="JZ30" s="5">
+      <c r="JZ30" s="38">
         <v>595946</v>
       </c>
-      <c r="KA30" s="5">
+      <c r="KA30" s="38">
         <v>599784</v>
       </c>
-      <c r="KB30" s="5">
+      <c r="KB30" s="38">
         <v>609833</v>
       </c>
-      <c r="KC30" s="5">
+      <c r="KC30" s="33">
         <v>607613</v>
       </c>
-      <c r="KD30" s="33">
+      <c r="KD30" s="5">
         <v>610959</v>
       </c>
+      <c r="KE30" s="33">
+        <v>626138</v>
+      </c>
     </row>
-    <row r="31" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -25770,44 +25853,47 @@
       <c r="JR31" s="11">
         <v>649294</v>
       </c>
-      <c r="JS31" s="5">
+      <c r="JS31" s="38">
         <v>662599</v>
       </c>
-      <c r="JT31" s="5">
+      <c r="JT31" s="38">
         <v>667678</v>
       </c>
-      <c r="JU31" s="5">
+      <c r="JU31" s="38">
         <v>666038</v>
       </c>
-      <c r="JV31" s="5">
+      <c r="JV31" s="38">
         <v>664510</v>
       </c>
-      <c r="JW31" s="5">
+      <c r="JW31" s="38">
         <v>662263</v>
       </c>
-      <c r="JX31" s="5">
+      <c r="JX31" s="38">
         <v>651398</v>
       </c>
-      <c r="JY31" s="5">
+      <c r="JY31" s="38">
         <v>657256</v>
       </c>
-      <c r="JZ31" s="5">
+      <c r="JZ31" s="38">
         <v>668408</v>
       </c>
-      <c r="KA31" s="5">
+      <c r="KA31" s="38">
         <v>673300</v>
       </c>
-      <c r="KB31" s="5">
+      <c r="KB31" s="38">
         <v>672246</v>
       </c>
-      <c r="KC31" s="5">
+      <c r="KC31" s="33">
         <v>620594</v>
       </c>
-      <c r="KD31" s="33">
+      <c r="KD31" s="5">
         <v>665301</v>
       </c>
+      <c r="KE31" s="33">
+        <v>670365</v>
+      </c>
     </row>
-    <row r="32" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -26642,44 +26728,47 @@
       <c r="JR32" s="11">
         <v>236993</v>
       </c>
-      <c r="JS32" s="5">
+      <c r="JS32" s="38">
         <v>240999</v>
       </c>
-      <c r="JT32" s="5">
+      <c r="JT32" s="38">
         <v>243760</v>
       </c>
-      <c r="JU32" s="5">
+      <c r="JU32" s="38">
         <v>244054</v>
       </c>
-      <c r="JV32" s="5">
+      <c r="JV32" s="38">
         <v>245443</v>
       </c>
-      <c r="JW32" s="5">
+      <c r="JW32" s="38">
         <v>244679</v>
       </c>
-      <c r="JX32" s="5">
+      <c r="JX32" s="38">
         <v>245459</v>
       </c>
-      <c r="JY32" s="5">
+      <c r="JY32" s="38">
         <v>243907</v>
       </c>
-      <c r="JZ32" s="5">
+      <c r="JZ32" s="38">
         <v>243501</v>
       </c>
-      <c r="KA32" s="5">
+      <c r="KA32" s="38">
         <v>245178</v>
       </c>
-      <c r="KB32" s="5">
+      <c r="KB32" s="38">
         <v>244267</v>
       </c>
-      <c r="KC32" s="5">
+      <c r="KC32" s="33">
         <v>234754</v>
       </c>
-      <c r="KD32" s="33">
+      <c r="KD32" s="5">
         <v>228419</v>
       </c>
+      <c r="KE32" s="33">
+        <v>225114</v>
+      </c>
     </row>
-    <row r="33" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -27514,44 +27603,47 @@
       <c r="JR33" s="11">
         <v>691670</v>
       </c>
-      <c r="JS33" s="5">
+      <c r="JS33" s="38">
         <v>696614</v>
       </c>
-      <c r="JT33" s="5">
+      <c r="JT33" s="38">
         <v>699400</v>
       </c>
-      <c r="JU33" s="5">
+      <c r="JU33" s="38">
         <v>697273</v>
       </c>
-      <c r="JV33" s="5">
+      <c r="JV33" s="38">
         <v>699836</v>
       </c>
-      <c r="JW33" s="5">
+      <c r="JW33" s="38">
         <v>698058</v>
       </c>
-      <c r="JX33" s="5">
+      <c r="JX33" s="38">
         <v>696401</v>
       </c>
-      <c r="JY33" s="5">
+      <c r="JY33" s="38">
         <v>700761</v>
       </c>
-      <c r="JZ33" s="5">
+      <c r="JZ33" s="38">
         <v>702813</v>
       </c>
-      <c r="KA33" s="5">
+      <c r="KA33" s="38">
         <v>704394</v>
       </c>
-      <c r="KB33" s="5">
+      <c r="KB33" s="38">
         <v>704522</v>
       </c>
-      <c r="KC33" s="5">
+      <c r="KC33" s="33">
         <v>705666</v>
       </c>
-      <c r="KD33" s="33">
+      <c r="KD33" s="5">
         <v>694620</v>
       </c>
+      <c r="KE33" s="33">
+        <v>697712</v>
+      </c>
     </row>
-    <row r="34" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -28386,44 +28478,47 @@
       <c r="JR34" s="11">
         <v>110476</v>
       </c>
-      <c r="JS34" s="5">
+      <c r="JS34" s="38">
         <v>112119</v>
       </c>
-      <c r="JT34" s="5">
+      <c r="JT34" s="38">
         <v>113139</v>
       </c>
-      <c r="JU34" s="5">
+      <c r="JU34" s="38">
         <v>113760</v>
       </c>
-      <c r="JV34" s="5">
+      <c r="JV34" s="38">
         <v>114356</v>
       </c>
-      <c r="JW34" s="5">
+      <c r="JW34" s="38">
         <v>114739</v>
       </c>
-      <c r="JX34" s="5">
+      <c r="JX34" s="38">
         <v>114464</v>
       </c>
-      <c r="JY34" s="5">
+      <c r="JY34" s="38">
         <v>114467</v>
       </c>
-      <c r="JZ34" s="5">
+      <c r="JZ34" s="38">
         <v>114896</v>
       </c>
-      <c r="KA34" s="5">
+      <c r="KA34" s="38">
         <v>115647</v>
       </c>
-      <c r="KB34" s="5">
+      <c r="KB34" s="38">
         <v>116221</v>
       </c>
-      <c r="KC34" s="5">
+      <c r="KC34" s="33">
         <v>114380</v>
       </c>
-      <c r="KD34" s="33">
+      <c r="KD34" s="5">
         <v>115524</v>
       </c>
+      <c r="KE34" s="33">
+        <v>115440</v>
+      </c>
     </row>
-    <row r="35" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -29258,44 +29353,47 @@
       <c r="JR35" s="11">
         <v>759626</v>
       </c>
-      <c r="JS35" s="5">
+      <c r="JS35" s="38">
         <v>762576</v>
       </c>
-      <c r="JT35" s="5">
+      <c r="JT35" s="38">
         <v>763371</v>
       </c>
-      <c r="JU35" s="5">
+      <c r="JU35" s="38">
         <v>759530</v>
       </c>
-      <c r="JV35" s="5">
+      <c r="JV35" s="38">
         <v>754613</v>
       </c>
-      <c r="JW35" s="5">
+      <c r="JW35" s="38">
         <v>753757</v>
       </c>
-      <c r="JX35" s="5">
+      <c r="JX35" s="38">
         <v>752893</v>
       </c>
-      <c r="JY35" s="5">
+      <c r="JY35" s="38">
         <v>759554</v>
       </c>
-      <c r="JZ35" s="5">
+      <c r="JZ35" s="38">
         <v>765628</v>
       </c>
-      <c r="KA35" s="5">
+      <c r="KA35" s="38">
         <v>772887</v>
       </c>
-      <c r="KB35" s="5">
+      <c r="KB35" s="38">
         <v>782590</v>
       </c>
-      <c r="KC35" s="5">
+      <c r="KC35" s="33">
         <v>770729</v>
       </c>
-      <c r="KD35" s="33">
+      <c r="KD35" s="5">
         <v>780585</v>
       </c>
+      <c r="KE35" s="33">
+        <v>784376</v>
+      </c>
     </row>
-    <row r="36" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -30130,44 +30228,47 @@
       <c r="JR36" s="11">
         <v>417035</v>
       </c>
-      <c r="JS36" s="5">
+      <c r="JS36" s="38">
         <v>420905</v>
       </c>
-      <c r="JT36" s="5">
+      <c r="JT36" s="38">
         <v>421696</v>
       </c>
-      <c r="JU36" s="5">
+      <c r="JU36" s="38">
         <v>421816</v>
       </c>
-      <c r="JV36" s="5">
+      <c r="JV36" s="38">
         <v>423677</v>
       </c>
-      <c r="JW36" s="5">
+      <c r="JW36" s="38">
         <v>424406</v>
       </c>
-      <c r="JX36" s="5">
+      <c r="JX36" s="38">
         <v>422665</v>
       </c>
-      <c r="JY36" s="5">
+      <c r="JY36" s="38">
         <v>425668</v>
       </c>
-      <c r="JZ36" s="5">
+      <c r="JZ36" s="38">
         <v>428695</v>
       </c>
-      <c r="KA36" s="5">
+      <c r="KA36" s="38">
         <v>435910</v>
       </c>
-      <c r="KB36" s="5">
+      <c r="KB36" s="38">
         <v>440985</v>
       </c>
-      <c r="KC36" s="5">
+      <c r="KC36" s="33">
         <v>435940</v>
       </c>
-      <c r="KD36" s="33">
+      <c r="KD36" s="5">
         <v>436592</v>
       </c>
+      <c r="KE36" s="33">
+        <v>437479</v>
+      </c>
     </row>
-    <row r="37" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -31002,44 +31103,47 @@
       <c r="JR37" s="11">
         <v>194660</v>
       </c>
-      <c r="JS37" s="5">
+      <c r="JS37" s="38">
         <v>195650</v>
       </c>
-      <c r="JT37" s="5">
+      <c r="JT37" s="38">
         <v>197131</v>
       </c>
-      <c r="JU37" s="5">
+      <c r="JU37" s="38">
         <v>197853</v>
       </c>
-      <c r="JV37" s="5">
+      <c r="JV37" s="38">
         <v>198536</v>
       </c>
-      <c r="JW37" s="5">
+      <c r="JW37" s="38">
         <v>199578</v>
       </c>
-      <c r="JX37" s="5">
+      <c r="JX37" s="38">
         <v>198313</v>
       </c>
-      <c r="JY37" s="5">
+      <c r="JY37" s="38">
         <v>197258</v>
       </c>
-      <c r="JZ37" s="5">
+      <c r="JZ37" s="38">
         <v>198248</v>
       </c>
-      <c r="KA37" s="5">
+      <c r="KA37" s="38">
         <v>197966</v>
       </c>
-      <c r="KB37" s="5">
+      <c r="KB37" s="38">
         <v>199152</v>
       </c>
-      <c r="KC37" s="5">
+      <c r="KC37" s="33">
         <v>197733</v>
       </c>
-      <c r="KD37" s="33">
+      <c r="KD37" s="5">
         <v>196071</v>
       </c>
+      <c r="KE37" s="33">
+        <v>197132</v>
+      </c>
     </row>
-    <row r="38" spans="1:290" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -31906,14 +32010,17 @@
       <c r="KB38" s="9">
         <v>22409268</v>
       </c>
-      <c r="KC38" s="9">
+      <c r="KC38" s="34">
         <v>22024386</v>
       </c>
-      <c r="KD38" s="34">
+      <c r="KD38" s="9">
         <v>22133407</v>
       </c>
+      <c r="KE38" s="34">
+        <v>22289810</v>
+      </c>
     </row>
-    <row r="40" spans="1:290" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:291" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223B78FF-A682-4E43-BE09-A6E894684143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C806C9F9-E8F5-4635-858F-9129AA2B16D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ta entidades" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -860,7 +849,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -932,11 +921,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -997,9 +989,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1037,9 +1029,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1072,9 +1064,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1107,9 +1116,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1283,120 +1309,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KE40"/>
+  <dimension ref="A1:KI40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JQ1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KG14" sqref="KG14"/>
+      <pane xSplit="1" topLeftCell="JY1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KF5" sqref="KF5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="33" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="33" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="43" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.109375" customWidth="1"/>
-    <col min="45" max="45" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="43" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.140625" customWidth="1"/>
+    <col min="45" max="45" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="11" bestFit="1" customWidth="1"/>
-    <col min="49" max="57" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="57" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="11" bestFit="1" customWidth="1"/>
-    <col min="61" max="69" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="69" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="11" bestFit="1" customWidth="1"/>
-    <col min="73" max="81" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="81" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="11" bestFit="1" customWidth="1"/>
-    <col min="85" max="93" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="93" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="11" bestFit="1" customWidth="1"/>
-    <col min="97" max="105" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="97" max="105" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="11" bestFit="1" customWidth="1"/>
-    <col min="109" max="117" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="109" max="117" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="11" bestFit="1" customWidth="1"/>
-    <col min="121" max="129" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="121" max="129" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="11" bestFit="1" customWidth="1"/>
-    <col min="133" max="141" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="133" max="141" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="11" bestFit="1" customWidth="1"/>
-    <col min="145" max="153" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="145" max="153" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="156" max="156" width="11" bestFit="1" customWidth="1"/>
-    <col min="157" max="165" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="157" max="165" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="168" max="168" width="11" bestFit="1" customWidth="1"/>
-    <col min="169" max="177" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="169" max="177" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="180" max="180" width="11" bestFit="1" customWidth="1"/>
-    <col min="181" max="189" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="181" max="189" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="192" max="192" width="11" bestFit="1" customWidth="1"/>
-    <col min="193" max="201" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="193" max="201" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="204" max="204" width="11" bestFit="1" customWidth="1"/>
-    <col min="205" max="213" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="205" max="213" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="214" max="214" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="215" max="215" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="216" max="216" width="11" bestFit="1" customWidth="1"/>
-    <col min="217" max="225" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="226" max="226" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="227" max="227" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="217" max="225" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="228" max="228" width="11" bestFit="1" customWidth="1"/>
-    <col min="229" max="237" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="238" max="238" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="229" max="237" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="238" max="238" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="240" max="240" width="11" bestFit="1" customWidth="1"/>
-    <col min="241" max="249" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="250" max="250" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="241" max="249" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="11" bestFit="1" customWidth="1"/>
-    <col min="253" max="261" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="262" max="264" width="10.6640625" customWidth="1"/>
-    <col min="265" max="265" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="266" max="278" width="10.77734375" customWidth="1"/>
+    <col min="253" max="261" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="262" max="264" width="10.7109375" customWidth="1"/>
+    <col min="265" max="265" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="266" max="278" width="10.7109375" customWidth="1"/>
+    <col min="292" max="292" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:291" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="14">
@@ -2269,9 +2296,12 @@
       <c r="KE4" s="32">
         <v>2024</v>
       </c>
+      <c r="KF4" s="32">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:291" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:295" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
@@ -3142,8 +3172,11 @@
       <c r="KE5" s="35" t="s">
         <v>30</v>
       </c>
+      <c r="KF5" s="40" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="6" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -3987,25 +4020,25 @@
       <c r="JU6" s="3">
         <v>350248</v>
       </c>
-      <c r="JV6" s="38">
+      <c r="JV6" s="37">
         <v>351682</v>
       </c>
-      <c r="JW6" s="38">
+      <c r="JW6" s="37">
         <v>352869</v>
       </c>
-      <c r="JX6" s="38">
+      <c r="JX6" s="37">
         <v>353314</v>
       </c>
-      <c r="JY6" s="38">
+      <c r="JY6" s="37">
         <v>355756</v>
       </c>
-      <c r="JZ6" s="38">
+      <c r="JZ6" s="37">
         <v>356983</v>
       </c>
-      <c r="KA6" s="38">
+      <c r="KA6" s="37">
         <v>359855</v>
       </c>
-      <c r="KB6" s="38">
+      <c r="KB6" s="37">
         <v>361685</v>
       </c>
       <c r="KC6" s="33">
@@ -4017,8 +4050,14 @@
       <c r="KE6" s="33">
         <v>360685</v>
       </c>
+      <c r="KF6" s="33">
+        <v>361350</v>
+      </c>
+      <c r="KG6"/>
+      <c r="KH6"/>
+      <c r="KI6"/>
     </row>
-    <row r="7" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4853,34 +4892,34 @@
       <c r="JR7" s="11">
         <v>1028938</v>
       </c>
-      <c r="JS7" s="38">
+      <c r="JS7" s="37">
         <v>1034668</v>
       </c>
-      <c r="JT7" s="38">
+      <c r="JT7" s="37">
         <v>1042019</v>
       </c>
-      <c r="JU7" s="38">
+      <c r="JU7" s="37">
         <v>1044130</v>
       </c>
-      <c r="JV7" s="38">
+      <c r="JV7" s="37">
         <v>1043557</v>
       </c>
-      <c r="JW7" s="38">
+      <c r="JW7" s="37">
         <v>1045333</v>
       </c>
-      <c r="JX7" s="38">
+      <c r="JX7" s="37">
         <v>1044146</v>
       </c>
-      <c r="JY7" s="38">
+      <c r="JY7" s="37">
         <v>1043482</v>
       </c>
-      <c r="JZ7" s="38">
+      <c r="JZ7" s="37">
         <v>1052411</v>
       </c>
-      <c r="KA7" s="38">
+      <c r="KA7" s="37">
         <v>1053062</v>
       </c>
-      <c r="KB7" s="38">
+      <c r="KB7" s="37">
         <v>1052398</v>
       </c>
       <c r="KC7" s="33">
@@ -4892,8 +4931,14 @@
       <c r="KE7" s="33">
         <v>1047545</v>
       </c>
+      <c r="KF7" s="33">
+        <v>1050451</v>
+      </c>
+      <c r="KG7"/>
+      <c r="KH7"/>
+      <c r="KI7"/>
     </row>
-    <row r="8" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5728,34 +5773,34 @@
       <c r="JR8" s="11">
         <v>210964</v>
       </c>
-      <c r="JS8" s="38">
+      <c r="JS8" s="37">
         <v>214679</v>
       </c>
-      <c r="JT8" s="38">
+      <c r="JT8" s="37">
         <v>217046</v>
       </c>
-      <c r="JU8" s="38">
+      <c r="JU8" s="37">
         <v>217679</v>
       </c>
-      <c r="JV8" s="38">
+      <c r="JV8" s="37">
         <v>221292</v>
       </c>
-      <c r="JW8" s="38">
+      <c r="JW8" s="37">
         <v>223911</v>
       </c>
-      <c r="JX8" s="38">
+      <c r="JX8" s="37">
         <v>221789</v>
       </c>
-      <c r="JY8" s="38">
+      <c r="JY8" s="37">
         <v>222023</v>
       </c>
-      <c r="JZ8" s="38">
+      <c r="JZ8" s="37">
         <v>224496</v>
       </c>
-      <c r="KA8" s="38">
+      <c r="KA8" s="37">
         <v>226464</v>
       </c>
-      <c r="KB8" s="38">
+      <c r="KB8" s="37">
         <v>227641</v>
       </c>
       <c r="KC8" s="33">
@@ -5767,8 +5812,14 @@
       <c r="KE8" s="33">
         <v>220529</v>
       </c>
+      <c r="KF8" s="33">
+        <v>219663</v>
+      </c>
+      <c r="KG8"/>
+      <c r="KH8"/>
+      <c r="KI8"/>
     </row>
-    <row r="9" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6603,34 +6654,34 @@
       <c r="JR9" s="11">
         <v>138820</v>
       </c>
-      <c r="JS9" s="38">
+      <c r="JS9" s="37">
         <v>139410</v>
       </c>
-      <c r="JT9" s="38">
+      <c r="JT9" s="37">
         <v>139841</v>
       </c>
-      <c r="JU9" s="38">
+      <c r="JU9" s="37">
         <v>140182</v>
       </c>
-      <c r="JV9" s="38">
+      <c r="JV9" s="37">
         <v>139905</v>
       </c>
-      <c r="JW9" s="38">
+      <c r="JW9" s="37">
         <v>141245</v>
       </c>
-      <c r="JX9" s="38">
+      <c r="JX9" s="37">
         <v>141252</v>
       </c>
-      <c r="JY9" s="38">
+      <c r="JY9" s="37">
         <v>142081</v>
       </c>
-      <c r="JZ9" s="38">
+      <c r="JZ9" s="37">
         <v>143390</v>
       </c>
-      <c r="KA9" s="38">
+      <c r="KA9" s="37">
         <v>144679</v>
       </c>
-      <c r="KB9" s="38">
+      <c r="KB9" s="37">
         <v>145539</v>
       </c>
       <c r="KC9" s="33">
@@ -6642,8 +6693,14 @@
       <c r="KE9" s="33">
         <v>143456</v>
       </c>
+      <c r="KF9" s="33">
+        <v>143638</v>
+      </c>
+      <c r="KG9"/>
+      <c r="KH9"/>
+      <c r="KI9"/>
     </row>
-    <row r="10" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7478,34 +7535,34 @@
       <c r="JR10" s="11">
         <v>240012</v>
       </c>
-      <c r="JS10" s="38">
+      <c r="JS10" s="37">
         <v>241547</v>
       </c>
-      <c r="JT10" s="38">
+      <c r="JT10" s="37">
         <v>243734</v>
       </c>
-      <c r="JU10" s="38">
+      <c r="JU10" s="37">
         <v>245920</v>
       </c>
-      <c r="JV10" s="38">
+      <c r="JV10" s="37">
         <v>243926</v>
       </c>
-      <c r="JW10" s="38">
+      <c r="JW10" s="37">
         <v>245769</v>
       </c>
-      <c r="JX10" s="38">
+      <c r="JX10" s="37">
         <v>246191</v>
       </c>
-      <c r="JY10" s="38">
+      <c r="JY10" s="37">
         <v>247892</v>
       </c>
-      <c r="JZ10" s="38">
+      <c r="JZ10" s="37">
         <v>249706</v>
       </c>
-      <c r="KA10" s="38">
+      <c r="KA10" s="37">
         <v>253480</v>
       </c>
-      <c r="KB10" s="38">
+      <c r="KB10" s="37">
         <v>257279</v>
       </c>
       <c r="KC10" s="33">
@@ -7517,8 +7574,14 @@
       <c r="KE10" s="33">
         <v>256060</v>
       </c>
+      <c r="KF10" s="33">
+        <v>256846</v>
+      </c>
+      <c r="KG10"/>
+      <c r="KH10"/>
+      <c r="KI10"/>
     </row>
-    <row r="11" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8353,34 +8416,34 @@
       <c r="JR11" s="11">
         <v>974271</v>
       </c>
-      <c r="JS11" s="38">
+      <c r="JS11" s="37">
         <v>981673</v>
       </c>
-      <c r="JT11" s="38">
+      <c r="JT11" s="37">
         <v>987450</v>
       </c>
-      <c r="JU11" s="38">
+      <c r="JU11" s="37">
         <v>986550</v>
       </c>
-      <c r="JV11" s="38">
+      <c r="JV11" s="37">
         <v>988994</v>
       </c>
-      <c r="JW11" s="38">
+      <c r="JW11" s="37">
         <v>989243</v>
       </c>
-      <c r="JX11" s="38">
+      <c r="JX11" s="37">
         <v>985556</v>
       </c>
-      <c r="JY11" s="38">
+      <c r="JY11" s="37">
         <v>989672</v>
       </c>
-      <c r="JZ11" s="38">
+      <c r="JZ11" s="37">
         <v>988753</v>
       </c>
-      <c r="KA11" s="38">
+      <c r="KA11" s="37">
         <v>993563</v>
       </c>
-      <c r="KB11" s="38">
+      <c r="KB11" s="37">
         <v>993266</v>
       </c>
       <c r="KC11" s="33">
@@ -8392,8 +8455,14 @@
       <c r="KE11" s="33">
         <v>980496</v>
       </c>
+      <c r="KF11" s="33">
+        <v>978195</v>
+      </c>
+      <c r="KG11"/>
+      <c r="KH11"/>
+      <c r="KI11"/>
     </row>
-    <row r="12" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -9228,34 +9297,34 @@
       <c r="JR12" s="11">
         <v>3378694</v>
       </c>
-      <c r="JS12" s="38">
+      <c r="JS12" s="37">
         <v>3397269</v>
       </c>
-      <c r="JT12" s="38">
+      <c r="JT12" s="37">
         <v>3411513</v>
       </c>
-      <c r="JU12" s="38">
+      <c r="JU12" s="37">
         <v>3421435</v>
       </c>
-      <c r="JV12" s="38">
+      <c r="JV12" s="37">
         <v>3434727</v>
       </c>
-      <c r="JW12" s="38">
+      <c r="JW12" s="37">
         <v>3435501</v>
       </c>
-      <c r="JX12" s="38">
+      <c r="JX12" s="37">
         <v>3437595</v>
       </c>
-      <c r="JY12" s="38">
+      <c r="JY12" s="37">
         <v>3457511</v>
       </c>
-      <c r="JZ12" s="38">
+      <c r="JZ12" s="37">
         <v>3481313</v>
       </c>
-      <c r="KA12" s="38">
+      <c r="KA12" s="37">
         <v>3510190</v>
       </c>
-      <c r="KB12" s="38">
+      <c r="KB12" s="37">
         <v>3525039</v>
       </c>
       <c r="KC12" s="33">
@@ -9267,8 +9336,14 @@
       <c r="KE12" s="33">
         <v>3466984</v>
       </c>
+      <c r="KF12" s="33">
+        <v>3467734</v>
+      </c>
+      <c r="KG12"/>
+      <c r="KH12"/>
+      <c r="KI12"/>
     </row>
-    <row r="13" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -10103,34 +10178,34 @@
       <c r="JR13" s="11">
         <v>832780</v>
       </c>
-      <c r="JS13" s="38">
+      <c r="JS13" s="37">
         <v>840308</v>
       </c>
-      <c r="JT13" s="38">
+      <c r="JT13" s="37">
         <v>846697</v>
       </c>
-      <c r="JU13" s="38">
+      <c r="JU13" s="37">
         <v>850971</v>
       </c>
-      <c r="JV13" s="38">
+      <c r="JV13" s="37">
         <v>854579</v>
       </c>
-      <c r="JW13" s="38">
+      <c r="JW13" s="37">
         <v>856217</v>
       </c>
-      <c r="JX13" s="38">
+      <c r="JX13" s="37">
         <v>858097</v>
       </c>
-      <c r="JY13" s="38">
+      <c r="JY13" s="37">
         <v>864471</v>
       </c>
-      <c r="JZ13" s="38">
+      <c r="JZ13" s="37">
         <v>867251</v>
       </c>
-      <c r="KA13" s="38">
+      <c r="KA13" s="37">
         <v>872476</v>
       </c>
-      <c r="KB13" s="38">
+      <c r="KB13" s="37">
         <v>871739</v>
       </c>
       <c r="KC13" s="33">
@@ -10142,8 +10217,14 @@
       <c r="KE13" s="33">
         <v>871609</v>
       </c>
+      <c r="KF13" s="33">
+        <v>872670</v>
+      </c>
+      <c r="KG13"/>
+      <c r="KH13"/>
+      <c r="KI13"/>
     </row>
-    <row r="14" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -10978,34 +11059,34 @@
       <c r="JR14" s="11">
         <v>147284</v>
       </c>
-      <c r="JS14" s="38">
+      <c r="JS14" s="37">
         <v>147989</v>
       </c>
-      <c r="JT14" s="38">
+      <c r="JT14" s="37">
         <v>148585</v>
       </c>
-      <c r="JU14" s="38">
+      <c r="JU14" s="37">
         <v>149082</v>
       </c>
-      <c r="JV14" s="38">
+      <c r="JV14" s="37">
         <v>148990</v>
       </c>
-      <c r="JW14" s="38">
+      <c r="JW14" s="37">
         <v>147497</v>
       </c>
-      <c r="JX14" s="38">
+      <c r="JX14" s="37">
         <v>147717</v>
       </c>
-      <c r="JY14" s="38">
+      <c r="JY14" s="37">
         <v>149276</v>
       </c>
-      <c r="JZ14" s="38">
+      <c r="JZ14" s="37">
         <v>149679</v>
       </c>
-      <c r="KA14" s="38">
+      <c r="KA14" s="37">
         <v>150906</v>
       </c>
-      <c r="KB14" s="38">
+      <c r="KB14" s="37">
         <v>151154</v>
       </c>
       <c r="KC14" s="33">
@@ -11017,8 +11098,14 @@
       <c r="KE14" s="33">
         <v>151407</v>
       </c>
+      <c r="KF14" s="33">
+        <v>151704</v>
+      </c>
+      <c r="KG14"/>
+      <c r="KH14"/>
+      <c r="KI14"/>
     </row>
-    <row r="15" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -11853,34 +11940,34 @@
       <c r="JR15" s="11">
         <v>258023</v>
       </c>
-      <c r="JS15" s="38">
+      <c r="JS15" s="37">
         <v>260506</v>
       </c>
-      <c r="JT15" s="38">
+      <c r="JT15" s="37">
         <v>260331</v>
       </c>
-      <c r="JU15" s="38">
+      <c r="JU15" s="37">
         <v>260824</v>
       </c>
-      <c r="JV15" s="38">
+      <c r="JV15" s="37">
         <v>261209</v>
       </c>
-      <c r="JW15" s="38">
+      <c r="JW15" s="37">
         <v>260828</v>
       </c>
-      <c r="JX15" s="38">
+      <c r="JX15" s="37">
         <v>259414</v>
       </c>
-      <c r="JY15" s="38">
+      <c r="JY15" s="37">
         <v>260941</v>
       </c>
-      <c r="JZ15" s="38">
+      <c r="JZ15" s="37">
         <v>261590</v>
       </c>
-      <c r="KA15" s="38">
+      <c r="KA15" s="37">
         <v>262051</v>
       </c>
-      <c r="KB15" s="38">
+      <c r="KB15" s="37">
         <v>261715</v>
       </c>
       <c r="KC15" s="33">
@@ -11892,8 +11979,14 @@
       <c r="KE15" s="33">
         <v>260555</v>
       </c>
+      <c r="KF15" s="33">
+        <v>259834</v>
+      </c>
+      <c r="KG15"/>
+      <c r="KH15"/>
+      <c r="KI15"/>
     </row>
-    <row r="16" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12728,34 +12821,34 @@
       <c r="JR16" s="11">
         <v>1726186</v>
       </c>
-      <c r="JS16" s="38">
+      <c r="JS16" s="37">
         <v>1737289</v>
       </c>
-      <c r="JT16" s="38">
+      <c r="JT16" s="37">
         <v>1751101</v>
       </c>
-      <c r="JU16" s="38">
+      <c r="JU16" s="37">
         <v>1755514</v>
       </c>
-      <c r="JV16" s="38">
+      <c r="JV16" s="37">
         <v>1770513</v>
       </c>
-      <c r="JW16" s="38">
+      <c r="JW16" s="37">
         <v>1774815</v>
       </c>
-      <c r="JX16" s="38">
+      <c r="JX16" s="37">
         <v>1778037</v>
       </c>
-      <c r="JY16" s="38">
+      <c r="JY16" s="37">
         <v>1780259</v>
       </c>
-      <c r="JZ16" s="38">
+      <c r="JZ16" s="37">
         <v>1797453</v>
       </c>
-      <c r="KA16" s="38">
+      <c r="KA16" s="37">
         <v>1814390</v>
       </c>
-      <c r="KB16" s="38">
+      <c r="KB16" s="37">
         <v>1827708</v>
       </c>
       <c r="KC16" s="33">
@@ -12767,8 +12860,14 @@
       <c r="KE16" s="33">
         <v>1824137</v>
       </c>
+      <c r="KF16" s="33">
+        <v>1827655</v>
+      </c>
+      <c r="KG16"/>
+      <c r="KH16"/>
+      <c r="KI16"/>
     </row>
-    <row r="17" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13603,34 +13702,34 @@
       <c r="JR17" s="11">
         <v>1052198</v>
       </c>
-      <c r="JS17" s="38">
+      <c r="JS17" s="37">
         <v>1065032</v>
       </c>
-      <c r="JT17" s="38">
+      <c r="JT17" s="37">
         <v>1073605</v>
       </c>
-      <c r="JU17" s="38">
+      <c r="JU17" s="37">
         <v>1077268</v>
       </c>
-      <c r="JV17" s="38">
+      <c r="JV17" s="37">
         <v>1083248</v>
       </c>
-      <c r="JW17" s="38">
+      <c r="JW17" s="37">
         <v>1089716</v>
       </c>
-      <c r="JX17" s="38">
+      <c r="JX17" s="37">
         <v>1089215</v>
       </c>
-      <c r="JY17" s="38">
+      <c r="JY17" s="37">
         <v>1094757</v>
       </c>
-      <c r="JZ17" s="38">
+      <c r="JZ17" s="37">
         <v>1097414</v>
       </c>
-      <c r="KA17" s="38">
+      <c r="KA17" s="37">
         <v>1106806</v>
       </c>
-      <c r="KB17" s="38">
+      <c r="KB17" s="37">
         <v>1110342</v>
       </c>
       <c r="KC17" s="33">
@@ -13642,8 +13741,14 @@
       <c r="KE17" s="33">
         <v>1103644</v>
       </c>
+      <c r="KF17" s="33">
+        <v>1104822</v>
+      </c>
+      <c r="KG17"/>
+      <c r="KH17"/>
+      <c r="KI17"/>
     </row>
-    <row r="18" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14478,34 +14583,34 @@
       <c r="JR18" s="11">
         <v>156417</v>
       </c>
-      <c r="JS18" s="38">
+      <c r="JS18" s="37">
         <v>157749</v>
       </c>
-      <c r="JT18" s="38">
+      <c r="JT18" s="37">
         <v>158225</v>
       </c>
-      <c r="JU18" s="38">
+      <c r="JU18" s="37">
         <v>158324</v>
       </c>
-      <c r="JV18" s="38">
+      <c r="JV18" s="37">
         <v>157429</v>
       </c>
-      <c r="JW18" s="38">
+      <c r="JW18" s="37">
         <v>158647</v>
       </c>
-      <c r="JX18" s="38">
+      <c r="JX18" s="37">
         <v>161654</v>
       </c>
-      <c r="JY18" s="38">
+      <c r="JY18" s="37">
         <v>160276</v>
       </c>
-      <c r="JZ18" s="38">
+      <c r="JZ18" s="37">
         <v>161035</v>
       </c>
-      <c r="KA18" s="38">
+      <c r="KA18" s="37">
         <v>163257</v>
       </c>
-      <c r="KB18" s="38">
+      <c r="KB18" s="37">
         <v>158855</v>
       </c>
       <c r="KC18" s="33">
@@ -14517,8 +14622,14 @@
       <c r="KE18" s="33">
         <v>160862</v>
       </c>
+      <c r="KF18" s="33">
+        <v>163685</v>
+      </c>
+      <c r="KG18"/>
+      <c r="KH18"/>
+      <c r="KI18"/>
     </row>
-    <row r="19" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15353,34 +15464,34 @@
       <c r="JR19" s="11">
         <v>258198</v>
       </c>
-      <c r="JS19" s="38">
+      <c r="JS19" s="37">
         <v>260429</v>
       </c>
-      <c r="JT19" s="38">
+      <c r="JT19" s="37">
         <v>261584</v>
       </c>
-      <c r="JU19" s="38">
+      <c r="JU19" s="37">
         <v>263144</v>
       </c>
-      <c r="JV19" s="38">
+      <c r="JV19" s="37">
         <v>264145</v>
       </c>
-      <c r="JW19" s="38">
+      <c r="JW19" s="37">
         <v>265857</v>
       </c>
-      <c r="JX19" s="38">
+      <c r="JX19" s="37">
         <v>265391</v>
       </c>
-      <c r="JY19" s="38">
+      <c r="JY19" s="37">
         <v>268862</v>
       </c>
-      <c r="JZ19" s="38">
+      <c r="JZ19" s="37">
         <v>269495</v>
       </c>
-      <c r="KA19" s="38">
+      <c r="KA19" s="37">
         <v>273338</v>
       </c>
-      <c r="KB19" s="38">
+      <c r="KB19" s="37">
         <v>275077</v>
       </c>
       <c r="KC19" s="33">
@@ -15392,8 +15503,14 @@
       <c r="KE19" s="33">
         <v>279243</v>
       </c>
+      <c r="KF19" s="33">
+        <v>276494</v>
+      </c>
+      <c r="KG19"/>
+      <c r="KH19"/>
+      <c r="KI19"/>
     </row>
-    <row r="20" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -16228,34 +16345,34 @@
       <c r="JR20" s="22">
         <v>1951256</v>
       </c>
-      <c r="JS20" s="39">
+      <c r="JS20" s="38">
         <v>1964519</v>
       </c>
-      <c r="JT20" s="39">
+      <c r="JT20" s="38">
         <v>1972715</v>
       </c>
-      <c r="JU20" s="39">
+      <c r="JU20" s="38">
         <v>1973202</v>
       </c>
-      <c r="JV20" s="39">
+      <c r="JV20" s="38">
         <v>1974565</v>
       </c>
-      <c r="JW20" s="39">
+      <c r="JW20" s="38">
         <v>1980790</v>
       </c>
-      <c r="JX20" s="39">
+      <c r="JX20" s="38">
         <v>1981146</v>
       </c>
-      <c r="JY20" s="39">
+      <c r="JY20" s="38">
         <v>1988746</v>
       </c>
-      <c r="JZ20" s="39">
+      <c r="JZ20" s="38">
         <v>1999360</v>
       </c>
-      <c r="KA20" s="39">
+      <c r="KA20" s="38">
         <v>2013431</v>
       </c>
-      <c r="KB20" s="39">
+      <c r="KB20" s="38">
         <v>2026935</v>
       </c>
       <c r="KC20" s="36">
@@ -16267,8 +16384,14 @@
       <c r="KE20" s="36">
         <v>2017879</v>
       </c>
+      <c r="KF20" s="36">
+        <v>2017626</v>
+      </c>
+      <c r="KG20"/>
+      <c r="KH20"/>
+      <c r="KI20"/>
     </row>
-    <row r="21" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -17103,34 +17226,34 @@
       <c r="JR21" s="11">
         <v>472641</v>
       </c>
-      <c r="JS21" s="38">
+      <c r="JS21" s="37">
         <v>475986</v>
       </c>
-      <c r="JT21" s="38">
+      <c r="JT21" s="37">
         <v>479369</v>
       </c>
-      <c r="JU21" s="38">
+      <c r="JU21" s="37">
         <v>477659</v>
       </c>
-      <c r="JV21" s="38">
+      <c r="JV21" s="37">
         <v>477373</v>
       </c>
-      <c r="JW21" s="38">
+      <c r="JW21" s="37">
         <v>474510</v>
       </c>
-      <c r="JX21" s="38">
+      <c r="JX21" s="37">
         <v>473960</v>
       </c>
-      <c r="JY21" s="38">
+      <c r="JY21" s="37">
         <v>474906</v>
       </c>
-      <c r="JZ21" s="38">
+      <c r="JZ21" s="37">
         <v>478154</v>
       </c>
-      <c r="KA21" s="38">
+      <c r="KA21" s="37">
         <v>484413</v>
       </c>
-      <c r="KB21" s="38">
+      <c r="KB21" s="37">
         <v>487300</v>
       </c>
       <c r="KC21" s="33">
@@ -17142,8 +17265,14 @@
       <c r="KE21" s="33">
         <v>488387</v>
       </c>
+      <c r="KF21" s="33">
+        <v>486323</v>
+      </c>
+      <c r="KG21"/>
+      <c r="KH21"/>
+      <c r="KI21"/>
     </row>
-    <row r="22" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -17978,34 +18107,34 @@
       <c r="JR22" s="11">
         <v>214502</v>
       </c>
-      <c r="JS22" s="38">
+      <c r="JS22" s="37">
         <v>217018</v>
       </c>
-      <c r="JT22" s="38">
+      <c r="JT22" s="37">
         <v>217395</v>
       </c>
-      <c r="JU22" s="38">
+      <c r="JU22" s="37">
         <v>216611</v>
       </c>
-      <c r="JV22" s="38">
+      <c r="JV22" s="37">
         <v>216522</v>
       </c>
-      <c r="JW22" s="38">
+      <c r="JW22" s="37">
         <v>216297</v>
       </c>
-      <c r="JX22" s="38">
+      <c r="JX22" s="37">
         <v>217388</v>
       </c>
-      <c r="JY22" s="38">
+      <c r="JY22" s="37">
         <v>217650</v>
       </c>
-      <c r="JZ22" s="38">
+      <c r="JZ22" s="37">
         <v>219447</v>
       </c>
-      <c r="KA22" s="38">
+      <c r="KA22" s="37">
         <v>221441</v>
       </c>
-      <c r="KB22" s="38">
+      <c r="KB22" s="37">
         <v>224260</v>
       </c>
       <c r="KC22" s="33">
@@ -18017,8 +18146,14 @@
       <c r="KE22" s="33">
         <v>223440</v>
       </c>
+      <c r="KF22" s="33">
+        <v>223345</v>
+      </c>
+      <c r="KG22"/>
+      <c r="KH22"/>
+      <c r="KI22"/>
     </row>
-    <row r="23" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -18853,34 +18988,34 @@
       <c r="JR23" s="11">
         <v>176638</v>
       </c>
-      <c r="JS23" s="38">
+      <c r="JS23" s="37">
         <v>178399</v>
       </c>
-      <c r="JT23" s="38">
+      <c r="JT23" s="37">
         <v>178378</v>
       </c>
-      <c r="JU23" s="38">
+      <c r="JU23" s="37">
         <v>179172</v>
       </c>
-      <c r="JV23" s="38">
+      <c r="JV23" s="37">
         <v>179978</v>
       </c>
-      <c r="JW23" s="38">
+      <c r="JW23" s="37">
         <v>180779</v>
       </c>
-      <c r="JX23" s="38">
+      <c r="JX23" s="37">
         <v>179570</v>
       </c>
-      <c r="JY23" s="38">
+      <c r="JY23" s="37">
         <v>182215</v>
       </c>
-      <c r="JZ23" s="38">
+      <c r="JZ23" s="37">
         <v>183262</v>
       </c>
-      <c r="KA23" s="38">
+      <c r="KA23" s="37">
         <v>185925</v>
       </c>
-      <c r="KB23" s="38">
+      <c r="KB23" s="37">
         <v>187459</v>
       </c>
       <c r="KC23" s="33">
@@ -18892,8 +19027,14 @@
       <c r="KE23" s="33">
         <v>188234</v>
       </c>
+      <c r="KF23" s="33">
+        <v>186881</v>
+      </c>
+      <c r="KG23"/>
+      <c r="KH23"/>
+      <c r="KI23"/>
     </row>
-    <row r="24" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -19728,34 +19869,34 @@
       <c r="JR24" s="11">
         <v>1790298</v>
       </c>
-      <c r="JS24" s="38">
+      <c r="JS24" s="37">
         <v>1807149</v>
       </c>
-      <c r="JT24" s="38">
+      <c r="JT24" s="37">
         <v>1820641</v>
       </c>
-      <c r="JU24" s="38">
+      <c r="JU24" s="37">
         <v>1826259</v>
       </c>
-      <c r="JV24" s="38">
+      <c r="JV24" s="37">
         <v>1831995</v>
       </c>
-      <c r="JW24" s="38">
+      <c r="JW24" s="37">
         <v>1836446</v>
       </c>
-      <c r="JX24" s="38">
+      <c r="JX24" s="37">
         <v>1843396</v>
       </c>
-      <c r="JY24" s="38">
+      <c r="JY24" s="37">
         <v>1853669</v>
       </c>
-      <c r="JZ24" s="38">
+      <c r="JZ24" s="37">
         <v>1863085</v>
       </c>
-      <c r="KA24" s="38">
+      <c r="KA24" s="37">
         <v>1878906</v>
       </c>
-      <c r="KB24" s="38">
+      <c r="KB24" s="37">
         <v>1887265</v>
       </c>
       <c r="KC24" s="33">
@@ -19767,8 +19908,14 @@
       <c r="KE24" s="33">
         <v>1884748</v>
       </c>
+      <c r="KF24" s="33">
+        <v>1885214</v>
+      </c>
+      <c r="KG24"/>
+      <c r="KH24"/>
+      <c r="KI24"/>
     </row>
-    <row r="25" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20603,34 +20750,34 @@
       <c r="JR25" s="11">
         <v>224466</v>
       </c>
-      <c r="JS25" s="38">
+      <c r="JS25" s="37">
         <v>226566</v>
       </c>
-      <c r="JT25" s="38">
+      <c r="JT25" s="37">
         <v>227470</v>
       </c>
-      <c r="JU25" s="38">
+      <c r="JU25" s="37">
         <v>225008</v>
       </c>
-      <c r="JV25" s="38">
+      <c r="JV25" s="37">
         <v>224316</v>
       </c>
-      <c r="JW25" s="38">
+      <c r="JW25" s="37">
         <v>224997</v>
       </c>
-      <c r="JX25" s="38">
+      <c r="JX25" s="37">
         <v>225886</v>
       </c>
-      <c r="JY25" s="38">
+      <c r="JY25" s="37">
         <v>225997</v>
       </c>
-      <c r="JZ25" s="38">
+      <c r="JZ25" s="37">
         <v>226620</v>
       </c>
-      <c r="KA25" s="38">
+      <c r="KA25" s="37">
         <v>230247</v>
       </c>
-      <c r="KB25" s="38">
+      <c r="KB25" s="37">
         <v>233978</v>
       </c>
       <c r="KC25" s="33">
@@ -20642,8 +20789,14 @@
       <c r="KE25" s="33">
         <v>233355</v>
       </c>
+      <c r="KF25" s="33">
+        <v>232869</v>
+      </c>
+      <c r="KG25"/>
+      <c r="KH25"/>
+      <c r="KI25"/>
     </row>
-    <row r="26" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21478,34 +21631,34 @@
       <c r="JR26" s="11">
         <v>629907</v>
       </c>
-      <c r="JS26" s="38">
+      <c r="JS26" s="37">
         <v>634127</v>
       </c>
-      <c r="JT26" s="38">
+      <c r="JT26" s="37">
         <v>637925</v>
       </c>
-      <c r="JU26" s="38">
+      <c r="JU26" s="37">
         <v>637791</v>
       </c>
-      <c r="JV26" s="38">
+      <c r="JV26" s="37">
         <v>637794</v>
       </c>
-      <c r="JW26" s="38">
+      <c r="JW26" s="37">
         <v>641125</v>
       </c>
-      <c r="JX26" s="38">
+      <c r="JX26" s="37">
         <v>644088</v>
       </c>
-      <c r="JY26" s="38">
+      <c r="JY26" s="37">
         <v>646699</v>
       </c>
-      <c r="JZ26" s="38">
+      <c r="JZ26" s="37">
         <v>648509</v>
       </c>
-      <c r="KA26" s="38">
+      <c r="KA26" s="37">
         <v>652910</v>
       </c>
-      <c r="KB26" s="38">
+      <c r="KB26" s="37">
         <v>657749</v>
       </c>
       <c r="KC26" s="33">
@@ -21517,8 +21670,14 @@
       <c r="KE26" s="33">
         <v>653152</v>
       </c>
+      <c r="KF26" s="33">
+        <v>652936</v>
+      </c>
+      <c r="KG26"/>
+      <c r="KH26"/>
+      <c r="KI26"/>
     </row>
-    <row r="27" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -22353,34 +22512,34 @@
       <c r="JR27" s="11">
         <v>668677</v>
       </c>
-      <c r="JS27" s="38">
+      <c r="JS27" s="37">
         <v>676216</v>
       </c>
-      <c r="JT27" s="38">
+      <c r="JT27" s="37">
         <v>681441</v>
       </c>
-      <c r="JU27" s="38">
+      <c r="JU27" s="37">
         <v>682969</v>
       </c>
-      <c r="JV27" s="38">
+      <c r="JV27" s="37">
         <v>687827</v>
       </c>
-      <c r="JW27" s="38">
+      <c r="JW27" s="37">
         <v>688819</v>
       </c>
-      <c r="JX27" s="38">
+      <c r="JX27" s="37">
         <v>690086</v>
       </c>
-      <c r="JY27" s="38">
+      <c r="JY27" s="37">
         <v>697978</v>
       </c>
-      <c r="JZ27" s="38">
+      <c r="JZ27" s="37">
         <v>701522</v>
       </c>
-      <c r="KA27" s="38">
+      <c r="KA27" s="37">
         <v>706727</v>
       </c>
-      <c r="KB27" s="38">
+      <c r="KB27" s="37">
         <v>708309</v>
       </c>
       <c r="KC27" s="33">
@@ -22392,8 +22551,14 @@
       <c r="KE27" s="33">
         <v>708177</v>
       </c>
+      <c r="KF27" s="33">
+        <v>706948</v>
+      </c>
+      <c r="KG27"/>
+      <c r="KH27"/>
+      <c r="KI27"/>
     </row>
-    <row r="28" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -23228,34 +23393,34 @@
       <c r="JR28" s="11">
         <v>479784</v>
       </c>
-      <c r="JS28" s="38">
+      <c r="JS28" s="37">
         <v>487185</v>
       </c>
-      <c r="JT28" s="38">
+      <c r="JT28" s="37">
         <v>490183</v>
       </c>
-      <c r="JU28" s="38">
+      <c r="JU28" s="37">
         <v>491986</v>
       </c>
-      <c r="JV28" s="38">
+      <c r="JV28" s="37">
         <v>498653</v>
       </c>
-      <c r="JW28" s="38">
+      <c r="JW28" s="37">
         <v>503626</v>
       </c>
-      <c r="JX28" s="38">
+      <c r="JX28" s="37">
         <v>502969</v>
       </c>
-      <c r="JY28" s="38">
+      <c r="JY28" s="37">
         <v>507573</v>
       </c>
-      <c r="JZ28" s="38">
+      <c r="JZ28" s="37">
         <v>507616</v>
       </c>
-      <c r="KA28" s="38">
+      <c r="KA28" s="37">
         <v>514901</v>
       </c>
-      <c r="KB28" s="38">
+      <c r="KB28" s="37">
         <v>520551</v>
       </c>
       <c r="KC28" s="33">
@@ -23267,8 +23432,14 @@
       <c r="KE28" s="33">
         <v>524804</v>
       </c>
+      <c r="KF28" s="33">
+        <v>520214</v>
+      </c>
+      <c r="KG28"/>
+      <c r="KH28"/>
+      <c r="KI28"/>
     </row>
-    <row r="29" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -24103,34 +24274,34 @@
       <c r="JR29" s="11">
         <v>458353</v>
       </c>
-      <c r="JS29" s="38">
+      <c r="JS29" s="37">
         <v>464403</v>
       </c>
-      <c r="JT29" s="38">
+      <c r="JT29" s="37">
         <v>471834</v>
       </c>
-      <c r="JU29" s="38">
+      <c r="JU29" s="37">
         <v>472317</v>
       </c>
-      <c r="JV29" s="38">
+      <c r="JV29" s="37">
         <v>473349</v>
       </c>
-      <c r="JW29" s="38">
+      <c r="JW29" s="37">
         <v>472947</v>
       </c>
-      <c r="JX29" s="38">
+      <c r="JX29" s="37">
         <v>473609</v>
       </c>
-      <c r="JY29" s="38">
+      <c r="JY29" s="37">
         <v>478489</v>
       </c>
-      <c r="JZ29" s="38">
+      <c r="JZ29" s="37">
         <v>482754</v>
       </c>
-      <c r="KA29" s="38">
+      <c r="KA29" s="37">
         <v>484206</v>
       </c>
-      <c r="KB29" s="38">
+      <c r="KB29" s="37">
         <v>486209</v>
       </c>
       <c r="KC29" s="33">
@@ -24142,8 +24313,14 @@
       <c r="KE29" s="33">
         <v>486666</v>
       </c>
+      <c r="KF29" s="33">
+        <v>485982</v>
+      </c>
+      <c r="KG29"/>
+      <c r="KH29"/>
+      <c r="KI29"/>
     </row>
-    <row r="30" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -24978,34 +25155,34 @@
       <c r="JR30" s="11">
         <v>611206</v>
       </c>
-      <c r="JS30" s="38">
+      <c r="JS30" s="37">
         <v>610874</v>
       </c>
-      <c r="JT30" s="38">
+      <c r="JT30" s="37">
         <v>619013</v>
       </c>
-      <c r="JU30" s="38">
+      <c r="JU30" s="37">
         <v>615722</v>
       </c>
-      <c r="JV30" s="38">
+      <c r="JV30" s="37">
         <v>595370</v>
       </c>
-      <c r="JW30" s="38">
+      <c r="JW30" s="37">
         <v>582043</v>
       </c>
-      <c r="JX30" s="38">
+      <c r="JX30" s="37">
         <v>582080</v>
       </c>
-      <c r="JY30" s="38">
+      <c r="JY30" s="37">
         <v>586823</v>
       </c>
-      <c r="JZ30" s="38">
+      <c r="JZ30" s="37">
         <v>595946</v>
       </c>
-      <c r="KA30" s="38">
+      <c r="KA30" s="37">
         <v>599784</v>
       </c>
-      <c r="KB30" s="38">
+      <c r="KB30" s="37">
         <v>609833</v>
       </c>
       <c r="KC30" s="33">
@@ -25017,8 +25194,14 @@
       <c r="KE30" s="33">
         <v>626138</v>
       </c>
+      <c r="KF30" s="33">
+        <v>617821</v>
+      </c>
+      <c r="KG30"/>
+      <c r="KH30"/>
+      <c r="KI30"/>
     </row>
-    <row r="31" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -25853,34 +26036,34 @@
       <c r="JR31" s="11">
         <v>649294</v>
       </c>
-      <c r="JS31" s="38">
+      <c r="JS31" s="37">
         <v>662599</v>
       </c>
-      <c r="JT31" s="38">
+      <c r="JT31" s="37">
         <v>667678</v>
       </c>
-      <c r="JU31" s="38">
+      <c r="JU31" s="37">
         <v>666038</v>
       </c>
-      <c r="JV31" s="38">
+      <c r="JV31" s="37">
         <v>664510</v>
       </c>
-      <c r="JW31" s="38">
+      <c r="JW31" s="37">
         <v>662263</v>
       </c>
-      <c r="JX31" s="38">
+      <c r="JX31" s="37">
         <v>651398</v>
       </c>
-      <c r="JY31" s="38">
+      <c r="JY31" s="37">
         <v>657256</v>
       </c>
-      <c r="JZ31" s="38">
+      <c r="JZ31" s="37">
         <v>668408</v>
       </c>
-      <c r="KA31" s="38">
+      <c r="KA31" s="37">
         <v>673300</v>
       </c>
-      <c r="KB31" s="38">
+      <c r="KB31" s="37">
         <v>672246</v>
       </c>
       <c r="KC31" s="33">
@@ -25892,8 +26075,14 @@
       <c r="KE31" s="33">
         <v>670365</v>
       </c>
+      <c r="KF31" s="33">
+        <v>683183</v>
+      </c>
+      <c r="KG31"/>
+      <c r="KH31"/>
+      <c r="KI31"/>
     </row>
-    <row r="32" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -26728,34 +26917,34 @@
       <c r="JR32" s="11">
         <v>236993</v>
       </c>
-      <c r="JS32" s="38">
+      <c r="JS32" s="37">
         <v>240999</v>
       </c>
-      <c r="JT32" s="38">
+      <c r="JT32" s="37">
         <v>243760</v>
       </c>
-      <c r="JU32" s="38">
+      <c r="JU32" s="37">
         <v>244054</v>
       </c>
-      <c r="JV32" s="38">
+      <c r="JV32" s="37">
         <v>245443</v>
       </c>
-      <c r="JW32" s="38">
+      <c r="JW32" s="37">
         <v>244679</v>
       </c>
-      <c r="JX32" s="38">
+      <c r="JX32" s="37">
         <v>245459</v>
       </c>
-      <c r="JY32" s="38">
+      <c r="JY32" s="37">
         <v>243907</v>
       </c>
-      <c r="JZ32" s="38">
+      <c r="JZ32" s="37">
         <v>243501</v>
       </c>
-      <c r="KA32" s="38">
+      <c r="KA32" s="37">
         <v>245178</v>
       </c>
-      <c r="KB32" s="38">
+      <c r="KB32" s="37">
         <v>244267</v>
       </c>
       <c r="KC32" s="33">
@@ -26767,8 +26956,14 @@
       <c r="KE32" s="33">
         <v>225114</v>
       </c>
+      <c r="KF32" s="33">
+        <v>222064</v>
+      </c>
+      <c r="KG32"/>
+      <c r="KH32"/>
+      <c r="KI32"/>
     </row>
-    <row r="33" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -27603,34 +27798,34 @@
       <c r="JR33" s="11">
         <v>691670</v>
       </c>
-      <c r="JS33" s="38">
+      <c r="JS33" s="37">
         <v>696614</v>
       </c>
-      <c r="JT33" s="38">
+      <c r="JT33" s="37">
         <v>699400</v>
       </c>
-      <c r="JU33" s="38">
+      <c r="JU33" s="37">
         <v>697273</v>
       </c>
-      <c r="JV33" s="38">
+      <c r="JV33" s="37">
         <v>699836</v>
       </c>
-      <c r="JW33" s="38">
+      <c r="JW33" s="37">
         <v>698058</v>
       </c>
-      <c r="JX33" s="38">
+      <c r="JX33" s="37">
         <v>696401</v>
       </c>
-      <c r="JY33" s="38">
+      <c r="JY33" s="37">
         <v>700761</v>
       </c>
-      <c r="JZ33" s="38">
+      <c r="JZ33" s="37">
         <v>702813</v>
       </c>
-      <c r="KA33" s="38">
+      <c r="KA33" s="37">
         <v>704394</v>
       </c>
-      <c r="KB33" s="38">
+      <c r="KB33" s="37">
         <v>704522</v>
       </c>
       <c r="KC33" s="33">
@@ -27642,8 +27837,14 @@
       <c r="KE33" s="33">
         <v>697712</v>
       </c>
+      <c r="KF33" s="33">
+        <v>699645</v>
+      </c>
+      <c r="KG33"/>
+      <c r="KH33"/>
+      <c r="KI33"/>
     </row>
-    <row r="34" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -28478,34 +28679,34 @@
       <c r="JR34" s="11">
         <v>110476</v>
       </c>
-      <c r="JS34" s="38">
+      <c r="JS34" s="37">
         <v>112119</v>
       </c>
-      <c r="JT34" s="38">
+      <c r="JT34" s="37">
         <v>113139</v>
       </c>
-      <c r="JU34" s="38">
+      <c r="JU34" s="37">
         <v>113760</v>
       </c>
-      <c r="JV34" s="38">
+      <c r="JV34" s="37">
         <v>114356</v>
       </c>
-      <c r="JW34" s="38">
+      <c r="JW34" s="37">
         <v>114739</v>
       </c>
-      <c r="JX34" s="38">
+      <c r="JX34" s="37">
         <v>114464</v>
       </c>
-      <c r="JY34" s="38">
+      <c r="JY34" s="37">
         <v>114467</v>
       </c>
-      <c r="JZ34" s="38">
+      <c r="JZ34" s="37">
         <v>114896</v>
       </c>
-      <c r="KA34" s="38">
+      <c r="KA34" s="37">
         <v>115647</v>
       </c>
-      <c r="KB34" s="38">
+      <c r="KB34" s="37">
         <v>116221</v>
       </c>
       <c r="KC34" s="33">
@@ -28517,8 +28718,14 @@
       <c r="KE34" s="33">
         <v>115440</v>
       </c>
+      <c r="KF34" s="33">
+        <v>116679</v>
+      </c>
+      <c r="KG34"/>
+      <c r="KH34"/>
+      <c r="KI34"/>
     </row>
-    <row r="35" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -29353,34 +29560,34 @@
       <c r="JR35" s="11">
         <v>759626</v>
       </c>
-      <c r="JS35" s="38">
+      <c r="JS35" s="37">
         <v>762576</v>
       </c>
-      <c r="JT35" s="38">
+      <c r="JT35" s="37">
         <v>763371</v>
       </c>
-      <c r="JU35" s="38">
+      <c r="JU35" s="37">
         <v>759530</v>
       </c>
-      <c r="JV35" s="38">
+      <c r="JV35" s="37">
         <v>754613</v>
       </c>
-      <c r="JW35" s="38">
+      <c r="JW35" s="37">
         <v>753757</v>
       </c>
-      <c r="JX35" s="38">
+      <c r="JX35" s="37">
         <v>752893</v>
       </c>
-      <c r="JY35" s="38">
+      <c r="JY35" s="37">
         <v>759554</v>
       </c>
-      <c r="JZ35" s="38">
+      <c r="JZ35" s="37">
         <v>765628</v>
       </c>
-      <c r="KA35" s="38">
+      <c r="KA35" s="37">
         <v>772887</v>
       </c>
-      <c r="KB35" s="38">
+      <c r="KB35" s="37">
         <v>782590</v>
       </c>
       <c r="KC35" s="33">
@@ -29392,8 +29599,14 @@
       <c r="KE35" s="33">
         <v>784376</v>
       </c>
+      <c r="KF35" s="33">
+        <v>782311</v>
+      </c>
+      <c r="KG35"/>
+      <c r="KH35"/>
+      <c r="KI35"/>
     </row>
-    <row r="36" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -30228,34 +30441,34 @@
       <c r="JR36" s="11">
         <v>417035</v>
       </c>
-      <c r="JS36" s="38">
+      <c r="JS36" s="37">
         <v>420905</v>
       </c>
-      <c r="JT36" s="38">
+      <c r="JT36" s="37">
         <v>421696</v>
       </c>
-      <c r="JU36" s="38">
+      <c r="JU36" s="37">
         <v>421816</v>
       </c>
-      <c r="JV36" s="38">
+      <c r="JV36" s="37">
         <v>423677</v>
       </c>
-      <c r="JW36" s="38">
+      <c r="JW36" s="37">
         <v>424406</v>
       </c>
-      <c r="JX36" s="38">
+      <c r="JX36" s="37">
         <v>422665</v>
       </c>
-      <c r="JY36" s="38">
+      <c r="JY36" s="37">
         <v>425668</v>
       </c>
-      <c r="JZ36" s="38">
+      <c r="JZ36" s="37">
         <v>428695</v>
       </c>
-      <c r="KA36" s="38">
+      <c r="KA36" s="37">
         <v>435910</v>
       </c>
-      <c r="KB36" s="38">
+      <c r="KB36" s="37">
         <v>440985</v>
       </c>
       <c r="KC36" s="33">
@@ -30267,8 +30480,14 @@
       <c r="KE36" s="33">
         <v>437479</v>
       </c>
+      <c r="KF36" s="33">
+        <v>436351</v>
+      </c>
+      <c r="KG36"/>
+      <c r="KH36"/>
+      <c r="KI36"/>
     </row>
-    <row r="37" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -31103,34 +31322,34 @@
       <c r="JR37" s="11">
         <v>194660</v>
       </c>
-      <c r="JS37" s="38">
+      <c r="JS37" s="37">
         <v>195650</v>
       </c>
-      <c r="JT37" s="38">
+      <c r="JT37" s="37">
         <v>197131</v>
       </c>
-      <c r="JU37" s="38">
+      <c r="JU37" s="37">
         <v>197853</v>
       </c>
-      <c r="JV37" s="38">
+      <c r="JV37" s="37">
         <v>198536</v>
       </c>
-      <c r="JW37" s="38">
+      <c r="JW37" s="37">
         <v>199578</v>
       </c>
-      <c r="JX37" s="38">
+      <c r="JX37" s="37">
         <v>198313</v>
       </c>
-      <c r="JY37" s="38">
+      <c r="JY37" s="37">
         <v>197258</v>
       </c>
-      <c r="JZ37" s="38">
+      <c r="JZ37" s="37">
         <v>198248</v>
       </c>
-      <c r="KA37" s="38">
+      <c r="KA37" s="37">
         <v>197966</v>
       </c>
-      <c r="KB37" s="38">
+      <c r="KB37" s="37">
         <v>199152</v>
       </c>
       <c r="KC37" s="33">
@@ -31142,8 +31361,14 @@
       <c r="KE37" s="33">
         <v>197132</v>
       </c>
+      <c r="KF37" s="33">
+        <v>198212</v>
+      </c>
+      <c r="KG37"/>
+      <c r="KH37"/>
+      <c r="KI37"/>
     </row>
-    <row r="38" spans="1:291" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -32019,8 +32244,12 @@
       <c r="KE38" s="34">
         <v>22289810</v>
       </c>
+      <c r="KF38" s="34">
+        <f>SUM(KF6:KF37)</f>
+        <v>22289345</v>
+      </c>
     </row>
-    <row r="40" spans="1:291" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:295" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Historicos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.garcia\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C806C9F9-E8F5-4635-858F-9129AA2B16D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BAC6A2-63F7-4470-8AF5-F3C9F6E62308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26775" windowHeight="9075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ta entidades" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -849,7 +862,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -921,13 +934,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -989,9 +1000,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1029,9 +1040,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1064,26 +1075,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1116,26 +1110,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1313,7 +1290,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="JY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KF5" sqref="KF5"/>
+      <selection pane="topRight" activeCell="KH4" sqref="KH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,7 +1400,7 @@
       </c>
     </row>
     <row r="4" spans="1:295" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="14">
@@ -2299,9 +2276,12 @@
       <c r="KF4" s="32">
         <v>2024</v>
       </c>
+      <c r="KG4" s="32">
+        <v>2024</v>
+      </c>
     </row>
     <row r="5" spans="1:295" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
@@ -3172,8 +3152,11 @@
       <c r="KE5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="KF5" s="40" t="s">
+      <c r="KF5" s="37" t="s">
         <v>31</v>
+      </c>
+      <c r="KG5" s="37" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4020,25 +4003,25 @@
       <c r="JU6" s="3">
         <v>350248</v>
       </c>
-      <c r="JV6" s="37">
+      <c r="JV6" s="5">
         <v>351682</v>
       </c>
-      <c r="JW6" s="37">
+      <c r="JW6" s="5">
         <v>352869</v>
       </c>
-      <c r="JX6" s="37">
+      <c r="JX6" s="5">
         <v>353314</v>
       </c>
-      <c r="JY6" s="37">
+      <c r="JY6" s="5">
         <v>355756</v>
       </c>
-      <c r="JZ6" s="37">
+      <c r="JZ6" s="5">
         <v>356983</v>
       </c>
-      <c r="KA6" s="37">
+      <c r="KA6" s="5">
         <v>359855</v>
       </c>
-      <c r="KB6" s="37">
+      <c r="KB6" s="5">
         <v>361685</v>
       </c>
       <c r="KC6" s="33">
@@ -4053,7 +4036,9 @@
       <c r="KF6" s="33">
         <v>361350</v>
       </c>
-      <c r="KG6"/>
+      <c r="KG6" s="33">
+        <v>362534</v>
+      </c>
       <c r="KH6"/>
       <c r="KI6"/>
     </row>
@@ -4892,34 +4877,34 @@
       <c r="JR7" s="11">
         <v>1028938</v>
       </c>
-      <c r="JS7" s="37">
+      <c r="JS7" s="5">
         <v>1034668</v>
       </c>
-      <c r="JT7" s="37">
+      <c r="JT7" s="5">
         <v>1042019</v>
       </c>
-      <c r="JU7" s="37">
+      <c r="JU7" s="5">
         <v>1044130</v>
       </c>
-      <c r="JV7" s="37">
+      <c r="JV7" s="5">
         <v>1043557</v>
       </c>
-      <c r="JW7" s="37">
+      <c r="JW7" s="5">
         <v>1045333</v>
       </c>
-      <c r="JX7" s="37">
+      <c r="JX7" s="5">
         <v>1044146</v>
       </c>
-      <c r="JY7" s="37">
+      <c r="JY7" s="5">
         <v>1043482</v>
       </c>
-      <c r="JZ7" s="37">
+      <c r="JZ7" s="5">
         <v>1052411</v>
       </c>
-      <c r="KA7" s="37">
+      <c r="KA7" s="5">
         <v>1053062</v>
       </c>
-      <c r="KB7" s="37">
+      <c r="KB7" s="5">
         <v>1052398</v>
       </c>
       <c r="KC7" s="33">
@@ -4934,7 +4919,9 @@
       <c r="KF7" s="33">
         <v>1050451</v>
       </c>
-      <c r="KG7"/>
+      <c r="KG7" s="33">
+        <v>1048271</v>
+      </c>
       <c r="KH7"/>
       <c r="KI7"/>
     </row>
@@ -5773,34 +5760,34 @@
       <c r="JR8" s="11">
         <v>210964</v>
       </c>
-      <c r="JS8" s="37">
+      <c r="JS8" s="5">
         <v>214679</v>
       </c>
-      <c r="JT8" s="37">
+      <c r="JT8" s="5">
         <v>217046</v>
       </c>
-      <c r="JU8" s="37">
+      <c r="JU8" s="5">
         <v>217679</v>
       </c>
-      <c r="JV8" s="37">
+      <c r="JV8" s="5">
         <v>221292</v>
       </c>
-      <c r="JW8" s="37">
+      <c r="JW8" s="5">
         <v>223911</v>
       </c>
-      <c r="JX8" s="37">
+      <c r="JX8" s="5">
         <v>221789</v>
       </c>
-      <c r="JY8" s="37">
+      <c r="JY8" s="5">
         <v>222023</v>
       </c>
-      <c r="JZ8" s="37">
+      <c r="JZ8" s="5">
         <v>224496</v>
       </c>
-      <c r="KA8" s="37">
+      <c r="KA8" s="5">
         <v>226464</v>
       </c>
-      <c r="KB8" s="37">
+      <c r="KB8" s="5">
         <v>227641</v>
       </c>
       <c r="KC8" s="33">
@@ -5815,7 +5802,9 @@
       <c r="KF8" s="33">
         <v>219663</v>
       </c>
-      <c r="KG8"/>
+      <c r="KG8" s="33">
+        <v>222006</v>
+      </c>
       <c r="KH8"/>
       <c r="KI8"/>
     </row>
@@ -6654,34 +6643,34 @@
       <c r="JR9" s="11">
         <v>138820</v>
       </c>
-      <c r="JS9" s="37">
+      <c r="JS9" s="5">
         <v>139410</v>
       </c>
-      <c r="JT9" s="37">
+      <c r="JT9" s="5">
         <v>139841</v>
       </c>
-      <c r="JU9" s="37">
+      <c r="JU9" s="5">
         <v>140182</v>
       </c>
-      <c r="JV9" s="37">
+      <c r="JV9" s="5">
         <v>139905</v>
       </c>
-      <c r="JW9" s="37">
+      <c r="JW9" s="5">
         <v>141245</v>
       </c>
-      <c r="JX9" s="37">
+      <c r="JX9" s="5">
         <v>141252</v>
       </c>
-      <c r="JY9" s="37">
+      <c r="JY9" s="5">
         <v>142081</v>
       </c>
-      <c r="JZ9" s="37">
+      <c r="JZ9" s="5">
         <v>143390</v>
       </c>
-      <c r="KA9" s="37">
+      <c r="KA9" s="5">
         <v>144679</v>
       </c>
-      <c r="KB9" s="37">
+      <c r="KB9" s="5">
         <v>145539</v>
       </c>
       <c r="KC9" s="33">
@@ -6696,7 +6685,9 @@
       <c r="KF9" s="33">
         <v>143638</v>
       </c>
-      <c r="KG9"/>
+      <c r="KG9" s="33">
+        <v>141221</v>
+      </c>
       <c r="KH9"/>
       <c r="KI9"/>
     </row>
@@ -7535,34 +7526,34 @@
       <c r="JR10" s="11">
         <v>240012</v>
       </c>
-      <c r="JS10" s="37">
+      <c r="JS10" s="5">
         <v>241547</v>
       </c>
-      <c r="JT10" s="37">
+      <c r="JT10" s="5">
         <v>243734</v>
       </c>
-      <c r="JU10" s="37">
+      <c r="JU10" s="5">
         <v>245920</v>
       </c>
-      <c r="JV10" s="37">
+      <c r="JV10" s="5">
         <v>243926</v>
       </c>
-      <c r="JW10" s="37">
+      <c r="JW10" s="5">
         <v>245769</v>
       </c>
-      <c r="JX10" s="37">
+      <c r="JX10" s="5">
         <v>246191</v>
       </c>
-      <c r="JY10" s="37">
+      <c r="JY10" s="5">
         <v>247892</v>
       </c>
-      <c r="JZ10" s="37">
+      <c r="JZ10" s="5">
         <v>249706</v>
       </c>
-      <c r="KA10" s="37">
+      <c r="KA10" s="5">
         <v>253480</v>
       </c>
-      <c r="KB10" s="37">
+      <c r="KB10" s="5">
         <v>257279</v>
       </c>
       <c r="KC10" s="33">
@@ -7577,7 +7568,9 @@
       <c r="KF10" s="33">
         <v>256846</v>
       </c>
-      <c r="KG10"/>
+      <c r="KG10" s="33">
+        <v>258205</v>
+      </c>
       <c r="KH10"/>
       <c r="KI10"/>
     </row>
@@ -8416,34 +8409,34 @@
       <c r="JR11" s="11">
         <v>974271</v>
       </c>
-      <c r="JS11" s="37">
+      <c r="JS11" s="5">
         <v>981673</v>
       </c>
-      <c r="JT11" s="37">
+      <c r="JT11" s="5">
         <v>987450</v>
       </c>
-      <c r="JU11" s="37">
+      <c r="JU11" s="5">
         <v>986550</v>
       </c>
-      <c r="JV11" s="37">
+      <c r="JV11" s="5">
         <v>988994</v>
       </c>
-      <c r="JW11" s="37">
+      <c r="JW11" s="5">
         <v>989243</v>
       </c>
-      <c r="JX11" s="37">
+      <c r="JX11" s="5">
         <v>985556</v>
       </c>
-      <c r="JY11" s="37">
+      <c r="JY11" s="5">
         <v>989672</v>
       </c>
-      <c r="JZ11" s="37">
+      <c r="JZ11" s="5">
         <v>988753</v>
       </c>
-      <c r="KA11" s="37">
+      <c r="KA11" s="5">
         <v>993563</v>
       </c>
-      <c r="KB11" s="37">
+      <c r="KB11" s="5">
         <v>993266</v>
       </c>
       <c r="KC11" s="33">
@@ -8458,7 +8451,9 @@
       <c r="KF11" s="33">
         <v>978195</v>
       </c>
-      <c r="KG11"/>
+      <c r="KG11" s="33">
+        <v>981587</v>
+      </c>
       <c r="KH11"/>
       <c r="KI11"/>
     </row>
@@ -9297,34 +9292,34 @@
       <c r="JR12" s="11">
         <v>3378694</v>
       </c>
-      <c r="JS12" s="37">
+      <c r="JS12" s="5">
         <v>3397269</v>
       </c>
-      <c r="JT12" s="37">
+      <c r="JT12" s="5">
         <v>3411513</v>
       </c>
-      <c r="JU12" s="37">
+      <c r="JU12" s="5">
         <v>3421435</v>
       </c>
-      <c r="JV12" s="37">
+      <c r="JV12" s="5">
         <v>3434727</v>
       </c>
-      <c r="JW12" s="37">
+      <c r="JW12" s="5">
         <v>3435501</v>
       </c>
-      <c r="JX12" s="37">
+      <c r="JX12" s="5">
         <v>3437595</v>
       </c>
-      <c r="JY12" s="37">
+      <c r="JY12" s="5">
         <v>3457511</v>
       </c>
-      <c r="JZ12" s="37">
+      <c r="JZ12" s="5">
         <v>3481313</v>
       </c>
-      <c r="KA12" s="37">
+      <c r="KA12" s="5">
         <v>3510190</v>
       </c>
-      <c r="KB12" s="37">
+      <c r="KB12" s="5">
         <v>3525039</v>
       </c>
       <c r="KC12" s="33">
@@ -9339,7 +9334,9 @@
       <c r="KF12" s="33">
         <v>3467734</v>
       </c>
-      <c r="KG12"/>
+      <c r="KG12" s="33">
+        <v>3490972</v>
+      </c>
       <c r="KH12"/>
       <c r="KI12"/>
     </row>
@@ -10178,34 +10175,34 @@
       <c r="JR13" s="11">
         <v>832780</v>
       </c>
-      <c r="JS13" s="37">
+      <c r="JS13" s="5">
         <v>840308</v>
       </c>
-      <c r="JT13" s="37">
+      <c r="JT13" s="5">
         <v>846697</v>
       </c>
-      <c r="JU13" s="37">
+      <c r="JU13" s="5">
         <v>850971</v>
       </c>
-      <c r="JV13" s="37">
+      <c r="JV13" s="5">
         <v>854579</v>
       </c>
-      <c r="JW13" s="37">
+      <c r="JW13" s="5">
         <v>856217</v>
       </c>
-      <c r="JX13" s="37">
+      <c r="JX13" s="5">
         <v>858097</v>
       </c>
-      <c r="JY13" s="37">
+      <c r="JY13" s="5">
         <v>864471</v>
       </c>
-      <c r="JZ13" s="37">
+      <c r="JZ13" s="5">
         <v>867251</v>
       </c>
-      <c r="KA13" s="37">
+      <c r="KA13" s="5">
         <v>872476</v>
       </c>
-      <c r="KB13" s="37">
+      <c r="KB13" s="5">
         <v>871739</v>
       </c>
       <c r="KC13" s="33">
@@ -10220,7 +10217,9 @@
       <c r="KF13" s="33">
         <v>872670</v>
       </c>
-      <c r="KG13"/>
+      <c r="KG13" s="33">
+        <v>879111</v>
+      </c>
       <c r="KH13"/>
       <c r="KI13"/>
     </row>
@@ -11059,34 +11058,34 @@
       <c r="JR14" s="11">
         <v>147284</v>
       </c>
-      <c r="JS14" s="37">
+      <c r="JS14" s="5">
         <v>147989</v>
       </c>
-      <c r="JT14" s="37">
+      <c r="JT14" s="5">
         <v>148585</v>
       </c>
-      <c r="JU14" s="37">
+      <c r="JU14" s="5">
         <v>149082</v>
       </c>
-      <c r="JV14" s="37">
+      <c r="JV14" s="5">
         <v>148990</v>
       </c>
-      <c r="JW14" s="37">
+      <c r="JW14" s="5">
         <v>147497</v>
       </c>
-      <c r="JX14" s="37">
+      <c r="JX14" s="5">
         <v>147717</v>
       </c>
-      <c r="JY14" s="37">
+      <c r="JY14" s="5">
         <v>149276</v>
       </c>
-      <c r="JZ14" s="37">
+      <c r="JZ14" s="5">
         <v>149679</v>
       </c>
-      <c r="KA14" s="37">
+      <c r="KA14" s="5">
         <v>150906</v>
       </c>
-      <c r="KB14" s="37">
+      <c r="KB14" s="5">
         <v>151154</v>
       </c>
       <c r="KC14" s="33">
@@ -11101,7 +11100,9 @@
       <c r="KF14" s="33">
         <v>151704</v>
       </c>
-      <c r="KG14"/>
+      <c r="KG14" s="33">
+        <v>152105</v>
+      </c>
       <c r="KH14"/>
       <c r="KI14"/>
     </row>
@@ -11940,34 +11941,34 @@
       <c r="JR15" s="11">
         <v>258023</v>
       </c>
-      <c r="JS15" s="37">
+      <c r="JS15" s="5">
         <v>260506</v>
       </c>
-      <c r="JT15" s="37">
+      <c r="JT15" s="5">
         <v>260331</v>
       </c>
-      <c r="JU15" s="37">
+      <c r="JU15" s="5">
         <v>260824</v>
       </c>
-      <c r="JV15" s="37">
+      <c r="JV15" s="5">
         <v>261209</v>
       </c>
-      <c r="JW15" s="37">
+      <c r="JW15" s="5">
         <v>260828</v>
       </c>
-      <c r="JX15" s="37">
+      <c r="JX15" s="5">
         <v>259414</v>
       </c>
-      <c r="JY15" s="37">
+      <c r="JY15" s="5">
         <v>260941</v>
       </c>
-      <c r="JZ15" s="37">
+      <c r="JZ15" s="5">
         <v>261590</v>
       </c>
-      <c r="KA15" s="37">
+      <c r="KA15" s="5">
         <v>262051</v>
       </c>
-      <c r="KB15" s="37">
+      <c r="KB15" s="5">
         <v>261715</v>
       </c>
       <c r="KC15" s="33">
@@ -11982,7 +11983,9 @@
       <c r="KF15" s="33">
         <v>259834</v>
       </c>
-      <c r="KG15"/>
+      <c r="KG15" s="33">
+        <v>261976</v>
+      </c>
       <c r="KH15"/>
       <c r="KI15"/>
     </row>
@@ -12821,34 +12824,34 @@
       <c r="JR16" s="11">
         <v>1726186</v>
       </c>
-      <c r="JS16" s="37">
+      <c r="JS16" s="5">
         <v>1737289</v>
       </c>
-      <c r="JT16" s="37">
+      <c r="JT16" s="5">
         <v>1751101</v>
       </c>
-      <c r="JU16" s="37">
+      <c r="JU16" s="5">
         <v>1755514</v>
       </c>
-      <c r="JV16" s="37">
+      <c r="JV16" s="5">
         <v>1770513</v>
       </c>
-      <c r="JW16" s="37">
+      <c r="JW16" s="5">
         <v>1774815</v>
       </c>
-      <c r="JX16" s="37">
+      <c r="JX16" s="5">
         <v>1778037</v>
       </c>
-      <c r="JY16" s="37">
+      <c r="JY16" s="5">
         <v>1780259</v>
       </c>
-      <c r="JZ16" s="37">
+      <c r="JZ16" s="5">
         <v>1797453</v>
       </c>
-      <c r="KA16" s="37">
+      <c r="KA16" s="5">
         <v>1814390</v>
       </c>
-      <c r="KB16" s="37">
+      <c r="KB16" s="5">
         <v>1827708</v>
       </c>
       <c r="KC16" s="33">
@@ -12863,7 +12866,9 @@
       <c r="KF16" s="33">
         <v>1827655</v>
       </c>
-      <c r="KG16"/>
+      <c r="KG16" s="33">
+        <v>1844815</v>
+      </c>
       <c r="KH16"/>
       <c r="KI16"/>
     </row>
@@ -13702,34 +13707,34 @@
       <c r="JR17" s="11">
         <v>1052198</v>
       </c>
-      <c r="JS17" s="37">
+      <c r="JS17" s="5">
         <v>1065032</v>
       </c>
-      <c r="JT17" s="37">
+      <c r="JT17" s="5">
         <v>1073605</v>
       </c>
-      <c r="JU17" s="37">
+      <c r="JU17" s="5">
         <v>1077268</v>
       </c>
-      <c r="JV17" s="37">
+      <c r="JV17" s="5">
         <v>1083248</v>
       </c>
-      <c r="JW17" s="37">
+      <c r="JW17" s="5">
         <v>1089716</v>
       </c>
-      <c r="JX17" s="37">
+      <c r="JX17" s="5">
         <v>1089215</v>
       </c>
-      <c r="JY17" s="37">
+      <c r="JY17" s="5">
         <v>1094757</v>
       </c>
-      <c r="JZ17" s="37">
+      <c r="JZ17" s="5">
         <v>1097414</v>
       </c>
-      <c r="KA17" s="37">
+      <c r="KA17" s="5">
         <v>1106806</v>
       </c>
-      <c r="KB17" s="37">
+      <c r="KB17" s="5">
         <v>1110342</v>
       </c>
       <c r="KC17" s="33">
@@ -13744,7 +13749,9 @@
       <c r="KF17" s="33">
         <v>1104822</v>
       </c>
-      <c r="KG17"/>
+      <c r="KG17" s="33">
+        <v>1112740</v>
+      </c>
       <c r="KH17"/>
       <c r="KI17"/>
     </row>
@@ -14583,34 +14590,34 @@
       <c r="JR18" s="11">
         <v>156417</v>
       </c>
-      <c r="JS18" s="37">
+      <c r="JS18" s="5">
         <v>157749</v>
       </c>
-      <c r="JT18" s="37">
+      <c r="JT18" s="5">
         <v>158225</v>
       </c>
-      <c r="JU18" s="37">
+      <c r="JU18" s="5">
         <v>158324</v>
       </c>
-      <c r="JV18" s="37">
+      <c r="JV18" s="5">
         <v>157429</v>
       </c>
-      <c r="JW18" s="37">
+      <c r="JW18" s="5">
         <v>158647</v>
       </c>
-      <c r="JX18" s="37">
+      <c r="JX18" s="5">
         <v>161654</v>
       </c>
-      <c r="JY18" s="37">
+      <c r="JY18" s="5">
         <v>160276</v>
       </c>
-      <c r="JZ18" s="37">
+      <c r="JZ18" s="5">
         <v>161035</v>
       </c>
-      <c r="KA18" s="37">
+      <c r="KA18" s="5">
         <v>163257</v>
       </c>
-      <c r="KB18" s="37">
+      <c r="KB18" s="5">
         <v>158855</v>
       </c>
       <c r="KC18" s="33">
@@ -14625,7 +14632,9 @@
       <c r="KF18" s="33">
         <v>163685</v>
       </c>
-      <c r="KG18"/>
+      <c r="KG18" s="33">
+        <v>163689</v>
+      </c>
       <c r="KH18"/>
       <c r="KI18"/>
     </row>
@@ -15464,34 +15473,34 @@
       <c r="JR19" s="11">
         <v>258198</v>
       </c>
-      <c r="JS19" s="37">
+      <c r="JS19" s="5">
         <v>260429</v>
       </c>
-      <c r="JT19" s="37">
+      <c r="JT19" s="5">
         <v>261584</v>
       </c>
-      <c r="JU19" s="37">
+      <c r="JU19" s="5">
         <v>263144</v>
       </c>
-      <c r="JV19" s="37">
+      <c r="JV19" s="5">
         <v>264145</v>
       </c>
-      <c r="JW19" s="37">
+      <c r="JW19" s="5">
         <v>265857</v>
       </c>
-      <c r="JX19" s="37">
+      <c r="JX19" s="5">
         <v>265391</v>
       </c>
-      <c r="JY19" s="37">
+      <c r="JY19" s="5">
         <v>268862</v>
       </c>
-      <c r="JZ19" s="37">
+      <c r="JZ19" s="5">
         <v>269495</v>
       </c>
-      <c r="KA19" s="37">
+      <c r="KA19" s="5">
         <v>273338</v>
       </c>
-      <c r="KB19" s="37">
+      <c r="KB19" s="5">
         <v>275077</v>
       </c>
       <c r="KC19" s="33">
@@ -15506,7 +15515,9 @@
       <c r="KF19" s="33">
         <v>276494</v>
       </c>
-      <c r="KG19"/>
+      <c r="KG19" s="33">
+        <v>277081</v>
+      </c>
       <c r="KH19"/>
       <c r="KI19"/>
     </row>
@@ -16345,34 +16356,34 @@
       <c r="JR20" s="22">
         <v>1951256</v>
       </c>
-      <c r="JS20" s="38">
+      <c r="JS20" s="23">
         <v>1964519</v>
       </c>
-      <c r="JT20" s="38">
+      <c r="JT20" s="23">
         <v>1972715</v>
       </c>
-      <c r="JU20" s="38">
+      <c r="JU20" s="23">
         <v>1973202</v>
       </c>
-      <c r="JV20" s="38">
+      <c r="JV20" s="23">
         <v>1974565</v>
       </c>
-      <c r="JW20" s="38">
+      <c r="JW20" s="23">
         <v>1980790</v>
       </c>
-      <c r="JX20" s="38">
+      <c r="JX20" s="23">
         <v>1981146</v>
       </c>
-      <c r="JY20" s="38">
+      <c r="JY20" s="23">
         <v>1988746</v>
       </c>
-      <c r="JZ20" s="38">
+      <c r="JZ20" s="23">
         <v>1999360</v>
       </c>
-      <c r="KA20" s="38">
+      <c r="KA20" s="23">
         <v>2013431</v>
       </c>
-      <c r="KB20" s="38">
+      <c r="KB20" s="23">
         <v>2026935</v>
       </c>
       <c r="KC20" s="36">
@@ -16387,7 +16398,9 @@
       <c r="KF20" s="36">
         <v>2017626</v>
       </c>
-      <c r="KG20"/>
+      <c r="KG20" s="36">
+        <v>2023394</v>
+      </c>
       <c r="KH20"/>
       <c r="KI20"/>
     </row>
@@ -17226,34 +17239,34 @@
       <c r="JR21" s="11">
         <v>472641</v>
       </c>
-      <c r="JS21" s="37">
+      <c r="JS21" s="5">
         <v>475986</v>
       </c>
-      <c r="JT21" s="37">
+      <c r="JT21" s="5">
         <v>479369</v>
       </c>
-      <c r="JU21" s="37">
+      <c r="JU21" s="5">
         <v>477659</v>
       </c>
-      <c r="JV21" s="37">
+      <c r="JV21" s="5">
         <v>477373</v>
       </c>
-      <c r="JW21" s="37">
+      <c r="JW21" s="5">
         <v>474510</v>
       </c>
-      <c r="JX21" s="37">
+      <c r="JX21" s="5">
         <v>473960</v>
       </c>
-      <c r="JY21" s="37">
+      <c r="JY21" s="5">
         <v>474906</v>
       </c>
-      <c r="JZ21" s="37">
+      <c r="JZ21" s="5">
         <v>478154</v>
       </c>
-      <c r="KA21" s="37">
+      <c r="KA21" s="5">
         <v>484413</v>
       </c>
-      <c r="KB21" s="37">
+      <c r="KB21" s="5">
         <v>487300</v>
       </c>
       <c r="KC21" s="33">
@@ -17268,7 +17281,9 @@
       <c r="KF21" s="33">
         <v>486323</v>
       </c>
-      <c r="KG21"/>
+      <c r="KG21" s="33">
+        <v>486293</v>
+      </c>
       <c r="KH21"/>
       <c r="KI21"/>
     </row>
@@ -18107,34 +18122,34 @@
       <c r="JR22" s="11">
         <v>214502</v>
       </c>
-      <c r="JS22" s="37">
+      <c r="JS22" s="5">
         <v>217018</v>
       </c>
-      <c r="JT22" s="37">
+      <c r="JT22" s="5">
         <v>217395</v>
       </c>
-      <c r="JU22" s="37">
+      <c r="JU22" s="5">
         <v>216611</v>
       </c>
-      <c r="JV22" s="37">
+      <c r="JV22" s="5">
         <v>216522</v>
       </c>
-      <c r="JW22" s="37">
+      <c r="JW22" s="5">
         <v>216297</v>
       </c>
-      <c r="JX22" s="37">
+      <c r="JX22" s="5">
         <v>217388</v>
       </c>
-      <c r="JY22" s="37">
+      <c r="JY22" s="5">
         <v>217650</v>
       </c>
-      <c r="JZ22" s="37">
+      <c r="JZ22" s="5">
         <v>219447</v>
       </c>
-      <c r="KA22" s="37">
+      <c r="KA22" s="5">
         <v>221441</v>
       </c>
-      <c r="KB22" s="37">
+      <c r="KB22" s="5">
         <v>224260</v>
       </c>
       <c r="KC22" s="33">
@@ -18149,7 +18164,9 @@
       <c r="KF22" s="33">
         <v>223345</v>
       </c>
-      <c r="KG22"/>
+      <c r="KG22" s="33">
+        <v>223022</v>
+      </c>
       <c r="KH22"/>
       <c r="KI22"/>
     </row>
@@ -18988,34 +19005,34 @@
       <c r="JR23" s="11">
         <v>176638</v>
       </c>
-      <c r="JS23" s="37">
+      <c r="JS23" s="5">
         <v>178399</v>
       </c>
-      <c r="JT23" s="37">
+      <c r="JT23" s="5">
         <v>178378</v>
       </c>
-      <c r="JU23" s="37">
+      <c r="JU23" s="5">
         <v>179172</v>
       </c>
-      <c r="JV23" s="37">
+      <c r="JV23" s="5">
         <v>179978</v>
       </c>
-      <c r="JW23" s="37">
+      <c r="JW23" s="5">
         <v>180779</v>
       </c>
-      <c r="JX23" s="37">
+      <c r="JX23" s="5">
         <v>179570</v>
       </c>
-      <c r="JY23" s="37">
+      <c r="JY23" s="5">
         <v>182215</v>
       </c>
-      <c r="JZ23" s="37">
+      <c r="JZ23" s="5">
         <v>183262</v>
       </c>
-      <c r="KA23" s="37">
+      <c r="KA23" s="5">
         <v>185925</v>
       </c>
-      <c r="KB23" s="37">
+      <c r="KB23" s="5">
         <v>187459</v>
       </c>
       <c r="KC23" s="33">
@@ -19030,7 +19047,9 @@
       <c r="KF23" s="33">
         <v>186881</v>
       </c>
-      <c r="KG23"/>
+      <c r="KG23" s="33">
+        <v>187926</v>
+      </c>
       <c r="KH23"/>
       <c r="KI23"/>
     </row>
@@ -19869,34 +19888,34 @@
       <c r="JR24" s="11">
         <v>1790298</v>
       </c>
-      <c r="JS24" s="37">
+      <c r="JS24" s="5">
         <v>1807149</v>
       </c>
-      <c r="JT24" s="37">
+      <c r="JT24" s="5">
         <v>1820641</v>
       </c>
-      <c r="JU24" s="37">
+      <c r="JU24" s="5">
         <v>1826259</v>
       </c>
-      <c r="JV24" s="37">
+      <c r="JV24" s="5">
         <v>1831995</v>
       </c>
-      <c r="JW24" s="37">
+      <c r="JW24" s="5">
         <v>1836446</v>
       </c>
-      <c r="JX24" s="37">
+      <c r="JX24" s="5">
         <v>1843396</v>
       </c>
-      <c r="JY24" s="37">
+      <c r="JY24" s="5">
         <v>1853669</v>
       </c>
-      <c r="JZ24" s="37">
+      <c r="JZ24" s="5">
         <v>1863085</v>
       </c>
-      <c r="KA24" s="37">
+      <c r="KA24" s="5">
         <v>1878906</v>
       </c>
-      <c r="KB24" s="37">
+      <c r="KB24" s="5">
         <v>1887265</v>
       </c>
       <c r="KC24" s="33">
@@ -19911,7 +19930,9 @@
       <c r="KF24" s="33">
         <v>1885214</v>
       </c>
-      <c r="KG24"/>
+      <c r="KG24" s="33">
+        <v>1898720</v>
+      </c>
       <c r="KH24"/>
       <c r="KI24"/>
     </row>
@@ -20750,34 +20771,34 @@
       <c r="JR25" s="11">
         <v>224466</v>
       </c>
-      <c r="JS25" s="37">
+      <c r="JS25" s="5">
         <v>226566</v>
       </c>
-      <c r="JT25" s="37">
+      <c r="JT25" s="5">
         <v>227470</v>
       </c>
-      <c r="JU25" s="37">
+      <c r="JU25" s="5">
         <v>225008</v>
       </c>
-      <c r="JV25" s="37">
+      <c r="JV25" s="5">
         <v>224316</v>
       </c>
-      <c r="JW25" s="37">
+      <c r="JW25" s="5">
         <v>224997</v>
       </c>
-      <c r="JX25" s="37">
+      <c r="JX25" s="5">
         <v>225886</v>
       </c>
-      <c r="JY25" s="37">
+      <c r="JY25" s="5">
         <v>225997</v>
       </c>
-      <c r="JZ25" s="37">
+      <c r="JZ25" s="5">
         <v>226620</v>
       </c>
-      <c r="KA25" s="37">
+      <c r="KA25" s="5">
         <v>230247</v>
       </c>
-      <c r="KB25" s="37">
+      <c r="KB25" s="5">
         <v>233978</v>
       </c>
       <c r="KC25" s="33">
@@ -20792,7 +20813,9 @@
       <c r="KF25" s="33">
         <v>232869</v>
       </c>
-      <c r="KG25"/>
+      <c r="KG25" s="33">
+        <v>235248</v>
+      </c>
       <c r="KH25"/>
       <c r="KI25"/>
     </row>
@@ -21631,34 +21654,34 @@
       <c r="JR26" s="11">
         <v>629907</v>
       </c>
-      <c r="JS26" s="37">
+      <c r="JS26" s="5">
         <v>634127</v>
       </c>
-      <c r="JT26" s="37">
+      <c r="JT26" s="5">
         <v>637925</v>
       </c>
-      <c r="JU26" s="37">
+      <c r="JU26" s="5">
         <v>637791</v>
       </c>
-      <c r="JV26" s="37">
+      <c r="JV26" s="5">
         <v>637794</v>
       </c>
-      <c r="JW26" s="37">
+      <c r="JW26" s="5">
         <v>641125</v>
       </c>
-      <c r="JX26" s="37">
+      <c r="JX26" s="5">
         <v>644088</v>
       </c>
-      <c r="JY26" s="37">
+      <c r="JY26" s="5">
         <v>646699</v>
       </c>
-      <c r="JZ26" s="37">
+      <c r="JZ26" s="5">
         <v>648509</v>
       </c>
-      <c r="KA26" s="37">
+      <c r="KA26" s="5">
         <v>652910</v>
       </c>
-      <c r="KB26" s="37">
+      <c r="KB26" s="5">
         <v>657749</v>
       </c>
       <c r="KC26" s="33">
@@ -21673,7 +21696,9 @@
       <c r="KF26" s="33">
         <v>652936</v>
       </c>
-      <c r="KG26"/>
+      <c r="KG26" s="33">
+        <v>655531</v>
+      </c>
       <c r="KH26"/>
       <c r="KI26"/>
     </row>
@@ -22512,34 +22537,34 @@
       <c r="JR27" s="11">
         <v>668677</v>
       </c>
-      <c r="JS27" s="37">
+      <c r="JS27" s="5">
         <v>676216</v>
       </c>
-      <c r="JT27" s="37">
+      <c r="JT27" s="5">
         <v>681441</v>
       </c>
-      <c r="JU27" s="37">
+      <c r="JU27" s="5">
         <v>682969</v>
       </c>
-      <c r="JV27" s="37">
+      <c r="JV27" s="5">
         <v>687827</v>
       </c>
-      <c r="JW27" s="37">
+      <c r="JW27" s="5">
         <v>688819</v>
       </c>
-      <c r="JX27" s="37">
+      <c r="JX27" s="5">
         <v>690086</v>
       </c>
-      <c r="JY27" s="37">
+      <c r="JY27" s="5">
         <v>697978</v>
       </c>
-      <c r="JZ27" s="37">
+      <c r="JZ27" s="5">
         <v>701522</v>
       </c>
-      <c r="KA27" s="37">
+      <c r="KA27" s="5">
         <v>706727</v>
       </c>
-      <c r="KB27" s="37">
+      <c r="KB27" s="5">
         <v>708309</v>
       </c>
       <c r="KC27" s="33">
@@ -22554,7 +22579,9 @@
       <c r="KF27" s="33">
         <v>706948</v>
       </c>
-      <c r="KG27"/>
+      <c r="KG27" s="33">
+        <v>709405</v>
+      </c>
       <c r="KH27"/>
       <c r="KI27"/>
     </row>
@@ -23393,34 +23420,34 @@
       <c r="JR28" s="11">
         <v>479784</v>
       </c>
-      <c r="JS28" s="37">
+      <c r="JS28" s="5">
         <v>487185</v>
       </c>
-      <c r="JT28" s="37">
+      <c r="JT28" s="5">
         <v>490183</v>
       </c>
-      <c r="JU28" s="37">
+      <c r="JU28" s="5">
         <v>491986</v>
       </c>
-      <c r="JV28" s="37">
+      <c r="JV28" s="5">
         <v>498653</v>
       </c>
-      <c r="JW28" s="37">
+      <c r="JW28" s="5">
         <v>503626</v>
       </c>
-      <c r="JX28" s="37">
+      <c r="JX28" s="5">
         <v>502969</v>
       </c>
-      <c r="JY28" s="37">
+      <c r="JY28" s="5">
         <v>507573</v>
       </c>
-      <c r="JZ28" s="37">
+      <c r="JZ28" s="5">
         <v>507616</v>
       </c>
-      <c r="KA28" s="37">
+      <c r="KA28" s="5">
         <v>514901</v>
       </c>
-      <c r="KB28" s="37">
+      <c r="KB28" s="5">
         <v>520551</v>
       </c>
       <c r="KC28" s="33">
@@ -23435,7 +23462,9 @@
       <c r="KF28" s="33">
         <v>520214</v>
       </c>
-      <c r="KG28"/>
+      <c r="KG28" s="33">
+        <v>523883</v>
+      </c>
       <c r="KH28"/>
       <c r="KI28"/>
     </row>
@@ -24274,34 +24303,34 @@
       <c r="JR29" s="11">
         <v>458353</v>
       </c>
-      <c r="JS29" s="37">
+      <c r="JS29" s="5">
         <v>464403</v>
       </c>
-      <c r="JT29" s="37">
+      <c r="JT29" s="5">
         <v>471834</v>
       </c>
-      <c r="JU29" s="37">
+      <c r="JU29" s="5">
         <v>472317</v>
       </c>
-      <c r="JV29" s="37">
+      <c r="JV29" s="5">
         <v>473349</v>
       </c>
-      <c r="JW29" s="37">
+      <c r="JW29" s="5">
         <v>472947</v>
       </c>
-      <c r="JX29" s="37">
+      <c r="JX29" s="5">
         <v>473609</v>
       </c>
-      <c r="JY29" s="37">
+      <c r="JY29" s="5">
         <v>478489</v>
       </c>
-      <c r="JZ29" s="37">
+      <c r="JZ29" s="5">
         <v>482754</v>
       </c>
-      <c r="KA29" s="37">
+      <c r="KA29" s="5">
         <v>484206</v>
       </c>
-      <c r="KB29" s="37">
+      <c r="KB29" s="5">
         <v>486209</v>
       </c>
       <c r="KC29" s="33">
@@ -24316,7 +24345,9 @@
       <c r="KF29" s="33">
         <v>485982</v>
       </c>
-      <c r="KG29"/>
+      <c r="KG29" s="33">
+        <v>486631</v>
+      </c>
       <c r="KH29"/>
       <c r="KI29"/>
     </row>
@@ -25155,34 +25186,34 @@
       <c r="JR30" s="11">
         <v>611206</v>
       </c>
-      <c r="JS30" s="37">
+      <c r="JS30" s="5">
         <v>610874</v>
       </c>
-      <c r="JT30" s="37">
+      <c r="JT30" s="5">
         <v>619013</v>
       </c>
-      <c r="JU30" s="37">
+      <c r="JU30" s="5">
         <v>615722</v>
       </c>
-      <c r="JV30" s="37">
+      <c r="JV30" s="5">
         <v>595370</v>
       </c>
-      <c r="JW30" s="37">
+      <c r="JW30" s="5">
         <v>582043</v>
       </c>
-      <c r="JX30" s="37">
+      <c r="JX30" s="5">
         <v>582080</v>
       </c>
-      <c r="JY30" s="37">
+      <c r="JY30" s="5">
         <v>586823</v>
       </c>
-      <c r="JZ30" s="37">
+      <c r="JZ30" s="5">
         <v>595946</v>
       </c>
-      <c r="KA30" s="37">
+      <c r="KA30" s="5">
         <v>599784</v>
       </c>
-      <c r="KB30" s="37">
+      <c r="KB30" s="5">
         <v>609833</v>
       </c>
       <c r="KC30" s="33">
@@ -25197,7 +25228,9 @@
       <c r="KF30" s="33">
         <v>617821</v>
       </c>
-      <c r="KG30"/>
+      <c r="KG30" s="33">
+        <v>615269</v>
+      </c>
       <c r="KH30"/>
       <c r="KI30"/>
     </row>
@@ -26036,34 +26069,34 @@
       <c r="JR31" s="11">
         <v>649294</v>
       </c>
-      <c r="JS31" s="37">
+      <c r="JS31" s="5">
         <v>662599</v>
       </c>
-      <c r="JT31" s="37">
+      <c r="JT31" s="5">
         <v>667678</v>
       </c>
-      <c r="JU31" s="37">
+      <c r="JU31" s="5">
         <v>666038</v>
       </c>
-      <c r="JV31" s="37">
+      <c r="JV31" s="5">
         <v>664510</v>
       </c>
-      <c r="JW31" s="37">
+      <c r="JW31" s="5">
         <v>662263</v>
       </c>
-      <c r="JX31" s="37">
+      <c r="JX31" s="5">
         <v>651398</v>
       </c>
-      <c r="JY31" s="37">
+      <c r="JY31" s="5">
         <v>657256</v>
       </c>
-      <c r="JZ31" s="37">
+      <c r="JZ31" s="5">
         <v>668408</v>
       </c>
-      <c r="KA31" s="37">
+      <c r="KA31" s="5">
         <v>673300</v>
       </c>
-      <c r="KB31" s="37">
+      <c r="KB31" s="5">
         <v>672246</v>
       </c>
       <c r="KC31" s="33">
@@ -26078,7 +26111,9 @@
       <c r="KF31" s="33">
         <v>683183</v>
       </c>
-      <c r="KG31"/>
+      <c r="KG31" s="33">
+        <v>669838</v>
+      </c>
       <c r="KH31"/>
       <c r="KI31"/>
     </row>
@@ -26917,34 +26952,34 @@
       <c r="JR32" s="11">
         <v>236993</v>
       </c>
-      <c r="JS32" s="37">
+      <c r="JS32" s="5">
         <v>240999</v>
       </c>
-      <c r="JT32" s="37">
+      <c r="JT32" s="5">
         <v>243760</v>
       </c>
-      <c r="JU32" s="37">
+      <c r="JU32" s="5">
         <v>244054</v>
       </c>
-      <c r="JV32" s="37">
+      <c r="JV32" s="5">
         <v>245443</v>
       </c>
-      <c r="JW32" s="37">
+      <c r="JW32" s="5">
         <v>244679</v>
       </c>
-      <c r="JX32" s="37">
+      <c r="JX32" s="5">
         <v>245459</v>
       </c>
-      <c r="JY32" s="37">
+      <c r="JY32" s="5">
         <v>243907</v>
       </c>
-      <c r="JZ32" s="37">
+      <c r="JZ32" s="5">
         <v>243501</v>
       </c>
-      <c r="KA32" s="37">
+      <c r="KA32" s="5">
         <v>245178</v>
       </c>
-      <c r="KB32" s="37">
+      <c r="KB32" s="5">
         <v>244267</v>
       </c>
       <c r="KC32" s="33">
@@ -26959,7 +26994,9 @@
       <c r="KF32" s="33">
         <v>222064</v>
       </c>
-      <c r="KG32"/>
+      <c r="KG32" s="33">
+        <v>222016</v>
+      </c>
       <c r="KH32"/>
       <c r="KI32"/>
     </row>
@@ -27798,34 +27835,34 @@
       <c r="JR33" s="11">
         <v>691670</v>
       </c>
-      <c r="JS33" s="37">
+      <c r="JS33" s="5">
         <v>696614</v>
       </c>
-      <c r="JT33" s="37">
+      <c r="JT33" s="5">
         <v>699400</v>
       </c>
-      <c r="JU33" s="37">
+      <c r="JU33" s="5">
         <v>697273</v>
       </c>
-      <c r="JV33" s="37">
+      <c r="JV33" s="5">
         <v>699836</v>
       </c>
-      <c r="JW33" s="37">
+      <c r="JW33" s="5">
         <v>698058</v>
       </c>
-      <c r="JX33" s="37">
+      <c r="JX33" s="5">
         <v>696401</v>
       </c>
-      <c r="JY33" s="37">
+      <c r="JY33" s="5">
         <v>700761</v>
       </c>
-      <c r="JZ33" s="37">
+      <c r="JZ33" s="5">
         <v>702813</v>
       </c>
-      <c r="KA33" s="37">
+      <c r="KA33" s="5">
         <v>704394</v>
       </c>
-      <c r="KB33" s="37">
+      <c r="KB33" s="5">
         <v>704522</v>
       </c>
       <c r="KC33" s="33">
@@ -27840,7 +27877,9 @@
       <c r="KF33" s="33">
         <v>699645</v>
       </c>
-      <c r="KG33"/>
+      <c r="KG33" s="33">
+        <v>701314</v>
+      </c>
       <c r="KH33"/>
       <c r="KI33"/>
     </row>
@@ -28679,34 +28718,34 @@
       <c r="JR34" s="11">
         <v>110476</v>
       </c>
-      <c r="JS34" s="37">
+      <c r="JS34" s="5">
         <v>112119</v>
       </c>
-      <c r="JT34" s="37">
+      <c r="JT34" s="5">
         <v>113139</v>
       </c>
-      <c r="JU34" s="37">
+      <c r="JU34" s="5">
         <v>113760</v>
       </c>
-      <c r="JV34" s="37">
+      <c r="JV34" s="5">
         <v>114356</v>
       </c>
-      <c r="JW34" s="37">
+      <c r="JW34" s="5">
         <v>114739</v>
       </c>
-      <c r="JX34" s="37">
+      <c r="JX34" s="5">
         <v>114464</v>
       </c>
-      <c r="JY34" s="37">
+      <c r="JY34" s="5">
         <v>114467</v>
       </c>
-      <c r="JZ34" s="37">
+      <c r="JZ34" s="5">
         <v>114896</v>
       </c>
-      <c r="KA34" s="37">
+      <c r="KA34" s="5">
         <v>115647</v>
       </c>
-      <c r="KB34" s="37">
+      <c r="KB34" s="5">
         <v>116221</v>
       </c>
       <c r="KC34" s="33">
@@ -28721,7 +28760,9 @@
       <c r="KF34" s="33">
         <v>116679</v>
       </c>
-      <c r="KG34"/>
+      <c r="KG34" s="33">
+        <v>118229</v>
+      </c>
       <c r="KH34"/>
       <c r="KI34"/>
     </row>
@@ -29560,34 +29601,34 @@
       <c r="JR35" s="11">
         <v>759626</v>
       </c>
-      <c r="JS35" s="37">
+      <c r="JS35" s="5">
         <v>762576</v>
       </c>
-      <c r="JT35" s="37">
+      <c r="JT35" s="5">
         <v>763371</v>
       </c>
-      <c r="JU35" s="37">
+      <c r="JU35" s="5">
         <v>759530</v>
       </c>
-      <c r="JV35" s="37">
+      <c r="JV35" s="5">
         <v>754613</v>
       </c>
-      <c r="JW35" s="37">
+      <c r="JW35" s="5">
         <v>753757</v>
       </c>
-      <c r="JX35" s="37">
+      <c r="JX35" s="5">
         <v>752893</v>
       </c>
-      <c r="JY35" s="37">
+      <c r="JY35" s="5">
         <v>759554</v>
       </c>
-      <c r="JZ35" s="37">
+      <c r="JZ35" s="5">
         <v>765628</v>
       </c>
-      <c r="KA35" s="37">
+      <c r="KA35" s="5">
         <v>772887</v>
       </c>
-      <c r="KB35" s="37">
+      <c r="KB35" s="5">
         <v>782590</v>
       </c>
       <c r="KC35" s="33">
@@ -29602,7 +29643,9 @@
       <c r="KF35" s="33">
         <v>782311</v>
       </c>
-      <c r="KG35"/>
+      <c r="KG35" s="33">
+        <v>785597</v>
+      </c>
       <c r="KH35"/>
       <c r="KI35"/>
     </row>
@@ -30441,34 +30484,34 @@
       <c r="JR36" s="11">
         <v>417035</v>
       </c>
-      <c r="JS36" s="37">
+      <c r="JS36" s="5">
         <v>420905</v>
       </c>
-      <c r="JT36" s="37">
+      <c r="JT36" s="5">
         <v>421696</v>
       </c>
-      <c r="JU36" s="37">
+      <c r="JU36" s="5">
         <v>421816</v>
       </c>
-      <c r="JV36" s="37">
+      <c r="JV36" s="5">
         <v>423677</v>
       </c>
-      <c r="JW36" s="37">
+      <c r="JW36" s="5">
         <v>424406</v>
       </c>
-      <c r="JX36" s="37">
+      <c r="JX36" s="5">
         <v>422665</v>
       </c>
-      <c r="JY36" s="37">
+      <c r="JY36" s="5">
         <v>425668</v>
       </c>
-      <c r="JZ36" s="37">
+      <c r="JZ36" s="5">
         <v>428695</v>
       </c>
-      <c r="KA36" s="37">
+      <c r="KA36" s="5">
         <v>435910</v>
       </c>
-      <c r="KB36" s="37">
+      <c r="KB36" s="5">
         <v>440985</v>
       </c>
       <c r="KC36" s="33">
@@ -30483,7 +30526,9 @@
       <c r="KF36" s="33">
         <v>436351</v>
       </c>
-      <c r="KG36"/>
+      <c r="KG36" s="33">
+        <v>437516</v>
+      </c>
       <c r="KH36"/>
       <c r="KI36"/>
     </row>
@@ -31322,34 +31367,34 @@
       <c r="JR37" s="11">
         <v>194660</v>
       </c>
-      <c r="JS37" s="37">
+      <c r="JS37" s="5">
         <v>195650</v>
       </c>
-      <c r="JT37" s="37">
+      <c r="JT37" s="5">
         <v>197131</v>
       </c>
-      <c r="JU37" s="37">
+      <c r="JU37" s="5">
         <v>197853</v>
       </c>
-      <c r="JV37" s="37">
+      <c r="JV37" s="5">
         <v>198536</v>
       </c>
-      <c r="JW37" s="37">
+      <c r="JW37" s="5">
         <v>199578</v>
       </c>
-      <c r="JX37" s="37">
+      <c r="JX37" s="5">
         <v>198313</v>
       </c>
-      <c r="JY37" s="37">
+      <c r="JY37" s="5">
         <v>197258</v>
       </c>
-      <c r="JZ37" s="37">
+      <c r="JZ37" s="5">
         <v>198248</v>
       </c>
-      <c r="KA37" s="37">
+      <c r="KA37" s="5">
         <v>197966</v>
       </c>
-      <c r="KB37" s="37">
+      <c r="KB37" s="5">
         <v>199152</v>
       </c>
       <c r="KC37" s="33">
@@ -31364,7 +31409,9 @@
       <c r="KF37" s="33">
         <v>198212</v>
       </c>
-      <c r="KG37"/>
+      <c r="KG37" s="33">
+        <v>198057</v>
+      </c>
       <c r="KH37"/>
       <c r="KI37"/>
     </row>
@@ -32247,6 +32294,10 @@
       <c r="KF38" s="34">
         <f>SUM(KF6:KF37)</f>
         <v>22289345</v>
+      </c>
+      <c r="KG38" s="34">
+        <f>SUM(KG6:KG37)</f>
+        <v>22374202</v>
       </c>
     </row>
     <row r="40" spans="1:295" x14ac:dyDescent="0.25">

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.garcia\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BAC6A2-63F7-4470-8AF5-F3C9F6E62308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB00D66-27F1-4166-BD9F-4CF1A5FD0BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -801,17 +801,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -862,7 +851,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -928,17 +917,25 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1289,8 +1286,8 @@
   <dimension ref="A1:KI40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KH4" sqref="KH4"/>
+      <pane xSplit="1" topLeftCell="JW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1397,7 @@
       </c>
     </row>
     <row r="4" spans="1:295" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="14">
@@ -2267,13 +2264,13 @@
       <c r="KC4" s="32">
         <v>2023</v>
       </c>
-      <c r="KD4" s="31">
+      <c r="KD4" s="30">
         <v>2024</v>
       </c>
-      <c r="KE4" s="32">
+      <c r="KE4" s="31">
         <v>2024</v>
       </c>
-      <c r="KF4" s="32">
+      <c r="KF4" s="31">
         <v>2024</v>
       </c>
       <c r="KG4" s="32">
@@ -2281,7 +2278,7 @@
       </c>
     </row>
     <row r="5" spans="1:295" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
@@ -3143,19 +3140,19 @@
       <c r="KB5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="KC5" s="35" t="s">
+      <c r="KC5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="KD5" s="28" t="s">
+      <c r="KD5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="KE5" s="35" t="s">
+      <c r="KE5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="KF5" s="37" t="s">
+      <c r="KF5" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="KG5" s="37" t="s">
+      <c r="KG5" s="40" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4024,16 +4021,16 @@
       <c r="KB6" s="5">
         <v>361685</v>
       </c>
-      <c r="KC6" s="33">
+      <c r="KC6" s="37">
         <v>356040</v>
       </c>
-      <c r="KD6" s="5">
+      <c r="KD6" s="11">
         <v>358188</v>
       </c>
-      <c r="KE6" s="33">
+      <c r="KE6" s="37">
         <v>360685</v>
       </c>
-      <c r="KF6" s="33">
+      <c r="KF6" s="37">
         <v>361350</v>
       </c>
       <c r="KG6" s="33">
@@ -4907,16 +4904,16 @@
       <c r="KB7" s="5">
         <v>1052398</v>
       </c>
-      <c r="KC7" s="33">
+      <c r="KC7" s="37">
         <v>1058575</v>
       </c>
-      <c r="KD7" s="5">
+      <c r="KD7" s="11">
         <v>1035383</v>
       </c>
-      <c r="KE7" s="33">
+      <c r="KE7" s="37">
         <v>1047545</v>
       </c>
-      <c r="KF7" s="33">
+      <c r="KF7" s="37">
         <v>1050451</v>
       </c>
       <c r="KG7" s="33">
@@ -5790,16 +5787,16 @@
       <c r="KB8" s="5">
         <v>227641</v>
       </c>
-      <c r="KC8" s="33">
+      <c r="KC8" s="37">
         <v>219971</v>
       </c>
-      <c r="KD8" s="5">
+      <c r="KD8" s="11">
         <v>218124</v>
       </c>
-      <c r="KE8" s="33">
+      <c r="KE8" s="37">
         <v>220529</v>
       </c>
-      <c r="KF8" s="33">
+      <c r="KF8" s="37">
         <v>219663</v>
       </c>
       <c r="KG8" s="33">
@@ -6673,16 +6670,16 @@
       <c r="KB9" s="5">
         <v>145539</v>
       </c>
-      <c r="KC9" s="33">
+      <c r="KC9" s="37">
         <v>141577</v>
       </c>
-      <c r="KD9" s="5">
+      <c r="KD9" s="11">
         <v>141865</v>
       </c>
-      <c r="KE9" s="33">
+      <c r="KE9" s="37">
         <v>143456</v>
       </c>
-      <c r="KF9" s="33">
+      <c r="KF9" s="37">
         <v>143638</v>
       </c>
       <c r="KG9" s="33">
@@ -7556,16 +7553,16 @@
       <c r="KB10" s="5">
         <v>257279</v>
       </c>
-      <c r="KC10" s="33">
+      <c r="KC10" s="37">
         <v>252975</v>
       </c>
-      <c r="KD10" s="5">
+      <c r="KD10" s="11">
         <v>252749</v>
       </c>
-      <c r="KE10" s="33">
+      <c r="KE10" s="37">
         <v>256060</v>
       </c>
-      <c r="KF10" s="33">
+      <c r="KF10" s="37">
         <v>256846</v>
       </c>
       <c r="KG10" s="33">
@@ -8439,16 +8436,16 @@
       <c r="KB11" s="5">
         <v>993266</v>
       </c>
-      <c r="KC11" s="33">
+      <c r="KC11" s="37">
         <v>967878</v>
       </c>
-      <c r="KD11" s="5">
+      <c r="KD11" s="11">
         <v>976755</v>
       </c>
-      <c r="KE11" s="33">
+      <c r="KE11" s="37">
         <v>980496</v>
       </c>
-      <c r="KF11" s="33">
+      <c r="KF11" s="37">
         <v>978195</v>
       </c>
       <c r="KG11" s="33">
@@ -9322,16 +9319,16 @@
       <c r="KB12" s="5">
         <v>3525039</v>
       </c>
-      <c r="KC12" s="33">
+      <c r="KC12" s="37">
         <v>3473825</v>
       </c>
-      <c r="KD12" s="5">
+      <c r="KD12" s="11">
         <v>3450496</v>
       </c>
-      <c r="KE12" s="33">
+      <c r="KE12" s="37">
         <v>3466984</v>
       </c>
-      <c r="KF12" s="33">
+      <c r="KF12" s="37">
         <v>3467734</v>
       </c>
       <c r="KG12" s="33">
@@ -10205,16 +10202,16 @@
       <c r="KB13" s="5">
         <v>871739</v>
       </c>
-      <c r="KC13" s="33">
+      <c r="KC13" s="37">
         <v>856775</v>
       </c>
-      <c r="KD13" s="5">
+      <c r="KD13" s="11">
         <v>862873</v>
       </c>
-      <c r="KE13" s="33">
+      <c r="KE13" s="37">
         <v>871609</v>
       </c>
-      <c r="KF13" s="33">
+      <c r="KF13" s="37">
         <v>872670</v>
       </c>
       <c r="KG13" s="33">
@@ -11088,16 +11085,16 @@
       <c r="KB14" s="5">
         <v>151154</v>
       </c>
-      <c r="KC14" s="33">
+      <c r="KC14" s="37">
         <v>151266</v>
       </c>
-      <c r="KD14" s="5">
+      <c r="KD14" s="11">
         <v>150756</v>
       </c>
-      <c r="KE14" s="33">
+      <c r="KE14" s="37">
         <v>151407</v>
       </c>
-      <c r="KF14" s="33">
+      <c r="KF14" s="37">
         <v>151704</v>
       </c>
       <c r="KG14" s="33">
@@ -11971,16 +11968,16 @@
       <c r="KB15" s="5">
         <v>261715</v>
       </c>
-      <c r="KC15" s="33">
+      <c r="KC15" s="37">
         <v>256548</v>
       </c>
-      <c r="KD15" s="5">
+      <c r="KD15" s="11">
         <v>259169</v>
       </c>
-      <c r="KE15" s="33">
+      <c r="KE15" s="37">
         <v>260555</v>
       </c>
-      <c r="KF15" s="33">
+      <c r="KF15" s="37">
         <v>259834</v>
       </c>
       <c r="KG15" s="33">
@@ -12854,16 +12851,16 @@
       <c r="KB16" s="5">
         <v>1827708</v>
       </c>
-      <c r="KC16" s="33">
+      <c r="KC16" s="37">
         <v>1797179</v>
       </c>
-      <c r="KD16" s="5">
+      <c r="KD16" s="11">
         <v>1810126</v>
       </c>
-      <c r="KE16" s="33">
+      <c r="KE16" s="37">
         <v>1824137</v>
       </c>
-      <c r="KF16" s="33">
+      <c r="KF16" s="37">
         <v>1827655</v>
       </c>
       <c r="KG16" s="33">
@@ -13737,16 +13734,16 @@
       <c r="KB17" s="5">
         <v>1110342</v>
       </c>
-      <c r="KC17" s="33">
+      <c r="KC17" s="37">
         <v>1084985</v>
       </c>
-      <c r="KD17" s="5">
+      <c r="KD17" s="11">
         <v>1097102</v>
       </c>
-      <c r="KE17" s="33">
+      <c r="KE17" s="37">
         <v>1103644</v>
       </c>
-      <c r="KF17" s="33">
+      <c r="KF17" s="37">
         <v>1104822</v>
       </c>
       <c r="KG17" s="33">
@@ -14620,16 +14617,16 @@
       <c r="KB18" s="5">
         <v>158855</v>
       </c>
-      <c r="KC18" s="33">
+      <c r="KC18" s="37">
         <v>156874</v>
       </c>
-      <c r="KD18" s="5">
+      <c r="KD18" s="11">
         <v>157302</v>
       </c>
-      <c r="KE18" s="33">
+      <c r="KE18" s="37">
         <v>160862</v>
       </c>
-      <c r="KF18" s="33">
+      <c r="KF18" s="37">
         <v>163685</v>
       </c>
       <c r="KG18" s="33">
@@ -15503,16 +15500,16 @@
       <c r="KB19" s="5">
         <v>275077</v>
       </c>
-      <c r="KC19" s="33">
+      <c r="KC19" s="37">
         <v>269445</v>
       </c>
-      <c r="KD19" s="5">
+      <c r="KD19" s="11">
         <v>272998</v>
       </c>
-      <c r="KE19" s="33">
+      <c r="KE19" s="37">
         <v>279243</v>
       </c>
-      <c r="KF19" s="33">
+      <c r="KF19" s="37">
         <v>276494</v>
       </c>
       <c r="KG19" s="33">
@@ -16386,19 +16383,19 @@
       <c r="KB20" s="23">
         <v>2026935</v>
       </c>
-      <c r="KC20" s="36">
+      <c r="KC20" s="38">
         <v>1995357</v>
       </c>
-      <c r="KD20" s="23">
+      <c r="KD20" s="22">
         <v>2009853</v>
       </c>
-      <c r="KE20" s="36">
+      <c r="KE20" s="38">
         <v>2017879</v>
       </c>
-      <c r="KF20" s="36">
+      <c r="KF20" s="38">
         <v>2017626</v>
       </c>
-      <c r="KG20" s="36">
+      <c r="KG20" s="35">
         <v>2023394</v>
       </c>
       <c r="KH20"/>
@@ -17269,16 +17266,16 @@
       <c r="KB21" s="5">
         <v>487300</v>
       </c>
-      <c r="KC21" s="33">
+      <c r="KC21" s="37">
         <v>486480</v>
       </c>
-      <c r="KD21" s="5">
+      <c r="KD21" s="11">
         <v>486194</v>
       </c>
-      <c r="KE21" s="33">
+      <c r="KE21" s="37">
         <v>488387</v>
       </c>
-      <c r="KF21" s="33">
+      <c r="KF21" s="37">
         <v>486323</v>
       </c>
       <c r="KG21" s="33">
@@ -18152,16 +18149,16 @@
       <c r="KB22" s="5">
         <v>224260</v>
       </c>
-      <c r="KC22" s="33">
+      <c r="KC22" s="37">
         <v>222971</v>
       </c>
-      <c r="KD22" s="5">
+      <c r="KD22" s="11">
         <v>222583</v>
       </c>
-      <c r="KE22" s="33">
+      <c r="KE22" s="37">
         <v>223440</v>
       </c>
-      <c r="KF22" s="33">
+      <c r="KF22" s="37">
         <v>223345</v>
       </c>
       <c r="KG22" s="33">
@@ -19035,16 +19032,16 @@
       <c r="KB23" s="5">
         <v>187459</v>
       </c>
-      <c r="KC23" s="33">
+      <c r="KC23" s="37">
         <v>181574</v>
       </c>
-      <c r="KD23" s="5">
+      <c r="KD23" s="11">
         <v>185919</v>
       </c>
-      <c r="KE23" s="33">
+      <c r="KE23" s="37">
         <v>188234</v>
       </c>
-      <c r="KF23" s="33">
+      <c r="KF23" s="37">
         <v>186881</v>
       </c>
       <c r="KG23" s="33">
@@ -19918,16 +19915,16 @@
       <c r="KB24" s="5">
         <v>1887265</v>
       </c>
-      <c r="KC24" s="33">
+      <c r="KC24" s="37">
         <v>1848518</v>
       </c>
-      <c r="KD24" s="5">
+      <c r="KD24" s="11">
         <v>1867243</v>
       </c>
-      <c r="KE24" s="33">
+      <c r="KE24" s="37">
         <v>1884748</v>
       </c>
-      <c r="KF24" s="33">
+      <c r="KF24" s="37">
         <v>1885214</v>
       </c>
       <c r="KG24" s="33">
@@ -20801,16 +20798,16 @@
       <c r="KB25" s="5">
         <v>233978</v>
       </c>
-      <c r="KC25" s="33">
+      <c r="KC25" s="37">
         <v>227190</v>
       </c>
-      <c r="KD25" s="5">
+      <c r="KD25" s="11">
         <v>233373</v>
       </c>
-      <c r="KE25" s="33">
+      <c r="KE25" s="37">
         <v>233355</v>
       </c>
-      <c r="KF25" s="33">
+      <c r="KF25" s="37">
         <v>232869</v>
       </c>
       <c r="KG25" s="33">
@@ -21684,16 +21681,16 @@
       <c r="KB26" s="5">
         <v>657749</v>
       </c>
-      <c r="KC26" s="33">
+      <c r="KC26" s="37">
         <v>651620</v>
       </c>
-      <c r="KD26" s="5">
+      <c r="KD26" s="11">
         <v>650785</v>
       </c>
-      <c r="KE26" s="33">
+      <c r="KE26" s="37">
         <v>653152</v>
       </c>
-      <c r="KF26" s="33">
+      <c r="KF26" s="37">
         <v>652936</v>
       </c>
       <c r="KG26" s="33">
@@ -22567,16 +22564,16 @@
       <c r="KB27" s="5">
         <v>708309</v>
       </c>
-      <c r="KC27" s="33">
+      <c r="KC27" s="37">
         <v>695282</v>
       </c>
-      <c r="KD27" s="5">
+      <c r="KD27" s="11">
         <v>701979</v>
       </c>
-      <c r="KE27" s="33">
+      <c r="KE27" s="37">
         <v>708177</v>
       </c>
-      <c r="KF27" s="33">
+      <c r="KF27" s="37">
         <v>706948</v>
       </c>
       <c r="KG27" s="33">
@@ -23450,16 +23447,16 @@
       <c r="KB28" s="5">
         <v>520551</v>
       </c>
-      <c r="KC28" s="33">
+      <c r="KC28" s="37">
         <v>505885</v>
       </c>
-      <c r="KD28" s="5">
+      <c r="KD28" s="11">
         <v>519739</v>
       </c>
-      <c r="KE28" s="33">
+      <c r="KE28" s="37">
         <v>524804</v>
       </c>
-      <c r="KF28" s="33">
+      <c r="KF28" s="37">
         <v>520214</v>
       </c>
       <c r="KG28" s="33">
@@ -24333,16 +24330,16 @@
       <c r="KB29" s="5">
         <v>486209</v>
       </c>
-      <c r="KC29" s="33">
+      <c r="KC29" s="37">
         <v>478187</v>
       </c>
-      <c r="KD29" s="5">
+      <c r="KD29" s="11">
         <v>483782</v>
       </c>
-      <c r="KE29" s="33">
+      <c r="KE29" s="37">
         <v>486666</v>
       </c>
-      <c r="KF29" s="33">
+      <c r="KF29" s="37">
         <v>485982</v>
       </c>
       <c r="KG29" s="33">
@@ -25216,16 +25213,16 @@
       <c r="KB30" s="5">
         <v>609833</v>
       </c>
-      <c r="KC30" s="33">
+      <c r="KC30" s="37">
         <v>607613</v>
       </c>
-      <c r="KD30" s="5">
+      <c r="KD30" s="11">
         <v>610959</v>
       </c>
-      <c r="KE30" s="33">
+      <c r="KE30" s="37">
         <v>626138</v>
       </c>
-      <c r="KF30" s="33">
+      <c r="KF30" s="37">
         <v>617821</v>
       </c>
       <c r="KG30" s="33">
@@ -26099,16 +26096,16 @@
       <c r="KB31" s="5">
         <v>672246</v>
       </c>
-      <c r="KC31" s="33">
+      <c r="KC31" s="37">
         <v>620594</v>
       </c>
-      <c r="KD31" s="5">
+      <c r="KD31" s="11">
         <v>665301</v>
       </c>
-      <c r="KE31" s="33">
+      <c r="KE31" s="37">
         <v>670365</v>
       </c>
-      <c r="KF31" s="33">
+      <c r="KF31" s="37">
         <v>683183</v>
       </c>
       <c r="KG31" s="33">
@@ -26982,16 +26979,16 @@
       <c r="KB32" s="5">
         <v>244267</v>
       </c>
-      <c r="KC32" s="33">
+      <c r="KC32" s="37">
         <v>234754</v>
       </c>
-      <c r="KD32" s="5">
+      <c r="KD32" s="11">
         <v>228419</v>
       </c>
-      <c r="KE32" s="33">
+      <c r="KE32" s="37">
         <v>225114</v>
       </c>
-      <c r="KF32" s="33">
+      <c r="KF32" s="37">
         <v>222064</v>
       </c>
       <c r="KG32" s="33">
@@ -27865,16 +27862,16 @@
       <c r="KB33" s="5">
         <v>704522</v>
       </c>
-      <c r="KC33" s="33">
+      <c r="KC33" s="37">
         <v>705666</v>
       </c>
-      <c r="KD33" s="5">
+      <c r="KD33" s="11">
         <v>694620</v>
       </c>
-      <c r="KE33" s="33">
+      <c r="KE33" s="37">
         <v>697712</v>
       </c>
-      <c r="KF33" s="33">
+      <c r="KF33" s="37">
         <v>699645</v>
       </c>
       <c r="KG33" s="33">
@@ -28748,16 +28745,16 @@
       <c r="KB34" s="5">
         <v>116221</v>
       </c>
-      <c r="KC34" s="33">
+      <c r="KC34" s="37">
         <v>114380</v>
       </c>
-      <c r="KD34" s="5">
+      <c r="KD34" s="11">
         <v>115524</v>
       </c>
-      <c r="KE34" s="33">
+      <c r="KE34" s="37">
         <v>115440</v>
       </c>
-      <c r="KF34" s="33">
+      <c r="KF34" s="37">
         <v>116679</v>
       </c>
       <c r="KG34" s="33">
@@ -29631,16 +29628,16 @@
       <c r="KB35" s="5">
         <v>782590</v>
       </c>
-      <c r="KC35" s="33">
+      <c r="KC35" s="37">
         <v>770729</v>
       </c>
-      <c r="KD35" s="5">
+      <c r="KD35" s="11">
         <v>780585</v>
       </c>
-      <c r="KE35" s="33">
+      <c r="KE35" s="37">
         <v>784376</v>
       </c>
-      <c r="KF35" s="33">
+      <c r="KF35" s="37">
         <v>782311</v>
       </c>
       <c r="KG35" s="33">
@@ -30514,16 +30511,16 @@
       <c r="KB36" s="5">
         <v>440985</v>
       </c>
-      <c r="KC36" s="33">
+      <c r="KC36" s="37">
         <v>435940</v>
       </c>
-      <c r="KD36" s="5">
+      <c r="KD36" s="11">
         <v>436592</v>
       </c>
-      <c r="KE36" s="33">
+      <c r="KE36" s="37">
         <v>437479</v>
       </c>
-      <c r="KF36" s="33">
+      <c r="KF36" s="37">
         <v>436351</v>
       </c>
       <c r="KG36" s="33">
@@ -31397,16 +31394,16 @@
       <c r="KB37" s="5">
         <v>199152</v>
       </c>
-      <c r="KC37" s="33">
+      <c r="KC37" s="37">
         <v>197733</v>
       </c>
-      <c r="KD37" s="5">
+      <c r="KD37" s="11">
         <v>196071</v>
       </c>
-      <c r="KE37" s="33">
+      <c r="KE37" s="37">
         <v>197132</v>
       </c>
-      <c r="KF37" s="33">
+      <c r="KF37" s="37">
         <v>198212</v>
       </c>
       <c r="KG37" s="33">
@@ -32282,16 +32279,16 @@
       <c r="KB38" s="9">
         <v>22409268</v>
       </c>
-      <c r="KC38" s="34">
+      <c r="KC38" s="9">
         <v>22024386</v>
       </c>
-      <c r="KD38" s="9">
+      <c r="KD38" s="12">
         <v>22133407</v>
       </c>
-      <c r="KE38" s="34">
+      <c r="KE38" s="9">
         <v>22289810</v>
       </c>
-      <c r="KF38" s="34">
+      <c r="KF38" s="9">
         <f>SUM(KF6:KF37)</f>
         <v>22289345</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.garcia\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB00D66-27F1-4166-BD9F-4CF1A5FD0BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03807446-52CA-4ACC-937F-E156B8471FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -569,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -805,6 +805,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -925,16 +936,16 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1286,8 +1297,8 @@
   <dimension ref="A1:KI40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="1" topLeftCell="JU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="KH4" sqref="KH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,16 +2275,19 @@
       <c r="KC4" s="32">
         <v>2023</v>
       </c>
-      <c r="KD4" s="30">
+      <c r="KD4" s="24">
         <v>2024</v>
       </c>
-      <c r="KE4" s="31">
+      <c r="KE4" s="25">
         <v>2024</v>
       </c>
-      <c r="KF4" s="31">
+      <c r="KF4" s="25">
         <v>2024</v>
       </c>
-      <c r="KG4" s="32">
+      <c r="KG4" s="25">
+        <v>2024</v>
+      </c>
+      <c r="KH4" s="39">
         <v>2024</v>
       </c>
     </row>
@@ -3143,17 +3157,20 @@
       <c r="KC5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="KD5" s="42" t="s">
+      <c r="KD5" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="KE5" s="41" t="s">
+      <c r="KE5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="KF5" s="39" t="s">
+      <c r="KF5" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="KG5" s="40" t="s">
+      <c r="KG5" s="41" t="s">
         <v>32</v>
+      </c>
+      <c r="KH5" s="42" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4021,7 +4038,7 @@
       <c r="KB6" s="5">
         <v>361685</v>
       </c>
-      <c r="KC6" s="37">
+      <c r="KC6" s="5">
         <v>356040</v>
       </c>
       <c r="KD6" s="11">
@@ -4033,10 +4050,12 @@
       <c r="KF6" s="37">
         <v>361350</v>
       </c>
-      <c r="KG6" s="33">
+      <c r="KG6" s="37">
         <v>362534</v>
       </c>
-      <c r="KH6"/>
+      <c r="KH6" s="33">
+        <v>356824</v>
+      </c>
       <c r="KI6"/>
     </row>
     <row r="7" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4904,7 +4923,7 @@
       <c r="KB7" s="5">
         <v>1052398</v>
       </c>
-      <c r="KC7" s="37">
+      <c r="KC7" s="5">
         <v>1058575</v>
       </c>
       <c r="KD7" s="11">
@@ -4916,10 +4935,12 @@
       <c r="KF7" s="37">
         <v>1050451</v>
       </c>
-      <c r="KG7" s="33">
+      <c r="KG7" s="37">
         <v>1048271</v>
       </c>
-      <c r="KH7"/>
+      <c r="KH7" s="33">
+        <v>1043660</v>
+      </c>
       <c r="KI7"/>
     </row>
     <row r="8" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5787,7 +5808,7 @@
       <c r="KB8" s="5">
         <v>227641</v>
       </c>
-      <c r="KC8" s="37">
+      <c r="KC8" s="5">
         <v>219971</v>
       </c>
       <c r="KD8" s="11">
@@ -5799,10 +5820,12 @@
       <c r="KF8" s="37">
         <v>219663</v>
       </c>
-      <c r="KG8" s="33">
+      <c r="KG8" s="37">
         <v>222006</v>
       </c>
-      <c r="KH8"/>
+      <c r="KH8" s="33">
+        <v>225112</v>
+      </c>
       <c r="KI8"/>
     </row>
     <row r="9" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -6670,7 +6693,7 @@
       <c r="KB9" s="5">
         <v>145539</v>
       </c>
-      <c r="KC9" s="37">
+      <c r="KC9" s="5">
         <v>141577</v>
       </c>
       <c r="KD9" s="11">
@@ -6682,10 +6705,12 @@
       <c r="KF9" s="37">
         <v>143638</v>
       </c>
-      <c r="KG9" s="33">
+      <c r="KG9" s="37">
         <v>141221</v>
       </c>
-      <c r="KH9"/>
+      <c r="KH9" s="33">
+        <v>141141</v>
+      </c>
       <c r="KI9"/>
     </row>
     <row r="10" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -7553,7 +7578,7 @@
       <c r="KB10" s="5">
         <v>257279</v>
       </c>
-      <c r="KC10" s="37">
+      <c r="KC10" s="5">
         <v>252975</v>
       </c>
       <c r="KD10" s="11">
@@ -7565,10 +7590,12 @@
       <c r="KF10" s="37">
         <v>256846</v>
       </c>
-      <c r="KG10" s="33">
+      <c r="KG10" s="37">
         <v>258205</v>
       </c>
-      <c r="KH10"/>
+      <c r="KH10" s="33">
+        <v>258123</v>
+      </c>
       <c r="KI10"/>
     </row>
     <row r="11" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8436,7 +8463,7 @@
       <c r="KB11" s="5">
         <v>993266</v>
       </c>
-      <c r="KC11" s="37">
+      <c r="KC11" s="5">
         <v>967878</v>
       </c>
       <c r="KD11" s="11">
@@ -8448,10 +8475,12 @@
       <c r="KF11" s="37">
         <v>978195</v>
       </c>
-      <c r="KG11" s="33">
+      <c r="KG11" s="37">
         <v>981587</v>
       </c>
-      <c r="KH11"/>
+      <c r="KH11" s="33">
+        <v>984272</v>
+      </c>
       <c r="KI11"/>
     </row>
     <row r="12" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -9319,7 +9348,7 @@
       <c r="KB12" s="5">
         <v>3525039</v>
       </c>
-      <c r="KC12" s="37">
+      <c r="KC12" s="5">
         <v>3473825</v>
       </c>
       <c r="KD12" s="11">
@@ -9331,10 +9360,12 @@
       <c r="KF12" s="37">
         <v>3467734</v>
       </c>
-      <c r="KG12" s="33">
+      <c r="KG12" s="37">
         <v>3490972</v>
       </c>
-      <c r="KH12"/>
+      <c r="KH12" s="33">
+        <v>3508104</v>
+      </c>
       <c r="KI12"/>
     </row>
     <row r="13" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -10202,7 +10233,7 @@
       <c r="KB13" s="5">
         <v>871739</v>
       </c>
-      <c r="KC13" s="37">
+      <c r="KC13" s="5">
         <v>856775</v>
       </c>
       <c r="KD13" s="11">
@@ -10214,10 +10245,12 @@
       <c r="KF13" s="37">
         <v>872670</v>
       </c>
-      <c r="KG13" s="33">
+      <c r="KG13" s="37">
         <v>879111</v>
       </c>
-      <c r="KH13"/>
+      <c r="KH13" s="33">
+        <v>878555</v>
+      </c>
       <c r="KI13"/>
     </row>
     <row r="14" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11085,7 +11118,7 @@
       <c r="KB14" s="5">
         <v>151154</v>
       </c>
-      <c r="KC14" s="37">
+      <c r="KC14" s="5">
         <v>151266</v>
       </c>
       <c r="KD14" s="11">
@@ -11097,10 +11130,12 @@
       <c r="KF14" s="37">
         <v>151704</v>
       </c>
-      <c r="KG14" s="33">
+      <c r="KG14" s="37">
         <v>152105</v>
       </c>
-      <c r="KH14"/>
+      <c r="KH14" s="33">
+        <v>152107</v>
+      </c>
       <c r="KI14"/>
     </row>
     <row r="15" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -11968,7 +12003,7 @@
       <c r="KB15" s="5">
         <v>261715</v>
       </c>
-      <c r="KC15" s="37">
+      <c r="KC15" s="5">
         <v>256548</v>
       </c>
       <c r="KD15" s="11">
@@ -11980,10 +12015,12 @@
       <c r="KF15" s="37">
         <v>259834</v>
       </c>
-      <c r="KG15" s="33">
+      <c r="KG15" s="37">
         <v>261976</v>
       </c>
-      <c r="KH15"/>
+      <c r="KH15" s="33">
+        <v>261246</v>
+      </c>
       <c r="KI15"/>
     </row>
     <row r="16" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -12851,7 +12888,7 @@
       <c r="KB16" s="5">
         <v>1827708</v>
       </c>
-      <c r="KC16" s="37">
+      <c r="KC16" s="5">
         <v>1797179</v>
       </c>
       <c r="KD16" s="11">
@@ -12863,10 +12900,12 @@
       <c r="KF16" s="37">
         <v>1827655</v>
       </c>
-      <c r="KG16" s="33">
+      <c r="KG16" s="37">
         <v>1844815</v>
       </c>
-      <c r="KH16"/>
+      <c r="KH16" s="33">
+        <v>1848724</v>
+      </c>
       <c r="KI16"/>
     </row>
     <row r="17" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -13734,7 +13773,7 @@
       <c r="KB17" s="5">
         <v>1110342</v>
       </c>
-      <c r="KC17" s="37">
+      <c r="KC17" s="5">
         <v>1084985</v>
       </c>
       <c r="KD17" s="11">
@@ -13746,10 +13785,12 @@
       <c r="KF17" s="37">
         <v>1104822</v>
       </c>
-      <c r="KG17" s="33">
+      <c r="KG17" s="37">
         <v>1112740</v>
       </c>
-      <c r="KH17"/>
+      <c r="KH17" s="33">
+        <v>1115019</v>
+      </c>
       <c r="KI17"/>
     </row>
     <row r="18" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -14617,7 +14658,7 @@
       <c r="KB18" s="5">
         <v>158855</v>
       </c>
-      <c r="KC18" s="37">
+      <c r="KC18" s="5">
         <v>156874</v>
       </c>
       <c r="KD18" s="11">
@@ -14629,10 +14670,12 @@
       <c r="KF18" s="37">
         <v>163685</v>
       </c>
-      <c r="KG18" s="33">
+      <c r="KG18" s="37">
         <v>163689</v>
       </c>
-      <c r="KH18"/>
+      <c r="KH18" s="33">
+        <v>162349</v>
+      </c>
       <c r="KI18"/>
     </row>
     <row r="19" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -15500,7 +15543,7 @@
       <c r="KB19" s="5">
         <v>275077</v>
       </c>
-      <c r="KC19" s="37">
+      <c r="KC19" s="5">
         <v>269445</v>
       </c>
       <c r="KD19" s="11">
@@ -15512,10 +15555,12 @@
       <c r="KF19" s="37">
         <v>276494</v>
       </c>
-      <c r="KG19" s="33">
+      <c r="KG19" s="37">
         <v>277081</v>
       </c>
-      <c r="KH19"/>
+      <c r="KH19" s="33">
+        <v>278561</v>
+      </c>
       <c r="KI19"/>
     </row>
     <row r="20" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -16383,7 +16428,7 @@
       <c r="KB20" s="23">
         <v>2026935</v>
       </c>
-      <c r="KC20" s="38">
+      <c r="KC20" s="23">
         <v>1995357</v>
       </c>
       <c r="KD20" s="22">
@@ -16395,10 +16440,12 @@
       <c r="KF20" s="38">
         <v>2017626</v>
       </c>
-      <c r="KG20" s="35">
+      <c r="KG20" s="38">
         <v>2023394</v>
       </c>
-      <c r="KH20"/>
+      <c r="KH20" s="35">
+        <v>2023598</v>
+      </c>
       <c r="KI20"/>
     </row>
     <row r="21" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -17266,7 +17313,7 @@
       <c r="KB21" s="5">
         <v>487300</v>
       </c>
-      <c r="KC21" s="37">
+      <c r="KC21" s="5">
         <v>486480</v>
       </c>
       <c r="KD21" s="11">
@@ -17278,10 +17325,12 @@
       <c r="KF21" s="37">
         <v>486323</v>
       </c>
-      <c r="KG21" s="33">
+      <c r="KG21" s="37">
         <v>486293</v>
       </c>
-      <c r="KH21"/>
+      <c r="KH21" s="33">
+        <v>482985</v>
+      </c>
       <c r="KI21"/>
     </row>
     <row r="22" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -18149,7 +18198,7 @@
       <c r="KB22" s="5">
         <v>224260</v>
       </c>
-      <c r="KC22" s="37">
+      <c r="KC22" s="5">
         <v>222971</v>
       </c>
       <c r="KD22" s="11">
@@ -18161,10 +18210,12 @@
       <c r="KF22" s="37">
         <v>223345</v>
       </c>
-      <c r="KG22" s="33">
+      <c r="KG22" s="37">
         <v>223022</v>
       </c>
-      <c r="KH22"/>
+      <c r="KH22" s="33">
+        <v>221491</v>
+      </c>
       <c r="KI22"/>
     </row>
     <row r="23" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -19032,7 +19083,7 @@
       <c r="KB23" s="5">
         <v>187459</v>
       </c>
-      <c r="KC23" s="37">
+      <c r="KC23" s="5">
         <v>181574</v>
       </c>
       <c r="KD23" s="11">
@@ -19044,10 +19095,12 @@
       <c r="KF23" s="37">
         <v>186881</v>
       </c>
-      <c r="KG23" s="33">
+      <c r="KG23" s="37">
         <v>187926</v>
       </c>
-      <c r="KH23"/>
+      <c r="KH23" s="33">
+        <v>186238</v>
+      </c>
       <c r="KI23"/>
     </row>
     <row r="24" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -19915,7 +19968,7 @@
       <c r="KB24" s="5">
         <v>1887265</v>
       </c>
-      <c r="KC24" s="37">
+      <c r="KC24" s="5">
         <v>1848518</v>
       </c>
       <c r="KD24" s="11">
@@ -19927,10 +19980,12 @@
       <c r="KF24" s="37">
         <v>1885214</v>
       </c>
-      <c r="KG24" s="33">
+      <c r="KG24" s="37">
         <v>1898720</v>
       </c>
-      <c r="KH24"/>
+      <c r="KH24" s="33">
+        <v>1901397</v>
+      </c>
       <c r="KI24"/>
     </row>
     <row r="25" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -20798,7 +20853,7 @@
       <c r="KB25" s="5">
         <v>233978</v>
       </c>
-      <c r="KC25" s="37">
+      <c r="KC25" s="5">
         <v>227190</v>
       </c>
       <c r="KD25" s="11">
@@ -20810,10 +20865,12 @@
       <c r="KF25" s="37">
         <v>232869</v>
       </c>
-      <c r="KG25" s="33">
+      <c r="KG25" s="37">
         <v>235248</v>
       </c>
-      <c r="KH25"/>
+      <c r="KH25" s="33">
+        <v>233658</v>
+      </c>
       <c r="KI25"/>
     </row>
     <row r="26" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -21681,7 +21738,7 @@
       <c r="KB26" s="5">
         <v>657749</v>
       </c>
-      <c r="KC26" s="37">
+      <c r="KC26" s="5">
         <v>651620</v>
       </c>
       <c r="KD26" s="11">
@@ -21693,10 +21750,12 @@
       <c r="KF26" s="37">
         <v>652936</v>
       </c>
-      <c r="KG26" s="33">
+      <c r="KG26" s="37">
         <v>655531</v>
       </c>
-      <c r="KH26"/>
+      <c r="KH26" s="33">
+        <v>655095</v>
+      </c>
       <c r="KI26"/>
     </row>
     <row r="27" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -22564,7 +22623,7 @@
       <c r="KB27" s="5">
         <v>708309</v>
       </c>
-      <c r="KC27" s="37">
+      <c r="KC27" s="5">
         <v>695282</v>
       </c>
       <c r="KD27" s="11">
@@ -22576,10 +22635,12 @@
       <c r="KF27" s="37">
         <v>706948</v>
       </c>
-      <c r="KG27" s="33">
+      <c r="KG27" s="37">
         <v>709405</v>
       </c>
-      <c r="KH27"/>
+      <c r="KH27" s="33">
+        <v>710108</v>
+      </c>
       <c r="KI27"/>
     </row>
     <row r="28" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -23447,7 +23508,7 @@
       <c r="KB28" s="5">
         <v>520551</v>
       </c>
-      <c r="KC28" s="37">
+      <c r="KC28" s="5">
         <v>505885</v>
       </c>
       <c r="KD28" s="11">
@@ -23459,10 +23520,12 @@
       <c r="KF28" s="37">
         <v>520214</v>
       </c>
-      <c r="KG28" s="33">
+      <c r="KG28" s="37">
         <v>523883</v>
       </c>
-      <c r="KH28"/>
+      <c r="KH28" s="33">
+        <v>521898</v>
+      </c>
       <c r="KI28"/>
     </row>
     <row r="29" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -24330,7 +24393,7 @@
       <c r="KB29" s="5">
         <v>486209</v>
       </c>
-      <c r="KC29" s="37">
+      <c r="KC29" s="5">
         <v>478187</v>
       </c>
       <c r="KD29" s="11">
@@ -24342,10 +24405,12 @@
       <c r="KF29" s="37">
         <v>485982</v>
       </c>
-      <c r="KG29" s="33">
+      <c r="KG29" s="37">
         <v>486631</v>
       </c>
-      <c r="KH29"/>
+      <c r="KH29" s="33">
+        <v>485353</v>
+      </c>
       <c r="KI29"/>
     </row>
     <row r="30" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -25213,7 +25278,7 @@
       <c r="KB30" s="5">
         <v>609833</v>
       </c>
-      <c r="KC30" s="37">
+      <c r="KC30" s="5">
         <v>607613</v>
       </c>
       <c r="KD30" s="11">
@@ -25225,10 +25290,12 @@
       <c r="KF30" s="37">
         <v>617821</v>
       </c>
-      <c r="KG30" s="33">
+      <c r="KG30" s="37">
         <v>615269</v>
       </c>
-      <c r="KH30"/>
+      <c r="KH30" s="33">
+        <v>595608</v>
+      </c>
       <c r="KI30"/>
     </row>
     <row r="31" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -26096,7 +26163,7 @@
       <c r="KB31" s="5">
         <v>672246</v>
       </c>
-      <c r="KC31" s="37">
+      <c r="KC31" s="5">
         <v>620594</v>
       </c>
       <c r="KD31" s="11">
@@ -26108,10 +26175,12 @@
       <c r="KF31" s="37">
         <v>683183</v>
       </c>
-      <c r="KG31" s="33">
+      <c r="KG31" s="37">
         <v>669838</v>
       </c>
-      <c r="KH31"/>
+      <c r="KH31" s="33">
+        <v>666447</v>
+      </c>
       <c r="KI31"/>
     </row>
     <row r="32" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -26979,7 +27048,7 @@
       <c r="KB32" s="5">
         <v>244267</v>
       </c>
-      <c r="KC32" s="37">
+      <c r="KC32" s="5">
         <v>234754</v>
       </c>
       <c r="KD32" s="11">
@@ -26991,10 +27060,12 @@
       <c r="KF32" s="37">
         <v>222064</v>
       </c>
-      <c r="KG32" s="33">
+      <c r="KG32" s="37">
         <v>222016</v>
       </c>
-      <c r="KH32"/>
+      <c r="KH32" s="33">
+        <v>219242</v>
+      </c>
       <c r="KI32"/>
     </row>
     <row r="33" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -27862,7 +27933,7 @@
       <c r="KB33" s="5">
         <v>704522</v>
       </c>
-      <c r="KC33" s="37">
+      <c r="KC33" s="5">
         <v>705666</v>
       </c>
       <c r="KD33" s="11">
@@ -27874,10 +27945,12 @@
       <c r="KF33" s="37">
         <v>699645</v>
       </c>
-      <c r="KG33" s="33">
+      <c r="KG33" s="37">
         <v>701314</v>
       </c>
-      <c r="KH33"/>
+      <c r="KH33" s="33">
+        <v>699413</v>
+      </c>
       <c r="KI33"/>
     </row>
     <row r="34" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -28745,7 +28818,7 @@
       <c r="KB34" s="5">
         <v>116221</v>
       </c>
-      <c r="KC34" s="37">
+      <c r="KC34" s="5">
         <v>114380</v>
       </c>
       <c r="KD34" s="11">
@@ -28757,10 +28830,12 @@
       <c r="KF34" s="37">
         <v>116679</v>
       </c>
-      <c r="KG34" s="33">
+      <c r="KG34" s="37">
         <v>118229</v>
       </c>
-      <c r="KH34"/>
+      <c r="KH34" s="33">
+        <v>118131</v>
+      </c>
       <c r="KI34"/>
     </row>
     <row r="35" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -29628,7 +29703,7 @@
       <c r="KB35" s="5">
         <v>782590</v>
       </c>
-      <c r="KC35" s="37">
+      <c r="KC35" s="5">
         <v>770729</v>
       </c>
       <c r="KD35" s="11">
@@ -29640,10 +29715,12 @@
       <c r="KF35" s="37">
         <v>782311</v>
       </c>
-      <c r="KG35" s="33">
+      <c r="KG35" s="37">
         <v>785597</v>
       </c>
-      <c r="KH35"/>
+      <c r="KH35" s="33">
+        <v>780023</v>
+      </c>
       <c r="KI35"/>
     </row>
     <row r="36" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -30511,7 +30588,7 @@
       <c r="KB36" s="5">
         <v>440985</v>
       </c>
-      <c r="KC36" s="37">
+      <c r="KC36" s="5">
         <v>435940</v>
       </c>
       <c r="KD36" s="11">
@@ -30523,10 +30600,12 @@
       <c r="KF36" s="37">
         <v>436351</v>
       </c>
-      <c r="KG36" s="33">
+      <c r="KG36" s="37">
         <v>437516</v>
       </c>
-      <c r="KH36"/>
+      <c r="KH36" s="33">
+        <v>437588</v>
+      </c>
       <c r="KI36"/>
     </row>
     <row r="37" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -31394,7 +31473,7 @@
       <c r="KB37" s="5">
         <v>199152</v>
       </c>
-      <c r="KC37" s="37">
+      <c r="KC37" s="5">
         <v>197733</v>
       </c>
       <c r="KD37" s="11">
@@ -31406,10 +31485,12 @@
       <c r="KF37" s="37">
         <v>198212</v>
       </c>
-      <c r="KG37" s="33">
+      <c r="KG37" s="37">
         <v>198057</v>
       </c>
-      <c r="KH37"/>
+      <c r="KH37" s="33">
+        <v>196929</v>
+      </c>
       <c r="KI37"/>
     </row>
     <row r="38" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -32292,9 +32373,12 @@
         <f>SUM(KF6:KF37)</f>
         <v>22289345</v>
       </c>
-      <c r="KG38" s="34">
+      <c r="KG38" s="9">
         <f>SUM(KG6:KG37)</f>
         <v>22374202</v>
+      </c>
+      <c r="KH38" s="34">
+        <v>22348999</v>
       </c>
     </row>
     <row r="40" spans="1:295" x14ac:dyDescent="0.25">

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.garcia\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03807446-52CA-4ACC-937F-E156B8471FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F980052D-D566-4644-B8D8-64797347489F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -862,7 +862,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -931,11 +931,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="16" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,6 +942,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1297,8 +1295,8 @@
   <dimension ref="A1:KI40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KH4" sqref="KH4"/>
+      <pane xSplit="1" topLeftCell="JW1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1406,7 @@
       </c>
     </row>
     <row r="4" spans="1:295" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="14">
@@ -2287,12 +2285,15 @@
       <c r="KG4" s="25">
         <v>2024</v>
       </c>
-      <c r="KH4" s="39">
+      <c r="KH4" s="31">
+        <v>2024</v>
+      </c>
+      <c r="KI4" s="36">
         <v>2024</v>
       </c>
     </row>
     <row r="5" spans="1:295" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
@@ -3157,20 +3158,23 @@
       <c r="KC5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="KD5" s="40" t="s">
+      <c r="KD5" s="37" t="s">
         <v>29</v>
       </c>
       <c r="KE5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="KF5" s="41" t="s">
+      <c r="KF5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="KG5" s="41" t="s">
+      <c r="KG5" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="KH5" s="42" t="s">
+      <c r="KH5" s="38" t="s">
         <v>33</v>
+      </c>
+      <c r="KI5" s="39" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4044,19 +4048,21 @@
       <c r="KD6" s="11">
         <v>358188</v>
       </c>
-      <c r="KE6" s="37">
+      <c r="KE6" s="5">
         <v>360685</v>
       </c>
-      <c r="KF6" s="37">
+      <c r="KF6" s="5">
         <v>361350</v>
       </c>
-      <c r="KG6" s="37">
+      <c r="KG6" s="5">
         <v>362534</v>
       </c>
-      <c r="KH6" s="33">
+      <c r="KH6" s="5">
         <v>356824</v>
       </c>
-      <c r="KI6"/>
+      <c r="KI6" s="33">
+        <v>358213</v>
+      </c>
     </row>
     <row r="7" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -4929,19 +4935,21 @@
       <c r="KD7" s="11">
         <v>1035383</v>
       </c>
-      <c r="KE7" s="37">
+      <c r="KE7" s="5">
         <v>1047545</v>
       </c>
-      <c r="KF7" s="37">
+      <c r="KF7" s="5">
         <v>1050451</v>
       </c>
-      <c r="KG7" s="37">
+      <c r="KG7" s="5">
         <v>1048271</v>
       </c>
-      <c r="KH7" s="33">
+      <c r="KH7" s="5">
         <v>1043660</v>
       </c>
-      <c r="KI7"/>
+      <c r="KI7" s="33">
+        <v>1039707</v>
+      </c>
     </row>
     <row r="8" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -5814,19 +5822,21 @@
       <c r="KD8" s="11">
         <v>218124</v>
       </c>
-      <c r="KE8" s="37">
+      <c r="KE8" s="5">
         <v>220529</v>
       </c>
-      <c r="KF8" s="37">
+      <c r="KF8" s="5">
         <v>219663</v>
       </c>
-      <c r="KG8" s="37">
+      <c r="KG8" s="5">
         <v>222006</v>
       </c>
-      <c r="KH8" s="33">
+      <c r="KH8" s="5">
         <v>225112</v>
       </c>
-      <c r="KI8"/>
+      <c r="KI8" s="33">
+        <v>224271</v>
+      </c>
     </row>
     <row r="9" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -6699,19 +6709,21 @@
       <c r="KD9" s="11">
         <v>141865</v>
       </c>
-      <c r="KE9" s="37">
+      <c r="KE9" s="5">
         <v>143456</v>
       </c>
-      <c r="KF9" s="37">
+      <c r="KF9" s="5">
         <v>143638</v>
       </c>
-      <c r="KG9" s="37">
+      <c r="KG9" s="5">
         <v>141221</v>
       </c>
-      <c r="KH9" s="33">
+      <c r="KH9" s="5">
         <v>141141</v>
       </c>
-      <c r="KI9"/>
+      <c r="KI9" s="33">
+        <v>141368</v>
+      </c>
     </row>
     <row r="10" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -7584,19 +7596,21 @@
       <c r="KD10" s="11">
         <v>252749</v>
       </c>
-      <c r="KE10" s="37">
+      <c r="KE10" s="5">
         <v>256060</v>
       </c>
-      <c r="KF10" s="37">
+      <c r="KF10" s="5">
         <v>256846</v>
       </c>
-      <c r="KG10" s="37">
+      <c r="KG10" s="5">
         <v>258205</v>
       </c>
-      <c r="KH10" s="33">
+      <c r="KH10" s="5">
         <v>258123</v>
       </c>
-      <c r="KI10"/>
+      <c r="KI10" s="33">
+        <v>259336</v>
+      </c>
     </row>
     <row r="11" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -8469,19 +8483,21 @@
       <c r="KD11" s="11">
         <v>976755</v>
       </c>
-      <c r="KE11" s="37">
+      <c r="KE11" s="5">
         <v>980496</v>
       </c>
-      <c r="KF11" s="37">
+      <c r="KF11" s="5">
         <v>978195</v>
       </c>
-      <c r="KG11" s="37">
+      <c r="KG11" s="5">
         <v>981587</v>
       </c>
-      <c r="KH11" s="33">
+      <c r="KH11" s="5">
         <v>984272</v>
       </c>
-      <c r="KI11"/>
+      <c r="KI11" s="33">
+        <v>978933</v>
+      </c>
     </row>
     <row r="12" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -9354,19 +9370,21 @@
       <c r="KD12" s="11">
         <v>3450496</v>
       </c>
-      <c r="KE12" s="37">
+      <c r="KE12" s="5">
         <v>3466984</v>
       </c>
-      <c r="KF12" s="37">
+      <c r="KF12" s="5">
         <v>3467734</v>
       </c>
-      <c r="KG12" s="37">
+      <c r="KG12" s="5">
         <v>3490972</v>
       </c>
-      <c r="KH12" s="33">
+      <c r="KH12" s="5">
         <v>3508104</v>
       </c>
-      <c r="KI12"/>
+      <c r="KI12" s="33">
+        <v>3508935</v>
+      </c>
     </row>
     <row r="13" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -10239,19 +10257,21 @@
       <c r="KD13" s="11">
         <v>862873</v>
       </c>
-      <c r="KE13" s="37">
+      <c r="KE13" s="5">
         <v>871609</v>
       </c>
-      <c r="KF13" s="37">
+      <c r="KF13" s="5">
         <v>872670</v>
       </c>
-      <c r="KG13" s="37">
+      <c r="KG13" s="5">
         <v>879111</v>
       </c>
-      <c r="KH13" s="33">
+      <c r="KH13" s="5">
         <v>878555</v>
       </c>
-      <c r="KI13"/>
+      <c r="KI13" s="33">
+        <v>877827</v>
+      </c>
     </row>
     <row r="14" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -11124,19 +11144,21 @@
       <c r="KD14" s="11">
         <v>150756</v>
       </c>
-      <c r="KE14" s="37">
+      <c r="KE14" s="5">
         <v>151407</v>
       </c>
-      <c r="KF14" s="37">
+      <c r="KF14" s="5">
         <v>151704</v>
       </c>
-      <c r="KG14" s="37">
+      <c r="KG14" s="5">
         <v>152105</v>
       </c>
-      <c r="KH14" s="33">
+      <c r="KH14" s="5">
         <v>152107</v>
       </c>
-      <c r="KI14"/>
+      <c r="KI14" s="33">
+        <v>152333</v>
+      </c>
     </row>
     <row r="15" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -12009,19 +12031,21 @@
       <c r="KD15" s="11">
         <v>259169</v>
       </c>
-      <c r="KE15" s="37">
+      <c r="KE15" s="5">
         <v>260555</v>
       </c>
-      <c r="KF15" s="37">
+      <c r="KF15" s="5">
         <v>259834</v>
       </c>
-      <c r="KG15" s="37">
+      <c r="KG15" s="5">
         <v>261976</v>
       </c>
-      <c r="KH15" s="33">
+      <c r="KH15" s="5">
         <v>261246</v>
       </c>
-      <c r="KI15"/>
+      <c r="KI15" s="33">
+        <v>261652</v>
+      </c>
     </row>
     <row r="16" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -12894,19 +12918,21 @@
       <c r="KD16" s="11">
         <v>1810126</v>
       </c>
-      <c r="KE16" s="37">
+      <c r="KE16" s="5">
         <v>1824137</v>
       </c>
-      <c r="KF16" s="37">
+      <c r="KF16" s="5">
         <v>1827655</v>
       </c>
-      <c r="KG16" s="37">
+      <c r="KG16" s="5">
         <v>1844815</v>
       </c>
-      <c r="KH16" s="33">
+      <c r="KH16" s="5">
         <v>1848724</v>
       </c>
-      <c r="KI16"/>
+      <c r="KI16" s="33">
+        <v>1851501</v>
+      </c>
     </row>
     <row r="17" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -13779,19 +13805,21 @@
       <c r="KD17" s="11">
         <v>1097102</v>
       </c>
-      <c r="KE17" s="37">
+      <c r="KE17" s="5">
         <v>1103644</v>
       </c>
-      <c r="KF17" s="37">
+      <c r="KF17" s="5">
         <v>1104822</v>
       </c>
-      <c r="KG17" s="37">
+      <c r="KG17" s="5">
         <v>1112740</v>
       </c>
-      <c r="KH17" s="33">
+      <c r="KH17" s="5">
         <v>1115019</v>
       </c>
-      <c r="KI17"/>
+      <c r="KI17" s="33">
+        <v>1117600</v>
+      </c>
     </row>
     <row r="18" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -14664,19 +14692,21 @@
       <c r="KD18" s="11">
         <v>157302</v>
       </c>
-      <c r="KE18" s="37">
+      <c r="KE18" s="5">
         <v>160862</v>
       </c>
-      <c r="KF18" s="37">
+      <c r="KF18" s="5">
         <v>163685</v>
       </c>
-      <c r="KG18" s="37">
+      <c r="KG18" s="5">
         <v>163689</v>
       </c>
-      <c r="KH18" s="33">
+      <c r="KH18" s="5">
         <v>162349</v>
       </c>
-      <c r="KI18"/>
+      <c r="KI18" s="33">
+        <v>162454</v>
+      </c>
     </row>
     <row r="19" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -15549,19 +15579,21 @@
       <c r="KD19" s="11">
         <v>272998</v>
       </c>
-      <c r="KE19" s="37">
+      <c r="KE19" s="5">
         <v>279243</v>
       </c>
-      <c r="KF19" s="37">
+      <c r="KF19" s="5">
         <v>276494</v>
       </c>
-      <c r="KG19" s="37">
+      <c r="KG19" s="5">
         <v>277081</v>
       </c>
-      <c r="KH19" s="33">
+      <c r="KH19" s="5">
         <v>278561</v>
       </c>
-      <c r="KI19"/>
+      <c r="KI19" s="33">
+        <v>279019</v>
+      </c>
     </row>
     <row r="20" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
@@ -16434,19 +16466,21 @@
       <c r="KD20" s="22">
         <v>2009853</v>
       </c>
-      <c r="KE20" s="38">
+      <c r="KE20" s="23">
         <v>2017879</v>
       </c>
-      <c r="KF20" s="38">
+      <c r="KF20" s="23">
         <v>2017626</v>
       </c>
-      <c r="KG20" s="38">
+      <c r="KG20" s="23">
         <v>2023394</v>
       </c>
-      <c r="KH20" s="35">
+      <c r="KH20" s="23">
         <v>2023598</v>
       </c>
-      <c r="KI20"/>
+      <c r="KI20" s="35">
+        <v>2023308</v>
+      </c>
     </row>
     <row r="21" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -17319,19 +17353,21 @@
       <c r="KD21" s="11">
         <v>486194</v>
       </c>
-      <c r="KE21" s="37">
+      <c r="KE21" s="5">
         <v>488387</v>
       </c>
-      <c r="KF21" s="37">
+      <c r="KF21" s="5">
         <v>486323</v>
       </c>
-      <c r="KG21" s="37">
+      <c r="KG21" s="5">
         <v>486293</v>
       </c>
-      <c r="KH21" s="33">
+      <c r="KH21" s="5">
         <v>482985</v>
       </c>
-      <c r="KI21"/>
+      <c r="KI21" s="33">
+        <v>477941</v>
+      </c>
     </row>
     <row r="22" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -18204,19 +18240,21 @@
       <c r="KD22" s="11">
         <v>222583</v>
       </c>
-      <c r="KE22" s="37">
+      <c r="KE22" s="5">
         <v>223440</v>
       </c>
-      <c r="KF22" s="37">
+      <c r="KF22" s="5">
         <v>223345</v>
       </c>
-      <c r="KG22" s="37">
+      <c r="KG22" s="5">
         <v>223022</v>
       </c>
-      <c r="KH22" s="33">
+      <c r="KH22" s="5">
         <v>221491</v>
       </c>
-      <c r="KI22"/>
+      <c r="KI22" s="33">
+        <v>220345</v>
+      </c>
     </row>
     <row r="23" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -19089,19 +19127,21 @@
       <c r="KD23" s="11">
         <v>185919</v>
       </c>
-      <c r="KE23" s="37">
+      <c r="KE23" s="5">
         <v>188234</v>
       </c>
-      <c r="KF23" s="37">
+      <c r="KF23" s="5">
         <v>186881</v>
       </c>
-      <c r="KG23" s="37">
+      <c r="KG23" s="5">
         <v>187926</v>
       </c>
-      <c r="KH23" s="33">
+      <c r="KH23" s="5">
         <v>186238</v>
       </c>
-      <c r="KI23"/>
+      <c r="KI23" s="33">
+        <v>186330</v>
+      </c>
     </row>
     <row r="24" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -19974,19 +20014,21 @@
       <c r="KD24" s="11">
         <v>1867243</v>
       </c>
-      <c r="KE24" s="37">
+      <c r="KE24" s="5">
         <v>1884748</v>
       </c>
-      <c r="KF24" s="37">
+      <c r="KF24" s="5">
         <v>1885214</v>
       </c>
-      <c r="KG24" s="37">
+      <c r="KG24" s="5">
         <v>1898720</v>
       </c>
-      <c r="KH24" s="33">
+      <c r="KH24" s="5">
         <v>1901397</v>
       </c>
-      <c r="KI24"/>
+      <c r="KI24" s="33">
+        <v>1901018</v>
+      </c>
     </row>
     <row r="25" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -20859,19 +20901,21 @@
       <c r="KD25" s="11">
         <v>233373</v>
       </c>
-      <c r="KE25" s="37">
+      <c r="KE25" s="5">
         <v>233355</v>
       </c>
-      <c r="KF25" s="37">
+      <c r="KF25" s="5">
         <v>232869</v>
       </c>
-      <c r="KG25" s="37">
+      <c r="KG25" s="5">
         <v>235248</v>
       </c>
-      <c r="KH25" s="33">
+      <c r="KH25" s="5">
         <v>233658</v>
       </c>
-      <c r="KI25"/>
+      <c r="KI25" s="33">
+        <v>233841</v>
+      </c>
     </row>
     <row r="26" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -21744,19 +21788,21 @@
       <c r="KD26" s="11">
         <v>650785</v>
       </c>
-      <c r="KE26" s="37">
+      <c r="KE26" s="5">
         <v>653152</v>
       </c>
-      <c r="KF26" s="37">
+      <c r="KF26" s="5">
         <v>652936</v>
       </c>
-      <c r="KG26" s="37">
+      <c r="KG26" s="5">
         <v>655531</v>
       </c>
-      <c r="KH26" s="33">
+      <c r="KH26" s="5">
         <v>655095</v>
       </c>
-      <c r="KI26"/>
+      <c r="KI26" s="33">
+        <v>657187</v>
+      </c>
     </row>
     <row r="27" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
@@ -22629,19 +22675,21 @@
       <c r="KD27" s="11">
         <v>701979</v>
       </c>
-      <c r="KE27" s="37">
+      <c r="KE27" s="5">
         <v>708177</v>
       </c>
-      <c r="KF27" s="37">
+      <c r="KF27" s="5">
         <v>706948</v>
       </c>
-      <c r="KG27" s="37">
+      <c r="KG27" s="5">
         <v>709405</v>
       </c>
-      <c r="KH27" s="33">
+      <c r="KH27" s="5">
         <v>710108</v>
       </c>
-      <c r="KI27"/>
+      <c r="KI27" s="33">
+        <v>709147</v>
+      </c>
     </row>
     <row r="28" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -23514,19 +23562,21 @@
       <c r="KD28" s="11">
         <v>519739</v>
       </c>
-      <c r="KE28" s="37">
+      <c r="KE28" s="5">
         <v>524804</v>
       </c>
-      <c r="KF28" s="37">
+      <c r="KF28" s="5">
         <v>520214</v>
       </c>
-      <c r="KG28" s="37">
+      <c r="KG28" s="5">
         <v>523883</v>
       </c>
-      <c r="KH28" s="33">
+      <c r="KH28" s="5">
         <v>521898</v>
       </c>
-      <c r="KI28"/>
+      <c r="KI28" s="33">
+        <v>522308</v>
+      </c>
     </row>
     <row r="29" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -24399,19 +24449,21 @@
       <c r="KD29" s="11">
         <v>483782</v>
       </c>
-      <c r="KE29" s="37">
+      <c r="KE29" s="5">
         <v>486666</v>
       </c>
-      <c r="KF29" s="37">
+      <c r="KF29" s="5">
         <v>485982</v>
       </c>
-      <c r="KG29" s="37">
+      <c r="KG29" s="5">
         <v>486631</v>
       </c>
-      <c r="KH29" s="33">
+      <c r="KH29" s="5">
         <v>485353</v>
       </c>
-      <c r="KI29"/>
+      <c r="KI29" s="33">
+        <v>485658</v>
+      </c>
     </row>
     <row r="30" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -25284,19 +25336,21 @@
       <c r="KD30" s="11">
         <v>610959</v>
       </c>
-      <c r="KE30" s="37">
+      <c r="KE30" s="5">
         <v>626138</v>
       </c>
-      <c r="KF30" s="37">
+      <c r="KF30" s="5">
         <v>617821</v>
       </c>
-      <c r="KG30" s="37">
+      <c r="KG30" s="5">
         <v>615269</v>
       </c>
-      <c r="KH30" s="33">
+      <c r="KH30" s="5">
         <v>595608</v>
       </c>
-      <c r="KI30"/>
+      <c r="KI30" s="33">
+        <v>584851</v>
+      </c>
     </row>
     <row r="31" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -26169,19 +26223,21 @@
       <c r="KD31" s="11">
         <v>665301</v>
       </c>
-      <c r="KE31" s="37">
+      <c r="KE31" s="5">
         <v>670365</v>
       </c>
-      <c r="KF31" s="37">
+      <c r="KF31" s="5">
         <v>683183</v>
       </c>
-      <c r="KG31" s="37">
+      <c r="KG31" s="5">
         <v>669838</v>
       </c>
-      <c r="KH31" s="33">
+      <c r="KH31" s="5">
         <v>666447</v>
       </c>
-      <c r="KI31"/>
+      <c r="KI31" s="33">
+        <v>662114</v>
+      </c>
     </row>
     <row r="32" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -27054,19 +27110,21 @@
       <c r="KD32" s="11">
         <v>228419</v>
       </c>
-      <c r="KE32" s="37">
+      <c r="KE32" s="5">
         <v>225114</v>
       </c>
-      <c r="KF32" s="37">
+      <c r="KF32" s="5">
         <v>222064</v>
       </c>
-      <c r="KG32" s="37">
+      <c r="KG32" s="5">
         <v>222016</v>
       </c>
-      <c r="KH32" s="33">
+      <c r="KH32" s="5">
         <v>219242</v>
       </c>
-      <c r="KI32"/>
+      <c r="KI32" s="33">
+        <v>218329</v>
+      </c>
     </row>
     <row r="33" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -27939,19 +27997,21 @@
       <c r="KD33" s="11">
         <v>694620</v>
       </c>
-      <c r="KE33" s="37">
+      <c r="KE33" s="5">
         <v>697712</v>
       </c>
-      <c r="KF33" s="37">
+      <c r="KF33" s="5">
         <v>699645</v>
       </c>
-      <c r="KG33" s="37">
+      <c r="KG33" s="5">
         <v>701314</v>
       </c>
-      <c r="KH33" s="33">
+      <c r="KH33" s="5">
         <v>699413</v>
       </c>
-      <c r="KI33"/>
+      <c r="KI33" s="33">
+        <v>698539</v>
+      </c>
     </row>
     <row r="34" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -28824,19 +28884,21 @@
       <c r="KD34" s="11">
         <v>115524</v>
       </c>
-      <c r="KE34" s="37">
+      <c r="KE34" s="5">
         <v>115440</v>
       </c>
-      <c r="KF34" s="37">
+      <c r="KF34" s="5">
         <v>116679</v>
       </c>
-      <c r="KG34" s="37">
+      <c r="KG34" s="5">
         <v>118229</v>
       </c>
-      <c r="KH34" s="33">
+      <c r="KH34" s="5">
         <v>118131</v>
       </c>
-      <c r="KI34"/>
+      <c r="KI34" s="33">
+        <v>117876</v>
+      </c>
     </row>
     <row r="35" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -29709,19 +29771,21 @@
       <c r="KD35" s="11">
         <v>780585</v>
       </c>
-      <c r="KE35" s="37">
+      <c r="KE35" s="5">
         <v>784376</v>
       </c>
-      <c r="KF35" s="37">
+      <c r="KF35" s="5">
         <v>782311</v>
       </c>
-      <c r="KG35" s="37">
+      <c r="KG35" s="5">
         <v>785597</v>
       </c>
-      <c r="KH35" s="33">
+      <c r="KH35" s="5">
         <v>780023</v>
       </c>
-      <c r="KI35"/>
+      <c r="KI35" s="33">
+        <v>773014</v>
+      </c>
     </row>
     <row r="36" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
@@ -30594,19 +30658,21 @@
       <c r="KD36" s="11">
         <v>436592</v>
       </c>
-      <c r="KE36" s="37">
+      <c r="KE36" s="5">
         <v>437479</v>
       </c>
-      <c r="KF36" s="37">
+      <c r="KF36" s="5">
         <v>436351</v>
       </c>
-      <c r="KG36" s="37">
+      <c r="KG36" s="5">
         <v>437516</v>
       </c>
-      <c r="KH36" s="33">
+      <c r="KH36" s="5">
         <v>437588</v>
       </c>
-      <c r="KI36"/>
+      <c r="KI36" s="33">
+        <v>438451</v>
+      </c>
     </row>
     <row r="37" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -31479,19 +31545,21 @@
       <c r="KD37" s="11">
         <v>196071</v>
       </c>
-      <c r="KE37" s="37">
+      <c r="KE37" s="5">
         <v>197132</v>
       </c>
-      <c r="KF37" s="37">
+      <c r="KF37" s="5">
         <v>198212</v>
       </c>
-      <c r="KG37" s="37">
+      <c r="KG37" s="5">
         <v>198057</v>
       </c>
-      <c r="KH37" s="33">
+      <c r="KH37" s="5">
         <v>196929</v>
       </c>
-      <c r="KI37"/>
+      <c r="KI37" s="33">
+        <v>196038</v>
+      </c>
     </row>
     <row r="38" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
@@ -32377,8 +32445,11 @@
         <f>SUM(KG6:KG37)</f>
         <v>22374202</v>
       </c>
-      <c r="KH38" s="34">
+      <c r="KH38" s="9">
         <v>22348999</v>
+      </c>
+      <c r="KI38" s="34">
+        <v>22319444</v>
       </c>
     </row>
     <row r="40" spans="1:295" x14ac:dyDescent="0.25">

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.garcia\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F980052D-D566-4644-B8D8-64797347489F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DD11EC-B398-4C58-A95A-D26064A64E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1296,7 +1296,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="JW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="KJ4" sqref="KJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.garcia\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DD11EC-B398-4C58-A95A-D26064A64E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D7588D-92D5-4C0F-9586-C165E5BC5C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -569,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -805,17 +805,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -931,16 +920,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,11 +1281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KI40"/>
+  <dimension ref="A1:KJ40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="JW1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="KJ4" sqref="KJ4"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,17 +1384,17 @@
     <col min="292" max="292" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>28</v>
       </c>
@@ -2288,11 +2277,14 @@
       <c r="KH4" s="31">
         <v>2024</v>
       </c>
-      <c r="KI4" s="36">
+      <c r="KI4" s="31">
         <v>2024</v>
       </c>
+      <c r="KJ4" s="32">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
@@ -3158,26 +3150,29 @@
       <c r="KC5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="KD5" s="37" t="s">
+      <c r="KD5" s="36" t="s">
         <v>29</v>
       </c>
       <c r="KE5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="KF5" s="38" t="s">
+      <c r="KF5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="KG5" s="38" t="s">
+      <c r="KG5" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="KH5" s="38" t="s">
+      <c r="KH5" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="KI5" s="39" t="s">
+      <c r="KI5" s="38" t="s">
         <v>34</v>
       </c>
+      <c r="KJ5" s="39" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="6" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -4060,11 +4055,14 @@
       <c r="KH6" s="5">
         <v>356824</v>
       </c>
-      <c r="KI6" s="33">
+      <c r="KI6" s="5">
         <v>358213</v>
       </c>
+      <c r="KJ6" s="33">
+        <v>359241</v>
+      </c>
     </row>
-    <row r="7" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4947,11 +4945,14 @@
       <c r="KH7" s="5">
         <v>1043660</v>
       </c>
-      <c r="KI7" s="33">
+      <c r="KI7" s="5">
         <v>1039707</v>
       </c>
+      <c r="KJ7" s="33">
+        <v>1032738</v>
+      </c>
     </row>
-    <row r="8" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5834,11 +5835,14 @@
       <c r="KH8" s="5">
         <v>225112</v>
       </c>
-      <c r="KI8" s="33">
+      <c r="KI8" s="5">
         <v>224271</v>
       </c>
+      <c r="KJ8" s="33">
+        <v>221582</v>
+      </c>
     </row>
-    <row r="9" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6721,11 +6725,14 @@
       <c r="KH9" s="5">
         <v>141141</v>
       </c>
-      <c r="KI9" s="33">
+      <c r="KI9" s="5">
         <v>141368</v>
       </c>
+      <c r="KJ9" s="33">
+        <v>142410</v>
+      </c>
     </row>
-    <row r="10" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7608,11 +7615,14 @@
       <c r="KH10" s="5">
         <v>258123</v>
       </c>
-      <c r="KI10" s="33">
+      <c r="KI10" s="5">
         <v>259336</v>
       </c>
+      <c r="KJ10" s="33">
+        <v>261839</v>
+      </c>
     </row>
-    <row r="11" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8495,11 +8505,14 @@
       <c r="KH11" s="5">
         <v>984272</v>
       </c>
-      <c r="KI11" s="33">
+      <c r="KI11" s="5">
         <v>978933</v>
       </c>
+      <c r="KJ11" s="33">
+        <v>978037</v>
+      </c>
     </row>
-    <row r="12" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -9382,11 +9395,14 @@
       <c r="KH12" s="5">
         <v>3508104</v>
       </c>
-      <c r="KI12" s="33">
+      <c r="KI12" s="5">
         <v>3508935</v>
       </c>
+      <c r="KJ12" s="33">
+        <v>3518092</v>
+      </c>
     </row>
-    <row r="13" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -10269,11 +10285,14 @@
       <c r="KH13" s="5">
         <v>878555</v>
       </c>
-      <c r="KI13" s="33">
+      <c r="KI13" s="5">
         <v>877827</v>
       </c>
+      <c r="KJ13" s="33">
+        <v>873681</v>
+      </c>
     </row>
-    <row r="14" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -11156,11 +11175,14 @@
       <c r="KH14" s="5">
         <v>152107</v>
       </c>
-      <c r="KI14" s="33">
+      <c r="KI14" s="5">
         <v>152333</v>
       </c>
+      <c r="KJ14" s="33">
+        <v>152549</v>
+      </c>
     </row>
-    <row r="15" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -12043,11 +12065,14 @@
       <c r="KH15" s="5">
         <v>261246</v>
       </c>
-      <c r="KI15" s="33">
+      <c r="KI15" s="5">
         <v>261652</v>
       </c>
+      <c r="KJ15" s="33">
+        <v>259013</v>
+      </c>
     </row>
-    <row r="16" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12930,11 +12955,14 @@
       <c r="KH16" s="5">
         <v>1848724</v>
       </c>
-      <c r="KI16" s="33">
+      <c r="KI16" s="5">
         <v>1851501</v>
       </c>
+      <c r="KJ16" s="33">
+        <v>1853753</v>
+      </c>
     </row>
-    <row r="17" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13817,11 +13845,14 @@
       <c r="KH17" s="5">
         <v>1115019</v>
       </c>
-      <c r="KI17" s="33">
+      <c r="KI17" s="5">
         <v>1117600</v>
       </c>
+      <c r="KJ17" s="33">
+        <v>1120292</v>
+      </c>
     </row>
-    <row r="18" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14704,11 +14735,14 @@
       <c r="KH18" s="5">
         <v>162349</v>
       </c>
-      <c r="KI18" s="33">
+      <c r="KI18" s="5">
         <v>162454</v>
       </c>
+      <c r="KJ18" s="33">
+        <v>164483</v>
+      </c>
     </row>
-    <row r="19" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15591,11 +15625,14 @@
       <c r="KH19" s="5">
         <v>278561</v>
       </c>
-      <c r="KI19" s="33">
+      <c r="KI19" s="5">
         <v>279019</v>
       </c>
+      <c r="KJ19" s="33">
+        <v>278383</v>
+      </c>
     </row>
-    <row r="20" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -16478,11 +16515,14 @@
       <c r="KH20" s="23">
         <v>2023598</v>
       </c>
-      <c r="KI20" s="35">
+      <c r="KI20" s="23">
         <v>2023308</v>
       </c>
+      <c r="KJ20" s="35">
+        <v>2023478</v>
+      </c>
     </row>
-    <row r="21" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -17365,11 +17405,14 @@
       <c r="KH21" s="5">
         <v>482985</v>
       </c>
-      <c r="KI21" s="33">
+      <c r="KI21" s="5">
         <v>477941</v>
       </c>
+      <c r="KJ21" s="33">
+        <v>477044</v>
+      </c>
     </row>
-    <row r="22" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -18252,11 +18295,14 @@
       <c r="KH22" s="5">
         <v>221491</v>
       </c>
-      <c r="KI22" s="33">
+      <c r="KI22" s="5">
         <v>220345</v>
       </c>
+      <c r="KJ22" s="33">
+        <v>219470</v>
+      </c>
     </row>
-    <row r="23" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -19139,11 +19185,14 @@
       <c r="KH23" s="5">
         <v>186238</v>
       </c>
-      <c r="KI23" s="33">
+      <c r="KI23" s="5">
         <v>186330</v>
       </c>
+      <c r="KJ23" s="33">
+        <v>188072</v>
+      </c>
     </row>
-    <row r="24" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -20026,11 +20075,14 @@
       <c r="KH24" s="5">
         <v>1901397</v>
       </c>
-      <c r="KI24" s="33">
+      <c r="KI24" s="5">
         <v>1901018</v>
       </c>
+      <c r="KJ24" s="33">
+        <v>1916963</v>
+      </c>
     </row>
-    <row r="25" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20913,11 +20965,14 @@
       <c r="KH25" s="5">
         <v>233658</v>
       </c>
-      <c r="KI25" s="33">
+      <c r="KI25" s="5">
         <v>233841</v>
       </c>
+      <c r="KJ25" s="33">
+        <v>234231</v>
+      </c>
     </row>
-    <row r="26" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21800,11 +21855,14 @@
       <c r="KH26" s="5">
         <v>655095</v>
       </c>
-      <c r="KI26" s="33">
+      <c r="KI26" s="5">
         <v>657187</v>
       </c>
+      <c r="KJ26" s="33">
+        <v>660865</v>
+      </c>
     </row>
-    <row r="27" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -22687,11 +22745,14 @@
       <c r="KH27" s="5">
         <v>710108</v>
       </c>
-      <c r="KI27" s="33">
+      <c r="KI27" s="5">
         <v>709147</v>
       </c>
+      <c r="KJ27" s="33">
+        <v>712623</v>
+      </c>
     </row>
-    <row r="28" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -23574,11 +23635,14 @@
       <c r="KH28" s="5">
         <v>521898</v>
       </c>
-      <c r="KI28" s="33">
+      <c r="KI28" s="5">
         <v>522308</v>
       </c>
+      <c r="KJ28" s="33">
+        <v>521486</v>
+      </c>
     </row>
-    <row r="29" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -24461,11 +24525,14 @@
       <c r="KH29" s="5">
         <v>485353</v>
       </c>
-      <c r="KI29" s="33">
+      <c r="KI29" s="5">
         <v>485658</v>
       </c>
+      <c r="KJ29" s="33">
+        <v>488114</v>
+      </c>
     </row>
-    <row r="30" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -25348,11 +25415,14 @@
       <c r="KH30" s="5">
         <v>595608</v>
       </c>
-      <c r="KI30" s="33">
+      <c r="KI30" s="5">
         <v>584851</v>
       </c>
+      <c r="KJ30" s="33">
+        <v>582684</v>
+      </c>
     </row>
-    <row r="31" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -26235,11 +26305,14 @@
       <c r="KH31" s="5">
         <v>666447</v>
       </c>
-      <c r="KI31" s="33">
+      <c r="KI31" s="5">
         <v>662114</v>
       </c>
+      <c r="KJ31" s="33">
+        <v>654013</v>
+      </c>
     </row>
-    <row r="32" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -27122,11 +27195,14 @@
       <c r="KH32" s="5">
         <v>219242</v>
       </c>
-      <c r="KI32" s="33">
+      <c r="KI32" s="5">
         <v>218329</v>
       </c>
+      <c r="KJ32" s="33">
+        <v>219061</v>
+      </c>
     </row>
-    <row r="33" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -28009,11 +28085,14 @@
       <c r="KH33" s="5">
         <v>699413</v>
       </c>
-      <c r="KI33" s="33">
+      <c r="KI33" s="5">
         <v>698539</v>
       </c>
+      <c r="KJ33" s="33">
+        <v>701335</v>
+      </c>
     </row>
-    <row r="34" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -28896,11 +28975,14 @@
       <c r="KH34" s="5">
         <v>118131</v>
       </c>
-      <c r="KI34" s="33">
+      <c r="KI34" s="5">
         <v>117876</v>
       </c>
+      <c r="KJ34" s="33">
+        <v>117593</v>
+      </c>
     </row>
-    <row r="35" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -29783,11 +29865,14 @@
       <c r="KH35" s="5">
         <v>780023</v>
       </c>
-      <c r="KI35" s="33">
+      <c r="KI35" s="5">
         <v>773014</v>
       </c>
+      <c r="KJ35" s="33">
+        <v>770499</v>
+      </c>
     </row>
-    <row r="36" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -30670,11 +30755,14 @@
       <c r="KH36" s="5">
         <v>437588</v>
       </c>
-      <c r="KI36" s="33">
+      <c r="KI36" s="5">
         <v>438451</v>
       </c>
+      <c r="KJ36" s="33">
+        <v>433576</v>
+      </c>
     </row>
-    <row r="37" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -31557,11 +31645,14 @@
       <c r="KH37" s="5">
         <v>196929</v>
       </c>
-      <c r="KI37" s="33">
+      <c r="KI37" s="5">
         <v>196038</v>
       </c>
+      <c r="KJ37" s="33">
+        <v>194588</v>
+      </c>
     </row>
-    <row r="38" spans="1:295" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -32448,11 +32539,14 @@
       <c r="KH38" s="9">
         <v>22348999</v>
       </c>
-      <c r="KI38" s="34">
+      <c r="KI38" s="9">
         <v>22319444</v>
       </c>
+      <c r="KJ38" s="34">
+        <v>22331788</v>
+      </c>
     </row>
-    <row r="40" spans="1:295" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:296" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.garcia\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D7588D-92D5-4C0F-9586-C165E5BC5C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78E612E-0E4A-4626-9A53-7FF3EA91E213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1281,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KJ40"/>
+  <dimension ref="A1:KK40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="JW1" activePane="topRight" state="frozen"/>
@@ -1384,17 +1384,17 @@
     <col min="292" max="292" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>28</v>
       </c>
@@ -2280,11 +2280,14 @@
       <c r="KI4" s="31">
         <v>2024</v>
       </c>
-      <c r="KJ4" s="32">
+      <c r="KJ4" s="31">
         <v>2024</v>
       </c>
+      <c r="KK4" s="32">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
@@ -3168,11 +3171,14 @@
       <c r="KI5" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="KJ5" s="39" t="s">
+      <c r="KJ5" s="38" t="s">
         <v>35</v>
       </c>
+      <c r="KK5" s="39" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -4058,11 +4064,14 @@
       <c r="KI6" s="5">
         <v>358213</v>
       </c>
-      <c r="KJ6" s="33">
+      <c r="KJ6" s="5">
         <v>359241</v>
       </c>
+      <c r="KK6" s="33">
+        <v>357919</v>
+      </c>
     </row>
-    <row r="7" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4948,11 +4957,14 @@
       <c r="KI7" s="5">
         <v>1039707</v>
       </c>
-      <c r="KJ7" s="33">
+      <c r="KJ7" s="5">
         <v>1032738</v>
       </c>
+      <c r="KK7" s="33">
+        <v>1035508</v>
+      </c>
     </row>
-    <row r="8" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5838,11 +5850,14 @@
       <c r="KI8" s="5">
         <v>224271</v>
       </c>
-      <c r="KJ8" s="33">
+      <c r="KJ8" s="5">
         <v>221582</v>
       </c>
+      <c r="KK8" s="33">
+        <v>221135</v>
+      </c>
     </row>
-    <row r="9" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6728,11 +6743,14 @@
       <c r="KI9" s="5">
         <v>141368</v>
       </c>
-      <c r="KJ9" s="33">
+      <c r="KJ9" s="5">
         <v>142410</v>
       </c>
+      <c r="KK9" s="33">
+        <v>142455</v>
+      </c>
     </row>
-    <row r="10" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7618,11 +7636,14 @@
       <c r="KI10" s="5">
         <v>259336</v>
       </c>
-      <c r="KJ10" s="33">
+      <c r="KJ10" s="5">
         <v>261839</v>
       </c>
+      <c r="KK10" s="33">
+        <v>263221</v>
+      </c>
     </row>
-    <row r="11" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8508,11 +8529,14 @@
       <c r="KI11" s="5">
         <v>978933</v>
       </c>
-      <c r="KJ11" s="33">
+      <c r="KJ11" s="5">
         <v>978037</v>
       </c>
+      <c r="KK11" s="33">
+        <v>978501</v>
+      </c>
     </row>
-    <row r="12" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -9398,11 +9422,14 @@
       <c r="KI12" s="5">
         <v>3508935</v>
       </c>
-      <c r="KJ12" s="33">
+      <c r="KJ12" s="5">
         <v>3518092</v>
       </c>
+      <c r="KK12" s="33">
+        <v>3531256</v>
+      </c>
     </row>
-    <row r="13" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -10288,11 +10315,14 @@
       <c r="KI13" s="5">
         <v>877827</v>
       </c>
-      <c r="KJ13" s="33">
+      <c r="KJ13" s="5">
         <v>873681</v>
       </c>
+      <c r="KK13" s="33">
+        <v>873147</v>
+      </c>
     </row>
-    <row r="14" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -11178,11 +11208,14 @@
       <c r="KI14" s="5">
         <v>152333</v>
       </c>
-      <c r="KJ14" s="33">
+      <c r="KJ14" s="5">
         <v>152549</v>
       </c>
+      <c r="KK14" s="33">
+        <v>152836</v>
+      </c>
     </row>
-    <row r="15" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -12068,11 +12101,14 @@
       <c r="KI15" s="5">
         <v>261652</v>
       </c>
-      <c r="KJ15" s="33">
+      <c r="KJ15" s="5">
         <v>259013</v>
       </c>
+      <c r="KK15" s="33">
+        <v>258262</v>
+      </c>
     </row>
-    <row r="16" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12958,11 +12994,14 @@
       <c r="KI16" s="5">
         <v>1851501</v>
       </c>
-      <c r="KJ16" s="33">
+      <c r="KJ16" s="5">
         <v>1853753</v>
       </c>
+      <c r="KK16" s="33">
+        <v>1869039</v>
+      </c>
     </row>
-    <row r="17" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13848,11 +13887,14 @@
       <c r="KI17" s="5">
         <v>1117600</v>
       </c>
-      <c r="KJ17" s="33">
+      <c r="KJ17" s="5">
         <v>1120292</v>
       </c>
+      <c r="KK17" s="33">
+        <v>1121380</v>
+      </c>
     </row>
-    <row r="18" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14738,11 +14780,14 @@
       <c r="KI18" s="5">
         <v>162454</v>
       </c>
-      <c r="KJ18" s="33">
+      <c r="KJ18" s="5">
         <v>164483</v>
       </c>
+      <c r="KK18" s="33">
+        <v>163956</v>
+      </c>
     </row>
-    <row r="19" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15628,11 +15673,14 @@
       <c r="KI19" s="5">
         <v>279019</v>
       </c>
-      <c r="KJ19" s="33">
+      <c r="KJ19" s="5">
         <v>278383</v>
       </c>
+      <c r="KK19" s="33">
+        <v>283925</v>
+      </c>
     </row>
-    <row r="20" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -16518,11 +16566,14 @@
       <c r="KI20" s="23">
         <v>2023308</v>
       </c>
-      <c r="KJ20" s="35">
+      <c r="KJ20" s="23">
         <v>2023478</v>
       </c>
+      <c r="KK20" s="35">
+        <v>2021895</v>
+      </c>
     </row>
-    <row r="21" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -17408,11 +17459,14 @@
       <c r="KI21" s="5">
         <v>477941</v>
       </c>
-      <c r="KJ21" s="33">
+      <c r="KJ21" s="5">
         <v>477044</v>
       </c>
+      <c r="KK21" s="33">
+        <v>478627</v>
+      </c>
     </row>
-    <row r="22" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -18298,11 +18352,14 @@
       <c r="KI22" s="5">
         <v>220345</v>
       </c>
-      <c r="KJ22" s="33">
+      <c r="KJ22" s="5">
         <v>219470</v>
       </c>
+      <c r="KK22" s="33">
+        <v>219892</v>
+      </c>
     </row>
-    <row r="23" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -19188,11 +19245,14 @@
       <c r="KI23" s="5">
         <v>186330</v>
       </c>
-      <c r="KJ23" s="33">
+      <c r="KJ23" s="5">
         <v>188072</v>
       </c>
+      <c r="KK23" s="33">
+        <v>185756</v>
+      </c>
     </row>
-    <row r="24" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -20078,11 +20138,14 @@
       <c r="KI24" s="5">
         <v>1901018</v>
       </c>
-      <c r="KJ24" s="33">
+      <c r="KJ24" s="5">
         <v>1916963</v>
       </c>
+      <c r="KK24" s="33">
+        <v>1924195</v>
+      </c>
     </row>
-    <row r="25" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -20968,11 +21031,14 @@
       <c r="KI25" s="5">
         <v>233841</v>
       </c>
-      <c r="KJ25" s="33">
+      <c r="KJ25" s="5">
         <v>234231</v>
       </c>
+      <c r="KK25" s="33">
+        <v>235618</v>
+      </c>
     </row>
-    <row r="26" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21858,11 +21924,14 @@
       <c r="KI26" s="5">
         <v>657187</v>
       </c>
-      <c r="KJ26" s="33">
+      <c r="KJ26" s="5">
         <v>660865</v>
       </c>
+      <c r="KK26" s="33">
+        <v>662454</v>
+      </c>
     </row>
-    <row r="27" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -22748,11 +22817,14 @@
       <c r="KI27" s="5">
         <v>709147</v>
       </c>
-      <c r="KJ27" s="33">
+      <c r="KJ27" s="5">
         <v>712623</v>
       </c>
+      <c r="KK27" s="33">
+        <v>715563</v>
+      </c>
     </row>
-    <row r="28" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -23638,11 +23710,14 @@
       <c r="KI28" s="5">
         <v>522308</v>
       </c>
-      <c r="KJ28" s="33">
+      <c r="KJ28" s="5">
         <v>521486</v>
       </c>
+      <c r="KK28" s="33">
+        <v>523711</v>
+      </c>
     </row>
-    <row r="29" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -24528,11 +24603,14 @@
       <c r="KI29" s="5">
         <v>485658</v>
       </c>
-      <c r="KJ29" s="33">
+      <c r="KJ29" s="5">
         <v>488114</v>
       </c>
+      <c r="KK29" s="33">
+        <v>487402</v>
+      </c>
     </row>
-    <row r="30" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -25418,11 +25496,14 @@
       <c r="KI30" s="5">
         <v>584851</v>
       </c>
-      <c r="KJ30" s="33">
+      <c r="KJ30" s="5">
         <v>582684</v>
       </c>
+      <c r="KK30" s="33">
+        <v>585679</v>
+      </c>
     </row>
-    <row r="31" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -26308,11 +26389,14 @@
       <c r="KI31" s="5">
         <v>662114</v>
       </c>
-      <c r="KJ31" s="33">
+      <c r="KJ31" s="5">
         <v>654013</v>
       </c>
+      <c r="KK31" s="33">
+        <v>655133</v>
+      </c>
     </row>
-    <row r="32" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -27198,11 +27282,14 @@
       <c r="KI32" s="5">
         <v>218329</v>
       </c>
-      <c r="KJ32" s="33">
+      <c r="KJ32" s="5">
         <v>219061</v>
       </c>
+      <c r="KK32" s="33">
+        <v>216301</v>
+      </c>
     </row>
-    <row r="33" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -28088,11 +28175,14 @@
       <c r="KI33" s="5">
         <v>698539</v>
       </c>
-      <c r="KJ33" s="33">
+      <c r="KJ33" s="5">
         <v>701335</v>
       </c>
+      <c r="KK33" s="33">
+        <v>701925</v>
+      </c>
     </row>
-    <row r="34" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -28978,11 +29068,14 @@
       <c r="KI34" s="5">
         <v>117876</v>
       </c>
-      <c r="KJ34" s="33">
+      <c r="KJ34" s="5">
         <v>117593</v>
       </c>
+      <c r="KK34" s="33">
+        <v>117280</v>
+      </c>
     </row>
-    <row r="35" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -29868,11 +29961,14 @@
       <c r="KI35" s="5">
         <v>773014</v>
       </c>
-      <c r="KJ35" s="33">
+      <c r="KJ35" s="5">
         <v>770499</v>
       </c>
+      <c r="KK35" s="33">
+        <v>773334</v>
+      </c>
     </row>
-    <row r="36" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -30758,11 +30854,14 @@
       <c r="KI36" s="5">
         <v>438451</v>
       </c>
-      <c r="KJ36" s="33">
+      <c r="KJ36" s="5">
         <v>433576</v>
       </c>
+      <c r="KK36" s="33">
+        <v>437587</v>
+      </c>
     </row>
-    <row r="37" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -31648,11 +31747,14 @@
       <c r="KI37" s="5">
         <v>196038</v>
       </c>
-      <c r="KJ37" s="33">
+      <c r="KJ37" s="5">
         <v>194588</v>
       </c>
+      <c r="KK37" s="33">
+        <v>194943</v>
+      </c>
     </row>
-    <row r="38" spans="1:296" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -32542,11 +32644,14 @@
       <c r="KI38" s="9">
         <v>22319444</v>
       </c>
-      <c r="KJ38" s="34">
+      <c r="KJ38" s="9">
         <v>22331788</v>
       </c>
+      <c r="KK38" s="34">
+        <v>22389835</v>
+      </c>
     </row>
-    <row r="40" spans="1:296" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:297" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.garcia\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78E612E-0E4A-4626-9A53-7FF3EA91E213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F39D49-EC4D-4412-9200-6BB6AFF90F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -1281,10 +1281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KK40"/>
+  <dimension ref="A1:KL40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="JW1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="JY1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -1384,17 +1384,17 @@
     <col min="292" max="292" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>28</v>
       </c>
@@ -2283,11 +2283,14 @@
       <c r="KJ4" s="31">
         <v>2024</v>
       </c>
-      <c r="KK4" s="32">
+      <c r="KK4" s="31">
         <v>2024</v>
       </c>
+      <c r="KL4" s="32">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
@@ -3174,11 +3177,14 @@
       <c r="KJ5" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="KK5" s="39" t="s">
+      <c r="KK5" s="38" t="s">
         <v>36</v>
       </c>
+      <c r="KL5" s="39" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -4067,11 +4073,14 @@
       <c r="KJ6" s="5">
         <v>359241</v>
       </c>
-      <c r="KK6" s="33">
+      <c r="KK6" s="5">
         <v>357919</v>
       </c>
+      <c r="KL6" s="33">
+        <v>360674</v>
+      </c>
     </row>
-    <row r="7" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4960,11 +4969,14 @@
       <c r="KJ7" s="5">
         <v>1032738</v>
       </c>
-      <c r="KK7" s="33">
+      <c r="KK7" s="5">
         <v>1035508</v>
       </c>
+      <c r="KL7" s="33">
+        <v>1041897</v>
+      </c>
     </row>
-    <row r="8" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5853,11 +5865,14 @@
       <c r="KJ8" s="5">
         <v>221582</v>
       </c>
-      <c r="KK8" s="33">
+      <c r="KK8" s="5">
         <v>221135</v>
       </c>
+      <c r="KL8" s="33">
+        <v>223662</v>
+      </c>
     </row>
-    <row r="9" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6746,11 +6761,14 @@
       <c r="KJ9" s="5">
         <v>142410</v>
       </c>
-      <c r="KK9" s="33">
+      <c r="KK9" s="5">
         <v>142455</v>
       </c>
+      <c r="KL9" s="33">
+        <v>142760</v>
+      </c>
     </row>
-    <row r="10" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7639,11 +7657,14 @@
       <c r="KJ10" s="5">
         <v>261839</v>
       </c>
-      <c r="KK10" s="33">
+      <c r="KK10" s="5">
         <v>263221</v>
       </c>
+      <c r="KL10" s="33">
+        <v>266609</v>
+      </c>
     </row>
-    <row r="11" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8532,11 +8553,14 @@
       <c r="KJ11" s="5">
         <v>978037</v>
       </c>
-      <c r="KK11" s="33">
+      <c r="KK11" s="5">
         <v>978501</v>
       </c>
+      <c r="KL11" s="33">
+        <v>977476</v>
+      </c>
     </row>
-    <row r="12" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -9425,11 +9449,14 @@
       <c r="KJ12" s="5">
         <v>3518092</v>
       </c>
-      <c r="KK12" s="33">
+      <c r="KK12" s="5">
         <v>3531256</v>
       </c>
+      <c r="KL12" s="33">
+        <v>3529845</v>
+      </c>
     </row>
-    <row r="13" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -10318,11 +10345,14 @@
       <c r="KJ13" s="5">
         <v>873681</v>
       </c>
-      <c r="KK13" s="33">
+      <c r="KK13" s="5">
         <v>873147</v>
       </c>
+      <c r="KL13" s="33">
+        <v>876248</v>
+      </c>
     </row>
-    <row r="14" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -11211,11 +11241,14 @@
       <c r="KJ14" s="5">
         <v>152549</v>
       </c>
-      <c r="KK14" s="33">
+      <c r="KK14" s="5">
         <v>152836</v>
       </c>
+      <c r="KL14" s="33">
+        <v>152996</v>
+      </c>
     </row>
-    <row r="15" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -12104,11 +12137,14 @@
       <c r="KJ15" s="5">
         <v>259013</v>
       </c>
-      <c r="KK15" s="33">
+      <c r="KK15" s="5">
         <v>258262</v>
       </c>
+      <c r="KL15" s="33">
+        <v>259061</v>
+      </c>
     </row>
-    <row r="16" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -12997,11 +13033,14 @@
       <c r="KJ16" s="5">
         <v>1853753</v>
       </c>
-      <c r="KK16" s="33">
+      <c r="KK16" s="5">
         <v>1869039</v>
       </c>
+      <c r="KL16" s="33">
+        <v>1888802</v>
+      </c>
     </row>
-    <row r="17" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13890,11 +13929,14 @@
       <c r="KJ17" s="5">
         <v>1120292</v>
       </c>
-      <c r="KK17" s="33">
+      <c r="KK17" s="5">
         <v>1121380</v>
       </c>
+      <c r="KL17" s="33">
+        <v>1123778</v>
+      </c>
     </row>
-    <row r="18" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14783,11 +14825,14 @@
       <c r="KJ18" s="5">
         <v>164483</v>
       </c>
-      <c r="KK18" s="33">
+      <c r="KK18" s="5">
         <v>163956</v>
       </c>
+      <c r="KL18" s="33">
+        <v>163119</v>
+      </c>
     </row>
-    <row r="19" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15676,11 +15721,14 @@
       <c r="KJ19" s="5">
         <v>278383</v>
       </c>
-      <c r="KK19" s="33">
+      <c r="KK19" s="5">
         <v>283925</v>
       </c>
+      <c r="KL19" s="33">
+        <v>283915</v>
+      </c>
     </row>
-    <row r="20" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -16569,11 +16617,14 @@
       <c r="KJ20" s="23">
         <v>2023478</v>
       </c>
-      <c r="KK20" s="35">
+      <c r="KK20" s="23">
         <v>2021895</v>
       </c>
+      <c r="KL20" s="35">
+        <v>2034793</v>
+      </c>
     </row>
-    <row r="21" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -17462,11 +17513,14 @@
       <c r="KJ21" s="5">
         <v>477044</v>
       </c>
-      <c r="KK21" s="33">
+      <c r="KK21" s="5">
         <v>478627</v>
       </c>
+      <c r="KL21" s="33">
+        <v>480848</v>
+      </c>
     </row>
-    <row r="22" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -18355,11 +18409,14 @@
       <c r="KJ22" s="5">
         <v>219470</v>
       </c>
-      <c r="KK22" s="33">
+      <c r="KK22" s="5">
         <v>219892</v>
       </c>
+      <c r="KL22" s="33">
+        <v>220418</v>
+      </c>
     </row>
-    <row r="23" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -19248,11 +19305,14 @@
       <c r="KJ23" s="5">
         <v>188072</v>
       </c>
-      <c r="KK23" s="33">
+      <c r="KK23" s="5">
         <v>185756</v>
       </c>
+      <c r="KL23" s="33">
+        <v>184812</v>
+      </c>
     </row>
-    <row r="24" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -20141,11 +20201,14 @@
       <c r="KJ24" s="5">
         <v>1916963</v>
       </c>
-      <c r="KK24" s="33">
+      <c r="KK24" s="5">
         <v>1924195</v>
       </c>
+      <c r="KL24" s="33">
+        <v>1934291</v>
+      </c>
     </row>
-    <row r="25" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -21034,11 +21097,14 @@
       <c r="KJ25" s="5">
         <v>234231</v>
       </c>
-      <c r="KK25" s="33">
+      <c r="KK25" s="5">
         <v>235618</v>
       </c>
+      <c r="KL25" s="33">
+        <v>236238</v>
+      </c>
     </row>
-    <row r="26" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21927,11 +21993,14 @@
       <c r="KJ26" s="5">
         <v>660865</v>
       </c>
-      <c r="KK26" s="33">
+      <c r="KK26" s="5">
         <v>662454</v>
       </c>
+      <c r="KL26" s="33">
+        <v>664662</v>
+      </c>
     </row>
-    <row r="27" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -22820,11 +22889,14 @@
       <c r="KJ27" s="5">
         <v>712623</v>
       </c>
-      <c r="KK27" s="33">
+      <c r="KK27" s="5">
         <v>715563</v>
       </c>
+      <c r="KL27" s="33">
+        <v>718608</v>
+      </c>
     </row>
-    <row r="28" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -23713,11 +23785,14 @@
       <c r="KJ28" s="5">
         <v>521486</v>
       </c>
-      <c r="KK28" s="33">
+      <c r="KK28" s="5">
         <v>523711</v>
       </c>
+      <c r="KL28" s="33">
+        <v>525514</v>
+      </c>
     </row>
-    <row r="29" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -24606,11 +24681,14 @@
       <c r="KJ29" s="5">
         <v>488114</v>
       </c>
-      <c r="KK29" s="33">
+      <c r="KK29" s="5">
         <v>487402</v>
       </c>
+      <c r="KL29" s="33">
+        <v>488231</v>
+      </c>
     </row>
-    <row r="30" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -25499,11 +25577,14 @@
       <c r="KJ30" s="5">
         <v>582684</v>
       </c>
-      <c r="KK30" s="33">
+      <c r="KK30" s="5">
         <v>585679</v>
       </c>
+      <c r="KL30" s="33">
+        <v>591538</v>
+      </c>
     </row>
-    <row r="31" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -26392,11 +26473,14 @@
       <c r="KJ31" s="5">
         <v>654013</v>
       </c>
-      <c r="KK31" s="33">
+      <c r="KK31" s="5">
         <v>655133</v>
       </c>
+      <c r="KL31" s="33">
+        <v>662607</v>
+      </c>
     </row>
-    <row r="32" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -27285,11 +27369,14 @@
       <c r="KJ32" s="5">
         <v>219061</v>
       </c>
-      <c r="KK32" s="33">
+      <c r="KK32" s="5">
         <v>216301</v>
       </c>
+      <c r="KL32" s="33">
+        <v>216298</v>
+      </c>
     </row>
-    <row r="33" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -28178,11 +28265,14 @@
       <c r="KJ33" s="5">
         <v>701335</v>
       </c>
-      <c r="KK33" s="33">
+      <c r="KK33" s="5">
         <v>701925</v>
       </c>
+      <c r="KL33" s="33">
+        <v>700805</v>
+      </c>
     </row>
-    <row r="34" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -29071,11 +29161,14 @@
       <c r="KJ34" s="5">
         <v>117593</v>
       </c>
-      <c r="KK34" s="33">
+      <c r="KK34" s="5">
         <v>117280</v>
       </c>
+      <c r="KL34" s="33">
+        <v>117321</v>
+      </c>
     </row>
-    <row r="35" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -29964,11 +30057,14 @@
       <c r="KJ35" s="5">
         <v>770499</v>
       </c>
-      <c r="KK35" s="33">
+      <c r="KK35" s="5">
         <v>773334</v>
       </c>
+      <c r="KL35" s="33">
+        <v>778294</v>
+      </c>
     </row>
-    <row r="36" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -30857,11 +30953,14 @@
       <c r="KJ36" s="5">
         <v>433576</v>
       </c>
-      <c r="KK36" s="33">
+      <c r="KK36" s="5">
         <v>437587</v>
       </c>
+      <c r="KL36" s="33">
+        <v>440581</v>
+      </c>
     </row>
-    <row r="37" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -31750,11 +31849,14 @@
       <c r="KJ37" s="5">
         <v>194588</v>
       </c>
-      <c r="KK37" s="33">
+      <c r="KK37" s="5">
         <v>194943</v>
       </c>
+      <c r="KL37" s="33">
+        <v>194102</v>
+      </c>
     </row>
-    <row r="38" spans="1:297" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -32647,11 +32749,14 @@
       <c r="KJ38" s="9">
         <v>22331788</v>
       </c>
-      <c r="KK38" s="34">
+      <c r="KK38" s="9">
         <v>22389835</v>
       </c>
+      <c r="KL38" s="34">
+        <v>22480803</v>
+      </c>
     </row>
-    <row r="40" spans="1:297" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:298" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>

--- a/Historicos/ta__entidad.xlsx
+++ b/Historicos/ta__entidad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.garcia\Documents\GitHub\SIE\Historicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F39D49-EC4D-4412-9200-6BB6AFF90F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F99C182-CACD-4C9F-AC82-4E8E1F62AA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="49">
   <si>
     <t>AGUASCALIENTES</t>
   </si>
@@ -569,7 +569,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -805,6 +805,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -851,7 +873,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -929,12 +951,13 @@
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1281,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:KL40"/>
+  <dimension ref="A1:KM40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="JY1" activePane="topRight" state="frozen"/>
@@ -1384,18 +1407,18 @@
     <col min="292" max="292" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:298" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:299" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="14">
@@ -2286,12 +2309,15 @@
       <c r="KK4" s="31">
         <v>2024</v>
       </c>
-      <c r="KL4" s="32">
+      <c r="KL4" s="31">
         <v>2024</v>
       </c>
+      <c r="KM4" s="32">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="5" spans="1:298" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+    <row r="5" spans="1:299" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
       <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
@@ -3180,11 +3206,14 @@
       <c r="KK5" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="KL5" s="39" t="s">
+      <c r="KL5" s="38" t="s">
         <v>37</v>
       </c>
+      <c r="KM5" s="40" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -4076,11 +4105,14 @@
       <c r="KK6" s="5">
         <v>357919</v>
       </c>
-      <c r="KL6" s="33">
+      <c r="KL6" s="5">
         <v>360674</v>
       </c>
+      <c r="KM6" s="33">
+        <v>362300</v>
+      </c>
     </row>
-    <row r="7" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -4972,11 +5004,14 @@
       <c r="KK7" s="5">
         <v>1035508</v>
       </c>
-      <c r="KL7" s="33">
+      <c r="KL7" s="5">
         <v>1041897</v>
       </c>
+      <c r="KM7" s="33">
+        <v>1043312</v>
+      </c>
     </row>
-    <row r="8" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -5868,11 +5903,14 @@
       <c r="KK8" s="5">
         <v>221135</v>
       </c>
-      <c r="KL8" s="33">
+      <c r="KL8" s="5">
         <v>223662</v>
       </c>
+      <c r="KM8" s="33">
+        <v>227577</v>
+      </c>
     </row>
-    <row r="9" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -6764,11 +6802,14 @@
       <c r="KK9" s="5">
         <v>142455</v>
       </c>
-      <c r="KL9" s="33">
+      <c r="KL9" s="5">
         <v>142760</v>
       </c>
+      <c r="KM9" s="33">
+        <v>141030</v>
+      </c>
     </row>
-    <row r="10" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -7660,11 +7701,14 @@
       <c r="KK10" s="5">
         <v>263221</v>
       </c>
-      <c r="KL10" s="33">
+      <c r="KL10" s="5">
         <v>266609</v>
       </c>
+      <c r="KM10" s="33">
+        <v>264417</v>
+      </c>
     </row>
-    <row r="11" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -8556,11 +8600,14 @@
       <c r="KK11" s="5">
         <v>978501</v>
       </c>
-      <c r="KL11" s="33">
+      <c r="KL11" s="5">
         <v>977476</v>
       </c>
+      <c r="KM11" s="33">
+        <v>981908</v>
+      </c>
     </row>
-    <row r="12" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
@@ -9452,11 +9499,14 @@
       <c r="KK12" s="5">
         <v>3531256</v>
       </c>
-      <c r="KL12" s="33">
+      <c r="KL12" s="5">
         <v>3529845</v>
       </c>
+      <c r="KM12" s="33">
+        <v>3541026</v>
+      </c>
     </row>
-    <row r="13" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -10348,11 +10398,14 @@
       <c r="KK13" s="5">
         <v>873147</v>
       </c>
-      <c r="KL13" s="33">
+      <c r="KL13" s="5">
         <v>876248</v>
       </c>
+      <c r="KM13" s="33">
+        <v>881923</v>
+      </c>
     </row>
-    <row r="14" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -11244,11 +11297,14 @@
       <c r="KK14" s="5">
         <v>152836</v>
       </c>
-      <c r="KL14" s="33">
+      <c r="KL14" s="5">
         <v>152996</v>
       </c>
+      <c r="KM14" s="33">
+        <v>153022</v>
+      </c>
     </row>
-    <row r="15" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -12140,11 +12196,14 @@
       <c r="KK15" s="5">
         <v>258262</v>
       </c>
-      <c r="KL15" s="33">
+      <c r="KL15" s="5">
         <v>259061</v>
       </c>
+      <c r="KM15" s="33">
+        <v>261139</v>
+      </c>
     </row>
-    <row r="16" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -13036,11 +13095,14 @@
       <c r="KK16" s="5">
         <v>1869039</v>
       </c>
-      <c r="KL16" s="33">
+      <c r="KL16" s="5">
         <v>1888802</v>
       </c>
+      <c r="KM16" s="33">
+        <v>1909825</v>
+      </c>
     </row>
-    <row r="17" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13932,11 +13994,14 @@
       <c r="KK17" s="5">
         <v>1121380</v>
       </c>
-      <c r="KL17" s="33">
+      <c r="KL17" s="5">
         <v>1123778</v>
       </c>
+      <c r="KM17" s="33">
+        <v>1129894</v>
+      </c>
     </row>
-    <row r="18" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -14828,11 +14893,14 @@
       <c r="KK18" s="5">
         <v>163956</v>
       </c>
-      <c r="KL18" s="33">
+      <c r="KL18" s="5">
         <v>163119</v>
       </c>
+      <c r="KM18" s="33">
+        <v>163885</v>
+      </c>
     </row>
-    <row r="19" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -15724,11 +15792,14 @@
       <c r="KK19" s="5">
         <v>283925</v>
       </c>
-      <c r="KL19" s="33">
+      <c r="KL19" s="5">
         <v>283915</v>
       </c>
+      <c r="KM19" s="33">
+        <v>287205</v>
+      </c>
     </row>
-    <row r="20" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>12</v>
       </c>
@@ -16620,11 +16691,14 @@
       <c r="KK20" s="23">
         <v>2021895</v>
       </c>
-      <c r="KL20" s="35">
+      <c r="KL20" s="23">
         <v>2034793</v>
       </c>
+      <c r="KM20" s="35">
+        <v>2054478</v>
+      </c>
     </row>
-    <row r="21" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -17516,11 +17590,14 @@
       <c r="KK21" s="5">
         <v>478627</v>
       </c>
-      <c r="KL21" s="33">
+      <c r="KL21" s="5">
         <v>480848</v>
       </c>
+      <c r="KM21" s="33">
+        <v>488163</v>
+      </c>
     </row>
-    <row r="22" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -18412,11 +18489,14 @@
       <c r="KK22" s="5">
         <v>219892</v>
       </c>
-      <c r="KL22" s="33">
+      <c r="KL22" s="5">
         <v>220418</v>
       </c>
+      <c r="KM22" s="33">
+        <v>221685</v>
+      </c>
     </row>
-    <row r="23" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>14</v>
       </c>
@@ -19308,11 +19388,14 @@
       <c r="KK23" s="5">
         <v>185756</v>
       </c>
-      <c r="KL23" s="33">
+      <c r="KL23" s="5">
         <v>184812</v>
       </c>
+      <c r="KM23" s="33">
+        <v>186939</v>
+      </c>
     </row>
-    <row r="24" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -20204,11 +20287,14 @@
       <c r="KK24" s="5">
         <v>1924195</v>
       </c>
-      <c r="KL24" s="33">
+      <c r="KL24" s="5">
         <v>1934291</v>
       </c>
+      <c r="KM24" s="33">
+        <v>1953016</v>
+      </c>
     </row>
-    <row r="25" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -21100,11 +21186,14 @@
       <c r="KK25" s="5">
         <v>235618</v>
       </c>
-      <c r="KL25" s="33">
+      <c r="KL25" s="5">
         <v>236238</v>
       </c>
+      <c r="KM25" s="33">
+        <v>239643</v>
+      </c>
     </row>
-    <row r="26" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>16</v>
       </c>
@@ -21996,11 +22085,14 @@
       <c r="KK26" s="5">
         <v>662454</v>
       </c>
-      <c r="KL26" s="33">
+      <c r="KL26" s="5">
         <v>664662</v>
       </c>
+      <c r="KM26" s="33">
+        <v>667364</v>
+      </c>
     </row>
-    <row r="27" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
@@ -22892,11 +22984,14 @@
       <c r="KK27" s="5">
         <v>715563</v>
       </c>
-      <c r="KL27" s="33">
+      <c r="KL27" s="5">
         <v>718608</v>
       </c>
+      <c r="KM27" s="33">
+        <v>721592</v>
+      </c>
     </row>
-    <row r="28" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -23788,11 +23883,14 @@
       <c r="KK28" s="5">
         <v>523711</v>
       </c>
-      <c r="KL28" s="33">
+      <c r="KL28" s="5">
         <v>525514</v>
       </c>
+      <c r="KM28" s="33">
+        <v>528901</v>
+      </c>
     </row>
-    <row r="29" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -24684,11 +24782,14 @@
       <c r="KK29" s="5">
         <v>487402</v>
       </c>
-      <c r="KL29" s="33">
+      <c r="KL29" s="5">
         <v>488231</v>
       </c>
+      <c r="KM29" s="33">
+        <v>489233</v>
+      </c>
     </row>
-    <row r="30" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -25580,11 +25681,14 @@
       <c r="KK30" s="5">
         <v>585679</v>
       </c>
-      <c r="KL30" s="33">
+      <c r="KL30" s="5">
         <v>591538</v>
       </c>
+      <c r="KM30" s="33">
+        <v>598549</v>
+      </c>
     </row>
-    <row r="31" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>19</v>
       </c>
@@ -26476,11 +26580,14 @@
       <c r="KK31" s="5">
         <v>655133</v>
       </c>
-      <c r="KL31" s="33">
+      <c r="KL31" s="5">
         <v>662607</v>
       </c>
+      <c r="KM31" s="33">
+        <v>668569</v>
+      </c>
     </row>
-    <row r="32" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>20</v>
       </c>
@@ -27372,11 +27479,14 @@
       <c r="KK32" s="5">
         <v>216301</v>
       </c>
-      <c r="KL32" s="33">
+      <c r="KL32" s="5">
         <v>216298</v>
       </c>
+      <c r="KM32" s="33">
+        <v>216633</v>
+      </c>
     </row>
-    <row r="33" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
@@ -28268,11 +28378,14 @@
       <c r="KK33" s="5">
         <v>701925</v>
       </c>
-      <c r="KL33" s="33">
+      <c r="KL33" s="5">
         <v>700805</v>
       </c>
+      <c r="KM33" s="33">
+        <v>702773</v>
+      </c>
     </row>
-    <row r="34" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -29164,11 +29277,14 @@
       <c r="KK34" s="5">
         <v>117280</v>
       </c>
-      <c r="KL34" s="33">
+      <c r="KL34" s="5">
         <v>117321</v>
       </c>
+      <c r="KM34" s="33">
+        <v>117959</v>
+      </c>
     </row>
-    <row r="35" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -30060,11 +30176,14 @@
       <c r="KK35" s="5">
         <v>773334</v>
       </c>
-      <c r="KL35" s="33">
+      <c r="KL35" s="5">
         <v>778294</v>
       </c>
+      <c r="KM35" s="33">
+        <v>782395</v>
+      </c>
     </row>
-    <row r="36" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -30956,11 +31075,14 @@
       <c r="KK36" s="5">
         <v>437587</v>
       </c>
-      <c r="KL36" s="33">
+      <c r="KL36" s="5">
         <v>440581</v>
       </c>
+      <c r="KM36" s="33">
+        <v>441321</v>
+      </c>
     </row>
-    <row r="37" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
@@ -31852,11 +31974,14 @@
       <c r="KK37" s="5">
         <v>194943</v>
       </c>
-      <c r="KL37" s="33">
+      <c r="KL37" s="5">
         <v>194102</v>
       </c>
+      <c r="KM37" s="41">
+        <v>191266</v>
+      </c>
     </row>
-    <row r="38" spans="1:298" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:299" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>27</v>
       </c>
@@ -32752,11 +32877,14 @@
       <c r="KK38" s="9">
         <v>22389835</v>
       </c>
-      <c r="KL38" s="34">
+      <c r="KL38" s="9">
         <v>22480803</v>
       </c>
+      <c r="KM38" s="34">
+        <v>22618942</v>
+      </c>
     </row>
-    <row r="40" spans="1:298" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:299" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
